--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.03166</v>
+        <v>9.04196</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8608</v>
+        <v>11.8239</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8724</v>
+        <v>14.8698</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7981</v>
+        <v>16.7548</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0362</v>
+        <v>19.1098</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2389</v>
+        <v>26.1979</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6321</v>
+        <v>23.5965</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3729</v>
+        <v>24.4315</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3914</v>
+        <v>36.226</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4983</v>
+        <v>29.1211</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3645</v>
+        <v>29.4453</v>
       </c>
       <c r="D5" t="n">
-        <v>46.7246</v>
+        <v>46.5083</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3461</v>
+        <v>23.9593</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2238</v>
+        <v>22.8333</v>
       </c>
       <c r="D6" t="n">
-        <v>37.2077</v>
+        <v>37.2833</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6712</v>
+        <v>28.1952</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7423</v>
+        <v>19.6506</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1229</v>
+        <v>37.809</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.4853</v>
+        <v>29.9931</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3418</v>
+        <v>17.7991</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9239</v>
+        <v>36.5411</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7456</v>
+        <v>30.6191</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2322</v>
+        <v>16.586</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0778</v>
+        <v>31.648</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4338</v>
+        <v>31.8691</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6247</v>
+        <v>16.6552</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2448</v>
+        <v>37.5141</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.6039</v>
+        <v>29.1933</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9514</v>
+        <v>16.9317</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7777</v>
+        <v>38.696</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1041</v>
+        <v>32.0212</v>
       </c>
       <c r="C12" t="n">
-        <v>16.085</v>
+        <v>16.0848</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8479</v>
+        <v>38.562</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.3986</v>
+        <v>32.0733</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1092</v>
+        <v>16.3772</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9921</v>
+        <v>36.6898</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8368</v>
+        <v>30.7886</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6269</v>
+        <v>15.8073</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0483</v>
+        <v>39.7771</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6258</v>
+        <v>31.0243</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1519</v>
+        <v>16.3375</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9075</v>
+        <v>34.6172</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4138</v>
+        <v>30.3046</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4714</v>
+        <v>16.3003</v>
       </c>
       <c r="D16" t="n">
-        <v>39.772</v>
+        <v>40.1725</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.019</v>
+        <v>32.2738</v>
       </c>
       <c r="C17" t="n">
-        <v>15.655</v>
+        <v>16.4925</v>
       </c>
       <c r="D17" t="n">
-        <v>40.061</v>
+        <v>40.233</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.02237</v>
+        <v>9.014760000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7334</v>
+        <v>11.7263</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5767</v>
+        <v>14.5872</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.718</v>
+        <v>16.7253</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9533</v>
+        <v>18.9888</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8368</v>
+        <v>25.867</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.0151</v>
+        <v>23.2607</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2748</v>
+        <v>24.1975</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7464</v>
+        <v>35.8568</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.5299</v>
+        <v>29.5955</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3041</v>
+        <v>29.3554</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4143</v>
+        <v>46.0436</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9747</v>
+        <v>25.8655</v>
       </c>
       <c r="C6" t="n">
-        <v>22.978</v>
+        <v>23.0146</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0704</v>
+        <v>34.7699</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.0203</v>
+        <v>27.8528</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7073</v>
+        <v>19.4836</v>
       </c>
       <c r="D7" t="n">
-        <v>36.458</v>
+        <v>28.3931</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.29</v>
+        <v>29.2896</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0985</v>
+        <v>17.1334</v>
       </c>
       <c r="D8" t="n">
-        <v>23.002</v>
+        <v>12.9162</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1501</v>
+        <v>31.4791</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3237</v>
+        <v>16.3752</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6495</v>
+        <v>25.3072</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.693</v>
+        <v>32.5906</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2385</v>
+        <v>16.058</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3916</v>
+        <v>36.1843</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3848</v>
+        <v>32.0825</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3554</v>
+        <v>15.4598</v>
       </c>
       <c r="D11" t="n">
-        <v>28.931</v>
+        <v>33.6761</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2453</v>
+        <v>32.1665</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4606</v>
+        <v>15.3131</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6498</v>
+        <v>24.4303</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.102</v>
+        <v>32.3791</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3376</v>
+        <v>15.4539</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0142</v>
+        <v>36.3513</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1789</v>
+        <v>32.3403</v>
       </c>
       <c r="C14" t="n">
-        <v>15.463</v>
+        <v>15.2711</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6072</v>
+        <v>31.213</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6105</v>
+        <v>32.6472</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3018</v>
+        <v>15.6766</v>
       </c>
       <c r="D15" t="n">
-        <v>35.8512</v>
+        <v>38.823</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7213</v>
+        <v>32.7387</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5868</v>
+        <v>15.4165</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8967</v>
+        <v>37.8533</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7943</v>
+        <v>32.6481</v>
       </c>
       <c r="C17" t="n">
-        <v>15.644</v>
+        <v>15.297</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2418</v>
+        <v>40.6766</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.721830000000001</v>
+        <v>9.75653</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5423</v>
+        <v>11.5546</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2373</v>
+        <v>13.2155</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6542</v>
+        <v>17.6313</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3335</v>
+        <v>19.373</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2214</v>
+        <v>24.1683</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9056</v>
+        <v>24.9494</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0841</v>
+        <v>25.1499</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1562</v>
+        <v>34.1297</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.78</v>
+        <v>31.5999</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7009</v>
+        <v>29.8795</v>
       </c>
       <c r="D5" t="n">
-        <v>44.6243</v>
+        <v>44.6755</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4044</v>
+        <v>26.3215</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4901</v>
+        <v>18.456</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8592</v>
+        <v>34.6211</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3201</v>
+        <v>29.0275</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3911</v>
+        <v>16.4204</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2415</v>
+        <v>35.7039</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8948</v>
+        <v>31.7959</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6362</v>
+        <v>15.7672</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6323</v>
+        <v>33.2518</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3348</v>
+        <v>34.2449</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9527</v>
+        <v>14.967</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9031</v>
+        <v>34.6154</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1561</v>
+        <v>34.0444</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2955</v>
+        <v>15.9969</v>
       </c>
       <c r="D10" t="n">
-        <v>24.4438</v>
+        <v>34.9122</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2055</v>
+        <v>34.5689</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4582</v>
+        <v>15.8365</v>
       </c>
       <c r="D11" t="n">
-        <v>37.008</v>
+        <v>35.0458</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.3474</v>
+        <v>34.7024</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3526</v>
+        <v>15.5373</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1498</v>
+        <v>34.0682</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5834</v>
+        <v>34.6463</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0951</v>
+        <v>15.3003</v>
       </c>
       <c r="D13" t="n">
-        <v>32.052</v>
+        <v>36.9944</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6443</v>
+        <v>34.7974</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3318</v>
+        <v>15.3664</v>
       </c>
       <c r="D14" t="n">
-        <v>34.897</v>
+        <v>36.1704</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6539</v>
+        <v>34.8285</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6808</v>
+        <v>15.3564</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2887</v>
+        <v>38.0711</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.9711</v>
+        <v>34.7665</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4452</v>
+        <v>15.6061</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1082</v>
+        <v>36.2356</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8797</v>
+        <v>34.8454</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4801</v>
+        <v>15.5156</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6256</v>
+        <v>39.2473</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09721</v>
+        <v>8.08628</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2228</v>
+        <v>11.224</v>
       </c>
       <c r="D2" t="n">
-        <v>14.457</v>
+        <v>14.4487</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3393</v>
+        <v>15.2805</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5166</v>
+        <v>18.5179</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2626</v>
+        <v>26.2258</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.6084</v>
+        <v>21.6583</v>
       </c>
       <c r="C4" t="n">
-        <v>24.131</v>
+        <v>24.1107</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5167</v>
+        <v>36.5025</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1248</v>
+        <v>28.0278</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0307</v>
+        <v>28.0303</v>
       </c>
       <c r="D5" t="n">
-        <v>46.978</v>
+        <v>46.9713</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2707</v>
+        <v>29.3115</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3957</v>
+        <v>18.4426</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3822</v>
+        <v>39.5319</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7996</v>
+        <v>30.9464</v>
       </c>
       <c r="C7" t="n">
-        <v>17.186</v>
+        <v>17.1139</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5344</v>
+        <v>36.4495</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.566</v>
+        <v>32.429</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5087</v>
+        <v>16.4737</v>
       </c>
       <c r="D8" t="n">
-        <v>37.081</v>
+        <v>38.2362</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.767</v>
+        <v>33.6642</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2737</v>
+        <v>16.5707</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1716</v>
+        <v>36.7844</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.6641</v>
+        <v>33.6046</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5234</v>
+        <v>18.4397</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5998</v>
+        <v>37.7962</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5379</v>
+        <v>33.5257</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6429</v>
+        <v>18.7371</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4112</v>
+        <v>38.9492</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.3604</v>
+        <v>33.8832</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6123</v>
+        <v>17.9475</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3708</v>
+        <v>40.1088</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.6947</v>
+        <v>33.5263</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4415</v>
+        <v>17.448</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8286</v>
+        <v>40.8895</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.4647</v>
+        <v>33.4168</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3753</v>
+        <v>17.6857</v>
       </c>
       <c r="D14" t="n">
-        <v>41.991</v>
+        <v>41.5491</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5319</v>
+        <v>33.5133</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2072</v>
+        <v>17.489</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8606</v>
+        <v>41.5762</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.7085</v>
+        <v>33.9753</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9204</v>
+        <v>17.5141</v>
       </c>
       <c r="D16" t="n">
-        <v>41.79</v>
+        <v>42.7578</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6776</v>
+        <v>33.5673</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3752</v>
+        <v>17.358</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0192</v>
+        <v>40.7522</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11683</v>
+        <v>8.09909</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2075</v>
+        <v>11.1984</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1602</v>
+        <v>14.1478</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3919</v>
+        <v>15.3101</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5231</v>
+        <v>18.6114</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7837</v>
+        <v>25.7691</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.8325</v>
+        <v>21.7179</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3355</v>
+        <v>24.403</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9034</v>
+        <v>35.9245</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.3215</v>
+        <v>28.2652</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5111</v>
+        <v>28.5845</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2761</v>
+        <v>46.2667</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3642</v>
+        <v>29.5296</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7466</v>
+        <v>18.4644</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4859</v>
+        <v>38.9787</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.0959</v>
+        <v>30.98</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0759</v>
+        <v>17.2278</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5639</v>
+        <v>36.5341</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.7657</v>
+        <v>32.674</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3538</v>
+        <v>16.4989</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5905</v>
+        <v>36.6022</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3259</v>
+        <v>34.0632</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5549</v>
+        <v>16.2178</v>
       </c>
       <c r="D9" t="n">
-        <v>38.999</v>
+        <v>36.4625</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0359</v>
+        <v>33.8636</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0648</v>
+        <v>19.597</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1417</v>
+        <v>38.1908</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6602</v>
+        <v>34.1339</v>
       </c>
       <c r="C11" t="n">
-        <v>18.7322</v>
+        <v>18.323</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1172</v>
+        <v>38.5839</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8642</v>
+        <v>33.7174</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5728</v>
+        <v>17.3089</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7898</v>
+        <v>40.3806</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.0399</v>
+        <v>33.6251</v>
       </c>
       <c r="C13" t="n">
-        <v>17.75</v>
+        <v>17.4284</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3517</v>
+        <v>41.092</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0543</v>
+        <v>34.1161</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7311</v>
+        <v>17.3952</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8393</v>
+        <v>40.9808</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.925</v>
+        <v>33.9719</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2257</v>
+        <v>17.2446</v>
       </c>
       <c r="D15" t="n">
-        <v>42.4861</v>
+        <v>41.5043</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5843</v>
+        <v>33.9311</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5159</v>
+        <v>17.7765</v>
       </c>
       <c r="D16" t="n">
-        <v>41.032</v>
+        <v>41.8637</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8074</v>
+        <v>33.909</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6133</v>
+        <v>17.6216</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4521</v>
+        <v>41.843</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.525180000000001</v>
+        <v>9.50034</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5313</v>
+        <v>11.5142</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4697</v>
+        <v>13.4315</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8214</v>
+        <v>17.8289</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4755</v>
+        <v>19.5052</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9184</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.2949</v>
+        <v>25.3146</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7548</v>
+        <v>25.8285</v>
       </c>
       <c r="D4" t="n">
-        <v>35.253</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2062</v>
+        <v>33.209</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4337</v>
+        <v>30.4771</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2382</v>
+        <v>46.293</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.8263</v>
+        <v>32.955</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3607</v>
+        <v>19.2644</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0898</v>
+        <v>39.9577</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3088</v>
+        <v>34.7817</v>
       </c>
       <c r="C7" t="n">
-        <v>17.932</v>
+        <v>17.907</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6881</v>
+        <v>39.6963</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3772</v>
+        <v>36.3239</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2234</v>
+        <v>17.0008</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6808</v>
+        <v>36.2567</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1281</v>
+        <v>38.1812</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0313</v>
+        <v>16.8152</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0055</v>
+        <v>39.0037</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0241</v>
+        <v>37.8878</v>
       </c>
       <c r="C10" t="n">
-        <v>18.8306</v>
+        <v>20.8086</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9198</v>
+        <v>38.8414</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.8548</v>
+        <v>38.009</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9468</v>
+        <v>19.8123</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1388</v>
+        <v>39.8774</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8403</v>
+        <v>38.3024</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3933</v>
+        <v>18.3327</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6115</v>
+        <v>41.0872</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.7732</v>
+        <v>37.8075</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2664</v>
+        <v>18.6433</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5397</v>
+        <v>40.7784</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.0313</v>
+        <v>38.1555</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3828</v>
+        <v>17.6417</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2313</v>
+        <v>42.3415</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.0344</v>
+        <v>37.9911</v>
       </c>
       <c r="C15" t="n">
-        <v>17.6861</v>
+        <v>17.8255</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2848</v>
+        <v>42.2976</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.9617</v>
+        <v>37.8898</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7581</v>
+        <v>17.8327</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1151</v>
+        <v>44.8443</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.1113</v>
+        <v>38.1378</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6398</v>
+        <v>17.8783</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9754</v>
+        <v>42.8458</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.027089999999999</v>
+        <v>11.6747</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8305</v>
+        <v>15.7044</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8671</v>
+        <v>22.7497</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7662</v>
+        <v>21.1504</v>
       </c>
       <c r="C3" t="n">
-        <v>20.7871</v>
+        <v>27.3312</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2329</v>
+        <v>38.1577</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.606</v>
+        <v>28.6867</v>
       </c>
       <c r="C4" t="n">
-        <v>29.1244</v>
+        <v>38.138</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3525</v>
+        <v>51.3239</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.2281</v>
+        <v>34.5674</v>
       </c>
       <c r="C5" t="n">
-        <v>38.0581</v>
+        <v>49.433</v>
       </c>
       <c r="D5" t="n">
-        <v>43.368</v>
+        <v>63.224</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.2067</v>
+        <v>30.0749</v>
       </c>
       <c r="C6" t="n">
-        <v>35.4938</v>
+        <v>45.0944</v>
       </c>
       <c r="D6" t="n">
-        <v>37.6184</v>
+        <v>49.0429</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6855</v>
+        <v>32.9727</v>
       </c>
       <c r="C7" t="n">
-        <v>35.3521</v>
+        <v>44.1244</v>
       </c>
       <c r="D7" t="n">
-        <v>36.4784</v>
+        <v>48.5601</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.9909</v>
+        <v>34.1181</v>
       </c>
       <c r="C8" t="n">
-        <v>35.4768</v>
+        <v>43.332</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0431</v>
+        <v>43.3513</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.8612</v>
+        <v>34.427</v>
       </c>
       <c r="C9" t="n">
-        <v>36.1419</v>
+        <v>43.0837</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3226</v>
+        <v>47.4909</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.7857</v>
+        <v>35.1327</v>
       </c>
       <c r="C10" t="n">
-        <v>37.4249</v>
+        <v>44.263</v>
       </c>
       <c r="D10" t="n">
-        <v>37.803</v>
+        <v>46.9715</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.9281</v>
+        <v>34.0201</v>
       </c>
       <c r="C11" t="n">
-        <v>38.1494</v>
+        <v>44.9608</v>
       </c>
       <c r="D11" t="n">
-        <v>36.7788</v>
+        <v>44.9577</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2983</v>
+        <v>34.7971</v>
       </c>
       <c r="C12" t="n">
-        <v>38.3885</v>
+        <v>45.2634</v>
       </c>
       <c r="D12" t="n">
-        <v>38.2417</v>
+        <v>46.0399</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.3898</v>
+        <v>35.087</v>
       </c>
       <c r="C13" t="n">
-        <v>38.5974</v>
+        <v>45.6781</v>
       </c>
       <c r="D13" t="n">
-        <v>38.2038</v>
+        <v>46.9315</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.5573</v>
+        <v>33.7262</v>
       </c>
       <c r="C14" t="n">
-        <v>38.8883</v>
+        <v>45.8888</v>
       </c>
       <c r="D14" t="n">
-        <v>40.2964</v>
+        <v>46.5912</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6468</v>
+        <v>32.6172</v>
       </c>
       <c r="C15" t="n">
-        <v>38.572</v>
+        <v>45.9323</v>
       </c>
       <c r="D15" t="n">
-        <v>38.9713</v>
+        <v>46.4913</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.5393</v>
+        <v>36.0265</v>
       </c>
       <c r="C16" t="n">
-        <v>38.9516</v>
+        <v>46.2735</v>
       </c>
       <c r="D16" t="n">
-        <v>39.2495</v>
+        <v>46.9818</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.9919</v>
+        <v>31.1955</v>
       </c>
       <c r="C17" t="n">
-        <v>38.7631</v>
+        <v>46.3957</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3271</v>
+        <v>48.7039</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.002420000000001</v>
+        <v>11.5961</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7721</v>
+        <v>15.5854</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5721</v>
+        <v>22.0489</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7226</v>
+        <v>20.8652</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5728</v>
+        <v>27.084</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7573</v>
+        <v>37.2974</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.1545</v>
+        <v>28.335</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0484</v>
+        <v>37.6127</v>
       </c>
       <c r="D4" t="n">
-        <v>36.0768</v>
+        <v>50.3927</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4771</v>
+        <v>35.2241</v>
       </c>
       <c r="C5" t="n">
-        <v>37.6636</v>
+        <v>48.6817</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2341</v>
+        <v>18.354</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.6307</v>
+        <v>28.6616</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9733</v>
+        <v>42.5936</v>
       </c>
       <c r="D6" t="n">
-        <v>36.2506</v>
+        <v>26.3903</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.6743</v>
+        <v>31.6438</v>
       </c>
       <c r="C7" t="n">
-        <v>35.037</v>
+        <v>40.9923</v>
       </c>
       <c r="D7" t="n">
-        <v>31.518</v>
+        <v>10.0593</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4936</v>
+        <v>34.568</v>
       </c>
       <c r="C8" t="n">
-        <v>35.2823</v>
+        <v>40.7434</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6006</v>
+        <v>32.4368</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.401</v>
+        <v>36.6882</v>
       </c>
       <c r="C9" t="n">
-        <v>34.562</v>
+        <v>40.1416</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2848</v>
+        <v>7.81593</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.7454</v>
+        <v>36.851</v>
       </c>
       <c r="C10" t="n">
-        <v>36.954</v>
+        <v>42.3242</v>
       </c>
       <c r="D10" t="n">
-        <v>35.9223</v>
+        <v>32.8422</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.2828</v>
+        <v>36.4371</v>
       </c>
       <c r="C11" t="n">
-        <v>37.9944</v>
+        <v>44.0092</v>
       </c>
       <c r="D11" t="n">
-        <v>35.6453</v>
+        <v>43.6726</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.9686</v>
+        <v>36.3722</v>
       </c>
       <c r="C12" t="n">
-        <v>38.4151</v>
+        <v>44.748</v>
       </c>
       <c r="D12" t="n">
-        <v>31.3965</v>
+        <v>42.4075</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.3165</v>
+        <v>36.4461</v>
       </c>
       <c r="C13" t="n">
-        <v>38.5628</v>
+        <v>45.2251</v>
       </c>
       <c r="D13" t="n">
-        <v>35.2261</v>
+        <v>26.5386</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1655</v>
+        <v>36.5083</v>
       </c>
       <c r="C14" t="n">
-        <v>38.8244</v>
+        <v>45.3962</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2643</v>
+        <v>31.3233</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.5715</v>
+        <v>36.6003</v>
       </c>
       <c r="C15" t="n">
-        <v>38.8091</v>
+        <v>45.5934</v>
       </c>
       <c r="D15" t="n">
-        <v>36.2945</v>
+        <v>39.6257</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.6484</v>
+        <v>36.78</v>
       </c>
       <c r="C16" t="n">
-        <v>38.8963</v>
+        <v>45.6463</v>
       </c>
       <c r="D16" t="n">
-        <v>37.3852</v>
+        <v>35.8139</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.613</v>
+        <v>36.453</v>
       </c>
       <c r="C17" t="n">
-        <v>38.9743</v>
+        <v>45.8148</v>
       </c>
       <c r="D17" t="n">
-        <v>33.6974</v>
+        <v>45.9865</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.756790000000001</v>
+        <v>12.3224</v>
       </c>
       <c r="C2" t="n">
-        <v>11.579</v>
+        <v>15.1725</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1881</v>
+        <v>18.2855</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6464</v>
+        <v>22.0154</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5211</v>
+        <v>26.6142</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1582</v>
+        <v>33.4901</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.8606</v>
+        <v>30.6545</v>
       </c>
       <c r="C4" t="n">
-        <v>28.7204</v>
+        <v>36.6934</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1577</v>
+        <v>46.7826</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.6457</v>
+        <v>38.265</v>
       </c>
       <c r="C5" t="n">
-        <v>37.4012</v>
+        <v>47.0999</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9223</v>
+        <v>60.4697</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3316</v>
+        <v>31.0635</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6986</v>
+        <v>38.2222</v>
       </c>
       <c r="D6" t="n">
-        <v>34.819</v>
+        <v>44.0245</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.9787</v>
+        <v>34.3704</v>
       </c>
       <c r="C7" t="n">
-        <v>31.1719</v>
+        <v>35.7745</v>
       </c>
       <c r="D7" t="n">
-        <v>29.8487</v>
+        <v>12.5822</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.7098</v>
+        <v>37.6895</v>
       </c>
       <c r="C8" t="n">
-        <v>30.8972</v>
+        <v>35.0691</v>
       </c>
       <c r="D8" t="n">
-        <v>17.4507</v>
+        <v>33.2725</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.2485</v>
+        <v>40.1496</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1617</v>
+        <v>33.5457</v>
       </c>
       <c r="D9" t="n">
-        <v>32.6078</v>
+        <v>37.1717</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1317</v>
+        <v>39.6986</v>
       </c>
       <c r="C10" t="n">
-        <v>32.2541</v>
+        <v>35.064</v>
       </c>
       <c r="D10" t="n">
-        <v>35.0259</v>
+        <v>42.5539</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2071</v>
+        <v>39.9918</v>
       </c>
       <c r="C11" t="n">
-        <v>33.5934</v>
+        <v>36.7272</v>
       </c>
       <c r="D11" t="n">
-        <v>34.6565</v>
+        <v>41.5103</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.4061</v>
+        <v>40.1853</v>
       </c>
       <c r="C12" t="n">
-        <v>34.0499</v>
+        <v>37.6014</v>
       </c>
       <c r="D12" t="n">
-        <v>35.118</v>
+        <v>39.7779</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.4451</v>
+        <v>40.4837</v>
       </c>
       <c r="C13" t="n">
-        <v>34.304</v>
+        <v>37.9624</v>
       </c>
       <c r="D13" t="n">
-        <v>36.2692</v>
+        <v>42.0403</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.4959</v>
+        <v>40.9072</v>
       </c>
       <c r="C14" t="n">
-        <v>34.4546</v>
+        <v>38.1886</v>
       </c>
       <c r="D14" t="n">
-        <v>34.909</v>
+        <v>40.8113</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.7704</v>
+        <v>41.0168</v>
       </c>
       <c r="C15" t="n">
-        <v>34.607</v>
+        <v>38.5641</v>
       </c>
       <c r="D15" t="n">
-        <v>38.2375</v>
+        <v>48.2586</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.8415</v>
+        <v>41.0954</v>
       </c>
       <c r="C16" t="n">
-        <v>34.9129</v>
+        <v>38.8315</v>
       </c>
       <c r="D16" t="n">
-        <v>37.0414</v>
+        <v>29.0704</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8735</v>
+        <v>41.0411</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0003</v>
+        <v>39.5092</v>
       </c>
       <c r="D17" t="n">
-        <v>37.8413</v>
+        <v>45.5921</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.08972</v>
+        <v>10.2459</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1835</v>
+        <v>14.7495</v>
       </c>
       <c r="D2" t="n">
-        <v>14.3864</v>
+        <v>22.1169</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.2417</v>
+        <v>18.9237</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6349</v>
+        <v>25.4753</v>
       </c>
       <c r="D3" t="n">
-        <v>26.1462</v>
+        <v>38.2797</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.5093</v>
+        <v>26.2744</v>
       </c>
       <c r="C4" t="n">
-        <v>27.4075</v>
+        <v>35.3179</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3857</v>
+        <v>51.4261</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.9794</v>
+        <v>33.5248</v>
       </c>
       <c r="C5" t="n">
-        <v>36.0484</v>
+        <v>45.8964</v>
       </c>
       <c r="D5" t="n">
-        <v>46.8231</v>
+        <v>64.24120000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3372</v>
+        <v>33.3908</v>
       </c>
       <c r="C6" t="n">
-        <v>34.2129</v>
+        <v>41.6844</v>
       </c>
       <c r="D6" t="n">
-        <v>39.1896</v>
+        <v>51.4787</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.8373</v>
+        <v>34.5534</v>
       </c>
       <c r="C7" t="n">
-        <v>34.1639</v>
+        <v>41.0637</v>
       </c>
       <c r="D7" t="n">
-        <v>36.7237</v>
+        <v>45.4143</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.4228</v>
+        <v>36.3127</v>
       </c>
       <c r="C8" t="n">
-        <v>34.7086</v>
+        <v>41.2866</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6813</v>
+        <v>46.1065</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.9518</v>
+        <v>37.0952</v>
       </c>
       <c r="C9" t="n">
-        <v>35.1767</v>
+        <v>41.4133</v>
       </c>
       <c r="D9" t="n">
-        <v>36.9877</v>
+        <v>43.9407</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.875</v>
+        <v>36.8487</v>
       </c>
       <c r="C10" t="n">
-        <v>37.1944</v>
+        <v>44.7543</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1378</v>
+        <v>47.3635</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.3783</v>
+        <v>36.8194</v>
       </c>
       <c r="C11" t="n">
-        <v>38.5913</v>
+        <v>45.9738</v>
       </c>
       <c r="D11" t="n">
-        <v>39.0322</v>
+        <v>49.9057</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8027</v>
+        <v>36.852</v>
       </c>
       <c r="C12" t="n">
-        <v>38.345</v>
+        <v>46.6188</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6395</v>
+        <v>48.4343</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.8291</v>
+        <v>36.6535</v>
       </c>
       <c r="C13" t="n">
-        <v>38.5723</v>
+        <v>46.8656</v>
       </c>
       <c r="D13" t="n">
-        <v>40.2079</v>
+        <v>50.8769</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.5611</v>
+        <v>36.6337</v>
       </c>
       <c r="C14" t="n">
-        <v>38.3652</v>
+        <v>46.8819</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8747</v>
+        <v>49.1007</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.0468</v>
+        <v>36.981</v>
       </c>
       <c r="C15" t="n">
-        <v>38.7779</v>
+        <v>47.1303</v>
       </c>
       <c r="D15" t="n">
-        <v>41.4586</v>
+        <v>52.2863</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.8482</v>
+        <v>36.9783</v>
       </c>
       <c r="C16" t="n">
-        <v>39.1693</v>
+        <v>46.8728</v>
       </c>
       <c r="D16" t="n">
-        <v>42.3962</v>
+        <v>51.8314</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6737</v>
+        <v>37.0626</v>
       </c>
       <c r="C17" t="n">
-        <v>39.0151</v>
+        <v>47.2058</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4755</v>
+        <v>52.2792</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09577</v>
+        <v>10.2965</v>
       </c>
       <c r="C2" t="n">
-        <v>11.155</v>
+        <v>14.7034</v>
       </c>
       <c r="D2" t="n">
-        <v>14.0996</v>
+        <v>21.3579</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3241</v>
+        <v>18.9957</v>
       </c>
       <c r="C3" t="n">
-        <v>19.7508</v>
+        <v>25.7231</v>
       </c>
       <c r="D3" t="n">
-        <v>25.6638</v>
+        <v>37.3258</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.7335</v>
+        <v>26.4394</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6976</v>
+        <v>35.7817</v>
       </c>
       <c r="D4" t="n">
-        <v>35.7984</v>
+        <v>50.2441</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.2442</v>
+        <v>33.79</v>
       </c>
       <c r="C5" t="n">
-        <v>36.3536</v>
+        <v>46.5107</v>
       </c>
       <c r="D5" t="n">
-        <v>46.1674</v>
+        <v>63.2013</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3827</v>
+        <v>33.7239</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3814</v>
+        <v>42.0126</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6823</v>
+        <v>50.6475</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.8746</v>
+        <v>35.151</v>
       </c>
       <c r="C7" t="n">
-        <v>34.2016</v>
+        <v>41.0892</v>
       </c>
       <c r="D7" t="n">
-        <v>35.6475</v>
+        <v>49.7606</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.6774</v>
+        <v>36.5917</v>
       </c>
       <c r="C8" t="n">
-        <v>34.8186</v>
+        <v>41.4835</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0814</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.1728</v>
+        <v>37.9158</v>
       </c>
       <c r="C9" t="n">
-        <v>35.2829</v>
+        <v>41.5265</v>
       </c>
       <c r="D9" t="n">
-        <v>35.7933</v>
+        <v>47.873</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.3882</v>
+        <v>37.5181</v>
       </c>
       <c r="C10" t="n">
-        <v>37.5234</v>
+        <v>44.4142</v>
       </c>
       <c r="D10" t="n">
-        <v>38.3394</v>
+        <v>48.1691</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6024</v>
+        <v>37.5004</v>
       </c>
       <c r="C11" t="n">
-        <v>38.1277</v>
+        <v>45.9431</v>
       </c>
       <c r="D11" t="n">
-        <v>39.2056</v>
+        <v>48.6702</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.7961</v>
+        <v>37.2042</v>
       </c>
       <c r="C12" t="n">
-        <v>37.6157</v>
+        <v>46.5922</v>
       </c>
       <c r="D12" t="n">
-        <v>40.8546</v>
+        <v>49.6976</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.048</v>
+        <v>37.6492</v>
       </c>
       <c r="C13" t="n">
-        <v>38.1956</v>
+        <v>46.7647</v>
       </c>
       <c r="D13" t="n">
-        <v>40.4441</v>
+        <v>50.7548</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.8626</v>
+        <v>37.6256</v>
       </c>
       <c r="C14" t="n">
-        <v>38.1113</v>
+        <v>47.2597</v>
       </c>
       <c r="D14" t="n">
-        <v>41.5118</v>
+        <v>50.3714</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5528</v>
+        <v>37.7521</v>
       </c>
       <c r="C15" t="n">
-        <v>38.3362</v>
+        <v>47.051</v>
       </c>
       <c r="D15" t="n">
-        <v>41.4872</v>
+        <v>51.0741</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.8495</v>
+        <v>37.2849</v>
       </c>
       <c r="C16" t="n">
-        <v>38.6736</v>
+        <v>47.1733</v>
       </c>
       <c r="D16" t="n">
-        <v>42.2198</v>
+        <v>51.4261</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.9439</v>
+        <v>37.4548</v>
       </c>
       <c r="C17" t="n">
-        <v>38.8839</v>
+        <v>47.1273</v>
       </c>
       <c r="D17" t="n">
-        <v>41.3966</v>
+        <v>51.2831</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.486940000000001</v>
+        <v>11.9577</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5388</v>
+        <v>15.1378</v>
       </c>
       <c r="D2" t="n">
-        <v>13.3641</v>
+        <v>18.8657</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7859</v>
+        <v>22.3901</v>
       </c>
       <c r="C3" t="n">
-        <v>20.4664</v>
+        <v>26.6767</v>
       </c>
       <c r="D3" t="n">
-        <v>24.7776</v>
+        <v>34.7793</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.1991</v>
+        <v>31.3283</v>
       </c>
       <c r="C4" t="n">
-        <v>28.7637</v>
+        <v>37.0711</v>
       </c>
       <c r="D4" t="n">
-        <v>35.2664</v>
+        <v>48.9339</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.1576</v>
+        <v>40.8433</v>
       </c>
       <c r="C5" t="n">
-        <v>37.7157</v>
+        <v>48.1139</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2365</v>
+        <v>63.626</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.0951</v>
+        <v>39.9898</v>
       </c>
       <c r="C6" t="n">
-        <v>34.4079</v>
+        <v>40.99</v>
       </c>
       <c r="D6" t="n">
-        <v>39.173</v>
+        <v>51.6177</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.4729</v>
+        <v>40.9865</v>
       </c>
       <c r="C7" t="n">
-        <v>33.6796</v>
+        <v>39.6247</v>
       </c>
       <c r="D7" t="n">
-        <v>36.2308</v>
+        <v>47.1913</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.0019</v>
+        <v>43.0491</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8877</v>
+        <v>39.5279</v>
       </c>
       <c r="D8" t="n">
-        <v>37.1893</v>
+        <v>47.9898</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.2295</v>
+        <v>44.6637</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9586</v>
+        <v>39.0789</v>
       </c>
       <c r="D9" t="n">
-        <v>34.8672</v>
+        <v>49.5067</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.1171</v>
+        <v>44.3</v>
       </c>
       <c r="C10" t="n">
-        <v>35.7148</v>
+        <v>41.3582</v>
       </c>
       <c r="D10" t="n">
-        <v>39.8788</v>
+        <v>48.9574</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>38.0329</v>
+        <v>44.6604</v>
       </c>
       <c r="C11" t="n">
-        <v>37.6146</v>
+        <v>43.1339</v>
       </c>
       <c r="D11" t="n">
-        <v>39.2707</v>
+        <v>49.1285</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8425</v>
+        <v>44.6513</v>
       </c>
       <c r="C12" t="n">
-        <v>37.3391</v>
+        <v>44.4858</v>
       </c>
       <c r="D12" t="n">
-        <v>40.8215</v>
+        <v>51.591</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.8539</v>
+        <v>44.8839</v>
       </c>
       <c r="C13" t="n">
-        <v>37.4085</v>
+        <v>44.6357</v>
       </c>
       <c r="D13" t="n">
-        <v>40.6377</v>
+        <v>50.8345</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.994</v>
+        <v>45.0381</v>
       </c>
       <c r="C14" t="n">
-        <v>38.0688</v>
+        <v>44.2109</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2756</v>
+        <v>53.5938</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.754</v>
+        <v>44.3715</v>
       </c>
       <c r="C15" t="n">
-        <v>37.7378</v>
+        <v>44.1618</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3688</v>
+        <v>53.8667</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.9768</v>
+        <v>44.4334</v>
       </c>
       <c r="C16" t="n">
-        <v>38.3371</v>
+        <v>44.0458</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1212</v>
+        <v>54.8463</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>37.9555</v>
+        <v>44.7588</v>
       </c>
       <c r="C17" t="n">
-        <v>38.0374</v>
+        <v>44.4825</v>
       </c>
       <c r="D17" t="n">
-        <v>42.1579</v>
+        <v>54.0541</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.6747</v>
+        <v>11.6091</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7044</v>
+        <v>15.7936</v>
       </c>
       <c r="D2" t="n">
-        <v>22.7497</v>
+        <v>22.7725</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.1504</v>
+        <v>21.0986</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3312</v>
+        <v>27.4647</v>
       </c>
       <c r="D3" t="n">
-        <v>38.1577</v>
+        <v>38.1792</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.6867</v>
+        <v>28.8767</v>
       </c>
       <c r="C4" t="n">
-        <v>38.138</v>
+        <v>38.1375</v>
       </c>
       <c r="D4" t="n">
-        <v>51.3239</v>
+        <v>51.179</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.5674</v>
+        <v>34.537</v>
       </c>
       <c r="C5" t="n">
-        <v>49.433</v>
+        <v>49.4665</v>
       </c>
       <c r="D5" t="n">
-        <v>63.224</v>
+        <v>43.5668</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30.0749</v>
+        <v>30.2729</v>
       </c>
       <c r="C6" t="n">
-        <v>45.0944</v>
+        <v>44.9359</v>
       </c>
       <c r="D6" t="n">
-        <v>49.0429</v>
+        <v>48.4456</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.9727</v>
+        <v>31.6459</v>
       </c>
       <c r="C7" t="n">
-        <v>44.1244</v>
+        <v>44.105</v>
       </c>
       <c r="D7" t="n">
-        <v>48.5601</v>
+        <v>49.5282</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.1181</v>
+        <v>33.9294</v>
       </c>
       <c r="C8" t="n">
-        <v>43.332</v>
+        <v>43.393</v>
       </c>
       <c r="D8" t="n">
-        <v>43.3513</v>
+        <v>46.9609</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.427</v>
+        <v>34.3771</v>
       </c>
       <c r="C9" t="n">
-        <v>43.0837</v>
+        <v>43.2698</v>
       </c>
       <c r="D9" t="n">
-        <v>47.4909</v>
+        <v>42.805</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.1327</v>
+        <v>35.9948</v>
       </c>
       <c r="C10" t="n">
-        <v>44.263</v>
+        <v>44.1902</v>
       </c>
       <c r="D10" t="n">
-        <v>46.9715</v>
+        <v>46.0464</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0201</v>
+        <v>36.2435</v>
       </c>
       <c r="C11" t="n">
-        <v>44.9608</v>
+        <v>45.3691</v>
       </c>
       <c r="D11" t="n">
-        <v>44.9577</v>
+        <v>46.6805</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.7971</v>
+        <v>33.5187</v>
       </c>
       <c r="C12" t="n">
-        <v>45.2634</v>
+        <v>45.8207</v>
       </c>
       <c r="D12" t="n">
-        <v>46.0399</v>
+        <v>46.7862</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.087</v>
+        <v>36.0105</v>
       </c>
       <c r="C13" t="n">
-        <v>45.6781</v>
+        <v>45.8876</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9315</v>
+        <v>46.1133</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.7262</v>
+        <v>31.4349</v>
       </c>
       <c r="C14" t="n">
-        <v>45.8888</v>
+        <v>46.0357</v>
       </c>
       <c r="D14" t="n">
-        <v>46.5912</v>
+        <v>48.6421</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6172</v>
+        <v>36.5313</v>
       </c>
       <c r="C15" t="n">
-        <v>45.9323</v>
+        <v>46.4426</v>
       </c>
       <c r="D15" t="n">
-        <v>46.4913</v>
+        <v>45.2609</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0265</v>
+        <v>36.6406</v>
       </c>
       <c r="C16" t="n">
-        <v>46.2735</v>
+        <v>46.408</v>
       </c>
       <c r="D16" t="n">
-        <v>46.9818</v>
+        <v>36.8922</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>31.1955</v>
+        <v>25.834</v>
       </c>
       <c r="C17" t="n">
-        <v>46.3957</v>
+        <v>46.5521</v>
       </c>
       <c r="D17" t="n">
-        <v>48.7039</v>
+        <v>49.8172</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5961</v>
+        <v>11.4685</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5854</v>
+        <v>15.5537</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0489</v>
+        <v>22.0588</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.8652</v>
+        <v>20.8964</v>
       </c>
       <c r="C3" t="n">
-        <v>27.084</v>
+        <v>26.9893</v>
       </c>
       <c r="D3" t="n">
-        <v>37.2974</v>
+        <v>37.3072</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.335</v>
+        <v>28.0706</v>
       </c>
       <c r="C4" t="n">
-        <v>37.6127</v>
+        <v>37.5733</v>
       </c>
       <c r="D4" t="n">
-        <v>50.3927</v>
+        <v>50.5255</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35.2241</v>
+        <v>35.3565</v>
       </c>
       <c r="C5" t="n">
-        <v>48.6817</v>
+        <v>49.0772</v>
       </c>
       <c r="D5" t="n">
-        <v>18.354</v>
+        <v>41.7363</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.6616</v>
+        <v>28.7239</v>
       </c>
       <c r="C6" t="n">
-        <v>42.5936</v>
+        <v>42.6366</v>
       </c>
       <c r="D6" t="n">
-        <v>26.3903</v>
+        <v>15.3858</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.6438</v>
+        <v>31.7736</v>
       </c>
       <c r="C7" t="n">
-        <v>40.9923</v>
+        <v>41.0977</v>
       </c>
       <c r="D7" t="n">
-        <v>10.0593</v>
+        <v>7.57291</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.568</v>
+        <v>34.4689</v>
       </c>
       <c r="C8" t="n">
-        <v>40.7434</v>
+        <v>41.0163</v>
       </c>
       <c r="D8" t="n">
-        <v>32.4368</v>
+        <v>24.6039</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.6882</v>
+        <v>36.7253</v>
       </c>
       <c r="C9" t="n">
-        <v>40.1416</v>
+        <v>41.1068</v>
       </c>
       <c r="D9" t="n">
-        <v>7.81593</v>
+        <v>25.6477</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36.851</v>
+        <v>37.5728</v>
       </c>
       <c r="C10" t="n">
-        <v>42.3242</v>
+        <v>43.4021</v>
       </c>
       <c r="D10" t="n">
-        <v>32.8422</v>
+        <v>37.3065</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.4371</v>
+        <v>36.6464</v>
       </c>
       <c r="C11" t="n">
-        <v>44.0092</v>
+        <v>44.2837</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6726</v>
+        <v>43.7651</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.3722</v>
+        <v>36.2534</v>
       </c>
       <c r="C12" t="n">
-        <v>44.748</v>
+        <v>45.0204</v>
       </c>
       <c r="D12" t="n">
-        <v>42.4075</v>
+        <v>11.6776</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.4461</v>
+        <v>36.4967</v>
       </c>
       <c r="C13" t="n">
-        <v>45.2251</v>
+        <v>45.5681</v>
       </c>
       <c r="D13" t="n">
-        <v>26.5386</v>
+        <v>19.8422</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>36.5083</v>
+        <v>36.6511</v>
       </c>
       <c r="C14" t="n">
-        <v>45.3962</v>
+        <v>45.9448</v>
       </c>
       <c r="D14" t="n">
-        <v>31.3233</v>
+        <v>18.3592</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.6003</v>
+        <v>36.6199</v>
       </c>
       <c r="C15" t="n">
-        <v>45.5934</v>
+        <v>45.9568</v>
       </c>
       <c r="D15" t="n">
-        <v>39.6257</v>
+        <v>34.479</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.78</v>
+        <v>36.6871</v>
       </c>
       <c r="C16" t="n">
-        <v>45.6463</v>
+        <v>46.1609</v>
       </c>
       <c r="D16" t="n">
-        <v>35.8139</v>
+        <v>36.1635</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.453</v>
+        <v>36.6497</v>
       </c>
       <c r="C17" t="n">
-        <v>45.8148</v>
+        <v>46.0794</v>
       </c>
       <c r="D17" t="n">
-        <v>45.9865</v>
+        <v>46.8315</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.3224</v>
+        <v>12.284</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1725</v>
+        <v>15.1497</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2855</v>
+        <v>18.2933</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.0154</v>
+        <v>22.0755</v>
       </c>
       <c r="C3" t="n">
-        <v>26.6142</v>
+        <v>26.5736</v>
       </c>
       <c r="D3" t="n">
-        <v>33.4901</v>
+        <v>33.4516</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.6545</v>
+        <v>30.7865</v>
       </c>
       <c r="C4" t="n">
-        <v>36.6934</v>
+        <v>36.6876</v>
       </c>
       <c r="D4" t="n">
-        <v>46.7826</v>
+        <v>46.791</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.265</v>
+        <v>38.4541</v>
       </c>
       <c r="C5" t="n">
-        <v>47.0999</v>
+        <v>47.0907</v>
       </c>
       <c r="D5" t="n">
-        <v>60.4697</v>
+        <v>60.4891</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.0635</v>
+        <v>30.9809</v>
       </c>
       <c r="C6" t="n">
-        <v>38.2222</v>
+        <v>38.317</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0245</v>
+        <v>43.0671</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3704</v>
+        <v>34.4022</v>
       </c>
       <c r="C7" t="n">
-        <v>35.7745</v>
+        <v>35.7524</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5822</v>
+        <v>41.4195</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.6895</v>
+        <v>37.5889</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0691</v>
+        <v>35.1169</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2725</v>
+        <v>13.9587</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.1496</v>
+        <v>39.855</v>
       </c>
       <c r="C9" t="n">
-        <v>33.5457</v>
+        <v>33.8256</v>
       </c>
       <c r="D9" t="n">
-        <v>37.1717</v>
+        <v>42.0559</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.6986</v>
+        <v>39.7807</v>
       </c>
       <c r="C10" t="n">
-        <v>35.064</v>
+        <v>35.189</v>
       </c>
       <c r="D10" t="n">
-        <v>42.5539</v>
+        <v>43.9381</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39.9918</v>
+        <v>40.0197</v>
       </c>
       <c r="C11" t="n">
-        <v>36.7272</v>
+        <v>36.6299</v>
       </c>
       <c r="D11" t="n">
-        <v>41.5103</v>
+        <v>45.1757</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.1853</v>
+        <v>40.224</v>
       </c>
       <c r="C12" t="n">
-        <v>37.6014</v>
+        <v>37.6252</v>
       </c>
       <c r="D12" t="n">
-        <v>39.7779</v>
+        <v>41.6262</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.4837</v>
+        <v>40.4306</v>
       </c>
       <c r="C13" t="n">
-        <v>37.9624</v>
+        <v>38.2615</v>
       </c>
       <c r="D13" t="n">
-        <v>42.0403</v>
+        <v>40.7285</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.9072</v>
+        <v>40.4503</v>
       </c>
       <c r="C14" t="n">
-        <v>38.1886</v>
+        <v>38.686</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8113</v>
+        <v>45.5431</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.0168</v>
+        <v>40.4548</v>
       </c>
       <c r="C15" t="n">
-        <v>38.5641</v>
+        <v>39.1759</v>
       </c>
       <c r="D15" t="n">
-        <v>48.2586</v>
+        <v>37.4138</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.0954</v>
+        <v>40.5383</v>
       </c>
       <c r="C16" t="n">
-        <v>38.8315</v>
+        <v>39.1468</v>
       </c>
       <c r="D16" t="n">
-        <v>29.0704</v>
+        <v>45.0166</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.0411</v>
+        <v>40.5962</v>
       </c>
       <c r="C17" t="n">
-        <v>39.5092</v>
+        <v>39.6038</v>
       </c>
       <c r="D17" t="n">
-        <v>45.5921</v>
+        <v>46.598</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2459</v>
+        <v>10.2912</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7495</v>
+        <v>14.7617</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1169</v>
+        <v>22.099</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.9237</v>
+        <v>18.8122</v>
       </c>
       <c r="C3" t="n">
-        <v>25.4753</v>
+        <v>25.4594</v>
       </c>
       <c r="D3" t="n">
-        <v>38.2797</v>
+        <v>38.2802</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.2744</v>
+        <v>26.3754</v>
       </c>
       <c r="C4" t="n">
-        <v>35.3179</v>
+        <v>35.3397</v>
       </c>
       <c r="D4" t="n">
-        <v>51.4261</v>
+        <v>51.4343</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.5248</v>
+        <v>33.3201</v>
       </c>
       <c r="C5" t="n">
-        <v>45.8964</v>
+        <v>45.8672</v>
       </c>
       <c r="D5" t="n">
-        <v>64.24120000000001</v>
+        <v>64.2753</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3908</v>
+        <v>33.0119</v>
       </c>
       <c r="C6" t="n">
-        <v>41.6844</v>
+        <v>41.7298</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4787</v>
+        <v>51.9887</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.5534</v>
+        <v>34.4483</v>
       </c>
       <c r="C7" t="n">
-        <v>41.0637</v>
+        <v>41.191</v>
       </c>
       <c r="D7" t="n">
-        <v>45.4143</v>
+        <v>46.3996</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3127</v>
+        <v>35.9249</v>
       </c>
       <c r="C8" t="n">
-        <v>41.2866</v>
+        <v>41.3622</v>
       </c>
       <c r="D8" t="n">
-        <v>46.1065</v>
+        <v>46.595</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37.0952</v>
+        <v>36.9933</v>
       </c>
       <c r="C9" t="n">
-        <v>41.4133</v>
+        <v>41.4995</v>
       </c>
       <c r="D9" t="n">
-        <v>43.9407</v>
+        <v>43.4692</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36.8487</v>
+        <v>37.0216</v>
       </c>
       <c r="C10" t="n">
-        <v>44.7543</v>
+        <v>43.8378</v>
       </c>
       <c r="D10" t="n">
-        <v>47.3635</v>
+        <v>46.6455</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.8194</v>
+        <v>36.7999</v>
       </c>
       <c r="C11" t="n">
-        <v>45.9738</v>
+        <v>46.0718</v>
       </c>
       <c r="D11" t="n">
-        <v>49.9057</v>
+        <v>48.0514</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.852</v>
+        <v>36.949</v>
       </c>
       <c r="C12" t="n">
-        <v>46.6188</v>
+        <v>46.6101</v>
       </c>
       <c r="D12" t="n">
-        <v>48.4343</v>
+        <v>49.2701</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.6535</v>
+        <v>36.837</v>
       </c>
       <c r="C13" t="n">
-        <v>46.8656</v>
+        <v>46.7917</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8769</v>
+        <v>51.0066</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>36.6337</v>
+        <v>36.7264</v>
       </c>
       <c r="C14" t="n">
-        <v>46.8819</v>
+        <v>46.9755</v>
       </c>
       <c r="D14" t="n">
-        <v>49.1007</v>
+        <v>50.9207</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.981</v>
+        <v>36.8116</v>
       </c>
       <c r="C15" t="n">
-        <v>47.1303</v>
+        <v>46.8567</v>
       </c>
       <c r="D15" t="n">
-        <v>52.2863</v>
+        <v>52.5011</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.9783</v>
+        <v>36.8663</v>
       </c>
       <c r="C16" t="n">
-        <v>46.8728</v>
+        <v>47.2424</v>
       </c>
       <c r="D16" t="n">
-        <v>51.8314</v>
+        <v>51.9053</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>37.0626</v>
+        <v>37.0543</v>
       </c>
       <c r="C17" t="n">
-        <v>47.2058</v>
+        <v>47.29</v>
       </c>
       <c r="D17" t="n">
-        <v>52.2792</v>
+        <v>52.0793</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2965</v>
+        <v>10.233</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7034</v>
+        <v>14.7083</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3579</v>
+        <v>21.3631</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.9957</v>
+        <v>18.9561</v>
       </c>
       <c r="C3" t="n">
-        <v>25.7231</v>
+        <v>25.6946</v>
       </c>
       <c r="D3" t="n">
-        <v>37.3258</v>
+        <v>37.335</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.4394</v>
+        <v>26.4441</v>
       </c>
       <c r="C4" t="n">
-        <v>35.7817</v>
+        <v>35.7397</v>
       </c>
       <c r="D4" t="n">
-        <v>50.2441</v>
+        <v>50.4126</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.79</v>
+        <v>33.6054</v>
       </c>
       <c r="C5" t="n">
-        <v>46.5107</v>
+        <v>46.544</v>
       </c>
       <c r="D5" t="n">
-        <v>63.2013</v>
+        <v>63.1361</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7239</v>
+        <v>33.5474</v>
       </c>
       <c r="C6" t="n">
-        <v>42.0126</v>
+        <v>42.0193</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6475</v>
+        <v>50.7628</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.151</v>
+        <v>34.9022</v>
       </c>
       <c r="C7" t="n">
-        <v>41.0892</v>
+        <v>41.3055</v>
       </c>
       <c r="D7" t="n">
-        <v>49.7606</v>
+        <v>45.7363</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.5917</v>
+        <v>36.4155</v>
       </c>
       <c r="C8" t="n">
-        <v>41.4835</v>
+        <v>41.511</v>
       </c>
       <c r="D8" t="n">
-        <v>45.72</v>
+        <v>46.7117</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37.9158</v>
+        <v>37.7045</v>
       </c>
       <c r="C9" t="n">
-        <v>41.5265</v>
+        <v>42.2053</v>
       </c>
       <c r="D9" t="n">
-        <v>47.873</v>
+        <v>45.1881</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.5181</v>
+        <v>37.8775</v>
       </c>
       <c r="C10" t="n">
-        <v>44.4142</v>
+        <v>45.1626</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1691</v>
+        <v>48.1219</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.5004</v>
+        <v>37.8445</v>
       </c>
       <c r="C11" t="n">
-        <v>45.9431</v>
+        <v>46.2036</v>
       </c>
       <c r="D11" t="n">
-        <v>48.6702</v>
+        <v>49.349</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.2042</v>
+        <v>37.7667</v>
       </c>
       <c r="C12" t="n">
-        <v>46.5922</v>
+        <v>46.6238</v>
       </c>
       <c r="D12" t="n">
-        <v>49.6976</v>
+        <v>49.3558</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.6492</v>
+        <v>37.6333</v>
       </c>
       <c r="C13" t="n">
-        <v>46.7647</v>
+        <v>47.1353</v>
       </c>
       <c r="D13" t="n">
-        <v>50.7548</v>
+        <v>49.24</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.6256</v>
+        <v>37.8374</v>
       </c>
       <c r="C14" t="n">
-        <v>47.2597</v>
+        <v>47.4173</v>
       </c>
       <c r="D14" t="n">
-        <v>50.3714</v>
+        <v>50.6376</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.7521</v>
+        <v>37.43</v>
       </c>
       <c r="C15" t="n">
-        <v>47.051</v>
+        <v>47.4692</v>
       </c>
       <c r="D15" t="n">
-        <v>51.0741</v>
+        <v>49.7215</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.2849</v>
+        <v>37.2349</v>
       </c>
       <c r="C16" t="n">
-        <v>47.1733</v>
+        <v>46.912</v>
       </c>
       <c r="D16" t="n">
-        <v>51.4261</v>
+        <v>51.8355</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>37.4548</v>
+        <v>37.3533</v>
       </c>
       <c r="C17" t="n">
-        <v>47.1273</v>
+        <v>47.3827</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2831</v>
+        <v>50.3151</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.9577</v>
+        <v>11.9435</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1378</v>
+        <v>15.1619</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8657</v>
+        <v>18.8623</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.3901</v>
+        <v>22.2734</v>
       </c>
       <c r="C3" t="n">
-        <v>26.6767</v>
+        <v>26.7725</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7793</v>
+        <v>34.7863</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.3283</v>
+        <v>31.3947</v>
       </c>
       <c r="C4" t="n">
-        <v>37.0711</v>
+        <v>37.117</v>
       </c>
       <c r="D4" t="n">
-        <v>48.9339</v>
+        <v>48.9531</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.8433</v>
+        <v>40.9031</v>
       </c>
       <c r="C5" t="n">
-        <v>48.1139</v>
+        <v>48.164</v>
       </c>
       <c r="D5" t="n">
-        <v>63.626</v>
+        <v>63.7812</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.9898</v>
+        <v>39.9803</v>
       </c>
       <c r="C6" t="n">
-        <v>40.99</v>
+        <v>41.154</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6177</v>
+        <v>52.5896</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.9865</v>
+        <v>41.1926</v>
       </c>
       <c r="C7" t="n">
-        <v>39.6247</v>
+        <v>39.6424</v>
       </c>
       <c r="D7" t="n">
-        <v>47.1913</v>
+        <v>47.0432</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.0491</v>
+        <v>43.0276</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5279</v>
+        <v>39.7728</v>
       </c>
       <c r="D8" t="n">
-        <v>47.9898</v>
+        <v>47.6527</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.6637</v>
+        <v>44.8496</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0789</v>
+        <v>39.1699</v>
       </c>
       <c r="D9" t="n">
-        <v>49.5067</v>
+        <v>45.3715</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.3</v>
+        <v>44.3849</v>
       </c>
       <c r="C10" t="n">
-        <v>41.3582</v>
+        <v>41.7069</v>
       </c>
       <c r="D10" t="n">
-        <v>48.9574</v>
+        <v>47.3168</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.6604</v>
+        <v>44.3403</v>
       </c>
       <c r="C11" t="n">
-        <v>43.1339</v>
+        <v>43.9996</v>
       </c>
       <c r="D11" t="n">
-        <v>49.1285</v>
+        <v>47.9776</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.6513</v>
+        <v>44.616</v>
       </c>
       <c r="C12" t="n">
-        <v>44.4858</v>
+        <v>43.9898</v>
       </c>
       <c r="D12" t="n">
-        <v>51.591</v>
+        <v>49.3599</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.8839</v>
+        <v>44.6167</v>
       </c>
       <c r="C13" t="n">
-        <v>44.6357</v>
+        <v>44.3102</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8345</v>
+        <v>51.6254</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.0381</v>
+        <v>44.8121</v>
       </c>
       <c r="C14" t="n">
-        <v>44.2109</v>
+        <v>44.433</v>
       </c>
       <c r="D14" t="n">
-        <v>53.5938</v>
+        <v>52.9148</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.3715</v>
+        <v>44.4537</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1618</v>
+        <v>44.5761</v>
       </c>
       <c r="D15" t="n">
-        <v>53.8667</v>
+        <v>55.1943</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.4334</v>
+        <v>44.6212</v>
       </c>
       <c r="C16" t="n">
-        <v>44.0458</v>
+        <v>44.7245</v>
       </c>
       <c r="D16" t="n">
-        <v>54.8463</v>
+        <v>54.3359</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.7588</v>
+        <v>44.7429</v>
       </c>
       <c r="C17" t="n">
-        <v>44.4825</v>
+        <v>44.8594</v>
       </c>
       <c r="D17" t="n">
-        <v>54.0541</v>
+        <v>52.846</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.6091</v>
+        <v>11.5824</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7936</v>
+        <v>15.7289</v>
       </c>
       <c r="D2" t="n">
-        <v>22.7725</v>
+        <v>22.7916</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.0986</v>
+        <v>20.9798</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4647</v>
+        <v>27.2752</v>
       </c>
       <c r="D3" t="n">
-        <v>38.1792</v>
+        <v>38.1528</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.8767</v>
+        <v>28.3172</v>
       </c>
       <c r="C4" t="n">
-        <v>38.1375</v>
+        <v>38.0965</v>
       </c>
       <c r="D4" t="n">
-        <v>51.179</v>
+        <v>51.2393</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.537</v>
+        <v>34.9101</v>
       </c>
       <c r="C5" t="n">
-        <v>49.4665</v>
+        <v>49.3653</v>
       </c>
       <c r="D5" t="n">
-        <v>43.5668</v>
+        <v>63.6409</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30.2729</v>
+        <v>30.5857</v>
       </c>
       <c r="C6" t="n">
-        <v>44.9359</v>
+        <v>44.9257</v>
       </c>
       <c r="D6" t="n">
-        <v>48.4456</v>
+        <v>50.4662</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.6459</v>
+        <v>32.5548</v>
       </c>
       <c r="C7" t="n">
-        <v>44.105</v>
+        <v>44.2468</v>
       </c>
       <c r="D7" t="n">
-        <v>49.5282</v>
+        <v>43.7477</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.9294</v>
+        <v>33.0824</v>
       </c>
       <c r="C8" t="n">
-        <v>43.393</v>
+        <v>43.3215</v>
       </c>
       <c r="D8" t="n">
-        <v>46.9609</v>
+        <v>39.9316</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3771</v>
+        <v>33.6913</v>
       </c>
       <c r="C9" t="n">
-        <v>43.2698</v>
+        <v>43.4505</v>
       </c>
       <c r="D9" t="n">
-        <v>42.805</v>
+        <v>43.5821</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.9948</v>
+        <v>35.7067</v>
       </c>
       <c r="C10" t="n">
-        <v>44.1902</v>
+        <v>44.4949</v>
       </c>
       <c r="D10" t="n">
-        <v>46.0464</v>
+        <v>27.6345</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.2435</v>
+        <v>34.6972</v>
       </c>
       <c r="C11" t="n">
-        <v>45.3691</v>
+        <v>45.1062</v>
       </c>
       <c r="D11" t="n">
-        <v>46.6805</v>
+        <v>42.7905</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.5187</v>
+        <v>36.262</v>
       </c>
       <c r="C12" t="n">
-        <v>45.8207</v>
+        <v>45.6957</v>
       </c>
       <c r="D12" t="n">
-        <v>46.7862</v>
+        <v>39.3527</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.0105</v>
+        <v>36.8479</v>
       </c>
       <c r="C13" t="n">
-        <v>45.8876</v>
+        <v>45.99</v>
       </c>
       <c r="D13" t="n">
-        <v>46.1133</v>
+        <v>49.0432</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31.4349</v>
+        <v>34.5209</v>
       </c>
       <c r="C14" t="n">
-        <v>46.0357</v>
+        <v>46.1655</v>
       </c>
       <c r="D14" t="n">
-        <v>48.6421</v>
+        <v>34.5363</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.5313</v>
+        <v>34.9306</v>
       </c>
       <c r="C15" t="n">
-        <v>46.4426</v>
+        <v>46.3902</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2609</v>
+        <v>49.3273</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.6406</v>
+        <v>34.3585</v>
       </c>
       <c r="C16" t="n">
-        <v>46.408</v>
+        <v>46.2595</v>
       </c>
       <c r="D16" t="n">
-        <v>36.8922</v>
+        <v>48.2203</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.834</v>
+        <v>35.1885</v>
       </c>
       <c r="C17" t="n">
-        <v>46.5521</v>
+        <v>46.318</v>
       </c>
       <c r="D17" t="n">
-        <v>49.8172</v>
+        <v>48.9667</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.4685</v>
+        <v>11.5232</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5537</v>
+        <v>15.5141</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0588</v>
+        <v>22.0249</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.8964</v>
+        <v>20.8988</v>
       </c>
       <c r="C3" t="n">
-        <v>26.9893</v>
+        <v>26.9305</v>
       </c>
       <c r="D3" t="n">
-        <v>37.3072</v>
+        <v>37.2469</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.0706</v>
+        <v>28.3766</v>
       </c>
       <c r="C4" t="n">
-        <v>37.5733</v>
+        <v>37.6149</v>
       </c>
       <c r="D4" t="n">
-        <v>50.5255</v>
+        <v>50.2905</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35.3565</v>
+        <v>35.4343</v>
       </c>
       <c r="C5" t="n">
-        <v>49.0772</v>
+        <v>48.8907</v>
       </c>
       <c r="D5" t="n">
-        <v>41.7363</v>
+        <v>63.1562</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.7239</v>
+        <v>28.509</v>
       </c>
       <c r="C6" t="n">
-        <v>42.6366</v>
+        <v>42.5927</v>
       </c>
       <c r="D6" t="n">
-        <v>15.3858</v>
+        <v>48.1175</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.7736</v>
+        <v>33.2883</v>
       </c>
       <c r="C7" t="n">
-        <v>41.0977</v>
+        <v>41.8752</v>
       </c>
       <c r="D7" t="n">
-        <v>7.57291</v>
+        <v>18.3352</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.4689</v>
+        <v>35.7652</v>
       </c>
       <c r="C8" t="n">
-        <v>41.0163</v>
+        <v>40.8272</v>
       </c>
       <c r="D8" t="n">
-        <v>24.6039</v>
+        <v>19.7154</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.7253</v>
+        <v>36.4611</v>
       </c>
       <c r="C9" t="n">
-        <v>41.1068</v>
+        <v>40.2524</v>
       </c>
       <c r="D9" t="n">
-        <v>25.6477</v>
+        <v>29.3501</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.5728</v>
+        <v>36.7744</v>
       </c>
       <c r="C10" t="n">
-        <v>43.4021</v>
+        <v>42.6223</v>
       </c>
       <c r="D10" t="n">
-        <v>37.3065</v>
+        <v>42.348</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.6464</v>
+        <v>36.4679</v>
       </c>
       <c r="C11" t="n">
-        <v>44.2837</v>
+        <v>44.4303</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7651</v>
+        <v>25.4877</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.2534</v>
+        <v>36.3622</v>
       </c>
       <c r="C12" t="n">
-        <v>45.0204</v>
+        <v>45.0562</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6776</v>
+        <v>35.0461</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.4967</v>
+        <v>36.5824</v>
       </c>
       <c r="C13" t="n">
-        <v>45.5681</v>
+        <v>45.5944</v>
       </c>
       <c r="D13" t="n">
-        <v>19.8422</v>
+        <v>44.4486</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>36.6511</v>
+        <v>36.3994</v>
       </c>
       <c r="C14" t="n">
-        <v>45.9448</v>
+        <v>45.7826</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3592</v>
+        <v>44.0623</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.6199</v>
+        <v>36.5237</v>
       </c>
       <c r="C15" t="n">
-        <v>45.9568</v>
+        <v>45.9494</v>
       </c>
       <c r="D15" t="n">
-        <v>34.479</v>
+        <v>47.4321</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.6871</v>
+        <v>36.6803</v>
       </c>
       <c r="C16" t="n">
-        <v>46.1609</v>
+        <v>46.0357</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1635</v>
+        <v>47.8202</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.6497</v>
+        <v>36.4481</v>
       </c>
       <c r="C17" t="n">
-        <v>46.0794</v>
+        <v>46.2277</v>
       </c>
       <c r="D17" t="n">
-        <v>46.8315</v>
+        <v>48.7443</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.284</v>
+        <v>12.3479</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1497</v>
+        <v>15.1361</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2933</v>
+        <v>18.4691</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.0755</v>
+        <v>22.4007</v>
       </c>
       <c r="C3" t="n">
-        <v>26.5736</v>
+        <v>26.5436</v>
       </c>
       <c r="D3" t="n">
-        <v>33.4516</v>
+        <v>33.6606</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.7865</v>
+        <v>30.9212</v>
       </c>
       <c r="C4" t="n">
-        <v>36.6876</v>
+        <v>36.5164</v>
       </c>
       <c r="D4" t="n">
-        <v>46.791</v>
+        <v>46.9982</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.4541</v>
+        <v>39.2963</v>
       </c>
       <c r="C5" t="n">
-        <v>47.0907</v>
+        <v>47.0379</v>
       </c>
       <c r="D5" t="n">
-        <v>60.4891</v>
+        <v>58.5624</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30.9809</v>
+        <v>30.922</v>
       </c>
       <c r="C6" t="n">
-        <v>38.317</v>
+        <v>38.3885</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0671</v>
+        <v>44.0199</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.4022</v>
+        <v>34.6076</v>
       </c>
       <c r="C7" t="n">
-        <v>35.7524</v>
+        <v>35.8391</v>
       </c>
       <c r="D7" t="n">
-        <v>41.4195</v>
+        <v>39.6129</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.5889</v>
+        <v>37.6506</v>
       </c>
       <c r="C8" t="n">
-        <v>35.1169</v>
+        <v>35.1321</v>
       </c>
       <c r="D8" t="n">
-        <v>13.9587</v>
+        <v>36.4153</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.855</v>
+        <v>39.9926</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8256</v>
+        <v>33.7831</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0559</v>
+        <v>42.5632</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.7807</v>
+        <v>40.0035</v>
       </c>
       <c r="C10" t="n">
-        <v>35.189</v>
+        <v>35.1314</v>
       </c>
       <c r="D10" t="n">
-        <v>43.9381</v>
+        <v>26.5518</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.0197</v>
+        <v>40.0705</v>
       </c>
       <c r="C11" t="n">
-        <v>36.6299</v>
+        <v>37.1504</v>
       </c>
       <c r="D11" t="n">
-        <v>45.1757</v>
+        <v>42.6797</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.224</v>
+        <v>40.2631</v>
       </c>
       <c r="C12" t="n">
-        <v>37.6252</v>
+        <v>37.6097</v>
       </c>
       <c r="D12" t="n">
-        <v>41.6262</v>
+        <v>44.092</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.4306</v>
+        <v>40.3395</v>
       </c>
       <c r="C13" t="n">
-        <v>38.2615</v>
+        <v>37.8415</v>
       </c>
       <c r="D13" t="n">
-        <v>40.7285</v>
+        <v>33.899</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.4503</v>
+        <v>40.4794</v>
       </c>
       <c r="C14" t="n">
-        <v>38.686</v>
+        <v>38.2419</v>
       </c>
       <c r="D14" t="n">
-        <v>45.5431</v>
+        <v>47.5788</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.4548</v>
+        <v>40.5903</v>
       </c>
       <c r="C15" t="n">
-        <v>39.1759</v>
+        <v>38.7131</v>
       </c>
       <c r="D15" t="n">
-        <v>37.4138</v>
+        <v>44.5231</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.5383</v>
+        <v>40.7202</v>
       </c>
       <c r="C16" t="n">
-        <v>39.1468</v>
+        <v>38.805</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0166</v>
+        <v>47.3941</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.5962</v>
+        <v>40.6887</v>
       </c>
       <c r="C17" t="n">
-        <v>39.6038</v>
+        <v>38.944</v>
       </c>
       <c r="D17" t="n">
-        <v>46.598</v>
+        <v>48.5663</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2912</v>
+        <v>10.2611</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7617</v>
+        <v>14.7071</v>
       </c>
       <c r="D2" t="n">
-        <v>22.099</v>
+        <v>22.1235</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.8122</v>
+        <v>18.9623</v>
       </c>
       <c r="C3" t="n">
-        <v>25.4594</v>
+        <v>25.4223</v>
       </c>
       <c r="D3" t="n">
-        <v>38.2802</v>
+        <v>38.3333</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.3754</v>
+        <v>26.2818</v>
       </c>
       <c r="C4" t="n">
-        <v>35.3397</v>
+        <v>35.1745</v>
       </c>
       <c r="D4" t="n">
-        <v>51.4343</v>
+        <v>51.4629</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.3201</v>
+        <v>33.4366</v>
       </c>
       <c r="C5" t="n">
-        <v>45.8672</v>
+        <v>45.7722</v>
       </c>
       <c r="D5" t="n">
-        <v>64.2753</v>
+        <v>64.1885</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.0119</v>
+        <v>33.2642</v>
       </c>
       <c r="C6" t="n">
-        <v>41.7298</v>
+        <v>41.8171</v>
       </c>
       <c r="D6" t="n">
-        <v>51.9887</v>
+        <v>51.3691</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.4483</v>
+        <v>34.5349</v>
       </c>
       <c r="C7" t="n">
-        <v>41.191</v>
+        <v>41.1641</v>
       </c>
       <c r="D7" t="n">
-        <v>46.3996</v>
+        <v>45.5369</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.9249</v>
+        <v>36.0438</v>
       </c>
       <c r="C8" t="n">
-        <v>41.3622</v>
+        <v>41.4775</v>
       </c>
       <c r="D8" t="n">
-        <v>46.595</v>
+        <v>46.5664</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.9933</v>
+        <v>36.9483</v>
       </c>
       <c r="C9" t="n">
-        <v>41.4995</v>
+        <v>41.5307</v>
       </c>
       <c r="D9" t="n">
-        <v>43.4692</v>
+        <v>41.0378</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.0216</v>
+        <v>37.2876</v>
       </c>
       <c r="C10" t="n">
-        <v>43.8378</v>
+        <v>44.2922</v>
       </c>
       <c r="D10" t="n">
-        <v>46.6455</v>
+        <v>47.5148</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.7999</v>
+        <v>37.1691</v>
       </c>
       <c r="C11" t="n">
-        <v>46.0718</v>
+        <v>46.0007</v>
       </c>
       <c r="D11" t="n">
-        <v>48.0514</v>
+        <v>47.1627</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.949</v>
+        <v>36.7421</v>
       </c>
       <c r="C12" t="n">
-        <v>46.6101</v>
+        <v>46.6815</v>
       </c>
       <c r="D12" t="n">
-        <v>49.2701</v>
+        <v>49.4926</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.837</v>
+        <v>37.0165</v>
       </c>
       <c r="C13" t="n">
-        <v>46.7917</v>
+        <v>47.0094</v>
       </c>
       <c r="D13" t="n">
-        <v>51.0066</v>
+        <v>49.2502</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>36.7264</v>
+        <v>37.0396</v>
       </c>
       <c r="C14" t="n">
-        <v>46.9755</v>
+        <v>47.1864</v>
       </c>
       <c r="D14" t="n">
-        <v>50.9207</v>
+        <v>48.8646</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.8116</v>
+        <v>37.0969</v>
       </c>
       <c r="C15" t="n">
-        <v>46.8567</v>
+        <v>47.3026</v>
       </c>
       <c r="D15" t="n">
-        <v>52.5011</v>
+        <v>51.2539</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.8663</v>
+        <v>36.7276</v>
       </c>
       <c r="C16" t="n">
-        <v>47.2424</v>
+        <v>46.8803</v>
       </c>
       <c r="D16" t="n">
-        <v>51.9053</v>
+        <v>52.0452</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>37.0543</v>
+        <v>36.9873</v>
       </c>
       <c r="C17" t="n">
-        <v>47.29</v>
+        <v>47.4277</v>
       </c>
       <c r="D17" t="n">
-        <v>52.0793</v>
+        <v>49.8986</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.233</v>
+        <v>10.2533</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7083</v>
+        <v>14.6542</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3631</v>
+        <v>21.3386</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.9561</v>
+        <v>19.0163</v>
       </c>
       <c r="C3" t="n">
-        <v>25.6946</v>
+        <v>25.5927</v>
       </c>
       <c r="D3" t="n">
-        <v>37.335</v>
+        <v>37.329</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.4441</v>
+        <v>26.4742</v>
       </c>
       <c r="C4" t="n">
-        <v>35.7397</v>
+        <v>35.6225</v>
       </c>
       <c r="D4" t="n">
-        <v>50.4126</v>
+        <v>50.3555</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.6054</v>
+        <v>33.7792</v>
       </c>
       <c r="C5" t="n">
-        <v>46.544</v>
+        <v>46.3866</v>
       </c>
       <c r="D5" t="n">
-        <v>63.1361</v>
+        <v>63.153</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.5474</v>
+        <v>33.697</v>
       </c>
       <c r="C6" t="n">
-        <v>42.0193</v>
+        <v>42.1438</v>
       </c>
       <c r="D6" t="n">
-        <v>50.7628</v>
+        <v>51.1203</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9022</v>
+        <v>35.0786</v>
       </c>
       <c r="C7" t="n">
-        <v>41.3055</v>
+        <v>41.239</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7363</v>
+        <v>34.4917</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.4155</v>
+        <v>36.6244</v>
       </c>
       <c r="C8" t="n">
-        <v>41.511</v>
+        <v>41.6842</v>
       </c>
       <c r="D8" t="n">
-        <v>46.7117</v>
+        <v>45.5989</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37.7045</v>
+        <v>37.5382</v>
       </c>
       <c r="C9" t="n">
-        <v>42.2053</v>
+        <v>42.1397</v>
       </c>
       <c r="D9" t="n">
-        <v>45.1881</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.8775</v>
+        <v>37.8393</v>
       </c>
       <c r="C10" t="n">
-        <v>45.1626</v>
+        <v>45.4867</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1219</v>
+        <v>46.9292</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.8445</v>
+        <v>37.4071</v>
       </c>
       <c r="C11" t="n">
-        <v>46.2036</v>
+        <v>46.0899</v>
       </c>
       <c r="D11" t="n">
-        <v>49.349</v>
+        <v>47.2904</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.7667</v>
+        <v>37.4394</v>
       </c>
       <c r="C12" t="n">
-        <v>46.6238</v>
+        <v>46.6309</v>
       </c>
       <c r="D12" t="n">
-        <v>49.3558</v>
+        <v>48.0272</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.6333</v>
+        <v>37.4213</v>
       </c>
       <c r="C13" t="n">
-        <v>47.1353</v>
+        <v>47.1562</v>
       </c>
       <c r="D13" t="n">
-        <v>49.24</v>
+        <v>51.7127</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.8374</v>
+        <v>37.2188</v>
       </c>
       <c r="C14" t="n">
-        <v>47.4173</v>
+        <v>47.0664</v>
       </c>
       <c r="D14" t="n">
-        <v>50.6376</v>
+        <v>50.2404</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.43</v>
+        <v>37.633</v>
       </c>
       <c r="C15" t="n">
-        <v>47.4692</v>
+        <v>47.4598</v>
       </c>
       <c r="D15" t="n">
-        <v>49.7215</v>
+        <v>51.676</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.2349</v>
+        <v>37.5752</v>
       </c>
       <c r="C16" t="n">
-        <v>46.912</v>
+        <v>47.552</v>
       </c>
       <c r="D16" t="n">
-        <v>51.8355</v>
+        <v>51.2851</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>37.3533</v>
+        <v>37.5386</v>
       </c>
       <c r="C17" t="n">
-        <v>47.3827</v>
+        <v>47.6148</v>
       </c>
       <c r="D17" t="n">
-        <v>50.3151</v>
+        <v>53.0128</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.9435</v>
+        <v>11.7675</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1619</v>
+        <v>15.1529</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8623</v>
+        <v>18.7655</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.2734</v>
+        <v>21.9398</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7725</v>
+        <v>26.7121</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7863</v>
+        <v>34.7636</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.3947</v>
+        <v>30.7868</v>
       </c>
       <c r="C4" t="n">
-        <v>37.117</v>
+        <v>37.1046</v>
       </c>
       <c r="D4" t="n">
-        <v>48.9531</v>
+        <v>48.9382</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.9031</v>
+        <v>40.1394</v>
       </c>
       <c r="C5" t="n">
-        <v>48.164</v>
+        <v>48.2702</v>
       </c>
       <c r="D5" t="n">
-        <v>63.7812</v>
+        <v>63.7561</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.9803</v>
+        <v>39.1272</v>
       </c>
       <c r="C6" t="n">
-        <v>41.154</v>
+        <v>41.2179</v>
       </c>
       <c r="D6" t="n">
-        <v>52.5896</v>
+        <v>52.3343</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.1926</v>
+        <v>40.6888</v>
       </c>
       <c r="C7" t="n">
-        <v>39.6424</v>
+        <v>39.7012</v>
       </c>
       <c r="D7" t="n">
-        <v>47.0432</v>
+        <v>51.6178</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.0276</v>
+        <v>42.1934</v>
       </c>
       <c r="C8" t="n">
-        <v>39.7728</v>
+        <v>39.642</v>
       </c>
       <c r="D8" t="n">
-        <v>47.6527</v>
+        <v>47.8325</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.8496</v>
+        <v>44.7026</v>
       </c>
       <c r="C9" t="n">
-        <v>39.1699</v>
+        <v>39.0919</v>
       </c>
       <c r="D9" t="n">
-        <v>45.3715</v>
+        <v>46.0424</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.3849</v>
+        <v>44.1345</v>
       </c>
       <c r="C10" t="n">
-        <v>41.7069</v>
+        <v>41.3838</v>
       </c>
       <c r="D10" t="n">
-        <v>47.3168</v>
+        <v>49.2453</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.3403</v>
+        <v>43.8645</v>
       </c>
       <c r="C11" t="n">
-        <v>43.9996</v>
+        <v>43.9868</v>
       </c>
       <c r="D11" t="n">
-        <v>47.9776</v>
+        <v>52.2929</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.616</v>
+        <v>44.2687</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9898</v>
+        <v>44.3779</v>
       </c>
       <c r="D12" t="n">
-        <v>49.3599</v>
+        <v>51.5361</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.6167</v>
+        <v>43.7891</v>
       </c>
       <c r="C13" t="n">
-        <v>44.3102</v>
+        <v>44.7203</v>
       </c>
       <c r="D13" t="n">
-        <v>51.6254</v>
+        <v>51.8027</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.8121</v>
+        <v>43.968</v>
       </c>
       <c r="C14" t="n">
-        <v>44.433</v>
+        <v>44.5156</v>
       </c>
       <c r="D14" t="n">
-        <v>52.9148</v>
+        <v>53.7716</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.4537</v>
+        <v>44.1599</v>
       </c>
       <c r="C15" t="n">
-        <v>44.5761</v>
+        <v>44.5935</v>
       </c>
       <c r="D15" t="n">
-        <v>55.1943</v>
+        <v>52.9817</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.6212</v>
+        <v>44.3906</v>
       </c>
       <c r="C16" t="n">
-        <v>44.7245</v>
+        <v>44.3426</v>
       </c>
       <c r="D16" t="n">
-        <v>54.3359</v>
+        <v>53.8439</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.7429</v>
+        <v>44.2839</v>
       </c>
       <c r="C17" t="n">
-        <v>44.8594</v>
+        <v>44.5603</v>
       </c>
       <c r="D17" t="n">
-        <v>52.846</v>
+        <v>56.1738</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5824</v>
+        <v>14.0734</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7289</v>
+        <v>13.8961</v>
       </c>
       <c r="D2" t="n">
-        <v>22.7916</v>
+        <v>18.4008</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.9798</v>
+        <v>25.7767</v>
       </c>
       <c r="C3" t="n">
-        <v>27.2752</v>
+        <v>24.0307</v>
       </c>
       <c r="D3" t="n">
-        <v>38.1528</v>
+        <v>30.0154</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.3172</v>
+        <v>30.0101</v>
       </c>
       <c r="C4" t="n">
-        <v>38.0965</v>
+        <v>30.7524</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2393</v>
+        <v>31.2649</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.9101</v>
+        <v>42.6988</v>
       </c>
       <c r="C5" t="n">
-        <v>49.3653</v>
+        <v>33.0752</v>
       </c>
       <c r="D5" t="n">
-        <v>63.6409</v>
+        <v>44.7388</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30.5857</v>
+        <v>35.6008</v>
       </c>
       <c r="C6" t="n">
-        <v>44.9257</v>
+        <v>31.2425</v>
       </c>
       <c r="D6" t="n">
-        <v>50.4662</v>
+        <v>39.801</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.5548</v>
+        <v>37.3205</v>
       </c>
       <c r="C7" t="n">
-        <v>44.2468</v>
+        <v>33.3585</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7477</v>
+        <v>37.5702</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.0824</v>
+        <v>41.9193</v>
       </c>
       <c r="C8" t="n">
-        <v>43.3215</v>
+        <v>33.3338</v>
       </c>
       <c r="D8" t="n">
-        <v>39.9316</v>
+        <v>37.3185</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.6913</v>
+        <v>40.9273</v>
       </c>
       <c r="C9" t="n">
-        <v>43.4505</v>
+        <v>34.028</v>
       </c>
       <c r="D9" t="n">
-        <v>43.5821</v>
+        <v>38.3508</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.7067</v>
+        <v>42.0404</v>
       </c>
       <c r="C10" t="n">
-        <v>44.4949</v>
+        <v>33.9076</v>
       </c>
       <c r="D10" t="n">
-        <v>27.6345</v>
+        <v>36.8762</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.6972</v>
+        <v>41.8465</v>
       </c>
       <c r="C11" t="n">
-        <v>45.1062</v>
+        <v>35.4756</v>
       </c>
       <c r="D11" t="n">
-        <v>42.7905</v>
+        <v>40.652</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.262</v>
+        <v>42.8351</v>
       </c>
       <c r="C12" t="n">
-        <v>45.6957</v>
+        <v>33.3358</v>
       </c>
       <c r="D12" t="n">
-        <v>39.3527</v>
+        <v>36.3464</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.8479</v>
+        <v>41.4233</v>
       </c>
       <c r="C13" t="n">
-        <v>45.99</v>
+        <v>36.9967</v>
       </c>
       <c r="D13" t="n">
-        <v>49.0432</v>
+        <v>39.5009</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.5209</v>
+        <v>43.7615</v>
       </c>
       <c r="C14" t="n">
-        <v>46.1655</v>
+        <v>37.2956</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5363</v>
+        <v>40.491</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.9306</v>
+        <v>40.8719</v>
       </c>
       <c r="C15" t="n">
-        <v>46.3902</v>
+        <v>33.4405</v>
       </c>
       <c r="D15" t="n">
-        <v>49.3273</v>
+        <v>40.0404</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.3585</v>
+        <v>42.3225</v>
       </c>
       <c r="C16" t="n">
-        <v>46.2595</v>
+        <v>32.6707</v>
       </c>
       <c r="D16" t="n">
-        <v>48.2203</v>
+        <v>37.8838</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.1885</v>
+        <v>39.4015</v>
       </c>
       <c r="C17" t="n">
-        <v>46.318</v>
+        <v>35.0033</v>
       </c>
       <c r="D17" t="n">
-        <v>48.9667</v>
+        <v>40.4045</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5232</v>
+        <v>14.2609</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5141</v>
+        <v>13.817</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0249</v>
+        <v>17.8063</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.8988</v>
+        <v>26.1908</v>
       </c>
       <c r="C3" t="n">
-        <v>26.9305</v>
+        <v>23.9271</v>
       </c>
       <c r="D3" t="n">
-        <v>37.2469</v>
+        <v>29.1362</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.3766</v>
+        <v>29.9949</v>
       </c>
       <c r="C4" t="n">
-        <v>37.6149</v>
+        <v>29.2949</v>
       </c>
       <c r="D4" t="n">
-        <v>50.2905</v>
+        <v>32.5896</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35.4343</v>
+        <v>40.1275</v>
       </c>
       <c r="C5" t="n">
-        <v>48.8907</v>
+        <v>35.106</v>
       </c>
       <c r="D5" t="n">
-        <v>63.1562</v>
+        <v>45.3994</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.509</v>
+        <v>39.5273</v>
       </c>
       <c r="C6" t="n">
-        <v>42.5927</v>
+        <v>32.553</v>
       </c>
       <c r="D6" t="n">
-        <v>48.1175</v>
+        <v>39.7629</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.2883</v>
+        <v>41.7711</v>
       </c>
       <c r="C7" t="n">
-        <v>41.8752</v>
+        <v>34.059</v>
       </c>
       <c r="D7" t="n">
-        <v>18.3352</v>
+        <v>44.1583</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.7652</v>
+        <v>42.063</v>
       </c>
       <c r="C8" t="n">
-        <v>40.8272</v>
+        <v>31.8143</v>
       </c>
       <c r="D8" t="n">
-        <v>19.7154</v>
+        <v>37.6533</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.4611</v>
+        <v>43.7208</v>
       </c>
       <c r="C9" t="n">
-        <v>40.2524</v>
+        <v>31.9415</v>
       </c>
       <c r="D9" t="n">
-        <v>29.3501</v>
+        <v>41.5839</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36.7744</v>
+        <v>43.1288</v>
       </c>
       <c r="C10" t="n">
-        <v>42.6223</v>
+        <v>36.4847</v>
       </c>
       <c r="D10" t="n">
-        <v>42.348</v>
+        <v>41.9794</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.4679</v>
+        <v>43.4136</v>
       </c>
       <c r="C11" t="n">
-        <v>44.4303</v>
+        <v>35.4796</v>
       </c>
       <c r="D11" t="n">
-        <v>25.4877</v>
+        <v>36.33</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.3622</v>
+        <v>42.8898</v>
       </c>
       <c r="C12" t="n">
-        <v>45.0562</v>
+        <v>36.1429</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0461</v>
+        <v>37.5325</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.5824</v>
+        <v>40.2426</v>
       </c>
       <c r="C13" t="n">
-        <v>45.5944</v>
+        <v>33.3437</v>
       </c>
       <c r="D13" t="n">
-        <v>44.4486</v>
+        <v>39.0977</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>36.3994</v>
+        <v>38.3022</v>
       </c>
       <c r="C14" t="n">
-        <v>45.7826</v>
+        <v>32.1663</v>
       </c>
       <c r="D14" t="n">
-        <v>44.0623</v>
+        <v>37.4793</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.5237</v>
+        <v>45.7037</v>
       </c>
       <c r="C15" t="n">
-        <v>45.9494</v>
+        <v>34.0674</v>
       </c>
       <c r="D15" t="n">
-        <v>47.4321</v>
+        <v>37.5935</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.6803</v>
+        <v>40.1477</v>
       </c>
       <c r="C16" t="n">
-        <v>46.0357</v>
+        <v>35.8703</v>
       </c>
       <c r="D16" t="n">
-        <v>47.8202</v>
+        <v>38.7051</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.4481</v>
+        <v>39.1657</v>
       </c>
       <c r="C17" t="n">
-        <v>46.2277</v>
+        <v>33.209</v>
       </c>
       <c r="D17" t="n">
-        <v>48.7443</v>
+        <v>40.9682</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.3479</v>
+        <v>18.2936</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1361</v>
+        <v>15.496</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4691</v>
+        <v>19.7753</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.4007</v>
+        <v>31.7446</v>
       </c>
       <c r="C3" t="n">
-        <v>26.5436</v>
+        <v>25.9461</v>
       </c>
       <c r="D3" t="n">
-        <v>33.6606</v>
+        <v>29.634</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.9212</v>
+        <v>33.2019</v>
       </c>
       <c r="C4" t="n">
-        <v>36.5164</v>
+        <v>30.6353</v>
       </c>
       <c r="D4" t="n">
-        <v>46.9982</v>
+        <v>36.5855</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.2963</v>
+        <v>54.0786</v>
       </c>
       <c r="C5" t="n">
-        <v>47.0379</v>
+        <v>33.3896</v>
       </c>
       <c r="D5" t="n">
-        <v>58.5624</v>
+        <v>53.1863</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30.922</v>
+        <v>45.5552</v>
       </c>
       <c r="C6" t="n">
-        <v>38.3885</v>
+        <v>33.4019</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0199</v>
+        <v>46.1232</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.6076</v>
+        <v>42.6039</v>
       </c>
       <c r="C7" t="n">
-        <v>35.8391</v>
+        <v>30.4266</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6129</v>
+        <v>40.5196</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.6506</v>
+        <v>44.5398</v>
       </c>
       <c r="C8" t="n">
-        <v>35.1321</v>
+        <v>30.8733</v>
       </c>
       <c r="D8" t="n">
-        <v>36.4153</v>
+        <v>43.6255</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.9926</v>
+        <v>40.2555</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7831</v>
+        <v>31.6681</v>
       </c>
       <c r="D9" t="n">
-        <v>42.5632</v>
+        <v>40.176</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.0035</v>
+        <v>43.4367</v>
       </c>
       <c r="C10" t="n">
-        <v>35.1314</v>
+        <v>31.3166</v>
       </c>
       <c r="D10" t="n">
-        <v>26.5518</v>
+        <v>36.1156</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.0705</v>
+        <v>44.7638</v>
       </c>
       <c r="C11" t="n">
-        <v>37.1504</v>
+        <v>31.3604</v>
       </c>
       <c r="D11" t="n">
-        <v>42.6797</v>
+        <v>46.2877</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.2631</v>
+        <v>44.9277</v>
       </c>
       <c r="C12" t="n">
-        <v>37.6097</v>
+        <v>31.8643</v>
       </c>
       <c r="D12" t="n">
-        <v>44.092</v>
+        <v>40.4399</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.3395</v>
+        <v>39.5126</v>
       </c>
       <c r="C13" t="n">
-        <v>37.8415</v>
+        <v>35.4135</v>
       </c>
       <c r="D13" t="n">
-        <v>33.899</v>
+        <v>39.7428</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.4794</v>
+        <v>51.7568</v>
       </c>
       <c r="C14" t="n">
-        <v>38.2419</v>
+        <v>32.6769</v>
       </c>
       <c r="D14" t="n">
-        <v>47.5788</v>
+        <v>40.8081</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.5903</v>
+        <v>44.6276</v>
       </c>
       <c r="C15" t="n">
-        <v>38.7131</v>
+        <v>30.7586</v>
       </c>
       <c r="D15" t="n">
-        <v>44.5231</v>
+        <v>43.1804</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7202</v>
+        <v>46.049</v>
       </c>
       <c r="C16" t="n">
-        <v>38.805</v>
+        <v>33.2668</v>
       </c>
       <c r="D16" t="n">
-        <v>47.3941</v>
+        <v>44.5058</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.6887</v>
+        <v>47.1551</v>
       </c>
       <c r="C17" t="n">
-        <v>38.944</v>
+        <v>30.703</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5663</v>
+        <v>44.9442</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2611</v>
+        <v>9.602830000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7071</v>
+        <v>12.6784</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1235</v>
+        <v>16.6586</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18.9623</v>
+        <v>17.3442</v>
       </c>
       <c r="C3" t="n">
-        <v>25.4223</v>
+        <v>22.4324</v>
       </c>
       <c r="D3" t="n">
-        <v>38.3333</v>
+        <v>30.7152</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.2818</v>
+        <v>24.3329</v>
       </c>
       <c r="C4" t="n">
-        <v>35.1745</v>
+        <v>31.2302</v>
       </c>
       <c r="D4" t="n">
-        <v>51.4629</v>
+        <v>43.3213</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.4366</v>
+        <v>31.4362</v>
       </c>
       <c r="C5" t="n">
-        <v>45.7722</v>
+        <v>40.278</v>
       </c>
       <c r="D5" t="n">
-        <v>64.1885</v>
+        <v>56.1075</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.2642</v>
+        <v>33.4834</v>
       </c>
       <c r="C6" t="n">
-        <v>41.8171</v>
+        <v>36.8828</v>
       </c>
       <c r="D6" t="n">
-        <v>51.3691</v>
+        <v>49.245</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.5349</v>
+        <v>36.3505</v>
       </c>
       <c r="C7" t="n">
-        <v>41.1641</v>
+        <v>37.0293</v>
       </c>
       <c r="D7" t="n">
-        <v>45.5369</v>
+        <v>49.3017</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.0438</v>
+        <v>39.0858</v>
       </c>
       <c r="C8" t="n">
-        <v>41.4775</v>
+        <v>37.8499</v>
       </c>
       <c r="D8" t="n">
-        <v>46.5664</v>
+        <v>45.4511</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.9483</v>
+        <v>41.4249</v>
       </c>
       <c r="C9" t="n">
-        <v>41.5307</v>
+        <v>38.0576</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0378</v>
+        <v>48.5109</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.2876</v>
+        <v>41.7374</v>
       </c>
       <c r="C10" t="n">
-        <v>44.2922</v>
+        <v>41.8691</v>
       </c>
       <c r="D10" t="n">
-        <v>47.5148</v>
+        <v>48.8917</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.1691</v>
+        <v>41.7314</v>
       </c>
       <c r="C11" t="n">
-        <v>46.0007</v>
+        <v>43.9163</v>
       </c>
       <c r="D11" t="n">
-        <v>47.1627</v>
+        <v>50.8226</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.7421</v>
+        <v>41.7336</v>
       </c>
       <c r="C12" t="n">
-        <v>46.6815</v>
+        <v>44.4392</v>
       </c>
       <c r="D12" t="n">
-        <v>49.4926</v>
+        <v>51.676</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.0165</v>
+        <v>41.9217</v>
       </c>
       <c r="C13" t="n">
-        <v>47.0094</v>
+        <v>43.9698</v>
       </c>
       <c r="D13" t="n">
-        <v>49.2502</v>
+        <v>53.1333</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.0396</v>
+        <v>42.0081</v>
       </c>
       <c r="C14" t="n">
-        <v>47.1864</v>
+        <v>44.342</v>
       </c>
       <c r="D14" t="n">
-        <v>48.8646</v>
+        <v>53.2735</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.0969</v>
+        <v>42.071</v>
       </c>
       <c r="C15" t="n">
-        <v>47.3026</v>
+        <v>44.9888</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2539</v>
+        <v>53.3463</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.7276</v>
+        <v>42.1959</v>
       </c>
       <c r="C16" t="n">
-        <v>46.8803</v>
+        <v>44.8807</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0452</v>
+        <v>53.6564</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.9873</v>
+        <v>42.1785</v>
       </c>
       <c r="C17" t="n">
-        <v>47.4277</v>
+        <v>45.074</v>
       </c>
       <c r="D17" t="n">
-        <v>49.8986</v>
+        <v>54.359</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2533</v>
+        <v>9.65925</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6542</v>
+        <v>12.7558</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3386</v>
+        <v>16.4054</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.0163</v>
+        <v>17.6369</v>
       </c>
       <c r="C3" t="n">
-        <v>25.5927</v>
+        <v>22.6205</v>
       </c>
       <c r="D3" t="n">
-        <v>37.329</v>
+        <v>30.3244</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26.4742</v>
+        <v>24.8962</v>
       </c>
       <c r="C4" t="n">
-        <v>35.6225</v>
+        <v>31.4961</v>
       </c>
       <c r="D4" t="n">
-        <v>50.3555</v>
+        <v>42.9359</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.7792</v>
+        <v>32.1964</v>
       </c>
       <c r="C5" t="n">
-        <v>46.3866</v>
+        <v>40.7045</v>
       </c>
       <c r="D5" t="n">
-        <v>63.153</v>
+        <v>55.5406</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.697</v>
+        <v>34.4244</v>
       </c>
       <c r="C6" t="n">
-        <v>42.1438</v>
+        <v>37.2083</v>
       </c>
       <c r="D6" t="n">
-        <v>51.1203</v>
+        <v>49.1382</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.0786</v>
+        <v>37.398</v>
       </c>
       <c r="C7" t="n">
-        <v>41.239</v>
+        <v>37.3027</v>
       </c>
       <c r="D7" t="n">
-        <v>34.4917</v>
+        <v>48.9552</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.6244</v>
+        <v>40.1937</v>
       </c>
       <c r="C8" t="n">
-        <v>41.6842</v>
+        <v>38.1828</v>
       </c>
       <c r="D8" t="n">
-        <v>45.5989</v>
+        <v>45.0639</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37.5382</v>
+        <v>42.5115</v>
       </c>
       <c r="C9" t="n">
-        <v>42.1397</v>
+        <v>38.275</v>
       </c>
       <c r="D9" t="n">
-        <v>47.02</v>
+        <v>47.5055</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.8393</v>
+        <v>42.861</v>
       </c>
       <c r="C10" t="n">
-        <v>45.4867</v>
+        <v>42.5653</v>
       </c>
       <c r="D10" t="n">
-        <v>46.9292</v>
+        <v>47.8162</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.4071</v>
+        <v>42.7443</v>
       </c>
       <c r="C11" t="n">
-        <v>46.0899</v>
+        <v>43.5832</v>
       </c>
       <c r="D11" t="n">
-        <v>47.2904</v>
+        <v>50.2963</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.4394</v>
+        <v>43.0386</v>
       </c>
       <c r="C12" t="n">
-        <v>46.6309</v>
+        <v>44.5296</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0272</v>
+        <v>51.7389</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.4213</v>
+        <v>43.1504</v>
       </c>
       <c r="C13" t="n">
-        <v>47.1562</v>
+        <v>45.0976</v>
       </c>
       <c r="D13" t="n">
-        <v>51.7127</v>
+        <v>52.9056</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.2188</v>
+        <v>43.1329</v>
       </c>
       <c r="C14" t="n">
-        <v>47.0664</v>
+        <v>45.2371</v>
       </c>
       <c r="D14" t="n">
-        <v>50.2404</v>
+        <v>53.3036</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.633</v>
+        <v>43.272</v>
       </c>
       <c r="C15" t="n">
-        <v>47.4598</v>
+        <v>45.0592</v>
       </c>
       <c r="D15" t="n">
-        <v>51.676</v>
+        <v>54.4203</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.5752</v>
+        <v>43.2849</v>
       </c>
       <c r="C16" t="n">
-        <v>47.552</v>
+        <v>45.2045</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2851</v>
+        <v>54.5007</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>37.5386</v>
+        <v>43.4013</v>
       </c>
       <c r="C17" t="n">
-        <v>47.6148</v>
+        <v>45.4331</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0128</v>
+        <v>54.3896</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.7675</v>
+        <v>13.8918</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1529</v>
+        <v>15.6291</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7655</v>
+        <v>20.074</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.9398</v>
+        <v>26.2873</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7121</v>
+        <v>27.2314</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7636</v>
+        <v>36.9421</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.7868</v>
+        <v>37.5636</v>
       </c>
       <c r="C4" t="n">
-        <v>37.1046</v>
+        <v>37.8382</v>
       </c>
       <c r="D4" t="n">
-        <v>48.9382</v>
+        <v>52.0627</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.1394</v>
+        <v>49.1494</v>
       </c>
       <c r="C5" t="n">
-        <v>48.2702</v>
+        <v>49.0785</v>
       </c>
       <c r="D5" t="n">
-        <v>63.7561</v>
+        <v>67.7452</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.1272</v>
+        <v>48.2561</v>
       </c>
       <c r="C6" t="n">
-        <v>41.2179</v>
+        <v>42.1967</v>
       </c>
       <c r="D6" t="n">
-        <v>52.3343</v>
+        <v>59.6288</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.6888</v>
+        <v>49.5488</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7012</v>
+        <v>40.8774</v>
       </c>
       <c r="D7" t="n">
-        <v>51.6178</v>
+        <v>57.3224</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.1934</v>
+        <v>51.2268</v>
       </c>
       <c r="C8" t="n">
-        <v>39.642</v>
+        <v>40.7138</v>
       </c>
       <c r="D8" t="n">
-        <v>47.8325</v>
+        <v>51.2253</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.7026</v>
+        <v>53.464</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0919</v>
+        <v>40.1683</v>
       </c>
       <c r="D9" t="n">
-        <v>46.0424</v>
+        <v>52.8719</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.1345</v>
+        <v>53.458</v>
       </c>
       <c r="C10" t="n">
-        <v>41.3838</v>
+        <v>43.5149</v>
       </c>
       <c r="D10" t="n">
-        <v>49.2453</v>
+        <v>52.8937</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.8645</v>
+        <v>53.175</v>
       </c>
       <c r="C11" t="n">
-        <v>43.9868</v>
+        <v>45.5305</v>
       </c>
       <c r="D11" t="n">
-        <v>52.2929</v>
+        <v>56.6502</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.2687</v>
+        <v>53.1724</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3779</v>
+        <v>46.0195</v>
       </c>
       <c r="D12" t="n">
-        <v>51.5361</v>
+        <v>56.4084</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.7891</v>
+        <v>53.1574</v>
       </c>
       <c r="C13" t="n">
-        <v>44.7203</v>
+        <v>46.4016</v>
       </c>
       <c r="D13" t="n">
-        <v>51.8027</v>
+        <v>58.805</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.968</v>
+        <v>53.3612</v>
       </c>
       <c r="C14" t="n">
-        <v>44.5156</v>
+        <v>46.3192</v>
       </c>
       <c r="D14" t="n">
-        <v>53.7716</v>
+        <v>59.1794</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.1599</v>
+        <v>53.2218</v>
       </c>
       <c r="C15" t="n">
-        <v>44.5935</v>
+        <v>46.5193</v>
       </c>
       <c r="D15" t="n">
-        <v>52.9817</v>
+        <v>60.4236</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.3906</v>
+        <v>53.1799</v>
       </c>
       <c r="C16" t="n">
-        <v>44.3426</v>
+        <v>46.3572</v>
       </c>
       <c r="D16" t="n">
-        <v>53.8439</v>
+        <v>60.355</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.2839</v>
+        <v>53.3978</v>
       </c>
       <c r="C17" t="n">
-        <v>44.5603</v>
+        <v>46.6124</v>
       </c>
       <c r="D17" t="n">
-        <v>56.1738</v>
+        <v>61.7985</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.0734</v>
+        <v>10.95</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8961</v>
+        <v>14.0253</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4008</v>
+        <v>18.2853</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25.7767</v>
+        <v>21.0602</v>
       </c>
       <c r="C3" t="n">
-        <v>24.0307</v>
+        <v>24.2842</v>
       </c>
       <c r="D3" t="n">
-        <v>30.0154</v>
+        <v>30.0656</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.0101</v>
+        <v>28.8408</v>
       </c>
       <c r="C4" t="n">
-        <v>30.7524</v>
+        <v>29.326</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2649</v>
+        <v>32.4458</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.6988</v>
+        <v>30.4521</v>
       </c>
       <c r="C5" t="n">
-        <v>33.0752</v>
+        <v>32.7288</v>
       </c>
       <c r="D5" t="n">
-        <v>44.7388</v>
+        <v>43.6479</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35.6008</v>
+        <v>31.4494</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2425</v>
+        <v>32.8898</v>
       </c>
       <c r="D6" t="n">
-        <v>39.801</v>
+        <v>37.6387</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.3205</v>
+        <v>31.527</v>
       </c>
       <c r="C7" t="n">
-        <v>33.3585</v>
+        <v>33.012</v>
       </c>
       <c r="D7" t="n">
-        <v>37.5702</v>
+        <v>40.308</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41.9193</v>
+        <v>32.7642</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3338</v>
+        <v>33.6801</v>
       </c>
       <c r="D8" t="n">
-        <v>37.3185</v>
+        <v>36.47</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.9273</v>
+        <v>34.86</v>
       </c>
       <c r="C9" t="n">
-        <v>34.028</v>
+        <v>35.0877</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3508</v>
+        <v>36.1724</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.0404</v>
+        <v>38.7598</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9076</v>
+        <v>35.3153</v>
       </c>
       <c r="D10" t="n">
-        <v>36.8762</v>
+        <v>35.778</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.8465</v>
+        <v>37.4779</v>
       </c>
       <c r="C11" t="n">
-        <v>35.4756</v>
+        <v>35.0877</v>
       </c>
       <c r="D11" t="n">
-        <v>40.652</v>
+        <v>37.064</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.8351</v>
+        <v>39.6194</v>
       </c>
       <c r="C12" t="n">
-        <v>33.3358</v>
+        <v>36.3459</v>
       </c>
       <c r="D12" t="n">
-        <v>36.3464</v>
+        <v>42.0264</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.4233</v>
+        <v>37.5756</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9967</v>
+        <v>35.8141</v>
       </c>
       <c r="D13" t="n">
-        <v>39.5009</v>
+        <v>38.0476</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.7615</v>
+        <v>38.2947</v>
       </c>
       <c r="C14" t="n">
-        <v>37.2956</v>
+        <v>34.7203</v>
       </c>
       <c r="D14" t="n">
-        <v>40.491</v>
+        <v>37.6835</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.8719</v>
+        <v>34.6529</v>
       </c>
       <c r="C15" t="n">
-        <v>33.4405</v>
+        <v>35.8418</v>
       </c>
       <c r="D15" t="n">
-        <v>40.0404</v>
+        <v>44.9888</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.3225</v>
+        <v>35.7365</v>
       </c>
       <c r="C16" t="n">
-        <v>32.6707</v>
+        <v>34.7492</v>
       </c>
       <c r="D16" t="n">
-        <v>37.8838</v>
+        <v>38.3316</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.4015</v>
+        <v>35.1408</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0033</v>
+        <v>33.6731</v>
       </c>
       <c r="D17" t="n">
-        <v>40.4045</v>
+        <v>43.7651</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2609</v>
+        <v>11.3608</v>
       </c>
       <c r="C2" t="n">
-        <v>13.817</v>
+        <v>13.9928</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8063</v>
+        <v>18.1001</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.1908</v>
+        <v>21.442</v>
       </c>
       <c r="C3" t="n">
-        <v>23.9271</v>
+        <v>24.2294</v>
       </c>
       <c r="D3" t="n">
-        <v>29.1362</v>
+        <v>30.9344</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.9949</v>
+        <v>27.8883</v>
       </c>
       <c r="C4" t="n">
-        <v>29.2949</v>
+        <v>31.7327</v>
       </c>
       <c r="D4" t="n">
-        <v>32.5896</v>
+        <v>32.9294</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.1275</v>
+        <v>34.4429</v>
       </c>
       <c r="C5" t="n">
-        <v>35.106</v>
+        <v>32.3818</v>
       </c>
       <c r="D5" t="n">
-        <v>45.3994</v>
+        <v>46.1966</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.5273</v>
+        <v>33.9761</v>
       </c>
       <c r="C6" t="n">
-        <v>32.553</v>
+        <v>34.9673</v>
       </c>
       <c r="D6" t="n">
-        <v>39.7629</v>
+        <v>37.0726</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.7711</v>
+        <v>34.7848</v>
       </c>
       <c r="C7" t="n">
-        <v>34.059</v>
+        <v>34.1164</v>
       </c>
       <c r="D7" t="n">
-        <v>44.1583</v>
+        <v>41.4739</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.063</v>
+        <v>34.2238</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8143</v>
+        <v>35.1286</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6533</v>
+        <v>39.2485</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.7208</v>
+        <v>33.2528</v>
       </c>
       <c r="C9" t="n">
-        <v>31.9415</v>
+        <v>32.0192</v>
       </c>
       <c r="D9" t="n">
-        <v>41.5839</v>
+        <v>39.4979</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.1288</v>
+        <v>34.3889</v>
       </c>
       <c r="C10" t="n">
-        <v>36.4847</v>
+        <v>35.6321</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9794</v>
+        <v>36.7067</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.4136</v>
+        <v>38.5594</v>
       </c>
       <c r="C11" t="n">
-        <v>35.4796</v>
+        <v>36.0166</v>
       </c>
       <c r="D11" t="n">
-        <v>36.33</v>
+        <v>42.8148</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.8898</v>
+        <v>36.6566</v>
       </c>
       <c r="C12" t="n">
-        <v>36.1429</v>
+        <v>34.1619</v>
       </c>
       <c r="D12" t="n">
-        <v>37.5325</v>
+        <v>40.5619</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.2426</v>
+        <v>35.1067</v>
       </c>
       <c r="C13" t="n">
-        <v>33.3437</v>
+        <v>35.811</v>
       </c>
       <c r="D13" t="n">
-        <v>39.0977</v>
+        <v>38.1599</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.3022</v>
+        <v>37.9086</v>
       </c>
       <c r="C14" t="n">
-        <v>32.1663</v>
+        <v>35.7814</v>
       </c>
       <c r="D14" t="n">
-        <v>37.4793</v>
+        <v>37.657</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.7037</v>
+        <v>36.0577</v>
       </c>
       <c r="C15" t="n">
-        <v>34.0674</v>
+        <v>36.0803</v>
       </c>
       <c r="D15" t="n">
-        <v>37.5935</v>
+        <v>38.2931</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.1477</v>
+        <v>34.5693</v>
       </c>
       <c r="C16" t="n">
-        <v>35.8703</v>
+        <v>32.0021</v>
       </c>
       <c r="D16" t="n">
-        <v>38.7051</v>
+        <v>40.2515</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.1657</v>
+        <v>33.6794</v>
       </c>
       <c r="C17" t="n">
-        <v>33.209</v>
+        <v>32.8417</v>
       </c>
       <c r="D17" t="n">
-        <v>40.9682</v>
+        <v>39.4542</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2936</v>
+        <v>13.2763</v>
       </c>
       <c r="C2" t="n">
-        <v>15.496</v>
+        <v>15.5205</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7753</v>
+        <v>19.5746</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.7446</v>
+        <v>24.2627</v>
       </c>
       <c r="C3" t="n">
-        <v>25.9461</v>
+        <v>26.5709</v>
       </c>
       <c r="D3" t="n">
-        <v>29.634</v>
+        <v>31.5282</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.2019</v>
+        <v>31.809</v>
       </c>
       <c r="C4" t="n">
-        <v>30.6353</v>
+        <v>30.9579</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5855</v>
+        <v>36.5467</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>54.0786</v>
+        <v>32.3271</v>
       </c>
       <c r="C5" t="n">
-        <v>33.3896</v>
+        <v>37.463</v>
       </c>
       <c r="D5" t="n">
-        <v>53.1863</v>
+        <v>53.8679</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>45.5552</v>
+        <v>32.3045</v>
       </c>
       <c r="C6" t="n">
-        <v>33.4019</v>
+        <v>37.1341</v>
       </c>
       <c r="D6" t="n">
-        <v>46.1232</v>
+        <v>41.1524</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.6039</v>
+        <v>32.8584</v>
       </c>
       <c r="C7" t="n">
-        <v>30.4266</v>
+        <v>36.8377</v>
       </c>
       <c r="D7" t="n">
-        <v>40.5196</v>
+        <v>40.0798</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.5398</v>
+        <v>33.7551</v>
       </c>
       <c r="C8" t="n">
-        <v>30.8733</v>
+        <v>34.4029</v>
       </c>
       <c r="D8" t="n">
-        <v>43.6255</v>
+        <v>40.3703</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.2555</v>
+        <v>33.041</v>
       </c>
       <c r="C9" t="n">
-        <v>31.6681</v>
+        <v>32.3766</v>
       </c>
       <c r="D9" t="n">
-        <v>40.176</v>
+        <v>38.3604</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.4367</v>
+        <v>33.2879</v>
       </c>
       <c r="C10" t="n">
-        <v>31.3166</v>
+        <v>31.6964</v>
       </c>
       <c r="D10" t="n">
-        <v>36.1156</v>
+        <v>43.1089</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.7638</v>
+        <v>35.9706</v>
       </c>
       <c r="C11" t="n">
-        <v>31.3604</v>
+        <v>32.6036</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2877</v>
+        <v>43.9473</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.9277</v>
+        <v>35.1339</v>
       </c>
       <c r="C12" t="n">
-        <v>31.8643</v>
+        <v>31.4777</v>
       </c>
       <c r="D12" t="n">
-        <v>40.4399</v>
+        <v>44.2782</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>39.5126</v>
+        <v>33.682</v>
       </c>
       <c r="C13" t="n">
-        <v>35.4135</v>
+        <v>32.9116</v>
       </c>
       <c r="D13" t="n">
-        <v>39.7428</v>
+        <v>41.0223</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>51.7568</v>
+        <v>34.4269</v>
       </c>
       <c r="C14" t="n">
-        <v>32.6769</v>
+        <v>33.9292</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8081</v>
+        <v>44.5307</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.6276</v>
+        <v>35.0887</v>
       </c>
       <c r="C15" t="n">
-        <v>30.7586</v>
+        <v>32.5888</v>
       </c>
       <c r="D15" t="n">
-        <v>43.1804</v>
+        <v>40.5292</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.049</v>
+        <v>33.2707</v>
       </c>
       <c r="C16" t="n">
-        <v>33.2668</v>
+        <v>32.8873</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5058</v>
+        <v>42.5313</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>47.1551</v>
+        <v>35.2791</v>
       </c>
       <c r="C17" t="n">
-        <v>30.703</v>
+        <v>31.819</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9442</v>
+        <v>43.1712</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.602830000000001</v>
+        <v>6.80839</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6784</v>
+        <v>12.69</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6586</v>
+        <v>16.7279</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.3442</v>
+        <v>13.0728</v>
       </c>
       <c r="C3" t="n">
-        <v>22.4324</v>
+        <v>22.7072</v>
       </c>
       <c r="D3" t="n">
-        <v>30.7152</v>
+        <v>31.3958</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.3329</v>
+        <v>18.729</v>
       </c>
       <c r="C4" t="n">
-        <v>31.2302</v>
+        <v>31.6159</v>
       </c>
       <c r="D4" t="n">
-        <v>43.3213</v>
+        <v>44.0738</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4362</v>
+        <v>24.5039</v>
       </c>
       <c r="C5" t="n">
-        <v>40.278</v>
+        <v>40.6383</v>
       </c>
       <c r="D5" t="n">
-        <v>56.1075</v>
+        <v>57.213</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4834</v>
+        <v>26.9413</v>
       </c>
       <c r="C6" t="n">
-        <v>36.8828</v>
+        <v>36.5724</v>
       </c>
       <c r="D6" t="n">
-        <v>49.245</v>
+        <v>49.9502</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3505</v>
+        <v>29.4433</v>
       </c>
       <c r="C7" t="n">
-        <v>37.0293</v>
+        <v>36.8183</v>
       </c>
       <c r="D7" t="n">
-        <v>49.3017</v>
+        <v>49.1071</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0858</v>
+        <v>31.8398</v>
       </c>
       <c r="C8" t="n">
-        <v>37.8499</v>
+        <v>36.985</v>
       </c>
       <c r="D8" t="n">
-        <v>45.4511</v>
+        <v>45.627</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.4249</v>
+        <v>33.882</v>
       </c>
       <c r="C9" t="n">
-        <v>38.0576</v>
+        <v>37.7216</v>
       </c>
       <c r="D9" t="n">
-        <v>48.5109</v>
+        <v>46.6413</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.7374</v>
+        <v>33.9169</v>
       </c>
       <c r="C10" t="n">
-        <v>41.8691</v>
+        <v>41.5136</v>
       </c>
       <c r="D10" t="n">
-        <v>48.8917</v>
+        <v>48.6726</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.7314</v>
+        <v>34.0255</v>
       </c>
       <c r="C11" t="n">
-        <v>43.9163</v>
+        <v>43.5649</v>
       </c>
       <c r="D11" t="n">
-        <v>50.8226</v>
+        <v>50.1183</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.7336</v>
+        <v>34.1385</v>
       </c>
       <c r="C12" t="n">
-        <v>44.4392</v>
+        <v>43.9431</v>
       </c>
       <c r="D12" t="n">
-        <v>51.676</v>
+        <v>51.2194</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.9217</v>
+        <v>34.0899</v>
       </c>
       <c r="C13" t="n">
-        <v>43.9698</v>
+        <v>44.7273</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1333</v>
+        <v>53.2614</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.0081</v>
+        <v>34.1269</v>
       </c>
       <c r="C14" t="n">
-        <v>44.342</v>
+        <v>44.5898</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2735</v>
+        <v>53.3978</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.071</v>
+        <v>34.147</v>
       </c>
       <c r="C15" t="n">
-        <v>44.9888</v>
+        <v>44.7338</v>
       </c>
       <c r="D15" t="n">
-        <v>53.3463</v>
+        <v>54.4682</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.1959</v>
+        <v>34.1552</v>
       </c>
       <c r="C16" t="n">
-        <v>44.8807</v>
+        <v>44.5335</v>
       </c>
       <c r="D16" t="n">
-        <v>53.6564</v>
+        <v>54.3901</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.1785</v>
+        <v>34.1606</v>
       </c>
       <c r="C17" t="n">
-        <v>45.074</v>
+        <v>45.0236</v>
       </c>
       <c r="D17" t="n">
-        <v>54.359</v>
+        <v>54.3104</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.65925</v>
+        <v>6.79612</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7558</v>
+        <v>12.7464</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4054</v>
+        <v>16.4632</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6369</v>
+        <v>13.0951</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6205</v>
+        <v>22.87</v>
       </c>
       <c r="D3" t="n">
-        <v>30.3244</v>
+        <v>30.9298</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.8962</v>
+        <v>18.8119</v>
       </c>
       <c r="C4" t="n">
-        <v>31.4961</v>
+        <v>31.847</v>
       </c>
       <c r="D4" t="n">
-        <v>42.9359</v>
+        <v>43.7158</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32.1964</v>
+        <v>24.7097</v>
       </c>
       <c r="C5" t="n">
-        <v>40.7045</v>
+        <v>41.0508</v>
       </c>
       <c r="D5" t="n">
-        <v>55.5406</v>
+        <v>56.7658</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>34.4244</v>
+        <v>27.1945</v>
       </c>
       <c r="C6" t="n">
-        <v>37.2083</v>
+        <v>36.9797</v>
       </c>
       <c r="D6" t="n">
-        <v>49.1382</v>
+        <v>49.8567</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.398</v>
+        <v>29.7688</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3027</v>
+        <v>37.21</v>
       </c>
       <c r="D7" t="n">
-        <v>48.9552</v>
+        <v>49.071</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.1937</v>
+        <v>32.2595</v>
       </c>
       <c r="C8" t="n">
-        <v>38.1828</v>
+        <v>37.7611</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0639</v>
+        <v>46.3507</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.5115</v>
+        <v>34.2102</v>
       </c>
       <c r="C9" t="n">
-        <v>38.275</v>
+        <v>38.029</v>
       </c>
       <c r="D9" t="n">
-        <v>47.5055</v>
+        <v>47.7798</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.861</v>
+        <v>34.3169</v>
       </c>
       <c r="C10" t="n">
-        <v>42.5653</v>
+        <v>41.6958</v>
       </c>
       <c r="D10" t="n">
-        <v>47.8162</v>
+        <v>47.9398</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.7443</v>
+        <v>34.5341</v>
       </c>
       <c r="C11" t="n">
-        <v>43.5832</v>
+        <v>43.7408</v>
       </c>
       <c r="D11" t="n">
-        <v>50.2963</v>
+        <v>50.3414</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.0386</v>
+        <v>34.498</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5296</v>
+        <v>44.7493</v>
       </c>
       <c r="D12" t="n">
-        <v>51.7389</v>
+        <v>51.6318</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.1504</v>
+        <v>34.5106</v>
       </c>
       <c r="C13" t="n">
-        <v>45.0976</v>
+        <v>44.6019</v>
       </c>
       <c r="D13" t="n">
-        <v>52.9056</v>
+        <v>52.8698</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.1329</v>
+        <v>34.5589</v>
       </c>
       <c r="C14" t="n">
-        <v>45.2371</v>
+        <v>44.8329</v>
       </c>
       <c r="D14" t="n">
-        <v>53.3036</v>
+        <v>53.3259</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.272</v>
+        <v>34.5562</v>
       </c>
       <c r="C15" t="n">
-        <v>45.0592</v>
+        <v>45.2116</v>
       </c>
       <c r="D15" t="n">
-        <v>54.4203</v>
+        <v>54.3482</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.2849</v>
+        <v>34.5603</v>
       </c>
       <c r="C16" t="n">
-        <v>45.2045</v>
+        <v>44.8054</v>
       </c>
       <c r="D16" t="n">
-        <v>54.5007</v>
+        <v>53.8418</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.4013</v>
+        <v>34.5077</v>
       </c>
       <c r="C17" t="n">
-        <v>45.4331</v>
+        <v>44.5045</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3896</v>
+        <v>53.4077</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8918</v>
+        <v>10.5094</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6291</v>
+        <v>15.5933</v>
       </c>
       <c r="D2" t="n">
-        <v>20.074</v>
+        <v>20.208</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.2873</v>
+        <v>20.2157</v>
       </c>
       <c r="C3" t="n">
-        <v>27.2314</v>
+        <v>27.4995</v>
       </c>
       <c r="D3" t="n">
-        <v>36.9421</v>
+        <v>37.833</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.5636</v>
+        <v>29.3485</v>
       </c>
       <c r="C4" t="n">
-        <v>37.8382</v>
+        <v>38.2012</v>
       </c>
       <c r="D4" t="n">
-        <v>52.0627</v>
+        <v>53.1587</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.1494</v>
+        <v>38.4784</v>
       </c>
       <c r="C5" t="n">
-        <v>49.0785</v>
+        <v>49.3932</v>
       </c>
       <c r="D5" t="n">
-        <v>67.7452</v>
+        <v>69.25230000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.2561</v>
+        <v>39.282</v>
       </c>
       <c r="C6" t="n">
-        <v>42.1967</v>
+        <v>42.1574</v>
       </c>
       <c r="D6" t="n">
-        <v>59.6288</v>
+        <v>60.0361</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.5488</v>
+        <v>41.8436</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8774</v>
+        <v>40.8816</v>
       </c>
       <c r="D7" t="n">
-        <v>57.3224</v>
+        <v>56.8517</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.2268</v>
+        <v>43.8772</v>
       </c>
       <c r="C8" t="n">
-        <v>40.7138</v>
+        <v>40.6817</v>
       </c>
       <c r="D8" t="n">
-        <v>51.2253</v>
+        <v>51.6289</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.464</v>
+        <v>46.5349</v>
       </c>
       <c r="C9" t="n">
-        <v>40.1683</v>
+        <v>40.0761</v>
       </c>
       <c r="D9" t="n">
-        <v>52.8719</v>
+        <v>54.0879</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53.458</v>
+        <v>45.9984</v>
       </c>
       <c r="C10" t="n">
-        <v>43.5149</v>
+        <v>43.0689</v>
       </c>
       <c r="D10" t="n">
-        <v>52.8937</v>
+        <v>52.1933</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.175</v>
+        <v>45.8167</v>
       </c>
       <c r="C11" t="n">
-        <v>45.5305</v>
+        <v>45.2265</v>
       </c>
       <c r="D11" t="n">
-        <v>56.6502</v>
+        <v>55.2411</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.1724</v>
+        <v>45.9763</v>
       </c>
       <c r="C12" t="n">
-        <v>46.0195</v>
+        <v>45.9492</v>
       </c>
       <c r="D12" t="n">
-        <v>56.4084</v>
+        <v>56.6707</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.1574</v>
+        <v>46.2472</v>
       </c>
       <c r="C13" t="n">
-        <v>46.4016</v>
+        <v>46.1175</v>
       </c>
       <c r="D13" t="n">
-        <v>58.805</v>
+        <v>58.7386</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>53.3612</v>
+        <v>46.1832</v>
       </c>
       <c r="C14" t="n">
-        <v>46.3192</v>
+        <v>46.1578</v>
       </c>
       <c r="D14" t="n">
-        <v>59.1794</v>
+        <v>59.6609</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.2218</v>
+        <v>43.4626</v>
       </c>
       <c r="C15" t="n">
-        <v>46.5193</v>
+        <v>46.5858</v>
       </c>
       <c r="D15" t="n">
-        <v>60.4236</v>
+        <v>60.7616</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>53.1799</v>
+        <v>45.713</v>
       </c>
       <c r="C16" t="n">
-        <v>46.3572</v>
+        <v>46.3152</v>
       </c>
       <c r="D16" t="n">
-        <v>60.355</v>
+        <v>60.673</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>53.3978</v>
+        <v>45.7296</v>
       </c>
       <c r="C17" t="n">
-        <v>46.6124</v>
+        <v>46.4687</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7985</v>
+        <v>61.3472</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.95</v>
+        <v>10.8199</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0253</v>
+        <v>14.0315</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2853</v>
+        <v>18.331</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.0602</v>
+        <v>20.7712</v>
       </c>
       <c r="C3" t="n">
-        <v>24.2842</v>
+        <v>24.3714</v>
       </c>
       <c r="D3" t="n">
-        <v>30.0656</v>
+        <v>28.9632</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.8408</v>
+        <v>28.6809</v>
       </c>
       <c r="C4" t="n">
-        <v>29.326</v>
+        <v>30.0827</v>
       </c>
       <c r="D4" t="n">
-        <v>32.4458</v>
+        <v>32.4058</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30.4521</v>
+        <v>34.1937</v>
       </c>
       <c r="C5" t="n">
-        <v>32.7288</v>
+        <v>37.7589</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6479</v>
+        <v>48.0712</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.4494</v>
+        <v>33.1479</v>
       </c>
       <c r="C6" t="n">
-        <v>32.8898</v>
+        <v>32.6262</v>
       </c>
       <c r="D6" t="n">
-        <v>37.6387</v>
+        <v>42.1951</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.527</v>
+        <v>31.6264</v>
       </c>
       <c r="C7" t="n">
-        <v>33.012</v>
+        <v>36.1905</v>
       </c>
       <c r="D7" t="n">
-        <v>40.308</v>
+        <v>38.9138</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.7642</v>
+        <v>34.3626</v>
       </c>
       <c r="C8" t="n">
-        <v>33.6801</v>
+        <v>34.4027</v>
       </c>
       <c r="D8" t="n">
-        <v>36.47</v>
+        <v>36.4198</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.86</v>
+        <v>32.396</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0877</v>
+        <v>33.7844</v>
       </c>
       <c r="D9" t="n">
-        <v>36.1724</v>
+        <v>36.9221</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.7598</v>
+        <v>32.7429</v>
       </c>
       <c r="C10" t="n">
-        <v>35.3153</v>
+        <v>35.3657</v>
       </c>
       <c r="D10" t="n">
-        <v>35.778</v>
+        <v>39.3633</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.4779</v>
+        <v>31.9382</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0877</v>
+        <v>36.3774</v>
       </c>
       <c r="D11" t="n">
-        <v>37.064</v>
+        <v>41.2932</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.6194</v>
+        <v>34.5626</v>
       </c>
       <c r="C12" t="n">
-        <v>36.3459</v>
+        <v>36.0966</v>
       </c>
       <c r="D12" t="n">
-        <v>42.0264</v>
+        <v>41.3093</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.5756</v>
+        <v>36.6049</v>
       </c>
       <c r="C13" t="n">
-        <v>35.8141</v>
+        <v>34.2896</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0476</v>
+        <v>39.8707</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.2947</v>
+        <v>33.364</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7203</v>
+        <v>36.6924</v>
       </c>
       <c r="D14" t="n">
-        <v>37.6835</v>
+        <v>42.2052</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6529</v>
+        <v>31.6451</v>
       </c>
       <c r="C15" t="n">
-        <v>35.8418</v>
+        <v>35.3151</v>
       </c>
       <c r="D15" t="n">
-        <v>44.9888</v>
+        <v>39.8041</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.7365</v>
+        <v>35.5926</v>
       </c>
       <c r="C16" t="n">
-        <v>34.7492</v>
+        <v>35.5035</v>
       </c>
       <c r="D16" t="n">
-        <v>38.3316</v>
+        <v>38.1258</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.1408</v>
+        <v>34.2402</v>
       </c>
       <c r="C17" t="n">
-        <v>33.6731</v>
+        <v>33.5412</v>
       </c>
       <c r="D17" t="n">
-        <v>43.7651</v>
+        <v>42.1641</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3608</v>
+        <v>11.2864</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9928</v>
+        <v>13.948</v>
       </c>
       <c r="D2" t="n">
-        <v>18.1001</v>
+        <v>18.1224</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.442</v>
+        <v>21.7613</v>
       </c>
       <c r="C3" t="n">
-        <v>24.2294</v>
+        <v>24.4949</v>
       </c>
       <c r="D3" t="n">
-        <v>30.9344</v>
+        <v>31.5617</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.8883</v>
+        <v>29.5985</v>
       </c>
       <c r="C4" t="n">
-        <v>31.7327</v>
+        <v>31.7872</v>
       </c>
       <c r="D4" t="n">
-        <v>32.9294</v>
+        <v>33.2505</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.4429</v>
+        <v>32.5041</v>
       </c>
       <c r="C5" t="n">
-        <v>32.3818</v>
+        <v>31.9105</v>
       </c>
       <c r="D5" t="n">
-        <v>46.1966</v>
+        <v>47.7211</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9761</v>
+        <v>31.6711</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9673</v>
+        <v>33.6627</v>
       </c>
       <c r="D6" t="n">
-        <v>37.0726</v>
+        <v>42.2398</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.7848</v>
+        <v>31.7866</v>
       </c>
       <c r="C7" t="n">
-        <v>34.1164</v>
+        <v>36.5607</v>
       </c>
       <c r="D7" t="n">
-        <v>41.4739</v>
+        <v>37.733</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.2238</v>
+        <v>35.0152</v>
       </c>
       <c r="C8" t="n">
-        <v>35.1286</v>
+        <v>31.6446</v>
       </c>
       <c r="D8" t="n">
-        <v>39.2485</v>
+        <v>38.3323</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.2528</v>
+        <v>33.797</v>
       </c>
       <c r="C9" t="n">
-        <v>32.0192</v>
+        <v>32.923</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4979</v>
+        <v>42.7954</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.3889</v>
+        <v>34.2057</v>
       </c>
       <c r="C10" t="n">
-        <v>35.6321</v>
+        <v>33.5348</v>
       </c>
       <c r="D10" t="n">
-        <v>36.7067</v>
+        <v>35.6811</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>38.5594</v>
+        <v>36.9212</v>
       </c>
       <c r="C11" t="n">
-        <v>36.0166</v>
+        <v>37.0899</v>
       </c>
       <c r="D11" t="n">
-        <v>42.8148</v>
+        <v>39.7247</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.6566</v>
+        <v>35.1154</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1619</v>
+        <v>36.674</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5619</v>
+        <v>45.1057</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.1067</v>
+        <v>32.634</v>
       </c>
       <c r="C13" t="n">
-        <v>35.811</v>
+        <v>34.5159</v>
       </c>
       <c r="D13" t="n">
-        <v>38.1599</v>
+        <v>38.1873</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.9086</v>
+        <v>33.216</v>
       </c>
       <c r="C14" t="n">
-        <v>35.7814</v>
+        <v>36.5492</v>
       </c>
       <c r="D14" t="n">
-        <v>37.657</v>
+        <v>39.2274</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0577</v>
+        <v>35.1291</v>
       </c>
       <c r="C15" t="n">
-        <v>36.0803</v>
+        <v>38.0649</v>
       </c>
       <c r="D15" t="n">
-        <v>38.2931</v>
+        <v>37.1215</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.5693</v>
+        <v>35.6103</v>
       </c>
       <c r="C16" t="n">
-        <v>32.0021</v>
+        <v>35.6906</v>
       </c>
       <c r="D16" t="n">
-        <v>40.2515</v>
+        <v>41.5857</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6794</v>
+        <v>38.8449</v>
       </c>
       <c r="C17" t="n">
-        <v>32.8417</v>
+        <v>34.0895</v>
       </c>
       <c r="D17" t="n">
-        <v>39.4542</v>
+        <v>36.5527</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.2763</v>
+        <v>13.0309</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5205</v>
+        <v>15.4861</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5746</v>
+        <v>19.7372</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.2627</v>
+        <v>24.0844</v>
       </c>
       <c r="C3" t="n">
-        <v>26.5709</v>
+        <v>26.41</v>
       </c>
       <c r="D3" t="n">
-        <v>31.5282</v>
+        <v>30.0243</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.809</v>
+        <v>31.2813</v>
       </c>
       <c r="C4" t="n">
-        <v>30.9579</v>
+        <v>30.2568</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5467</v>
+        <v>32.0632</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32.3271</v>
+        <v>33.7952</v>
       </c>
       <c r="C5" t="n">
-        <v>37.463</v>
+        <v>35.9197</v>
       </c>
       <c r="D5" t="n">
-        <v>53.8679</v>
+        <v>54.0247</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.3045</v>
+        <v>31.9808</v>
       </c>
       <c r="C6" t="n">
-        <v>37.1341</v>
+        <v>35.2299</v>
       </c>
       <c r="D6" t="n">
-        <v>41.1524</v>
+        <v>38.9777</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.8584</v>
+        <v>32.2253</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8377</v>
+        <v>32.6789</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0798</v>
+        <v>44.045</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.7551</v>
+        <v>34.3391</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4029</v>
+        <v>33.7777</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3703</v>
+        <v>38.3465</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.041</v>
+        <v>33.5052</v>
       </c>
       <c r="C9" t="n">
-        <v>32.3766</v>
+        <v>28.4451</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3604</v>
+        <v>42.5872</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.2879</v>
+        <v>34.7037</v>
       </c>
       <c r="C10" t="n">
-        <v>31.6964</v>
+        <v>31.6494</v>
       </c>
       <c r="D10" t="n">
-        <v>43.1089</v>
+        <v>40.3799</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.9706</v>
+        <v>35.974</v>
       </c>
       <c r="C11" t="n">
-        <v>32.6036</v>
+        <v>30.4158</v>
       </c>
       <c r="D11" t="n">
-        <v>43.9473</v>
+        <v>41.6409</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.1339</v>
+        <v>34.2072</v>
       </c>
       <c r="C12" t="n">
-        <v>31.4777</v>
+        <v>33.6304</v>
       </c>
       <c r="D12" t="n">
-        <v>44.2782</v>
+        <v>34.5901</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.682</v>
+        <v>34.5915</v>
       </c>
       <c r="C13" t="n">
-        <v>32.9116</v>
+        <v>30.421</v>
       </c>
       <c r="D13" t="n">
-        <v>41.0223</v>
+        <v>42.5836</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.4269</v>
+        <v>34.3302</v>
       </c>
       <c r="C14" t="n">
-        <v>33.9292</v>
+        <v>32.2291</v>
       </c>
       <c r="D14" t="n">
-        <v>44.5307</v>
+        <v>41.6315</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.0887</v>
+        <v>33.582</v>
       </c>
       <c r="C15" t="n">
-        <v>32.5888</v>
+        <v>34.9903</v>
       </c>
       <c r="D15" t="n">
-        <v>40.5292</v>
+        <v>42.7008</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.2707</v>
+        <v>36.3292</v>
       </c>
       <c r="C16" t="n">
-        <v>32.8873</v>
+        <v>34.2897</v>
       </c>
       <c r="D16" t="n">
-        <v>42.5313</v>
+        <v>42.0249</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.2791</v>
+        <v>34.1268</v>
       </c>
       <c r="C17" t="n">
-        <v>31.819</v>
+        <v>30.7706</v>
       </c>
       <c r="D17" t="n">
-        <v>43.1712</v>
+        <v>48.3333</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.80839</v>
+        <v>6.79129</v>
       </c>
       <c r="C2" t="n">
-        <v>12.69</v>
+        <v>12.6848</v>
       </c>
       <c r="D2" t="n">
-        <v>16.7279</v>
+        <v>16.6703</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0728</v>
+        <v>13.0497</v>
       </c>
       <c r="C3" t="n">
-        <v>22.7072</v>
+        <v>22.7624</v>
       </c>
       <c r="D3" t="n">
-        <v>31.3958</v>
+        <v>31.9112</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.729</v>
+        <v>18.707</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6159</v>
+        <v>31.6039</v>
       </c>
       <c r="D4" t="n">
-        <v>44.0738</v>
+        <v>45.4493</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5039</v>
+        <v>24.5173</v>
       </c>
       <c r="C5" t="n">
-        <v>40.6383</v>
+        <v>40.5821</v>
       </c>
       <c r="D5" t="n">
-        <v>57.213</v>
+        <v>59.621</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.9413</v>
+        <v>26.9241</v>
       </c>
       <c r="C6" t="n">
-        <v>36.5724</v>
+        <v>36.9244</v>
       </c>
       <c r="D6" t="n">
-        <v>49.9502</v>
+        <v>51.4458</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4433</v>
+        <v>29.4188</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8183</v>
+        <v>36.9596</v>
       </c>
       <c r="D7" t="n">
-        <v>49.1071</v>
+        <v>50.1069</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8398</v>
+        <v>31.8052</v>
       </c>
       <c r="C8" t="n">
-        <v>36.985</v>
+        <v>37.8376</v>
       </c>
       <c r="D8" t="n">
-        <v>45.627</v>
+        <v>46.4503</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.882</v>
+        <v>33.9078</v>
       </c>
       <c r="C9" t="n">
-        <v>37.7216</v>
+        <v>38.031</v>
       </c>
       <c r="D9" t="n">
-        <v>46.6413</v>
+        <v>48.7212</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.9169</v>
+        <v>33.965</v>
       </c>
       <c r="C10" t="n">
-        <v>41.5136</v>
+        <v>41.9138</v>
       </c>
       <c r="D10" t="n">
-        <v>48.6726</v>
+        <v>49.035</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0255</v>
+        <v>34.0271</v>
       </c>
       <c r="C11" t="n">
-        <v>43.5649</v>
+        <v>44.0256</v>
       </c>
       <c r="D11" t="n">
-        <v>50.1183</v>
+        <v>50.754</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.1385</v>
+        <v>34.2486</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9431</v>
+        <v>44.5638</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2194</v>
+        <v>51.8427</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.0899</v>
+        <v>34.1134</v>
       </c>
       <c r="C13" t="n">
-        <v>44.7273</v>
+        <v>44.6495</v>
       </c>
       <c r="D13" t="n">
-        <v>53.2614</v>
+        <v>53.5434</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.1269</v>
+        <v>34.1934</v>
       </c>
       <c r="C14" t="n">
-        <v>44.5898</v>
+        <v>45.0648</v>
       </c>
       <c r="D14" t="n">
-        <v>53.3978</v>
+        <v>53.9947</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.147</v>
+        <v>34.0775</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7338</v>
+        <v>45.2199</v>
       </c>
       <c r="D15" t="n">
-        <v>54.4682</v>
+        <v>54.5743</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.1552</v>
+        <v>34.191</v>
       </c>
       <c r="C16" t="n">
-        <v>44.5335</v>
+        <v>45.235</v>
       </c>
       <c r="D16" t="n">
-        <v>54.3901</v>
+        <v>55.3183</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.1606</v>
+        <v>34.1142</v>
       </c>
       <c r="C17" t="n">
-        <v>45.0236</v>
+        <v>45.4242</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3104</v>
+        <v>55.767</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.79612</v>
+        <v>6.77934</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7464</v>
+        <v>12.7596</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4632</v>
+        <v>16.3951</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0951</v>
+        <v>13.0635</v>
       </c>
       <c r="C3" t="n">
-        <v>22.87</v>
+        <v>22.897</v>
       </c>
       <c r="D3" t="n">
-        <v>30.9298</v>
+        <v>31.3645</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.8119</v>
+        <v>18.7447</v>
       </c>
       <c r="C4" t="n">
-        <v>31.847</v>
+        <v>31.8496</v>
       </c>
       <c r="D4" t="n">
-        <v>43.7158</v>
+        <v>44.6635</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.7097</v>
+        <v>24.6278</v>
       </c>
       <c r="C5" t="n">
-        <v>41.0508</v>
+        <v>41.0344</v>
       </c>
       <c r="D5" t="n">
-        <v>56.7658</v>
+        <v>58.6922</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.1945</v>
+        <v>27.0862</v>
       </c>
       <c r="C6" t="n">
-        <v>36.9797</v>
+        <v>37.2689</v>
       </c>
       <c r="D6" t="n">
-        <v>49.8567</v>
+        <v>50.9493</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7688</v>
+        <v>29.6918</v>
       </c>
       <c r="C7" t="n">
-        <v>37.21</v>
+        <v>37.3567</v>
       </c>
       <c r="D7" t="n">
-        <v>49.071</v>
+        <v>50.6248</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.2595</v>
+        <v>32.182</v>
       </c>
       <c r="C8" t="n">
-        <v>37.7611</v>
+        <v>38.1814</v>
       </c>
       <c r="D8" t="n">
-        <v>46.3507</v>
+        <v>46.8466</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.2102</v>
+        <v>34.2405</v>
       </c>
       <c r="C9" t="n">
-        <v>38.029</v>
+        <v>38.2763</v>
       </c>
       <c r="D9" t="n">
-        <v>47.7798</v>
+        <v>49.0354</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.3169</v>
+        <v>34.2824</v>
       </c>
       <c r="C10" t="n">
-        <v>41.6958</v>
+        <v>41.5091</v>
       </c>
       <c r="D10" t="n">
-        <v>47.9398</v>
+        <v>48.4595</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.5341</v>
+        <v>34.4248</v>
       </c>
       <c r="C11" t="n">
-        <v>43.7408</v>
+        <v>44.1632</v>
       </c>
       <c r="D11" t="n">
-        <v>50.3414</v>
+        <v>50.1731</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.498</v>
+        <v>34.4683</v>
       </c>
       <c r="C12" t="n">
-        <v>44.7493</v>
+        <v>44.9705</v>
       </c>
       <c r="D12" t="n">
-        <v>51.6318</v>
+        <v>52.1066</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5106</v>
+        <v>34.5239</v>
       </c>
       <c r="C13" t="n">
-        <v>44.6019</v>
+        <v>44.8684</v>
       </c>
       <c r="D13" t="n">
-        <v>52.8698</v>
+        <v>53.4432</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.5589</v>
+        <v>34.4472</v>
       </c>
       <c r="C14" t="n">
-        <v>44.8329</v>
+        <v>45.0285</v>
       </c>
       <c r="D14" t="n">
-        <v>53.3259</v>
+        <v>54.1124</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.5562</v>
+        <v>34.4681</v>
       </c>
       <c r="C15" t="n">
-        <v>45.2116</v>
+        <v>45.3655</v>
       </c>
       <c r="D15" t="n">
-        <v>54.3482</v>
+        <v>54.9498</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.5603</v>
+        <v>34.5131</v>
       </c>
       <c r="C16" t="n">
-        <v>44.8054</v>
+        <v>45.3018</v>
       </c>
       <c r="D16" t="n">
-        <v>53.8418</v>
+        <v>54.4627</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.5077</v>
+        <v>34.5901</v>
       </c>
       <c r="C17" t="n">
-        <v>44.5045</v>
+        <v>45.3841</v>
       </c>
       <c r="D17" t="n">
-        <v>53.4077</v>
+        <v>55.3056</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5094</v>
+        <v>10.3984</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5933</v>
+        <v>15.6104</v>
       </c>
       <c r="D2" t="n">
-        <v>20.208</v>
+        <v>20.135</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.2157</v>
+        <v>20.0198</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4995</v>
+        <v>27.4264</v>
       </c>
       <c r="D3" t="n">
-        <v>37.833</v>
+        <v>37.7153</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.3485</v>
+        <v>29.0109</v>
       </c>
       <c r="C4" t="n">
-        <v>38.2012</v>
+        <v>38.1975</v>
       </c>
       <c r="D4" t="n">
-        <v>53.1587</v>
+        <v>53.4814</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.4784</v>
+        <v>38.1374</v>
       </c>
       <c r="C5" t="n">
-        <v>49.3932</v>
+        <v>49.307</v>
       </c>
       <c r="D5" t="n">
-        <v>69.25230000000001</v>
+        <v>69.88379999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.282</v>
+        <v>39.0995</v>
       </c>
       <c r="C6" t="n">
-        <v>42.1574</v>
+        <v>42.2506</v>
       </c>
       <c r="D6" t="n">
-        <v>60.0361</v>
+        <v>60.5303</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.8436</v>
+        <v>41.57</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8816</v>
+        <v>40.8369</v>
       </c>
       <c r="D7" t="n">
-        <v>56.8517</v>
+        <v>57.4094</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.8772</v>
+        <v>43.4031</v>
       </c>
       <c r="C8" t="n">
-        <v>40.6817</v>
+        <v>40.7231</v>
       </c>
       <c r="D8" t="n">
-        <v>51.6289</v>
+        <v>50.4702</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>46.5349</v>
+        <v>46.3713</v>
       </c>
       <c r="C9" t="n">
-        <v>40.0761</v>
+        <v>39.9905</v>
       </c>
       <c r="D9" t="n">
-        <v>54.0879</v>
+        <v>52.3129</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.9984</v>
+        <v>45.6719</v>
       </c>
       <c r="C10" t="n">
-        <v>43.0689</v>
+        <v>43.7607</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1933</v>
+        <v>52.7322</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.8167</v>
+        <v>45.7413</v>
       </c>
       <c r="C11" t="n">
-        <v>45.2265</v>
+        <v>45.7787</v>
       </c>
       <c r="D11" t="n">
-        <v>55.2411</v>
+        <v>56.0561</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.9763</v>
+        <v>45.8553</v>
       </c>
       <c r="C12" t="n">
-        <v>45.9492</v>
+        <v>45.9226</v>
       </c>
       <c r="D12" t="n">
-        <v>56.6707</v>
+        <v>56.6018</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.2472</v>
+        <v>45.6777</v>
       </c>
       <c r="C13" t="n">
-        <v>46.1175</v>
+        <v>46.3011</v>
       </c>
       <c r="D13" t="n">
-        <v>58.7386</v>
+        <v>58.7941</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46.1832</v>
+        <v>45.6499</v>
       </c>
       <c r="C14" t="n">
-        <v>46.1578</v>
+        <v>46.4101</v>
       </c>
       <c r="D14" t="n">
-        <v>59.6609</v>
+        <v>58.8742</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.4626</v>
+        <v>45.8214</v>
       </c>
       <c r="C15" t="n">
-        <v>46.5858</v>
+        <v>46.3983</v>
       </c>
       <c r="D15" t="n">
-        <v>60.7616</v>
+        <v>60.8829</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>45.713</v>
+        <v>46.0245</v>
       </c>
       <c r="C16" t="n">
-        <v>46.3152</v>
+        <v>46.586</v>
       </c>
       <c r="D16" t="n">
-        <v>60.673</v>
+        <v>60.615</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.7296</v>
+        <v>45.8523</v>
       </c>
       <c r="C17" t="n">
-        <v>46.4687</v>
+        <v>46.6581</v>
       </c>
       <c r="D17" t="n">
-        <v>61.3472</v>
+        <v>61.3241</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8199</v>
+        <v>11.0351</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0315</v>
+        <v>14.0783</v>
       </c>
       <c r="D2" t="n">
-        <v>18.331</v>
+        <v>18.2673</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.7712</v>
+        <v>21.0187</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3714</v>
+        <v>24.3404</v>
       </c>
       <c r="D3" t="n">
-        <v>28.9632</v>
+        <v>31.3367</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.6809</v>
+        <v>28.8843</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0827</v>
+        <v>31.005</v>
       </c>
       <c r="D4" t="n">
-        <v>32.4058</v>
+        <v>33.477</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.1937</v>
+        <v>33.6986</v>
       </c>
       <c r="C5" t="n">
-        <v>37.7589</v>
+        <v>33.3164</v>
       </c>
       <c r="D5" t="n">
-        <v>48.0712</v>
+        <v>48.1525</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.1479</v>
+        <v>32.6638</v>
       </c>
       <c r="C6" t="n">
-        <v>32.6262</v>
+        <v>32.5818</v>
       </c>
       <c r="D6" t="n">
-        <v>42.1951</v>
+        <v>41.749</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.6264</v>
+        <v>31.8372</v>
       </c>
       <c r="C7" t="n">
-        <v>36.1905</v>
+        <v>32.5112</v>
       </c>
       <c r="D7" t="n">
-        <v>38.9138</v>
+        <v>38.8355</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.3626</v>
+        <v>35.988</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4027</v>
+        <v>33.3034</v>
       </c>
       <c r="D8" t="n">
-        <v>36.4198</v>
+        <v>42.8664</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.396</v>
+        <v>34.3933</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7844</v>
+        <v>32.2895</v>
       </c>
       <c r="D9" t="n">
-        <v>36.9221</v>
+        <v>42.2431</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.7429</v>
+        <v>37.0263</v>
       </c>
       <c r="C10" t="n">
-        <v>35.3657</v>
+        <v>32.9959</v>
       </c>
       <c r="D10" t="n">
-        <v>39.3633</v>
+        <v>41.7557</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.9382</v>
+        <v>30.8403</v>
       </c>
       <c r="C11" t="n">
-        <v>36.3774</v>
+        <v>35.4408</v>
       </c>
       <c r="D11" t="n">
-        <v>41.2932</v>
+        <v>42.1536</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.5626</v>
+        <v>40.5653</v>
       </c>
       <c r="C12" t="n">
-        <v>36.0966</v>
+        <v>35.3349</v>
       </c>
       <c r="D12" t="n">
-        <v>41.3093</v>
+        <v>43.2399</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.6049</v>
+        <v>33.5028</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2896</v>
+        <v>35.7257</v>
       </c>
       <c r="D13" t="n">
-        <v>39.8707</v>
+        <v>43.0932</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.364</v>
+        <v>34.3934</v>
       </c>
       <c r="C14" t="n">
-        <v>36.6924</v>
+        <v>37.5284</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2052</v>
+        <v>44.078</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.6451</v>
+        <v>37.4342</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3151</v>
+        <v>36.2287</v>
       </c>
       <c r="D15" t="n">
-        <v>39.8041</v>
+        <v>42.5108</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.5926</v>
+        <v>34.9762</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5035</v>
+        <v>35.9679</v>
       </c>
       <c r="D16" t="n">
-        <v>38.1258</v>
+        <v>42.965</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.2402</v>
+        <v>33.4977</v>
       </c>
       <c r="C17" t="n">
-        <v>33.5412</v>
+        <v>34.2822</v>
       </c>
       <c r="D17" t="n">
-        <v>42.1641</v>
+        <v>45.2848</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.2864</v>
+        <v>11.2596</v>
       </c>
       <c r="C2" t="n">
-        <v>13.948</v>
+        <v>13.9627</v>
       </c>
       <c r="D2" t="n">
-        <v>18.1224</v>
+        <v>18.1332</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.7613</v>
+        <v>21.6466</v>
       </c>
       <c r="C3" t="n">
-        <v>24.4949</v>
+        <v>24.0035</v>
       </c>
       <c r="D3" t="n">
-        <v>31.5617</v>
+        <v>29.7327</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.5985</v>
+        <v>28.3272</v>
       </c>
       <c r="C4" t="n">
-        <v>31.7872</v>
+        <v>31.0962</v>
       </c>
       <c r="D4" t="n">
-        <v>33.2505</v>
+        <v>37.112</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32.5041</v>
+        <v>31.3629</v>
       </c>
       <c r="C5" t="n">
-        <v>31.9105</v>
+        <v>35.6879</v>
       </c>
       <c r="D5" t="n">
-        <v>47.7211</v>
+        <v>50.5583</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6711</v>
+        <v>35.224</v>
       </c>
       <c r="C6" t="n">
-        <v>33.6627</v>
+        <v>34.3459</v>
       </c>
       <c r="D6" t="n">
-        <v>42.2398</v>
+        <v>37.0279</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.7866</v>
+        <v>37.5259</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5607</v>
+        <v>31.5002</v>
       </c>
       <c r="D7" t="n">
-        <v>37.733</v>
+        <v>39.8233</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.0152</v>
+        <v>32.1069</v>
       </c>
       <c r="C8" t="n">
-        <v>31.6446</v>
+        <v>31.8933</v>
       </c>
       <c r="D8" t="n">
-        <v>38.3323</v>
+        <v>37.0006</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.797</v>
+        <v>33.7455</v>
       </c>
       <c r="C9" t="n">
-        <v>32.923</v>
+        <v>33.2916</v>
       </c>
       <c r="D9" t="n">
-        <v>42.7954</v>
+        <v>40.184</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.2057</v>
+        <v>34.2355</v>
       </c>
       <c r="C10" t="n">
-        <v>33.5348</v>
+        <v>31.5494</v>
       </c>
       <c r="D10" t="n">
-        <v>35.6811</v>
+        <v>41.4924</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.9212</v>
+        <v>34.5733</v>
       </c>
       <c r="C11" t="n">
-        <v>37.0899</v>
+        <v>36.9759</v>
       </c>
       <c r="D11" t="n">
-        <v>39.7247</v>
+        <v>44.6949</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.1154</v>
+        <v>34.646</v>
       </c>
       <c r="C12" t="n">
-        <v>36.674</v>
+        <v>38.4897</v>
       </c>
       <c r="D12" t="n">
-        <v>45.1057</v>
+        <v>41.3108</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.634</v>
+        <v>39.6956</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5159</v>
+        <v>35.5633</v>
       </c>
       <c r="D13" t="n">
-        <v>38.1873</v>
+        <v>42.7908</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.216</v>
+        <v>37.5251</v>
       </c>
       <c r="C14" t="n">
-        <v>36.5492</v>
+        <v>39.4985</v>
       </c>
       <c r="D14" t="n">
-        <v>39.2274</v>
+        <v>44.714</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.1291</v>
+        <v>36.2582</v>
       </c>
       <c r="C15" t="n">
-        <v>38.0649</v>
+        <v>37.5013</v>
       </c>
       <c r="D15" t="n">
-        <v>37.1215</v>
+        <v>42.8081</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.6103</v>
+        <v>35.8991</v>
       </c>
       <c r="C16" t="n">
-        <v>35.6906</v>
+        <v>33.8823</v>
       </c>
       <c r="D16" t="n">
-        <v>41.5857</v>
+        <v>43.4269</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.8449</v>
+        <v>36.5013</v>
       </c>
       <c r="C17" t="n">
-        <v>34.0895</v>
+        <v>38.0612</v>
       </c>
       <c r="D17" t="n">
-        <v>36.5527</v>
+        <v>44.4549</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0309</v>
+        <v>13.18</v>
       </c>
       <c r="C2" t="n">
-        <v>15.4861</v>
+        <v>15.6879</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7372</v>
+        <v>19.5297</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.0844</v>
+        <v>24.7198</v>
       </c>
       <c r="C3" t="n">
-        <v>26.41</v>
+        <v>26.3317</v>
       </c>
       <c r="D3" t="n">
-        <v>30.0243</v>
+        <v>31.3203</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.2813</v>
+        <v>31.871</v>
       </c>
       <c r="C4" t="n">
-        <v>30.2568</v>
+        <v>31.2559</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0632</v>
+        <v>40.4254</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.7952</v>
+        <v>34.1941</v>
       </c>
       <c r="C5" t="n">
-        <v>35.9197</v>
+        <v>36.5416</v>
       </c>
       <c r="D5" t="n">
-        <v>54.0247</v>
+        <v>46.1975</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.9808</v>
+        <v>32.4987</v>
       </c>
       <c r="C6" t="n">
-        <v>35.2299</v>
+        <v>36.0745</v>
       </c>
       <c r="D6" t="n">
-        <v>38.9777</v>
+        <v>46.2281</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.2253</v>
+        <v>32.7986</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6789</v>
+        <v>34.834</v>
       </c>
       <c r="D7" t="n">
-        <v>44.045</v>
+        <v>45.7755</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.3391</v>
+        <v>32.1052</v>
       </c>
       <c r="C8" t="n">
-        <v>33.7777</v>
+        <v>32.1507</v>
       </c>
       <c r="D8" t="n">
-        <v>38.3465</v>
+        <v>40.9641</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.5052</v>
+        <v>38.1888</v>
       </c>
       <c r="C9" t="n">
-        <v>28.4451</v>
+        <v>31.3135</v>
       </c>
       <c r="D9" t="n">
-        <v>42.5872</v>
+        <v>43.8435</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.7037</v>
+        <v>34.7537</v>
       </c>
       <c r="C10" t="n">
-        <v>31.6494</v>
+        <v>29.1378</v>
       </c>
       <c r="D10" t="n">
-        <v>40.3799</v>
+        <v>36.1895</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.974</v>
+        <v>36.9243</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4158</v>
+        <v>35.404</v>
       </c>
       <c r="D11" t="n">
-        <v>41.6409</v>
+        <v>38.9216</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.2072</v>
+        <v>31.8338</v>
       </c>
       <c r="C12" t="n">
-        <v>33.6304</v>
+        <v>30.9913</v>
       </c>
       <c r="D12" t="n">
-        <v>34.5901</v>
+        <v>38.1176</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5915</v>
+        <v>32.9897</v>
       </c>
       <c r="C13" t="n">
-        <v>30.421</v>
+        <v>31.5</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5836</v>
+        <v>42.9741</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.3302</v>
+        <v>35.2894</v>
       </c>
       <c r="C14" t="n">
-        <v>32.2291</v>
+        <v>30.7806</v>
       </c>
       <c r="D14" t="n">
-        <v>41.6315</v>
+        <v>39.8235</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.582</v>
+        <v>35.1402</v>
       </c>
       <c r="C15" t="n">
-        <v>34.9903</v>
+        <v>34.4833</v>
       </c>
       <c r="D15" t="n">
-        <v>42.7008</v>
+        <v>41.8103</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.3292</v>
+        <v>37.3477</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2897</v>
+        <v>38.288</v>
       </c>
       <c r="D16" t="n">
-        <v>42.0249</v>
+        <v>48.3927</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.1268</v>
+        <v>33.9706</v>
       </c>
       <c r="C17" t="n">
-        <v>30.7706</v>
+        <v>33.048</v>
       </c>
       <c r="D17" t="n">
-        <v>48.3333</v>
+        <v>45.7216</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.79129</v>
+        <v>6.81408</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6848</v>
+        <v>12.7077</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6703</v>
+        <v>16.6451</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0497</v>
+        <v>13.0874</v>
       </c>
       <c r="C3" t="n">
-        <v>22.7624</v>
+        <v>22.7613</v>
       </c>
       <c r="D3" t="n">
-        <v>31.9112</v>
+        <v>31.706</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.707</v>
+        <v>18.6112</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6039</v>
+        <v>31.5439</v>
       </c>
       <c r="D4" t="n">
-        <v>45.4493</v>
+        <v>45.222</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5173</v>
+        <v>24.4186</v>
       </c>
       <c r="C5" t="n">
-        <v>40.5821</v>
+        <v>40.5178</v>
       </c>
       <c r="D5" t="n">
-        <v>59.621</v>
+        <v>59.1571</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.9241</v>
+        <v>26.8794</v>
       </c>
       <c r="C6" t="n">
-        <v>36.9244</v>
+        <v>36.9268</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4458</v>
+        <v>53.6503</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4188</v>
+        <v>29.4322</v>
       </c>
       <c r="C7" t="n">
-        <v>36.9596</v>
+        <v>36.9975</v>
       </c>
       <c r="D7" t="n">
-        <v>50.1069</v>
+        <v>53.8505</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8052</v>
+        <v>31.8471</v>
       </c>
       <c r="C8" t="n">
-        <v>37.8376</v>
+        <v>37.8431</v>
       </c>
       <c r="D8" t="n">
-        <v>46.4503</v>
+        <v>50.8608</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.9078</v>
+        <v>33.5859</v>
       </c>
       <c r="C9" t="n">
-        <v>38.031</v>
+        <v>37.9221</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7212</v>
+        <v>52.4831</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.965</v>
+        <v>33.6821</v>
       </c>
       <c r="C10" t="n">
-        <v>41.9138</v>
+        <v>42.2007</v>
       </c>
       <c r="D10" t="n">
-        <v>49.035</v>
+        <v>53.8867</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0271</v>
+        <v>34.0626</v>
       </c>
       <c r="C11" t="n">
-        <v>44.0256</v>
+        <v>43.8808</v>
       </c>
       <c r="D11" t="n">
-        <v>50.754</v>
+        <v>56.2356</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.2486</v>
+        <v>34.1183</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5638</v>
+        <v>44.1336</v>
       </c>
       <c r="D12" t="n">
-        <v>51.8427</v>
+        <v>56.9093</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.1134</v>
+        <v>34.1582</v>
       </c>
       <c r="C13" t="n">
-        <v>44.6495</v>
+        <v>44.6875</v>
       </c>
       <c r="D13" t="n">
-        <v>53.5434</v>
+        <v>59.0348</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.1934</v>
+        <v>34.1741</v>
       </c>
       <c r="C14" t="n">
-        <v>45.0648</v>
+        <v>44.9262</v>
       </c>
       <c r="D14" t="n">
-        <v>53.9947</v>
+        <v>59.0707</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.0775</v>
+        <v>34.154</v>
       </c>
       <c r="C15" t="n">
-        <v>45.2199</v>
+        <v>45.1078</v>
       </c>
       <c r="D15" t="n">
-        <v>54.5743</v>
+        <v>59.2806</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.191</v>
+        <v>34.1058</v>
       </c>
       <c r="C16" t="n">
-        <v>45.235</v>
+        <v>45.0283</v>
       </c>
       <c r="D16" t="n">
-        <v>55.3183</v>
+        <v>60.1228</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.1142</v>
+        <v>34.2472</v>
       </c>
       <c r="C17" t="n">
-        <v>45.4242</v>
+        <v>44.9485</v>
       </c>
       <c r="D17" t="n">
-        <v>55.767</v>
+        <v>61.2002</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.77934</v>
+        <v>6.79795</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7596</v>
+        <v>12.7659</v>
       </c>
       <c r="D2" t="n">
-        <v>16.3951</v>
+        <v>16.356</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0635</v>
+        <v>13.0961</v>
       </c>
       <c r="C3" t="n">
-        <v>22.897</v>
+        <v>22.9351</v>
       </c>
       <c r="D3" t="n">
-        <v>31.3645</v>
+        <v>31.2311</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7447</v>
+        <v>18.6925</v>
       </c>
       <c r="C4" t="n">
-        <v>31.8496</v>
+        <v>31.7966</v>
       </c>
       <c r="D4" t="n">
-        <v>44.6635</v>
+        <v>44.4703</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.6278</v>
+        <v>24.5418</v>
       </c>
       <c r="C5" t="n">
-        <v>41.0344</v>
+        <v>40.97</v>
       </c>
       <c r="D5" t="n">
-        <v>58.6922</v>
+        <v>58.354</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.0862</v>
+        <v>27.068</v>
       </c>
       <c r="C6" t="n">
-        <v>37.2689</v>
+        <v>37.3278</v>
       </c>
       <c r="D6" t="n">
-        <v>50.9493</v>
+        <v>53.0315</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6918</v>
+        <v>29.6611</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3567</v>
+        <v>37.3446</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6248</v>
+        <v>52.9011</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.182</v>
+        <v>32.1352</v>
       </c>
       <c r="C8" t="n">
-        <v>38.1814</v>
+        <v>38.1101</v>
       </c>
       <c r="D8" t="n">
-        <v>46.8466</v>
+        <v>48.7454</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.2405</v>
+        <v>34.1631</v>
       </c>
       <c r="C9" t="n">
-        <v>38.2763</v>
+        <v>38.2071</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0354</v>
+        <v>51.3754</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.2824</v>
+        <v>34.2977</v>
       </c>
       <c r="C10" t="n">
-        <v>41.5091</v>
+        <v>42.6256</v>
       </c>
       <c r="D10" t="n">
-        <v>48.4595</v>
+        <v>52.4355</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.4248</v>
+        <v>34.3544</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1632</v>
+        <v>44.1402</v>
       </c>
       <c r="D11" t="n">
-        <v>50.1731</v>
+        <v>55.7217</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.4683</v>
+        <v>34.5891</v>
       </c>
       <c r="C12" t="n">
-        <v>44.9705</v>
+        <v>43.8815</v>
       </c>
       <c r="D12" t="n">
-        <v>52.1066</v>
+        <v>56.2982</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5239</v>
+        <v>34.4551</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8684</v>
+        <v>45.0619</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4432</v>
+        <v>58.164</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.4472</v>
+        <v>34.5562</v>
       </c>
       <c r="C14" t="n">
-        <v>45.0285</v>
+        <v>45.0842</v>
       </c>
       <c r="D14" t="n">
-        <v>54.1124</v>
+        <v>58.2659</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.4681</v>
+        <v>34.3507</v>
       </c>
       <c r="C15" t="n">
-        <v>45.3655</v>
+        <v>45.3609</v>
       </c>
       <c r="D15" t="n">
-        <v>54.9498</v>
+        <v>59.8761</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.5131</v>
+        <v>34.5865</v>
       </c>
       <c r="C16" t="n">
-        <v>45.3018</v>
+        <v>45.1357</v>
       </c>
       <c r="D16" t="n">
-        <v>54.4627</v>
+        <v>59.4806</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.5901</v>
+        <v>34.4743</v>
       </c>
       <c r="C17" t="n">
-        <v>45.3841</v>
+        <v>45.5411</v>
       </c>
       <c r="D17" t="n">
-        <v>55.3056</v>
+        <v>59.5904</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3984</v>
+        <v>10.5069</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6104</v>
+        <v>15.6135</v>
       </c>
       <c r="D2" t="n">
-        <v>20.135</v>
+        <v>20.1387</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0198</v>
+        <v>20.2025</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4264</v>
+        <v>27.511</v>
       </c>
       <c r="D3" t="n">
-        <v>37.7153</v>
+        <v>37.8465</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.0109</v>
+        <v>29.2042</v>
       </c>
       <c r="C4" t="n">
-        <v>38.1975</v>
+        <v>38.0715</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4814</v>
+        <v>53.4685</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.1374</v>
+        <v>38.4738</v>
       </c>
       <c r="C5" t="n">
-        <v>49.307</v>
+        <v>49.3581</v>
       </c>
       <c r="D5" t="n">
-        <v>69.88379999999999</v>
+        <v>70.3252</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.0995</v>
+        <v>39.3576</v>
       </c>
       <c r="C6" t="n">
-        <v>42.2506</v>
+        <v>42.2621</v>
       </c>
       <c r="D6" t="n">
-        <v>60.5303</v>
+        <v>61.7728</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.57</v>
+        <v>41.8262</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8369</v>
+        <v>40.8336</v>
       </c>
       <c r="D7" t="n">
-        <v>57.4094</v>
+        <v>59.4272</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.4031</v>
+        <v>43.6476</v>
       </c>
       <c r="C8" t="n">
-        <v>40.7231</v>
+        <v>40.7068</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4702</v>
+        <v>52.4954</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>46.3713</v>
+        <v>46.3691</v>
       </c>
       <c r="C9" t="n">
-        <v>39.9905</v>
+        <v>40.106</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3129</v>
+        <v>54.9301</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.6719</v>
+        <v>45.9991</v>
       </c>
       <c r="C10" t="n">
-        <v>43.7607</v>
+        <v>43.7764</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7322</v>
+        <v>55.091</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.7413</v>
+        <v>45.9833</v>
       </c>
       <c r="C11" t="n">
-        <v>45.7787</v>
+        <v>45.9265</v>
       </c>
       <c r="D11" t="n">
-        <v>56.0561</v>
+        <v>57.7395</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.8553</v>
+        <v>45.9618</v>
       </c>
       <c r="C12" t="n">
-        <v>45.9226</v>
+        <v>46.2456</v>
       </c>
       <c r="D12" t="n">
-        <v>56.6018</v>
+        <v>58.9522</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.6777</v>
+        <v>45.8828</v>
       </c>
       <c r="C13" t="n">
-        <v>46.3011</v>
+        <v>46.3781</v>
       </c>
       <c r="D13" t="n">
-        <v>58.7941</v>
+        <v>60.6274</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.6499</v>
+        <v>45.904</v>
       </c>
       <c r="C14" t="n">
-        <v>46.4101</v>
+        <v>46.4407</v>
       </c>
       <c r="D14" t="n">
-        <v>58.8742</v>
+        <v>60.5211</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.8214</v>
+        <v>46.1699</v>
       </c>
       <c r="C15" t="n">
-        <v>46.3983</v>
+        <v>46.4119</v>
       </c>
       <c r="D15" t="n">
-        <v>60.8829</v>
+        <v>63.0982</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.0245</v>
+        <v>46.017</v>
       </c>
       <c r="C16" t="n">
-        <v>46.586</v>
+        <v>46.6253</v>
       </c>
       <c r="D16" t="n">
-        <v>60.615</v>
+        <v>63.1631</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.8523</v>
+        <v>46.0083</v>
       </c>
       <c r="C17" t="n">
-        <v>46.6581</v>
+        <v>46.8144</v>
       </c>
       <c r="D17" t="n">
-        <v>61.3241</v>
+        <v>64.1371</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0351</v>
+        <v>10.7269</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0783</v>
+        <v>14.0105</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2673</v>
+        <v>18.2056</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.0187</v>
+        <v>20.8311</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3404</v>
+        <v>24.3659</v>
       </c>
       <c r="D3" t="n">
-        <v>31.3367</v>
+        <v>29.2922</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.8843</v>
+        <v>29.1049</v>
       </c>
       <c r="C4" t="n">
-        <v>31.005</v>
+        <v>29.1376</v>
       </c>
       <c r="D4" t="n">
-        <v>33.477</v>
+        <v>32.943</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.6986</v>
+        <v>32.9373</v>
       </c>
       <c r="C5" t="n">
-        <v>33.3164</v>
+        <v>33.8722</v>
       </c>
       <c r="D5" t="n">
-        <v>48.1525</v>
+        <v>49.0832</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.6638</v>
+        <v>31.5465</v>
       </c>
       <c r="C6" t="n">
-        <v>32.5818</v>
+        <v>30.5791</v>
       </c>
       <c r="D6" t="n">
-        <v>41.749</v>
+        <v>44.5292</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8372</v>
+        <v>33.573</v>
       </c>
       <c r="C7" t="n">
-        <v>32.5112</v>
+        <v>35.1146</v>
       </c>
       <c r="D7" t="n">
-        <v>38.8355</v>
+        <v>45.0211</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.988</v>
+        <v>33.1556</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3034</v>
+        <v>34.5496</v>
       </c>
       <c r="D8" t="n">
-        <v>42.8664</v>
+        <v>37.8276</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3933</v>
+        <v>33.1039</v>
       </c>
       <c r="C9" t="n">
-        <v>32.2895</v>
+        <v>33.7334</v>
       </c>
       <c r="D9" t="n">
-        <v>42.2431</v>
+        <v>38.8723</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.0263</v>
+        <v>36.949</v>
       </c>
       <c r="C10" t="n">
-        <v>32.9959</v>
+        <v>33.2203</v>
       </c>
       <c r="D10" t="n">
-        <v>41.7557</v>
+        <v>38.0502</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.8403</v>
+        <v>35.0311</v>
       </c>
       <c r="C11" t="n">
-        <v>35.4408</v>
+        <v>35.2209</v>
       </c>
       <c r="D11" t="n">
-        <v>42.1536</v>
+        <v>41.0369</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.5653</v>
+        <v>35.6501</v>
       </c>
       <c r="C12" t="n">
-        <v>35.3349</v>
+        <v>32.9788</v>
       </c>
       <c r="D12" t="n">
-        <v>43.2399</v>
+        <v>45.5032</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.5028</v>
+        <v>35.9985</v>
       </c>
       <c r="C13" t="n">
-        <v>35.7257</v>
+        <v>34.5391</v>
       </c>
       <c r="D13" t="n">
-        <v>43.0932</v>
+        <v>42.5462</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.3934</v>
+        <v>32.8542</v>
       </c>
       <c r="C14" t="n">
-        <v>37.5284</v>
+        <v>34.8681</v>
       </c>
       <c r="D14" t="n">
-        <v>44.078</v>
+        <v>46.0807</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.4342</v>
+        <v>34.2413</v>
       </c>
       <c r="C15" t="n">
-        <v>36.2287</v>
+        <v>35.2105</v>
       </c>
       <c r="D15" t="n">
-        <v>42.5108</v>
+        <v>46.6106</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.9762</v>
+        <v>36.5665</v>
       </c>
       <c r="C16" t="n">
-        <v>35.9679</v>
+        <v>35.6981</v>
       </c>
       <c r="D16" t="n">
-        <v>42.965</v>
+        <v>41.9929</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.4977</v>
+        <v>32.8286</v>
       </c>
       <c r="C17" t="n">
-        <v>34.2822</v>
+        <v>33.3568</v>
       </c>
       <c r="D17" t="n">
-        <v>45.2848</v>
+        <v>45.7975</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.2596</v>
+        <v>11.2364</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9627</v>
+        <v>14.0043</v>
       </c>
       <c r="D2" t="n">
-        <v>18.1332</v>
+        <v>17.9588</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.6466</v>
+        <v>21.7456</v>
       </c>
       <c r="C3" t="n">
-        <v>24.0035</v>
+        <v>23.8114</v>
       </c>
       <c r="D3" t="n">
-        <v>29.7327</v>
+        <v>30.4065</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.3272</v>
+        <v>29.1454</v>
       </c>
       <c r="C4" t="n">
-        <v>31.0962</v>
+        <v>32.182</v>
       </c>
       <c r="D4" t="n">
-        <v>37.112</v>
+        <v>34.4437</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.3629</v>
+        <v>31.1672</v>
       </c>
       <c r="C5" t="n">
-        <v>35.6879</v>
+        <v>32.193</v>
       </c>
       <c r="D5" t="n">
-        <v>50.5583</v>
+        <v>51.5432</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35.224</v>
+        <v>33.3273</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3459</v>
+        <v>33.1551</v>
       </c>
       <c r="D6" t="n">
-        <v>37.0279</v>
+        <v>41.1046</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.5259</v>
+        <v>31.8304</v>
       </c>
       <c r="C7" t="n">
-        <v>31.5002</v>
+        <v>32.0881</v>
       </c>
       <c r="D7" t="n">
-        <v>39.8233</v>
+        <v>38.9602</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.1069</v>
+        <v>34.7084</v>
       </c>
       <c r="C8" t="n">
-        <v>31.8933</v>
+        <v>32.134</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0006</v>
+        <v>41.5819</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.7455</v>
+        <v>31.8925</v>
       </c>
       <c r="C9" t="n">
-        <v>33.2916</v>
+        <v>31.8041</v>
       </c>
       <c r="D9" t="n">
-        <v>40.184</v>
+        <v>40.3909</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.2355</v>
+        <v>35.7232</v>
       </c>
       <c r="C10" t="n">
-        <v>31.5494</v>
+        <v>37.9072</v>
       </c>
       <c r="D10" t="n">
-        <v>41.4924</v>
+        <v>37.9955</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.5733</v>
+        <v>34.0137</v>
       </c>
       <c r="C11" t="n">
-        <v>36.9759</v>
+        <v>34.3722</v>
       </c>
       <c r="D11" t="n">
-        <v>44.6949</v>
+        <v>40.5165</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.646</v>
+        <v>39.2742</v>
       </c>
       <c r="C12" t="n">
-        <v>38.4897</v>
+        <v>35.7503</v>
       </c>
       <c r="D12" t="n">
-        <v>41.3108</v>
+        <v>40.9629</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>39.6956</v>
+        <v>38.8732</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5633</v>
+        <v>32.5754</v>
       </c>
       <c r="D13" t="n">
-        <v>42.7908</v>
+        <v>42.3737</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.5251</v>
+        <v>32.6868</v>
       </c>
       <c r="C14" t="n">
-        <v>39.4985</v>
+        <v>37.6468</v>
       </c>
       <c r="D14" t="n">
-        <v>44.714</v>
+        <v>40.8288</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.2582</v>
+        <v>36.0091</v>
       </c>
       <c r="C15" t="n">
-        <v>37.5013</v>
+        <v>35.9176</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8081</v>
+        <v>40.1503</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.8991</v>
+        <v>35.0498</v>
       </c>
       <c r="C16" t="n">
-        <v>33.8823</v>
+        <v>33.2074</v>
       </c>
       <c r="D16" t="n">
-        <v>43.4269</v>
+        <v>44.3216</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.5013</v>
+        <v>33.9733</v>
       </c>
       <c r="C17" t="n">
-        <v>38.0612</v>
+        <v>34.221</v>
       </c>
       <c r="D17" t="n">
-        <v>44.4549</v>
+        <v>45.8104</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.18</v>
+        <v>13.3074</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6879</v>
+        <v>15.6062</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5297</v>
+        <v>19.6734</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.7198</v>
+        <v>24.2348</v>
       </c>
       <c r="C3" t="n">
-        <v>26.3317</v>
+        <v>26.243</v>
       </c>
       <c r="D3" t="n">
-        <v>31.3203</v>
+        <v>33.8689</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.871</v>
+        <v>30.6259</v>
       </c>
       <c r="C4" t="n">
-        <v>31.2559</v>
+        <v>31.0518</v>
       </c>
       <c r="D4" t="n">
-        <v>40.4254</v>
+        <v>42.2385</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.1941</v>
+        <v>33.8779</v>
       </c>
       <c r="C5" t="n">
-        <v>36.5416</v>
+        <v>34.9082</v>
       </c>
       <c r="D5" t="n">
-        <v>46.1975</v>
+        <v>51.752</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.4987</v>
+        <v>31.2295</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0745</v>
+        <v>31.6784</v>
       </c>
       <c r="D6" t="n">
-        <v>46.2281</v>
+        <v>48.4512</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.7986</v>
+        <v>32.3463</v>
       </c>
       <c r="C7" t="n">
-        <v>34.834</v>
+        <v>31.3215</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7755</v>
+        <v>46.851</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.1052</v>
+        <v>32.0188</v>
       </c>
       <c r="C8" t="n">
-        <v>32.1507</v>
+        <v>36.0795</v>
       </c>
       <c r="D8" t="n">
-        <v>40.9641</v>
+        <v>46.4771</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1888</v>
+        <v>32.2818</v>
       </c>
       <c r="C9" t="n">
-        <v>31.3135</v>
+        <v>32.2483</v>
       </c>
       <c r="D9" t="n">
-        <v>43.8435</v>
+        <v>45.7735</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.7537</v>
+        <v>33.9731</v>
       </c>
       <c r="C10" t="n">
-        <v>29.1378</v>
+        <v>33.5268</v>
       </c>
       <c r="D10" t="n">
-        <v>36.1895</v>
+        <v>39.9272</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.9243</v>
+        <v>35.1623</v>
       </c>
       <c r="C11" t="n">
-        <v>35.404</v>
+        <v>33.6654</v>
       </c>
       <c r="D11" t="n">
-        <v>38.9216</v>
+        <v>45.2912</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.8338</v>
+        <v>33.7089</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9913</v>
+        <v>32.6318</v>
       </c>
       <c r="D12" t="n">
-        <v>38.1176</v>
+        <v>38.0005</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.9897</v>
+        <v>34.2082</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5</v>
+        <v>32.2139</v>
       </c>
       <c r="D13" t="n">
-        <v>42.9741</v>
+        <v>39.5607</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35.2894</v>
+        <v>32.3144</v>
       </c>
       <c r="C14" t="n">
-        <v>30.7806</v>
+        <v>32.0919</v>
       </c>
       <c r="D14" t="n">
-        <v>39.8235</v>
+        <v>44.7618</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.1402</v>
+        <v>34.8362</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4833</v>
+        <v>29.8485</v>
       </c>
       <c r="D15" t="n">
-        <v>41.8103</v>
+        <v>44.5491</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.3477</v>
+        <v>33.5168</v>
       </c>
       <c r="C16" t="n">
-        <v>38.288</v>
+        <v>30.6343</v>
       </c>
       <c r="D16" t="n">
-        <v>48.3927</v>
+        <v>42.9782</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.9706</v>
+        <v>35.1627</v>
       </c>
       <c r="C17" t="n">
-        <v>33.048</v>
+        <v>30.348</v>
       </c>
       <c r="D17" t="n">
-        <v>45.7216</v>
+        <v>45.5665</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.81408</v>
+        <v>6.80486</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7077</v>
+        <v>12.7039</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6451</v>
+        <v>16.6922</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0874</v>
+        <v>13.0664</v>
       </c>
       <c r="C3" t="n">
-        <v>22.7613</v>
+        <v>22.7611</v>
       </c>
       <c r="D3" t="n">
-        <v>31.706</v>
+        <v>31.9807</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.6112</v>
+        <v>18.7252</v>
       </c>
       <c r="C4" t="n">
-        <v>31.5439</v>
+        <v>31.6836</v>
       </c>
       <c r="D4" t="n">
-        <v>45.222</v>
+        <v>45.6493</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4186</v>
+        <v>24.5364</v>
       </c>
       <c r="C5" t="n">
-        <v>40.5178</v>
+        <v>40.63</v>
       </c>
       <c r="D5" t="n">
-        <v>59.1571</v>
+        <v>60.056</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.8794</v>
+        <v>26.937</v>
       </c>
       <c r="C6" t="n">
-        <v>36.9268</v>
+        <v>35.8904</v>
       </c>
       <c r="D6" t="n">
-        <v>53.6503</v>
+        <v>53.6567</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4322</v>
+        <v>29.4576</v>
       </c>
       <c r="C7" t="n">
-        <v>36.9975</v>
+        <v>36.1472</v>
       </c>
       <c r="D7" t="n">
-        <v>53.8505</v>
+        <v>54.1649</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8471</v>
+        <v>31.9162</v>
       </c>
       <c r="C8" t="n">
-        <v>37.8431</v>
+        <v>37.0716</v>
       </c>
       <c r="D8" t="n">
-        <v>50.8608</v>
+        <v>48.9872</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.5859</v>
+        <v>33.9385</v>
       </c>
       <c r="C9" t="n">
-        <v>37.9221</v>
+        <v>37.0577</v>
       </c>
       <c r="D9" t="n">
-        <v>52.4831</v>
+        <v>51.0473</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.6821</v>
+        <v>34.0024</v>
       </c>
       <c r="C10" t="n">
-        <v>42.2007</v>
+        <v>41.3626</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8867</v>
+        <v>52.8597</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0626</v>
+        <v>34.0981</v>
       </c>
       <c r="C11" t="n">
-        <v>43.8808</v>
+        <v>43.4194</v>
       </c>
       <c r="D11" t="n">
-        <v>56.2356</v>
+        <v>56.0996</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.1183</v>
+        <v>34.0301</v>
       </c>
       <c r="C12" t="n">
-        <v>44.1336</v>
+        <v>43.5377</v>
       </c>
       <c r="D12" t="n">
-        <v>56.9093</v>
+        <v>56.7793</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.1582</v>
+        <v>34.1187</v>
       </c>
       <c r="C13" t="n">
-        <v>44.6875</v>
+        <v>44.4769</v>
       </c>
       <c r="D13" t="n">
-        <v>59.0348</v>
+        <v>58.5266</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.1741</v>
+        <v>34.1524</v>
       </c>
       <c r="C14" t="n">
-        <v>44.9262</v>
+        <v>44.0185</v>
       </c>
       <c r="D14" t="n">
-        <v>59.0707</v>
+        <v>59.3786</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.154</v>
+        <v>34.1974</v>
       </c>
       <c r="C15" t="n">
-        <v>45.1078</v>
+        <v>44.9065</v>
       </c>
       <c r="D15" t="n">
-        <v>59.2806</v>
+        <v>59.5846</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.1058</v>
+        <v>34.1668</v>
       </c>
       <c r="C16" t="n">
-        <v>45.0283</v>
+        <v>44.7036</v>
       </c>
       <c r="D16" t="n">
-        <v>60.1228</v>
+        <v>60.0203</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.2472</v>
+        <v>34.2016</v>
       </c>
       <c r="C17" t="n">
-        <v>44.9485</v>
+        <v>44.9035</v>
       </c>
       <c r="D17" t="n">
-        <v>61.2002</v>
+        <v>60.7282</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.79795</v>
+        <v>6.794</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7659</v>
+        <v>12.7727</v>
       </c>
       <c r="D2" t="n">
-        <v>16.356</v>
+        <v>16.4298</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0961</v>
+        <v>13.0989</v>
       </c>
       <c r="C3" t="n">
-        <v>22.9351</v>
+        <v>22.9114</v>
       </c>
       <c r="D3" t="n">
-        <v>31.2311</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.6925</v>
+        <v>18.7879</v>
       </c>
       <c r="C4" t="n">
-        <v>31.7966</v>
+        <v>31.9087</v>
       </c>
       <c r="D4" t="n">
-        <v>44.4703</v>
+        <v>44.9268</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5418</v>
+        <v>24.6887</v>
       </c>
       <c r="C5" t="n">
-        <v>40.97</v>
+        <v>41.1065</v>
       </c>
       <c r="D5" t="n">
-        <v>58.354</v>
+        <v>58.979</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.068</v>
+        <v>27.1812</v>
       </c>
       <c r="C6" t="n">
-        <v>37.3278</v>
+        <v>36.4683</v>
       </c>
       <c r="D6" t="n">
-        <v>53.0315</v>
+        <v>53.4474</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6611</v>
+        <v>29.7135</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3446</v>
+        <v>36.529</v>
       </c>
       <c r="D7" t="n">
-        <v>52.9011</v>
+        <v>53.2582</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.1352</v>
+        <v>32.2341</v>
       </c>
       <c r="C8" t="n">
-        <v>38.1101</v>
+        <v>37.4511</v>
       </c>
       <c r="D8" t="n">
-        <v>48.7454</v>
+        <v>48.6319</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.1631</v>
+        <v>34.241</v>
       </c>
       <c r="C9" t="n">
-        <v>38.2071</v>
+        <v>37.5174</v>
       </c>
       <c r="D9" t="n">
-        <v>51.3754</v>
+        <v>51.932</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.2977</v>
+        <v>34.3802</v>
       </c>
       <c r="C10" t="n">
-        <v>42.6256</v>
+        <v>40.8262</v>
       </c>
       <c r="D10" t="n">
-        <v>52.4355</v>
+        <v>52.4725</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.3544</v>
+        <v>34.4675</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1402</v>
+        <v>43.8792</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7217</v>
+        <v>55.1362</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.5891</v>
+        <v>34.4849</v>
       </c>
       <c r="C12" t="n">
-        <v>43.8815</v>
+        <v>43.9628</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2982</v>
+        <v>56.0389</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.4551</v>
+        <v>34.5953</v>
       </c>
       <c r="C13" t="n">
-        <v>45.0619</v>
+        <v>44.8214</v>
       </c>
       <c r="D13" t="n">
-        <v>58.164</v>
+        <v>58.1275</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.5562</v>
+        <v>34.5708</v>
       </c>
       <c r="C14" t="n">
-        <v>45.0842</v>
+        <v>44.9308</v>
       </c>
       <c r="D14" t="n">
-        <v>58.2659</v>
+        <v>58.1645</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.3507</v>
+        <v>34.5749</v>
       </c>
       <c r="C15" t="n">
-        <v>45.3609</v>
+        <v>45.2309</v>
       </c>
       <c r="D15" t="n">
-        <v>59.8761</v>
+        <v>59.5371</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.5865</v>
+        <v>34.5619</v>
       </c>
       <c r="C16" t="n">
-        <v>45.1357</v>
+        <v>45.2934</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4806</v>
+        <v>59.3052</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.4743</v>
+        <v>34.6404</v>
       </c>
       <c r="C17" t="n">
-        <v>45.5411</v>
+        <v>45.2605</v>
       </c>
       <c r="D17" t="n">
-        <v>59.5904</v>
+        <v>60.6688</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5069</v>
+        <v>10.5482</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6135</v>
+        <v>15.6249</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1387</v>
+        <v>20.1783</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.2025</v>
+        <v>20.2996</v>
       </c>
       <c r="C3" t="n">
-        <v>27.511</v>
+        <v>27.4959</v>
       </c>
       <c r="D3" t="n">
-        <v>37.8465</v>
+        <v>37.9874</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.2042</v>
+        <v>29.3847</v>
       </c>
       <c r="C4" t="n">
-        <v>38.0715</v>
+        <v>38.277</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4685</v>
+        <v>54.0364</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.4738</v>
+        <v>38.5875</v>
       </c>
       <c r="C5" t="n">
-        <v>49.3581</v>
+        <v>49.2984</v>
       </c>
       <c r="D5" t="n">
-        <v>70.3252</v>
+        <v>70.27889999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.3576</v>
+        <v>39.5424</v>
       </c>
       <c r="C6" t="n">
-        <v>42.2621</v>
+        <v>42.062</v>
       </c>
       <c r="D6" t="n">
-        <v>61.7728</v>
+        <v>61.8993</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.8262</v>
+        <v>41.5913</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8336</v>
+        <v>40.6591</v>
       </c>
       <c r="D7" t="n">
-        <v>59.4272</v>
+        <v>59.15</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.6476</v>
+        <v>43.7117</v>
       </c>
       <c r="C8" t="n">
-        <v>40.7068</v>
+        <v>40.5103</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4954</v>
+        <v>52.8166</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>46.3691</v>
+        <v>46.6551</v>
       </c>
       <c r="C9" t="n">
-        <v>40.106</v>
+        <v>39.7168</v>
       </c>
       <c r="D9" t="n">
-        <v>54.9301</v>
+        <v>55.0009</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.9991</v>
+        <v>46.1389</v>
       </c>
       <c r="C10" t="n">
-        <v>43.7764</v>
+        <v>43.3334</v>
       </c>
       <c r="D10" t="n">
-        <v>55.091</v>
+        <v>54.7859</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.9833</v>
+        <v>45.97</v>
       </c>
       <c r="C11" t="n">
-        <v>45.9265</v>
+        <v>45.7349</v>
       </c>
       <c r="D11" t="n">
-        <v>57.7395</v>
+        <v>58.1202</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.9618</v>
+        <v>46.2143</v>
       </c>
       <c r="C12" t="n">
-        <v>46.2456</v>
+        <v>45.8615</v>
       </c>
       <c r="D12" t="n">
-        <v>58.9522</v>
+        <v>58.8441</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.8828</v>
+        <v>45.9921</v>
       </c>
       <c r="C13" t="n">
-        <v>46.3781</v>
+        <v>46.1702</v>
       </c>
       <c r="D13" t="n">
-        <v>60.6274</v>
+        <v>60.7538</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.904</v>
+        <v>46.0954</v>
       </c>
       <c r="C14" t="n">
-        <v>46.4407</v>
+        <v>46.3111</v>
       </c>
       <c r="D14" t="n">
-        <v>60.5211</v>
+        <v>60.8576</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.1699</v>
+        <v>45.7398</v>
       </c>
       <c r="C15" t="n">
-        <v>46.4119</v>
+        <v>46.318</v>
       </c>
       <c r="D15" t="n">
-        <v>63.0982</v>
+        <v>63.0881</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.017</v>
+        <v>46.1228</v>
       </c>
       <c r="C16" t="n">
-        <v>46.6253</v>
+        <v>46.4234</v>
       </c>
       <c r="D16" t="n">
-        <v>63.1631</v>
+        <v>63.2246</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.0083</v>
+        <v>46.3255</v>
       </c>
       <c r="C17" t="n">
-        <v>46.8144</v>
+        <v>46.4592</v>
       </c>
       <c r="D17" t="n">
-        <v>64.1371</v>
+        <v>63.179</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7269</v>
+        <v>10.8155</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0105</v>
+        <v>14.0237</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2056</v>
+        <v>18.3402</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.8311</v>
+        <v>20.9806</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3659</v>
+        <v>24.5483</v>
       </c>
       <c r="D3" t="n">
-        <v>29.2922</v>
+        <v>30.0421</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.1049</v>
+        <v>29.2169</v>
       </c>
       <c r="C4" t="n">
-        <v>29.1376</v>
+        <v>30.7479</v>
       </c>
       <c r="D4" t="n">
-        <v>32.943</v>
+        <v>31.4251</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32.9373</v>
+        <v>33.1888</v>
       </c>
       <c r="C5" t="n">
-        <v>33.8722</v>
+        <v>33.4058</v>
       </c>
       <c r="D5" t="n">
-        <v>49.0832</v>
+        <v>45.4028</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.5465</v>
+        <v>30.3287</v>
       </c>
       <c r="C6" t="n">
-        <v>30.5791</v>
+        <v>34.3727</v>
       </c>
       <c r="D6" t="n">
-        <v>44.5292</v>
+        <v>40.8164</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.573</v>
+        <v>32.0105</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1146</v>
+        <v>32.4698</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0211</v>
+        <v>40.9466</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.1556</v>
+        <v>34.9483</v>
       </c>
       <c r="C8" t="n">
-        <v>34.5496</v>
+        <v>36.0389</v>
       </c>
       <c r="D8" t="n">
-        <v>37.8276</v>
+        <v>38.5062</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.1039</v>
+        <v>36.5799</v>
       </c>
       <c r="C9" t="n">
-        <v>33.7334</v>
+        <v>33.9232</v>
       </c>
       <c r="D9" t="n">
-        <v>38.8723</v>
+        <v>42.9299</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36.949</v>
+        <v>35.6174</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2203</v>
+        <v>34.4942</v>
       </c>
       <c r="D10" t="n">
-        <v>38.0502</v>
+        <v>35.7653</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.0311</v>
+        <v>35.6067</v>
       </c>
       <c r="C11" t="n">
-        <v>35.2209</v>
+        <v>35.0776</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0369</v>
+        <v>40.7763</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.6501</v>
+        <v>37.923</v>
       </c>
       <c r="C12" t="n">
-        <v>32.9788</v>
+        <v>34.1283</v>
       </c>
       <c r="D12" t="n">
-        <v>45.5032</v>
+        <v>42.2757</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.9985</v>
+        <v>35.1742</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5391</v>
+        <v>34.2963</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5462</v>
+        <v>42.4834</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.8542</v>
+        <v>37.5687</v>
       </c>
       <c r="C14" t="n">
-        <v>34.8681</v>
+        <v>36.9511</v>
       </c>
       <c r="D14" t="n">
-        <v>46.0807</v>
+        <v>42.3856</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.2413</v>
+        <v>33.547</v>
       </c>
       <c r="C15" t="n">
-        <v>35.2105</v>
+        <v>32.9614</v>
       </c>
       <c r="D15" t="n">
-        <v>46.6106</v>
+        <v>44.812</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.5665</v>
+        <v>34.5465</v>
       </c>
       <c r="C16" t="n">
-        <v>35.6981</v>
+        <v>34.9461</v>
       </c>
       <c r="D16" t="n">
-        <v>41.9929</v>
+        <v>41.5151</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.8286</v>
+        <v>33.7523</v>
       </c>
       <c r="C17" t="n">
-        <v>33.3568</v>
+        <v>36.1476</v>
       </c>
       <c r="D17" t="n">
-        <v>45.7975</v>
+        <v>40.17</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.2364</v>
+        <v>11.3115</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0043</v>
+        <v>13.8756</v>
       </c>
       <c r="D2" t="n">
-        <v>17.9588</v>
+        <v>18.2281</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.7456</v>
+        <v>21.3377</v>
       </c>
       <c r="C3" t="n">
-        <v>23.8114</v>
+        <v>24.3022</v>
       </c>
       <c r="D3" t="n">
-        <v>30.4065</v>
+        <v>29.3131</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.1454</v>
+        <v>29.9759</v>
       </c>
       <c r="C4" t="n">
-        <v>32.182</v>
+        <v>30.7141</v>
       </c>
       <c r="D4" t="n">
-        <v>34.4437</v>
+        <v>32.0279</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1672</v>
+        <v>36.9453</v>
       </c>
       <c r="C5" t="n">
-        <v>32.193</v>
+        <v>32.7353</v>
       </c>
       <c r="D5" t="n">
-        <v>51.5432</v>
+        <v>43.3401</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3273</v>
+        <v>32.0078</v>
       </c>
       <c r="C6" t="n">
-        <v>33.1551</v>
+        <v>36.4842</v>
       </c>
       <c r="D6" t="n">
-        <v>41.1046</v>
+        <v>37.9461</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.8304</v>
+        <v>32.567</v>
       </c>
       <c r="C7" t="n">
-        <v>32.0881</v>
+        <v>37.8729</v>
       </c>
       <c r="D7" t="n">
-        <v>38.9602</v>
+        <v>40.324</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.7084</v>
+        <v>32.0236</v>
       </c>
       <c r="C8" t="n">
-        <v>32.134</v>
+        <v>31.3784</v>
       </c>
       <c r="D8" t="n">
-        <v>41.5819</v>
+        <v>36.3256</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8925</v>
+        <v>36.7934</v>
       </c>
       <c r="C9" t="n">
-        <v>31.8041</v>
+        <v>30.8949</v>
       </c>
       <c r="D9" t="n">
-        <v>40.3909</v>
+        <v>42.357</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.7232</v>
+        <v>38.1537</v>
       </c>
       <c r="C10" t="n">
-        <v>37.9072</v>
+        <v>33.2611</v>
       </c>
       <c r="D10" t="n">
-        <v>37.9955</v>
+        <v>42.9263</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0137</v>
+        <v>41.2269</v>
       </c>
       <c r="C11" t="n">
-        <v>34.3722</v>
+        <v>33.1615</v>
       </c>
       <c r="D11" t="n">
-        <v>40.5165</v>
+        <v>44.4764</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.2742</v>
+        <v>37.044</v>
       </c>
       <c r="C12" t="n">
-        <v>35.7503</v>
+        <v>32.3131</v>
       </c>
       <c r="D12" t="n">
-        <v>40.9629</v>
+        <v>42.4995</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>38.8732</v>
+        <v>35.2941</v>
       </c>
       <c r="C13" t="n">
-        <v>32.5754</v>
+        <v>35.6816</v>
       </c>
       <c r="D13" t="n">
-        <v>42.3737</v>
+        <v>38.8887</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.6868</v>
+        <v>32.4397</v>
       </c>
       <c r="C14" t="n">
-        <v>37.6468</v>
+        <v>40.4094</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8288</v>
+        <v>39.0915</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0091</v>
+        <v>37.4343</v>
       </c>
       <c r="C15" t="n">
-        <v>35.9176</v>
+        <v>34.4607</v>
       </c>
       <c r="D15" t="n">
-        <v>40.1503</v>
+        <v>53.1451</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.0498</v>
+        <v>32.9971</v>
       </c>
       <c r="C16" t="n">
-        <v>33.2074</v>
+        <v>33.6837</v>
       </c>
       <c r="D16" t="n">
-        <v>44.3216</v>
+        <v>46.3253</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.9733</v>
+        <v>39.2668</v>
       </c>
       <c r="C17" t="n">
-        <v>34.221</v>
+        <v>35.4533</v>
       </c>
       <c r="D17" t="n">
-        <v>45.8104</v>
+        <v>39.6415</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.3074</v>
+        <v>13.38</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6062</v>
+        <v>15.6187</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6734</v>
+        <v>19.4058</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.2348</v>
+        <v>24.6113</v>
       </c>
       <c r="C3" t="n">
-        <v>26.243</v>
+        <v>26.3232</v>
       </c>
       <c r="D3" t="n">
-        <v>33.8689</v>
+        <v>28.4519</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.6259</v>
+        <v>31.9767</v>
       </c>
       <c r="C4" t="n">
-        <v>31.0518</v>
+        <v>32.0667</v>
       </c>
       <c r="D4" t="n">
-        <v>42.2385</v>
+        <v>36.4547</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.8779</v>
+        <v>34.9982</v>
       </c>
       <c r="C5" t="n">
-        <v>34.9082</v>
+        <v>42.0206</v>
       </c>
       <c r="D5" t="n">
-        <v>51.752</v>
+        <v>51.6131</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.2295</v>
+        <v>31.855</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6784</v>
+        <v>36.439</v>
       </c>
       <c r="D6" t="n">
-        <v>48.4512</v>
+        <v>36.8486</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.3463</v>
+        <v>32.9548</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3215</v>
+        <v>33.6879</v>
       </c>
       <c r="D7" t="n">
-        <v>46.851</v>
+        <v>39.9607</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.0188</v>
+        <v>34.3225</v>
       </c>
       <c r="C8" t="n">
-        <v>36.0795</v>
+        <v>32.8504</v>
       </c>
       <c r="D8" t="n">
-        <v>46.4771</v>
+        <v>38.7581</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.2818</v>
+        <v>33.5931</v>
       </c>
       <c r="C9" t="n">
-        <v>32.2483</v>
+        <v>32.7418</v>
       </c>
       <c r="D9" t="n">
-        <v>45.7735</v>
+        <v>35.3177</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.9731</v>
+        <v>37.1243</v>
       </c>
       <c r="C10" t="n">
-        <v>33.5268</v>
+        <v>33.4355</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9272</v>
+        <v>35.5044</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.1623</v>
+        <v>33.0461</v>
       </c>
       <c r="C11" t="n">
-        <v>33.6654</v>
+        <v>35.636</v>
       </c>
       <c r="D11" t="n">
-        <v>45.2912</v>
+        <v>39.2708</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.7089</v>
+        <v>33.6745</v>
       </c>
       <c r="C12" t="n">
-        <v>32.6318</v>
+        <v>33.676</v>
       </c>
       <c r="D12" t="n">
-        <v>38.0005</v>
+        <v>37.9998</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.2082</v>
+        <v>37.6163</v>
       </c>
       <c r="C13" t="n">
-        <v>32.2139</v>
+        <v>34.8253</v>
       </c>
       <c r="D13" t="n">
-        <v>39.5607</v>
+        <v>42.7806</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.3144</v>
+        <v>36.7882</v>
       </c>
       <c r="C14" t="n">
-        <v>32.0919</v>
+        <v>32.4019</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7618</v>
+        <v>45.4542</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.8362</v>
+        <v>34.093</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8485</v>
+        <v>32.7958</v>
       </c>
       <c r="D15" t="n">
-        <v>44.5491</v>
+        <v>40.6207</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5168</v>
+        <v>34.0737</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6343</v>
+        <v>32.7958</v>
       </c>
       <c r="D16" t="n">
-        <v>42.9782</v>
+        <v>42.0763</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.1627</v>
+        <v>33.2469</v>
       </c>
       <c r="C17" t="n">
-        <v>30.348</v>
+        <v>31.9247</v>
       </c>
       <c r="D17" t="n">
-        <v>45.5665</v>
+        <v>47.8814</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.80486</v>
+        <v>6.80876</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7039</v>
+        <v>12.6049</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6922</v>
+        <v>16.5764</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0664</v>
+        <v>13.074</v>
       </c>
       <c r="C3" t="n">
-        <v>22.7611</v>
+        <v>22.5666</v>
       </c>
       <c r="D3" t="n">
-        <v>31.9807</v>
+        <v>31.8358</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7252</v>
+        <v>18.7496</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6836</v>
+        <v>31.408</v>
       </c>
       <c r="D4" t="n">
-        <v>45.6493</v>
+        <v>45.2819</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5364</v>
+        <v>24.5411</v>
       </c>
       <c r="C5" t="n">
-        <v>40.63</v>
+        <v>40.1723</v>
       </c>
       <c r="D5" t="n">
-        <v>60.056</v>
+        <v>59.1192</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.937</v>
+        <v>26.8405</v>
       </c>
       <c r="C6" t="n">
-        <v>35.8904</v>
+        <v>35.6446</v>
       </c>
       <c r="D6" t="n">
-        <v>53.6567</v>
+        <v>54.0172</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4576</v>
+        <v>29.3267</v>
       </c>
       <c r="C7" t="n">
-        <v>36.1472</v>
+        <v>35.8439</v>
       </c>
       <c r="D7" t="n">
-        <v>54.1649</v>
+        <v>54.4127</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.9162</v>
+        <v>31.6785</v>
       </c>
       <c r="C8" t="n">
-        <v>37.0716</v>
+        <v>36.6128</v>
       </c>
       <c r="D8" t="n">
-        <v>48.9872</v>
+        <v>50.4742</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.9385</v>
+        <v>33.1948</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0577</v>
+        <v>37.0986</v>
       </c>
       <c r="D9" t="n">
-        <v>51.0473</v>
+        <v>51.9251</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0024</v>
+        <v>33.5386</v>
       </c>
       <c r="C10" t="n">
-        <v>41.3626</v>
+        <v>40.8964</v>
       </c>
       <c r="D10" t="n">
-        <v>52.8597</v>
+        <v>51.902</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0981</v>
+        <v>33.7248</v>
       </c>
       <c r="C11" t="n">
-        <v>43.4194</v>
+        <v>42.4847</v>
       </c>
       <c r="D11" t="n">
-        <v>56.0996</v>
+        <v>56.1517</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.0301</v>
+        <v>33.7471</v>
       </c>
       <c r="C12" t="n">
-        <v>43.5377</v>
+        <v>43.5297</v>
       </c>
       <c r="D12" t="n">
-        <v>56.7793</v>
+        <v>56.5848</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.1187</v>
+        <v>33.862</v>
       </c>
       <c r="C13" t="n">
-        <v>44.4769</v>
+        <v>43.2206</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5266</v>
+        <v>58.5013</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.1524</v>
+        <v>33.8593</v>
       </c>
       <c r="C14" t="n">
-        <v>44.0185</v>
+        <v>43.8155</v>
       </c>
       <c r="D14" t="n">
-        <v>59.3786</v>
+        <v>58.9038</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.1974</v>
+        <v>33.8689</v>
       </c>
       <c r="C15" t="n">
-        <v>44.9065</v>
+        <v>43.8653</v>
       </c>
       <c r="D15" t="n">
-        <v>59.5846</v>
+        <v>60.0247</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.1668</v>
+        <v>33.765</v>
       </c>
       <c r="C16" t="n">
-        <v>44.7036</v>
+        <v>43.6721</v>
       </c>
       <c r="D16" t="n">
-        <v>60.0203</v>
+        <v>59.7863</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.2016</v>
+        <v>33.7869</v>
       </c>
       <c r="C17" t="n">
-        <v>44.9035</v>
+        <v>44.1658</v>
       </c>
       <c r="D17" t="n">
-        <v>60.7282</v>
+        <v>60.8409</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.794</v>
+        <v>6.7868</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7727</v>
+        <v>12.6582</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4298</v>
+        <v>16.2903</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0989</v>
+        <v>13.0767</v>
       </c>
       <c r="C3" t="n">
-        <v>22.9114</v>
+        <v>22.6945</v>
       </c>
       <c r="D3" t="n">
-        <v>31.46</v>
+        <v>31.3309</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7879</v>
+        <v>18.7607</v>
       </c>
       <c r="C4" t="n">
-        <v>31.9087</v>
+        <v>31.5816</v>
       </c>
       <c r="D4" t="n">
-        <v>44.9268</v>
+        <v>44.6355</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.6887</v>
+        <v>24.7009</v>
       </c>
       <c r="C5" t="n">
-        <v>41.1065</v>
+        <v>40.5794</v>
       </c>
       <c r="D5" t="n">
-        <v>58.979</v>
+        <v>58.5385</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.1812</v>
+        <v>27.0746</v>
       </c>
       <c r="C6" t="n">
-        <v>36.4683</v>
+        <v>36.116</v>
       </c>
       <c r="D6" t="n">
-        <v>53.4474</v>
+        <v>53.488</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7135</v>
+        <v>29.6125</v>
       </c>
       <c r="C7" t="n">
-        <v>36.529</v>
+        <v>36.2347</v>
       </c>
       <c r="D7" t="n">
-        <v>53.2582</v>
+        <v>53.6234</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.2341</v>
+        <v>31.971</v>
       </c>
       <c r="C8" t="n">
-        <v>37.4511</v>
+        <v>36.8983</v>
       </c>
       <c r="D8" t="n">
-        <v>48.6319</v>
+        <v>49.8641</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.241</v>
+        <v>33.3573</v>
       </c>
       <c r="C9" t="n">
-        <v>37.5174</v>
+        <v>37.4908</v>
       </c>
       <c r="D9" t="n">
-        <v>51.932</v>
+        <v>52.2535</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.3802</v>
+        <v>33.8574</v>
       </c>
       <c r="C10" t="n">
-        <v>40.8262</v>
+        <v>40.6198</v>
       </c>
       <c r="D10" t="n">
-        <v>52.4725</v>
+        <v>52.3654</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.4675</v>
+        <v>34.0887</v>
       </c>
       <c r="C11" t="n">
-        <v>43.8792</v>
+        <v>43.3567</v>
       </c>
       <c r="D11" t="n">
-        <v>55.1362</v>
+        <v>55.1198</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.4849</v>
+        <v>34.2369</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9628</v>
+        <v>43.8296</v>
       </c>
       <c r="D12" t="n">
-        <v>56.0389</v>
+        <v>56.0094</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5953</v>
+        <v>34.2309</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8214</v>
+        <v>44.0611</v>
       </c>
       <c r="D13" t="n">
-        <v>58.1275</v>
+        <v>57.4396</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.5708</v>
+        <v>34.1931</v>
       </c>
       <c r="C14" t="n">
-        <v>44.9308</v>
+        <v>44.0334</v>
       </c>
       <c r="D14" t="n">
-        <v>58.1645</v>
+        <v>58.1217</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.5749</v>
+        <v>34.1652</v>
       </c>
       <c r="C15" t="n">
-        <v>45.2309</v>
+        <v>44.3743</v>
       </c>
       <c r="D15" t="n">
-        <v>59.5371</v>
+        <v>59.5574</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.5619</v>
+        <v>34.2482</v>
       </c>
       <c r="C16" t="n">
-        <v>45.2934</v>
+        <v>44.3181</v>
       </c>
       <c r="D16" t="n">
-        <v>59.3052</v>
+        <v>59.7426</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.6404</v>
+        <v>34.2526</v>
       </c>
       <c r="C17" t="n">
-        <v>45.2605</v>
+        <v>44.2489</v>
       </c>
       <c r="D17" t="n">
-        <v>60.6688</v>
+        <v>60.2745</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5482</v>
+        <v>10.4883</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6249</v>
+        <v>15.5867</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1783</v>
+        <v>20.0769</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.2996</v>
+        <v>20.1754</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4959</v>
+        <v>27.3727</v>
       </c>
       <c r="D3" t="n">
-        <v>37.9874</v>
+        <v>37.848</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.3847</v>
+        <v>29.4118</v>
       </c>
       <c r="C4" t="n">
-        <v>38.277</v>
+        <v>37.9749</v>
       </c>
       <c r="D4" t="n">
-        <v>54.0364</v>
+        <v>53.4698</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.5875</v>
+        <v>38.4961</v>
       </c>
       <c r="C5" t="n">
-        <v>49.2984</v>
+        <v>48.9446</v>
       </c>
       <c r="D5" t="n">
-        <v>70.27889999999999</v>
+        <v>70.1417</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.5424</v>
+        <v>39.4254</v>
       </c>
       <c r="C6" t="n">
-        <v>42.062</v>
+        <v>41.8231</v>
       </c>
       <c r="D6" t="n">
-        <v>61.8993</v>
+        <v>61.037</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.5913</v>
+        <v>41.5705</v>
       </c>
       <c r="C7" t="n">
-        <v>40.6591</v>
+        <v>40.5591</v>
       </c>
       <c r="D7" t="n">
-        <v>59.15</v>
+        <v>59.6639</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.7117</v>
+        <v>43.5271</v>
       </c>
       <c r="C8" t="n">
-        <v>40.5103</v>
+        <v>40.3313</v>
       </c>
       <c r="D8" t="n">
-        <v>52.8166</v>
+        <v>51.8797</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>46.6551</v>
+        <v>45.6261</v>
       </c>
       <c r="C9" t="n">
-        <v>39.7168</v>
+        <v>39.9787</v>
       </c>
       <c r="D9" t="n">
-        <v>55.0009</v>
+        <v>54.1691</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>46.1389</v>
+        <v>45.7379</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3334</v>
+        <v>43.3113</v>
       </c>
       <c r="D10" t="n">
-        <v>54.7859</v>
+        <v>51.4956</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.97</v>
+        <v>45.3791</v>
       </c>
       <c r="C11" t="n">
-        <v>45.7349</v>
+        <v>45.4197</v>
       </c>
       <c r="D11" t="n">
-        <v>58.1202</v>
+        <v>54.8678</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.2143</v>
+        <v>45.8115</v>
       </c>
       <c r="C12" t="n">
-        <v>45.8615</v>
+        <v>45.7413</v>
       </c>
       <c r="D12" t="n">
-        <v>58.8441</v>
+        <v>54.8131</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.9921</v>
+        <v>45.6403</v>
       </c>
       <c r="C13" t="n">
-        <v>46.1702</v>
+        <v>45.7938</v>
       </c>
       <c r="D13" t="n">
-        <v>60.7538</v>
+        <v>57.006</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46.0954</v>
+        <v>45.7812</v>
       </c>
       <c r="C14" t="n">
-        <v>46.3111</v>
+        <v>45.9366</v>
       </c>
       <c r="D14" t="n">
-        <v>60.8576</v>
+        <v>56.6955</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.7398</v>
+        <v>45.4357</v>
       </c>
       <c r="C15" t="n">
-        <v>46.318</v>
+        <v>46.0147</v>
       </c>
       <c r="D15" t="n">
-        <v>63.0881</v>
+        <v>58.2771</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.1228</v>
+        <v>45.5424</v>
       </c>
       <c r="C16" t="n">
-        <v>46.4234</v>
+        <v>46.0135</v>
       </c>
       <c r="D16" t="n">
-        <v>63.2246</v>
+        <v>58.3954</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.3255</v>
+        <v>45.8045</v>
       </c>
       <c r="C17" t="n">
-        <v>46.4592</v>
+        <v>46.1628</v>
       </c>
       <c r="D17" t="n">
-        <v>63.179</v>
+        <v>59.4764</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8155</v>
+        <v>10.7091</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0237</v>
+        <v>14.0089</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3402</v>
+        <v>18.2986</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.9806</v>
+        <v>20.8277</v>
       </c>
       <c r="C3" t="n">
-        <v>24.5483</v>
+        <v>23.9782</v>
       </c>
       <c r="D3" t="n">
-        <v>30.0421</v>
+        <v>30.6501</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.2169</v>
+        <v>28.0728</v>
       </c>
       <c r="C4" t="n">
-        <v>30.7479</v>
+        <v>30.1645</v>
       </c>
       <c r="D4" t="n">
-        <v>31.4251</v>
+        <v>32.2599</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.1888</v>
+        <v>31.8649</v>
       </c>
       <c r="C5" t="n">
-        <v>33.4058</v>
+        <v>36.1308</v>
       </c>
       <c r="D5" t="n">
-        <v>45.4028</v>
+        <v>50.1267</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30.3287</v>
+        <v>35.1062</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3727</v>
+        <v>34.1092</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8164</v>
+        <v>44.9021</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.0105</v>
+        <v>32.6373</v>
       </c>
       <c r="C7" t="n">
-        <v>32.4698</v>
+        <v>35.2418</v>
       </c>
       <c r="D7" t="n">
-        <v>40.9466</v>
+        <v>40.7016</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.9483</v>
+        <v>35.3841</v>
       </c>
       <c r="C8" t="n">
-        <v>36.0389</v>
+        <v>31.7646</v>
       </c>
       <c r="D8" t="n">
-        <v>38.5062</v>
+        <v>42.0803</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.5799</v>
+        <v>33.2878</v>
       </c>
       <c r="C9" t="n">
-        <v>33.9232</v>
+        <v>34.8237</v>
       </c>
       <c r="D9" t="n">
-        <v>42.9299</v>
+        <v>38.7663</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.6174</v>
+        <v>35.2391</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4942</v>
+        <v>31.9674</v>
       </c>
       <c r="D10" t="n">
-        <v>35.7653</v>
+        <v>42.0088</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.6067</v>
+        <v>34.4398</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0776</v>
+        <v>35.0075</v>
       </c>
       <c r="D11" t="n">
-        <v>40.7763</v>
+        <v>43.8886</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.923</v>
+        <v>35.3556</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1283</v>
+        <v>34.3206</v>
       </c>
       <c r="D12" t="n">
-        <v>42.2757</v>
+        <v>45.4995</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.1742</v>
+        <v>35.3928</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2963</v>
+        <v>36.3556</v>
       </c>
       <c r="D13" t="n">
-        <v>42.4834</v>
+        <v>40.7157</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.5687</v>
+        <v>39.1336</v>
       </c>
       <c r="C14" t="n">
-        <v>36.9511</v>
+        <v>36.7639</v>
       </c>
       <c r="D14" t="n">
-        <v>42.3856</v>
+        <v>46.0279</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.547</v>
+        <v>33.5563</v>
       </c>
       <c r="C15" t="n">
-        <v>32.9614</v>
+        <v>37.1542</v>
       </c>
       <c r="D15" t="n">
-        <v>44.812</v>
+        <v>45.7633</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.5465</v>
+        <v>36.0386</v>
       </c>
       <c r="C16" t="n">
-        <v>34.9461</v>
+        <v>33.9078</v>
       </c>
       <c r="D16" t="n">
-        <v>41.5151</v>
+        <v>42.0818</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.7523</v>
+        <v>33.4387</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1476</v>
+        <v>33.2239</v>
       </c>
       <c r="D17" t="n">
-        <v>40.17</v>
+        <v>48.2539</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3115</v>
+        <v>11.3388</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8756</v>
+        <v>13.9182</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2281</v>
+        <v>18.0047</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.3377</v>
+        <v>21.0643</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3022</v>
+        <v>24.3135</v>
       </c>
       <c r="D3" t="n">
-        <v>29.3131</v>
+        <v>30.901</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.9759</v>
+        <v>28.5157</v>
       </c>
       <c r="C4" t="n">
-        <v>30.7141</v>
+        <v>31.7351</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0279</v>
+        <v>32.1986</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>36.9453</v>
+        <v>34.2892</v>
       </c>
       <c r="C5" t="n">
-        <v>32.7353</v>
+        <v>34.7232</v>
       </c>
       <c r="D5" t="n">
-        <v>43.3401</v>
+        <v>47.3522</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.0078</v>
+        <v>34.668</v>
       </c>
       <c r="C6" t="n">
-        <v>36.4842</v>
+        <v>36.1566</v>
       </c>
       <c r="D6" t="n">
-        <v>37.9461</v>
+        <v>40.9372</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.567</v>
+        <v>36.2033</v>
       </c>
       <c r="C7" t="n">
-        <v>37.8729</v>
+        <v>32.3151</v>
       </c>
       <c r="D7" t="n">
-        <v>40.324</v>
+        <v>38.7414</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.0236</v>
+        <v>36.7274</v>
       </c>
       <c r="C8" t="n">
-        <v>31.3784</v>
+        <v>35.8907</v>
       </c>
       <c r="D8" t="n">
-        <v>36.3256</v>
+        <v>39.7464</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.7934</v>
+        <v>38.2546</v>
       </c>
       <c r="C9" t="n">
-        <v>30.8949</v>
+        <v>33.1177</v>
       </c>
       <c r="D9" t="n">
-        <v>42.357</v>
+        <v>37.2187</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.1537</v>
+        <v>39.7112</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2611</v>
+        <v>37.6257</v>
       </c>
       <c r="D10" t="n">
-        <v>42.9263</v>
+        <v>43.0054</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.2269</v>
+        <v>36.9013</v>
       </c>
       <c r="C11" t="n">
-        <v>33.1615</v>
+        <v>35.8766</v>
       </c>
       <c r="D11" t="n">
-        <v>44.4764</v>
+        <v>42.9468</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.044</v>
+        <v>35.4186</v>
       </c>
       <c r="C12" t="n">
-        <v>32.3131</v>
+        <v>36.9131</v>
       </c>
       <c r="D12" t="n">
-        <v>42.4995</v>
+        <v>42.1886</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.2941</v>
+        <v>35.7217</v>
       </c>
       <c r="C13" t="n">
-        <v>35.6816</v>
+        <v>32.538</v>
       </c>
       <c r="D13" t="n">
-        <v>38.8887</v>
+        <v>43.4227</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.4397</v>
+        <v>33.7083</v>
       </c>
       <c r="C14" t="n">
-        <v>40.4094</v>
+        <v>39.7942</v>
       </c>
       <c r="D14" t="n">
-        <v>39.0915</v>
+        <v>42.9125</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.4343</v>
+        <v>31.2142</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4607</v>
+        <v>34.0722</v>
       </c>
       <c r="D15" t="n">
-        <v>53.1451</v>
+        <v>44.7891</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.9971</v>
+        <v>37.7157</v>
       </c>
       <c r="C16" t="n">
-        <v>33.6837</v>
+        <v>35.4513</v>
       </c>
       <c r="D16" t="n">
-        <v>46.3253</v>
+        <v>40.8159</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.2668</v>
+        <v>34.7531</v>
       </c>
       <c r="C17" t="n">
-        <v>35.4533</v>
+        <v>33.1747</v>
       </c>
       <c r="D17" t="n">
-        <v>39.6415</v>
+        <v>42.1322</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.38</v>
+        <v>13.417</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6187</v>
+        <v>15.5695</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4058</v>
+        <v>19.7128</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.6113</v>
+        <v>24.5343</v>
       </c>
       <c r="C3" t="n">
-        <v>26.3232</v>
+        <v>26.66</v>
       </c>
       <c r="D3" t="n">
-        <v>28.4519</v>
+        <v>32.1031</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.9767</v>
+        <v>28.2416</v>
       </c>
       <c r="C4" t="n">
-        <v>32.0667</v>
+        <v>31.9205</v>
       </c>
       <c r="D4" t="n">
-        <v>36.4547</v>
+        <v>42.809</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.9982</v>
+        <v>36.7169</v>
       </c>
       <c r="C5" t="n">
-        <v>42.0206</v>
+        <v>33.4489</v>
       </c>
       <c r="D5" t="n">
-        <v>51.6131</v>
+        <v>57.1726</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.855</v>
+        <v>31.2088</v>
       </c>
       <c r="C6" t="n">
-        <v>36.439</v>
+        <v>33.1021</v>
       </c>
       <c r="D6" t="n">
-        <v>36.8486</v>
+        <v>49.2173</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.9548</v>
+        <v>33.945</v>
       </c>
       <c r="C7" t="n">
-        <v>33.6879</v>
+        <v>33.1198</v>
       </c>
       <c r="D7" t="n">
-        <v>39.9607</v>
+        <v>40.4124</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.3225</v>
+        <v>32.1182</v>
       </c>
       <c r="C8" t="n">
-        <v>32.8504</v>
+        <v>30.7918</v>
       </c>
       <c r="D8" t="n">
-        <v>38.7581</v>
+        <v>36.5422</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.5931</v>
+        <v>38.0613</v>
       </c>
       <c r="C9" t="n">
-        <v>32.7418</v>
+        <v>29.8977</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3177</v>
+        <v>37.2994</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.1243</v>
+        <v>34.7217</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4355</v>
+        <v>33.2451</v>
       </c>
       <c r="D10" t="n">
-        <v>35.5044</v>
+        <v>43.5279</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.0461</v>
+        <v>37.5244</v>
       </c>
       <c r="C11" t="n">
-        <v>35.636</v>
+        <v>35.1182</v>
       </c>
       <c r="D11" t="n">
-        <v>39.2708</v>
+        <v>47.4345</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.6745</v>
+        <v>33.8535</v>
       </c>
       <c r="C12" t="n">
-        <v>33.676</v>
+        <v>34.285</v>
       </c>
       <c r="D12" t="n">
-        <v>37.9998</v>
+        <v>41.0386</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.6163</v>
+        <v>34.7022</v>
       </c>
       <c r="C13" t="n">
-        <v>34.8253</v>
+        <v>31.8834</v>
       </c>
       <c r="D13" t="n">
-        <v>42.7806</v>
+        <v>41.1753</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>36.7882</v>
+        <v>34.922</v>
       </c>
       <c r="C14" t="n">
-        <v>32.4019</v>
+        <v>34.3241</v>
       </c>
       <c r="D14" t="n">
-        <v>45.4542</v>
+        <v>45.8345</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.093</v>
+        <v>31.9619</v>
       </c>
       <c r="C15" t="n">
-        <v>32.7958</v>
+        <v>33.8425</v>
       </c>
       <c r="D15" t="n">
-        <v>40.6207</v>
+        <v>44.7922</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.0737</v>
+        <v>35.352</v>
       </c>
       <c r="C16" t="n">
-        <v>32.7958</v>
+        <v>35.0009</v>
       </c>
       <c r="D16" t="n">
-        <v>42.0763</v>
+        <v>49.7557</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.2469</v>
+        <v>36.5776</v>
       </c>
       <c r="C17" t="n">
-        <v>31.9247</v>
+        <v>33.5803</v>
       </c>
       <c r="D17" t="n">
-        <v>47.8814</v>
+        <v>48.041</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.80876</v>
+        <v>6.77232</v>
       </c>
       <c r="C2" t="n">
         <v>12.6049</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5764</v>
+        <v>16.573</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.074</v>
+        <v>13.016</v>
       </c>
       <c r="C3" t="n">
-        <v>22.5666</v>
+        <v>22.5289</v>
       </c>
       <c r="D3" t="n">
-        <v>31.8358</v>
+        <v>31.7335</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7496</v>
+        <v>18.6547</v>
       </c>
       <c r="C4" t="n">
-        <v>31.408</v>
+        <v>31.3157</v>
       </c>
       <c r="D4" t="n">
-        <v>45.2819</v>
+        <v>45.4473</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5411</v>
+        <v>24.4402</v>
       </c>
       <c r="C5" t="n">
-        <v>40.1723</v>
+        <v>40.1569</v>
       </c>
       <c r="D5" t="n">
-        <v>59.1192</v>
+        <v>59.4963</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.8405</v>
+        <v>26.7303</v>
       </c>
       <c r="C6" t="n">
-        <v>35.6446</v>
+        <v>35.5438</v>
       </c>
       <c r="D6" t="n">
-        <v>54.0172</v>
+        <v>53.9801</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3267</v>
+        <v>29.2295</v>
       </c>
       <c r="C7" t="n">
-        <v>35.8439</v>
+        <v>35.9298</v>
       </c>
       <c r="D7" t="n">
-        <v>54.4127</v>
+        <v>49.3544</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.6785</v>
+        <v>31.4967</v>
       </c>
       <c r="C8" t="n">
-        <v>36.6128</v>
+        <v>36.4944</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4742</v>
+        <v>50.3927</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.1948</v>
+        <v>32.8885</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0986</v>
+        <v>37.0766</v>
       </c>
       <c r="D9" t="n">
-        <v>51.9251</v>
+        <v>48.3165</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.5386</v>
+        <v>33.2994</v>
       </c>
       <c r="C10" t="n">
-        <v>40.8964</v>
+        <v>40.8671</v>
       </c>
       <c r="D10" t="n">
-        <v>51.902</v>
+        <v>53.9162</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.7248</v>
+        <v>33.57</v>
       </c>
       <c r="C11" t="n">
-        <v>42.4847</v>
+        <v>42.052</v>
       </c>
       <c r="D11" t="n">
-        <v>56.1517</v>
+        <v>54.0355</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.7471</v>
+        <v>33.747</v>
       </c>
       <c r="C12" t="n">
-        <v>43.5297</v>
+        <v>43.1187</v>
       </c>
       <c r="D12" t="n">
-        <v>56.5848</v>
+        <v>57.5724</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.862</v>
+        <v>33.8408</v>
       </c>
       <c r="C13" t="n">
-        <v>43.2206</v>
+        <v>43.725</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5013</v>
+        <v>57.4962</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.8593</v>
+        <v>33.7616</v>
       </c>
       <c r="C14" t="n">
-        <v>43.8155</v>
+        <v>43.7944</v>
       </c>
       <c r="D14" t="n">
-        <v>58.9038</v>
+        <v>59.2888</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.8689</v>
+        <v>33.7965</v>
       </c>
       <c r="C15" t="n">
-        <v>43.8653</v>
+        <v>43.9369</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0247</v>
+        <v>59.625</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.765</v>
+        <v>33.8657</v>
       </c>
       <c r="C16" t="n">
-        <v>43.6721</v>
+        <v>43.39</v>
       </c>
       <c r="D16" t="n">
-        <v>59.7863</v>
+        <v>60.3598</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.7869</v>
+        <v>33.8797</v>
       </c>
       <c r="C17" t="n">
-        <v>44.1658</v>
+        <v>43.8756</v>
       </c>
       <c r="D17" t="n">
-        <v>60.8409</v>
+        <v>58.4404</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.7868</v>
+        <v>6.75951</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6582</v>
+        <v>12.6526</v>
       </c>
       <c r="D2" t="n">
-        <v>16.2903</v>
+        <v>16.2773</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0767</v>
+        <v>13.0243</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6945</v>
+        <v>22.6573</v>
       </c>
       <c r="D3" t="n">
-        <v>31.3309</v>
+        <v>31.2741</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7607</v>
+        <v>18.7408</v>
       </c>
       <c r="C4" t="n">
-        <v>31.5816</v>
+        <v>31.5873</v>
       </c>
       <c r="D4" t="n">
-        <v>44.6355</v>
+        <v>44.6281</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.7009</v>
+        <v>24.5828</v>
       </c>
       <c r="C5" t="n">
-        <v>40.5794</v>
+        <v>40.5397</v>
       </c>
       <c r="D5" t="n">
-        <v>58.5385</v>
+        <v>58.8292</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.0746</v>
+        <v>26.9253</v>
       </c>
       <c r="C6" t="n">
-        <v>36.116</v>
+        <v>36.0536</v>
       </c>
       <c r="D6" t="n">
-        <v>53.488</v>
+        <v>53.5546</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6125</v>
+        <v>29.4022</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2347</v>
+        <v>36.1029</v>
       </c>
       <c r="D7" t="n">
-        <v>53.6234</v>
+        <v>48.0392</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.971</v>
+        <v>31.8135</v>
       </c>
       <c r="C8" t="n">
-        <v>36.8983</v>
+        <v>36.921</v>
       </c>
       <c r="D8" t="n">
-        <v>49.8641</v>
+        <v>49.4204</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.3573</v>
+        <v>33.4266</v>
       </c>
       <c r="C9" t="n">
-        <v>37.4908</v>
+        <v>37.4614</v>
       </c>
       <c r="D9" t="n">
-        <v>52.2535</v>
+        <v>50.4296</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.8574</v>
+        <v>33.662</v>
       </c>
       <c r="C10" t="n">
-        <v>40.6198</v>
+        <v>40.8796</v>
       </c>
       <c r="D10" t="n">
-        <v>52.3654</v>
+        <v>52.5839</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0887</v>
+        <v>33.9795</v>
       </c>
       <c r="C11" t="n">
-        <v>43.3567</v>
+        <v>43.1183</v>
       </c>
       <c r="D11" t="n">
-        <v>55.1198</v>
+        <v>54.3696</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.2369</v>
+        <v>34.1945</v>
       </c>
       <c r="C12" t="n">
-        <v>43.8296</v>
+        <v>43.6768</v>
       </c>
       <c r="D12" t="n">
-        <v>56.0094</v>
+        <v>56.3843</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.2309</v>
+        <v>34.3257</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0611</v>
+        <v>43.9084</v>
       </c>
       <c r="D13" t="n">
-        <v>57.4396</v>
+        <v>57.6213</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.1931</v>
+        <v>34.1498</v>
       </c>
       <c r="C14" t="n">
-        <v>44.0334</v>
+        <v>43.9104</v>
       </c>
       <c r="D14" t="n">
-        <v>58.1217</v>
+        <v>58.1118</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.1652</v>
+        <v>34.269</v>
       </c>
       <c r="C15" t="n">
-        <v>44.3743</v>
+        <v>43.8708</v>
       </c>
       <c r="D15" t="n">
-        <v>59.5574</v>
+        <v>59.1016</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.2482</v>
+        <v>34.2646</v>
       </c>
       <c r="C16" t="n">
-        <v>44.3181</v>
+        <v>43.8671</v>
       </c>
       <c r="D16" t="n">
-        <v>59.7426</v>
+        <v>58.7032</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.2526</v>
+        <v>34.2491</v>
       </c>
       <c r="C17" t="n">
-        <v>44.2489</v>
+        <v>44.4139</v>
       </c>
       <c r="D17" t="n">
-        <v>60.2745</v>
+        <v>58.9047</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4883</v>
+        <v>10.4481</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5867</v>
+        <v>15.5486</v>
       </c>
       <c r="D2" t="n">
-        <v>20.0769</v>
+        <v>20.0409</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1754</v>
+        <v>20.0559</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3727</v>
+        <v>27.4071</v>
       </c>
       <c r="D3" t="n">
-        <v>37.848</v>
+        <v>37.8249</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.4118</v>
+        <v>28.9628</v>
       </c>
       <c r="C4" t="n">
-        <v>37.9749</v>
+        <v>38.2385</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4698</v>
+        <v>53.8006</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.4961</v>
+        <v>37.8013</v>
       </c>
       <c r="C5" t="n">
-        <v>48.9446</v>
+        <v>49.5406</v>
       </c>
       <c r="D5" t="n">
-        <v>70.1417</v>
+        <v>70.65000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.4254</v>
+        <v>38.27</v>
       </c>
       <c r="C6" t="n">
-        <v>41.8231</v>
+        <v>42.4109</v>
       </c>
       <c r="D6" t="n">
-        <v>61.037</v>
+        <v>61.9305</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.5705</v>
+        <v>40.1103</v>
       </c>
       <c r="C7" t="n">
-        <v>40.5591</v>
+        <v>40.6801</v>
       </c>
       <c r="D7" t="n">
-        <v>59.6639</v>
+        <v>54.0171</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.5271</v>
+        <v>42.1988</v>
       </c>
       <c r="C8" t="n">
-        <v>40.3313</v>
+        <v>40.4876</v>
       </c>
       <c r="D8" t="n">
-        <v>51.8797</v>
+        <v>53.5889</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45.6261</v>
+        <v>44.1489</v>
       </c>
       <c r="C9" t="n">
-        <v>39.9787</v>
+        <v>40.277</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1691</v>
+        <v>51.8924</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.7379</v>
+        <v>43.884</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3113</v>
+        <v>43.5188</v>
       </c>
       <c r="D10" t="n">
-        <v>51.4956</v>
+        <v>55.2947</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.3791</v>
+        <v>43.9509</v>
       </c>
       <c r="C11" t="n">
-        <v>45.4197</v>
+        <v>45.2507</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8678</v>
+        <v>56.6282</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.8115</v>
+        <v>44.0889</v>
       </c>
       <c r="C12" t="n">
-        <v>45.7413</v>
+        <v>45.9504</v>
       </c>
       <c r="D12" t="n">
-        <v>54.8131</v>
+        <v>59.0654</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.6403</v>
+        <v>43.9935</v>
       </c>
       <c r="C13" t="n">
-        <v>45.7938</v>
+        <v>46.2766</v>
       </c>
       <c r="D13" t="n">
-        <v>57.006</v>
+        <v>59.7749</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.7812</v>
+        <v>43.3683</v>
       </c>
       <c r="C14" t="n">
-        <v>45.9366</v>
+        <v>45.9751</v>
       </c>
       <c r="D14" t="n">
-        <v>56.6955</v>
+        <v>62.2604</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.4357</v>
+        <v>44.1399</v>
       </c>
       <c r="C15" t="n">
-        <v>46.0147</v>
+        <v>45.8235</v>
       </c>
       <c r="D15" t="n">
-        <v>58.2771</v>
+        <v>61.7332</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>45.5424</v>
+        <v>43.9177</v>
       </c>
       <c r="C16" t="n">
-        <v>46.0135</v>
+        <v>46.1265</v>
       </c>
       <c r="D16" t="n">
-        <v>58.3954</v>
+        <v>62.1659</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.8045</v>
+        <v>43.7255</v>
       </c>
       <c r="C17" t="n">
-        <v>46.1628</v>
+        <v>46.2066</v>
       </c>
       <c r="D17" t="n">
-        <v>59.4764</v>
+        <v>62.7065</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7091</v>
+        <v>10.7442</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0089</v>
+        <v>13.9202</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2986</v>
+        <v>18.2462</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.8277</v>
+        <v>20.9173</v>
       </c>
       <c r="C3" t="n">
-        <v>23.9782</v>
+        <v>24.106</v>
       </c>
       <c r="D3" t="n">
-        <v>30.6501</v>
+        <v>30.1928</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.0728</v>
+        <v>29.6641</v>
       </c>
       <c r="C4" t="n">
-        <v>30.1645</v>
+        <v>30.3667</v>
       </c>
       <c r="D4" t="n">
-        <v>32.2599</v>
+        <v>32.3891</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.8649</v>
+        <v>30.1368</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1308</v>
+        <v>35.2388</v>
       </c>
       <c r="D5" t="n">
-        <v>50.1267</v>
+        <v>43.3501</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35.1062</v>
+        <v>31.0502</v>
       </c>
       <c r="C6" t="n">
-        <v>34.1092</v>
+        <v>31.2648</v>
       </c>
       <c r="D6" t="n">
-        <v>44.9021</v>
+        <v>40.5626</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.6373</v>
+        <v>32.1357</v>
       </c>
       <c r="C7" t="n">
-        <v>35.2418</v>
+        <v>33.7231</v>
       </c>
       <c r="D7" t="n">
-        <v>40.7016</v>
+        <v>36.1871</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.3841</v>
+        <v>32.6546</v>
       </c>
       <c r="C8" t="n">
-        <v>31.7646</v>
+        <v>32.742</v>
       </c>
       <c r="D8" t="n">
-        <v>42.0803</v>
+        <v>38.9773</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.2878</v>
+        <v>32.1512</v>
       </c>
       <c r="C9" t="n">
-        <v>34.8237</v>
+        <v>36.082</v>
       </c>
       <c r="D9" t="n">
-        <v>38.7663</v>
+        <v>35.9463</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.2391</v>
+        <v>35.865</v>
       </c>
       <c r="C10" t="n">
-        <v>31.9674</v>
+        <v>36.8587</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0088</v>
+        <v>34.7264</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.4398</v>
+        <v>38.6273</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0075</v>
+        <v>34.177</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8886</v>
+        <v>36.5372</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.3556</v>
+        <v>35.3359</v>
       </c>
       <c r="C12" t="n">
-        <v>34.3206</v>
+        <v>34.8056</v>
       </c>
       <c r="D12" t="n">
-        <v>45.4995</v>
+        <v>40.0839</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.3928</v>
+        <v>36.0514</v>
       </c>
       <c r="C13" t="n">
-        <v>36.3556</v>
+        <v>35.956</v>
       </c>
       <c r="D13" t="n">
-        <v>40.7157</v>
+        <v>40.7781</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>39.1336</v>
+        <v>34.5964</v>
       </c>
       <c r="C14" t="n">
-        <v>36.7639</v>
+        <v>39.0654</v>
       </c>
       <c r="D14" t="n">
-        <v>46.0279</v>
+        <v>41.0254</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5563</v>
+        <v>33.1138</v>
       </c>
       <c r="C15" t="n">
-        <v>37.1542</v>
+        <v>37.1899</v>
       </c>
       <c r="D15" t="n">
-        <v>45.7633</v>
+        <v>39.6308</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0386</v>
+        <v>34.6171</v>
       </c>
       <c r="C16" t="n">
-        <v>33.9078</v>
+        <v>39.2669</v>
       </c>
       <c r="D16" t="n">
-        <v>42.0818</v>
+        <v>43.9596</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.4387</v>
+        <v>34.3234</v>
       </c>
       <c r="C17" t="n">
-        <v>33.2239</v>
+        <v>34.6836</v>
       </c>
       <c r="D17" t="n">
-        <v>48.2539</v>
+        <v>41.4581</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3388</v>
+        <v>11.1822</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9182</v>
+        <v>13.776</v>
       </c>
       <c r="D2" t="n">
-        <v>18.0047</v>
+        <v>18.0526</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.0643</v>
+        <v>21.5651</v>
       </c>
       <c r="C3" t="n">
-        <v>24.3135</v>
+        <v>24.1558</v>
       </c>
       <c r="D3" t="n">
-        <v>30.901</v>
+        <v>31.5679</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.5157</v>
+        <v>29.6184</v>
       </c>
       <c r="C4" t="n">
-        <v>31.7351</v>
+        <v>30.4976</v>
       </c>
       <c r="D4" t="n">
-        <v>32.1986</v>
+        <v>31.7091</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.2892</v>
+        <v>33.4379</v>
       </c>
       <c r="C5" t="n">
-        <v>34.7232</v>
+        <v>39.7134</v>
       </c>
       <c r="D5" t="n">
-        <v>47.3522</v>
+        <v>47.8315</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>34.668</v>
+        <v>33.9394</v>
       </c>
       <c r="C6" t="n">
-        <v>36.1566</v>
+        <v>34.4325</v>
       </c>
       <c r="D6" t="n">
-        <v>40.9372</v>
+        <v>38.7766</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.2033</v>
+        <v>30.7495</v>
       </c>
       <c r="C7" t="n">
-        <v>32.3151</v>
+        <v>34.1598</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7414</v>
+        <v>43.2478</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.7274</v>
+        <v>35.7884</v>
       </c>
       <c r="C8" t="n">
-        <v>35.8907</v>
+        <v>31.4866</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7464</v>
+        <v>36.961</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.2546</v>
+        <v>34.4652</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1177</v>
+        <v>37.7694</v>
       </c>
       <c r="D9" t="n">
-        <v>37.2187</v>
+        <v>34.8344</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.7112</v>
+        <v>35.8575</v>
       </c>
       <c r="C10" t="n">
-        <v>37.6257</v>
+        <v>37.2914</v>
       </c>
       <c r="D10" t="n">
-        <v>43.0054</v>
+        <v>37.6093</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.9013</v>
+        <v>39.1546</v>
       </c>
       <c r="C11" t="n">
-        <v>35.8766</v>
+        <v>35.7864</v>
       </c>
       <c r="D11" t="n">
-        <v>42.9468</v>
+        <v>41.3025</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.4186</v>
+        <v>34.8294</v>
       </c>
       <c r="C12" t="n">
-        <v>36.9131</v>
+        <v>35.9089</v>
       </c>
       <c r="D12" t="n">
-        <v>42.1886</v>
+        <v>39.6988</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.7217</v>
+        <v>36.8928</v>
       </c>
       <c r="C13" t="n">
-        <v>32.538</v>
+        <v>36.9903</v>
       </c>
       <c r="D13" t="n">
-        <v>43.4227</v>
+        <v>37.4897</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.7083</v>
+        <v>37.9737</v>
       </c>
       <c r="C14" t="n">
-        <v>39.7942</v>
+        <v>36.471</v>
       </c>
       <c r="D14" t="n">
-        <v>42.9125</v>
+        <v>45.5379</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.2142</v>
+        <v>37.089</v>
       </c>
       <c r="C15" t="n">
-        <v>34.0722</v>
+        <v>38.5346</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7891</v>
+        <v>43.1745</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.7157</v>
+        <v>37.7251</v>
       </c>
       <c r="C16" t="n">
-        <v>35.4513</v>
+        <v>33.5344</v>
       </c>
       <c r="D16" t="n">
-        <v>40.8159</v>
+        <v>43.7632</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.7531</v>
+        <v>37.2307</v>
       </c>
       <c r="C17" t="n">
-        <v>33.1747</v>
+        <v>34.8288</v>
       </c>
       <c r="D17" t="n">
-        <v>42.1322</v>
+        <v>37.9187</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.417</v>
+        <v>13.4111</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5695</v>
+        <v>15.419</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7128</v>
+        <v>19.6671</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.5343</v>
+        <v>24.2206</v>
       </c>
       <c r="C3" t="n">
-        <v>26.66</v>
+        <v>26.677</v>
       </c>
       <c r="D3" t="n">
-        <v>32.1031</v>
+        <v>30.6281</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.2416</v>
+        <v>32.0873</v>
       </c>
       <c r="C4" t="n">
-        <v>31.9205</v>
+        <v>31.2917</v>
       </c>
       <c r="D4" t="n">
-        <v>42.809</v>
+        <v>32.3459</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>36.7169</v>
+        <v>33.1339</v>
       </c>
       <c r="C5" t="n">
-        <v>33.4489</v>
+        <v>41.5933</v>
       </c>
       <c r="D5" t="n">
-        <v>57.1726</v>
+        <v>42.2897</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.2088</v>
+        <v>30.3384</v>
       </c>
       <c r="C6" t="n">
-        <v>33.1021</v>
+        <v>34.2791</v>
       </c>
       <c r="D6" t="n">
-        <v>49.2173</v>
+        <v>36.1845</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.945</v>
+        <v>31.659</v>
       </c>
       <c r="C7" t="n">
-        <v>33.1198</v>
+        <v>32.089</v>
       </c>
       <c r="D7" t="n">
-        <v>40.4124</v>
+        <v>35.4118</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.1182</v>
+        <v>34.1439</v>
       </c>
       <c r="C8" t="n">
-        <v>30.7918</v>
+        <v>33.0499</v>
       </c>
       <c r="D8" t="n">
-        <v>36.5422</v>
+        <v>36.7682</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.0613</v>
+        <v>34.0016</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8977</v>
+        <v>30.1967</v>
       </c>
       <c r="D9" t="n">
-        <v>37.2994</v>
+        <v>35.8276</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.7217</v>
+        <v>34.7624</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2451</v>
+        <v>33.8343</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5279</v>
+        <v>33.7412</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.5244</v>
+        <v>36.0981</v>
       </c>
       <c r="C11" t="n">
-        <v>35.1182</v>
+        <v>35.1413</v>
       </c>
       <c r="D11" t="n">
-        <v>47.4345</v>
+        <v>36.8873</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8535</v>
+        <v>36.8446</v>
       </c>
       <c r="C12" t="n">
-        <v>34.285</v>
+        <v>37.4412</v>
       </c>
       <c r="D12" t="n">
-        <v>41.0386</v>
+        <v>35.0547</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.7022</v>
+        <v>35.1179</v>
       </c>
       <c r="C13" t="n">
-        <v>31.8834</v>
+        <v>32.7851</v>
       </c>
       <c r="D13" t="n">
-        <v>41.1753</v>
+        <v>37.7215</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.922</v>
+        <v>36.2189</v>
       </c>
       <c r="C14" t="n">
-        <v>34.3241</v>
+        <v>33.7007</v>
       </c>
       <c r="D14" t="n">
-        <v>45.8345</v>
+        <v>38.5743</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31.9619</v>
+        <v>37.5632</v>
       </c>
       <c r="C15" t="n">
-        <v>33.8425</v>
+        <v>34.4318</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7922</v>
+        <v>38.9636</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.352</v>
+        <v>32.6535</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0009</v>
+        <v>37.3832</v>
       </c>
       <c r="D16" t="n">
-        <v>49.7557</v>
+        <v>36.876</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.5776</v>
+        <v>32.3189</v>
       </c>
       <c r="C17" t="n">
-        <v>33.5803</v>
+        <v>33.0841</v>
       </c>
       <c r="D17" t="n">
-        <v>48.041</v>
+        <v>39.3191</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.77232</v>
+        <v>6.7975</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6049</v>
+        <v>12.6105</v>
       </c>
       <c r="D2" t="n">
-        <v>16.573</v>
+        <v>16.522</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.016</v>
+        <v>13.0647</v>
       </c>
       <c r="C3" t="n">
-        <v>22.5289</v>
+        <v>22.6822</v>
       </c>
       <c r="D3" t="n">
-        <v>31.7335</v>
+        <v>31.6496</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.6547</v>
+        <v>18.7216</v>
       </c>
       <c r="C4" t="n">
-        <v>31.3157</v>
+        <v>31.6545</v>
       </c>
       <c r="D4" t="n">
-        <v>45.4473</v>
+        <v>44.9114</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4402</v>
+        <v>24.545</v>
       </c>
       <c r="C5" t="n">
-        <v>40.1569</v>
+        <v>40.6844</v>
       </c>
       <c r="D5" t="n">
-        <v>59.4963</v>
+        <v>58.6825</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.7303</v>
+        <v>26.8427</v>
       </c>
       <c r="C6" t="n">
-        <v>35.5438</v>
+        <v>36.7574</v>
       </c>
       <c r="D6" t="n">
-        <v>53.9801</v>
+        <v>53.8369</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.2295</v>
+        <v>28.935</v>
       </c>
       <c r="C7" t="n">
-        <v>35.9298</v>
+        <v>37.034</v>
       </c>
       <c r="D7" t="n">
-        <v>49.3544</v>
+        <v>48.8905</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4967</v>
+        <v>31.361</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4944</v>
+        <v>37.7558</v>
       </c>
       <c r="D8" t="n">
-        <v>50.3927</v>
+        <v>49.6777</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.8885</v>
+        <v>33.5202</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0766</v>
+        <v>38.1667</v>
       </c>
       <c r="D9" t="n">
-        <v>48.3165</v>
+        <v>49.2335</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.2994</v>
+        <v>33.42</v>
       </c>
       <c r="C10" t="n">
-        <v>40.8671</v>
+        <v>41.7475</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9162</v>
+        <v>52.7424</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.57</v>
+        <v>33.6666</v>
       </c>
       <c r="C11" t="n">
-        <v>42.052</v>
+        <v>45.1676</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0355</v>
+        <v>54.3113</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.747</v>
+        <v>33.8942</v>
       </c>
       <c r="C12" t="n">
-        <v>43.1187</v>
+        <v>45.8255</v>
       </c>
       <c r="D12" t="n">
-        <v>57.5724</v>
+        <v>56.8915</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.8408</v>
+        <v>33.8808</v>
       </c>
       <c r="C13" t="n">
-        <v>43.725</v>
+        <v>45.8239</v>
       </c>
       <c r="D13" t="n">
-        <v>57.4962</v>
+        <v>57.2086</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.7616</v>
+        <v>33.9454</v>
       </c>
       <c r="C14" t="n">
-        <v>43.7944</v>
+        <v>45.8454</v>
       </c>
       <c r="D14" t="n">
-        <v>59.2888</v>
+        <v>58.775</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.7965</v>
+        <v>33.8595</v>
       </c>
       <c r="C15" t="n">
-        <v>43.9369</v>
+        <v>46.2819</v>
       </c>
       <c r="D15" t="n">
-        <v>59.625</v>
+        <v>58.669</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.8657</v>
+        <v>33.8951</v>
       </c>
       <c r="C16" t="n">
-        <v>43.39</v>
+        <v>46.4443</v>
       </c>
       <c r="D16" t="n">
-        <v>60.3598</v>
+        <v>59.9623</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8797</v>
+        <v>33.9497</v>
       </c>
       <c r="C17" t="n">
-        <v>43.8756</v>
+        <v>46.3422</v>
       </c>
       <c r="D17" t="n">
-        <v>58.4404</v>
+        <v>59.9306</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.75951</v>
+        <v>6.78853</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6526</v>
+        <v>12.6694</v>
       </c>
       <c r="D2" t="n">
-        <v>16.2773</v>
+        <v>16.284</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0243</v>
+        <v>13.0798</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6573</v>
+        <v>22.8398</v>
       </c>
       <c r="D3" t="n">
-        <v>31.2741</v>
+        <v>31.0754</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7408</v>
+        <v>18.7826</v>
       </c>
       <c r="C4" t="n">
-        <v>31.5873</v>
+        <v>31.8621</v>
       </c>
       <c r="D4" t="n">
-        <v>44.6281</v>
+        <v>44.1946</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5828</v>
+        <v>24.6791</v>
       </c>
       <c r="C5" t="n">
-        <v>40.5397</v>
+        <v>41.1109</v>
       </c>
       <c r="D5" t="n">
-        <v>58.8292</v>
+        <v>57.8368</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.9253</v>
+        <v>27.1225</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0536</v>
+        <v>37.1869</v>
       </c>
       <c r="D6" t="n">
-        <v>53.5546</v>
+        <v>52.9313</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4022</v>
+        <v>29.1981</v>
       </c>
       <c r="C7" t="n">
-        <v>36.1029</v>
+        <v>37.3697</v>
       </c>
       <c r="D7" t="n">
-        <v>48.0392</v>
+        <v>47.9842</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8135</v>
+        <v>31.7683</v>
       </c>
       <c r="C8" t="n">
-        <v>36.921</v>
+        <v>38.1128</v>
       </c>
       <c r="D8" t="n">
-        <v>49.4204</v>
+        <v>48.7608</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.4266</v>
+        <v>33.6531</v>
       </c>
       <c r="C9" t="n">
-        <v>37.4614</v>
+        <v>38.4441</v>
       </c>
       <c r="D9" t="n">
-        <v>50.4296</v>
+        <v>48.141</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.662</v>
+        <v>33.8898</v>
       </c>
       <c r="C10" t="n">
-        <v>40.8796</v>
+        <v>43.1404</v>
       </c>
       <c r="D10" t="n">
-        <v>52.5839</v>
+        <v>51.5926</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.9795</v>
+        <v>34.0356</v>
       </c>
       <c r="C11" t="n">
-        <v>43.1183</v>
+        <v>45.7084</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3696</v>
+        <v>53.651</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.1945</v>
+        <v>34.2892</v>
       </c>
       <c r="C12" t="n">
-        <v>43.6768</v>
+        <v>45.9121</v>
       </c>
       <c r="D12" t="n">
-        <v>56.3843</v>
+        <v>55.7211</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.3257</v>
+        <v>34.2914</v>
       </c>
       <c r="C13" t="n">
-        <v>43.9084</v>
+        <v>46.3588</v>
       </c>
       <c r="D13" t="n">
-        <v>57.6213</v>
+        <v>56.5083</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.1498</v>
+        <v>34.1847</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9104</v>
+        <v>46.5816</v>
       </c>
       <c r="D14" t="n">
-        <v>58.1118</v>
+        <v>58.5316</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.269</v>
+        <v>34.2298</v>
       </c>
       <c r="C15" t="n">
-        <v>43.8708</v>
+        <v>46.0054</v>
       </c>
       <c r="D15" t="n">
-        <v>59.1016</v>
+        <v>58.2661</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.2646</v>
+        <v>34.3202</v>
       </c>
       <c r="C16" t="n">
-        <v>43.8671</v>
+        <v>46.722</v>
       </c>
       <c r="D16" t="n">
-        <v>58.7032</v>
+        <v>59.3362</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.2491</v>
+        <v>34.3829</v>
       </c>
       <c r="C17" t="n">
-        <v>44.4139</v>
+        <v>46.7606</v>
       </c>
       <c r="D17" t="n">
-        <v>58.9047</v>
+        <v>59.6459</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4481</v>
+        <v>10.4761</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5486</v>
+        <v>15.5712</v>
       </c>
       <c r="D2" t="n">
-        <v>20.0409</v>
+        <v>20.0584</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0559</v>
+        <v>20.1159</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4071</v>
+        <v>27.4294</v>
       </c>
       <c r="D3" t="n">
-        <v>37.8249</v>
+        <v>37.7322</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.9628</v>
+        <v>29.0286</v>
       </c>
       <c r="C4" t="n">
-        <v>38.2385</v>
+        <v>38.2674</v>
       </c>
       <c r="D4" t="n">
-        <v>53.8006</v>
+        <v>53.3312</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>37.8013</v>
+        <v>37.9834</v>
       </c>
       <c r="C5" t="n">
-        <v>49.5406</v>
+        <v>49.9153</v>
       </c>
       <c r="D5" t="n">
-        <v>70.65000000000001</v>
+        <v>69.80500000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.27</v>
+        <v>38.2882</v>
       </c>
       <c r="C6" t="n">
-        <v>42.4109</v>
+        <v>44.1912</v>
       </c>
       <c r="D6" t="n">
-        <v>61.9305</v>
+        <v>60.3482</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.1103</v>
+        <v>40.2551</v>
       </c>
       <c r="C7" t="n">
-        <v>40.6801</v>
+        <v>42.5008</v>
       </c>
       <c r="D7" t="n">
-        <v>54.0171</v>
+        <v>51.365</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.1988</v>
+        <v>41.9976</v>
       </c>
       <c r="C8" t="n">
-        <v>40.4876</v>
+        <v>42.3701</v>
       </c>
       <c r="D8" t="n">
-        <v>53.5889</v>
+        <v>51.9459</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.1489</v>
+        <v>44.3187</v>
       </c>
       <c r="C9" t="n">
-        <v>40.277</v>
+        <v>41.8896</v>
       </c>
       <c r="D9" t="n">
-        <v>51.8924</v>
+        <v>48.0622</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.884</v>
+        <v>44.2972</v>
       </c>
       <c r="C10" t="n">
-        <v>43.5188</v>
+        <v>46.4142</v>
       </c>
       <c r="D10" t="n">
-        <v>55.2947</v>
+        <v>51.2962</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.9509</v>
+        <v>43.9791</v>
       </c>
       <c r="C11" t="n">
-        <v>45.2507</v>
+        <v>47.8844</v>
       </c>
       <c r="D11" t="n">
-        <v>56.6282</v>
+        <v>52.0484</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.0889</v>
+        <v>44.2571</v>
       </c>
       <c r="C12" t="n">
-        <v>45.9504</v>
+        <v>48.8369</v>
       </c>
       <c r="D12" t="n">
-        <v>59.0654</v>
+        <v>55.0927</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.9935</v>
+        <v>44.353</v>
       </c>
       <c r="C13" t="n">
-        <v>46.2766</v>
+        <v>48.9611</v>
       </c>
       <c r="D13" t="n">
-        <v>59.7749</v>
+        <v>54.468</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.3683</v>
+        <v>44.4416</v>
       </c>
       <c r="C14" t="n">
-        <v>45.9751</v>
+        <v>49.2147</v>
       </c>
       <c r="D14" t="n">
-        <v>62.2604</v>
+        <v>56.5013</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.1399</v>
+        <v>44.34</v>
       </c>
       <c r="C15" t="n">
-        <v>45.8235</v>
+        <v>48.9719</v>
       </c>
       <c r="D15" t="n">
-        <v>61.7332</v>
+        <v>56.4103</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.9177</v>
+        <v>44.0775</v>
       </c>
       <c r="C16" t="n">
-        <v>46.1265</v>
+        <v>49.1087</v>
       </c>
       <c r="D16" t="n">
-        <v>62.1659</v>
+        <v>58.0219</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.7255</v>
+        <v>44.301</v>
       </c>
       <c r="C17" t="n">
-        <v>46.2066</v>
+        <v>49.266</v>
       </c>
       <c r="D17" t="n">
-        <v>62.7065</v>
+        <v>58.6572</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7442</v>
+        <v>10.9246</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9202</v>
+        <v>14.0655</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2462</v>
+        <v>18.3448</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.9173</v>
+        <v>20.8683</v>
       </c>
       <c r="C3" t="n">
-        <v>24.106</v>
+        <v>25.4101</v>
       </c>
       <c r="D3" t="n">
-        <v>30.1928</v>
+        <v>29.4764</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.6641</v>
+        <v>29.5007</v>
       </c>
       <c r="C4" t="n">
-        <v>30.3667</v>
+        <v>30.8944</v>
       </c>
       <c r="D4" t="n">
-        <v>32.3891</v>
+        <v>33.2075</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30.1368</v>
+        <v>31.6849</v>
       </c>
       <c r="C5" t="n">
-        <v>35.2388</v>
+        <v>36.5215</v>
       </c>
       <c r="D5" t="n">
-        <v>43.3501</v>
+        <v>45.2837</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.0502</v>
+        <v>31.6676</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2648</v>
+        <v>33.6635</v>
       </c>
       <c r="D6" t="n">
-        <v>40.5626</v>
+        <v>37.8683</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.1357</v>
+        <v>30.3446</v>
       </c>
       <c r="C7" t="n">
-        <v>33.7231</v>
+        <v>33.4169</v>
       </c>
       <c r="D7" t="n">
-        <v>36.1871</v>
+        <v>36.9689</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.6546</v>
+        <v>32.5874</v>
       </c>
       <c r="C8" t="n">
-        <v>32.742</v>
+        <v>35.5602</v>
       </c>
       <c r="D8" t="n">
-        <v>38.9773</v>
+        <v>37.9277</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.1512</v>
+        <v>34.9462</v>
       </c>
       <c r="C9" t="n">
-        <v>36.082</v>
+        <v>37.2836</v>
       </c>
       <c r="D9" t="n">
-        <v>35.9463</v>
+        <v>38.9367</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.865</v>
+        <v>35.9218</v>
       </c>
       <c r="C10" t="n">
-        <v>36.8587</v>
+        <v>35.1339</v>
       </c>
       <c r="D10" t="n">
-        <v>34.7264</v>
+        <v>38.6988</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>38.6273</v>
+        <v>34.2762</v>
       </c>
       <c r="C11" t="n">
-        <v>34.177</v>
+        <v>36.7817</v>
       </c>
       <c r="D11" t="n">
-        <v>36.5372</v>
+        <v>38.4689</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.3359</v>
+        <v>36.2736</v>
       </c>
       <c r="C12" t="n">
-        <v>34.8056</v>
+        <v>41.0106</v>
       </c>
       <c r="D12" t="n">
-        <v>40.0839</v>
+        <v>48.3789</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.0514</v>
+        <v>37.705</v>
       </c>
       <c r="C13" t="n">
-        <v>35.956</v>
+        <v>36.7749</v>
       </c>
       <c r="D13" t="n">
-        <v>40.7781</v>
+        <v>38.8344</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.5964</v>
+        <v>34.3951</v>
       </c>
       <c r="C14" t="n">
-        <v>39.0654</v>
+        <v>37.705</v>
       </c>
       <c r="D14" t="n">
-        <v>41.0254</v>
+        <v>41.2188</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.1138</v>
+        <v>36.0098</v>
       </c>
       <c r="C15" t="n">
-        <v>37.1899</v>
+        <v>40.9478</v>
       </c>
       <c r="D15" t="n">
-        <v>39.6308</v>
+        <v>41.8556</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.6171</v>
+        <v>34.5521</v>
       </c>
       <c r="C16" t="n">
-        <v>39.2669</v>
+        <v>41.226</v>
       </c>
       <c r="D16" t="n">
-        <v>43.9596</v>
+        <v>45.8488</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.3234</v>
+        <v>33.2617</v>
       </c>
       <c r="C17" t="n">
-        <v>34.6836</v>
+        <v>35.8273</v>
       </c>
       <c r="D17" t="n">
-        <v>41.4581</v>
+        <v>40.3288</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.1822</v>
+        <v>11.3976</v>
       </c>
       <c r="C2" t="n">
-        <v>13.776</v>
+        <v>14.1035</v>
       </c>
       <c r="D2" t="n">
-        <v>18.0526</v>
+        <v>18.0687</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.5651</v>
+        <v>21.836</v>
       </c>
       <c r="C3" t="n">
-        <v>24.1558</v>
+        <v>24.959</v>
       </c>
       <c r="D3" t="n">
-        <v>31.5679</v>
+        <v>29.0247</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.6184</v>
+        <v>29.5266</v>
       </c>
       <c r="C4" t="n">
-        <v>30.4976</v>
+        <v>31.8356</v>
       </c>
       <c r="D4" t="n">
-        <v>31.7091</v>
+        <v>31.797</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.4379</v>
+        <v>33.872</v>
       </c>
       <c r="C5" t="n">
-        <v>39.7134</v>
+        <v>34.8215</v>
       </c>
       <c r="D5" t="n">
-        <v>47.8315</v>
+        <v>41.8042</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9394</v>
+        <v>32.2731</v>
       </c>
       <c r="C6" t="n">
-        <v>34.4325</v>
+        <v>34.0879</v>
       </c>
       <c r="D6" t="n">
-        <v>38.7766</v>
+        <v>36.0807</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7495</v>
+        <v>31.4032</v>
       </c>
       <c r="C7" t="n">
-        <v>34.1598</v>
+        <v>34.1936</v>
       </c>
       <c r="D7" t="n">
-        <v>43.2478</v>
+        <v>39.2709</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.7884</v>
+        <v>36.0019</v>
       </c>
       <c r="C8" t="n">
-        <v>31.4866</v>
+        <v>31.536</v>
       </c>
       <c r="D8" t="n">
-        <v>36.961</v>
+        <v>38.0711</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.4652</v>
+        <v>35.3605</v>
       </c>
       <c r="C9" t="n">
-        <v>37.7694</v>
+        <v>32.0257</v>
       </c>
       <c r="D9" t="n">
-        <v>34.8344</v>
+        <v>35.2619</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.8575</v>
+        <v>37.2196</v>
       </c>
       <c r="C10" t="n">
-        <v>37.2914</v>
+        <v>35.0832</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6093</v>
+        <v>37.2242</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39.1546</v>
+        <v>35.643</v>
       </c>
       <c r="C11" t="n">
-        <v>35.7864</v>
+        <v>39.1893</v>
       </c>
       <c r="D11" t="n">
-        <v>41.3025</v>
+        <v>36.6537</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.8294</v>
+        <v>38.9684</v>
       </c>
       <c r="C12" t="n">
-        <v>35.9089</v>
+        <v>37.7323</v>
       </c>
       <c r="D12" t="n">
-        <v>39.6988</v>
+        <v>35.4574</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.8928</v>
+        <v>35.7982</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9903</v>
+        <v>40.3367</v>
       </c>
       <c r="D13" t="n">
-        <v>37.4897</v>
+        <v>35.8796</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.9737</v>
+        <v>33.5362</v>
       </c>
       <c r="C14" t="n">
-        <v>36.471</v>
+        <v>35.5596</v>
       </c>
       <c r="D14" t="n">
-        <v>45.5379</v>
+        <v>38.8602</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.089</v>
+        <v>36.6918</v>
       </c>
       <c r="C15" t="n">
-        <v>38.5346</v>
+        <v>38.1437</v>
       </c>
       <c r="D15" t="n">
-        <v>43.1745</v>
+        <v>44.6648</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.7251</v>
+        <v>34.321</v>
       </c>
       <c r="C16" t="n">
-        <v>33.5344</v>
+        <v>40.8868</v>
       </c>
       <c r="D16" t="n">
-        <v>43.7632</v>
+        <v>40.3404</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>37.2307</v>
+        <v>35.698</v>
       </c>
       <c r="C17" t="n">
-        <v>34.8288</v>
+        <v>34.982</v>
       </c>
       <c r="D17" t="n">
-        <v>37.9187</v>
+        <v>46.9804</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.4111</v>
+        <v>13.4204</v>
       </c>
       <c r="C2" t="n">
-        <v>15.419</v>
+        <v>15.7993</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6671</v>
+        <v>19.6352</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.2206</v>
+        <v>24.5199</v>
       </c>
       <c r="C3" t="n">
-        <v>26.677</v>
+        <v>27.9524</v>
       </c>
       <c r="D3" t="n">
-        <v>30.6281</v>
+        <v>31.799</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0873</v>
+        <v>28.8241</v>
       </c>
       <c r="C4" t="n">
-        <v>31.2917</v>
+        <v>32.2483</v>
       </c>
       <c r="D4" t="n">
-        <v>32.3459</v>
+        <v>37.6566</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.1339</v>
+        <v>34.1835</v>
       </c>
       <c r="C5" t="n">
-        <v>41.5933</v>
+        <v>44.497</v>
       </c>
       <c r="D5" t="n">
-        <v>42.2897</v>
+        <v>45.5469</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30.3384</v>
+        <v>32.31</v>
       </c>
       <c r="C6" t="n">
-        <v>34.2791</v>
+        <v>34.2252</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1845</v>
+        <v>36.5285</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.659</v>
+        <v>30.1713</v>
       </c>
       <c r="C7" t="n">
-        <v>32.089</v>
+        <v>33.2226</v>
       </c>
       <c r="D7" t="n">
-        <v>35.4118</v>
+        <v>37.4027</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.1439</v>
+        <v>31.6374</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0499</v>
+        <v>38.5818</v>
       </c>
       <c r="D8" t="n">
-        <v>36.7682</v>
+        <v>33.8857</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0016</v>
+        <v>34.2227</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1967</v>
+        <v>36.1564</v>
       </c>
       <c r="D9" t="n">
-        <v>35.8276</v>
+        <v>35.4751</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.7624</v>
+        <v>35.4679</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8343</v>
+        <v>34.12</v>
       </c>
       <c r="D10" t="n">
-        <v>33.7412</v>
+        <v>35.2019</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.0981</v>
+        <v>32.5582</v>
       </c>
       <c r="C11" t="n">
-        <v>35.1413</v>
+        <v>32.702</v>
       </c>
       <c r="D11" t="n">
-        <v>36.8873</v>
+        <v>35.8443</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.8446</v>
+        <v>34.8569</v>
       </c>
       <c r="C12" t="n">
-        <v>37.4412</v>
+        <v>38.8396</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0547</v>
+        <v>45.4878</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.1179</v>
+        <v>36.9331</v>
       </c>
       <c r="C13" t="n">
-        <v>32.7851</v>
+        <v>35.2789</v>
       </c>
       <c r="D13" t="n">
-        <v>37.7215</v>
+        <v>37.4324</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>36.2189</v>
+        <v>33.7386</v>
       </c>
       <c r="C14" t="n">
-        <v>33.7007</v>
+        <v>36.3392</v>
       </c>
       <c r="D14" t="n">
-        <v>38.5743</v>
+        <v>38.9216</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.5632</v>
+        <v>35.6614</v>
       </c>
       <c r="C15" t="n">
-        <v>34.4318</v>
+        <v>35.0914</v>
       </c>
       <c r="D15" t="n">
-        <v>38.9636</v>
+        <v>39.8493</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.6535</v>
+        <v>36.3662</v>
       </c>
       <c r="C16" t="n">
-        <v>37.3832</v>
+        <v>34.7998</v>
       </c>
       <c r="D16" t="n">
-        <v>36.876</v>
+        <v>41.1747</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.3189</v>
+        <v>34.0319</v>
       </c>
       <c r="C17" t="n">
-        <v>33.0841</v>
+        <v>33.6131</v>
       </c>
       <c r="D17" t="n">
-        <v>39.3191</v>
+        <v>38.0451</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.7975</v>
+        <v>6.82813</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6105</v>
+        <v>12.8531</v>
       </c>
       <c r="D2" t="n">
-        <v>16.522</v>
+        <v>16.5221</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0647</v>
+        <v>13.1062</v>
       </c>
       <c r="C3" t="n">
-        <v>22.6822</v>
+        <v>23.5144</v>
       </c>
       <c r="D3" t="n">
-        <v>31.6496</v>
+        <v>31.4988</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7216</v>
+        <v>18.7648</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6545</v>
+        <v>32.9555</v>
       </c>
       <c r="D4" t="n">
-        <v>44.9114</v>
+        <v>44.8004</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.545</v>
+        <v>24.6454</v>
       </c>
       <c r="C5" t="n">
-        <v>40.6844</v>
+        <v>42.3816</v>
       </c>
       <c r="D5" t="n">
-        <v>58.6825</v>
+        <v>58.3623</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.8427</v>
+        <v>26.9838</v>
       </c>
       <c r="C6" t="n">
-        <v>36.7574</v>
+        <v>38.0576</v>
       </c>
       <c r="D6" t="n">
-        <v>53.8369</v>
+        <v>53.2882</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.935</v>
+        <v>29.5098</v>
       </c>
       <c r="C7" t="n">
-        <v>37.034</v>
+        <v>38.1385</v>
       </c>
       <c r="D7" t="n">
-        <v>48.8905</v>
+        <v>47.7859</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.361</v>
+        <v>31.8849</v>
       </c>
       <c r="C8" t="n">
-        <v>37.7558</v>
+        <v>39.0098</v>
       </c>
       <c r="D8" t="n">
-        <v>49.6777</v>
+        <v>50.5574</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.5202</v>
+        <v>33.5715</v>
       </c>
       <c r="C9" t="n">
-        <v>38.1667</v>
+        <v>39.3668</v>
       </c>
       <c r="D9" t="n">
-        <v>49.2335</v>
+        <v>48.6325</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.42</v>
+        <v>33.9267</v>
       </c>
       <c r="C10" t="n">
-        <v>41.7475</v>
+        <v>44.4666</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7424</v>
+        <v>52.3468</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6666</v>
+        <v>33.9776</v>
       </c>
       <c r="C11" t="n">
-        <v>45.1676</v>
+        <v>46.1225</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3113</v>
+        <v>54.1355</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8942</v>
+        <v>34.1438</v>
       </c>
       <c r="C12" t="n">
-        <v>45.8255</v>
+        <v>47.2637</v>
       </c>
       <c r="D12" t="n">
-        <v>56.8915</v>
+        <v>56.6226</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.8808</v>
+        <v>34.1021</v>
       </c>
       <c r="C13" t="n">
-        <v>45.8239</v>
+        <v>47.3119</v>
       </c>
       <c r="D13" t="n">
-        <v>57.2086</v>
+        <v>57.1266</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.9454</v>
+        <v>34.0779</v>
       </c>
       <c r="C14" t="n">
-        <v>45.8454</v>
+        <v>47.3382</v>
       </c>
       <c r="D14" t="n">
-        <v>58.775</v>
+        <v>58.852</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.8595</v>
+        <v>34.023</v>
       </c>
       <c r="C15" t="n">
-        <v>46.2819</v>
+        <v>47.5574</v>
       </c>
       <c r="D15" t="n">
-        <v>58.669</v>
+        <v>58.8787</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.8951</v>
+        <v>34.1048</v>
       </c>
       <c r="C16" t="n">
-        <v>46.4443</v>
+        <v>47.6072</v>
       </c>
       <c r="D16" t="n">
-        <v>59.9623</v>
+        <v>59.9027</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.9497</v>
+        <v>34.186</v>
       </c>
       <c r="C17" t="n">
-        <v>46.3422</v>
+        <v>47.8237</v>
       </c>
       <c r="D17" t="n">
-        <v>59.9306</v>
+        <v>60.0926</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.78853</v>
+        <v>6.81239</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6694</v>
+        <v>12.9172</v>
       </c>
       <c r="D2" t="n">
-        <v>16.284</v>
+        <v>16.2823</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0798</v>
+        <v>13.1358</v>
       </c>
       <c r="C3" t="n">
-        <v>22.8398</v>
+        <v>23.695</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0754</v>
+        <v>31.0481</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7826</v>
+        <v>18.8548</v>
       </c>
       <c r="C4" t="n">
-        <v>31.8621</v>
+        <v>33.1606</v>
       </c>
       <c r="D4" t="n">
-        <v>44.1946</v>
+        <v>44.2119</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.6791</v>
+        <v>24.8219</v>
       </c>
       <c r="C5" t="n">
-        <v>41.1109</v>
+        <v>42.8557</v>
       </c>
       <c r="D5" t="n">
-        <v>57.8368</v>
+        <v>57.8053</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.1225</v>
+        <v>27.1891</v>
       </c>
       <c r="C6" t="n">
-        <v>37.1869</v>
+        <v>38.4678</v>
       </c>
       <c r="D6" t="n">
-        <v>52.9313</v>
+        <v>52.9402</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.1981</v>
+        <v>29.7747</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3697</v>
+        <v>38.6961</v>
       </c>
       <c r="D7" t="n">
-        <v>47.9842</v>
+        <v>47.7274</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.7683</v>
+        <v>32.196</v>
       </c>
       <c r="C8" t="n">
-        <v>38.1128</v>
+        <v>39.4323</v>
       </c>
       <c r="D8" t="n">
-        <v>48.7608</v>
+        <v>49.8311</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.6531</v>
+        <v>34.0498</v>
       </c>
       <c r="C9" t="n">
-        <v>38.4441</v>
+        <v>39.7437</v>
       </c>
       <c r="D9" t="n">
-        <v>48.141</v>
+        <v>47.8101</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.8898</v>
+        <v>34.1243</v>
       </c>
       <c r="C10" t="n">
-        <v>43.1404</v>
+        <v>45.0341</v>
       </c>
       <c r="D10" t="n">
-        <v>51.5926</v>
+        <v>52.1353</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0356</v>
+        <v>34.4018</v>
       </c>
       <c r="C11" t="n">
-        <v>45.7084</v>
+        <v>46.6456</v>
       </c>
       <c r="D11" t="n">
-        <v>53.651</v>
+        <v>53.3869</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.2892</v>
+        <v>34.4261</v>
       </c>
       <c r="C12" t="n">
-        <v>45.9121</v>
+        <v>47.6434</v>
       </c>
       <c r="D12" t="n">
-        <v>55.7211</v>
+        <v>55.9338</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.2914</v>
+        <v>34.3885</v>
       </c>
       <c r="C13" t="n">
-        <v>46.3588</v>
+        <v>47.357</v>
       </c>
       <c r="D13" t="n">
-        <v>56.5083</v>
+        <v>56.8495</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.1847</v>
+        <v>34.4531</v>
       </c>
       <c r="C14" t="n">
-        <v>46.5816</v>
+        <v>47.7677</v>
       </c>
       <c r="D14" t="n">
-        <v>58.5316</v>
+        <v>57.6922</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.2298</v>
+        <v>34.5797</v>
       </c>
       <c r="C15" t="n">
-        <v>46.0054</v>
+        <v>47.9566</v>
       </c>
       <c r="D15" t="n">
-        <v>58.2661</v>
+        <v>58.4853</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.3202</v>
+        <v>34.4831</v>
       </c>
       <c r="C16" t="n">
-        <v>46.722</v>
+        <v>47.6623</v>
       </c>
       <c r="D16" t="n">
-        <v>59.3362</v>
+        <v>59.93</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.3829</v>
+        <v>34.4395</v>
       </c>
       <c r="C17" t="n">
-        <v>46.7606</v>
+        <v>48.1161</v>
       </c>
       <c r="D17" t="n">
-        <v>59.6459</v>
+        <v>59.559</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4761</v>
+        <v>10.5369</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5712</v>
+        <v>15.9081</v>
       </c>
       <c r="D2" t="n">
-        <v>20.0584</v>
+        <v>20.1029</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1159</v>
+        <v>20.1837</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4294</v>
+        <v>28.6248</v>
       </c>
       <c r="D3" t="n">
-        <v>37.7322</v>
+        <v>37.9177</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.0286</v>
+        <v>29.1718</v>
       </c>
       <c r="C4" t="n">
-        <v>38.2674</v>
+        <v>40.1102</v>
       </c>
       <c r="D4" t="n">
-        <v>53.3312</v>
+        <v>53.6959</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>37.9834</v>
+        <v>38.0757</v>
       </c>
       <c r="C5" t="n">
-        <v>49.9153</v>
+        <v>52.3171</v>
       </c>
       <c r="D5" t="n">
-        <v>69.80500000000001</v>
+        <v>69.8541</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.2882</v>
+        <v>38.6364</v>
       </c>
       <c r="C6" t="n">
-        <v>44.1912</v>
+        <v>45.7495</v>
       </c>
       <c r="D6" t="n">
-        <v>60.3482</v>
+        <v>61.2716</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.2551</v>
+        <v>40.6746</v>
       </c>
       <c r="C7" t="n">
-        <v>42.5008</v>
+        <v>43.7822</v>
       </c>
       <c r="D7" t="n">
-        <v>51.365</v>
+        <v>51.9376</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41.9976</v>
+        <v>42.5813</v>
       </c>
       <c r="C8" t="n">
-        <v>42.3701</v>
+        <v>43.5225</v>
       </c>
       <c r="D8" t="n">
-        <v>51.9459</v>
+        <v>52.3496</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.3187</v>
+        <v>44.7884</v>
       </c>
       <c r="C9" t="n">
-        <v>41.8896</v>
+        <v>42.9127</v>
       </c>
       <c r="D9" t="n">
-        <v>48.0622</v>
+        <v>48.1461</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.2972</v>
+        <v>44.3863</v>
       </c>
       <c r="C10" t="n">
-        <v>46.4142</v>
+        <v>46.9605</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2962</v>
+        <v>51.3621</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.9791</v>
+        <v>44.4942</v>
       </c>
       <c r="C11" t="n">
-        <v>47.8844</v>
+        <v>49.2685</v>
       </c>
       <c r="D11" t="n">
-        <v>52.0484</v>
+        <v>52.1994</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.2571</v>
+        <v>44.1594</v>
       </c>
       <c r="C12" t="n">
-        <v>48.8369</v>
+        <v>49.9767</v>
       </c>
       <c r="D12" t="n">
-        <v>55.0927</v>
+        <v>54.582</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.353</v>
+        <v>44.5374</v>
       </c>
       <c r="C13" t="n">
-        <v>48.9611</v>
+        <v>49.9895</v>
       </c>
       <c r="D13" t="n">
-        <v>54.468</v>
+        <v>54.6321</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.4416</v>
+        <v>44.3373</v>
       </c>
       <c r="C14" t="n">
-        <v>49.2147</v>
+        <v>50.1917</v>
       </c>
       <c r="D14" t="n">
-        <v>56.5013</v>
+        <v>56.6482</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.34</v>
+        <v>44.1698</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9719</v>
+        <v>50.0074</v>
       </c>
       <c r="D15" t="n">
-        <v>56.4103</v>
+        <v>56.2388</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.0775</v>
+        <v>44.5537</v>
       </c>
       <c r="C16" t="n">
-        <v>49.1087</v>
+        <v>50.3544</v>
       </c>
       <c r="D16" t="n">
-        <v>58.0219</v>
+        <v>58.4161</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.301</v>
+        <v>44.5151</v>
       </c>
       <c r="C17" t="n">
-        <v>49.266</v>
+        <v>50.4297</v>
       </c>
       <c r="D17" t="n">
-        <v>58.6572</v>
+        <v>58.0777</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9246</v>
+        <v>14.4662</v>
       </c>
       <c r="C2" t="n">
-        <v>14.0655</v>
+        <v>18.8714</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3448</v>
+        <v>25.0975</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.8683</v>
+        <v>26.8499</v>
       </c>
       <c r="C3" t="n">
-        <v>25.4101</v>
+        <v>32.234</v>
       </c>
       <c r="D3" t="n">
-        <v>29.4764</v>
+        <v>37.7811</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.5007</v>
+        <v>30.2613</v>
       </c>
       <c r="C4" t="n">
-        <v>30.8944</v>
+        <v>32.8003</v>
       </c>
       <c r="D4" t="n">
-        <v>33.2075</v>
+        <v>52.6524</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.6849</v>
+        <v>40.2994</v>
       </c>
       <c r="C5" t="n">
-        <v>36.5215</v>
+        <v>49.4204</v>
       </c>
       <c r="D5" t="n">
-        <v>45.2837</v>
+        <v>57.1944</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6676</v>
+        <v>38.5923</v>
       </c>
       <c r="C6" t="n">
-        <v>33.6635</v>
+        <v>41.1067</v>
       </c>
       <c r="D6" t="n">
-        <v>37.8683</v>
+        <v>49.2317</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.3446</v>
+        <v>40.6732</v>
       </c>
       <c r="C7" t="n">
-        <v>33.4169</v>
+        <v>42.1612</v>
       </c>
       <c r="D7" t="n">
-        <v>36.9689</v>
+        <v>57.2218</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.5874</v>
+        <v>39.4632</v>
       </c>
       <c r="C8" t="n">
-        <v>35.5602</v>
+        <v>43.4607</v>
       </c>
       <c r="D8" t="n">
-        <v>37.9277</v>
+        <v>56.017</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.9462</v>
+        <v>44.1434</v>
       </c>
       <c r="C9" t="n">
-        <v>37.2836</v>
+        <v>39.5718</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9367</v>
+        <v>41.7517</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.9218</v>
+        <v>44.4623</v>
       </c>
       <c r="C10" t="n">
-        <v>35.1339</v>
+        <v>48.9498</v>
       </c>
       <c r="D10" t="n">
-        <v>38.6988</v>
+        <v>52.9052</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2762</v>
+        <v>42.7278</v>
       </c>
       <c r="C11" t="n">
-        <v>36.7817</v>
+        <v>45.7501</v>
       </c>
       <c r="D11" t="n">
-        <v>38.4689</v>
+        <v>47.5167</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.2736</v>
+        <v>41.1279</v>
       </c>
       <c r="C12" t="n">
-        <v>41.0106</v>
+        <v>46.8231</v>
       </c>
       <c r="D12" t="n">
-        <v>48.3789</v>
+        <v>54.2709</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.705</v>
+        <v>41.2446</v>
       </c>
       <c r="C13" t="n">
-        <v>36.7749</v>
+        <v>43.5135</v>
       </c>
       <c r="D13" t="n">
-        <v>38.8344</v>
+        <v>54.9336</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.3951</v>
+        <v>44.3728</v>
       </c>
       <c r="C14" t="n">
-        <v>37.705</v>
+        <v>48.774</v>
       </c>
       <c r="D14" t="n">
-        <v>41.2188</v>
+        <v>54.8601</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0098</v>
+        <v>42.5276</v>
       </c>
       <c r="C15" t="n">
-        <v>40.9478</v>
+        <v>50.5019</v>
       </c>
       <c r="D15" t="n">
-        <v>41.8556</v>
+        <v>54.9963</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.5521</v>
+        <v>43.0745</v>
       </c>
       <c r="C16" t="n">
-        <v>41.226</v>
+        <v>47.0956</v>
       </c>
       <c r="D16" t="n">
-        <v>45.8488</v>
+        <v>55.059</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.2617</v>
+        <v>41.4324</v>
       </c>
       <c r="C17" t="n">
-        <v>35.8273</v>
+        <v>48.9369</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3288</v>
+        <v>54.6419</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3976</v>
+        <v>14.9176</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1035</v>
+        <v>18.5174</v>
       </c>
       <c r="D2" t="n">
-        <v>18.0687</v>
+        <v>24.9843</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.836</v>
+        <v>27.112</v>
       </c>
       <c r="C3" t="n">
-        <v>24.959</v>
+        <v>31.696</v>
       </c>
       <c r="D3" t="n">
-        <v>29.0247</v>
+        <v>38.0497</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.5266</v>
+        <v>32.4702</v>
       </c>
       <c r="C4" t="n">
-        <v>31.8356</v>
+        <v>34.9771</v>
       </c>
       <c r="D4" t="n">
-        <v>31.797</v>
+        <v>53.4355</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.872</v>
+        <v>44.7447</v>
       </c>
       <c r="C5" t="n">
-        <v>34.8215</v>
+        <v>49.025</v>
       </c>
       <c r="D5" t="n">
-        <v>41.8042</v>
+        <v>60.2412</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.2731</v>
+        <v>40.1864</v>
       </c>
       <c r="C6" t="n">
-        <v>34.0879</v>
+        <v>45.5975</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0807</v>
+        <v>54.9427</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.4032</v>
+        <v>39.0859</v>
       </c>
       <c r="C7" t="n">
-        <v>34.1936</v>
+        <v>42.1321</v>
       </c>
       <c r="D7" t="n">
-        <v>39.2709</v>
+        <v>47.4947</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.0019</v>
+        <v>44.9087</v>
       </c>
       <c r="C8" t="n">
-        <v>31.536</v>
+        <v>41.2281</v>
       </c>
       <c r="D8" t="n">
-        <v>38.0711</v>
+        <v>56.0654</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>35.3605</v>
+        <v>48.0128</v>
       </c>
       <c r="C9" t="n">
-        <v>32.0257</v>
+        <v>42.3213</v>
       </c>
       <c r="D9" t="n">
-        <v>35.2619</v>
+        <v>44.4466</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>37.2196</v>
+        <v>42.5676</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0832</v>
+        <v>50.5975</v>
       </c>
       <c r="D10" t="n">
-        <v>37.2242</v>
+        <v>45.7678</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.643</v>
+        <v>44.7314</v>
       </c>
       <c r="C11" t="n">
-        <v>39.1893</v>
+        <v>41.8019</v>
       </c>
       <c r="D11" t="n">
-        <v>36.6537</v>
+        <v>53.0791</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.9684</v>
+        <v>45.4558</v>
       </c>
       <c r="C12" t="n">
-        <v>37.7323</v>
+        <v>49.3501</v>
       </c>
       <c r="D12" t="n">
-        <v>35.4574</v>
+        <v>53.2953</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.7982</v>
+        <v>45.0103</v>
       </c>
       <c r="C13" t="n">
-        <v>40.3367</v>
+        <v>48.2453</v>
       </c>
       <c r="D13" t="n">
-        <v>35.8796</v>
+        <v>55.9712</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.5362</v>
+        <v>41.607</v>
       </c>
       <c r="C14" t="n">
-        <v>35.5596</v>
+        <v>55.5776</v>
       </c>
       <c r="D14" t="n">
-        <v>38.8602</v>
+        <v>54.3357</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.6918</v>
+        <v>44.3176</v>
       </c>
       <c r="C15" t="n">
-        <v>38.1437</v>
+        <v>48.7952</v>
       </c>
       <c r="D15" t="n">
-        <v>44.6648</v>
+        <v>53.8677</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.321</v>
+        <v>43.2908</v>
       </c>
       <c r="C16" t="n">
-        <v>40.8868</v>
+        <v>49.5737</v>
       </c>
       <c r="D16" t="n">
-        <v>40.3404</v>
+        <v>56.8306</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.698</v>
+        <v>39.2337</v>
       </c>
       <c r="C17" t="n">
-        <v>34.982</v>
+        <v>48.2021</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9804</v>
+        <v>51.2968</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.4204</v>
+        <v>18.4511</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7993</v>
+        <v>21.5724</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6352</v>
+        <v>28.1551</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.5199</v>
+        <v>28.7182</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9524</v>
+        <v>32.4224</v>
       </c>
       <c r="D3" t="n">
-        <v>31.799</v>
+        <v>37.3846</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.8241</v>
+        <v>31.8879</v>
       </c>
       <c r="C4" t="n">
-        <v>32.2483</v>
+        <v>46.4327</v>
       </c>
       <c r="D4" t="n">
-        <v>37.6566</v>
+        <v>51.7052</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34.1835</v>
+        <v>46.2955</v>
       </c>
       <c r="C5" t="n">
-        <v>44.497</v>
+        <v>61.4064</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5469</v>
+        <v>65.37</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.31</v>
+        <v>35.4457</v>
       </c>
       <c r="C6" t="n">
-        <v>34.2252</v>
+        <v>45.189</v>
       </c>
       <c r="D6" t="n">
-        <v>36.5285</v>
+        <v>54.2464</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.1713</v>
+        <v>38.1708</v>
       </c>
       <c r="C7" t="n">
-        <v>33.2226</v>
+        <v>49.6919</v>
       </c>
       <c r="D7" t="n">
-        <v>37.4027</v>
+        <v>53.2637</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.6374</v>
+        <v>38.4419</v>
       </c>
       <c r="C8" t="n">
-        <v>38.5818</v>
+        <v>40.0544</v>
       </c>
       <c r="D8" t="n">
-        <v>33.8857</v>
+        <v>56.6607</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.2227</v>
+        <v>38.0383</v>
       </c>
       <c r="C9" t="n">
-        <v>36.1564</v>
+        <v>38.5947</v>
       </c>
       <c r="D9" t="n">
-        <v>35.4751</v>
+        <v>48.8398</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.4679</v>
+        <v>38.7198</v>
       </c>
       <c r="C10" t="n">
-        <v>34.12</v>
+        <v>40.7336</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2019</v>
+        <v>47.8635</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.5582</v>
+        <v>43.9394</v>
       </c>
       <c r="C11" t="n">
-        <v>32.702</v>
+        <v>46.6906</v>
       </c>
       <c r="D11" t="n">
-        <v>35.8443</v>
+        <v>52.0454</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.8569</v>
+        <v>37.8326</v>
       </c>
       <c r="C12" t="n">
-        <v>38.8396</v>
+        <v>40.2835</v>
       </c>
       <c r="D12" t="n">
-        <v>45.4878</v>
+        <v>55.1592</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.9331</v>
+        <v>40.8402</v>
       </c>
       <c r="C13" t="n">
-        <v>35.2789</v>
+        <v>42.919</v>
       </c>
       <c r="D13" t="n">
-        <v>37.4324</v>
+        <v>47.0026</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.7386</v>
+        <v>40.3652</v>
       </c>
       <c r="C14" t="n">
-        <v>36.3392</v>
+        <v>40.7389</v>
       </c>
       <c r="D14" t="n">
-        <v>38.9216</v>
+        <v>46.3003</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>35.6614</v>
+        <v>37.1135</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0914</v>
+        <v>40.2039</v>
       </c>
       <c r="D15" t="n">
-        <v>39.8493</v>
+        <v>53.2411</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.3662</v>
+        <v>37.4529</v>
       </c>
       <c r="C16" t="n">
-        <v>34.7998</v>
+        <v>39.9792</v>
       </c>
       <c r="D16" t="n">
-        <v>41.1747</v>
+        <v>56.9042</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.0319</v>
+        <v>42.609</v>
       </c>
       <c r="C17" t="n">
-        <v>33.6131</v>
+        <v>41.6278</v>
       </c>
       <c r="D17" t="n">
-        <v>38.0451</v>
+        <v>48.2064</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.82813</v>
+        <v>8.853680000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8531</v>
+        <v>16.8048</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5221</v>
+        <v>22.2486</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.1062</v>
+        <v>16.7872</v>
       </c>
       <c r="C3" t="n">
-        <v>23.5144</v>
+        <v>30.4185</v>
       </c>
       <c r="D3" t="n">
-        <v>31.4988</v>
+        <v>42.1235</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7648</v>
+        <v>23.8313</v>
       </c>
       <c r="C4" t="n">
-        <v>32.9555</v>
+        <v>41.9563</v>
       </c>
       <c r="D4" t="n">
-        <v>44.8004</v>
+        <v>59.2848</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.6454</v>
+        <v>31.1512</v>
       </c>
       <c r="C5" t="n">
-        <v>42.3816</v>
+        <v>53.215</v>
       </c>
       <c r="D5" t="n">
-        <v>58.3623</v>
+        <v>77.1354</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.9838</v>
+        <v>33.4241</v>
       </c>
       <c r="C6" t="n">
-        <v>38.0576</v>
+        <v>46.1253</v>
       </c>
       <c r="D6" t="n">
-        <v>53.2882</v>
+        <v>69.3326</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.5098</v>
+        <v>35.9764</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1385</v>
+        <v>46.1831</v>
       </c>
       <c r="D7" t="n">
-        <v>47.7859</v>
+        <v>61.4612</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8849</v>
+        <v>38.4959</v>
       </c>
       <c r="C8" t="n">
-        <v>39.0098</v>
+        <v>46.629</v>
       </c>
       <c r="D8" t="n">
-        <v>50.5574</v>
+        <v>63.0688</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.5715</v>
+        <v>40.2404</v>
       </c>
       <c r="C9" t="n">
-        <v>39.3668</v>
+        <v>46.7193</v>
       </c>
       <c r="D9" t="n">
-        <v>48.6325</v>
+        <v>59.4104</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.9267</v>
+        <v>40.349</v>
       </c>
       <c r="C10" t="n">
-        <v>44.4666</v>
+        <v>50.9289</v>
       </c>
       <c r="D10" t="n">
-        <v>52.3468</v>
+        <v>65.0864</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.9776</v>
+        <v>40.5973</v>
       </c>
       <c r="C11" t="n">
-        <v>46.1225</v>
+        <v>54.9777</v>
       </c>
       <c r="D11" t="n">
-        <v>54.1355</v>
+        <v>66.1418</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.1438</v>
+        <v>40.7081</v>
       </c>
       <c r="C12" t="n">
-        <v>47.2637</v>
+        <v>55.2092</v>
       </c>
       <c r="D12" t="n">
-        <v>56.6226</v>
+        <v>69.265</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.1021</v>
+        <v>40.5378</v>
       </c>
       <c r="C13" t="n">
-        <v>47.3119</v>
+        <v>55.9604</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1266</v>
+        <v>70.5791</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0779</v>
+        <v>40.7823</v>
       </c>
       <c r="C14" t="n">
-        <v>47.3382</v>
+        <v>56.2733</v>
       </c>
       <c r="D14" t="n">
-        <v>58.852</v>
+        <v>71.48650000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.023</v>
+        <v>40.6489</v>
       </c>
       <c r="C15" t="n">
-        <v>47.5574</v>
+        <v>55.9489</v>
       </c>
       <c r="D15" t="n">
-        <v>58.8787</v>
+        <v>72.56829999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.1048</v>
+        <v>40.7504</v>
       </c>
       <c r="C16" t="n">
-        <v>47.6072</v>
+        <v>56.5026</v>
       </c>
       <c r="D16" t="n">
-        <v>59.9027</v>
+        <v>73.8202</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.186</v>
+        <v>40.7489</v>
       </c>
       <c r="C17" t="n">
-        <v>47.8237</v>
+        <v>56.5864</v>
       </c>
       <c r="D17" t="n">
-        <v>60.0926</v>
+        <v>73.77</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.81239</v>
+        <v>8.880559999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9172</v>
+        <v>16.9177</v>
       </c>
       <c r="D2" t="n">
-        <v>16.2823</v>
+        <v>21.8331</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.1358</v>
+        <v>16.8738</v>
       </c>
       <c r="C3" t="n">
-        <v>23.695</v>
+        <v>30.656</v>
       </c>
       <c r="D3" t="n">
-        <v>31.0481</v>
+        <v>41.4908</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.8548</v>
+        <v>24.0568</v>
       </c>
       <c r="C4" t="n">
-        <v>33.1606</v>
+        <v>42.4098</v>
       </c>
       <c r="D4" t="n">
-        <v>44.2119</v>
+        <v>58.7037</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.8219</v>
+        <v>31.4976</v>
       </c>
       <c r="C5" t="n">
-        <v>42.8557</v>
+        <v>53.9223</v>
       </c>
       <c r="D5" t="n">
-        <v>57.8053</v>
+        <v>75.919</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.1891</v>
+        <v>33.8708</v>
       </c>
       <c r="C6" t="n">
-        <v>38.4678</v>
+        <v>46.7475</v>
       </c>
       <c r="D6" t="n">
-        <v>52.9402</v>
+        <v>67.58880000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7747</v>
+        <v>36.5238</v>
       </c>
       <c r="C7" t="n">
-        <v>38.6961</v>
+        <v>46.6952</v>
       </c>
       <c r="D7" t="n">
-        <v>47.7274</v>
+        <v>60.4629</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.196</v>
+        <v>39.0037</v>
       </c>
       <c r="C8" t="n">
-        <v>39.4323</v>
+        <v>47.2342</v>
       </c>
       <c r="D8" t="n">
-        <v>49.8311</v>
+        <v>61.9913</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0498</v>
+        <v>41.0749</v>
       </c>
       <c r="C9" t="n">
-        <v>39.7437</v>
+        <v>47.4076</v>
       </c>
       <c r="D9" t="n">
-        <v>47.8101</v>
+        <v>59.7698</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1243</v>
+        <v>40.8758</v>
       </c>
       <c r="C10" t="n">
-        <v>45.0341</v>
+        <v>52.6786</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1353</v>
+        <v>63.6285</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.4018</v>
+        <v>41.115</v>
       </c>
       <c r="C11" t="n">
-        <v>46.6456</v>
+        <v>55.9687</v>
       </c>
       <c r="D11" t="n">
-        <v>53.3869</v>
+        <v>65.44799999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.4261</v>
+        <v>41.3702</v>
       </c>
       <c r="C12" t="n">
-        <v>47.6434</v>
+        <v>56.434</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9338</v>
+        <v>68.4452</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.3885</v>
+        <v>41.3773</v>
       </c>
       <c r="C13" t="n">
-        <v>47.357</v>
+        <v>56.1777</v>
       </c>
       <c r="D13" t="n">
-        <v>56.8495</v>
+        <v>69.1605</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.4531</v>
+        <v>41.3992</v>
       </c>
       <c r="C14" t="n">
-        <v>47.7677</v>
+        <v>56.9042</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6922</v>
+        <v>72.67610000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.5797</v>
+        <v>41.2795</v>
       </c>
       <c r="C15" t="n">
-        <v>47.9566</v>
+        <v>56.921</v>
       </c>
       <c r="D15" t="n">
-        <v>58.4853</v>
+        <v>71.73220000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.4831</v>
+        <v>41.3198</v>
       </c>
       <c r="C16" t="n">
-        <v>47.6623</v>
+        <v>56.7194</v>
       </c>
       <c r="D16" t="n">
-        <v>59.93</v>
+        <v>72.7923</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.4395</v>
+        <v>41.4298</v>
       </c>
       <c r="C17" t="n">
-        <v>48.1161</v>
+        <v>56.9981</v>
       </c>
       <c r="D17" t="n">
-        <v>59.559</v>
+        <v>72.89790000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5369</v>
+        <v>13.8636</v>
       </c>
       <c r="C2" t="n">
-        <v>15.9081</v>
+        <v>21.597</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1029</v>
+        <v>29.0854</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1837</v>
+        <v>26.6398</v>
       </c>
       <c r="C3" t="n">
-        <v>28.6248</v>
+        <v>39.0579</v>
       </c>
       <c r="D3" t="n">
-        <v>37.9177</v>
+        <v>53.3707</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.1718</v>
+        <v>38.0937</v>
       </c>
       <c r="C4" t="n">
-        <v>40.1102</v>
+        <v>54.166</v>
       </c>
       <c r="D4" t="n">
-        <v>53.6959</v>
+        <v>74.4365</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.0757</v>
+        <v>49.219</v>
       </c>
       <c r="C5" t="n">
-        <v>52.3171</v>
+        <v>69.9495</v>
       </c>
       <c r="D5" t="n">
-        <v>69.8541</v>
+        <v>96.3385</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.6364</v>
+        <v>48.2585</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7495</v>
+        <v>56.6061</v>
       </c>
       <c r="D6" t="n">
-        <v>61.2716</v>
+        <v>82.22499999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.6746</v>
+        <v>49.5706</v>
       </c>
       <c r="C7" t="n">
-        <v>43.7822</v>
+        <v>54.0098</v>
       </c>
       <c r="D7" t="n">
-        <v>51.9376</v>
+        <v>66.8075</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.5813</v>
+        <v>51.5342</v>
       </c>
       <c r="C8" t="n">
-        <v>43.5225</v>
+        <v>53.1276</v>
       </c>
       <c r="D8" t="n">
-        <v>52.3496</v>
+        <v>65.4328</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.7884</v>
+        <v>53.2105</v>
       </c>
       <c r="C9" t="n">
-        <v>42.9127</v>
+        <v>51.7419</v>
       </c>
       <c r="D9" t="n">
-        <v>48.1461</v>
+        <v>58.086</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.3863</v>
+        <v>52.6361</v>
       </c>
       <c r="C10" t="n">
-        <v>46.9605</v>
+        <v>56.0136</v>
       </c>
       <c r="D10" t="n">
-        <v>51.3621</v>
+        <v>63.3768</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.4942</v>
+        <v>53.023</v>
       </c>
       <c r="C11" t="n">
-        <v>49.2685</v>
+        <v>58.1952</v>
       </c>
       <c r="D11" t="n">
-        <v>52.1994</v>
+        <v>62.7661</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.1594</v>
+        <v>52.8772</v>
       </c>
       <c r="C12" t="n">
-        <v>49.9767</v>
+        <v>59.0305</v>
       </c>
       <c r="D12" t="n">
-        <v>54.582</v>
+        <v>66.0046</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.5374</v>
+        <v>53.4257</v>
       </c>
       <c r="C13" t="n">
-        <v>49.9895</v>
+        <v>59.0496</v>
       </c>
       <c r="D13" t="n">
-        <v>54.6321</v>
+        <v>66.3261</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.3373</v>
+        <v>52.8692</v>
       </c>
       <c r="C14" t="n">
-        <v>50.1917</v>
+        <v>59.1509</v>
       </c>
       <c r="D14" t="n">
-        <v>56.6482</v>
+        <v>68.70959999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.1698</v>
+        <v>53.1724</v>
       </c>
       <c r="C15" t="n">
-        <v>50.0074</v>
+        <v>59.2803</v>
       </c>
       <c r="D15" t="n">
-        <v>56.2388</v>
+        <v>69.09520000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.5537</v>
+        <v>53.2337</v>
       </c>
       <c r="C16" t="n">
-        <v>50.3544</v>
+        <v>59.1794</v>
       </c>
       <c r="D16" t="n">
-        <v>58.4161</v>
+        <v>70.36790000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.5151</v>
+        <v>53.2819</v>
       </c>
       <c r="C17" t="n">
-        <v>50.4297</v>
+        <v>59.3791</v>
       </c>
       <c r="D17" t="n">
-        <v>58.0777</v>
+        <v>70.8415</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0103</v>
+        <v>14.3188</v>
       </c>
       <c r="C2" t="n">
-        <v>18.2726</v>
+        <v>24.8275</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1039</v>
+        <v>29.589</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.2901</v>
+        <v>26.5586</v>
       </c>
       <c r="C3" t="n">
-        <v>28.457</v>
+        <v>36.5062</v>
       </c>
       <c r="D3" t="n">
-        <v>32.7892</v>
+        <v>47.7213</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.1892</v>
+        <v>30.6982</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6145</v>
+        <v>47.5892</v>
       </c>
       <c r="D4" t="n">
-        <v>49.2708</v>
+        <v>61.131</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.7091</v>
+        <v>39.1944</v>
       </c>
       <c r="C5" t="n">
-        <v>51.946</v>
+        <v>61.2472</v>
       </c>
       <c r="D5" t="n">
-        <v>60.5482</v>
+        <v>70.43729999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.5169</v>
+        <v>38.7209</v>
       </c>
       <c r="C6" t="n">
-        <v>44.8133</v>
+        <v>53.791</v>
       </c>
       <c r="D6" t="n">
-        <v>47.3017</v>
+        <v>56.1323</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6314</v>
+        <v>43.7317</v>
       </c>
       <c r="C7" t="n">
-        <v>41.2217</v>
+        <v>44.9861</v>
       </c>
       <c r="D7" t="n">
-        <v>47.3569</v>
+        <v>57.7516</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.2152</v>
+        <v>43.8886</v>
       </c>
       <c r="C8" t="n">
-        <v>41.1096</v>
+        <v>55.2443</v>
       </c>
       <c r="D8" t="n">
-        <v>50.9185</v>
+        <v>62.7137</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.6522</v>
+        <v>47.1469</v>
       </c>
       <c r="C9" t="n">
-        <v>36.6669</v>
+        <v>46.3107</v>
       </c>
       <c r="D9" t="n">
-        <v>54.9094</v>
+        <v>57.481</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36.0564</v>
+        <v>42.4791</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8091</v>
+        <v>49.4544</v>
       </c>
       <c r="D10" t="n">
-        <v>56.959</v>
+        <v>65.449</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.7732</v>
+        <v>42.801</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3665</v>
+        <v>51.8005</v>
       </c>
       <c r="D11" t="n">
-        <v>53.7836</v>
+        <v>58.8963</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.2469</v>
+        <v>45.5135</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9317</v>
+        <v>52.3048</v>
       </c>
       <c r="D12" t="n">
-        <v>56.1618</v>
+        <v>54.7591</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>39.8399</v>
+        <v>42.3858</v>
       </c>
       <c r="C13" t="n">
-        <v>42.2624</v>
+        <v>48.9749</v>
       </c>
       <c r="D13" t="n">
-        <v>56.4857</v>
+        <v>62.0954</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.1258</v>
+        <v>42.3667</v>
       </c>
       <c r="C14" t="n">
-        <v>45.3016</v>
+        <v>56.7556</v>
       </c>
       <c r="D14" t="n">
-        <v>59.6044</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.7015</v>
+        <v>44.429</v>
       </c>
       <c r="C15" t="n">
-        <v>42.7589</v>
+        <v>49.2032</v>
       </c>
       <c r="D15" t="n">
-        <v>55.8077</v>
+        <v>57.4887</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.2324</v>
+        <v>43.6394</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7436</v>
+        <v>52.9313</v>
       </c>
       <c r="D16" t="n">
-        <v>54.5392</v>
+        <v>66.1233</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.2702</v>
+        <v>39.776</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6509</v>
+        <v>53.8615</v>
       </c>
       <c r="D17" t="n">
-        <v>51.8873</v>
+        <v>53.98</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.327</v>
+        <v>14.9634</v>
       </c>
       <c r="C2" t="n">
-        <v>18.0022</v>
+        <v>24.6372</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1289</v>
+        <v>31.1794</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.3209</v>
+        <v>27.5278</v>
       </c>
       <c r="C3" t="n">
-        <v>32.083</v>
+        <v>38.2037</v>
       </c>
       <c r="D3" t="n">
-        <v>31.9302</v>
+        <v>46.2846</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.031</v>
+        <v>29.9497</v>
       </c>
       <c r="C4" t="n">
-        <v>34.6523</v>
+        <v>51.4017</v>
       </c>
       <c r="D4" t="n">
-        <v>52.4562</v>
+        <v>61.4417</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32.4411</v>
+        <v>40.3389</v>
       </c>
       <c r="C5" t="n">
-        <v>51.1862</v>
+        <v>56.1745</v>
       </c>
       <c r="D5" t="n">
-        <v>57.2444</v>
+        <v>64.58750000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.9308</v>
+        <v>39.8228</v>
       </c>
       <c r="C6" t="n">
-        <v>41.2108</v>
+        <v>51.4228</v>
       </c>
       <c r="D6" t="n">
-        <v>58.0197</v>
+        <v>62.2768</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.2916</v>
+        <v>45.2773</v>
       </c>
       <c r="C7" t="n">
-        <v>37.2711</v>
+        <v>50.8187</v>
       </c>
       <c r="D7" t="n">
-        <v>51.5421</v>
+        <v>63.1533</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3606</v>
+        <v>39.399</v>
       </c>
       <c r="C8" t="n">
-        <v>38.3081</v>
+        <v>45.0021</v>
       </c>
       <c r="D8" t="n">
-        <v>51.5834</v>
+        <v>64.0391</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.2836</v>
+        <v>44.3969</v>
       </c>
       <c r="C9" t="n">
-        <v>39.7345</v>
+        <v>49.3074</v>
       </c>
       <c r="D9" t="n">
-        <v>54.9479</v>
+        <v>55.493</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.6078</v>
+        <v>41.3771</v>
       </c>
       <c r="C10" t="n">
-        <v>42.6986</v>
+        <v>46.4292</v>
       </c>
       <c r="D10" t="n">
-        <v>57.0331</v>
+        <v>63.0392</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.6971</v>
+        <v>45.2535</v>
       </c>
       <c r="C11" t="n">
-        <v>40.4341</v>
+        <v>53.5882</v>
       </c>
       <c r="D11" t="n">
-        <v>49.0633</v>
+        <v>62.7279</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.7039</v>
+        <v>46.0444</v>
       </c>
       <c r="C12" t="n">
-        <v>41.8095</v>
+        <v>51.4623</v>
       </c>
       <c r="D12" t="n">
-        <v>57.5273</v>
+        <v>59.6004</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.0097</v>
+        <v>44.9668</v>
       </c>
       <c r="C13" t="n">
-        <v>43.4354</v>
+        <v>49.4301</v>
       </c>
       <c r="D13" t="n">
-        <v>48.3359</v>
+        <v>61.1417</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6169</v>
+        <v>43.4905</v>
       </c>
       <c r="C14" t="n">
-        <v>40.9585</v>
+        <v>54.5136</v>
       </c>
       <c r="D14" t="n">
-        <v>53.9023</v>
+        <v>61.6215</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.1527</v>
+        <v>42.2387</v>
       </c>
       <c r="C15" t="n">
-        <v>43.5415</v>
+        <v>52.7115</v>
       </c>
       <c r="D15" t="n">
-        <v>53.393</v>
+        <v>58.4098</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.834</v>
+        <v>43.0719</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7835</v>
+        <v>52.481</v>
       </c>
       <c r="D16" t="n">
-        <v>55.2058</v>
+        <v>58.8442</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>35.9228</v>
+        <v>38.272</v>
       </c>
       <c r="C17" t="n">
-        <v>41.3621</v>
+        <v>59.7578</v>
       </c>
       <c r="D17" t="n">
-        <v>55.6924</v>
+        <v>63.9479</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.29</v>
+        <v>18.4096</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4489</v>
+        <v>27.5995</v>
       </c>
       <c r="D2" t="n">
-        <v>23.2486</v>
+        <v>29.7845</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.0881</v>
+        <v>30.2835</v>
       </c>
       <c r="C3" t="n">
-        <v>29.42</v>
+        <v>40.7492</v>
       </c>
       <c r="D3" t="n">
-        <v>34.9261</v>
+        <v>48.5284</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.1421</v>
+        <v>32.6514</v>
       </c>
       <c r="C4" t="n">
-        <v>35.691</v>
+        <v>50.1141</v>
       </c>
       <c r="D4" t="n">
-        <v>48.3252</v>
+        <v>53.0545</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.8733</v>
+        <v>43.7866</v>
       </c>
       <c r="C5" t="n">
-        <v>52.72</v>
+        <v>55.3812</v>
       </c>
       <c r="D5" t="n">
-        <v>55.0767</v>
+        <v>62.7586</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.222</v>
+        <v>42.3284</v>
       </c>
       <c r="C6" t="n">
-        <v>50.2741</v>
+        <v>57.1405</v>
       </c>
       <c r="D6" t="n">
-        <v>55.2591</v>
+        <v>60.2843</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.4939</v>
+        <v>41.1772</v>
       </c>
       <c r="C7" t="n">
-        <v>43.8953</v>
+        <v>46.5571</v>
       </c>
       <c r="D7" t="n">
-        <v>54.7722</v>
+        <v>59.9478</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33.5862</v>
+        <v>43.71</v>
       </c>
       <c r="C8" t="n">
-        <v>40.9772</v>
+        <v>49.5074</v>
       </c>
       <c r="D8" t="n">
-        <v>56.3405</v>
+        <v>63.6052</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.8884</v>
+        <v>44.7427</v>
       </c>
       <c r="C9" t="n">
-        <v>40.8069</v>
+        <v>49.4753</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3088</v>
+        <v>54.6017</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.5701</v>
+        <v>39.9609</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8796</v>
+        <v>52.2786</v>
       </c>
       <c r="D10" t="n">
-        <v>53.3907</v>
+        <v>53.4925</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.3858</v>
+        <v>40.8541</v>
       </c>
       <c r="C11" t="n">
-        <v>40.8962</v>
+        <v>44.1914</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3436</v>
+        <v>52.1184</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6584</v>
+        <v>38.6087</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3257</v>
+        <v>38.997</v>
       </c>
       <c r="D12" t="n">
-        <v>51.3502</v>
+        <v>58.6468</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.5022</v>
+        <v>38.4635</v>
       </c>
       <c r="C13" t="n">
-        <v>42.7057</v>
+        <v>40.3093</v>
       </c>
       <c r="D13" t="n">
-        <v>56.618</v>
+        <v>53.8825</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.2509</v>
+        <v>44.4658</v>
       </c>
       <c r="C14" t="n">
-        <v>45.2749</v>
+        <v>39.2393</v>
       </c>
       <c r="D14" t="n">
-        <v>57.1292</v>
+        <v>56.4315</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.5187</v>
+        <v>44.1201</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7305</v>
+        <v>47.7986</v>
       </c>
       <c r="D15" t="n">
-        <v>51.1272</v>
+        <v>52.7864</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.4175</v>
+        <v>36.0313</v>
       </c>
       <c r="C16" t="n">
-        <v>45.421</v>
+        <v>51.6726</v>
       </c>
       <c r="D16" t="n">
-        <v>53.3353</v>
+        <v>57.9366</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.6524</v>
+        <v>42.2919</v>
       </c>
       <c r="C17" t="n">
-        <v>44.5861</v>
+        <v>47.149</v>
       </c>
       <c r="D17" t="n">
-        <v>59.573</v>
+        <v>45.3585</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.79826</v>
+        <v>8.86346</v>
       </c>
       <c r="C2" t="n">
-        <v>16.691</v>
+        <v>22.1033</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1179</v>
+        <v>29.5337</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0611</v>
+        <v>16.7518</v>
       </c>
       <c r="C3" t="n">
-        <v>31.9312</v>
+        <v>41.8175</v>
       </c>
       <c r="D3" t="n">
-        <v>40.2729</v>
+        <v>55.3424</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7161</v>
+        <v>23.8376</v>
       </c>
       <c r="C4" t="n">
-        <v>45.7046</v>
+        <v>58.5848</v>
       </c>
       <c r="D4" t="n">
-        <v>57.1944</v>
+        <v>77.23439999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.5595</v>
+        <v>31.0977</v>
       </c>
       <c r="C5" t="n">
-        <v>59.933</v>
+        <v>76.12</v>
       </c>
       <c r="D5" t="n">
-        <v>74.4592</v>
+        <v>98.77330000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.8501</v>
+        <v>33.4415</v>
       </c>
       <c r="C6" t="n">
-        <v>54.3392</v>
+        <v>68.7608</v>
       </c>
       <c r="D6" t="n">
-        <v>72.2435</v>
+        <v>93.2718</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3916</v>
+        <v>36.0207</v>
       </c>
       <c r="C7" t="n">
-        <v>48.5095</v>
+        <v>59.8048</v>
       </c>
       <c r="D7" t="n">
-        <v>72.9076</v>
+        <v>91.7647</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8203</v>
+        <v>38.5517</v>
       </c>
       <c r="C8" t="n">
-        <v>50.5381</v>
+        <v>61.2056</v>
       </c>
       <c r="D8" t="n">
-        <v>75.9002</v>
+        <v>92.57080000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.793</v>
+        <v>40.474</v>
       </c>
       <c r="C9" t="n">
-        <v>49.2344</v>
+        <v>58.1915</v>
       </c>
       <c r="D9" t="n">
-        <v>77.515</v>
+        <v>93.89239999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.7853</v>
+        <v>40.4813</v>
       </c>
       <c r="C10" t="n">
-        <v>53.5196</v>
+        <v>64.7676</v>
       </c>
       <c r="D10" t="n">
-        <v>79.2354</v>
+        <v>96.4607</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0172</v>
+        <v>40.7087</v>
       </c>
       <c r="C11" t="n">
-        <v>54.5136</v>
+        <v>66.86409999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>79.5356</v>
+        <v>96.15430000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.0581</v>
+        <v>40.7188</v>
       </c>
       <c r="C12" t="n">
-        <v>57.0708</v>
+        <v>68.958</v>
       </c>
       <c r="D12" t="n">
-        <v>81.0855</v>
+        <v>98.5145</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.004</v>
+        <v>40.8002</v>
       </c>
       <c r="C13" t="n">
-        <v>57.4212</v>
+        <v>69.97110000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>80.62739999999999</v>
+        <v>98.0861</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0399</v>
+        <v>40.6824</v>
       </c>
       <c r="C14" t="n">
-        <v>59.2842</v>
+        <v>72.70189999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>81.899</v>
+        <v>98.88939999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.0022</v>
+        <v>40.8213</v>
       </c>
       <c r="C15" t="n">
-        <v>59.0174</v>
+        <v>72.87949999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>80.7366</v>
+        <v>98.7694</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.041</v>
+        <v>40.8484</v>
       </c>
       <c r="C16" t="n">
-        <v>60.7315</v>
+        <v>73.3372</v>
       </c>
       <c r="D16" t="n">
-        <v>80.9444</v>
+        <v>98.2805</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.0646</v>
+        <v>40.7259</v>
       </c>
       <c r="C17" t="n">
-        <v>58.8493</v>
+        <v>73.2975</v>
       </c>
       <c r="D17" t="n">
-        <v>80.5089</v>
+        <v>98.9833</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.7832</v>
+        <v>8.87513</v>
       </c>
       <c r="C2" t="n">
-        <v>16.3863</v>
+        <v>21.7301</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2151</v>
+        <v>29.671</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0642</v>
+        <v>16.8475</v>
       </c>
       <c r="C3" t="n">
-        <v>31.3728</v>
+        <v>41.1535</v>
       </c>
       <c r="D3" t="n">
-        <v>40.3983</v>
+        <v>55.5773</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7831</v>
+        <v>24.0002</v>
       </c>
       <c r="C4" t="n">
-        <v>44.9095</v>
+        <v>57.8961</v>
       </c>
       <c r="D4" t="n">
-        <v>57.6694</v>
+        <v>77.6846</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.6589</v>
+        <v>31.453</v>
       </c>
       <c r="C5" t="n">
-        <v>59.2107</v>
+        <v>75.3668</v>
       </c>
       <c r="D5" t="n">
-        <v>75.0034</v>
+        <v>98.5622</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.0759</v>
+        <v>33.8708</v>
       </c>
       <c r="C6" t="n">
-        <v>53.4844</v>
+        <v>67.7445</v>
       </c>
       <c r="D6" t="n">
-        <v>73.1418</v>
+        <v>92.9081</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.704</v>
+        <v>36.4859</v>
       </c>
       <c r="C7" t="n">
-        <v>47.5904</v>
+        <v>60.3495</v>
       </c>
       <c r="D7" t="n">
-        <v>73.3019</v>
+        <v>91.4182</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.1852</v>
+        <v>39.0965</v>
       </c>
       <c r="C8" t="n">
-        <v>50.0256</v>
+        <v>60.9863</v>
       </c>
       <c r="D8" t="n">
-        <v>75.4716</v>
+        <v>93.9967</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.008</v>
+        <v>40.9703</v>
       </c>
       <c r="C9" t="n">
-        <v>49.1209</v>
+        <v>59.1189</v>
       </c>
       <c r="D9" t="n">
-        <v>78.2197</v>
+        <v>94.51390000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0321</v>
+        <v>41.1294</v>
       </c>
       <c r="C10" t="n">
-        <v>52.1087</v>
+        <v>63.4045</v>
       </c>
       <c r="D10" t="n">
-        <v>79.7295</v>
+        <v>97.4349</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2382</v>
+        <v>41.3628</v>
       </c>
       <c r="C11" t="n">
-        <v>53.7371</v>
+        <v>65.1716</v>
       </c>
       <c r="D11" t="n">
-        <v>80.00190000000001</v>
+        <v>96.7522</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.3592</v>
+        <v>41.3706</v>
       </c>
       <c r="C12" t="n">
-        <v>55.4539</v>
+        <v>68.6789</v>
       </c>
       <c r="D12" t="n">
-        <v>81.3151</v>
+        <v>98.1641</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.387</v>
+        <v>41.4901</v>
       </c>
       <c r="C13" t="n">
-        <v>56.7181</v>
+        <v>69.22929999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>80.6575</v>
+        <v>98.2603</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.437</v>
+        <v>41.462</v>
       </c>
       <c r="C14" t="n">
-        <v>58.2646</v>
+        <v>70.29349999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>81.67959999999999</v>
+        <v>98.8592</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.2597</v>
+        <v>41.5447</v>
       </c>
       <c r="C15" t="n">
-        <v>58.7252</v>
+        <v>71.4003</v>
       </c>
       <c r="D15" t="n">
-        <v>81.8279</v>
+        <v>98.81310000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.2687</v>
+        <v>41.4337</v>
       </c>
       <c r="C16" t="n">
-        <v>58.8851</v>
+        <v>73.05329999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>81.0651</v>
+        <v>98.9966</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.4299</v>
+        <v>41.4003</v>
       </c>
       <c r="C17" t="n">
-        <v>58.9843</v>
+        <v>73.34480000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>81.23690000000001</v>
+        <v>99.32559999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.504</v>
+        <v>13.8709</v>
       </c>
       <c r="C2" t="n">
-        <v>20.0472</v>
+        <v>29.0975</v>
       </c>
       <c r="D2" t="n">
-        <v>23.8234</v>
+        <v>36.042</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1694</v>
+        <v>26.8466</v>
       </c>
       <c r="C3" t="n">
-        <v>37.8082</v>
+        <v>53.4132</v>
       </c>
       <c r="D3" t="n">
-        <v>44.4671</v>
+        <v>64.5779</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.2397</v>
+        <v>38.7455</v>
       </c>
       <c r="C4" t="n">
-        <v>53.6197</v>
+        <v>74.3434</v>
       </c>
       <c r="D4" t="n">
-        <v>62.7105</v>
+        <v>88.4011</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.5693</v>
+        <v>50.4337</v>
       </c>
       <c r="C5" t="n">
-        <v>70.6264</v>
+        <v>95.7803</v>
       </c>
       <c r="D5" t="n">
-        <v>81.35760000000001</v>
+        <v>111.78</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.0008</v>
+        <v>49.6896</v>
       </c>
       <c r="C6" t="n">
-        <v>61.7222</v>
+        <v>81.95659999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>73.2978</v>
+        <v>98.348</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.0128</v>
+        <v>50.9776</v>
       </c>
       <c r="C7" t="n">
-        <v>53.1173</v>
+        <v>66.5891</v>
       </c>
       <c r="D7" t="n">
-        <v>68.4539</v>
+        <v>90.43689999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.6947</v>
+        <v>52.576</v>
       </c>
       <c r="C8" t="n">
-        <v>52.8462</v>
+        <v>65.5942</v>
       </c>
       <c r="D8" t="n">
-        <v>69.7869</v>
+        <v>89.6258</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45.2129</v>
+        <v>54.6434</v>
       </c>
       <c r="C9" t="n">
-        <v>49.9171</v>
+        <v>58.4787</v>
       </c>
       <c r="D9" t="n">
-        <v>69.0972</v>
+        <v>88.5778</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.9863</v>
+        <v>54.5061</v>
       </c>
       <c r="C10" t="n">
-        <v>54.5598</v>
+        <v>62.9303</v>
       </c>
       <c r="D10" t="n">
-        <v>71.1771</v>
+        <v>89.1388</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.8119</v>
+        <v>54.2576</v>
       </c>
       <c r="C11" t="n">
-        <v>55.6964</v>
+        <v>62.2813</v>
       </c>
       <c r="D11" t="n">
-        <v>72.797</v>
+        <v>88.5749</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.8018</v>
+        <v>54.5176</v>
       </c>
       <c r="C12" t="n">
-        <v>59.5904</v>
+        <v>66.2286</v>
       </c>
       <c r="D12" t="n">
-        <v>75.26949999999999</v>
+        <v>89.80719999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.0315</v>
+        <v>54.3017</v>
       </c>
       <c r="C13" t="n">
-        <v>60.1186</v>
+        <v>66.0761</v>
       </c>
       <c r="D13" t="n">
-        <v>75.0941</v>
+        <v>90.1493</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.2033</v>
+        <v>54.538</v>
       </c>
       <c r="C14" t="n">
-        <v>61.672</v>
+        <v>68.52809999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>75.1266</v>
+        <v>90.8167</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.0581</v>
+        <v>54.1529</v>
       </c>
       <c r="C15" t="n">
-        <v>62.1031</v>
+        <v>68.1174</v>
       </c>
       <c r="D15" t="n">
-        <v>74.4905</v>
+        <v>90.4058</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.5732</v>
+        <v>54.7591</v>
       </c>
       <c r="C16" t="n">
-        <v>62.367</v>
+        <v>70.2659</v>
       </c>
       <c r="D16" t="n">
-        <v>75.172</v>
+        <v>90.8257</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.0944</v>
+        <v>54.296</v>
       </c>
       <c r="C17" t="n">
-        <v>63.1944</v>
+        <v>70.4498</v>
       </c>
       <c r="D17" t="n">
-        <v>76.259</v>
+        <v>91.3819</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4662</v>
+        <v>14.4575</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8714</v>
+        <v>18.6559</v>
       </c>
       <c r="D2" t="n">
-        <v>25.0975</v>
+        <v>25.1192</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8499</v>
+        <v>27.6325</v>
       </c>
       <c r="C3" t="n">
-        <v>32.234</v>
+        <v>30.5866</v>
       </c>
       <c r="D3" t="n">
-        <v>37.7811</v>
+        <v>41.6513</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.2613</v>
+        <v>33.6758</v>
       </c>
       <c r="C4" t="n">
-        <v>32.8003</v>
+        <v>33.9347</v>
       </c>
       <c r="D4" t="n">
-        <v>52.6524</v>
+        <v>45.4589</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.2994</v>
+        <v>44.6976</v>
       </c>
       <c r="C5" t="n">
-        <v>49.4204</v>
+        <v>50.4047</v>
       </c>
       <c r="D5" t="n">
-        <v>57.1944</v>
+        <v>54.1026</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.5923</v>
+        <v>43.0905</v>
       </c>
       <c r="C6" t="n">
-        <v>41.1067</v>
+        <v>42.7553</v>
       </c>
       <c r="D6" t="n">
-        <v>49.2317</v>
+        <v>54.2037</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.6732</v>
+        <v>44.2745</v>
       </c>
       <c r="C7" t="n">
-        <v>42.1612</v>
+        <v>41.1057</v>
       </c>
       <c r="D7" t="n">
-        <v>57.2218</v>
+        <v>55.1428</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.4632</v>
+        <v>45.8283</v>
       </c>
       <c r="C8" t="n">
-        <v>43.4607</v>
+        <v>37.9548</v>
       </c>
       <c r="D8" t="n">
-        <v>56.017</v>
+        <v>52.3517</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.1434</v>
+        <v>49.5383</v>
       </c>
       <c r="C9" t="n">
-        <v>39.5718</v>
+        <v>37.2743</v>
       </c>
       <c r="D9" t="n">
-        <v>41.7517</v>
+        <v>47.9977</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.4623</v>
+        <v>47.3336</v>
       </c>
       <c r="C10" t="n">
-        <v>48.9498</v>
+        <v>40.2632</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9052</v>
+        <v>49.9298</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.7278</v>
+        <v>45.9844</v>
       </c>
       <c r="C11" t="n">
-        <v>45.7501</v>
+        <v>42.5808</v>
       </c>
       <c r="D11" t="n">
-        <v>47.5167</v>
+        <v>55.3766</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.1279</v>
+        <v>50.4499</v>
       </c>
       <c r="C12" t="n">
-        <v>46.8231</v>
+        <v>45.1306</v>
       </c>
       <c r="D12" t="n">
-        <v>54.2709</v>
+        <v>53.9002</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2446</v>
+        <v>44.0473</v>
       </c>
       <c r="C13" t="n">
-        <v>43.5135</v>
+        <v>39.4876</v>
       </c>
       <c r="D13" t="n">
-        <v>54.9336</v>
+        <v>52.5525</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.3728</v>
+        <v>45.4448</v>
       </c>
       <c r="C14" t="n">
-        <v>48.774</v>
+        <v>43.6882</v>
       </c>
       <c r="D14" t="n">
-        <v>54.8601</v>
+        <v>52.2182</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.5276</v>
+        <v>42.3403</v>
       </c>
       <c r="C15" t="n">
-        <v>50.5019</v>
+        <v>46.7865</v>
       </c>
       <c r="D15" t="n">
-        <v>54.9963</v>
+        <v>49.8872</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.0745</v>
+        <v>43.0279</v>
       </c>
       <c r="C16" t="n">
-        <v>47.0956</v>
+        <v>53.1699</v>
       </c>
       <c r="D16" t="n">
-        <v>55.059</v>
+        <v>51.9886</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4324</v>
+        <v>46.6522</v>
       </c>
       <c r="C17" t="n">
-        <v>48.9369</v>
+        <v>47.9101</v>
       </c>
       <c r="D17" t="n">
-        <v>54.6419</v>
+        <v>53.2164</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9176</v>
+        <v>14.8539</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5174</v>
+        <v>18.686</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9843</v>
+        <v>24.9561</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.112</v>
+        <v>27.0289</v>
       </c>
       <c r="C3" t="n">
-        <v>31.696</v>
+        <v>30.913</v>
       </c>
       <c r="D3" t="n">
-        <v>38.0497</v>
+        <v>33.8125</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.4702</v>
+        <v>35.8453</v>
       </c>
       <c r="C4" t="n">
-        <v>34.9771</v>
+        <v>33.9677</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4355</v>
+        <v>48.0755</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>44.7447</v>
+        <v>46.3273</v>
       </c>
       <c r="C5" t="n">
-        <v>49.025</v>
+        <v>52.6864</v>
       </c>
       <c r="D5" t="n">
-        <v>60.2412</v>
+        <v>54.5705</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.1864</v>
+        <v>45.6208</v>
       </c>
       <c r="C6" t="n">
-        <v>45.5975</v>
+        <v>45.1221</v>
       </c>
       <c r="D6" t="n">
-        <v>54.9427</v>
+        <v>57.5975</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.0859</v>
+        <v>45.6841</v>
       </c>
       <c r="C7" t="n">
-        <v>42.1321</v>
+        <v>47.9213</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4947</v>
+        <v>56.1779</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.9087</v>
+        <v>44.6552</v>
       </c>
       <c r="C8" t="n">
-        <v>41.2281</v>
+        <v>39.5766</v>
       </c>
       <c r="D8" t="n">
-        <v>56.0654</v>
+        <v>42.0776</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>48.0128</v>
+        <v>47.5942</v>
       </c>
       <c r="C9" t="n">
-        <v>42.3213</v>
+        <v>35.6759</v>
       </c>
       <c r="D9" t="n">
-        <v>44.4466</v>
+        <v>49.7028</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.5676</v>
+        <v>46.3042</v>
       </c>
       <c r="C10" t="n">
-        <v>50.5975</v>
+        <v>39.1458</v>
       </c>
       <c r="D10" t="n">
-        <v>45.7678</v>
+        <v>53.2445</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.7314</v>
+        <v>47.3422</v>
       </c>
       <c r="C11" t="n">
-        <v>41.8019</v>
+        <v>49.6463</v>
       </c>
       <c r="D11" t="n">
-        <v>53.0791</v>
+        <v>49.9935</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.4558</v>
+        <v>44.7035</v>
       </c>
       <c r="C12" t="n">
-        <v>49.3501</v>
+        <v>46.1325</v>
       </c>
       <c r="D12" t="n">
-        <v>53.2953</v>
+        <v>50.7964</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.0103</v>
+        <v>51.2501</v>
       </c>
       <c r="C13" t="n">
-        <v>48.2453</v>
+        <v>44.5338</v>
       </c>
       <c r="D13" t="n">
-        <v>55.9712</v>
+        <v>58.6099</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.607</v>
+        <v>44.7933</v>
       </c>
       <c r="C14" t="n">
-        <v>55.5776</v>
+        <v>45.5886</v>
       </c>
       <c r="D14" t="n">
-        <v>54.3357</v>
+        <v>52.8172</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.3176</v>
+        <v>44.9774</v>
       </c>
       <c r="C15" t="n">
-        <v>48.7952</v>
+        <v>39.1136</v>
       </c>
       <c r="D15" t="n">
-        <v>53.8677</v>
+        <v>53.6101</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.2908</v>
+        <v>45.9598</v>
       </c>
       <c r="C16" t="n">
-        <v>49.5737</v>
+        <v>39.1367</v>
       </c>
       <c r="D16" t="n">
-        <v>56.8306</v>
+        <v>44.5685</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.2337</v>
+        <v>49.1675</v>
       </c>
       <c r="C17" t="n">
-        <v>48.2021</v>
+        <v>45.341</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2968</v>
+        <v>57.6213</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4511</v>
+        <v>18.393</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5724</v>
+        <v>21.7355</v>
       </c>
       <c r="D2" t="n">
-        <v>28.1551</v>
+        <v>27.7577</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.7182</v>
+        <v>31.551</v>
       </c>
       <c r="C3" t="n">
-        <v>32.4224</v>
+        <v>29.6069</v>
       </c>
       <c r="D3" t="n">
-        <v>37.3846</v>
+        <v>36.1459</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8879</v>
+        <v>31.6666</v>
       </c>
       <c r="C4" t="n">
-        <v>46.4327</v>
+        <v>46.2824</v>
       </c>
       <c r="D4" t="n">
-        <v>51.7052</v>
+        <v>56.7723</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.2955</v>
+        <v>44.6608</v>
       </c>
       <c r="C5" t="n">
-        <v>61.4064</v>
+        <v>57.0539</v>
       </c>
       <c r="D5" t="n">
-        <v>65.37</v>
+        <v>55.3183</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35.4457</v>
+        <v>45.3225</v>
       </c>
       <c r="C6" t="n">
-        <v>45.189</v>
+        <v>52.7341</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2464</v>
+        <v>51.5295</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.1708</v>
+        <v>42.2412</v>
       </c>
       <c r="C7" t="n">
-        <v>49.6919</v>
+        <v>47.8379</v>
       </c>
       <c r="D7" t="n">
-        <v>53.2637</v>
+        <v>52.6981</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4419</v>
+        <v>44.2972</v>
       </c>
       <c r="C8" t="n">
-        <v>40.0544</v>
+        <v>41.194</v>
       </c>
       <c r="D8" t="n">
-        <v>56.6607</v>
+        <v>54.0041</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.0383</v>
+        <v>43.58</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5947</v>
+        <v>41.3279</v>
       </c>
       <c r="D9" t="n">
-        <v>48.8398</v>
+        <v>47.4665</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.7198</v>
+        <v>39.5349</v>
       </c>
       <c r="C10" t="n">
-        <v>40.7336</v>
+        <v>43.2884</v>
       </c>
       <c r="D10" t="n">
-        <v>47.8635</v>
+        <v>48.5263</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.9394</v>
+        <v>42.7887</v>
       </c>
       <c r="C11" t="n">
-        <v>46.6906</v>
+        <v>35.0916</v>
       </c>
       <c r="D11" t="n">
-        <v>52.0454</v>
+        <v>51.1634</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8326</v>
+        <v>44.6481</v>
       </c>
       <c r="C12" t="n">
-        <v>40.2835</v>
+        <v>39.0388</v>
       </c>
       <c r="D12" t="n">
-        <v>55.1592</v>
+        <v>55.2033</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.8402</v>
+        <v>50.5088</v>
       </c>
       <c r="C13" t="n">
-        <v>42.919</v>
+        <v>40.4715</v>
       </c>
       <c r="D13" t="n">
-        <v>47.0026</v>
+        <v>47.108</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.3652</v>
+        <v>42.7782</v>
       </c>
       <c r="C14" t="n">
-        <v>40.7389</v>
+        <v>36.201</v>
       </c>
       <c r="D14" t="n">
-        <v>46.3003</v>
+        <v>54.4348</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.1135</v>
+        <v>39.5624</v>
       </c>
       <c r="C15" t="n">
-        <v>40.2039</v>
+        <v>38.2918</v>
       </c>
       <c r="D15" t="n">
-        <v>53.2411</v>
+        <v>44.6491</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.4529</v>
+        <v>39.126</v>
       </c>
       <c r="C16" t="n">
-        <v>39.9792</v>
+        <v>39.7463</v>
       </c>
       <c r="D16" t="n">
-        <v>56.9042</v>
+        <v>36.987</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.609</v>
+        <v>38.5633</v>
       </c>
       <c r="C17" t="n">
-        <v>41.6278</v>
+        <v>43.4265</v>
       </c>
       <c r="D17" t="n">
-        <v>48.2064</v>
+        <v>52.7024</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.853680000000001</v>
+        <v>8.87506</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8048</v>
+        <v>16.8502</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2486</v>
+        <v>22.1789</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7872</v>
+        <v>16.998</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4185</v>
+        <v>30.362</v>
       </c>
       <c r="D3" t="n">
-        <v>42.1235</v>
+        <v>41.9361</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8313</v>
+        <v>24.4296</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9563</v>
+        <v>41.9014</v>
       </c>
       <c r="D4" t="n">
-        <v>59.2848</v>
+        <v>58.9145</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1512</v>
+        <v>32.3205</v>
       </c>
       <c r="C5" t="n">
-        <v>53.215</v>
+        <v>53.5702</v>
       </c>
       <c r="D5" t="n">
-        <v>77.1354</v>
+        <v>76.49039999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4241</v>
+        <v>35.1666</v>
       </c>
       <c r="C6" t="n">
-        <v>46.1253</v>
+        <v>46.0694</v>
       </c>
       <c r="D6" t="n">
-        <v>69.3326</v>
+        <v>68.5496</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9764</v>
+        <v>38.0668</v>
       </c>
       <c r="C7" t="n">
-        <v>46.1831</v>
+        <v>45.5614</v>
       </c>
       <c r="D7" t="n">
-        <v>61.4612</v>
+        <v>68.1404</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4959</v>
+        <v>40.8302</v>
       </c>
       <c r="C8" t="n">
-        <v>46.629</v>
+        <v>45.8183</v>
       </c>
       <c r="D8" t="n">
-        <v>63.0688</v>
+        <v>62.4852</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.2404</v>
+        <v>43.232</v>
       </c>
       <c r="C9" t="n">
-        <v>46.7193</v>
+        <v>45.6029</v>
       </c>
       <c r="D9" t="n">
-        <v>59.4104</v>
+        <v>65.0722</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.349</v>
+        <v>42.8935</v>
       </c>
       <c r="C10" t="n">
-        <v>50.9289</v>
+        <v>49.0318</v>
       </c>
       <c r="D10" t="n">
-        <v>65.0864</v>
+        <v>64.3113</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5973</v>
+        <v>43.3588</v>
       </c>
       <c r="C11" t="n">
-        <v>54.9777</v>
+        <v>52.0374</v>
       </c>
       <c r="D11" t="n">
-        <v>66.1418</v>
+        <v>67.2047</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.7081</v>
+        <v>43.4959</v>
       </c>
       <c r="C12" t="n">
-        <v>55.2092</v>
+        <v>52.8118</v>
       </c>
       <c r="D12" t="n">
-        <v>69.265</v>
+        <v>68.1352</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.5378</v>
+        <v>43.5068</v>
       </c>
       <c r="C13" t="n">
-        <v>55.9604</v>
+        <v>53.5346</v>
       </c>
       <c r="D13" t="n">
-        <v>70.5791</v>
+        <v>71.2002</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7823</v>
+        <v>43.6006</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2733</v>
+        <v>53.7084</v>
       </c>
       <c r="D14" t="n">
-        <v>71.48650000000001</v>
+        <v>70.5145</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6489</v>
+        <v>43.5432</v>
       </c>
       <c r="C15" t="n">
-        <v>55.9489</v>
+        <v>53.557</v>
       </c>
       <c r="D15" t="n">
-        <v>72.56829999999999</v>
+        <v>72.93259999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7504</v>
+        <v>43.6051</v>
       </c>
       <c r="C16" t="n">
-        <v>56.5026</v>
+        <v>53.5961</v>
       </c>
       <c r="D16" t="n">
-        <v>73.8202</v>
+        <v>73.1555</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7489</v>
+        <v>43.4885</v>
       </c>
       <c r="C17" t="n">
-        <v>56.5864</v>
+        <v>54.0823</v>
       </c>
       <c r="D17" t="n">
-        <v>73.77</v>
+        <v>74.66500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.880559999999999</v>
+        <v>8.89278</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9177</v>
+        <v>16.9675</v>
       </c>
       <c r="D2" t="n">
-        <v>21.8331</v>
+        <v>21.8493</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8738</v>
+        <v>17.0847</v>
       </c>
       <c r="C3" t="n">
-        <v>30.656</v>
+        <v>30.7057</v>
       </c>
       <c r="D3" t="n">
-        <v>41.4908</v>
+        <v>41.4128</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0568</v>
+        <v>24.5612</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4098</v>
+        <v>42.4473</v>
       </c>
       <c r="D4" t="n">
-        <v>58.7037</v>
+        <v>58.3564</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4976</v>
+        <v>32.4543</v>
       </c>
       <c r="C5" t="n">
-        <v>53.9223</v>
+        <v>54.2494</v>
       </c>
       <c r="D5" t="n">
-        <v>75.919</v>
+        <v>75.9776</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8708</v>
+        <v>35.4804</v>
       </c>
       <c r="C6" t="n">
-        <v>46.7475</v>
+        <v>46.5571</v>
       </c>
       <c r="D6" t="n">
-        <v>67.58880000000001</v>
+        <v>67.5851</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5238</v>
+        <v>38.3859</v>
       </c>
       <c r="C7" t="n">
-        <v>46.6952</v>
+        <v>46.1315</v>
       </c>
       <c r="D7" t="n">
-        <v>60.4629</v>
+        <v>67.3918</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0037</v>
+        <v>41.1996</v>
       </c>
       <c r="C8" t="n">
-        <v>47.2342</v>
+        <v>46.5413</v>
       </c>
       <c r="D8" t="n">
-        <v>61.9913</v>
+        <v>61.2418</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.0749</v>
+        <v>43.3792</v>
       </c>
       <c r="C9" t="n">
-        <v>47.4076</v>
+        <v>46.0774</v>
       </c>
       <c r="D9" t="n">
-        <v>59.7698</v>
+        <v>64.1956</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8758</v>
+        <v>43.5024</v>
       </c>
       <c r="C10" t="n">
-        <v>52.6786</v>
+        <v>50.0953</v>
       </c>
       <c r="D10" t="n">
-        <v>63.6285</v>
+        <v>63.3023</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.115</v>
+        <v>43.6309</v>
       </c>
       <c r="C11" t="n">
-        <v>55.9687</v>
+        <v>53.3475</v>
       </c>
       <c r="D11" t="n">
-        <v>65.44799999999999</v>
+        <v>66.7139</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3702</v>
+        <v>43.65</v>
       </c>
       <c r="C12" t="n">
-        <v>56.434</v>
+        <v>53.6116</v>
       </c>
       <c r="D12" t="n">
-        <v>68.4452</v>
+        <v>67.5937</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3773</v>
+        <v>43.7917</v>
       </c>
       <c r="C13" t="n">
-        <v>56.1777</v>
+        <v>54.0223</v>
       </c>
       <c r="D13" t="n">
-        <v>69.1605</v>
+        <v>70.5416</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3992</v>
+        <v>43.7869</v>
       </c>
       <c r="C14" t="n">
-        <v>56.9042</v>
+        <v>54.3441</v>
       </c>
       <c r="D14" t="n">
-        <v>72.67610000000001</v>
+        <v>71.89019999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2795</v>
+        <v>43.7708</v>
       </c>
       <c r="C15" t="n">
-        <v>56.921</v>
+        <v>54.4599</v>
       </c>
       <c r="D15" t="n">
-        <v>71.73220000000001</v>
+        <v>72.1883</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.3198</v>
+        <v>43.9454</v>
       </c>
       <c r="C16" t="n">
-        <v>56.7194</v>
+        <v>54.569</v>
       </c>
       <c r="D16" t="n">
-        <v>72.7923</v>
+        <v>72.9162</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4298</v>
+        <v>43.8826</v>
       </c>
       <c r="C17" t="n">
-        <v>56.9981</v>
+        <v>54.7256</v>
       </c>
       <c r="D17" t="n">
-        <v>72.89790000000001</v>
+        <v>74.2758</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8636</v>
+        <v>13.8934</v>
       </c>
       <c r="C2" t="n">
-        <v>21.597</v>
+        <v>21.5789</v>
       </c>
       <c r="D2" t="n">
-        <v>29.0854</v>
+        <v>29.0989</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6398</v>
+        <v>27.0744</v>
       </c>
       <c r="C3" t="n">
-        <v>39.0579</v>
+        <v>38.899</v>
       </c>
       <c r="D3" t="n">
-        <v>53.3707</v>
+        <v>53.4939</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.0937</v>
+        <v>39.0907</v>
       </c>
       <c r="C4" t="n">
-        <v>54.166</v>
+        <v>54.072</v>
       </c>
       <c r="D4" t="n">
-        <v>74.4365</v>
+        <v>74.2312</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.219</v>
+        <v>51.2199</v>
       </c>
       <c r="C5" t="n">
-        <v>69.9495</v>
+        <v>69.7667</v>
       </c>
       <c r="D5" t="n">
-        <v>96.3385</v>
+        <v>96.01220000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.2585</v>
+        <v>51.4706</v>
       </c>
       <c r="C6" t="n">
-        <v>56.6061</v>
+        <v>56.0017</v>
       </c>
       <c r="D6" t="n">
-        <v>82.22499999999999</v>
+        <v>80.8991</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.5706</v>
+        <v>53.2409</v>
       </c>
       <c r="C7" t="n">
-        <v>54.0098</v>
+        <v>53.2402</v>
       </c>
       <c r="D7" t="n">
-        <v>66.8075</v>
+        <v>77.01000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.5342</v>
+        <v>55.1355</v>
       </c>
       <c r="C8" t="n">
-        <v>53.1276</v>
+        <v>52.1119</v>
       </c>
       <c r="D8" t="n">
-        <v>65.4328</v>
+        <v>65.86499999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.2105</v>
+        <v>57.8686</v>
       </c>
       <c r="C9" t="n">
-        <v>51.7419</v>
+        <v>50.4883</v>
       </c>
       <c r="D9" t="n">
-        <v>58.086</v>
+        <v>67.11</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.6361</v>
+        <v>57.2343</v>
       </c>
       <c r="C10" t="n">
-        <v>56.0136</v>
+        <v>53.5726</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3768</v>
+        <v>61.7625</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.023</v>
+        <v>56.642</v>
       </c>
       <c r="C11" t="n">
-        <v>58.1952</v>
+        <v>55.5798</v>
       </c>
       <c r="D11" t="n">
-        <v>62.7661</v>
+        <v>65.87220000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.8772</v>
+        <v>57.0529</v>
       </c>
       <c r="C12" t="n">
-        <v>59.0305</v>
+        <v>55.7852</v>
       </c>
       <c r="D12" t="n">
-        <v>66.0046</v>
+        <v>66.14409999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.4257</v>
+        <v>57.4518</v>
       </c>
       <c r="C13" t="n">
-        <v>59.0496</v>
+        <v>55.8643</v>
       </c>
       <c r="D13" t="n">
-        <v>66.3261</v>
+        <v>69.09950000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.8692</v>
+        <v>56.6769</v>
       </c>
       <c r="C14" t="n">
-        <v>59.1509</v>
+        <v>56.2313</v>
       </c>
       <c r="D14" t="n">
-        <v>68.70959999999999</v>
+        <v>68.2718</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.1724</v>
+        <v>57.3556</v>
       </c>
       <c r="C15" t="n">
-        <v>59.2803</v>
+        <v>56.5293</v>
       </c>
       <c r="D15" t="n">
-        <v>69.09520000000001</v>
+        <v>70.4663</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>53.2337</v>
+        <v>57.1292</v>
       </c>
       <c r="C16" t="n">
-        <v>59.1794</v>
+        <v>56.0444</v>
       </c>
       <c r="D16" t="n">
-        <v>70.36790000000001</v>
+        <v>70.6583</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>53.2819</v>
+        <v>57.4627</v>
       </c>
       <c r="C17" t="n">
-        <v>59.3791</v>
+        <v>56.2343</v>
       </c>
       <c r="D17" t="n">
-        <v>70.8415</v>
+        <v>71.8248</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3188</v>
+        <v>14.0845</v>
       </c>
       <c r="C2" t="n">
-        <v>24.8275</v>
+        <v>24.9065</v>
       </c>
       <c r="D2" t="n">
-        <v>29.589</v>
+        <v>31.9819</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5586</v>
+        <v>26.9142</v>
       </c>
       <c r="C3" t="n">
-        <v>36.5062</v>
+        <v>37.4533</v>
       </c>
       <c r="D3" t="n">
-        <v>47.7213</v>
+        <v>50.1571</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.6982</v>
+        <v>28.7403</v>
       </c>
       <c r="C4" t="n">
-        <v>47.5892</v>
+        <v>47.398</v>
       </c>
       <c r="D4" t="n">
-        <v>61.131</v>
+        <v>60.5939</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.1944</v>
+        <v>42.5903</v>
       </c>
       <c r="C5" t="n">
-        <v>61.2472</v>
+        <v>62.4923</v>
       </c>
       <c r="D5" t="n">
-        <v>70.43729999999999</v>
+        <v>62.9917</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.7209</v>
+        <v>39.1569</v>
       </c>
       <c r="C6" t="n">
-        <v>53.791</v>
+        <v>49.6127</v>
       </c>
       <c r="D6" t="n">
-        <v>56.1323</v>
+        <v>59.143</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.7317</v>
+        <v>38.3807</v>
       </c>
       <c r="C7" t="n">
-        <v>44.9861</v>
+        <v>50.855</v>
       </c>
       <c r="D7" t="n">
-        <v>57.7516</v>
+        <v>59.0021</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.8886</v>
+        <v>43.4686</v>
       </c>
       <c r="C8" t="n">
-        <v>55.2443</v>
+        <v>50.4826</v>
       </c>
       <c r="D8" t="n">
-        <v>62.7137</v>
+        <v>60.1719</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>47.1469</v>
+        <v>42.3578</v>
       </c>
       <c r="C9" t="n">
-        <v>46.3107</v>
+        <v>52.5928</v>
       </c>
       <c r="D9" t="n">
-        <v>57.481</v>
+        <v>55.8832</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.4791</v>
+        <v>44.4967</v>
       </c>
       <c r="C10" t="n">
-        <v>49.4544</v>
+        <v>54.098</v>
       </c>
       <c r="D10" t="n">
-        <v>65.449</v>
+        <v>57.5147</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.801</v>
+        <v>42.2211</v>
       </c>
       <c r="C11" t="n">
-        <v>51.8005</v>
+        <v>51.6872</v>
       </c>
       <c r="D11" t="n">
-        <v>58.8963</v>
+        <v>59.5531</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.5135</v>
+        <v>44.1384</v>
       </c>
       <c r="C12" t="n">
-        <v>52.3048</v>
+        <v>51.8116</v>
       </c>
       <c r="D12" t="n">
-        <v>54.7591</v>
+        <v>67.61360000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>42.3858</v>
+        <v>41.8298</v>
       </c>
       <c r="C13" t="n">
-        <v>48.9749</v>
+        <v>52.5195</v>
       </c>
       <c r="D13" t="n">
-        <v>62.0954</v>
+        <v>55.0903</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.3667</v>
+        <v>43.385</v>
       </c>
       <c r="C14" t="n">
-        <v>56.7556</v>
+        <v>53.6368</v>
       </c>
       <c r="D14" t="n">
-        <v>56.6</v>
+        <v>59.2857</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.429</v>
+        <v>43.815</v>
       </c>
       <c r="C15" t="n">
-        <v>49.2032</v>
+        <v>56.0105</v>
       </c>
       <c r="D15" t="n">
-        <v>57.4887</v>
+        <v>62.1565</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.6394</v>
+        <v>41.5664</v>
       </c>
       <c r="C16" t="n">
-        <v>52.9313</v>
+        <v>56.272</v>
       </c>
       <c r="D16" t="n">
-        <v>66.1233</v>
+        <v>57.1207</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.776</v>
+        <v>43.3644</v>
       </c>
       <c r="C17" t="n">
-        <v>53.8615</v>
+        <v>55.5431</v>
       </c>
       <c r="D17" t="n">
-        <v>53.98</v>
+        <v>62.3049</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9634</v>
+        <v>14.9311</v>
       </c>
       <c r="C2" t="n">
-        <v>24.6372</v>
+        <v>24.7713</v>
       </c>
       <c r="D2" t="n">
-        <v>31.1794</v>
+        <v>30.3318</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.5278</v>
+        <v>27.3702</v>
       </c>
       <c r="C3" t="n">
-        <v>38.2037</v>
+        <v>37.2855</v>
       </c>
       <c r="D3" t="n">
-        <v>46.2846</v>
+        <v>46.4175</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.9497</v>
+        <v>32.3581</v>
       </c>
       <c r="C4" t="n">
-        <v>51.4017</v>
+        <v>47.6903</v>
       </c>
       <c r="D4" t="n">
-        <v>61.4417</v>
+        <v>53.874</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.3389</v>
+        <v>38.5131</v>
       </c>
       <c r="C5" t="n">
-        <v>56.1745</v>
+        <v>60.1605</v>
       </c>
       <c r="D5" t="n">
-        <v>64.58750000000001</v>
+        <v>75.6087</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.8228</v>
+        <v>40.1367</v>
       </c>
       <c r="C6" t="n">
-        <v>51.4228</v>
+        <v>59.2327</v>
       </c>
       <c r="D6" t="n">
-        <v>62.2768</v>
+        <v>63.1525</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.2773</v>
+        <v>37.343</v>
       </c>
       <c r="C7" t="n">
-        <v>50.8187</v>
+        <v>52.7774</v>
       </c>
       <c r="D7" t="n">
-        <v>63.1533</v>
+        <v>57.9051</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.399</v>
+        <v>46.0113</v>
       </c>
       <c r="C8" t="n">
-        <v>45.0021</v>
+        <v>46.6955</v>
       </c>
       <c r="D8" t="n">
-        <v>64.0391</v>
+        <v>58.8027</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.3969</v>
+        <v>42.8919</v>
       </c>
       <c r="C9" t="n">
-        <v>49.3074</v>
+        <v>46.141</v>
       </c>
       <c r="D9" t="n">
-        <v>55.493</v>
+        <v>59.0098</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.3771</v>
+        <v>42.6653</v>
       </c>
       <c r="C10" t="n">
-        <v>46.4292</v>
+        <v>50.404</v>
       </c>
       <c r="D10" t="n">
-        <v>63.0392</v>
+        <v>60.0801</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.2535</v>
+        <v>47.5865</v>
       </c>
       <c r="C11" t="n">
-        <v>53.5882</v>
+        <v>50.2009</v>
       </c>
       <c r="D11" t="n">
-        <v>62.7279</v>
+        <v>64.6939</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.0444</v>
+        <v>44.0695</v>
       </c>
       <c r="C12" t="n">
-        <v>51.4623</v>
+        <v>49.884</v>
       </c>
       <c r="D12" t="n">
-        <v>59.6004</v>
+        <v>64.0112</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.9668</v>
+        <v>45.6548</v>
       </c>
       <c r="C13" t="n">
-        <v>49.4301</v>
+        <v>48.441</v>
       </c>
       <c r="D13" t="n">
-        <v>61.1417</v>
+        <v>62.869</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.4905</v>
+        <v>42.4243</v>
       </c>
       <c r="C14" t="n">
-        <v>54.5136</v>
+        <v>50.0498</v>
       </c>
       <c r="D14" t="n">
-        <v>61.6215</v>
+        <v>57.4726</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.2387</v>
+        <v>45.7463</v>
       </c>
       <c r="C15" t="n">
-        <v>52.7115</v>
+        <v>53.2803</v>
       </c>
       <c r="D15" t="n">
-        <v>58.4098</v>
+        <v>59.3071</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.0719</v>
+        <v>49.4277</v>
       </c>
       <c r="C16" t="n">
-        <v>52.481</v>
+        <v>55.9481</v>
       </c>
       <c r="D16" t="n">
-        <v>58.8442</v>
+        <v>57.4364</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.272</v>
+        <v>42.9661</v>
       </c>
       <c r="C17" t="n">
-        <v>59.7578</v>
+        <v>53.9301</v>
       </c>
       <c r="D17" t="n">
-        <v>63.9479</v>
+        <v>61.358</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4096</v>
+        <v>18.3044</v>
       </c>
       <c r="C2" t="n">
-        <v>27.5995</v>
+        <v>28.0329</v>
       </c>
       <c r="D2" t="n">
-        <v>29.7845</v>
+        <v>31.6879</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.2835</v>
+        <v>30.3736</v>
       </c>
       <c r="C3" t="n">
-        <v>40.7492</v>
+        <v>42.082</v>
       </c>
       <c r="D3" t="n">
-        <v>48.5284</v>
+        <v>45.7251</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.6514</v>
+        <v>32.6081</v>
       </c>
       <c r="C4" t="n">
-        <v>50.1141</v>
+        <v>50.8569</v>
       </c>
       <c r="D4" t="n">
-        <v>53.0545</v>
+        <v>53.6151</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.7866</v>
+        <v>46.1746</v>
       </c>
       <c r="C5" t="n">
-        <v>55.3812</v>
+        <v>62.0534</v>
       </c>
       <c r="D5" t="n">
-        <v>62.7586</v>
+        <v>64.80759999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.3284</v>
+        <v>45.6916</v>
       </c>
       <c r="C6" t="n">
-        <v>57.1405</v>
+        <v>56.2759</v>
       </c>
       <c r="D6" t="n">
-        <v>60.2843</v>
+        <v>57.4834</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.1772</v>
+        <v>37.0279</v>
       </c>
       <c r="C7" t="n">
-        <v>46.5571</v>
+        <v>52.5897</v>
       </c>
       <c r="D7" t="n">
-        <v>59.9478</v>
+        <v>54.008</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.71</v>
+        <v>42.7309</v>
       </c>
       <c r="C8" t="n">
-        <v>49.5074</v>
+        <v>55.3391</v>
       </c>
       <c r="D8" t="n">
-        <v>63.6052</v>
+        <v>56.1751</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.7427</v>
+        <v>40.171</v>
       </c>
       <c r="C9" t="n">
-        <v>49.4753</v>
+        <v>55.3359</v>
       </c>
       <c r="D9" t="n">
-        <v>54.6017</v>
+        <v>58.6571</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.9609</v>
+        <v>39.822</v>
       </c>
       <c r="C10" t="n">
-        <v>52.2786</v>
+        <v>50.4811</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4925</v>
+        <v>54.7843</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.8541</v>
+        <v>38.8555</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1914</v>
+        <v>51.0493</v>
       </c>
       <c r="D11" t="n">
-        <v>52.1184</v>
+        <v>53.0306</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.6087</v>
+        <v>40.4472</v>
       </c>
       <c r="C12" t="n">
-        <v>38.997</v>
+        <v>52.2541</v>
       </c>
       <c r="D12" t="n">
-        <v>58.6468</v>
+        <v>57.4743</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>38.4635</v>
+        <v>43.4599</v>
       </c>
       <c r="C13" t="n">
-        <v>40.3093</v>
+        <v>45.3852</v>
       </c>
       <c r="D13" t="n">
-        <v>53.8825</v>
+        <v>53.9498</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.4658</v>
+        <v>40.8268</v>
       </c>
       <c r="C14" t="n">
-        <v>39.2393</v>
+        <v>40.2858</v>
       </c>
       <c r="D14" t="n">
-        <v>56.4315</v>
+        <v>49.6631</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.1201</v>
+        <v>44.2176</v>
       </c>
       <c r="C15" t="n">
-        <v>47.7986</v>
+        <v>41.9262</v>
       </c>
       <c r="D15" t="n">
-        <v>52.7864</v>
+        <v>56.737</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0313</v>
+        <v>39.5874</v>
       </c>
       <c r="C16" t="n">
-        <v>51.6726</v>
+        <v>45.3032</v>
       </c>
       <c r="D16" t="n">
-        <v>57.9366</v>
+        <v>62.4574</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.2919</v>
+        <v>38.9926</v>
       </c>
       <c r="C17" t="n">
-        <v>47.149</v>
+        <v>37.7998</v>
       </c>
       <c r="D17" t="n">
-        <v>45.3585</v>
+        <v>45.6349</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.86346</v>
+        <v>8.830030000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>22.1033</v>
+        <v>22.17</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5337</v>
+        <v>29.4489</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7518</v>
+        <v>16.7798</v>
       </c>
       <c r="C3" t="n">
-        <v>41.8175</v>
+        <v>42.1503</v>
       </c>
       <c r="D3" t="n">
-        <v>55.3424</v>
+        <v>55.4143</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8376</v>
+        <v>23.8351</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5848</v>
+        <v>59.3213</v>
       </c>
       <c r="D4" t="n">
-        <v>77.23439999999999</v>
+        <v>77.1936</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0977</v>
+        <v>31.1378</v>
       </c>
       <c r="C5" t="n">
-        <v>76.12</v>
+        <v>77.69589999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>98.77330000000001</v>
+        <v>99.0523</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4415</v>
+        <v>33.4139</v>
       </c>
       <c r="C6" t="n">
-        <v>68.7608</v>
+        <v>68.7924</v>
       </c>
       <c r="D6" t="n">
-        <v>93.2718</v>
+        <v>93.3014</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0207</v>
+        <v>35.8957</v>
       </c>
       <c r="C7" t="n">
-        <v>59.8048</v>
+        <v>60.9105</v>
       </c>
       <c r="D7" t="n">
-        <v>91.7647</v>
+        <v>90.19759999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5517</v>
+        <v>38.5144</v>
       </c>
       <c r="C8" t="n">
-        <v>61.2056</v>
+        <v>62.9429</v>
       </c>
       <c r="D8" t="n">
-        <v>92.57080000000001</v>
+        <v>93.49939999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.474</v>
+        <v>40.4742</v>
       </c>
       <c r="C9" t="n">
-        <v>58.1915</v>
+        <v>59.4846</v>
       </c>
       <c r="D9" t="n">
-        <v>93.89239999999999</v>
+        <v>93.8091</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4813</v>
+        <v>40.2927</v>
       </c>
       <c r="C10" t="n">
-        <v>64.7676</v>
+        <v>64.96380000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>96.4607</v>
+        <v>97.31959999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7087</v>
+        <v>40.4839</v>
       </c>
       <c r="C11" t="n">
-        <v>66.86409999999999</v>
+        <v>66.50069999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>96.15430000000001</v>
+        <v>97.5153</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.7188</v>
+        <v>40.7134</v>
       </c>
       <c r="C12" t="n">
-        <v>68.958</v>
+        <v>69.75409999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>98.5145</v>
+        <v>97.7367</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.8002</v>
+        <v>40.7128</v>
       </c>
       <c r="C13" t="n">
-        <v>69.97110000000001</v>
+        <v>69.5055</v>
       </c>
       <c r="D13" t="n">
-        <v>98.0861</v>
+        <v>98.1651</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.6824</v>
+        <v>40.4063</v>
       </c>
       <c r="C14" t="n">
-        <v>72.70189999999999</v>
+        <v>72.5035</v>
       </c>
       <c r="D14" t="n">
-        <v>98.88939999999999</v>
+        <v>98.4453</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.8213</v>
+        <v>40.6814</v>
       </c>
       <c r="C15" t="n">
-        <v>72.87949999999999</v>
+        <v>72.46810000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>98.7694</v>
+        <v>99.518</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.8484</v>
+        <v>40.6676</v>
       </c>
       <c r="C16" t="n">
-        <v>73.3372</v>
+        <v>74.05</v>
       </c>
       <c r="D16" t="n">
-        <v>98.2805</v>
+        <v>98.98180000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7259</v>
+        <v>40.6046</v>
       </c>
       <c r="C17" t="n">
-        <v>73.2975</v>
+        <v>74.0275</v>
       </c>
       <c r="D17" t="n">
-        <v>98.9833</v>
+        <v>99.5519</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87513</v>
+        <v>8.872199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>21.7301</v>
+        <v>21.7262</v>
       </c>
       <c r="D2" t="n">
-        <v>29.671</v>
+        <v>29.5709</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8475</v>
+        <v>16.8704</v>
       </c>
       <c r="C3" t="n">
-        <v>41.1535</v>
+        <v>41.5682</v>
       </c>
       <c r="D3" t="n">
-        <v>55.5773</v>
+        <v>55.5324</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0002</v>
+        <v>24.0328</v>
       </c>
       <c r="C4" t="n">
-        <v>57.8961</v>
+        <v>58.5146</v>
       </c>
       <c r="D4" t="n">
-        <v>77.6846</v>
+        <v>77.98</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.453</v>
+        <v>31.4713</v>
       </c>
       <c r="C5" t="n">
-        <v>75.3668</v>
+        <v>76.09910000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>98.5622</v>
+        <v>99.72369999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8708</v>
+        <v>33.8824</v>
       </c>
       <c r="C6" t="n">
-        <v>67.7445</v>
+        <v>68.4166</v>
       </c>
       <c r="D6" t="n">
-        <v>92.9081</v>
+        <v>92.95140000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.4859</v>
+        <v>36.4189</v>
       </c>
       <c r="C7" t="n">
-        <v>60.3495</v>
+        <v>59.8411</v>
       </c>
       <c r="D7" t="n">
-        <v>91.4182</v>
+        <v>91.9238</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0965</v>
+        <v>38.956</v>
       </c>
       <c r="C8" t="n">
-        <v>60.9863</v>
+        <v>62.8321</v>
       </c>
       <c r="D8" t="n">
-        <v>93.9967</v>
+        <v>93.7384</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.9703</v>
+        <v>40.8743</v>
       </c>
       <c r="C9" t="n">
-        <v>59.1189</v>
+        <v>58.5202</v>
       </c>
       <c r="D9" t="n">
-        <v>94.51390000000001</v>
+        <v>95.369</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.1294</v>
+        <v>40.8889</v>
       </c>
       <c r="C10" t="n">
-        <v>63.4045</v>
+        <v>63.9267</v>
       </c>
       <c r="D10" t="n">
-        <v>97.4349</v>
+        <v>96.52</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.3628</v>
+        <v>41.0719</v>
       </c>
       <c r="C11" t="n">
-        <v>65.1716</v>
+        <v>65.8929</v>
       </c>
       <c r="D11" t="n">
-        <v>96.7522</v>
+        <v>96.93429999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3706</v>
+        <v>41.0783</v>
       </c>
       <c r="C12" t="n">
-        <v>68.6789</v>
+        <v>68.55119999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>98.1641</v>
+        <v>98.64019999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.4901</v>
+        <v>41.3877</v>
       </c>
       <c r="C13" t="n">
-        <v>69.22929999999999</v>
+        <v>69.91070000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>98.2603</v>
+        <v>98.1007</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.462</v>
+        <v>41.3626</v>
       </c>
       <c r="C14" t="n">
-        <v>70.29349999999999</v>
+        <v>71.3201</v>
       </c>
       <c r="D14" t="n">
-        <v>98.8592</v>
+        <v>98.5025</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.5447</v>
+        <v>41.1976</v>
       </c>
       <c r="C15" t="n">
-        <v>71.4003</v>
+        <v>72.5568</v>
       </c>
       <c r="D15" t="n">
-        <v>98.81310000000001</v>
+        <v>99.3703</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.4337</v>
+        <v>41.369</v>
       </c>
       <c r="C16" t="n">
-        <v>73.05329999999999</v>
+        <v>73.61409999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>98.9966</v>
+        <v>99.3051</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4003</v>
+        <v>41.2945</v>
       </c>
       <c r="C17" t="n">
-        <v>73.34480000000001</v>
+        <v>72.64749999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>99.32559999999999</v>
+        <v>99.01649999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8709</v>
+        <v>13.8476</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0975</v>
+        <v>29.0878</v>
       </c>
       <c r="D2" t="n">
-        <v>36.042</v>
+        <v>35.9771</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8466</v>
+        <v>26.8275</v>
       </c>
       <c r="C3" t="n">
-        <v>53.4132</v>
+        <v>53.3572</v>
       </c>
       <c r="D3" t="n">
-        <v>64.5779</v>
+        <v>64.41370000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.7455</v>
+        <v>38.5588</v>
       </c>
       <c r="C4" t="n">
-        <v>74.3434</v>
+        <v>74.443</v>
       </c>
       <c r="D4" t="n">
-        <v>88.4011</v>
+        <v>88.3047</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.4337</v>
+        <v>50.4352</v>
       </c>
       <c r="C5" t="n">
-        <v>95.7803</v>
+        <v>96.05249999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>111.78</v>
+        <v>112.583</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.6896</v>
+        <v>49.4647</v>
       </c>
       <c r="C6" t="n">
-        <v>81.95659999999999</v>
+        <v>81.68559999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>98.348</v>
+        <v>98.2932</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50.9776</v>
+        <v>50.6315</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5891</v>
+        <v>66.62779999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>90.43689999999999</v>
+        <v>91.0261</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.576</v>
+        <v>52.4374</v>
       </c>
       <c r="C8" t="n">
-        <v>65.5942</v>
+        <v>65.13849999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>89.6258</v>
+        <v>89.36069999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.6434</v>
+        <v>54.1913</v>
       </c>
       <c r="C9" t="n">
-        <v>58.4787</v>
+        <v>58.6906</v>
       </c>
       <c r="D9" t="n">
-        <v>88.5778</v>
+        <v>88.5585</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>54.5061</v>
+        <v>53.7696</v>
       </c>
       <c r="C10" t="n">
-        <v>62.9303</v>
+        <v>65.0411</v>
       </c>
       <c r="D10" t="n">
-        <v>89.1388</v>
+        <v>89.5231</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.2576</v>
+        <v>54.4309</v>
       </c>
       <c r="C11" t="n">
-        <v>62.2813</v>
+        <v>63.0689</v>
       </c>
       <c r="D11" t="n">
-        <v>88.5749</v>
+        <v>89.7218</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.5176</v>
+        <v>54.2521</v>
       </c>
       <c r="C12" t="n">
-        <v>66.2286</v>
+        <v>66.20829999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>89.80719999999999</v>
+        <v>90.5973</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.3017</v>
+        <v>54.1957</v>
       </c>
       <c r="C13" t="n">
-        <v>66.0761</v>
+        <v>67.01609999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>90.1493</v>
+        <v>90.71380000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.538</v>
+        <v>54.1696</v>
       </c>
       <c r="C14" t="n">
-        <v>68.52809999999999</v>
+        <v>69.20529999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>90.8167</v>
+        <v>91.20650000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.1529</v>
+        <v>54.4219</v>
       </c>
       <c r="C15" t="n">
-        <v>68.1174</v>
+        <v>69.00620000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>90.4058</v>
+        <v>90.94759999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.7591</v>
+        <v>54.1163</v>
       </c>
       <c r="C16" t="n">
-        <v>70.2659</v>
+        <v>71.1315</v>
       </c>
       <c r="D16" t="n">
-        <v>90.8257</v>
+        <v>91.318</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.296</v>
+        <v>54.1891</v>
       </c>
       <c r="C17" t="n">
-        <v>70.4498</v>
+        <v>71.1139</v>
       </c>
       <c r="D17" t="n">
-        <v>91.3819</v>
+        <v>91.4889</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.0845</v>
+        <v>14.5117</v>
       </c>
       <c r="C2" t="n">
-        <v>24.9065</v>
+        <v>24.7504</v>
       </c>
       <c r="D2" t="n">
-        <v>31.9819</v>
+        <v>31.4566</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9142</v>
+        <v>26.1564</v>
       </c>
       <c r="C3" t="n">
-        <v>37.4533</v>
+        <v>35.2614</v>
       </c>
       <c r="D3" t="n">
-        <v>50.1571</v>
+        <v>46.5342</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.7403</v>
+        <v>30.9529</v>
       </c>
       <c r="C4" t="n">
-        <v>47.398</v>
+        <v>46.7825</v>
       </c>
       <c r="D4" t="n">
-        <v>60.5939</v>
+        <v>61.1404</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.5903</v>
+        <v>42.6277</v>
       </c>
       <c r="C5" t="n">
-        <v>62.4923</v>
+        <v>53.6013</v>
       </c>
       <c r="D5" t="n">
-        <v>62.9917</v>
+        <v>71.7867</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.1569</v>
+        <v>37.9734</v>
       </c>
       <c r="C6" t="n">
-        <v>49.6127</v>
+        <v>52.4727</v>
       </c>
       <c r="D6" t="n">
-        <v>59.143</v>
+        <v>63.4966</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.3807</v>
+        <v>35.4107</v>
       </c>
       <c r="C7" t="n">
-        <v>50.855</v>
+        <v>56.0364</v>
       </c>
       <c r="D7" t="n">
-        <v>59.0021</v>
+        <v>59.282</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.4686</v>
+        <v>45.3186</v>
       </c>
       <c r="C8" t="n">
-        <v>50.4826</v>
+        <v>54.2792</v>
       </c>
       <c r="D8" t="n">
-        <v>60.1719</v>
+        <v>57.9829</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.3578</v>
+        <v>39.9365</v>
       </c>
       <c r="C9" t="n">
-        <v>52.5928</v>
+        <v>52.9283</v>
       </c>
       <c r="D9" t="n">
-        <v>55.8832</v>
+        <v>55.5653</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.4967</v>
+        <v>42.6127</v>
       </c>
       <c r="C10" t="n">
-        <v>54.098</v>
+        <v>50.8693</v>
       </c>
       <c r="D10" t="n">
-        <v>57.5147</v>
+        <v>57.3074</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.2211</v>
+        <v>44.9135</v>
       </c>
       <c r="C11" t="n">
-        <v>51.6872</v>
+        <v>55.7156</v>
       </c>
       <c r="D11" t="n">
-        <v>59.5531</v>
+        <v>57.2626</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.1384</v>
+        <v>49.2995</v>
       </c>
       <c r="C12" t="n">
-        <v>51.8116</v>
+        <v>54.0374</v>
       </c>
       <c r="D12" t="n">
-        <v>67.61360000000001</v>
+        <v>59.9404</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.8298</v>
+        <v>46.3619</v>
       </c>
       <c r="C13" t="n">
-        <v>52.5195</v>
+        <v>51.6248</v>
       </c>
       <c r="D13" t="n">
-        <v>55.0903</v>
+        <v>60.2512</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.385</v>
+        <v>42.8088</v>
       </c>
       <c r="C14" t="n">
-        <v>53.6368</v>
+        <v>49.399</v>
       </c>
       <c r="D14" t="n">
-        <v>59.2857</v>
+        <v>57.9305</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.815</v>
+        <v>41.5435</v>
       </c>
       <c r="C15" t="n">
-        <v>56.0105</v>
+        <v>54.3317</v>
       </c>
       <c r="D15" t="n">
-        <v>62.1565</v>
+        <v>57.679</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.5664</v>
+        <v>43.5797</v>
       </c>
       <c r="C16" t="n">
-        <v>56.272</v>
+        <v>47.604</v>
       </c>
       <c r="D16" t="n">
-        <v>57.1207</v>
+        <v>58.1917</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.3644</v>
+        <v>40.6541</v>
       </c>
       <c r="C17" t="n">
-        <v>55.5431</v>
+        <v>48.5223</v>
       </c>
       <c r="D17" t="n">
-        <v>62.3049</v>
+        <v>61.6976</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9311</v>
+        <v>14.9844</v>
       </c>
       <c r="C2" t="n">
-        <v>24.7713</v>
+        <v>24.4987</v>
       </c>
       <c r="D2" t="n">
-        <v>30.3318</v>
+        <v>27.9975</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.3702</v>
+        <v>27.8505</v>
       </c>
       <c r="C3" t="n">
-        <v>37.2855</v>
+        <v>35.8161</v>
       </c>
       <c r="D3" t="n">
-        <v>46.4175</v>
+        <v>43.5403</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.3581</v>
+        <v>35.5324</v>
       </c>
       <c r="C4" t="n">
-        <v>47.6903</v>
+        <v>46.9651</v>
       </c>
       <c r="D4" t="n">
-        <v>53.874</v>
+        <v>56.1246</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.5131</v>
+        <v>42.9732</v>
       </c>
       <c r="C5" t="n">
-        <v>60.1605</v>
+        <v>56.2578</v>
       </c>
       <c r="D5" t="n">
-        <v>75.6087</v>
+        <v>69.57980000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.1367</v>
+        <v>40.7845</v>
       </c>
       <c r="C6" t="n">
-        <v>59.2327</v>
+        <v>52.3333</v>
       </c>
       <c r="D6" t="n">
-        <v>63.1525</v>
+        <v>64.0476</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.343</v>
+        <v>44.7713</v>
       </c>
       <c r="C7" t="n">
-        <v>52.7774</v>
+        <v>56.4559</v>
       </c>
       <c r="D7" t="n">
-        <v>57.9051</v>
+        <v>59.195</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>46.0113</v>
+        <v>45.1681</v>
       </c>
       <c r="C8" t="n">
-        <v>46.6955</v>
+        <v>49.1981</v>
       </c>
       <c r="D8" t="n">
-        <v>58.8027</v>
+        <v>63.8468</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.8919</v>
+        <v>44.265</v>
       </c>
       <c r="C9" t="n">
-        <v>46.141</v>
+        <v>53.8723</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0098</v>
+        <v>56.4801</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.6653</v>
+        <v>45.2118</v>
       </c>
       <c r="C10" t="n">
-        <v>50.404</v>
+        <v>54.2903</v>
       </c>
       <c r="D10" t="n">
-        <v>60.0801</v>
+        <v>56.8856</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>47.5865</v>
+        <v>44.4218</v>
       </c>
       <c r="C11" t="n">
-        <v>50.2009</v>
+        <v>49.6376</v>
       </c>
       <c r="D11" t="n">
-        <v>64.6939</v>
+        <v>62.2608</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.0695</v>
+        <v>39.2539</v>
       </c>
       <c r="C12" t="n">
-        <v>49.884</v>
+        <v>53.4548</v>
       </c>
       <c r="D12" t="n">
-        <v>64.0112</v>
+        <v>58.4576</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.6548</v>
+        <v>44.0886</v>
       </c>
       <c r="C13" t="n">
-        <v>48.441</v>
+        <v>50.2211</v>
       </c>
       <c r="D13" t="n">
-        <v>62.869</v>
+        <v>59.7223</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.4243</v>
+        <v>44.7002</v>
       </c>
       <c r="C14" t="n">
-        <v>50.0498</v>
+        <v>52.0493</v>
       </c>
       <c r="D14" t="n">
-        <v>57.4726</v>
+        <v>57.6946</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.7463</v>
+        <v>45.6389</v>
       </c>
       <c r="C15" t="n">
-        <v>53.2803</v>
+        <v>50.5321</v>
       </c>
       <c r="D15" t="n">
-        <v>59.3071</v>
+        <v>62.1835</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>49.4277</v>
+        <v>46.6632</v>
       </c>
       <c r="C16" t="n">
-        <v>55.9481</v>
+        <v>57.3323</v>
       </c>
       <c r="D16" t="n">
-        <v>57.4364</v>
+        <v>58.3799</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.9661</v>
+        <v>42.5098</v>
       </c>
       <c r="C17" t="n">
-        <v>53.9301</v>
+        <v>51.5079</v>
       </c>
       <c r="D17" t="n">
-        <v>61.358</v>
+        <v>57.5472</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.3044</v>
+        <v>18.4219</v>
       </c>
       <c r="C2" t="n">
-        <v>28.0329</v>
+        <v>27.7779</v>
       </c>
       <c r="D2" t="n">
-        <v>31.6879</v>
+        <v>29.6928</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.3736</v>
+        <v>31.6838</v>
       </c>
       <c r="C3" t="n">
-        <v>42.082</v>
+        <v>34.4497</v>
       </c>
       <c r="D3" t="n">
-        <v>45.7251</v>
+        <v>46.7876</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.6081</v>
+        <v>33.0146</v>
       </c>
       <c r="C4" t="n">
-        <v>50.8569</v>
+        <v>49.6239</v>
       </c>
       <c r="D4" t="n">
-        <v>53.6151</v>
+        <v>57.9927</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.1746</v>
+        <v>47.4534</v>
       </c>
       <c r="C5" t="n">
-        <v>62.0534</v>
+        <v>62.8146</v>
       </c>
       <c r="D5" t="n">
-        <v>64.80759999999999</v>
+        <v>70.7891</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>45.6916</v>
+        <v>40.0078</v>
       </c>
       <c r="C6" t="n">
-        <v>56.2759</v>
+        <v>53.2299</v>
       </c>
       <c r="D6" t="n">
-        <v>57.4834</v>
+        <v>60.2184</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.0279</v>
+        <v>42.3724</v>
       </c>
       <c r="C7" t="n">
-        <v>52.5897</v>
+        <v>50.4757</v>
       </c>
       <c r="D7" t="n">
-        <v>54.008</v>
+        <v>56.3276</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.7309</v>
+        <v>42.8859</v>
       </c>
       <c r="C8" t="n">
-        <v>55.3391</v>
+        <v>50.8182</v>
       </c>
       <c r="D8" t="n">
-        <v>56.1751</v>
+        <v>57.2016</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.171</v>
+        <v>45.3875</v>
       </c>
       <c r="C9" t="n">
-        <v>55.3359</v>
+        <v>50.7813</v>
       </c>
       <c r="D9" t="n">
-        <v>58.6571</v>
+        <v>57.4355</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.822</v>
+        <v>41.9105</v>
       </c>
       <c r="C10" t="n">
-        <v>50.4811</v>
+        <v>49.1377</v>
       </c>
       <c r="D10" t="n">
-        <v>54.7843</v>
+        <v>59.3559</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>38.8555</v>
+        <v>46.8373</v>
       </c>
       <c r="C11" t="n">
-        <v>51.0493</v>
+        <v>50.2851</v>
       </c>
       <c r="D11" t="n">
-        <v>53.0306</v>
+        <v>57.479</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.4472</v>
+        <v>47.6617</v>
       </c>
       <c r="C12" t="n">
-        <v>52.2541</v>
+        <v>52.3597</v>
       </c>
       <c r="D12" t="n">
-        <v>57.4743</v>
+        <v>55.0828</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.4599</v>
+        <v>49.8116</v>
       </c>
       <c r="C13" t="n">
-        <v>45.3852</v>
+        <v>54.9803</v>
       </c>
       <c r="D13" t="n">
-        <v>53.9498</v>
+        <v>56.969</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.8268</v>
+        <v>52.492</v>
       </c>
       <c r="C14" t="n">
-        <v>40.2858</v>
+        <v>50.5036</v>
       </c>
       <c r="D14" t="n">
-        <v>49.6631</v>
+        <v>55.6069</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.2176</v>
+        <v>48.1749</v>
       </c>
       <c r="C15" t="n">
-        <v>41.9262</v>
+        <v>55.1332</v>
       </c>
       <c r="D15" t="n">
-        <v>56.737</v>
+        <v>56.2849</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.5874</v>
+        <v>53.5802</v>
       </c>
       <c r="C16" t="n">
-        <v>45.3032</v>
+        <v>58.0905</v>
       </c>
       <c r="D16" t="n">
-        <v>62.4574</v>
+        <v>54.3619</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.9926</v>
+        <v>45.6312</v>
       </c>
       <c r="C17" t="n">
-        <v>37.7998</v>
+        <v>56.7339</v>
       </c>
       <c r="D17" t="n">
-        <v>45.6349</v>
+        <v>54.9058</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.830030000000001</v>
+        <v>8.87954</v>
       </c>
       <c r="C2" t="n">
-        <v>22.17</v>
+        <v>22.3097</v>
       </c>
       <c r="D2" t="n">
-        <v>29.4489</v>
+        <v>29.5942</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7798</v>
+        <v>16.7839</v>
       </c>
       <c r="C3" t="n">
-        <v>42.1503</v>
+        <v>42.2072</v>
       </c>
       <c r="D3" t="n">
-        <v>55.4143</v>
+        <v>55.4318</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8351</v>
+        <v>23.8703</v>
       </c>
       <c r="C4" t="n">
-        <v>59.3213</v>
+        <v>59.3203</v>
       </c>
       <c r="D4" t="n">
-        <v>77.1936</v>
+        <v>77.00190000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1378</v>
+        <v>31.1371</v>
       </c>
       <c r="C5" t="n">
-        <v>77.69589999999999</v>
+        <v>77.38420000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>99.0523</v>
+        <v>99.56</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4139</v>
+        <v>33.5166</v>
       </c>
       <c r="C6" t="n">
-        <v>68.7924</v>
+        <v>68.9084</v>
       </c>
       <c r="D6" t="n">
-        <v>93.3014</v>
+        <v>92.887</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.8957</v>
+        <v>36.1394</v>
       </c>
       <c r="C7" t="n">
-        <v>60.9105</v>
+        <v>67.873</v>
       </c>
       <c r="D7" t="n">
-        <v>90.19759999999999</v>
+        <v>92.45229999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5144</v>
+        <v>38.6106</v>
       </c>
       <c r="C8" t="n">
-        <v>62.9429</v>
+        <v>62.9033</v>
       </c>
       <c r="D8" t="n">
-        <v>93.49939999999999</v>
+        <v>91.8639</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4742</v>
+        <v>40.612</v>
       </c>
       <c r="C9" t="n">
-        <v>59.4846</v>
+        <v>62.7952</v>
       </c>
       <c r="D9" t="n">
-        <v>93.8091</v>
+        <v>95.5087</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.2927</v>
+        <v>40.6148</v>
       </c>
       <c r="C10" t="n">
-        <v>64.96380000000001</v>
+        <v>64.5129</v>
       </c>
       <c r="D10" t="n">
-        <v>97.31959999999999</v>
+        <v>94.47490000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.4839</v>
+        <v>40.6776</v>
       </c>
       <c r="C11" t="n">
-        <v>66.50069999999999</v>
+        <v>67.14660000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>97.5153</v>
+        <v>97.36499999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.7134</v>
+        <v>40.8496</v>
       </c>
       <c r="C12" t="n">
-        <v>69.75409999999999</v>
+        <v>69.2871</v>
       </c>
       <c r="D12" t="n">
-        <v>97.7367</v>
+        <v>96.6161</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7128</v>
+        <v>40.9156</v>
       </c>
       <c r="C13" t="n">
-        <v>69.5055</v>
+        <v>71.39149999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>98.1651</v>
+        <v>97.6491</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.4063</v>
+        <v>40.8569</v>
       </c>
       <c r="C14" t="n">
-        <v>72.5035</v>
+        <v>72.4406</v>
       </c>
       <c r="D14" t="n">
-        <v>98.4453</v>
+        <v>97.05889999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6814</v>
+        <v>40.9655</v>
       </c>
       <c r="C15" t="n">
-        <v>72.46810000000001</v>
+        <v>73.9328</v>
       </c>
       <c r="D15" t="n">
-        <v>99.518</v>
+        <v>97.60769999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.6676</v>
+        <v>40.9886</v>
       </c>
       <c r="C16" t="n">
-        <v>74.05</v>
+        <v>73.4931</v>
       </c>
       <c r="D16" t="n">
-        <v>98.98180000000001</v>
+        <v>97.33669999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.6046</v>
+        <v>40.9117</v>
       </c>
       <c r="C17" t="n">
-        <v>74.0275</v>
+        <v>74.4782</v>
       </c>
       <c r="D17" t="n">
-        <v>99.5519</v>
+        <v>98.25409999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.872199999999999</v>
+        <v>8.894769999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>21.7262</v>
+        <v>21.9394</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5709</v>
+        <v>29.7159</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8704</v>
+        <v>16.8956</v>
       </c>
       <c r="C3" t="n">
-        <v>41.5682</v>
+        <v>41.6411</v>
       </c>
       <c r="D3" t="n">
-        <v>55.5324</v>
+        <v>55.7836</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0328</v>
+        <v>24.0791</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5146</v>
+        <v>58.6423</v>
       </c>
       <c r="D4" t="n">
-        <v>77.98</v>
+        <v>77.20569999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4713</v>
+        <v>31.4977</v>
       </c>
       <c r="C5" t="n">
-        <v>76.09910000000001</v>
+        <v>76.46339999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>99.72369999999999</v>
+        <v>99.69450000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8824</v>
+        <v>33.9139</v>
       </c>
       <c r="C6" t="n">
-        <v>68.4166</v>
+        <v>68.14870000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>92.95140000000001</v>
+        <v>92.14490000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.4189</v>
+        <v>36.5624</v>
       </c>
       <c r="C7" t="n">
-        <v>59.8411</v>
+        <v>68.0065</v>
       </c>
       <c r="D7" t="n">
-        <v>91.9238</v>
+        <v>93.7102</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.956</v>
+        <v>39.0045</v>
       </c>
       <c r="C8" t="n">
-        <v>62.8321</v>
+        <v>61.1626</v>
       </c>
       <c r="D8" t="n">
-        <v>93.7384</v>
+        <v>92.4041</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.8743</v>
+        <v>41.3371</v>
       </c>
       <c r="C9" t="n">
-        <v>58.5202</v>
+        <v>62.8566</v>
       </c>
       <c r="D9" t="n">
-        <v>95.369</v>
+        <v>95.1439</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8889</v>
+        <v>41.3041</v>
       </c>
       <c r="C10" t="n">
-        <v>63.9267</v>
+        <v>63.4641</v>
       </c>
       <c r="D10" t="n">
-        <v>96.52</v>
+        <v>95.02160000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.0719</v>
+        <v>41.4652</v>
       </c>
       <c r="C11" t="n">
-        <v>65.8929</v>
+        <v>67.8758</v>
       </c>
       <c r="D11" t="n">
-        <v>96.93429999999999</v>
+        <v>97.0341</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.0783</v>
+        <v>41.4871</v>
       </c>
       <c r="C12" t="n">
-        <v>68.55119999999999</v>
+        <v>68.0415</v>
       </c>
       <c r="D12" t="n">
-        <v>98.64019999999999</v>
+        <v>96.32129999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3877</v>
+        <v>41.5725</v>
       </c>
       <c r="C13" t="n">
-        <v>69.91070000000001</v>
+        <v>69.64870000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>98.1007</v>
+        <v>98.3528</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3626</v>
+        <v>41.5267</v>
       </c>
       <c r="C14" t="n">
-        <v>71.3201</v>
+        <v>71.2734</v>
       </c>
       <c r="D14" t="n">
-        <v>98.5025</v>
+        <v>98.1208</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.1976</v>
+        <v>41.436</v>
       </c>
       <c r="C15" t="n">
-        <v>72.5568</v>
+        <v>73.0874</v>
       </c>
       <c r="D15" t="n">
-        <v>99.3703</v>
+        <v>98.4272</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.369</v>
+        <v>41.5369</v>
       </c>
       <c r="C16" t="n">
-        <v>73.61409999999999</v>
+        <v>72.3259</v>
       </c>
       <c r="D16" t="n">
-        <v>99.3051</v>
+        <v>98.1357</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.2945</v>
+        <v>41.5504</v>
       </c>
       <c r="C17" t="n">
-        <v>72.64749999999999</v>
+        <v>74.1674</v>
       </c>
       <c r="D17" t="n">
-        <v>99.01649999999999</v>
+        <v>97.5395</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8476</v>
+        <v>13.92</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0878</v>
+        <v>29.1178</v>
       </c>
       <c r="D2" t="n">
-        <v>35.9771</v>
+        <v>35.9847</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8275</v>
+        <v>26.8852</v>
       </c>
       <c r="C3" t="n">
-        <v>53.3572</v>
+        <v>53.5464</v>
       </c>
       <c r="D3" t="n">
-        <v>64.41370000000001</v>
+        <v>64.6904</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.5588</v>
+        <v>38.8226</v>
       </c>
       <c r="C4" t="n">
-        <v>74.443</v>
+        <v>74.88379999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>88.3047</v>
+        <v>88.0171</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.4352</v>
+        <v>50.4097</v>
       </c>
       <c r="C5" t="n">
-        <v>96.05249999999999</v>
+        <v>96.23569999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>112.583</v>
+        <v>111.515</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.4647</v>
+        <v>50.2037</v>
       </c>
       <c r="C6" t="n">
-        <v>81.68559999999999</v>
+        <v>81.479</v>
       </c>
       <c r="D6" t="n">
-        <v>98.2932</v>
+        <v>97.7647</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50.6315</v>
+        <v>51.8996</v>
       </c>
       <c r="C7" t="n">
-        <v>66.62779999999999</v>
+        <v>77.1367</v>
       </c>
       <c r="D7" t="n">
-        <v>91.0261</v>
+        <v>92.70699999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.4374</v>
+        <v>54.2553</v>
       </c>
       <c r="C8" t="n">
-        <v>65.13849999999999</v>
+        <v>64.8672</v>
       </c>
       <c r="D8" t="n">
-        <v>89.36069999999999</v>
+        <v>89.3451</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.1913</v>
+        <v>56.3715</v>
       </c>
       <c r="C9" t="n">
-        <v>58.6906</v>
+        <v>67.1789</v>
       </c>
       <c r="D9" t="n">
-        <v>88.5585</v>
+        <v>90.81</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53.7696</v>
+        <v>55.8805</v>
       </c>
       <c r="C10" t="n">
-        <v>65.0411</v>
+        <v>62.1009</v>
       </c>
       <c r="D10" t="n">
-        <v>89.5231</v>
+        <v>88.5641</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.4309</v>
+        <v>55.9912</v>
       </c>
       <c r="C11" t="n">
-        <v>63.0689</v>
+        <v>65.7627</v>
       </c>
       <c r="D11" t="n">
-        <v>89.7218</v>
+        <v>90.2829</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.2521</v>
+        <v>56.0124</v>
       </c>
       <c r="C12" t="n">
-        <v>66.20829999999999</v>
+        <v>65.8308</v>
       </c>
       <c r="D12" t="n">
-        <v>90.5973</v>
+        <v>89.88460000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.1957</v>
+        <v>55.993</v>
       </c>
       <c r="C13" t="n">
-        <v>67.01609999999999</v>
+        <v>68.0194</v>
       </c>
       <c r="D13" t="n">
-        <v>90.71380000000001</v>
+        <v>90.87139999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.1696</v>
+        <v>55.6152</v>
       </c>
       <c r="C14" t="n">
-        <v>69.20529999999999</v>
+        <v>68.3124</v>
       </c>
       <c r="D14" t="n">
-        <v>91.20650000000001</v>
+        <v>90.0147</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.4219</v>
+        <v>56.0156</v>
       </c>
       <c r="C15" t="n">
-        <v>69.00620000000001</v>
+        <v>70.28879999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>90.94759999999999</v>
+        <v>91.3977</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.1163</v>
+        <v>56.6041</v>
       </c>
       <c r="C16" t="n">
-        <v>71.1315</v>
+        <v>70.4122</v>
       </c>
       <c r="D16" t="n">
-        <v>91.318</v>
+        <v>90.9268</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.1891</v>
+        <v>55.8005</v>
       </c>
       <c r="C17" t="n">
-        <v>71.1139</v>
+        <v>71.9345</v>
       </c>
       <c r="D17" t="n">
-        <v>91.4889</v>
+        <v>90.87730000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.5117</v>
+        <v>14.2017</v>
       </c>
       <c r="C2" t="n">
-        <v>24.7504</v>
+        <v>24.8958</v>
       </c>
       <c r="D2" t="n">
-        <v>31.4566</v>
+        <v>30.386</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.1564</v>
+        <v>26.4743</v>
       </c>
       <c r="C3" t="n">
-        <v>35.2614</v>
+        <v>37.0822</v>
       </c>
       <c r="D3" t="n">
-        <v>46.5342</v>
+        <v>45.5357</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.9529</v>
+        <v>30.853</v>
       </c>
       <c r="C4" t="n">
-        <v>46.7825</v>
+        <v>48.4758</v>
       </c>
       <c r="D4" t="n">
-        <v>61.1404</v>
+        <v>62.2611</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.6277</v>
+        <v>40.4276</v>
       </c>
       <c r="C5" t="n">
-        <v>53.6013</v>
+        <v>59.0567</v>
       </c>
       <c r="D5" t="n">
-        <v>71.7867</v>
+        <v>61.8801</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.9734</v>
+        <v>42.2894</v>
       </c>
       <c r="C6" t="n">
-        <v>52.4727</v>
+        <v>54.3966</v>
       </c>
       <c r="D6" t="n">
-        <v>63.4966</v>
+        <v>60.4841</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.4107</v>
+        <v>42.8992</v>
       </c>
       <c r="C7" t="n">
-        <v>56.0364</v>
+        <v>49.1546</v>
       </c>
       <c r="D7" t="n">
-        <v>59.282</v>
+        <v>61.0713</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.3186</v>
+        <v>45.0784</v>
       </c>
       <c r="C8" t="n">
-        <v>54.2792</v>
+        <v>53.0543</v>
       </c>
       <c r="D8" t="n">
-        <v>57.9829</v>
+        <v>64.8886</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.9365</v>
+        <v>43.4723</v>
       </c>
       <c r="C9" t="n">
-        <v>52.9283</v>
+        <v>45.2853</v>
       </c>
       <c r="D9" t="n">
-        <v>55.5653</v>
+        <v>57.8672</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.6127</v>
+        <v>43.957</v>
       </c>
       <c r="C10" t="n">
-        <v>50.8693</v>
+        <v>49.5188</v>
       </c>
       <c r="D10" t="n">
-        <v>57.3074</v>
+        <v>60.1129</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.9135</v>
+        <v>42.6253</v>
       </c>
       <c r="C11" t="n">
-        <v>55.7156</v>
+        <v>54.0396</v>
       </c>
       <c r="D11" t="n">
-        <v>57.2626</v>
+        <v>61.7812</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>49.2995</v>
+        <v>40.8186</v>
       </c>
       <c r="C12" t="n">
-        <v>54.0374</v>
+        <v>45.134</v>
       </c>
       <c r="D12" t="n">
-        <v>59.9404</v>
+        <v>57.1235</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.3619</v>
+        <v>43.6495</v>
       </c>
       <c r="C13" t="n">
-        <v>51.6248</v>
+        <v>51.0076</v>
       </c>
       <c r="D13" t="n">
-        <v>60.2512</v>
+        <v>63.0476</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.8088</v>
+        <v>41.8668</v>
       </c>
       <c r="C14" t="n">
-        <v>49.399</v>
+        <v>52.8515</v>
       </c>
       <c r="D14" t="n">
-        <v>57.9305</v>
+        <v>62.0057</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.5435</v>
+        <v>39.9641</v>
       </c>
       <c r="C15" t="n">
-        <v>54.3317</v>
+        <v>53.3288</v>
       </c>
       <c r="D15" t="n">
-        <v>57.679</v>
+        <v>55.5977</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.5797</v>
+        <v>44.5479</v>
       </c>
       <c r="C16" t="n">
-        <v>47.604</v>
+        <v>47.3579</v>
       </c>
       <c r="D16" t="n">
-        <v>58.1917</v>
+        <v>60.0856</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.6541</v>
+        <v>38.6575</v>
       </c>
       <c r="C17" t="n">
-        <v>48.5223</v>
+        <v>55.1429</v>
       </c>
       <c r="D17" t="n">
-        <v>61.6976</v>
+        <v>58.8025</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9844</v>
+        <v>14.932</v>
       </c>
       <c r="C2" t="n">
-        <v>24.4987</v>
+        <v>24.8583</v>
       </c>
       <c r="D2" t="n">
-        <v>27.9975</v>
+        <v>29.4959</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8505</v>
+        <v>28.0588</v>
       </c>
       <c r="C3" t="n">
-        <v>35.8161</v>
+        <v>34.8465</v>
       </c>
       <c r="D3" t="n">
-        <v>43.5403</v>
+        <v>47.7575</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>35.5324</v>
+        <v>36.1071</v>
       </c>
       <c r="C4" t="n">
-        <v>46.9651</v>
+        <v>48.3333</v>
       </c>
       <c r="D4" t="n">
-        <v>56.1246</v>
+        <v>52.503</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.9732</v>
+        <v>41.734</v>
       </c>
       <c r="C5" t="n">
-        <v>56.2578</v>
+        <v>53.5752</v>
       </c>
       <c r="D5" t="n">
-        <v>69.57980000000001</v>
+        <v>66.1318</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.7845</v>
+        <v>38.8204</v>
       </c>
       <c r="C6" t="n">
-        <v>52.3333</v>
+        <v>56.8528</v>
       </c>
       <c r="D6" t="n">
-        <v>64.0476</v>
+        <v>63.8843</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>44.7713</v>
+        <v>39.7978</v>
       </c>
       <c r="C7" t="n">
-        <v>56.4559</v>
+        <v>49.0658</v>
       </c>
       <c r="D7" t="n">
-        <v>59.195</v>
+        <v>59.2873</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.1681</v>
+        <v>39.7983</v>
       </c>
       <c r="C8" t="n">
-        <v>49.1981</v>
+        <v>52.643</v>
       </c>
       <c r="D8" t="n">
-        <v>63.8468</v>
+        <v>59.9197</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.265</v>
+        <v>43.799</v>
       </c>
       <c r="C9" t="n">
-        <v>53.8723</v>
+        <v>44.7196</v>
       </c>
       <c r="D9" t="n">
-        <v>56.4801</v>
+        <v>57.2094</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.2118</v>
+        <v>40.8266</v>
       </c>
       <c r="C10" t="n">
-        <v>54.2903</v>
+        <v>55.505</v>
       </c>
       <c r="D10" t="n">
-        <v>56.8856</v>
+        <v>63.5217</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.4218</v>
+        <v>42.7912</v>
       </c>
       <c r="C11" t="n">
-        <v>49.6376</v>
+        <v>46.3459</v>
       </c>
       <c r="D11" t="n">
-        <v>62.2608</v>
+        <v>52.5967</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.2539</v>
+        <v>46.8621</v>
       </c>
       <c r="C12" t="n">
-        <v>53.4548</v>
+        <v>46.9891</v>
       </c>
       <c r="D12" t="n">
-        <v>58.4576</v>
+        <v>60.4046</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.0886</v>
+        <v>40.4725</v>
       </c>
       <c r="C13" t="n">
-        <v>50.2211</v>
+        <v>53.643</v>
       </c>
       <c r="D13" t="n">
-        <v>59.7223</v>
+        <v>64.0829</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.7002</v>
+        <v>40.9231</v>
       </c>
       <c r="C14" t="n">
-        <v>52.0493</v>
+        <v>51.4199</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6946</v>
+        <v>60.8057</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.6389</v>
+        <v>41.4209</v>
       </c>
       <c r="C15" t="n">
-        <v>50.5321</v>
+        <v>54.5808</v>
       </c>
       <c r="D15" t="n">
-        <v>62.1835</v>
+        <v>63.4745</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.6632</v>
+        <v>44.2162</v>
       </c>
       <c r="C16" t="n">
-        <v>57.3323</v>
+        <v>55.025</v>
       </c>
       <c r="D16" t="n">
-        <v>58.3799</v>
+        <v>59.8549</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.5098</v>
+        <v>42.0302</v>
       </c>
       <c r="C17" t="n">
-        <v>51.5079</v>
+        <v>53.4183</v>
       </c>
       <c r="D17" t="n">
-        <v>57.5472</v>
+        <v>60.3105</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4219</v>
+        <v>18.4717</v>
       </c>
       <c r="C2" t="n">
-        <v>27.7779</v>
+        <v>28.1293</v>
       </c>
       <c r="D2" t="n">
-        <v>29.6928</v>
+        <v>31.987</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.6838</v>
+        <v>30.6087</v>
       </c>
       <c r="C3" t="n">
-        <v>34.4497</v>
+        <v>41.401</v>
       </c>
       <c r="D3" t="n">
-        <v>46.7876</v>
+        <v>46.8594</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.0146</v>
+        <v>33.4001</v>
       </c>
       <c r="C4" t="n">
-        <v>49.6239</v>
+        <v>56.5364</v>
       </c>
       <c r="D4" t="n">
-        <v>57.9927</v>
+        <v>62.8274</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>47.4534</v>
+        <v>50.877</v>
       </c>
       <c r="C5" t="n">
-        <v>62.8146</v>
+        <v>67.4542</v>
       </c>
       <c r="D5" t="n">
-        <v>70.7891</v>
+        <v>68.53100000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.0078</v>
+        <v>44.8441</v>
       </c>
       <c r="C6" t="n">
-        <v>53.2299</v>
+        <v>52.2338</v>
       </c>
       <c r="D6" t="n">
-        <v>60.2184</v>
+        <v>57.9958</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.3724</v>
+        <v>36.3891</v>
       </c>
       <c r="C7" t="n">
-        <v>50.4757</v>
+        <v>56.0189</v>
       </c>
       <c r="D7" t="n">
-        <v>56.3276</v>
+        <v>58.5354</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.8859</v>
+        <v>41.5772</v>
       </c>
       <c r="C8" t="n">
-        <v>50.8182</v>
+        <v>54.4239</v>
       </c>
       <c r="D8" t="n">
-        <v>57.2016</v>
+        <v>56.8503</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45.3875</v>
+        <v>39.2817</v>
       </c>
       <c r="C9" t="n">
-        <v>50.7813</v>
+        <v>54.0698</v>
       </c>
       <c r="D9" t="n">
-        <v>57.4355</v>
+        <v>49.0337</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.9105</v>
+        <v>43.188</v>
       </c>
       <c r="C10" t="n">
-        <v>49.1377</v>
+        <v>41.2384</v>
       </c>
       <c r="D10" t="n">
-        <v>59.3559</v>
+        <v>57.4779</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46.8373</v>
+        <v>44.1684</v>
       </c>
       <c r="C11" t="n">
-        <v>50.2851</v>
+        <v>52.5435</v>
       </c>
       <c r="D11" t="n">
-        <v>57.479</v>
+        <v>57.931</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>47.6617</v>
+        <v>41.5508</v>
       </c>
       <c r="C12" t="n">
-        <v>52.3597</v>
+        <v>50.9872</v>
       </c>
       <c r="D12" t="n">
-        <v>55.0828</v>
+        <v>55.2145</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>49.8116</v>
+        <v>37.0067</v>
       </c>
       <c r="C13" t="n">
-        <v>54.9803</v>
+        <v>49.6815</v>
       </c>
       <c r="D13" t="n">
-        <v>56.969</v>
+        <v>59.0076</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.492</v>
+        <v>39.4431</v>
       </c>
       <c r="C14" t="n">
-        <v>50.5036</v>
+        <v>48.0075</v>
       </c>
       <c r="D14" t="n">
-        <v>55.6069</v>
+        <v>48.8813</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>48.1749</v>
+        <v>39.2399</v>
       </c>
       <c r="C15" t="n">
-        <v>55.1332</v>
+        <v>40.2412</v>
       </c>
       <c r="D15" t="n">
-        <v>56.2849</v>
+        <v>40.8319</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>53.5802</v>
+        <v>39.778</v>
       </c>
       <c r="C16" t="n">
-        <v>58.0905</v>
+        <v>50.4913</v>
       </c>
       <c r="D16" t="n">
-        <v>54.3619</v>
+        <v>53.4493</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.6312</v>
+        <v>36.6015</v>
       </c>
       <c r="C17" t="n">
-        <v>56.7339</v>
+        <v>39.8993</v>
       </c>
       <c r="D17" t="n">
-        <v>54.9058</v>
+        <v>48.804</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87954</v>
+        <v>8.87533</v>
       </c>
       <c r="C2" t="n">
-        <v>22.3097</v>
+        <v>22.1542</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5942</v>
+        <v>29.9794</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7839</v>
+        <v>16.7946</v>
       </c>
       <c r="C3" t="n">
-        <v>42.2072</v>
+        <v>41.734</v>
       </c>
       <c r="D3" t="n">
-        <v>55.4318</v>
+        <v>56.2528</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8703</v>
+        <v>23.8258</v>
       </c>
       <c r="C4" t="n">
-        <v>59.3203</v>
+        <v>58.6087</v>
       </c>
       <c r="D4" t="n">
-        <v>77.00190000000001</v>
+        <v>78.3317</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1371</v>
+        <v>31.1113</v>
       </c>
       <c r="C5" t="n">
-        <v>77.38420000000001</v>
+        <v>76.4804</v>
       </c>
       <c r="D5" t="n">
-        <v>99.56</v>
+        <v>100.179</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.5166</v>
+        <v>33.4646</v>
       </c>
       <c r="C6" t="n">
-        <v>68.9084</v>
+        <v>68.3951</v>
       </c>
       <c r="D6" t="n">
-        <v>92.887</v>
+        <v>93.9174</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.1394</v>
+        <v>36.0569</v>
       </c>
       <c r="C7" t="n">
-        <v>67.873</v>
+        <v>58.4622</v>
       </c>
       <c r="D7" t="n">
-        <v>92.45229999999999</v>
+        <v>92.2045</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.6106</v>
+        <v>38.5224</v>
       </c>
       <c r="C8" t="n">
-        <v>62.9033</v>
+        <v>61.9743</v>
       </c>
       <c r="D8" t="n">
-        <v>91.8639</v>
+        <v>94.13030000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.612</v>
+        <v>40.4959</v>
       </c>
       <c r="C9" t="n">
-        <v>62.7952</v>
+        <v>58.7885</v>
       </c>
       <c r="D9" t="n">
-        <v>95.5087</v>
+        <v>95.5129</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6148</v>
+        <v>40.5435</v>
       </c>
       <c r="C10" t="n">
-        <v>64.5129</v>
+        <v>64.1163</v>
       </c>
       <c r="D10" t="n">
-        <v>94.47490000000001</v>
+        <v>96.9842</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.6776</v>
+        <v>40.7915</v>
       </c>
       <c r="C11" t="n">
-        <v>67.14660000000001</v>
+        <v>65.19499999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>97.36499999999999</v>
+        <v>98.02160000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.8496</v>
+        <v>40.8889</v>
       </c>
       <c r="C12" t="n">
-        <v>69.2871</v>
+        <v>68.9562</v>
       </c>
       <c r="D12" t="n">
-        <v>96.6161</v>
+        <v>98.6456</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.9156</v>
+        <v>40.7476</v>
       </c>
       <c r="C13" t="n">
-        <v>71.39149999999999</v>
+        <v>70.0128</v>
       </c>
       <c r="D13" t="n">
-        <v>97.6491</v>
+        <v>99.3939</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.8569</v>
+        <v>40.8187</v>
       </c>
       <c r="C14" t="n">
-        <v>72.4406</v>
+        <v>71.70480000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>97.05889999999999</v>
+        <v>100.135</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.9655</v>
+        <v>41.0006</v>
       </c>
       <c r="C15" t="n">
-        <v>73.9328</v>
+        <v>71.8446</v>
       </c>
       <c r="D15" t="n">
-        <v>97.60769999999999</v>
+        <v>99.9796</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.9886</v>
+        <v>40.9531</v>
       </c>
       <c r="C16" t="n">
-        <v>73.4931</v>
+        <v>73.38249999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>97.33669999999999</v>
+        <v>99.80759999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.9117</v>
+        <v>40.932</v>
       </c>
       <c r="C17" t="n">
-        <v>74.4782</v>
+        <v>72.83029999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>98.25409999999999</v>
+        <v>100.209</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.894769999999999</v>
+        <v>8.89579</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9394</v>
+        <v>21.8314</v>
       </c>
       <c r="D2" t="n">
-        <v>29.7159</v>
+        <v>30.1749</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8956</v>
+        <v>16.9102</v>
       </c>
       <c r="C3" t="n">
-        <v>41.6411</v>
+        <v>41.1345</v>
       </c>
       <c r="D3" t="n">
-        <v>55.7836</v>
+        <v>56.6499</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0791</v>
+        <v>24.0504</v>
       </c>
       <c r="C4" t="n">
-        <v>58.6423</v>
+        <v>57.8741</v>
       </c>
       <c r="D4" t="n">
-        <v>77.20569999999999</v>
+        <v>78.7218</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4977</v>
+        <v>31.5301</v>
       </c>
       <c r="C5" t="n">
-        <v>76.46339999999999</v>
+        <v>75.5082</v>
       </c>
       <c r="D5" t="n">
-        <v>99.69450000000001</v>
+        <v>100.587</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9139</v>
+        <v>33.9916</v>
       </c>
       <c r="C6" t="n">
-        <v>68.14870000000001</v>
+        <v>67.512</v>
       </c>
       <c r="D6" t="n">
-        <v>92.14490000000001</v>
+        <v>93.9862</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5624</v>
+        <v>36.5385</v>
       </c>
       <c r="C7" t="n">
-        <v>68.0065</v>
+        <v>60.8633</v>
       </c>
       <c r="D7" t="n">
-        <v>93.7102</v>
+        <v>92.73520000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0045</v>
+        <v>39.0361</v>
       </c>
       <c r="C8" t="n">
-        <v>61.1626</v>
+        <v>60.2599</v>
       </c>
       <c r="D8" t="n">
-        <v>92.4041</v>
+        <v>93.44159999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.3371</v>
+        <v>41.0948</v>
       </c>
       <c r="C9" t="n">
-        <v>62.8566</v>
+        <v>58.4222</v>
       </c>
       <c r="D9" t="n">
-        <v>95.1439</v>
+        <v>95.4584</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.3041</v>
+        <v>40.9627</v>
       </c>
       <c r="C10" t="n">
-        <v>63.4641</v>
+        <v>65.20659999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>95.02160000000001</v>
+        <v>96.66719999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.4652</v>
+        <v>41.0086</v>
       </c>
       <c r="C11" t="n">
-        <v>67.8758</v>
+        <v>65.3222</v>
       </c>
       <c r="D11" t="n">
-        <v>97.0341</v>
+        <v>97.6815</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.4871</v>
+        <v>41.4834</v>
       </c>
       <c r="C12" t="n">
-        <v>68.0415</v>
+        <v>68.3613</v>
       </c>
       <c r="D12" t="n">
-        <v>96.32129999999999</v>
+        <v>100.353</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.5725</v>
+        <v>41.5542</v>
       </c>
       <c r="C13" t="n">
-        <v>69.64870000000001</v>
+        <v>69.14190000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>98.3528</v>
+        <v>98.9936</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.5267</v>
+        <v>41.3906</v>
       </c>
       <c r="C14" t="n">
-        <v>71.2734</v>
+        <v>71.66370000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>98.1208</v>
+        <v>99.86709999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.436</v>
+        <v>41.5439</v>
       </c>
       <c r="C15" t="n">
-        <v>73.0874</v>
+        <v>71.47369999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>98.4272</v>
+        <v>98.7272</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.5369</v>
+        <v>41.4346</v>
       </c>
       <c r="C16" t="n">
-        <v>72.3259</v>
+        <v>72.6352</v>
       </c>
       <c r="D16" t="n">
-        <v>98.1357</v>
+        <v>100.835</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.5504</v>
+        <v>41.5059</v>
       </c>
       <c r="C17" t="n">
-        <v>74.1674</v>
+        <v>73.1896</v>
       </c>
       <c r="D17" t="n">
-        <v>97.5395</v>
+        <v>100.292</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.92</v>
+        <v>13.9004</v>
       </c>
       <c r="C2" t="n">
-        <v>29.1178</v>
+        <v>29.1938</v>
       </c>
       <c r="D2" t="n">
-        <v>35.9847</v>
+        <v>36.2352</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8852</v>
+        <v>26.9424</v>
       </c>
       <c r="C3" t="n">
-        <v>53.5464</v>
+        <v>53.6058</v>
       </c>
       <c r="D3" t="n">
-        <v>64.6904</v>
+        <v>64.7244</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.8226</v>
+        <v>38.629</v>
       </c>
       <c r="C4" t="n">
-        <v>74.88379999999999</v>
+        <v>75.12260000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>88.0171</v>
+        <v>88.4353</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.4097</v>
+        <v>50.4762</v>
       </c>
       <c r="C5" t="n">
-        <v>96.23569999999999</v>
+        <v>95.79519999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>111.515</v>
+        <v>111.788</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>50.2037</v>
+        <v>49.4309</v>
       </c>
       <c r="C6" t="n">
-        <v>81.479</v>
+        <v>81.19</v>
       </c>
       <c r="D6" t="n">
-        <v>97.7647</v>
+        <v>98.4973</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.8996</v>
+        <v>50.9416</v>
       </c>
       <c r="C7" t="n">
-        <v>77.1367</v>
+        <v>66.99890000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>92.70699999999999</v>
+        <v>91.3901</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>54.2553</v>
+        <v>52.3886</v>
       </c>
       <c r="C8" t="n">
-        <v>64.8672</v>
+        <v>64.6885</v>
       </c>
       <c r="D8" t="n">
-        <v>89.3451</v>
+        <v>89.7216</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.3715</v>
+        <v>54.6727</v>
       </c>
       <c r="C9" t="n">
-        <v>67.1789</v>
+        <v>58.437</v>
       </c>
       <c r="D9" t="n">
-        <v>90.81</v>
+        <v>88.9631</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>55.8805</v>
+        <v>53.9405</v>
       </c>
       <c r="C10" t="n">
-        <v>62.1009</v>
+        <v>62.069</v>
       </c>
       <c r="D10" t="n">
-        <v>88.5641</v>
+        <v>89.0826</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>55.9912</v>
+        <v>54.1503</v>
       </c>
       <c r="C11" t="n">
-        <v>65.7627</v>
+        <v>62.9234</v>
       </c>
       <c r="D11" t="n">
-        <v>90.2829</v>
+        <v>89.8329</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>56.0124</v>
+        <v>54.3597</v>
       </c>
       <c r="C12" t="n">
-        <v>65.8308</v>
+        <v>66.398</v>
       </c>
       <c r="D12" t="n">
-        <v>89.88460000000001</v>
+        <v>90.3019</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>55.993</v>
+        <v>53.8919</v>
       </c>
       <c r="C13" t="n">
-        <v>68.0194</v>
+        <v>65.6125</v>
       </c>
       <c r="D13" t="n">
-        <v>90.87139999999999</v>
+        <v>89.94710000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>55.6152</v>
+        <v>54.1273</v>
       </c>
       <c r="C14" t="n">
-        <v>68.3124</v>
+        <v>67.8379</v>
       </c>
       <c r="D14" t="n">
-        <v>90.0147</v>
+        <v>90.919</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>56.0156</v>
+        <v>54.3157</v>
       </c>
       <c r="C15" t="n">
-        <v>70.28879999999999</v>
+        <v>68.8141</v>
       </c>
       <c r="D15" t="n">
-        <v>91.3977</v>
+        <v>91.05540000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>56.6041</v>
+        <v>54.3754</v>
       </c>
       <c r="C16" t="n">
-        <v>70.4122</v>
+        <v>70.4961</v>
       </c>
       <c r="D16" t="n">
-        <v>90.9268</v>
+        <v>91.4212</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>55.8005</v>
+        <v>54.199</v>
       </c>
       <c r="C17" t="n">
-        <v>71.9345</v>
+        <v>70.203</v>
       </c>
       <c r="D17" t="n">
-        <v>90.87730000000001</v>
+        <v>91.7251</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2017</v>
+        <v>14.2184</v>
       </c>
       <c r="C2" t="n">
-        <v>24.8958</v>
+        <v>25.0547</v>
       </c>
       <c r="D2" t="n">
-        <v>30.386</v>
+        <v>28.7414</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.4743</v>
+        <v>26.9738</v>
       </c>
       <c r="C3" t="n">
-        <v>37.0822</v>
+        <v>34.0375</v>
       </c>
       <c r="D3" t="n">
-        <v>45.5357</v>
+        <v>50.2676</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.853</v>
+        <v>32.8985</v>
       </c>
       <c r="C4" t="n">
-        <v>48.4758</v>
+        <v>51.2412</v>
       </c>
       <c r="D4" t="n">
-        <v>62.2611</v>
+        <v>59.9104</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.4276</v>
+        <v>43.1882</v>
       </c>
       <c r="C5" t="n">
-        <v>59.0567</v>
+        <v>57.5855</v>
       </c>
       <c r="D5" t="n">
-        <v>61.8801</v>
+        <v>58.8396</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.2894</v>
+        <v>33.8731</v>
       </c>
       <c r="C6" t="n">
-        <v>54.3966</v>
+        <v>49.9044</v>
       </c>
       <c r="D6" t="n">
-        <v>60.4841</v>
+        <v>58.5852</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.8992</v>
+        <v>41.9221</v>
       </c>
       <c r="C7" t="n">
-        <v>49.1546</v>
+        <v>52.6381</v>
       </c>
       <c r="D7" t="n">
-        <v>61.0713</v>
+        <v>61.1532</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.0784</v>
+        <v>40.4489</v>
       </c>
       <c r="C8" t="n">
-        <v>53.0543</v>
+        <v>50.3493</v>
       </c>
       <c r="D8" t="n">
-        <v>64.8886</v>
+        <v>54.9534</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.4723</v>
+        <v>38.3606</v>
       </c>
       <c r="C9" t="n">
-        <v>45.2853</v>
+        <v>45.6876</v>
       </c>
       <c r="D9" t="n">
-        <v>57.8672</v>
+        <v>56.5021</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.957</v>
+        <v>44.0716</v>
       </c>
       <c r="C10" t="n">
-        <v>49.5188</v>
+        <v>50.1813</v>
       </c>
       <c r="D10" t="n">
-        <v>60.1129</v>
+        <v>62.9463</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.6253</v>
+        <v>46.1269</v>
       </c>
       <c r="C11" t="n">
-        <v>54.0396</v>
+        <v>50.5743</v>
       </c>
       <c r="D11" t="n">
-        <v>61.7812</v>
+        <v>61.8433</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.8186</v>
+        <v>44.3381</v>
       </c>
       <c r="C12" t="n">
-        <v>45.134</v>
+        <v>57.1518</v>
       </c>
       <c r="D12" t="n">
-        <v>57.1235</v>
+        <v>58.3215</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.6495</v>
+        <v>46.58</v>
       </c>
       <c r="C13" t="n">
-        <v>51.0076</v>
+        <v>51.5023</v>
       </c>
       <c r="D13" t="n">
-        <v>63.0476</v>
+        <v>46.3117</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.8668</v>
+        <v>44.8644</v>
       </c>
       <c r="C14" t="n">
-        <v>52.8515</v>
+        <v>54.0082</v>
       </c>
       <c r="D14" t="n">
-        <v>62.0057</v>
+        <v>57.8615</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>39.9641</v>
+        <v>44.6572</v>
       </c>
       <c r="C15" t="n">
-        <v>53.3288</v>
+        <v>50.9153</v>
       </c>
       <c r="D15" t="n">
-        <v>55.5977</v>
+        <v>60.3544</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.5479</v>
+        <v>44.8094</v>
       </c>
       <c r="C16" t="n">
-        <v>47.3579</v>
+        <v>55.0469</v>
       </c>
       <c r="D16" t="n">
-        <v>60.0856</v>
+        <v>61.277</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.6575</v>
+        <v>42.8703</v>
       </c>
       <c r="C17" t="n">
-        <v>55.1429</v>
+        <v>59.8913</v>
       </c>
       <c r="D17" t="n">
-        <v>58.8025</v>
+        <v>61.3847</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.932</v>
+        <v>14.8554</v>
       </c>
       <c r="C2" t="n">
-        <v>24.8583</v>
+        <v>24.6536</v>
       </c>
       <c r="D2" t="n">
-        <v>29.4959</v>
+        <v>31.1697</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.0588</v>
+        <v>28.1986</v>
       </c>
       <c r="C3" t="n">
-        <v>34.8465</v>
+        <v>36.6186</v>
       </c>
       <c r="D3" t="n">
-        <v>47.7575</v>
+        <v>48.8863</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>36.1071</v>
+        <v>31.7442</v>
       </c>
       <c r="C4" t="n">
-        <v>48.3333</v>
+        <v>45.2154</v>
       </c>
       <c r="D4" t="n">
-        <v>52.503</v>
+        <v>57.661</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41.734</v>
+        <v>48.1884</v>
       </c>
       <c r="C5" t="n">
-        <v>53.5752</v>
+        <v>59.1481</v>
       </c>
       <c r="D5" t="n">
-        <v>66.1318</v>
+        <v>61.0305</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.8204</v>
+        <v>42.0494</v>
       </c>
       <c r="C6" t="n">
-        <v>56.8528</v>
+        <v>56.1811</v>
       </c>
       <c r="D6" t="n">
-        <v>63.8843</v>
+        <v>64.3484</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.7978</v>
+        <v>40.9277</v>
       </c>
       <c r="C7" t="n">
-        <v>49.0658</v>
+        <v>49.0077</v>
       </c>
       <c r="D7" t="n">
-        <v>59.2873</v>
+        <v>63.9874</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.7983</v>
+        <v>42.7784</v>
       </c>
       <c r="C8" t="n">
-        <v>52.643</v>
+        <v>57.7136</v>
       </c>
       <c r="D8" t="n">
-        <v>59.9197</v>
+        <v>60.6459</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.799</v>
+        <v>44.392</v>
       </c>
       <c r="C9" t="n">
-        <v>44.7196</v>
+        <v>53.8666</v>
       </c>
       <c r="D9" t="n">
-        <v>57.2094</v>
+        <v>55.935</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8266</v>
+        <v>44.6281</v>
       </c>
       <c r="C10" t="n">
-        <v>55.505</v>
+        <v>51.8163</v>
       </c>
       <c r="D10" t="n">
-        <v>63.5217</v>
+        <v>59.2075</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.7912</v>
+        <v>42.2657</v>
       </c>
       <c r="C11" t="n">
-        <v>46.3459</v>
+        <v>48.6624</v>
       </c>
       <c r="D11" t="n">
-        <v>52.5967</v>
+        <v>57.3145</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.8621</v>
+        <v>44.3399</v>
       </c>
       <c r="C12" t="n">
-        <v>46.9891</v>
+        <v>46.3616</v>
       </c>
       <c r="D12" t="n">
-        <v>60.4046</v>
+        <v>61.1817</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.4725</v>
+        <v>44.6434</v>
       </c>
       <c r="C13" t="n">
-        <v>53.643</v>
+        <v>54.7249</v>
       </c>
       <c r="D13" t="n">
-        <v>64.0829</v>
+        <v>53.1356</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.9231</v>
+        <v>41.527</v>
       </c>
       <c r="C14" t="n">
-        <v>51.4199</v>
+        <v>51.6041</v>
       </c>
       <c r="D14" t="n">
-        <v>60.8057</v>
+        <v>58.1516</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.4209</v>
+        <v>45.1932</v>
       </c>
       <c r="C15" t="n">
-        <v>54.5808</v>
+        <v>51.8619</v>
       </c>
       <c r="D15" t="n">
-        <v>63.4745</v>
+        <v>57.9466</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.2162</v>
+        <v>41.8098</v>
       </c>
       <c r="C16" t="n">
-        <v>55.025</v>
+        <v>52.6694</v>
       </c>
       <c r="D16" t="n">
-        <v>59.8549</v>
+        <v>62.4277</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.0302</v>
+        <v>43.1566</v>
       </c>
       <c r="C17" t="n">
-        <v>53.4183</v>
+        <v>48.0413</v>
       </c>
       <c r="D17" t="n">
-        <v>60.3105</v>
+        <v>60.0758</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4717</v>
+        <v>18.3865</v>
       </c>
       <c r="C2" t="n">
-        <v>28.1293</v>
+        <v>27.9304</v>
       </c>
       <c r="D2" t="n">
-        <v>31.987</v>
+        <v>29.5919</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.6087</v>
+        <v>30.216</v>
       </c>
       <c r="C3" t="n">
-        <v>41.401</v>
+        <v>40.3505</v>
       </c>
       <c r="D3" t="n">
-        <v>46.8594</v>
+        <v>43.3229</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.4001</v>
+        <v>34.53</v>
       </c>
       <c r="C4" t="n">
-        <v>56.5364</v>
+        <v>52.0682</v>
       </c>
       <c r="D4" t="n">
-        <v>62.8274</v>
+        <v>51.6171</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.877</v>
+        <v>48.7275</v>
       </c>
       <c r="C5" t="n">
-        <v>67.4542</v>
+        <v>57.0676</v>
       </c>
       <c r="D5" t="n">
-        <v>68.53100000000001</v>
+        <v>59.9304</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44.8441</v>
+        <v>40.6905</v>
       </c>
       <c r="C6" t="n">
-        <v>52.2338</v>
+        <v>51.9682</v>
       </c>
       <c r="D6" t="n">
-        <v>57.9958</v>
+        <v>57.8778</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3891</v>
+        <v>41.2321</v>
       </c>
       <c r="C7" t="n">
-        <v>56.0189</v>
+        <v>56.4387</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5354</v>
+        <v>60.4569</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41.5772</v>
+        <v>40.7821</v>
       </c>
       <c r="C8" t="n">
-        <v>54.4239</v>
+        <v>55.1398</v>
       </c>
       <c r="D8" t="n">
-        <v>56.8503</v>
+        <v>57.7445</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.2817</v>
+        <v>37.3669</v>
       </c>
       <c r="C9" t="n">
-        <v>54.0698</v>
+        <v>49.3657</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0337</v>
+        <v>53.3569</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.188</v>
+        <v>38.7861</v>
       </c>
       <c r="C10" t="n">
-        <v>41.2384</v>
+        <v>54.5256</v>
       </c>
       <c r="D10" t="n">
-        <v>57.4779</v>
+        <v>58.0628</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.1684</v>
+        <v>39.0135</v>
       </c>
       <c r="C11" t="n">
-        <v>52.5435</v>
+        <v>47.8096</v>
       </c>
       <c r="D11" t="n">
-        <v>57.931</v>
+        <v>55.0068</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.5508</v>
+        <v>44.7952</v>
       </c>
       <c r="C12" t="n">
-        <v>50.9872</v>
+        <v>38.3706</v>
       </c>
       <c r="D12" t="n">
-        <v>55.2145</v>
+        <v>42.7308</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.0067</v>
+        <v>44.7165</v>
       </c>
       <c r="C13" t="n">
-        <v>49.6815</v>
+        <v>39.3522</v>
       </c>
       <c r="D13" t="n">
-        <v>59.0076</v>
+        <v>55.0649</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>39.4431</v>
+        <v>39.6843</v>
       </c>
       <c r="C14" t="n">
-        <v>48.0075</v>
+        <v>53.786</v>
       </c>
       <c r="D14" t="n">
-        <v>48.8813</v>
+        <v>56.7118</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>39.2399</v>
+        <v>40.6436</v>
       </c>
       <c r="C15" t="n">
-        <v>40.2412</v>
+        <v>53.0042</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8319</v>
+        <v>46.1942</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.778</v>
+        <v>36.0602</v>
       </c>
       <c r="C16" t="n">
-        <v>50.4913</v>
+        <v>46.8821</v>
       </c>
       <c r="D16" t="n">
-        <v>53.4493</v>
+        <v>51.7063</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.6015</v>
+        <v>39.7717</v>
       </c>
       <c r="C17" t="n">
-        <v>39.8993</v>
+        <v>37.7852</v>
       </c>
       <c r="D17" t="n">
-        <v>48.804</v>
+        <v>38.6005</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87533</v>
+        <v>8.87861</v>
       </c>
       <c r="C2" t="n">
-        <v>22.1542</v>
+        <v>22.2743</v>
       </c>
       <c r="D2" t="n">
-        <v>29.9794</v>
+        <v>29.3197</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7946</v>
+        <v>16.7869</v>
       </c>
       <c r="C3" t="n">
-        <v>41.734</v>
+        <v>42.1974</v>
       </c>
       <c r="D3" t="n">
-        <v>56.2528</v>
+        <v>55.0795</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8258</v>
+        <v>23.8385</v>
       </c>
       <c r="C4" t="n">
-        <v>58.6087</v>
+        <v>59.3245</v>
       </c>
       <c r="D4" t="n">
-        <v>78.3317</v>
+        <v>76.521</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1113</v>
+        <v>31.1442</v>
       </c>
       <c r="C5" t="n">
-        <v>76.4804</v>
+        <v>77.1674</v>
       </c>
       <c r="D5" t="n">
-        <v>100.179</v>
+        <v>98.40519999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4646</v>
+        <v>33.495</v>
       </c>
       <c r="C6" t="n">
-        <v>68.3951</v>
+        <v>68.7897</v>
       </c>
       <c r="D6" t="n">
-        <v>93.9174</v>
+        <v>91.9888</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0569</v>
+        <v>36.0858</v>
       </c>
       <c r="C7" t="n">
-        <v>58.4622</v>
+        <v>61.2367</v>
       </c>
       <c r="D7" t="n">
-        <v>92.2045</v>
+        <v>91.2868</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5224</v>
+        <v>38.6639</v>
       </c>
       <c r="C8" t="n">
-        <v>61.9743</v>
+        <v>62.1438</v>
       </c>
       <c r="D8" t="n">
-        <v>94.13030000000001</v>
+        <v>92.4466</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4959</v>
+        <v>40.5708</v>
       </c>
       <c r="C9" t="n">
-        <v>58.7885</v>
+        <v>60.4209</v>
       </c>
       <c r="D9" t="n">
-        <v>95.5129</v>
+        <v>93.32259999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.5435</v>
+        <v>40.5832</v>
       </c>
       <c r="C10" t="n">
-        <v>64.1163</v>
+        <v>65.38339999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>96.9842</v>
+        <v>96.3451</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7915</v>
+        <v>40.8685</v>
       </c>
       <c r="C11" t="n">
-        <v>65.19499999999999</v>
+        <v>65.9958</v>
       </c>
       <c r="D11" t="n">
-        <v>98.02160000000001</v>
+        <v>96.89449999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.8889</v>
+        <v>41.0249</v>
       </c>
       <c r="C12" t="n">
-        <v>68.9562</v>
+        <v>69.49120000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>98.6456</v>
+        <v>97.7435</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7476</v>
+        <v>40.8424</v>
       </c>
       <c r="C13" t="n">
-        <v>70.0128</v>
+        <v>70.54519999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>99.3939</v>
+        <v>98.66459999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.8187</v>
+        <v>40.8434</v>
       </c>
       <c r="C14" t="n">
-        <v>71.70480000000001</v>
+        <v>72.7345</v>
       </c>
       <c r="D14" t="n">
-        <v>100.135</v>
+        <v>98.8085</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.0006</v>
+        <v>40.958</v>
       </c>
       <c r="C15" t="n">
-        <v>71.8446</v>
+        <v>72.33759999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>99.9796</v>
+        <v>98.45659999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.9531</v>
+        <v>41.0406</v>
       </c>
       <c r="C16" t="n">
-        <v>73.38249999999999</v>
+        <v>74.1341</v>
       </c>
       <c r="D16" t="n">
-        <v>99.80759999999999</v>
+        <v>99.202</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.932</v>
+        <v>40.9761</v>
       </c>
       <c r="C17" t="n">
-        <v>72.83029999999999</v>
+        <v>73.43210000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>100.209</v>
+        <v>97.2676</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.89579</v>
+        <v>8.894399999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>21.8314</v>
+        <v>21.9791</v>
       </c>
       <c r="D2" t="n">
-        <v>30.1749</v>
+        <v>29.5011</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9102</v>
+        <v>16.8584</v>
       </c>
       <c r="C3" t="n">
-        <v>41.1345</v>
+        <v>41.4327</v>
       </c>
       <c r="D3" t="n">
-        <v>56.6499</v>
+        <v>55.3256</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0504</v>
+        <v>24.0807</v>
       </c>
       <c r="C4" t="n">
-        <v>57.8741</v>
+        <v>58.3627</v>
       </c>
       <c r="D4" t="n">
-        <v>78.7218</v>
+        <v>76.92529999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.5301</v>
+        <v>31.5122</v>
       </c>
       <c r="C5" t="n">
-        <v>75.5082</v>
+        <v>76.08150000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>100.587</v>
+        <v>98.6811</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9916</v>
+        <v>33.9182</v>
       </c>
       <c r="C6" t="n">
-        <v>67.512</v>
+        <v>68.3967</v>
       </c>
       <c r="D6" t="n">
-        <v>93.9862</v>
+        <v>91.99590000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5385</v>
+        <v>36.5716</v>
       </c>
       <c r="C7" t="n">
-        <v>60.8633</v>
+        <v>60.435</v>
       </c>
       <c r="D7" t="n">
-        <v>92.73520000000001</v>
+        <v>91.2687</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0361</v>
+        <v>39.157</v>
       </c>
       <c r="C8" t="n">
-        <v>60.2599</v>
+        <v>62.6195</v>
       </c>
       <c r="D8" t="n">
-        <v>93.44159999999999</v>
+        <v>93.2371</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.0948</v>
+        <v>40.8345</v>
       </c>
       <c r="C9" t="n">
-        <v>58.4222</v>
+        <v>56.6591</v>
       </c>
       <c r="D9" t="n">
-        <v>95.4584</v>
+        <v>94.3978</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.9627</v>
+        <v>41.2151</v>
       </c>
       <c r="C10" t="n">
-        <v>65.20659999999999</v>
+        <v>63.6453</v>
       </c>
       <c r="D10" t="n">
-        <v>96.66719999999999</v>
+        <v>96.23909999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.0086</v>
+        <v>41.2341</v>
       </c>
       <c r="C11" t="n">
-        <v>65.3222</v>
+        <v>64.78360000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>97.6815</v>
+        <v>97.06699999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.4834</v>
+        <v>41.534</v>
       </c>
       <c r="C12" t="n">
-        <v>68.3613</v>
+        <v>69.5547</v>
       </c>
       <c r="D12" t="n">
-        <v>100.353</v>
+        <v>98.02419999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.5542</v>
+        <v>41.5789</v>
       </c>
       <c r="C13" t="n">
-        <v>69.14190000000001</v>
+        <v>69.7788</v>
       </c>
       <c r="D13" t="n">
-        <v>98.9936</v>
+        <v>97.9204</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3906</v>
+        <v>41.4563</v>
       </c>
       <c r="C14" t="n">
-        <v>71.66370000000001</v>
+        <v>71.37479999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>99.86709999999999</v>
+        <v>98.27719999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.5439</v>
+        <v>41.5164</v>
       </c>
       <c r="C15" t="n">
-        <v>71.47369999999999</v>
+        <v>72.14490000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>98.7272</v>
+        <v>98.2676</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.4346</v>
+        <v>41.6345</v>
       </c>
       <c r="C16" t="n">
-        <v>72.6352</v>
+        <v>73.45189999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>100.835</v>
+        <v>99.0938</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.5059</v>
+        <v>41.6457</v>
       </c>
       <c r="C17" t="n">
-        <v>73.1896</v>
+        <v>72.0692</v>
       </c>
       <c r="D17" t="n">
-        <v>100.292</v>
+        <v>98.9318</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9004</v>
+        <v>13.9105</v>
       </c>
       <c r="C2" t="n">
-        <v>29.1938</v>
+        <v>29.2185</v>
       </c>
       <c r="D2" t="n">
-        <v>36.2352</v>
+        <v>35.4133</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9424</v>
+        <v>26.8763</v>
       </c>
       <c r="C3" t="n">
-        <v>53.6058</v>
+        <v>53.5661</v>
       </c>
       <c r="D3" t="n">
-        <v>64.7244</v>
+        <v>63.444</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.629</v>
+        <v>38.6237</v>
       </c>
       <c r="C4" t="n">
-        <v>75.12260000000001</v>
+        <v>74.8531</v>
       </c>
       <c r="D4" t="n">
-        <v>88.4353</v>
+        <v>86.99769999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.4762</v>
+        <v>50.5279</v>
       </c>
       <c r="C5" t="n">
-        <v>95.79519999999999</v>
+        <v>96.1495</v>
       </c>
       <c r="D5" t="n">
-        <v>111.788</v>
+        <v>110.086</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.4309</v>
+        <v>49.4595</v>
       </c>
       <c r="C6" t="n">
-        <v>81.19</v>
+        <v>81.87269999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>98.4973</v>
+        <v>96.00369999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50.9416</v>
+        <v>51.2541</v>
       </c>
       <c r="C7" t="n">
-        <v>66.99890000000001</v>
+        <v>66.5339</v>
       </c>
       <c r="D7" t="n">
-        <v>91.3901</v>
+        <v>88.4747</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.3886</v>
+        <v>52.5719</v>
       </c>
       <c r="C8" t="n">
-        <v>64.6885</v>
+        <v>65.81010000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>89.7216</v>
+        <v>88.4961</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.6727</v>
+        <v>54.7034</v>
       </c>
       <c r="C9" t="n">
-        <v>58.437</v>
+        <v>58.9109</v>
       </c>
       <c r="D9" t="n">
-        <v>88.9631</v>
+        <v>88.41240000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53.9405</v>
+        <v>54.1522</v>
       </c>
       <c r="C10" t="n">
-        <v>62.069</v>
+        <v>61.7815</v>
       </c>
       <c r="D10" t="n">
-        <v>89.0826</v>
+        <v>88.1374</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.1503</v>
+        <v>54.2238</v>
       </c>
       <c r="C11" t="n">
-        <v>62.9234</v>
+        <v>62.103</v>
       </c>
       <c r="D11" t="n">
-        <v>89.8329</v>
+        <v>88.37139999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.3597</v>
+        <v>54.5591</v>
       </c>
       <c r="C12" t="n">
-        <v>66.398</v>
+        <v>65.871</v>
       </c>
       <c r="D12" t="n">
-        <v>90.3019</v>
+        <v>89.80419999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.8919</v>
+        <v>54.3921</v>
       </c>
       <c r="C13" t="n">
-        <v>65.6125</v>
+        <v>65.991</v>
       </c>
       <c r="D13" t="n">
-        <v>89.94710000000001</v>
+        <v>88.88209999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.1273</v>
+        <v>54.6487</v>
       </c>
       <c r="C14" t="n">
-        <v>67.8379</v>
+        <v>68.54770000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>90.919</v>
+        <v>89.63030000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.3157</v>
+        <v>54.0635</v>
       </c>
       <c r="C15" t="n">
-        <v>68.8141</v>
+        <v>68.79389999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>91.05540000000001</v>
+        <v>90.1795</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.3754</v>
+        <v>54.4692</v>
       </c>
       <c r="C16" t="n">
-        <v>70.4961</v>
+        <v>70.2486</v>
       </c>
       <c r="D16" t="n">
-        <v>91.4212</v>
+        <v>90.2897</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.199</v>
+        <v>54.3123</v>
       </c>
       <c r="C17" t="n">
-        <v>70.203</v>
+        <v>69.9104</v>
       </c>
       <c r="D17" t="n">
-        <v>91.7251</v>
+        <v>90.3959</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2184</v>
+        <v>14.3432</v>
       </c>
       <c r="C2" t="n">
-        <v>25.0547</v>
+        <v>25.3558</v>
       </c>
       <c r="D2" t="n">
-        <v>28.7414</v>
+        <v>32.2135</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9738</v>
+        <v>27.6894</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0375</v>
+        <v>37.7898</v>
       </c>
       <c r="D3" t="n">
-        <v>50.2676</v>
+        <v>45.608</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.8985</v>
+        <v>31.8586</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2412</v>
+        <v>47.8444</v>
       </c>
       <c r="D4" t="n">
-        <v>59.9104</v>
+        <v>52.5644</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.1882</v>
+        <v>40.7057</v>
       </c>
       <c r="C5" t="n">
-        <v>57.5855</v>
+        <v>55.2787</v>
       </c>
       <c r="D5" t="n">
-        <v>58.8396</v>
+        <v>84.0774</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8731</v>
+        <v>37.6183</v>
       </c>
       <c r="C6" t="n">
-        <v>49.9044</v>
+        <v>54.2551</v>
       </c>
       <c r="D6" t="n">
-        <v>58.5852</v>
+        <v>63.2958</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.9221</v>
+        <v>45.9911</v>
       </c>
       <c r="C7" t="n">
-        <v>52.6381</v>
+        <v>52.4245</v>
       </c>
       <c r="D7" t="n">
-        <v>61.1532</v>
+        <v>56.1566</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.4489</v>
+        <v>37.0802</v>
       </c>
       <c r="C8" t="n">
-        <v>50.3493</v>
+        <v>50.7538</v>
       </c>
       <c r="D8" t="n">
-        <v>54.9534</v>
+        <v>57.2325</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.3606</v>
+        <v>46.7863</v>
       </c>
       <c r="C9" t="n">
-        <v>45.6876</v>
+        <v>48.8623</v>
       </c>
       <c r="D9" t="n">
-        <v>56.5021</v>
+        <v>59.0867</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.0716</v>
+        <v>43.2232</v>
       </c>
       <c r="C10" t="n">
-        <v>50.1813</v>
+        <v>52.7455</v>
       </c>
       <c r="D10" t="n">
-        <v>62.9463</v>
+        <v>60.5888</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46.1269</v>
+        <v>44.6947</v>
       </c>
       <c r="C11" t="n">
-        <v>50.5743</v>
+        <v>53.4585</v>
       </c>
       <c r="D11" t="n">
-        <v>61.8433</v>
+        <v>57.6109</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.3381</v>
+        <v>44.4843</v>
       </c>
       <c r="C12" t="n">
-        <v>57.1518</v>
+        <v>51.9781</v>
       </c>
       <c r="D12" t="n">
-        <v>58.3215</v>
+        <v>55.756</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.58</v>
+        <v>40.7634</v>
       </c>
       <c r="C13" t="n">
-        <v>51.5023</v>
+        <v>51.153</v>
       </c>
       <c r="D13" t="n">
-        <v>46.3117</v>
+        <v>59.5716</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.8644</v>
+        <v>47.3382</v>
       </c>
       <c r="C14" t="n">
-        <v>54.0082</v>
+        <v>55.5053</v>
       </c>
       <c r="D14" t="n">
-        <v>57.8615</v>
+        <v>57.8718</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.6572</v>
+        <v>39.0713</v>
       </c>
       <c r="C15" t="n">
-        <v>50.9153</v>
+        <v>56.9638</v>
       </c>
       <c r="D15" t="n">
-        <v>60.3544</v>
+        <v>60.0834</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.8094</v>
+        <v>42.9286</v>
       </c>
       <c r="C16" t="n">
-        <v>55.0469</v>
+        <v>53.1368</v>
       </c>
       <c r="D16" t="n">
-        <v>61.277</v>
+        <v>57.0438</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.8703</v>
+        <v>39.0379</v>
       </c>
       <c r="C17" t="n">
-        <v>59.8913</v>
+        <v>55.9058</v>
       </c>
       <c r="D17" t="n">
-        <v>61.3847</v>
+        <v>61.3613</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8554</v>
+        <v>14.9139</v>
       </c>
       <c r="C2" t="n">
-        <v>24.6536</v>
+        <v>24.5871</v>
       </c>
       <c r="D2" t="n">
-        <v>31.1697</v>
+        <v>30.4859</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.1986</v>
+        <v>27.8293</v>
       </c>
       <c r="C3" t="n">
-        <v>36.6186</v>
+        <v>35.2248</v>
       </c>
       <c r="D3" t="n">
-        <v>48.8863</v>
+        <v>44.4166</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7442</v>
+        <v>31.558</v>
       </c>
       <c r="C4" t="n">
-        <v>45.2154</v>
+        <v>49.8048</v>
       </c>
       <c r="D4" t="n">
-        <v>57.661</v>
+        <v>52.7182</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48.1884</v>
+        <v>46.6865</v>
       </c>
       <c r="C5" t="n">
-        <v>59.1481</v>
+        <v>66.63549999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>61.0305</v>
+        <v>69.7829</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.0494</v>
+        <v>40.361</v>
       </c>
       <c r="C6" t="n">
-        <v>56.1811</v>
+        <v>52.4708</v>
       </c>
       <c r="D6" t="n">
-        <v>64.3484</v>
+        <v>58.2837</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.9277</v>
+        <v>40.2086</v>
       </c>
       <c r="C7" t="n">
-        <v>49.0077</v>
+        <v>46.4355</v>
       </c>
       <c r="D7" t="n">
-        <v>63.9874</v>
+        <v>57.9362</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.7784</v>
+        <v>44.6675</v>
       </c>
       <c r="C8" t="n">
-        <v>57.7136</v>
+        <v>49.7195</v>
       </c>
       <c r="D8" t="n">
-        <v>60.6459</v>
+        <v>56.6325</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.392</v>
+        <v>42.3714</v>
       </c>
       <c r="C9" t="n">
-        <v>53.8666</v>
+        <v>48.5499</v>
       </c>
       <c r="D9" t="n">
-        <v>55.935</v>
+        <v>68.9182</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.6281</v>
+        <v>41.6701</v>
       </c>
       <c r="C10" t="n">
-        <v>51.8163</v>
+        <v>48.2184</v>
       </c>
       <c r="D10" t="n">
-        <v>59.2075</v>
+        <v>55.7019</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.2657</v>
+        <v>42.8378</v>
       </c>
       <c r="C11" t="n">
-        <v>48.6624</v>
+        <v>51.0753</v>
       </c>
       <c r="D11" t="n">
-        <v>57.3145</v>
+        <v>59.7562</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.3399</v>
+        <v>45.1411</v>
       </c>
       <c r="C12" t="n">
-        <v>46.3616</v>
+        <v>51.3408</v>
       </c>
       <c r="D12" t="n">
-        <v>61.1817</v>
+        <v>57.6157</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.6434</v>
+        <v>44.7274</v>
       </c>
       <c r="C13" t="n">
-        <v>54.7249</v>
+        <v>55.6465</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1356</v>
+        <v>58.6971</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.527</v>
+        <v>42.1031</v>
       </c>
       <c r="C14" t="n">
-        <v>51.6041</v>
+        <v>56.2028</v>
       </c>
       <c r="D14" t="n">
-        <v>58.1516</v>
+        <v>62.8405</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.1932</v>
+        <v>42.7394</v>
       </c>
       <c r="C15" t="n">
-        <v>51.8619</v>
+        <v>49.0469</v>
       </c>
       <c r="D15" t="n">
-        <v>57.9466</v>
+        <v>58.4551</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.8098</v>
+        <v>50.4374</v>
       </c>
       <c r="C16" t="n">
-        <v>52.6694</v>
+        <v>58.698</v>
       </c>
       <c r="D16" t="n">
-        <v>62.4277</v>
+        <v>55.5243</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.1566</v>
+        <v>43.943</v>
       </c>
       <c r="C17" t="n">
-        <v>48.0413</v>
+        <v>52.9891</v>
       </c>
       <c r="D17" t="n">
-        <v>60.0758</v>
+        <v>58.2169</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.3865</v>
+        <v>18.4302</v>
       </c>
       <c r="C2" t="n">
-        <v>27.9304</v>
+        <v>28.0506</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5919</v>
+        <v>30.057</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.216</v>
+        <v>30.4397</v>
       </c>
       <c r="C3" t="n">
-        <v>40.3505</v>
+        <v>38.1081</v>
       </c>
       <c r="D3" t="n">
-        <v>43.3229</v>
+        <v>49.5231</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.53</v>
+        <v>32.1409</v>
       </c>
       <c r="C4" t="n">
-        <v>52.0682</v>
+        <v>51.1964</v>
       </c>
       <c r="D4" t="n">
-        <v>51.6171</v>
+        <v>61.5064</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48.7275</v>
+        <v>46.4318</v>
       </c>
       <c r="C5" t="n">
-        <v>57.0676</v>
+        <v>58.741</v>
       </c>
       <c r="D5" t="n">
-        <v>59.9304</v>
+        <v>79.1871</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.6905</v>
+        <v>42.6674</v>
       </c>
       <c r="C6" t="n">
-        <v>51.9682</v>
+        <v>53.5992</v>
       </c>
       <c r="D6" t="n">
-        <v>57.8778</v>
+        <v>50.5907</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.2321</v>
+        <v>41.7565</v>
       </c>
       <c r="C7" t="n">
-        <v>56.4387</v>
+        <v>55.428</v>
       </c>
       <c r="D7" t="n">
-        <v>60.4569</v>
+        <v>55.7888</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.7821</v>
+        <v>42.0545</v>
       </c>
       <c r="C8" t="n">
-        <v>55.1398</v>
+        <v>53.8778</v>
       </c>
       <c r="D8" t="n">
-        <v>57.7445</v>
+        <v>59.0344</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37.3669</v>
+        <v>38.8169</v>
       </c>
       <c r="C9" t="n">
-        <v>49.3657</v>
+        <v>55.9659</v>
       </c>
       <c r="D9" t="n">
-        <v>53.3569</v>
+        <v>56.2877</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.7861</v>
+        <v>41.7307</v>
       </c>
       <c r="C10" t="n">
-        <v>54.5256</v>
+        <v>47.8313</v>
       </c>
       <c r="D10" t="n">
-        <v>58.0628</v>
+        <v>56.2091</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39.0135</v>
+        <v>39.9832</v>
       </c>
       <c r="C11" t="n">
-        <v>47.8096</v>
+        <v>45.7826</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0068</v>
+        <v>55.0178</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.7952</v>
+        <v>38.0134</v>
       </c>
       <c r="C12" t="n">
-        <v>38.3706</v>
+        <v>49.6001</v>
       </c>
       <c r="D12" t="n">
-        <v>42.7308</v>
+        <v>58.2443</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.7165</v>
+        <v>37.6853</v>
       </c>
       <c r="C13" t="n">
-        <v>39.3522</v>
+        <v>42.6495</v>
       </c>
       <c r="D13" t="n">
-        <v>55.0649</v>
+        <v>55.6983</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>39.6843</v>
+        <v>40.4468</v>
       </c>
       <c r="C14" t="n">
-        <v>53.786</v>
+        <v>42.2131</v>
       </c>
       <c r="D14" t="n">
-        <v>56.7118</v>
+        <v>51.0205</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6436</v>
+        <v>41.8552</v>
       </c>
       <c r="C15" t="n">
-        <v>53.0042</v>
+        <v>41.7993</v>
       </c>
       <c r="D15" t="n">
-        <v>46.1942</v>
+        <v>54.8218</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0602</v>
+        <v>38.6831</v>
       </c>
       <c r="C16" t="n">
-        <v>46.8821</v>
+        <v>47.4614</v>
       </c>
       <c r="D16" t="n">
-        <v>51.7063</v>
+        <v>51.9109</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.7717</v>
+        <v>38.6646</v>
       </c>
       <c r="C17" t="n">
-        <v>37.7852</v>
+        <v>42.2715</v>
       </c>
       <c r="D17" t="n">
-        <v>38.6005</v>
+        <v>57.2091</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87861</v>
+        <v>8.76549</v>
       </c>
       <c r="C2" t="n">
-        <v>22.2743</v>
+        <v>22.1409</v>
       </c>
       <c r="D2" t="n">
-        <v>29.3197</v>
+        <v>29.3451</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7869</v>
+        <v>16.7878</v>
       </c>
       <c r="C3" t="n">
-        <v>42.1974</v>
+        <v>41.7578</v>
       </c>
       <c r="D3" t="n">
-        <v>55.0795</v>
+        <v>54.9868</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8385</v>
+        <v>23.8289</v>
       </c>
       <c r="C4" t="n">
-        <v>59.3245</v>
+        <v>58.5332</v>
       </c>
       <c r="D4" t="n">
-        <v>76.521</v>
+        <v>76.3515</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1442</v>
+        <v>31.14</v>
       </c>
       <c r="C5" t="n">
-        <v>77.1674</v>
+        <v>76.5887</v>
       </c>
       <c r="D5" t="n">
-        <v>98.40519999999999</v>
+        <v>98.4481</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.495</v>
+        <v>33.5364</v>
       </c>
       <c r="C6" t="n">
-        <v>68.7897</v>
+        <v>68.6887</v>
       </c>
       <c r="D6" t="n">
-        <v>91.9888</v>
+        <v>91.6579</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0858</v>
+        <v>35.95</v>
       </c>
       <c r="C7" t="n">
-        <v>61.2367</v>
+        <v>62.4326</v>
       </c>
       <c r="D7" t="n">
-        <v>91.2868</v>
+        <v>90.12520000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.6639</v>
+        <v>38.6373</v>
       </c>
       <c r="C8" t="n">
-        <v>62.1438</v>
+        <v>61.972</v>
       </c>
       <c r="D8" t="n">
-        <v>92.4466</v>
+        <v>92.0483</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.5708</v>
+        <v>40.7914</v>
       </c>
       <c r="C9" t="n">
-        <v>60.4209</v>
+        <v>60.2856</v>
       </c>
       <c r="D9" t="n">
-        <v>93.32259999999999</v>
+        <v>93.8695</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.5832</v>
+        <v>40.5607</v>
       </c>
       <c r="C10" t="n">
-        <v>65.38339999999999</v>
+        <v>64.4081</v>
       </c>
       <c r="D10" t="n">
-        <v>96.3451</v>
+        <v>96.2195</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.8685</v>
+        <v>40.7794</v>
       </c>
       <c r="C11" t="n">
-        <v>65.9958</v>
+        <v>66.0061</v>
       </c>
       <c r="D11" t="n">
-        <v>96.89449999999999</v>
+        <v>96.2732</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.0249</v>
+        <v>40.9127</v>
       </c>
       <c r="C12" t="n">
-        <v>69.49120000000001</v>
+        <v>69.0765</v>
       </c>
       <c r="D12" t="n">
-        <v>97.7435</v>
+        <v>98.89400000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.8424</v>
+        <v>40.8263</v>
       </c>
       <c r="C13" t="n">
-        <v>70.54519999999999</v>
+        <v>68.8704</v>
       </c>
       <c r="D13" t="n">
-        <v>98.66459999999999</v>
+        <v>97.6574</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.8434</v>
+        <v>40.9552</v>
       </c>
       <c r="C14" t="n">
-        <v>72.7345</v>
+        <v>72.1596</v>
       </c>
       <c r="D14" t="n">
-        <v>98.8085</v>
+        <v>98.81619999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.958</v>
+        <v>40.9267</v>
       </c>
       <c r="C15" t="n">
-        <v>72.33759999999999</v>
+        <v>71.64700000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>98.45659999999999</v>
+        <v>98.9524</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.0406</v>
+        <v>41.0167</v>
       </c>
       <c r="C16" t="n">
-        <v>74.1341</v>
+        <v>73.49079999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>99.202</v>
+        <v>98.2889</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.9761</v>
+        <v>41.0043</v>
       </c>
       <c r="C17" t="n">
-        <v>73.43210000000001</v>
+        <v>73.77419999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>97.2676</v>
+        <v>98.42659999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.894399999999999</v>
+        <v>8.899190000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9791</v>
+        <v>21.7984</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5011</v>
+        <v>29.5352</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8584</v>
+        <v>16.8934</v>
       </c>
       <c r="C3" t="n">
-        <v>41.4327</v>
+        <v>41.2352</v>
       </c>
       <c r="D3" t="n">
-        <v>55.3256</v>
+        <v>55.3739</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0807</v>
+        <v>24.0611</v>
       </c>
       <c r="C4" t="n">
-        <v>58.3627</v>
+        <v>57.9251</v>
       </c>
       <c r="D4" t="n">
-        <v>76.92529999999999</v>
+        <v>77.0885</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.5122</v>
+        <v>31.523</v>
       </c>
       <c r="C5" t="n">
-        <v>76.08150000000001</v>
+        <v>75.4074</v>
       </c>
       <c r="D5" t="n">
-        <v>98.6811</v>
+        <v>99.4629</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9182</v>
+        <v>33.9605</v>
       </c>
       <c r="C6" t="n">
-        <v>68.3967</v>
+        <v>67.55500000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>91.99590000000001</v>
+        <v>92.8884</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5716</v>
+        <v>36.565</v>
       </c>
       <c r="C7" t="n">
-        <v>60.435</v>
+        <v>60.2426</v>
       </c>
       <c r="D7" t="n">
-        <v>91.2687</v>
+        <v>91.2675</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.157</v>
+        <v>39.2003</v>
       </c>
       <c r="C8" t="n">
-        <v>62.6195</v>
+        <v>61.8365</v>
       </c>
       <c r="D8" t="n">
-        <v>93.2371</v>
+        <v>92.4273</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.8345</v>
+        <v>41.4153</v>
       </c>
       <c r="C9" t="n">
-        <v>56.6591</v>
+        <v>58.1447</v>
       </c>
       <c r="D9" t="n">
-        <v>94.3978</v>
+        <v>93.57129999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2151</v>
+        <v>41.2796</v>
       </c>
       <c r="C10" t="n">
-        <v>63.6453</v>
+        <v>64.0626</v>
       </c>
       <c r="D10" t="n">
-        <v>96.23909999999999</v>
+        <v>95.47280000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.2341</v>
+        <v>41.4234</v>
       </c>
       <c r="C11" t="n">
-        <v>64.78360000000001</v>
+        <v>65.34529999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>97.06699999999999</v>
+        <v>97.10760000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.534</v>
+        <v>41.5686</v>
       </c>
       <c r="C12" t="n">
-        <v>69.5547</v>
+        <v>68.7199</v>
       </c>
       <c r="D12" t="n">
-        <v>98.02419999999999</v>
+        <v>99.0107</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.5789</v>
+        <v>41.4475</v>
       </c>
       <c r="C13" t="n">
-        <v>69.7788</v>
+        <v>68.3961</v>
       </c>
       <c r="D13" t="n">
-        <v>97.9204</v>
+        <v>97.19799999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.4563</v>
+        <v>41.4775</v>
       </c>
       <c r="C14" t="n">
-        <v>71.37479999999999</v>
+        <v>70.9902</v>
       </c>
       <c r="D14" t="n">
-        <v>98.27719999999999</v>
+        <v>99.1666</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.5164</v>
+        <v>41.0176</v>
       </c>
       <c r="C15" t="n">
-        <v>72.14490000000001</v>
+        <v>71.3557</v>
       </c>
       <c r="D15" t="n">
-        <v>98.2676</v>
+        <v>98.99420000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.6345</v>
+        <v>41.539</v>
       </c>
       <c r="C16" t="n">
-        <v>73.45189999999999</v>
+        <v>72.9098</v>
       </c>
       <c r="D16" t="n">
-        <v>99.0938</v>
+        <v>98.80029999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.6457</v>
+        <v>41.4249</v>
       </c>
       <c r="C17" t="n">
-        <v>72.0692</v>
+        <v>73.20489999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>98.9318</v>
+        <v>99.11969999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9105</v>
+        <v>13.8979</v>
       </c>
       <c r="C2" t="n">
-        <v>29.2185</v>
+        <v>29.0894</v>
       </c>
       <c r="D2" t="n">
-        <v>35.4133</v>
+        <v>35.3905</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8763</v>
+        <v>26.8882</v>
       </c>
       <c r="C3" t="n">
-        <v>53.5661</v>
+        <v>53.4445</v>
       </c>
       <c r="D3" t="n">
-        <v>63.444</v>
+        <v>63.4011</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.6237</v>
+        <v>38.6129</v>
       </c>
       <c r="C4" t="n">
-        <v>74.8531</v>
+        <v>74.65900000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>86.99769999999999</v>
+        <v>86.27589999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.5279</v>
+        <v>50.5096</v>
       </c>
       <c r="C5" t="n">
-        <v>96.1495</v>
+        <v>96.30459999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>110.086</v>
+        <v>109.73</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.4595</v>
+        <v>49.2712</v>
       </c>
       <c r="C6" t="n">
-        <v>81.87269999999999</v>
+        <v>81.91930000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>96.00369999999999</v>
+        <v>96.0001</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.2541</v>
+        <v>50.8494</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5339</v>
+        <v>67.1123</v>
       </c>
       <c r="D7" t="n">
-        <v>88.4747</v>
+        <v>89.4996</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.5719</v>
+        <v>52.3963</v>
       </c>
       <c r="C8" t="n">
-        <v>65.81010000000001</v>
+        <v>64.7385</v>
       </c>
       <c r="D8" t="n">
-        <v>88.4961</v>
+        <v>88.6639</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.7034</v>
+        <v>54.611</v>
       </c>
       <c r="C9" t="n">
-        <v>58.9109</v>
+        <v>58.833</v>
       </c>
       <c r="D9" t="n">
-        <v>88.41240000000001</v>
+        <v>87.5939</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>54.1522</v>
+        <v>54.0997</v>
       </c>
       <c r="C10" t="n">
-        <v>61.7815</v>
+        <v>62.4273</v>
       </c>
       <c r="D10" t="n">
-        <v>88.1374</v>
+        <v>88.40430000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.2238</v>
+        <v>51.9246</v>
       </c>
       <c r="C11" t="n">
-        <v>62.103</v>
+        <v>64.5399</v>
       </c>
       <c r="D11" t="n">
-        <v>88.37139999999999</v>
+        <v>87.47790000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.5591</v>
+        <v>54.6782</v>
       </c>
       <c r="C12" t="n">
-        <v>65.871</v>
+        <v>66.1014</v>
       </c>
       <c r="D12" t="n">
-        <v>89.80419999999999</v>
+        <v>89.85250000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.3921</v>
+        <v>54.0186</v>
       </c>
       <c r="C13" t="n">
-        <v>65.991</v>
+        <v>66.221</v>
       </c>
       <c r="D13" t="n">
-        <v>88.88209999999999</v>
+        <v>89.5463</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.6487</v>
+        <v>54.7746</v>
       </c>
       <c r="C14" t="n">
-        <v>68.54770000000001</v>
+        <v>68.57170000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>89.63030000000001</v>
+        <v>90.33710000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.0635</v>
+        <v>54.4087</v>
       </c>
       <c r="C15" t="n">
-        <v>68.79389999999999</v>
+        <v>68.9645</v>
       </c>
       <c r="D15" t="n">
-        <v>90.1795</v>
+        <v>89.6596</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.4692</v>
+        <v>54.4122</v>
       </c>
       <c r="C16" t="n">
-        <v>70.2486</v>
+        <v>70.3357</v>
       </c>
       <c r="D16" t="n">
-        <v>90.2897</v>
+        <v>90.18770000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.3123</v>
+        <v>54.6029</v>
       </c>
       <c r="C17" t="n">
-        <v>69.9104</v>
+        <v>70.0682</v>
       </c>
       <c r="D17" t="n">
-        <v>90.3959</v>
+        <v>90.64149999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3432</v>
+        <v>13.9809</v>
       </c>
       <c r="C2" t="n">
-        <v>25.3558</v>
+        <v>24.6246</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2135</v>
+        <v>28.2817</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.6894</v>
+        <v>27.1401</v>
       </c>
       <c r="C3" t="n">
-        <v>37.7898</v>
+        <v>31.3198</v>
       </c>
       <c r="D3" t="n">
-        <v>45.608</v>
+        <v>51.6401</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8586</v>
+        <v>31.4292</v>
       </c>
       <c r="C4" t="n">
-        <v>47.8444</v>
+        <v>48.937</v>
       </c>
       <c r="D4" t="n">
-        <v>52.5644</v>
+        <v>50.7545</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.7057</v>
+        <v>39.0155</v>
       </c>
       <c r="C5" t="n">
-        <v>55.2787</v>
+        <v>56.2079</v>
       </c>
       <c r="D5" t="n">
-        <v>84.0774</v>
+        <v>62.4008</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.6183</v>
+        <v>37.5555</v>
       </c>
       <c r="C6" t="n">
-        <v>54.2551</v>
+        <v>49.2686</v>
       </c>
       <c r="D6" t="n">
-        <v>63.2958</v>
+        <v>63.6783</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.9911</v>
+        <v>38.2278</v>
       </c>
       <c r="C7" t="n">
-        <v>52.4245</v>
+        <v>45.1534</v>
       </c>
       <c r="D7" t="n">
-        <v>56.1566</v>
+        <v>58.5108</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.0802</v>
+        <v>38.3599</v>
       </c>
       <c r="C8" t="n">
-        <v>50.7538</v>
+        <v>45.9198</v>
       </c>
       <c r="D8" t="n">
-        <v>57.2325</v>
+        <v>58.1443</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>46.7863</v>
+        <v>42.1844</v>
       </c>
       <c r="C9" t="n">
-        <v>48.8623</v>
+        <v>50.5526</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0867</v>
+        <v>54.019</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.2232</v>
+        <v>46.7405</v>
       </c>
       <c r="C10" t="n">
-        <v>52.7455</v>
+        <v>52.7244</v>
       </c>
       <c r="D10" t="n">
-        <v>60.5888</v>
+        <v>58.7093</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.6947</v>
+        <v>47.5125</v>
       </c>
       <c r="C11" t="n">
-        <v>53.4585</v>
+        <v>54.4345</v>
       </c>
       <c r="D11" t="n">
-        <v>57.6109</v>
+        <v>58.4017</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.4843</v>
+        <v>42.6269</v>
       </c>
       <c r="C12" t="n">
-        <v>51.9781</v>
+        <v>54.5324</v>
       </c>
       <c r="D12" t="n">
-        <v>55.756</v>
+        <v>61.8564</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7634</v>
+        <v>43.7772</v>
       </c>
       <c r="C13" t="n">
-        <v>51.153</v>
+        <v>51.9972</v>
       </c>
       <c r="D13" t="n">
-        <v>59.5716</v>
+        <v>59.7936</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>47.3382</v>
+        <v>41.9881</v>
       </c>
       <c r="C14" t="n">
-        <v>55.5053</v>
+        <v>52.2406</v>
       </c>
       <c r="D14" t="n">
-        <v>57.8718</v>
+        <v>59.4808</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>39.0713</v>
+        <v>41.6062</v>
       </c>
       <c r="C15" t="n">
-        <v>56.9638</v>
+        <v>54.5091</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0834</v>
+        <v>59.0777</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.9286</v>
+        <v>45.227</v>
       </c>
       <c r="C16" t="n">
-        <v>53.1368</v>
+        <v>56.1423</v>
       </c>
       <c r="D16" t="n">
-        <v>57.0438</v>
+        <v>59.21</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.0379</v>
+        <v>46.1847</v>
       </c>
       <c r="C17" t="n">
-        <v>55.9058</v>
+        <v>47.4761</v>
       </c>
       <c r="D17" t="n">
-        <v>61.3613</v>
+        <v>55.0835</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9139</v>
+        <v>14.9605</v>
       </c>
       <c r="C2" t="n">
-        <v>24.5871</v>
+        <v>24.6427</v>
       </c>
       <c r="D2" t="n">
-        <v>30.4859</v>
+        <v>31.3566</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8293</v>
+        <v>26.9184</v>
       </c>
       <c r="C3" t="n">
-        <v>35.2248</v>
+        <v>34.1514</v>
       </c>
       <c r="D3" t="n">
-        <v>44.4166</v>
+        <v>49.3931</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.558</v>
+        <v>31.4741</v>
       </c>
       <c r="C4" t="n">
-        <v>49.8048</v>
+        <v>49.4148</v>
       </c>
       <c r="D4" t="n">
-        <v>52.7182</v>
+        <v>51.2326</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.6865</v>
+        <v>39.4348</v>
       </c>
       <c r="C5" t="n">
-        <v>66.63549999999999</v>
+        <v>58.9208</v>
       </c>
       <c r="D5" t="n">
-        <v>69.7829</v>
+        <v>63.6312</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.361</v>
+        <v>42.3342</v>
       </c>
       <c r="C6" t="n">
-        <v>52.4708</v>
+        <v>53.112</v>
       </c>
       <c r="D6" t="n">
-        <v>58.2837</v>
+        <v>59.9713</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.2086</v>
+        <v>43.5085</v>
       </c>
       <c r="C7" t="n">
-        <v>46.4355</v>
+        <v>56.3884</v>
       </c>
       <c r="D7" t="n">
-        <v>57.9362</v>
+        <v>65.51600000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.6675</v>
+        <v>42.4973</v>
       </c>
       <c r="C8" t="n">
-        <v>49.7195</v>
+        <v>54.0468</v>
       </c>
       <c r="D8" t="n">
-        <v>56.6325</v>
+        <v>61.3449</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.3714</v>
+        <v>40.9</v>
       </c>
       <c r="C9" t="n">
-        <v>48.5499</v>
+        <v>44.1939</v>
       </c>
       <c r="D9" t="n">
-        <v>68.9182</v>
+        <v>60.8245</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.6701</v>
+        <v>44.4574</v>
       </c>
       <c r="C10" t="n">
-        <v>48.2184</v>
+        <v>47.9281</v>
       </c>
       <c r="D10" t="n">
-        <v>55.7019</v>
+        <v>60.1269</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.8378</v>
+        <v>40.7275</v>
       </c>
       <c r="C11" t="n">
-        <v>51.0753</v>
+        <v>45.6892</v>
       </c>
       <c r="D11" t="n">
-        <v>59.7562</v>
+        <v>54.6412</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.1411</v>
+        <v>42.8318</v>
       </c>
       <c r="C12" t="n">
-        <v>51.3408</v>
+        <v>48.2103</v>
       </c>
       <c r="D12" t="n">
-        <v>57.6157</v>
+        <v>58.3719</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.7274</v>
+        <v>41.8037</v>
       </c>
       <c r="C13" t="n">
-        <v>55.6465</v>
+        <v>52.7693</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6971</v>
+        <v>58.7739</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.1031</v>
+        <v>43.1819</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2028</v>
+        <v>50.4995</v>
       </c>
       <c r="D14" t="n">
-        <v>62.8405</v>
+        <v>57.3244</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.7394</v>
+        <v>44.4528</v>
       </c>
       <c r="C15" t="n">
-        <v>49.0469</v>
+        <v>54.9994</v>
       </c>
       <c r="D15" t="n">
-        <v>58.4551</v>
+        <v>54.224</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>50.4374</v>
+        <v>43.6379</v>
       </c>
       <c r="C16" t="n">
-        <v>58.698</v>
+        <v>56.2336</v>
       </c>
       <c r="D16" t="n">
-        <v>55.5243</v>
+        <v>57.1638</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.943</v>
+        <v>45.4848</v>
       </c>
       <c r="C17" t="n">
-        <v>52.9891</v>
+        <v>55.8959</v>
       </c>
       <c r="D17" t="n">
-        <v>58.2169</v>
+        <v>57.2366</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4302</v>
+        <v>18.4567</v>
       </c>
       <c r="C2" t="n">
-        <v>28.0506</v>
+        <v>27.5624</v>
       </c>
       <c r="D2" t="n">
-        <v>30.057</v>
+        <v>32.1202</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.4397</v>
+        <v>30.8785</v>
       </c>
       <c r="C3" t="n">
-        <v>38.1081</v>
+        <v>40.6326</v>
       </c>
       <c r="D3" t="n">
-        <v>49.5231</v>
+        <v>47.9111</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.1409</v>
+        <v>34.5078</v>
       </c>
       <c r="C4" t="n">
-        <v>51.1964</v>
+        <v>52.4124</v>
       </c>
       <c r="D4" t="n">
-        <v>61.5064</v>
+        <v>52.0193</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.4318</v>
+        <v>48.4456</v>
       </c>
       <c r="C5" t="n">
-        <v>58.741</v>
+        <v>57.3675</v>
       </c>
       <c r="D5" t="n">
-        <v>79.1871</v>
+        <v>72.712</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.6674</v>
+        <v>43.14</v>
       </c>
       <c r="C6" t="n">
-        <v>53.5992</v>
+        <v>53.747</v>
       </c>
       <c r="D6" t="n">
-        <v>50.5907</v>
+        <v>58.4903</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.7565</v>
+        <v>37.8483</v>
       </c>
       <c r="C7" t="n">
-        <v>55.428</v>
+        <v>53.864</v>
       </c>
       <c r="D7" t="n">
-        <v>55.7888</v>
+        <v>56.524</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.0545</v>
+        <v>37.2784</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8778</v>
+        <v>55.1224</v>
       </c>
       <c r="D8" t="n">
-        <v>59.0344</v>
+        <v>60.2178</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.8169</v>
+        <v>45.152</v>
       </c>
       <c r="C9" t="n">
-        <v>55.9659</v>
+        <v>40.5904</v>
       </c>
       <c r="D9" t="n">
-        <v>56.2877</v>
+        <v>58.2024</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.7307</v>
+        <v>43.7255</v>
       </c>
       <c r="C10" t="n">
-        <v>47.8313</v>
+        <v>51.1449</v>
       </c>
       <c r="D10" t="n">
-        <v>56.2091</v>
+        <v>62.8408</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39.9832</v>
+        <v>44.3714</v>
       </c>
       <c r="C11" t="n">
-        <v>45.7826</v>
+        <v>52.7019</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0178</v>
+        <v>53.6342</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.0134</v>
+        <v>37.2432</v>
       </c>
       <c r="C12" t="n">
-        <v>49.6001</v>
+        <v>49.2988</v>
       </c>
       <c r="D12" t="n">
-        <v>58.2443</v>
+        <v>58.2828</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.6853</v>
+        <v>37.1251</v>
       </c>
       <c r="C13" t="n">
-        <v>42.6495</v>
+        <v>43.8343</v>
       </c>
       <c r="D13" t="n">
-        <v>55.6983</v>
+        <v>56.5718</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.4468</v>
+        <v>39.8822</v>
       </c>
       <c r="C14" t="n">
-        <v>42.2131</v>
+        <v>44.2124</v>
       </c>
       <c r="D14" t="n">
-        <v>51.0205</v>
+        <v>47.03</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.8552</v>
+        <v>38.5733</v>
       </c>
       <c r="C15" t="n">
-        <v>41.7993</v>
+        <v>39.6681</v>
       </c>
       <c r="D15" t="n">
-        <v>54.8218</v>
+        <v>51.7343</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>38.6831</v>
+        <v>41.5778</v>
       </c>
       <c r="C16" t="n">
-        <v>47.4614</v>
+        <v>34.941</v>
       </c>
       <c r="D16" t="n">
-        <v>51.9109</v>
+        <v>44.9887</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.6646</v>
+        <v>48.5974</v>
       </c>
       <c r="C17" t="n">
-        <v>42.2715</v>
+        <v>35.3638</v>
       </c>
       <c r="D17" t="n">
-        <v>57.2091</v>
+        <v>47.1643</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.76549</v>
+        <v>8.845800000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>22.1409</v>
+        <v>22.112</v>
       </c>
       <c r="D2" t="n">
-        <v>29.3451</v>
+        <v>29.3243</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7878</v>
+        <v>16.7635</v>
       </c>
       <c r="C3" t="n">
-        <v>41.7578</v>
+        <v>41.7133</v>
       </c>
       <c r="D3" t="n">
-        <v>54.9868</v>
+        <v>54.7978</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8289</v>
+        <v>23.7992</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5332</v>
+        <v>58.6756</v>
       </c>
       <c r="D4" t="n">
-        <v>76.3515</v>
+        <v>76.4661</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.14</v>
+        <v>31.1256</v>
       </c>
       <c r="C5" t="n">
-        <v>76.5887</v>
+        <v>76.3908</v>
       </c>
       <c r="D5" t="n">
-        <v>98.4481</v>
+        <v>98.1353</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.5364</v>
+        <v>33.5044</v>
       </c>
       <c r="C6" t="n">
-        <v>68.6887</v>
+        <v>68.3424</v>
       </c>
       <c r="D6" t="n">
-        <v>91.6579</v>
+        <v>92.4766</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.95</v>
+        <v>35.9734</v>
       </c>
       <c r="C7" t="n">
-        <v>62.4326</v>
+        <v>60.4425</v>
       </c>
       <c r="D7" t="n">
-        <v>90.12520000000001</v>
+        <v>90.2998</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.6373</v>
+        <v>38.4912</v>
       </c>
       <c r="C8" t="n">
-        <v>61.972</v>
+        <v>61.809</v>
       </c>
       <c r="D8" t="n">
-        <v>92.0483</v>
+        <v>92.9222</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.7914</v>
+        <v>40.3393</v>
       </c>
       <c r="C9" t="n">
-        <v>60.2856</v>
+        <v>59.4875</v>
       </c>
       <c r="D9" t="n">
-        <v>93.8695</v>
+        <v>93.16889999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.5607</v>
+        <v>40.3161</v>
       </c>
       <c r="C10" t="n">
-        <v>64.4081</v>
+        <v>64.0655</v>
       </c>
       <c r="D10" t="n">
-        <v>96.2195</v>
+        <v>96.21810000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7794</v>
+        <v>40.5608</v>
       </c>
       <c r="C11" t="n">
-        <v>66.0061</v>
+        <v>66.0252</v>
       </c>
       <c r="D11" t="n">
-        <v>96.2732</v>
+        <v>97.5476</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.9127</v>
+        <v>40.6717</v>
       </c>
       <c r="C12" t="n">
-        <v>69.0765</v>
+        <v>68.511</v>
       </c>
       <c r="D12" t="n">
-        <v>98.89400000000001</v>
+        <v>98.33199999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.8263</v>
+        <v>40.7461</v>
       </c>
       <c r="C13" t="n">
-        <v>68.8704</v>
+        <v>69.92870000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>97.6574</v>
+        <v>97.91370000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.9552</v>
+        <v>40.6861</v>
       </c>
       <c r="C14" t="n">
-        <v>72.1596</v>
+        <v>71.53149999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>98.81619999999999</v>
+        <v>98.66630000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.9267</v>
+        <v>40.7053</v>
       </c>
       <c r="C15" t="n">
-        <v>71.64700000000001</v>
+        <v>72.32170000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>98.9524</v>
+        <v>97.8985</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.0167</v>
+        <v>40.7402</v>
       </c>
       <c r="C16" t="n">
-        <v>73.49079999999999</v>
+        <v>73.2223</v>
       </c>
       <c r="D16" t="n">
-        <v>98.2889</v>
+        <v>98.1057</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.0043</v>
+        <v>40.8159</v>
       </c>
       <c r="C17" t="n">
-        <v>73.77419999999999</v>
+        <v>73.2855</v>
       </c>
       <c r="D17" t="n">
-        <v>98.42659999999999</v>
+        <v>98.3954</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.899190000000001</v>
+        <v>8.88227</v>
       </c>
       <c r="C2" t="n">
-        <v>21.7984</v>
+        <v>21.8188</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5352</v>
+        <v>29.4531</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8934</v>
+        <v>16.8555</v>
       </c>
       <c r="C3" t="n">
-        <v>41.2352</v>
+        <v>41.111</v>
       </c>
       <c r="D3" t="n">
-        <v>55.3739</v>
+        <v>55.3054</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0611</v>
+        <v>24.0208</v>
       </c>
       <c r="C4" t="n">
-        <v>57.9251</v>
+        <v>57.9076</v>
       </c>
       <c r="D4" t="n">
-        <v>77.0885</v>
+        <v>77.0553</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.523</v>
+        <v>31.466</v>
       </c>
       <c r="C5" t="n">
-        <v>75.4074</v>
+        <v>75.6134</v>
       </c>
       <c r="D5" t="n">
-        <v>99.4629</v>
+        <v>99.1123</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9605</v>
+        <v>33.8605</v>
       </c>
       <c r="C6" t="n">
-        <v>67.55500000000001</v>
+        <v>67.7471</v>
       </c>
       <c r="D6" t="n">
-        <v>92.8884</v>
+        <v>92.8459</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.565</v>
+        <v>36.5458</v>
       </c>
       <c r="C7" t="n">
-        <v>60.2426</v>
+        <v>60.5343</v>
       </c>
       <c r="D7" t="n">
-        <v>91.2675</v>
+        <v>90.6746</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.2003</v>
+        <v>39.1388</v>
       </c>
       <c r="C8" t="n">
-        <v>61.8365</v>
+        <v>60.9347</v>
       </c>
       <c r="D8" t="n">
-        <v>92.4273</v>
+        <v>92.5009</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.4153</v>
+        <v>40.9465</v>
       </c>
       <c r="C9" t="n">
-        <v>58.1447</v>
+        <v>59.4012</v>
       </c>
       <c r="D9" t="n">
-        <v>93.57129999999999</v>
+        <v>94.0138</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2796</v>
+        <v>40.9593</v>
       </c>
       <c r="C10" t="n">
-        <v>64.0626</v>
+        <v>64.16889999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>95.47280000000001</v>
+        <v>95.2704</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.4234</v>
+        <v>41.2188</v>
       </c>
       <c r="C11" t="n">
-        <v>65.34529999999999</v>
+        <v>66.01739999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>97.10760000000001</v>
+        <v>96.568</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.5686</v>
+        <v>41.2549</v>
       </c>
       <c r="C12" t="n">
-        <v>68.7199</v>
+        <v>68.9218</v>
       </c>
       <c r="D12" t="n">
-        <v>99.0107</v>
+        <v>98.34650000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.4475</v>
+        <v>41.4496</v>
       </c>
       <c r="C13" t="n">
-        <v>68.3961</v>
+        <v>69.80929999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>97.19799999999999</v>
+        <v>97.6396</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.4775</v>
+        <v>41.3928</v>
       </c>
       <c r="C14" t="n">
-        <v>70.9902</v>
+        <v>71.1427</v>
       </c>
       <c r="D14" t="n">
-        <v>99.1666</v>
+        <v>98.8462</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.0176</v>
+        <v>41.3204</v>
       </c>
       <c r="C15" t="n">
-        <v>71.3557</v>
+        <v>71.4218</v>
       </c>
       <c r="D15" t="n">
-        <v>98.99420000000001</v>
+        <v>98.3293</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.539</v>
+        <v>41.4988</v>
       </c>
       <c r="C16" t="n">
-        <v>72.9098</v>
+        <v>72.1943</v>
       </c>
       <c r="D16" t="n">
-        <v>98.80029999999999</v>
+        <v>99.21899999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4249</v>
+        <v>41.3444</v>
       </c>
       <c r="C17" t="n">
-        <v>73.20489999999999</v>
+        <v>72.9425</v>
       </c>
       <c r="D17" t="n">
-        <v>99.11969999999999</v>
+        <v>98.50239999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8979</v>
+        <v>13.9324</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0894</v>
+        <v>29.0969</v>
       </c>
       <c r="D2" t="n">
-        <v>35.3905</v>
+        <v>35.5162</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8882</v>
+        <v>26.8594</v>
       </c>
       <c r="C3" t="n">
-        <v>53.4445</v>
+        <v>53.4364</v>
       </c>
       <c r="D3" t="n">
-        <v>63.4011</v>
+        <v>63.3851</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.6129</v>
+        <v>38.862</v>
       </c>
       <c r="C4" t="n">
-        <v>74.65900000000001</v>
+        <v>74.40600000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>86.27589999999999</v>
+        <v>86.9722</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.5096</v>
+        <v>50.6309</v>
       </c>
       <c r="C5" t="n">
-        <v>96.30459999999999</v>
+        <v>96.905</v>
       </c>
       <c r="D5" t="n">
-        <v>109.73</v>
+        <v>110.855</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.2712</v>
+        <v>49.3774</v>
       </c>
       <c r="C6" t="n">
-        <v>81.91930000000001</v>
+        <v>81.9525</v>
       </c>
       <c r="D6" t="n">
-        <v>96.0001</v>
+        <v>96.49160000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50.8494</v>
+        <v>50.8931</v>
       </c>
       <c r="C7" t="n">
-        <v>67.1123</v>
+        <v>66.8301</v>
       </c>
       <c r="D7" t="n">
-        <v>89.4996</v>
+        <v>89.3103</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.3963</v>
+        <v>52.6813</v>
       </c>
       <c r="C8" t="n">
-        <v>64.7385</v>
+        <v>65.5372</v>
       </c>
       <c r="D8" t="n">
-        <v>88.6639</v>
+        <v>88.84610000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.611</v>
+        <v>54.8699</v>
       </c>
       <c r="C9" t="n">
-        <v>58.833</v>
+        <v>59.3268</v>
       </c>
       <c r="D9" t="n">
-        <v>87.5939</v>
+        <v>87.8844</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>54.0997</v>
+        <v>54.6518</v>
       </c>
       <c r="C10" t="n">
-        <v>62.4273</v>
+        <v>61.5268</v>
       </c>
       <c r="D10" t="n">
-        <v>88.40430000000001</v>
+        <v>88.8621</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>51.9246</v>
+        <v>54.467</v>
       </c>
       <c r="C11" t="n">
-        <v>64.5399</v>
+        <v>62.0965</v>
       </c>
       <c r="D11" t="n">
-        <v>87.47790000000001</v>
+        <v>88.4341</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.6782</v>
+        <v>54.1486</v>
       </c>
       <c r="C12" t="n">
-        <v>66.1014</v>
+        <v>65.9567</v>
       </c>
       <c r="D12" t="n">
-        <v>89.85250000000001</v>
+        <v>89.8198</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.0186</v>
+        <v>52.8412</v>
       </c>
       <c r="C13" t="n">
-        <v>66.221</v>
+        <v>68.7689</v>
       </c>
       <c r="D13" t="n">
-        <v>89.5463</v>
+        <v>89.7457</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.7746</v>
+        <v>54.3409</v>
       </c>
       <c r="C14" t="n">
-        <v>68.57170000000001</v>
+        <v>68.5647</v>
       </c>
       <c r="D14" t="n">
-        <v>90.33710000000001</v>
+        <v>90.40260000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.4087</v>
+        <v>54.278</v>
       </c>
       <c r="C15" t="n">
-        <v>68.9645</v>
+        <v>68.5526</v>
       </c>
       <c r="D15" t="n">
-        <v>89.6596</v>
+        <v>90.35420000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.4122</v>
+        <v>54.5994</v>
       </c>
       <c r="C16" t="n">
-        <v>70.3357</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>90.18770000000001</v>
+        <v>90.34529999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.6029</v>
+        <v>54.5713</v>
       </c>
       <c r="C17" t="n">
-        <v>70.0682</v>
+        <v>70.288</v>
       </c>
       <c r="D17" t="n">
-        <v>90.64149999999999</v>
+        <v>89.9632</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9809</v>
+        <v>14.2164</v>
       </c>
       <c r="C2" t="n">
-        <v>24.6246</v>
+        <v>25.2978</v>
       </c>
       <c r="D2" t="n">
-        <v>28.2817</v>
+        <v>31.4294</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.1401</v>
+        <v>26.9548</v>
       </c>
       <c r="C3" t="n">
-        <v>31.3198</v>
+        <v>34.6203</v>
       </c>
       <c r="D3" t="n">
-        <v>51.6401</v>
+        <v>44.9225</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.4292</v>
+        <v>31.2604</v>
       </c>
       <c r="C4" t="n">
-        <v>48.937</v>
+        <v>50.0357</v>
       </c>
       <c r="D4" t="n">
-        <v>50.7545</v>
+        <v>51.8519</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.0155</v>
+        <v>38.735</v>
       </c>
       <c r="C5" t="n">
-        <v>56.2079</v>
+        <v>59.0226</v>
       </c>
       <c r="D5" t="n">
-        <v>62.4008</v>
+        <v>74.0528</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.5555</v>
+        <v>37.057</v>
       </c>
       <c r="C6" t="n">
-        <v>49.2686</v>
+        <v>52.4493</v>
       </c>
       <c r="D6" t="n">
-        <v>63.6783</v>
+        <v>64.1935</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.2278</v>
+        <v>41.266</v>
       </c>
       <c r="C7" t="n">
-        <v>45.1534</v>
+        <v>46.1522</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5108</v>
+        <v>57.9636</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.3599</v>
+        <v>46.7127</v>
       </c>
       <c r="C8" t="n">
-        <v>45.9198</v>
+        <v>47.5114</v>
       </c>
       <c r="D8" t="n">
-        <v>58.1443</v>
+        <v>57.5621</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.1844</v>
+        <v>45.7425</v>
       </c>
       <c r="C9" t="n">
-        <v>50.5526</v>
+        <v>51.0599</v>
       </c>
       <c r="D9" t="n">
-        <v>54.019</v>
+        <v>56.0582</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>46.7405</v>
+        <v>41.8745</v>
       </c>
       <c r="C10" t="n">
-        <v>52.7244</v>
+        <v>50.8982</v>
       </c>
       <c r="D10" t="n">
-        <v>58.7093</v>
+        <v>59.4872</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>47.5125</v>
+        <v>42.9185</v>
       </c>
       <c r="C11" t="n">
-        <v>54.4345</v>
+        <v>52.5464</v>
       </c>
       <c r="D11" t="n">
-        <v>58.4017</v>
+        <v>62.3021</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.6269</v>
+        <v>44.0739</v>
       </c>
       <c r="C12" t="n">
-        <v>54.5324</v>
+        <v>54.2434</v>
       </c>
       <c r="D12" t="n">
-        <v>61.8564</v>
+        <v>63.0068</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.7772</v>
+        <v>42.2346</v>
       </c>
       <c r="C13" t="n">
-        <v>51.9972</v>
+        <v>49.2008</v>
       </c>
       <c r="D13" t="n">
-        <v>59.7936</v>
+        <v>56.254</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.9881</v>
+        <v>42.4539</v>
       </c>
       <c r="C14" t="n">
-        <v>52.2406</v>
+        <v>53.8177</v>
       </c>
       <c r="D14" t="n">
-        <v>59.4808</v>
+        <v>63.5697</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.6062</v>
+        <v>41.8184</v>
       </c>
       <c r="C15" t="n">
-        <v>54.5091</v>
+        <v>53.6132</v>
       </c>
       <c r="D15" t="n">
-        <v>59.0777</v>
+        <v>55.0069</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>45.227</v>
+        <v>47.2418</v>
       </c>
       <c r="C16" t="n">
-        <v>56.1423</v>
+        <v>55.7049</v>
       </c>
       <c r="D16" t="n">
-        <v>59.21</v>
+        <v>62.8641</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.1847</v>
+        <v>46.2943</v>
       </c>
       <c r="C17" t="n">
-        <v>47.4761</v>
+        <v>55.2923</v>
       </c>
       <c r="D17" t="n">
-        <v>55.0835</v>
+        <v>64.50149999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9605</v>
+        <v>14.9625</v>
       </c>
       <c r="C2" t="n">
-        <v>24.6427</v>
+        <v>25.0179</v>
       </c>
       <c r="D2" t="n">
-        <v>31.3566</v>
+        <v>29.974</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9184</v>
+        <v>27.8612</v>
       </c>
       <c r="C3" t="n">
-        <v>34.1514</v>
+        <v>37.8209</v>
       </c>
       <c r="D3" t="n">
-        <v>49.3931</v>
+        <v>48.4855</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.4741</v>
+        <v>31.6199</v>
       </c>
       <c r="C4" t="n">
-        <v>49.4148</v>
+        <v>48.4381</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2326</v>
+        <v>59.3195</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.4348</v>
+        <v>43.7636</v>
       </c>
       <c r="C5" t="n">
-        <v>58.9208</v>
+        <v>57.1815</v>
       </c>
       <c r="D5" t="n">
-        <v>63.6312</v>
+        <v>64.1405</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.3342</v>
+        <v>38.3296</v>
       </c>
       <c r="C6" t="n">
-        <v>53.112</v>
+        <v>54.903</v>
       </c>
       <c r="D6" t="n">
-        <v>59.9713</v>
+        <v>65.1193</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.5085</v>
+        <v>41.2284</v>
       </c>
       <c r="C7" t="n">
-        <v>56.3884</v>
+        <v>47.7505</v>
       </c>
       <c r="D7" t="n">
-        <v>65.51600000000001</v>
+        <v>68.9362</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.4973</v>
+        <v>41.6175</v>
       </c>
       <c r="C8" t="n">
-        <v>54.0468</v>
+        <v>56.0326</v>
       </c>
       <c r="D8" t="n">
-        <v>61.3449</v>
+        <v>57.6245</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.9</v>
+        <v>44.4716</v>
       </c>
       <c r="C9" t="n">
-        <v>44.1939</v>
+        <v>50.5583</v>
       </c>
       <c r="D9" t="n">
-        <v>60.8245</v>
+        <v>62.192</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.4574</v>
+        <v>46.4235</v>
       </c>
       <c r="C10" t="n">
-        <v>47.9281</v>
+        <v>50.6909</v>
       </c>
       <c r="D10" t="n">
-        <v>60.1269</v>
+        <v>59.1402</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7275</v>
+        <v>44.1232</v>
       </c>
       <c r="C11" t="n">
-        <v>45.6892</v>
+        <v>49.2302</v>
       </c>
       <c r="D11" t="n">
-        <v>54.6412</v>
+        <v>60.9998</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.8318</v>
+        <v>46.6012</v>
       </c>
       <c r="C12" t="n">
-        <v>48.2103</v>
+        <v>54.1786</v>
       </c>
       <c r="D12" t="n">
-        <v>58.3719</v>
+        <v>61.6458</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.8037</v>
+        <v>44.39</v>
       </c>
       <c r="C13" t="n">
-        <v>52.7693</v>
+        <v>50.4759</v>
       </c>
       <c r="D13" t="n">
-        <v>58.7739</v>
+        <v>58.4364</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.1819</v>
+        <v>41.5631</v>
       </c>
       <c r="C14" t="n">
-        <v>50.4995</v>
+        <v>54.191</v>
       </c>
       <c r="D14" t="n">
-        <v>57.3244</v>
+        <v>59.6416</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.4528</v>
+        <v>46.8759</v>
       </c>
       <c r="C15" t="n">
-        <v>54.9994</v>
+        <v>49.0588</v>
       </c>
       <c r="D15" t="n">
-        <v>54.224</v>
+        <v>61.9118</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.6379</v>
+        <v>43.0938</v>
       </c>
       <c r="C16" t="n">
-        <v>56.2336</v>
+        <v>58.7663</v>
       </c>
       <c r="D16" t="n">
-        <v>57.1638</v>
+        <v>57.721</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.4848</v>
+        <v>46.1661</v>
       </c>
       <c r="C17" t="n">
-        <v>55.8959</v>
+        <v>46.8926</v>
       </c>
       <c r="D17" t="n">
-        <v>57.2366</v>
+        <v>58.2528</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4567</v>
+        <v>18.262</v>
       </c>
       <c r="C2" t="n">
-        <v>27.5624</v>
+        <v>27.9142</v>
       </c>
       <c r="D2" t="n">
-        <v>32.1202</v>
+        <v>32.7205</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.8785</v>
+        <v>31.2964</v>
       </c>
       <c r="C3" t="n">
-        <v>40.6326</v>
+        <v>36.4943</v>
       </c>
       <c r="D3" t="n">
-        <v>47.9111</v>
+        <v>48.1876</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5078</v>
+        <v>33.0738</v>
       </c>
       <c r="C4" t="n">
-        <v>52.4124</v>
+        <v>50.4813</v>
       </c>
       <c r="D4" t="n">
-        <v>52.0193</v>
+        <v>57.8658</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48.4456</v>
+        <v>48.2641</v>
       </c>
       <c r="C5" t="n">
-        <v>57.3675</v>
+        <v>58.3662</v>
       </c>
       <c r="D5" t="n">
-        <v>72.712</v>
+        <v>72.59050000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43.14</v>
+        <v>37.5565</v>
       </c>
       <c r="C6" t="n">
-        <v>53.747</v>
+        <v>54.6672</v>
       </c>
       <c r="D6" t="n">
-        <v>58.4903</v>
+        <v>61.3419</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.8483</v>
+        <v>40.3451</v>
       </c>
       <c r="C7" t="n">
-        <v>53.864</v>
+        <v>54.8168</v>
       </c>
       <c r="D7" t="n">
-        <v>56.524</v>
+        <v>58.551</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.2784</v>
+        <v>41.4816</v>
       </c>
       <c r="C8" t="n">
-        <v>55.1224</v>
+        <v>54.5792</v>
       </c>
       <c r="D8" t="n">
-        <v>60.2178</v>
+        <v>55.8379</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45.152</v>
+        <v>43.9066</v>
       </c>
       <c r="C9" t="n">
-        <v>40.5904</v>
+        <v>44.1772</v>
       </c>
       <c r="D9" t="n">
-        <v>58.2024</v>
+        <v>57.462</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.7255</v>
+        <v>43.861</v>
       </c>
       <c r="C10" t="n">
-        <v>51.1449</v>
+        <v>52.9587</v>
       </c>
       <c r="D10" t="n">
-        <v>62.8408</v>
+        <v>58.1336</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.3714</v>
+        <v>42.4966</v>
       </c>
       <c r="C11" t="n">
-        <v>52.7019</v>
+        <v>44.1126</v>
       </c>
       <c r="D11" t="n">
-        <v>53.6342</v>
+        <v>49.7071</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.2432</v>
+        <v>45.1212</v>
       </c>
       <c r="C12" t="n">
-        <v>49.2988</v>
+        <v>48.9951</v>
       </c>
       <c r="D12" t="n">
-        <v>58.2828</v>
+        <v>55.3103</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.1251</v>
+        <v>41.2371</v>
       </c>
       <c r="C13" t="n">
-        <v>43.8343</v>
+        <v>49.2916</v>
       </c>
       <c r="D13" t="n">
-        <v>56.5718</v>
+        <v>53.7495</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>39.8822</v>
+        <v>46.1044</v>
       </c>
       <c r="C14" t="n">
-        <v>44.2124</v>
+        <v>48.3845</v>
       </c>
       <c r="D14" t="n">
-        <v>47.03</v>
+        <v>56.9354</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.5733</v>
+        <v>36.1549</v>
       </c>
       <c r="C15" t="n">
-        <v>39.6681</v>
+        <v>52.0738</v>
       </c>
       <c r="D15" t="n">
-        <v>51.7343</v>
+        <v>53.8145</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.5778</v>
+        <v>36.3532</v>
       </c>
       <c r="C16" t="n">
-        <v>34.941</v>
+        <v>46.6886</v>
       </c>
       <c r="D16" t="n">
-        <v>44.9887</v>
+        <v>38.8485</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>48.5974</v>
+        <v>41.6609</v>
       </c>
       <c r="C17" t="n">
-        <v>35.3638</v>
+        <v>44.8721</v>
       </c>
       <c r="D17" t="n">
-        <v>47.1643</v>
+        <v>59.1381</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.845800000000001</v>
+        <v>8.81523</v>
       </c>
       <c r="C2" t="n">
-        <v>22.112</v>
+        <v>22.1066</v>
       </c>
       <c r="D2" t="n">
-        <v>29.3243</v>
+        <v>29.495</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7635</v>
+        <v>16.7668</v>
       </c>
       <c r="C3" t="n">
-        <v>41.7133</v>
+        <v>41.6802</v>
       </c>
       <c r="D3" t="n">
-        <v>54.7978</v>
+        <v>55.485</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7992</v>
+        <v>23.8047</v>
       </c>
       <c r="C4" t="n">
-        <v>58.6756</v>
+        <v>58.6548</v>
       </c>
       <c r="D4" t="n">
-        <v>76.4661</v>
+        <v>77.1041</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1256</v>
+        <v>31.1618</v>
       </c>
       <c r="C5" t="n">
-        <v>76.3908</v>
+        <v>77.0314</v>
       </c>
       <c r="D5" t="n">
-        <v>98.1353</v>
+        <v>99.2453</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.5044</v>
+        <v>33.4792</v>
       </c>
       <c r="C6" t="n">
-        <v>68.3424</v>
+        <v>68.69070000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>92.4766</v>
+        <v>92.3678</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9734</v>
+        <v>35.9508</v>
       </c>
       <c r="C7" t="n">
-        <v>60.4425</v>
+        <v>60.1128</v>
       </c>
       <c r="D7" t="n">
-        <v>90.2998</v>
+        <v>90.7298</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4912</v>
+        <v>38.4598</v>
       </c>
       <c r="C8" t="n">
-        <v>61.809</v>
+        <v>62.1366</v>
       </c>
       <c r="D8" t="n">
-        <v>92.9222</v>
+        <v>93.3081</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.3393</v>
+        <v>40.0547</v>
       </c>
       <c r="C9" t="n">
-        <v>59.4875</v>
+        <v>56.9671</v>
       </c>
       <c r="D9" t="n">
-        <v>93.16889999999999</v>
+        <v>94.6061</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.3161</v>
+        <v>40.4815</v>
       </c>
       <c r="C10" t="n">
-        <v>64.0655</v>
+        <v>64.8292</v>
       </c>
       <c r="D10" t="n">
-        <v>96.21810000000001</v>
+        <v>96.9494</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5608</v>
+        <v>40.5237</v>
       </c>
       <c r="C11" t="n">
-        <v>66.0252</v>
+        <v>65.8233</v>
       </c>
       <c r="D11" t="n">
-        <v>97.5476</v>
+        <v>96.95740000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6717</v>
+        <v>40.7339</v>
       </c>
       <c r="C12" t="n">
-        <v>68.511</v>
+        <v>68.2573</v>
       </c>
       <c r="D12" t="n">
-        <v>98.33199999999999</v>
+        <v>98.2846</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7461</v>
+        <v>40.7417</v>
       </c>
       <c r="C13" t="n">
-        <v>69.92870000000001</v>
+        <v>69.93040000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>97.91370000000001</v>
+        <v>98.4284</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.6861</v>
+        <v>40.7186</v>
       </c>
       <c r="C14" t="n">
-        <v>71.53149999999999</v>
+        <v>72.4526</v>
       </c>
       <c r="D14" t="n">
-        <v>98.66630000000001</v>
+        <v>99.6144</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.7053</v>
+        <v>40.767</v>
       </c>
       <c r="C15" t="n">
-        <v>72.32170000000001</v>
+        <v>71.55029999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>97.8985</v>
+        <v>97.9914</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7402</v>
+        <v>40.613</v>
       </c>
       <c r="C16" t="n">
-        <v>73.2223</v>
+        <v>72.9819</v>
       </c>
       <c r="D16" t="n">
-        <v>98.1057</v>
+        <v>99.12309999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.8159</v>
+        <v>40.6987</v>
       </c>
       <c r="C17" t="n">
-        <v>73.2855</v>
+        <v>73.6045</v>
       </c>
       <c r="D17" t="n">
-        <v>98.3954</v>
+        <v>99.40260000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.88227</v>
+        <v>8.879250000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>21.8188</v>
+        <v>21.759</v>
       </c>
       <c r="D2" t="n">
-        <v>29.4531</v>
+        <v>29.6324</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8555</v>
+        <v>16.86</v>
       </c>
       <c r="C3" t="n">
-        <v>41.111</v>
+        <v>41.0759</v>
       </c>
       <c r="D3" t="n">
-        <v>55.3054</v>
+        <v>55.5555</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0208</v>
+        <v>24.0188</v>
       </c>
       <c r="C4" t="n">
-        <v>57.9076</v>
+        <v>57.798</v>
       </c>
       <c r="D4" t="n">
-        <v>77.0553</v>
+        <v>77.82380000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.466</v>
+        <v>31.47</v>
       </c>
       <c r="C5" t="n">
-        <v>75.6134</v>
+        <v>75.7169</v>
       </c>
       <c r="D5" t="n">
-        <v>99.1123</v>
+        <v>99.71210000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8605</v>
+        <v>33.8729</v>
       </c>
       <c r="C6" t="n">
-        <v>67.7471</v>
+        <v>68.21720000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>92.8459</v>
+        <v>93.2042</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5458</v>
+        <v>36.4981</v>
       </c>
       <c r="C7" t="n">
-        <v>60.5343</v>
+        <v>60.1955</v>
       </c>
       <c r="D7" t="n">
-        <v>90.6746</v>
+        <v>92.07850000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.1388</v>
+        <v>38.9946</v>
       </c>
       <c r="C8" t="n">
-        <v>60.9347</v>
+        <v>61.4033</v>
       </c>
       <c r="D8" t="n">
-        <v>92.5009</v>
+        <v>93.43259999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.9465</v>
+        <v>40.8334</v>
       </c>
       <c r="C9" t="n">
-        <v>59.4012</v>
+        <v>59.5726</v>
       </c>
       <c r="D9" t="n">
-        <v>94.0138</v>
+        <v>94.22499999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.9593</v>
+        <v>40.8693</v>
       </c>
       <c r="C10" t="n">
-        <v>64.16889999999999</v>
+        <v>64.05329999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>95.2704</v>
+        <v>97.04689999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.2188</v>
+        <v>41.218</v>
       </c>
       <c r="C11" t="n">
-        <v>66.01739999999999</v>
+        <v>65.71469999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>96.568</v>
+        <v>96.0406</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2549</v>
+        <v>41.4482</v>
       </c>
       <c r="C12" t="n">
-        <v>68.9218</v>
+        <v>68.6696</v>
       </c>
       <c r="D12" t="n">
-        <v>98.34650000000001</v>
+        <v>97.8886</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.4496</v>
+        <v>41.2226</v>
       </c>
       <c r="C13" t="n">
-        <v>69.80929999999999</v>
+        <v>68.5091</v>
       </c>
       <c r="D13" t="n">
-        <v>97.6396</v>
+        <v>98.7325</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3928</v>
+        <v>41.3426</v>
       </c>
       <c r="C14" t="n">
-        <v>71.1427</v>
+        <v>71.2593</v>
       </c>
       <c r="D14" t="n">
-        <v>98.8462</v>
+        <v>100.283</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.3204</v>
+        <v>41.3084</v>
       </c>
       <c r="C15" t="n">
-        <v>71.4218</v>
+        <v>71.6865</v>
       </c>
       <c r="D15" t="n">
-        <v>98.3293</v>
+        <v>99.6099</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.4988</v>
+        <v>41.3085</v>
       </c>
       <c r="C16" t="n">
-        <v>72.1943</v>
+        <v>73.8449</v>
       </c>
       <c r="D16" t="n">
-        <v>99.21899999999999</v>
+        <v>99.1443</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3444</v>
+        <v>41.4195</v>
       </c>
       <c r="C17" t="n">
-        <v>72.9425</v>
+        <v>73.52670000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>98.50239999999999</v>
+        <v>98.5309</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9324</v>
+        <v>13.9216</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0969</v>
+        <v>29.0506</v>
       </c>
       <c r="D2" t="n">
-        <v>35.5162</v>
+        <v>35.6456</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8594</v>
+        <v>26.9146</v>
       </c>
       <c r="C3" t="n">
-        <v>53.4364</v>
+        <v>53.3502</v>
       </c>
       <c r="D3" t="n">
-        <v>63.3851</v>
+        <v>63.7681</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.862</v>
+        <v>38.8468</v>
       </c>
       <c r="C4" t="n">
-        <v>74.40600000000001</v>
+        <v>74.5985</v>
       </c>
       <c r="D4" t="n">
-        <v>86.9722</v>
+        <v>86.9791</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.6309</v>
+        <v>50.6948</v>
       </c>
       <c r="C5" t="n">
-        <v>96.905</v>
+        <v>96.685</v>
       </c>
       <c r="D5" t="n">
-        <v>110.855</v>
+        <v>111.167</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.3774</v>
+        <v>49.6579</v>
       </c>
       <c r="C6" t="n">
-        <v>81.9525</v>
+        <v>82.69840000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>96.49160000000001</v>
+        <v>97.351</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50.8931</v>
+        <v>50.8638</v>
       </c>
       <c r="C7" t="n">
-        <v>66.8301</v>
+        <v>66.73779999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>89.3103</v>
+        <v>89.6499</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.6813</v>
+        <v>52.5999</v>
       </c>
       <c r="C8" t="n">
-        <v>65.5372</v>
+        <v>65.2777</v>
       </c>
       <c r="D8" t="n">
-        <v>88.84610000000001</v>
+        <v>89.25620000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.8699</v>
+        <v>54.7085</v>
       </c>
       <c r="C9" t="n">
-        <v>59.3268</v>
+        <v>58.493</v>
       </c>
       <c r="D9" t="n">
-        <v>87.8844</v>
+        <v>88.494</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>54.6518</v>
+        <v>54.3946</v>
       </c>
       <c r="C10" t="n">
-        <v>61.5268</v>
+        <v>62.0229</v>
       </c>
       <c r="D10" t="n">
-        <v>88.8621</v>
+        <v>89.0956</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.467</v>
+        <v>54.315</v>
       </c>
       <c r="C11" t="n">
-        <v>62.0965</v>
+        <v>62.4974</v>
       </c>
       <c r="D11" t="n">
-        <v>88.4341</v>
+        <v>88.95780000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.1486</v>
+        <v>54.0279</v>
       </c>
       <c r="C12" t="n">
-        <v>65.9567</v>
+        <v>66.23099999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>89.8198</v>
+        <v>89.70610000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.8412</v>
+        <v>54.2013</v>
       </c>
       <c r="C13" t="n">
-        <v>68.7689</v>
+        <v>66.4542</v>
       </c>
       <c r="D13" t="n">
-        <v>89.7457</v>
+        <v>90.16330000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.3409</v>
+        <v>54.1476</v>
       </c>
       <c r="C14" t="n">
-        <v>68.5647</v>
+        <v>68.4873</v>
       </c>
       <c r="D14" t="n">
-        <v>90.40260000000001</v>
+        <v>91.3531</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.278</v>
+        <v>54.4834</v>
       </c>
       <c r="C15" t="n">
-        <v>68.5526</v>
+        <v>68.452</v>
       </c>
       <c r="D15" t="n">
-        <v>90.35420000000001</v>
+        <v>89.9389</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.5994</v>
+        <v>54.5549</v>
       </c>
       <c r="C16" t="n">
-        <v>70.51000000000001</v>
+        <v>70.4726</v>
       </c>
       <c r="D16" t="n">
-        <v>90.34529999999999</v>
+        <v>90.81829999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.5713</v>
+        <v>54.2776</v>
       </c>
       <c r="C17" t="n">
-        <v>70.288</v>
+        <v>70.2732</v>
       </c>
       <c r="D17" t="n">
-        <v>89.9632</v>
+        <v>90.779</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2164</v>
+        <v>14.4083</v>
       </c>
       <c r="C2" t="n">
-        <v>25.2978</v>
+        <v>25.158</v>
       </c>
       <c r="D2" t="n">
-        <v>31.4294</v>
+        <v>27.6315</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9548</v>
+        <v>27.267</v>
       </c>
       <c r="C3" t="n">
-        <v>34.6203</v>
+        <v>34.8035</v>
       </c>
       <c r="D3" t="n">
-        <v>44.9225</v>
+        <v>50.6506</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.2604</v>
+        <v>31.7593</v>
       </c>
       <c r="C4" t="n">
-        <v>50.0357</v>
+        <v>52.359</v>
       </c>
       <c r="D4" t="n">
-        <v>51.8519</v>
+        <v>51.3857</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.735</v>
+        <v>39.9773</v>
       </c>
       <c r="C5" t="n">
-        <v>59.0226</v>
+        <v>53.082</v>
       </c>
       <c r="D5" t="n">
-        <v>74.0528</v>
+        <v>59.4483</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.057</v>
+        <v>39.4335</v>
       </c>
       <c r="C6" t="n">
-        <v>52.4493</v>
+        <v>52.7371</v>
       </c>
       <c r="D6" t="n">
-        <v>64.1935</v>
+        <v>58.7513</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.266</v>
+        <v>38.5429</v>
       </c>
       <c r="C7" t="n">
-        <v>46.1522</v>
+        <v>43.6536</v>
       </c>
       <c r="D7" t="n">
-        <v>57.9636</v>
+        <v>55.9606</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>46.7127</v>
+        <v>39.1188</v>
       </c>
       <c r="C8" t="n">
-        <v>47.5114</v>
+        <v>49.2694</v>
       </c>
       <c r="D8" t="n">
-        <v>57.5621</v>
+        <v>58.9086</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45.7425</v>
+        <v>39.0301</v>
       </c>
       <c r="C9" t="n">
-        <v>51.0599</v>
+        <v>45.3177</v>
       </c>
       <c r="D9" t="n">
-        <v>56.0582</v>
+        <v>60.0144</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.8745</v>
+        <v>41.0571</v>
       </c>
       <c r="C10" t="n">
-        <v>50.8982</v>
+        <v>53.1415</v>
       </c>
       <c r="D10" t="n">
-        <v>59.4872</v>
+        <v>60.9321</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.9185</v>
+        <v>44.7601</v>
       </c>
       <c r="C11" t="n">
-        <v>52.5464</v>
+        <v>56.3551</v>
       </c>
       <c r="D11" t="n">
-        <v>62.3021</v>
+        <v>62.2314</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.0739</v>
+        <v>40.3295</v>
       </c>
       <c r="C12" t="n">
-        <v>54.2434</v>
+        <v>53.3048</v>
       </c>
       <c r="D12" t="n">
-        <v>63.0068</v>
+        <v>55.8763</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>42.2346</v>
+        <v>36.8987</v>
       </c>
       <c r="C13" t="n">
-        <v>49.2008</v>
+        <v>55.2714</v>
       </c>
       <c r="D13" t="n">
-        <v>56.254</v>
+        <v>57.993</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.4539</v>
+        <v>43.6599</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8177</v>
+        <v>54.4785</v>
       </c>
       <c r="D14" t="n">
-        <v>63.5697</v>
+        <v>59.6542</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.8184</v>
+        <v>43.4564</v>
       </c>
       <c r="C15" t="n">
-        <v>53.6132</v>
+        <v>55.7472</v>
       </c>
       <c r="D15" t="n">
-        <v>55.0069</v>
+        <v>57.4382</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>47.2418</v>
+        <v>44.8264</v>
       </c>
       <c r="C16" t="n">
-        <v>55.7049</v>
+        <v>56.4966</v>
       </c>
       <c r="D16" t="n">
-        <v>62.8641</v>
+        <v>61.9923</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.2943</v>
+        <v>47.2373</v>
       </c>
       <c r="C17" t="n">
-        <v>55.2923</v>
+        <v>54.8688</v>
       </c>
       <c r="D17" t="n">
-        <v>64.50149999999999</v>
+        <v>60.3805</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9625</v>
+        <v>14.8631</v>
       </c>
       <c r="C2" t="n">
-        <v>25.0179</v>
+        <v>24.793</v>
       </c>
       <c r="D2" t="n">
-        <v>29.974</v>
+        <v>28.7786</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8612</v>
+        <v>28.2326</v>
       </c>
       <c r="C3" t="n">
-        <v>37.8209</v>
+        <v>37.2729</v>
       </c>
       <c r="D3" t="n">
-        <v>48.4855</v>
+        <v>47.6694</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.6199</v>
+        <v>31.3338</v>
       </c>
       <c r="C4" t="n">
-        <v>48.4381</v>
+        <v>47.1814</v>
       </c>
       <c r="D4" t="n">
-        <v>59.3195</v>
+        <v>67.0843</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.7636</v>
+        <v>42.849</v>
       </c>
       <c r="C5" t="n">
-        <v>57.1815</v>
+        <v>56.6101</v>
       </c>
       <c r="D5" t="n">
-        <v>64.1405</v>
+        <v>67.6519</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.3296</v>
+        <v>35.7323</v>
       </c>
       <c r="C6" t="n">
-        <v>54.903</v>
+        <v>55.9663</v>
       </c>
       <c r="D6" t="n">
-        <v>65.1193</v>
+        <v>59.3116</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.2284</v>
+        <v>39.2925</v>
       </c>
       <c r="C7" t="n">
-        <v>47.7505</v>
+        <v>51.83</v>
       </c>
       <c r="D7" t="n">
-        <v>68.9362</v>
+        <v>60.2304</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41.6175</v>
+        <v>42.7536</v>
       </c>
       <c r="C8" t="n">
-        <v>56.0326</v>
+        <v>50.9057</v>
       </c>
       <c r="D8" t="n">
-        <v>57.6245</v>
+        <v>58.7791</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.4716</v>
+        <v>41.9613</v>
       </c>
       <c r="C9" t="n">
-        <v>50.5583</v>
+        <v>42.4896</v>
       </c>
       <c r="D9" t="n">
-        <v>62.192</v>
+        <v>55.852</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>46.4235</v>
+        <v>42.0334</v>
       </c>
       <c r="C10" t="n">
-        <v>50.6909</v>
+        <v>46.2689</v>
       </c>
       <c r="D10" t="n">
-        <v>59.1402</v>
+        <v>61.3878</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.1232</v>
+        <v>43.6059</v>
       </c>
       <c r="C11" t="n">
-        <v>49.2302</v>
+        <v>49.9004</v>
       </c>
       <c r="D11" t="n">
-        <v>60.9998</v>
+        <v>54.4498</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.6012</v>
+        <v>46.117</v>
       </c>
       <c r="C12" t="n">
-        <v>54.1786</v>
+        <v>49.1628</v>
       </c>
       <c r="D12" t="n">
-        <v>61.6458</v>
+        <v>59.8385</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.39</v>
+        <v>42.2047</v>
       </c>
       <c r="C13" t="n">
-        <v>50.4759</v>
+        <v>47.8847</v>
       </c>
       <c r="D13" t="n">
-        <v>58.4364</v>
+        <v>51.4084</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.5631</v>
+        <v>43.3005</v>
       </c>
       <c r="C14" t="n">
-        <v>54.191</v>
+        <v>53.4007</v>
       </c>
       <c r="D14" t="n">
-        <v>59.6416</v>
+        <v>62.3934</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.8759</v>
+        <v>44.572</v>
       </c>
       <c r="C15" t="n">
-        <v>49.0588</v>
+        <v>54.548</v>
       </c>
       <c r="D15" t="n">
-        <v>61.9118</v>
+        <v>65.25149999999999</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.0938</v>
+        <v>45.3874</v>
       </c>
       <c r="C16" t="n">
-        <v>58.7663</v>
+        <v>46.3597</v>
       </c>
       <c r="D16" t="n">
-        <v>57.721</v>
+        <v>61.5154</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.1661</v>
+        <v>45.436</v>
       </c>
       <c r="C17" t="n">
-        <v>46.8926</v>
+        <v>55.0557</v>
       </c>
       <c r="D17" t="n">
-        <v>58.2528</v>
+        <v>58.2538</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.262</v>
+        <v>18.2578</v>
       </c>
       <c r="C2" t="n">
-        <v>27.9142</v>
+        <v>27.7594</v>
       </c>
       <c r="D2" t="n">
-        <v>32.7205</v>
+        <v>32.9487</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.2964</v>
+        <v>31.9877</v>
       </c>
       <c r="C3" t="n">
-        <v>36.4943</v>
+        <v>41.8271</v>
       </c>
       <c r="D3" t="n">
-        <v>48.1876</v>
+        <v>42.9394</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.0738</v>
+        <v>33.9934</v>
       </c>
       <c r="C4" t="n">
-        <v>50.4813</v>
+        <v>50.3091</v>
       </c>
       <c r="D4" t="n">
-        <v>57.8658</v>
+        <v>55.1107</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48.2641</v>
+        <v>50.7511</v>
       </c>
       <c r="C5" t="n">
-        <v>58.3662</v>
+        <v>62.0728</v>
       </c>
       <c r="D5" t="n">
-        <v>72.59050000000001</v>
+        <v>60.49</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.5565</v>
+        <v>38.9616</v>
       </c>
       <c r="C6" t="n">
-        <v>54.6672</v>
+        <v>56.9802</v>
       </c>
       <c r="D6" t="n">
-        <v>61.3419</v>
+        <v>61.8752</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.3451</v>
+        <v>47.6256</v>
       </c>
       <c r="C7" t="n">
-        <v>54.8168</v>
+        <v>56.3964</v>
       </c>
       <c r="D7" t="n">
-        <v>58.551</v>
+        <v>56.0862</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41.4816</v>
+        <v>45.4975</v>
       </c>
       <c r="C8" t="n">
-        <v>54.5792</v>
+        <v>56.3783</v>
       </c>
       <c r="D8" t="n">
-        <v>55.8379</v>
+        <v>59.6335</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.9066</v>
+        <v>45.6573</v>
       </c>
       <c r="C9" t="n">
-        <v>44.1772</v>
+        <v>47.8244</v>
       </c>
       <c r="D9" t="n">
-        <v>57.462</v>
+        <v>45.7676</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.861</v>
+        <v>44.8925</v>
       </c>
       <c r="C10" t="n">
-        <v>52.9587</v>
+        <v>49.1821</v>
       </c>
       <c r="D10" t="n">
-        <v>58.1336</v>
+        <v>53.4564</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.4966</v>
+        <v>39.503</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1126</v>
+        <v>43.8847</v>
       </c>
       <c r="D11" t="n">
-        <v>49.7071</v>
+        <v>54.8636</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.1212</v>
+        <v>43.7895</v>
       </c>
       <c r="C12" t="n">
-        <v>48.9951</v>
+        <v>40.5999</v>
       </c>
       <c r="D12" t="n">
-        <v>55.3103</v>
+        <v>58.3483</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2371</v>
+        <v>42.8852</v>
       </c>
       <c r="C13" t="n">
-        <v>49.2916</v>
+        <v>41.4112</v>
       </c>
       <c r="D13" t="n">
-        <v>53.7495</v>
+        <v>58.0207</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46.1044</v>
+        <v>39.5999</v>
       </c>
       <c r="C14" t="n">
-        <v>48.3845</v>
+        <v>46.86</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9354</v>
+        <v>44.5702</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.1549</v>
+        <v>37.6649</v>
       </c>
       <c r="C15" t="n">
-        <v>52.0738</v>
+        <v>39.7238</v>
       </c>
       <c r="D15" t="n">
-        <v>53.8145</v>
+        <v>59.7168</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36.3532</v>
+        <v>40.3958</v>
       </c>
       <c r="C16" t="n">
-        <v>46.6886</v>
+        <v>48.6878</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8485</v>
+        <v>53.0836</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.6609</v>
+        <v>36.5745</v>
       </c>
       <c r="C17" t="n">
-        <v>44.8721</v>
+        <v>45.0015</v>
       </c>
       <c r="D17" t="n">
-        <v>59.1381</v>
+        <v>55.281</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.81523</v>
+        <v>8.81291</v>
       </c>
       <c r="C2" t="n">
-        <v>22.1066</v>
+        <v>22.1822</v>
       </c>
       <c r="D2" t="n">
-        <v>29.495</v>
+        <v>29.4794</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7668</v>
+        <v>16.7466</v>
       </c>
       <c r="C3" t="n">
-        <v>41.6802</v>
+        <v>42.0699</v>
       </c>
       <c r="D3" t="n">
-        <v>55.485</v>
+        <v>55.3975</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8047</v>
+        <v>23.8135</v>
       </c>
       <c r="C4" t="n">
-        <v>58.6548</v>
+        <v>59.5458</v>
       </c>
       <c r="D4" t="n">
-        <v>77.1041</v>
+        <v>76.95099999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1618</v>
+        <v>31.0958</v>
       </c>
       <c r="C5" t="n">
-        <v>77.0314</v>
+        <v>77.4323</v>
       </c>
       <c r="D5" t="n">
-        <v>99.2453</v>
+        <v>99.24850000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4792</v>
+        <v>33.3941</v>
       </c>
       <c r="C6" t="n">
-        <v>68.69070000000001</v>
+        <v>69.5865</v>
       </c>
       <c r="D6" t="n">
-        <v>92.3678</v>
+        <v>92.95529999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9508</v>
+        <v>35.9426</v>
       </c>
       <c r="C7" t="n">
-        <v>60.1128</v>
+        <v>61.1851</v>
       </c>
       <c r="D7" t="n">
-        <v>90.7298</v>
+        <v>91.72</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4598</v>
+        <v>38.4761</v>
       </c>
       <c r="C8" t="n">
-        <v>62.1366</v>
+        <v>63.0435</v>
       </c>
       <c r="D8" t="n">
-        <v>93.3081</v>
+        <v>93.7991</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.0547</v>
+        <v>40.405</v>
       </c>
       <c r="C9" t="n">
-        <v>56.9671</v>
+        <v>57.0269</v>
       </c>
       <c r="D9" t="n">
-        <v>94.6061</v>
+        <v>93.4853</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4815</v>
+        <v>40.3016</v>
       </c>
       <c r="C10" t="n">
-        <v>64.8292</v>
+        <v>64.6538</v>
       </c>
       <c r="D10" t="n">
-        <v>96.9494</v>
+        <v>96.1567</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5237</v>
+        <v>40.5642</v>
       </c>
       <c r="C11" t="n">
-        <v>65.8233</v>
+        <v>66.4276</v>
       </c>
       <c r="D11" t="n">
-        <v>96.95740000000001</v>
+        <v>96.9014</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.7339</v>
+        <v>40.6125</v>
       </c>
       <c r="C12" t="n">
-        <v>68.2573</v>
+        <v>69.2992</v>
       </c>
       <c r="D12" t="n">
-        <v>98.2846</v>
+        <v>98.99250000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7417</v>
+        <v>40.7959</v>
       </c>
       <c r="C13" t="n">
-        <v>69.93040000000001</v>
+        <v>70.4425</v>
       </c>
       <c r="D13" t="n">
-        <v>98.4284</v>
+        <v>98.56359999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7186</v>
+        <v>40.7162</v>
       </c>
       <c r="C14" t="n">
-        <v>72.4526</v>
+        <v>72.7974</v>
       </c>
       <c r="D14" t="n">
-        <v>99.6144</v>
+        <v>98.9194</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.767</v>
+        <v>40.6745</v>
       </c>
       <c r="C15" t="n">
-        <v>71.55029999999999</v>
+        <v>72.8661</v>
       </c>
       <c r="D15" t="n">
-        <v>97.9914</v>
+        <v>98.352</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.613</v>
+        <v>40.7627</v>
       </c>
       <c r="C16" t="n">
-        <v>72.9819</v>
+        <v>74.1628</v>
       </c>
       <c r="D16" t="n">
-        <v>99.12309999999999</v>
+        <v>99.9029</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.6987</v>
+        <v>40.7067</v>
       </c>
       <c r="C17" t="n">
-        <v>73.6045</v>
+        <v>74.2236</v>
       </c>
       <c r="D17" t="n">
-        <v>99.40260000000001</v>
+        <v>97.7634</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.879250000000001</v>
+        <v>8.866440000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>21.759</v>
+        <v>21.8324</v>
       </c>
       <c r="D2" t="n">
-        <v>29.6324</v>
+        <v>29.583</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.86</v>
+        <v>16.8495</v>
       </c>
       <c r="C3" t="n">
-        <v>41.0759</v>
+        <v>41.4982</v>
       </c>
       <c r="D3" t="n">
-        <v>55.5555</v>
+        <v>55.5156</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0188</v>
+        <v>24.0207</v>
       </c>
       <c r="C4" t="n">
-        <v>57.798</v>
+        <v>58.4151</v>
       </c>
       <c r="D4" t="n">
-        <v>77.82380000000001</v>
+        <v>77.62</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.47</v>
+        <v>31.4742</v>
       </c>
       <c r="C5" t="n">
-        <v>75.7169</v>
+        <v>76.1964</v>
       </c>
       <c r="D5" t="n">
-        <v>99.71210000000001</v>
+        <v>99.8309</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8729</v>
+        <v>33.814</v>
       </c>
       <c r="C6" t="n">
-        <v>68.21720000000001</v>
+        <v>68.4345</v>
       </c>
       <c r="D6" t="n">
-        <v>93.2042</v>
+        <v>92.85080000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.4981</v>
+        <v>36.4978</v>
       </c>
       <c r="C7" t="n">
-        <v>60.1955</v>
+        <v>60.8107</v>
       </c>
       <c r="D7" t="n">
-        <v>92.07850000000001</v>
+        <v>91.72799999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.9946</v>
+        <v>39.0342</v>
       </c>
       <c r="C8" t="n">
-        <v>61.4033</v>
+        <v>62.3346</v>
       </c>
       <c r="D8" t="n">
-        <v>93.43259999999999</v>
+        <v>93.8629</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.8334</v>
+        <v>40.826</v>
       </c>
       <c r="C9" t="n">
-        <v>59.5726</v>
+        <v>58.6488</v>
       </c>
       <c r="D9" t="n">
-        <v>94.22499999999999</v>
+        <v>94.6328</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8693</v>
+        <v>40.8572</v>
       </c>
       <c r="C10" t="n">
-        <v>64.05329999999999</v>
+        <v>65.1949</v>
       </c>
       <c r="D10" t="n">
-        <v>97.04689999999999</v>
+        <v>96.76560000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.218</v>
+        <v>41.1721</v>
       </c>
       <c r="C11" t="n">
-        <v>65.71469999999999</v>
+        <v>65.22620000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>96.0406</v>
+        <v>97.1974</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.4482</v>
+        <v>41.1388</v>
       </c>
       <c r="C12" t="n">
-        <v>68.6696</v>
+        <v>69.4165</v>
       </c>
       <c r="D12" t="n">
-        <v>97.8886</v>
+        <v>99.0112</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2226</v>
+        <v>41.4884</v>
       </c>
       <c r="C13" t="n">
-        <v>68.5091</v>
+        <v>69.5573</v>
       </c>
       <c r="D13" t="n">
-        <v>98.7325</v>
+        <v>98.4884</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3426</v>
+        <v>41.3169</v>
       </c>
       <c r="C14" t="n">
-        <v>71.2593</v>
+        <v>71.81529999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>100.283</v>
+        <v>99.05710000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.3084</v>
+        <v>41.3239</v>
       </c>
       <c r="C15" t="n">
-        <v>71.6865</v>
+        <v>72.1302</v>
       </c>
       <c r="D15" t="n">
-        <v>99.6099</v>
+        <v>98.1643</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.3085</v>
+        <v>41.3241</v>
       </c>
       <c r="C16" t="n">
-        <v>73.8449</v>
+        <v>73.2107</v>
       </c>
       <c r="D16" t="n">
-        <v>99.1443</v>
+        <v>100.151</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4195</v>
+        <v>41.3129</v>
       </c>
       <c r="C17" t="n">
-        <v>73.52670000000001</v>
+        <v>74.21810000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>98.5309</v>
+        <v>98.48860000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9216</v>
+        <v>13.8829</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0506</v>
+        <v>29.0538</v>
       </c>
       <c r="D2" t="n">
-        <v>35.6456</v>
+        <v>35.6293</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9146</v>
+        <v>26.8411</v>
       </c>
       <c r="C3" t="n">
-        <v>53.3502</v>
+        <v>53.5228</v>
       </c>
       <c r="D3" t="n">
-        <v>63.7681</v>
+        <v>63.7275</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.8468</v>
+        <v>38.7562</v>
       </c>
       <c r="C4" t="n">
-        <v>74.5985</v>
+        <v>74.74299999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>86.9791</v>
+        <v>87.49769999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.6948</v>
+        <v>50.5877</v>
       </c>
       <c r="C5" t="n">
-        <v>96.685</v>
+        <v>96.15479999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>111.167</v>
+        <v>110.764</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.6579</v>
+        <v>49.7437</v>
       </c>
       <c r="C6" t="n">
-        <v>82.69840000000001</v>
+        <v>81.21720000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>97.351</v>
+        <v>97.5408</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50.8638</v>
+        <v>51.0698</v>
       </c>
       <c r="C7" t="n">
-        <v>66.73779999999999</v>
+        <v>66.70910000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>89.6499</v>
+        <v>90.48650000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.5999</v>
+        <v>52.7227</v>
       </c>
       <c r="C8" t="n">
-        <v>65.2777</v>
+        <v>65.8096</v>
       </c>
       <c r="D8" t="n">
-        <v>89.25620000000001</v>
+        <v>89.11669999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.7085</v>
+        <v>54.6564</v>
       </c>
       <c r="C9" t="n">
-        <v>58.493</v>
+        <v>58.2134</v>
       </c>
       <c r="D9" t="n">
-        <v>88.494</v>
+        <v>88.3989</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>54.3946</v>
+        <v>54.1785</v>
       </c>
       <c r="C10" t="n">
-        <v>62.0229</v>
+        <v>62.3367</v>
       </c>
       <c r="D10" t="n">
-        <v>89.0956</v>
+        <v>88.5874</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.315</v>
+        <v>54.063</v>
       </c>
       <c r="C11" t="n">
-        <v>62.4974</v>
+        <v>62.6956</v>
       </c>
       <c r="D11" t="n">
-        <v>88.95780000000001</v>
+        <v>88.92</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.0279</v>
+        <v>54.2286</v>
       </c>
       <c r="C12" t="n">
-        <v>66.23099999999999</v>
+        <v>66.66630000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>89.70610000000001</v>
+        <v>89.4157</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.2013</v>
+        <v>54.3629</v>
       </c>
       <c r="C13" t="n">
-        <v>66.4542</v>
+        <v>66.6469</v>
       </c>
       <c r="D13" t="n">
-        <v>90.16330000000001</v>
+        <v>90.0692</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.1476</v>
+        <v>54.1996</v>
       </c>
       <c r="C14" t="n">
-        <v>68.4873</v>
+        <v>69.02460000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>91.3531</v>
+        <v>90.8331</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.4834</v>
+        <v>54.2847</v>
       </c>
       <c r="C15" t="n">
-        <v>68.452</v>
+        <v>68.88330000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>89.9389</v>
+        <v>90.69029999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.5549</v>
+        <v>54.2388</v>
       </c>
       <c r="C16" t="n">
-        <v>70.4726</v>
+        <v>71.0864</v>
       </c>
       <c r="D16" t="n">
-        <v>90.81829999999999</v>
+        <v>91.24769999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.2776</v>
+        <v>54.5006</v>
       </c>
       <c r="C17" t="n">
-        <v>70.2732</v>
+        <v>70.78230000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>90.779</v>
+        <v>90.352</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4083</v>
+        <v>14.3215</v>
       </c>
       <c r="C2" t="n">
-        <v>25.158</v>
+        <v>24.9894</v>
       </c>
       <c r="D2" t="n">
-        <v>27.6315</v>
+        <v>29.8573</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.267</v>
+        <v>27.038</v>
       </c>
       <c r="C3" t="n">
-        <v>34.8035</v>
+        <v>33.8502</v>
       </c>
       <c r="D3" t="n">
-        <v>50.6506</v>
+        <v>45.7386</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7593</v>
+        <v>31.0241</v>
       </c>
       <c r="C4" t="n">
-        <v>52.359</v>
+        <v>47.9512</v>
       </c>
       <c r="D4" t="n">
-        <v>51.3857</v>
+        <v>53.9903</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.9773</v>
+        <v>41.3563</v>
       </c>
       <c r="C5" t="n">
-        <v>53.082</v>
+        <v>61.1007</v>
       </c>
       <c r="D5" t="n">
-        <v>59.4483</v>
+        <v>64.8647</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.4335</v>
+        <v>37.3516</v>
       </c>
       <c r="C6" t="n">
-        <v>52.7371</v>
+        <v>52.9452</v>
       </c>
       <c r="D6" t="n">
-        <v>58.7513</v>
+        <v>61.0808</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.5429</v>
+        <v>40.1091</v>
       </c>
       <c r="C7" t="n">
-        <v>43.6536</v>
+        <v>46.4152</v>
       </c>
       <c r="D7" t="n">
-        <v>55.9606</v>
+        <v>60.9329</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.1188</v>
+        <v>40.2712</v>
       </c>
       <c r="C8" t="n">
-        <v>49.2694</v>
+        <v>48.8479</v>
       </c>
       <c r="D8" t="n">
-        <v>58.9086</v>
+        <v>56.6226</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.0301</v>
+        <v>41.5665</v>
       </c>
       <c r="C9" t="n">
-        <v>45.3177</v>
+        <v>49.8782</v>
       </c>
       <c r="D9" t="n">
-        <v>60.0144</v>
+        <v>60.154</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.0571</v>
+        <v>44.2558</v>
       </c>
       <c r="C10" t="n">
-        <v>53.1415</v>
+        <v>45.161</v>
       </c>
       <c r="D10" t="n">
-        <v>60.9321</v>
+        <v>56.6137</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.7601</v>
+        <v>45.9334</v>
       </c>
       <c r="C11" t="n">
-        <v>56.3551</v>
+        <v>54.4567</v>
       </c>
       <c r="D11" t="n">
-        <v>62.2314</v>
+        <v>66.13460000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.3295</v>
+        <v>41.8597</v>
       </c>
       <c r="C12" t="n">
-        <v>53.3048</v>
+        <v>51.2122</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8763</v>
+        <v>62.1022</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.8987</v>
+        <v>46.5809</v>
       </c>
       <c r="C13" t="n">
-        <v>55.2714</v>
+        <v>56.5433</v>
       </c>
       <c r="D13" t="n">
-        <v>57.993</v>
+        <v>59.4491</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.6599</v>
+        <v>41.3761</v>
       </c>
       <c r="C14" t="n">
-        <v>54.4785</v>
+        <v>48.354</v>
       </c>
       <c r="D14" t="n">
-        <v>59.6542</v>
+        <v>58.7445</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.4564</v>
+        <v>40.69</v>
       </c>
       <c r="C15" t="n">
-        <v>55.7472</v>
+        <v>49.1217</v>
       </c>
       <c r="D15" t="n">
-        <v>57.4382</v>
+        <v>56.7099</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.8264</v>
+        <v>42.0188</v>
       </c>
       <c r="C16" t="n">
-        <v>56.4966</v>
+        <v>55.1448</v>
       </c>
       <c r="D16" t="n">
-        <v>61.9923</v>
+        <v>61.1343</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>47.2373</v>
+        <v>44.8512</v>
       </c>
       <c r="C17" t="n">
-        <v>54.8688</v>
+        <v>56.7863</v>
       </c>
       <c r="D17" t="n">
-        <v>60.3805</v>
+        <v>58.7176</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8631</v>
+        <v>14.8563</v>
       </c>
       <c r="C2" t="n">
-        <v>24.793</v>
+        <v>24.6566</v>
       </c>
       <c r="D2" t="n">
-        <v>28.7786</v>
+        <v>30.6796</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.2326</v>
+        <v>27.8388</v>
       </c>
       <c r="C3" t="n">
-        <v>37.2729</v>
+        <v>36.0901</v>
       </c>
       <c r="D3" t="n">
-        <v>47.6694</v>
+        <v>44.7428</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.3338</v>
+        <v>33.6342</v>
       </c>
       <c r="C4" t="n">
-        <v>47.1814</v>
+        <v>49.3393</v>
       </c>
       <c r="D4" t="n">
-        <v>67.0843</v>
+        <v>65.9712</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.849</v>
+        <v>44.1628</v>
       </c>
       <c r="C5" t="n">
-        <v>56.6101</v>
+        <v>63.5246</v>
       </c>
       <c r="D5" t="n">
-        <v>67.6519</v>
+        <v>77.9787</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35.7323</v>
+        <v>42.2652</v>
       </c>
       <c r="C6" t="n">
-        <v>55.9663</v>
+        <v>56.4627</v>
       </c>
       <c r="D6" t="n">
-        <v>59.3116</v>
+        <v>58.6591</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.2925</v>
+        <v>40.6785</v>
       </c>
       <c r="C7" t="n">
-        <v>51.83</v>
+        <v>55.3156</v>
       </c>
       <c r="D7" t="n">
-        <v>60.2304</v>
+        <v>56.8302</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.7536</v>
+        <v>39.8393</v>
       </c>
       <c r="C8" t="n">
-        <v>50.9057</v>
+        <v>51.1609</v>
       </c>
       <c r="D8" t="n">
-        <v>58.7791</v>
+        <v>59.0119</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.9613</v>
+        <v>49.0288</v>
       </c>
       <c r="C9" t="n">
-        <v>42.4896</v>
+        <v>53.5634</v>
       </c>
       <c r="D9" t="n">
-        <v>55.852</v>
+        <v>60.1105</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.0334</v>
+        <v>43.9966</v>
       </c>
       <c r="C10" t="n">
-        <v>46.2689</v>
+        <v>52.4051</v>
       </c>
       <c r="D10" t="n">
-        <v>61.3878</v>
+        <v>59.6324</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.6059</v>
+        <v>40.5117</v>
       </c>
       <c r="C11" t="n">
-        <v>49.9004</v>
+        <v>47.133</v>
       </c>
       <c r="D11" t="n">
-        <v>54.4498</v>
+        <v>64.1016</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.117</v>
+        <v>49.2542</v>
       </c>
       <c r="C12" t="n">
-        <v>49.1628</v>
+        <v>47.693</v>
       </c>
       <c r="D12" t="n">
-        <v>59.8385</v>
+        <v>57.9503</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>42.2047</v>
+        <v>46.99</v>
       </c>
       <c r="C13" t="n">
-        <v>47.8847</v>
+        <v>51.6154</v>
       </c>
       <c r="D13" t="n">
-        <v>51.4084</v>
+        <v>57.6684</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.3005</v>
+        <v>44.0829</v>
       </c>
       <c r="C14" t="n">
-        <v>53.4007</v>
+        <v>52.8054</v>
       </c>
       <c r="D14" t="n">
-        <v>62.3934</v>
+        <v>59.6428</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.572</v>
+        <v>42.7383</v>
       </c>
       <c r="C15" t="n">
-        <v>54.548</v>
+        <v>46.0092</v>
       </c>
       <c r="D15" t="n">
-        <v>65.25149999999999</v>
+        <v>57.0983</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>45.3874</v>
+        <v>39.9588</v>
       </c>
       <c r="C16" t="n">
-        <v>46.3597</v>
+        <v>56.7489</v>
       </c>
       <c r="D16" t="n">
-        <v>61.5154</v>
+        <v>60.2401</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.436</v>
+        <v>40.6696</v>
       </c>
       <c r="C17" t="n">
-        <v>55.0557</v>
+        <v>48.6434</v>
       </c>
       <c r="D17" t="n">
-        <v>58.2538</v>
+        <v>58.7731</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2578</v>
+        <v>18.4712</v>
       </c>
       <c r="C2" t="n">
-        <v>27.7594</v>
+        <v>27.2359</v>
       </c>
       <c r="D2" t="n">
-        <v>32.9487</v>
+        <v>31.5856</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.9877</v>
+        <v>31.3233</v>
       </c>
       <c r="C3" t="n">
-        <v>41.8271</v>
+        <v>46.4363</v>
       </c>
       <c r="D3" t="n">
-        <v>42.9394</v>
+        <v>50.5013</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.9934</v>
+        <v>33.1153</v>
       </c>
       <c r="C4" t="n">
-        <v>50.3091</v>
+        <v>52.0765</v>
       </c>
       <c r="D4" t="n">
-        <v>55.1107</v>
+        <v>56.8486</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.7511</v>
+        <v>43.9648</v>
       </c>
       <c r="C5" t="n">
-        <v>62.0728</v>
+        <v>61.4923</v>
       </c>
       <c r="D5" t="n">
-        <v>60.49</v>
+        <v>68.443</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.9616</v>
+        <v>44.9999</v>
       </c>
       <c r="C6" t="n">
-        <v>56.9802</v>
+        <v>53.148</v>
       </c>
       <c r="D6" t="n">
-        <v>61.8752</v>
+        <v>61.9607</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47.6256</v>
+        <v>41.214</v>
       </c>
       <c r="C7" t="n">
-        <v>56.3964</v>
+        <v>51.5672</v>
       </c>
       <c r="D7" t="n">
-        <v>56.0862</v>
+        <v>56.2186</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.4975</v>
+        <v>46.4177</v>
       </c>
       <c r="C8" t="n">
-        <v>56.3783</v>
+        <v>50.3534</v>
       </c>
       <c r="D8" t="n">
-        <v>59.6335</v>
+        <v>60.4965</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45.6573</v>
+        <v>44.2178</v>
       </c>
       <c r="C9" t="n">
-        <v>47.8244</v>
+        <v>47.8501</v>
       </c>
       <c r="D9" t="n">
-        <v>45.7676</v>
+        <v>56.8161</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.8925</v>
+        <v>42.8634</v>
       </c>
       <c r="C10" t="n">
-        <v>49.1821</v>
+        <v>52.3894</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4564</v>
+        <v>58.3089</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39.503</v>
+        <v>42.7419</v>
       </c>
       <c r="C11" t="n">
-        <v>43.8847</v>
+        <v>45.3364</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8636</v>
+        <v>56.7595</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.7895</v>
+        <v>42.4896</v>
       </c>
       <c r="C12" t="n">
-        <v>40.5999</v>
+        <v>49.5031</v>
       </c>
       <c r="D12" t="n">
-        <v>58.3483</v>
+        <v>58.1166</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>42.8852</v>
+        <v>44.0162</v>
       </c>
       <c r="C13" t="n">
-        <v>41.4112</v>
+        <v>45.0913</v>
       </c>
       <c r="D13" t="n">
-        <v>58.0207</v>
+        <v>56.1629</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>39.5999</v>
+        <v>38.6547</v>
       </c>
       <c r="C14" t="n">
-        <v>46.86</v>
+        <v>47.6653</v>
       </c>
       <c r="D14" t="n">
-        <v>44.5702</v>
+        <v>61.2854</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.6649</v>
+        <v>44.6155</v>
       </c>
       <c r="C15" t="n">
-        <v>39.7238</v>
+        <v>40.2107</v>
       </c>
       <c r="D15" t="n">
-        <v>59.7168</v>
+        <v>49.6618</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.3958</v>
+        <v>39.1257</v>
       </c>
       <c r="C16" t="n">
-        <v>48.6878</v>
+        <v>49.2482</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0836</v>
+        <v>56.9244</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.5745</v>
+        <v>40.2097</v>
       </c>
       <c r="C17" t="n">
-        <v>45.0015</v>
+        <v>43.45</v>
       </c>
       <c r="D17" t="n">
-        <v>55.281</v>
+        <v>51.6452</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.81291</v>
+        <v>8.81091</v>
       </c>
       <c r="C2" t="n">
-        <v>22.1822</v>
+        <v>22.1652</v>
       </c>
       <c r="D2" t="n">
-        <v>29.4794</v>
+        <v>29.2503</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7466</v>
+        <v>16.776</v>
       </c>
       <c r="C3" t="n">
-        <v>42.0699</v>
+        <v>42.2012</v>
       </c>
       <c r="D3" t="n">
-        <v>55.3975</v>
+        <v>54.6684</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8135</v>
+        <v>23.8014</v>
       </c>
       <c r="C4" t="n">
-        <v>59.5458</v>
+        <v>59.4664</v>
       </c>
       <c r="D4" t="n">
-        <v>76.95099999999999</v>
+        <v>76.50660000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0958</v>
+        <v>31.1762</v>
       </c>
       <c r="C5" t="n">
-        <v>77.4323</v>
+        <v>77.6311</v>
       </c>
       <c r="D5" t="n">
-        <v>99.24850000000001</v>
+        <v>98.5587</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3941</v>
+        <v>33.4183</v>
       </c>
       <c r="C6" t="n">
-        <v>69.5865</v>
+        <v>69.17829999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>92.95529999999999</v>
+        <v>91.87739999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9426</v>
+        <v>35.9338</v>
       </c>
       <c r="C7" t="n">
-        <v>61.1851</v>
+        <v>61.2794</v>
       </c>
       <c r="D7" t="n">
-        <v>91.72</v>
+        <v>90.392</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4761</v>
+        <v>38.5072</v>
       </c>
       <c r="C8" t="n">
-        <v>63.0435</v>
+        <v>62.3937</v>
       </c>
       <c r="D8" t="n">
-        <v>93.7991</v>
+        <v>92.2679</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.405</v>
+        <v>40.2831</v>
       </c>
       <c r="C9" t="n">
-        <v>57.0269</v>
+        <v>58.6938</v>
       </c>
       <c r="D9" t="n">
-        <v>93.4853</v>
+        <v>93.86579999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.3016</v>
+        <v>40.3183</v>
       </c>
       <c r="C10" t="n">
-        <v>64.6538</v>
+        <v>64.7398</v>
       </c>
       <c r="D10" t="n">
-        <v>96.1567</v>
+        <v>95.6327</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5642</v>
+        <v>40.5096</v>
       </c>
       <c r="C11" t="n">
-        <v>66.4276</v>
+        <v>67.1241</v>
       </c>
       <c r="D11" t="n">
-        <v>96.9014</v>
+        <v>96.544</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6125</v>
+        <v>40.6611</v>
       </c>
       <c r="C12" t="n">
-        <v>69.2992</v>
+        <v>69.7347</v>
       </c>
       <c r="D12" t="n">
-        <v>98.99250000000001</v>
+        <v>98.0552</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7959</v>
+        <v>40.6096</v>
       </c>
       <c r="C13" t="n">
-        <v>70.4425</v>
+        <v>70.5904</v>
       </c>
       <c r="D13" t="n">
-        <v>98.56359999999999</v>
+        <v>98.68089999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7162</v>
+        <v>40.6074</v>
       </c>
       <c r="C14" t="n">
-        <v>72.7974</v>
+        <v>72.0766</v>
       </c>
       <c r="D14" t="n">
-        <v>98.9194</v>
+        <v>98.9299</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6745</v>
+        <v>40.7415</v>
       </c>
       <c r="C15" t="n">
-        <v>72.8661</v>
+        <v>72.9515</v>
       </c>
       <c r="D15" t="n">
-        <v>98.352</v>
+        <v>99.11499999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7627</v>
+        <v>40.7392</v>
       </c>
       <c r="C16" t="n">
-        <v>74.1628</v>
+        <v>73.7706</v>
       </c>
       <c r="D16" t="n">
-        <v>99.9029</v>
+        <v>99.00239999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7067</v>
+        <v>40.7132</v>
       </c>
       <c r="C17" t="n">
-        <v>74.2236</v>
+        <v>73.9169</v>
       </c>
       <c r="D17" t="n">
-        <v>97.7634</v>
+        <v>97.8432</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.866440000000001</v>
+        <v>8.87759</v>
       </c>
       <c r="C2" t="n">
-        <v>21.8324</v>
+        <v>21.8341</v>
       </c>
       <c r="D2" t="n">
-        <v>29.583</v>
+        <v>29.3873</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8495</v>
+        <v>16.8666</v>
       </c>
       <c r="C3" t="n">
-        <v>41.4982</v>
+        <v>41.6093</v>
       </c>
       <c r="D3" t="n">
-        <v>55.5156</v>
+        <v>55.1254</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0207</v>
+        <v>24.0513</v>
       </c>
       <c r="C4" t="n">
-        <v>58.4151</v>
+        <v>58.5294</v>
       </c>
       <c r="D4" t="n">
-        <v>77.62</v>
+        <v>77.099</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4742</v>
+        <v>31.5047</v>
       </c>
       <c r="C5" t="n">
-        <v>76.1964</v>
+        <v>76.6208</v>
       </c>
       <c r="D5" t="n">
-        <v>99.8309</v>
+        <v>99.18510000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.814</v>
+        <v>33.7945</v>
       </c>
       <c r="C6" t="n">
-        <v>68.4345</v>
+        <v>68.4081</v>
       </c>
       <c r="D6" t="n">
-        <v>92.85080000000001</v>
+        <v>92.6585</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.4978</v>
+        <v>36.3243</v>
       </c>
       <c r="C7" t="n">
-        <v>60.8107</v>
+        <v>60.1377</v>
       </c>
       <c r="D7" t="n">
-        <v>91.72799999999999</v>
+        <v>90.9883</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0342</v>
+        <v>39.0764</v>
       </c>
       <c r="C8" t="n">
-        <v>62.3346</v>
+        <v>62.6497</v>
       </c>
       <c r="D8" t="n">
-        <v>93.8629</v>
+        <v>92.9474</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.826</v>
+        <v>40.799</v>
       </c>
       <c r="C9" t="n">
-        <v>58.6488</v>
+        <v>59.8817</v>
       </c>
       <c r="D9" t="n">
-        <v>94.6328</v>
+        <v>93.0397</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8572</v>
+        <v>40.8005</v>
       </c>
       <c r="C10" t="n">
-        <v>65.1949</v>
+        <v>64.60809999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>96.76560000000001</v>
+        <v>96.4692</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.1721</v>
+        <v>41.2542</v>
       </c>
       <c r="C11" t="n">
-        <v>65.22620000000001</v>
+        <v>65.804</v>
       </c>
       <c r="D11" t="n">
-        <v>97.1974</v>
+        <v>97.01390000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.1388</v>
+        <v>41.323</v>
       </c>
       <c r="C12" t="n">
-        <v>69.4165</v>
+        <v>69.562</v>
       </c>
       <c r="D12" t="n">
-        <v>99.0112</v>
+        <v>97.6463</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.4884</v>
+        <v>41.3904</v>
       </c>
       <c r="C13" t="n">
-        <v>69.5573</v>
+        <v>69.2919</v>
       </c>
       <c r="D13" t="n">
-        <v>98.4884</v>
+        <v>97.6459</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3169</v>
+        <v>41.3272</v>
       </c>
       <c r="C14" t="n">
-        <v>71.81529999999999</v>
+        <v>72.62779999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>99.05710000000001</v>
+        <v>98.86960000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.3239</v>
+        <v>41.2385</v>
       </c>
       <c r="C15" t="n">
-        <v>72.1302</v>
+        <v>72.2928</v>
       </c>
       <c r="D15" t="n">
-        <v>98.1643</v>
+        <v>98.7003</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.3241</v>
+        <v>41.2437</v>
       </c>
       <c r="C16" t="n">
-        <v>73.2107</v>
+        <v>72.4495</v>
       </c>
       <c r="D16" t="n">
-        <v>100.151</v>
+        <v>99.3244</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3129</v>
+        <v>41.3337</v>
       </c>
       <c r="C17" t="n">
-        <v>74.21810000000001</v>
+        <v>73.07769999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>98.48860000000001</v>
+        <v>98.8344</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8829</v>
+        <v>13.8486</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0538</v>
+        <v>29.0806</v>
       </c>
       <c r="D2" t="n">
-        <v>35.6293</v>
+        <v>35.403</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8411</v>
+        <v>26.8047</v>
       </c>
       <c r="C3" t="n">
-        <v>53.5228</v>
+        <v>53.432</v>
       </c>
       <c r="D3" t="n">
-        <v>63.7275</v>
+        <v>63.488</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.7562</v>
+        <v>38.7064</v>
       </c>
       <c r="C4" t="n">
-        <v>74.74299999999999</v>
+        <v>74.6584</v>
       </c>
       <c r="D4" t="n">
-        <v>87.49769999999999</v>
+        <v>86.7544</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.5877</v>
+        <v>50.4607</v>
       </c>
       <c r="C5" t="n">
-        <v>96.15479999999999</v>
+        <v>96.55110000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>110.764</v>
+        <v>111.289</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.7437</v>
+        <v>49.5588</v>
       </c>
       <c r="C6" t="n">
-        <v>81.21720000000001</v>
+        <v>81.4649</v>
       </c>
       <c r="D6" t="n">
-        <v>97.5408</v>
+        <v>97.33920000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.0698</v>
+        <v>50.9172</v>
       </c>
       <c r="C7" t="n">
-        <v>66.70910000000001</v>
+        <v>67.0926</v>
       </c>
       <c r="D7" t="n">
-        <v>90.48650000000001</v>
+        <v>89.37569999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.7227</v>
+        <v>52.4954</v>
       </c>
       <c r="C8" t="n">
-        <v>65.8096</v>
+        <v>65.2388</v>
       </c>
       <c r="D8" t="n">
-        <v>89.11669999999999</v>
+        <v>88.77970000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.6564</v>
+        <v>54.6117</v>
       </c>
       <c r="C9" t="n">
-        <v>58.2134</v>
+        <v>58.4155</v>
       </c>
       <c r="D9" t="n">
-        <v>88.3989</v>
+        <v>88.008</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>54.1785</v>
+        <v>53.9691</v>
       </c>
       <c r="C10" t="n">
-        <v>62.3367</v>
+        <v>62.223</v>
       </c>
       <c r="D10" t="n">
-        <v>88.5874</v>
+        <v>88.5804</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.063</v>
+        <v>54.3549</v>
       </c>
       <c r="C11" t="n">
-        <v>62.6956</v>
+        <v>62.7437</v>
       </c>
       <c r="D11" t="n">
-        <v>88.92</v>
+        <v>88.5475</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.2286</v>
+        <v>54.3609</v>
       </c>
       <c r="C12" t="n">
-        <v>66.66630000000001</v>
+        <v>66.9067</v>
       </c>
       <c r="D12" t="n">
-        <v>89.4157</v>
+        <v>89.63720000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.3629</v>
+        <v>54.044</v>
       </c>
       <c r="C13" t="n">
-        <v>66.6469</v>
+        <v>66.63249999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>90.0692</v>
+        <v>89.4811</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.1996</v>
+        <v>54.5431</v>
       </c>
       <c r="C14" t="n">
-        <v>69.02460000000001</v>
+        <v>69.0692</v>
       </c>
       <c r="D14" t="n">
-        <v>90.8331</v>
+        <v>90.19880000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.2847</v>
+        <v>54.2728</v>
       </c>
       <c r="C15" t="n">
-        <v>68.88330000000001</v>
+        <v>68.566</v>
       </c>
       <c r="D15" t="n">
-        <v>90.69029999999999</v>
+        <v>90.03440000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.2388</v>
+        <v>54.6426</v>
       </c>
       <c r="C16" t="n">
-        <v>71.0864</v>
+        <v>70.76730000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>91.24769999999999</v>
+        <v>90.46510000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.5006</v>
+        <v>54.5073</v>
       </c>
       <c r="C17" t="n">
-        <v>70.78230000000001</v>
+        <v>70.47629999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>90.352</v>
+        <v>90.3822</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3215</v>
+        <v>13.8891</v>
       </c>
       <c r="C2" t="n">
-        <v>24.9894</v>
+        <v>18.6855</v>
       </c>
       <c r="D2" t="n">
-        <v>29.8573</v>
+        <v>29.8425</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.038</v>
+        <v>26.7801</v>
       </c>
       <c r="C3" t="n">
-        <v>33.8502</v>
+        <v>31.0102</v>
       </c>
       <c r="D3" t="n">
-        <v>45.7386</v>
+        <v>44.9754</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.0241</v>
+        <v>31.3916</v>
       </c>
       <c r="C4" t="n">
-        <v>47.9512</v>
+        <v>35.7257</v>
       </c>
       <c r="D4" t="n">
-        <v>53.9903</v>
+        <v>55.1248</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41.3563</v>
+        <v>42.1114</v>
       </c>
       <c r="C5" t="n">
-        <v>61.1007</v>
+        <v>50.8404</v>
       </c>
       <c r="D5" t="n">
-        <v>64.8647</v>
+        <v>74.3052</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.3516</v>
+        <v>40.0238</v>
       </c>
       <c r="C6" t="n">
-        <v>52.9452</v>
+        <v>40.4798</v>
       </c>
       <c r="D6" t="n">
-        <v>61.0808</v>
+        <v>61.2846</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.1091</v>
+        <v>39.5469</v>
       </c>
       <c r="C7" t="n">
-        <v>46.4152</v>
+        <v>40.7141</v>
       </c>
       <c r="D7" t="n">
-        <v>60.9329</v>
+        <v>63.3506</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.2712</v>
+        <v>37.7463</v>
       </c>
       <c r="C8" t="n">
-        <v>48.8479</v>
+        <v>37.2463</v>
       </c>
       <c r="D8" t="n">
-        <v>56.6226</v>
+        <v>69.6906</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.5665</v>
+        <v>39.7074</v>
       </c>
       <c r="C9" t="n">
-        <v>49.8782</v>
+        <v>39.2744</v>
       </c>
       <c r="D9" t="n">
-        <v>60.154</v>
+        <v>60.9708</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.2558</v>
+        <v>46.2775</v>
       </c>
       <c r="C10" t="n">
-        <v>45.161</v>
+        <v>40.4141</v>
       </c>
       <c r="D10" t="n">
-        <v>56.6137</v>
+        <v>59.1547</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.9334</v>
+        <v>47.6475</v>
       </c>
       <c r="C11" t="n">
-        <v>54.4567</v>
+        <v>42.6102</v>
       </c>
       <c r="D11" t="n">
-        <v>66.13460000000001</v>
+        <v>65.57989999999999</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.8597</v>
+        <v>41.1897</v>
       </c>
       <c r="C12" t="n">
-        <v>51.2122</v>
+        <v>39.5541</v>
       </c>
       <c r="D12" t="n">
-        <v>62.1022</v>
+        <v>55.923</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.5809</v>
+        <v>44.6059</v>
       </c>
       <c r="C13" t="n">
-        <v>56.5433</v>
+        <v>43.5443</v>
       </c>
       <c r="D13" t="n">
-        <v>59.4491</v>
+        <v>59.4605</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3761</v>
+        <v>42.3724</v>
       </c>
       <c r="C14" t="n">
-        <v>48.354</v>
+        <v>48.8967</v>
       </c>
       <c r="D14" t="n">
-        <v>58.7445</v>
+        <v>56.9516</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.69</v>
+        <v>46.0471</v>
       </c>
       <c r="C15" t="n">
-        <v>49.1217</v>
+        <v>45.6242</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7099</v>
+        <v>58.594</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.0188</v>
+        <v>44.8912</v>
       </c>
       <c r="C16" t="n">
-        <v>55.1448</v>
+        <v>49.8071</v>
       </c>
       <c r="D16" t="n">
-        <v>61.1343</v>
+        <v>60.4237</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.8512</v>
+        <v>49.0374</v>
       </c>
       <c r="C17" t="n">
-        <v>56.7863</v>
+        <v>46.0208</v>
       </c>
       <c r="D17" t="n">
-        <v>58.7176</v>
+        <v>59.0957</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8563</v>
+        <v>14.8284</v>
       </c>
       <c r="C2" t="n">
-        <v>24.6566</v>
+        <v>18.7307</v>
       </c>
       <c r="D2" t="n">
-        <v>30.6796</v>
+        <v>31.4043</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8388</v>
+        <v>27.4473</v>
       </c>
       <c r="C3" t="n">
-        <v>36.0901</v>
+        <v>30.054</v>
       </c>
       <c r="D3" t="n">
-        <v>44.7428</v>
+        <v>47.1517</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.6342</v>
+        <v>34.1368</v>
       </c>
       <c r="C4" t="n">
-        <v>49.3393</v>
+        <v>31.1445</v>
       </c>
       <c r="D4" t="n">
-        <v>65.9712</v>
+        <v>55.8497</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>44.1628</v>
+        <v>40.2808</v>
       </c>
       <c r="C5" t="n">
-        <v>63.5246</v>
+        <v>56.5542</v>
       </c>
       <c r="D5" t="n">
-        <v>77.9787</v>
+        <v>69.932</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.2652</v>
+        <v>42.8696</v>
       </c>
       <c r="C6" t="n">
-        <v>56.4627</v>
+        <v>44.8352</v>
       </c>
       <c r="D6" t="n">
-        <v>58.6591</v>
+        <v>64.1382</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.6785</v>
+        <v>39.1551</v>
       </c>
       <c r="C7" t="n">
-        <v>55.3156</v>
+        <v>42.8956</v>
       </c>
       <c r="D7" t="n">
-        <v>56.8302</v>
+        <v>65.8357</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.8393</v>
+        <v>39.2648</v>
       </c>
       <c r="C8" t="n">
-        <v>51.1609</v>
+        <v>39.6605</v>
       </c>
       <c r="D8" t="n">
-        <v>59.0119</v>
+        <v>57.1018</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>49.0288</v>
+        <v>44.8725</v>
       </c>
       <c r="C9" t="n">
-        <v>53.5634</v>
+        <v>40.1919</v>
       </c>
       <c r="D9" t="n">
-        <v>60.1105</v>
+        <v>55.8172</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.9966</v>
+        <v>43.7774</v>
       </c>
       <c r="C10" t="n">
-        <v>52.4051</v>
+        <v>42.5084</v>
       </c>
       <c r="D10" t="n">
-        <v>59.6324</v>
+        <v>60.3966</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5117</v>
+        <v>41.611</v>
       </c>
       <c r="C11" t="n">
-        <v>47.133</v>
+        <v>41.0692</v>
       </c>
       <c r="D11" t="n">
-        <v>64.1016</v>
+        <v>54.1675</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>49.2542</v>
+        <v>39.2339</v>
       </c>
       <c r="C12" t="n">
-        <v>47.693</v>
+        <v>41.2578</v>
       </c>
       <c r="D12" t="n">
-        <v>57.9503</v>
+        <v>55.3807</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.99</v>
+        <v>50.0547</v>
       </c>
       <c r="C13" t="n">
-        <v>51.6154</v>
+        <v>39.3876</v>
       </c>
       <c r="D13" t="n">
-        <v>57.6684</v>
+        <v>54.4787</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.0829</v>
+        <v>44.5103</v>
       </c>
       <c r="C14" t="n">
-        <v>52.8054</v>
+        <v>45.3061</v>
       </c>
       <c r="D14" t="n">
-        <v>59.6428</v>
+        <v>64.9495</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.7383</v>
+        <v>43.0005</v>
       </c>
       <c r="C15" t="n">
-        <v>46.0092</v>
+        <v>43.5188</v>
       </c>
       <c r="D15" t="n">
-        <v>57.0983</v>
+        <v>59.2453</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.9588</v>
+        <v>42.9825</v>
       </c>
       <c r="C16" t="n">
-        <v>56.7489</v>
+        <v>41.5308</v>
       </c>
       <c r="D16" t="n">
-        <v>60.2401</v>
+        <v>62.8083</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.6696</v>
+        <v>46.1307</v>
       </c>
       <c r="C17" t="n">
-        <v>48.6434</v>
+        <v>39.1144</v>
       </c>
       <c r="D17" t="n">
-        <v>58.7731</v>
+        <v>66.2623</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4712</v>
+        <v>18.3755</v>
       </c>
       <c r="C2" t="n">
-        <v>27.2359</v>
+        <v>21.5827</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5856</v>
+        <v>31.5628</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.3233</v>
+        <v>30.651</v>
       </c>
       <c r="C3" t="n">
-        <v>46.4363</v>
+        <v>32.3908</v>
       </c>
       <c r="D3" t="n">
-        <v>50.5013</v>
+        <v>43.752</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.1153</v>
+        <v>31.6952</v>
       </c>
       <c r="C4" t="n">
-        <v>52.0765</v>
+        <v>47.5115</v>
       </c>
       <c r="D4" t="n">
-        <v>56.8486</v>
+        <v>52.6192</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.9648</v>
+        <v>45.2723</v>
       </c>
       <c r="C5" t="n">
-        <v>61.4923</v>
+        <v>49.794</v>
       </c>
       <c r="D5" t="n">
-        <v>68.443</v>
+        <v>78.14919999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44.9999</v>
+        <v>41.4905</v>
       </c>
       <c r="C6" t="n">
-        <v>53.148</v>
+        <v>51.1646</v>
       </c>
       <c r="D6" t="n">
-        <v>61.9607</v>
+        <v>62.6802</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.214</v>
+        <v>43.6835</v>
       </c>
       <c r="C7" t="n">
-        <v>51.5672</v>
+        <v>40.0723</v>
       </c>
       <c r="D7" t="n">
-        <v>56.2186</v>
+        <v>59.873</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>46.4177</v>
+        <v>45.0369</v>
       </c>
       <c r="C8" t="n">
-        <v>50.3534</v>
+        <v>36.2645</v>
       </c>
       <c r="D8" t="n">
-        <v>60.4965</v>
+        <v>58.3265</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.2178</v>
+        <v>43.2136</v>
       </c>
       <c r="C9" t="n">
-        <v>47.8501</v>
+        <v>37.1725</v>
       </c>
       <c r="D9" t="n">
-        <v>56.8161</v>
+        <v>57.988</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.8634</v>
+        <v>44.2119</v>
       </c>
       <c r="C10" t="n">
-        <v>52.3894</v>
+        <v>44.077</v>
       </c>
       <c r="D10" t="n">
-        <v>58.3089</v>
+        <v>57.4413</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.7419</v>
+        <v>44.3915</v>
       </c>
       <c r="C11" t="n">
-        <v>45.3364</v>
+        <v>36.1714</v>
       </c>
       <c r="D11" t="n">
-        <v>56.7595</v>
+        <v>55.5125</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.4896</v>
+        <v>46.385</v>
       </c>
       <c r="C12" t="n">
-        <v>49.5031</v>
+        <v>36.7102</v>
       </c>
       <c r="D12" t="n">
-        <v>58.1166</v>
+        <v>59.4192</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.0162</v>
+        <v>49.6034</v>
       </c>
       <c r="C13" t="n">
-        <v>45.0913</v>
+        <v>36.9644</v>
       </c>
       <c r="D13" t="n">
-        <v>56.1629</v>
+        <v>56.1468</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.6547</v>
+        <v>52.6398</v>
       </c>
       <c r="C14" t="n">
-        <v>47.6653</v>
+        <v>33.5907</v>
       </c>
       <c r="D14" t="n">
-        <v>61.2854</v>
+        <v>58.7876</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.6155</v>
+        <v>48.8495</v>
       </c>
       <c r="C15" t="n">
-        <v>40.2107</v>
+        <v>35.4466</v>
       </c>
       <c r="D15" t="n">
-        <v>49.6618</v>
+        <v>55.4326</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.1257</v>
+        <v>48.8871</v>
       </c>
       <c r="C16" t="n">
-        <v>49.2482</v>
+        <v>40.0997</v>
       </c>
       <c r="D16" t="n">
-        <v>56.9244</v>
+        <v>58.5474</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.2097</v>
+        <v>51.1799</v>
       </c>
       <c r="C17" t="n">
-        <v>43.45</v>
+        <v>40.3332</v>
       </c>
       <c r="D17" t="n">
-        <v>51.6452</v>
+        <v>55.9369</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.81091</v>
+        <v>8.84394</v>
       </c>
       <c r="C2" t="n">
-        <v>22.1652</v>
+        <v>16.7233</v>
       </c>
       <c r="D2" t="n">
-        <v>29.2503</v>
+        <v>29.0754</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.776</v>
+        <v>16.7158</v>
       </c>
       <c r="C3" t="n">
-        <v>42.2012</v>
+        <v>30.1997</v>
       </c>
       <c r="D3" t="n">
-        <v>54.6684</v>
+        <v>54.5538</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8014</v>
+        <v>23.793</v>
       </c>
       <c r="C4" t="n">
-        <v>59.4664</v>
+        <v>41.6321</v>
       </c>
       <c r="D4" t="n">
-        <v>76.50660000000001</v>
+        <v>76.253</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1762</v>
+        <v>31.0652</v>
       </c>
       <c r="C5" t="n">
-        <v>77.6311</v>
+        <v>52.8318</v>
       </c>
       <c r="D5" t="n">
-        <v>98.5587</v>
+        <v>98.5132</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4183</v>
+        <v>33.2213</v>
       </c>
       <c r="C6" t="n">
-        <v>69.17829999999999</v>
+        <v>45.4503</v>
       </c>
       <c r="D6" t="n">
-        <v>91.87739999999999</v>
+        <v>91.2414</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9338</v>
+        <v>35.8946</v>
       </c>
       <c r="C7" t="n">
-        <v>61.2794</v>
+        <v>44.9823</v>
       </c>
       <c r="D7" t="n">
-        <v>90.392</v>
+        <v>92.1234</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5072</v>
+        <v>38.3824</v>
       </c>
       <c r="C8" t="n">
-        <v>62.3937</v>
+        <v>45.1803</v>
       </c>
       <c r="D8" t="n">
-        <v>92.2679</v>
+        <v>92.2457</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.2831</v>
+        <v>39.9503</v>
       </c>
       <c r="C9" t="n">
-        <v>58.6938</v>
+        <v>45.3913</v>
       </c>
       <c r="D9" t="n">
-        <v>93.86579999999999</v>
+        <v>94.76220000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.3183</v>
+        <v>40.1866</v>
       </c>
       <c r="C10" t="n">
-        <v>64.7398</v>
+        <v>49.392</v>
       </c>
       <c r="D10" t="n">
-        <v>95.6327</v>
+        <v>94.1416</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5096</v>
+        <v>40.3819</v>
       </c>
       <c r="C11" t="n">
-        <v>67.1241</v>
+        <v>51.4528</v>
       </c>
       <c r="D11" t="n">
-        <v>96.544</v>
+        <v>96.5194</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6611</v>
+        <v>40.4949</v>
       </c>
       <c r="C12" t="n">
-        <v>69.7347</v>
+        <v>52.7546</v>
       </c>
       <c r="D12" t="n">
-        <v>98.0552</v>
+        <v>96.55159999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.6096</v>
+        <v>40.5739</v>
       </c>
       <c r="C13" t="n">
-        <v>70.5904</v>
+        <v>53.1861</v>
       </c>
       <c r="D13" t="n">
-        <v>98.68089999999999</v>
+        <v>97.5282</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.6074</v>
+        <v>40.5144</v>
       </c>
       <c r="C14" t="n">
-        <v>72.0766</v>
+        <v>53.4008</v>
       </c>
       <c r="D14" t="n">
-        <v>98.9299</v>
+        <v>96.64530000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.7415</v>
+        <v>40.4931</v>
       </c>
       <c r="C15" t="n">
-        <v>72.9515</v>
+        <v>53.1062</v>
       </c>
       <c r="D15" t="n">
-        <v>99.11499999999999</v>
+        <v>97.2928</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7392</v>
+        <v>40.6541</v>
       </c>
       <c r="C16" t="n">
-        <v>73.7706</v>
+        <v>53.2182</v>
       </c>
       <c r="D16" t="n">
-        <v>99.00239999999999</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7132</v>
+        <v>40.5834</v>
       </c>
       <c r="C17" t="n">
-        <v>73.9169</v>
+        <v>53.1557</v>
       </c>
       <c r="D17" t="n">
-        <v>97.8432</v>
+        <v>98.1887</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87759</v>
+        <v>8.8612</v>
       </c>
       <c r="C2" t="n">
-        <v>21.8341</v>
+        <v>16.8623</v>
       </c>
       <c r="D2" t="n">
-        <v>29.3873</v>
+        <v>29.2114</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8666</v>
+        <v>16.8236</v>
       </c>
       <c r="C3" t="n">
-        <v>41.6093</v>
+        <v>30.4418</v>
       </c>
       <c r="D3" t="n">
-        <v>55.1254</v>
+        <v>55.0544</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0513</v>
+        <v>23.9331</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5294</v>
+        <v>41.9306</v>
       </c>
       <c r="D4" t="n">
-        <v>77.099</v>
+        <v>76.6465</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.5047</v>
+        <v>31.4213</v>
       </c>
       <c r="C5" t="n">
-        <v>76.6208</v>
+        <v>53.3212</v>
       </c>
       <c r="D5" t="n">
-        <v>99.18510000000001</v>
+        <v>99.0155</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7945</v>
+        <v>33.7326</v>
       </c>
       <c r="C6" t="n">
-        <v>68.4081</v>
+        <v>45.8896</v>
       </c>
       <c r="D6" t="n">
-        <v>92.6585</v>
+        <v>92.7735</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3243</v>
+        <v>36.371</v>
       </c>
       <c r="C7" t="n">
-        <v>60.1377</v>
+        <v>45.4257</v>
       </c>
       <c r="D7" t="n">
-        <v>90.9883</v>
+        <v>92.7603</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0764</v>
+        <v>38.8184</v>
       </c>
       <c r="C8" t="n">
-        <v>62.6497</v>
+        <v>45.6657</v>
       </c>
       <c r="D8" t="n">
-        <v>92.9474</v>
+        <v>92.4607</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.799</v>
+        <v>40.59</v>
       </c>
       <c r="C9" t="n">
-        <v>59.8817</v>
+        <v>45.7964</v>
       </c>
       <c r="D9" t="n">
-        <v>93.0397</v>
+        <v>95.3095</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8005</v>
+        <v>40.5871</v>
       </c>
       <c r="C10" t="n">
-        <v>64.60809999999999</v>
+        <v>49.8971</v>
       </c>
       <c r="D10" t="n">
-        <v>96.4692</v>
+        <v>94.92829999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.2542</v>
+        <v>41.0164</v>
       </c>
       <c r="C11" t="n">
-        <v>65.804</v>
+        <v>51.7639</v>
       </c>
       <c r="D11" t="n">
-        <v>97.01390000000001</v>
+        <v>96.2397</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.323</v>
+        <v>41.1211</v>
       </c>
       <c r="C12" t="n">
-        <v>69.562</v>
+        <v>52.6884</v>
       </c>
       <c r="D12" t="n">
-        <v>97.6463</v>
+        <v>96.1519</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3904</v>
+        <v>41.2832</v>
       </c>
       <c r="C13" t="n">
-        <v>69.2919</v>
+        <v>53.1937</v>
       </c>
       <c r="D13" t="n">
-        <v>97.6459</v>
+        <v>97.8716</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3272</v>
+        <v>41.091</v>
       </c>
       <c r="C14" t="n">
-        <v>72.62779999999999</v>
+        <v>53.7006</v>
       </c>
       <c r="D14" t="n">
-        <v>98.86960000000001</v>
+        <v>97.4139</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2385</v>
+        <v>41.2304</v>
       </c>
       <c r="C15" t="n">
-        <v>72.2928</v>
+        <v>53.7785</v>
       </c>
       <c r="D15" t="n">
-        <v>98.7003</v>
+        <v>98.5005</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.2437</v>
+        <v>41.0708</v>
       </c>
       <c r="C16" t="n">
-        <v>72.4495</v>
+        <v>53.7269</v>
       </c>
       <c r="D16" t="n">
-        <v>99.3244</v>
+        <v>98.0639</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3337</v>
+        <v>41.1922</v>
       </c>
       <c r="C17" t="n">
-        <v>73.07769999999999</v>
+        <v>53.7192</v>
       </c>
       <c r="D17" t="n">
-        <v>98.8344</v>
+        <v>98.62779999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="F27" sqref="F27"/>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8486</v>
+        <v>13.8006</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0806</v>
+        <v>21.5274</v>
       </c>
       <c r="D2" t="n">
-        <v>35.403</v>
+        <v>35.2832</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8047</v>
+        <v>26.7653</v>
       </c>
       <c r="C3" t="n">
-        <v>53.432</v>
+        <v>38.86</v>
       </c>
       <c r="D3" t="n">
-        <v>63.488</v>
+        <v>63.2377</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.7064</v>
+        <v>38.4385</v>
       </c>
       <c r="C4" t="n">
-        <v>74.6584</v>
+        <v>53.981</v>
       </c>
       <c r="D4" t="n">
-        <v>86.7544</v>
+        <v>86.4528</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.4607</v>
+        <v>50.3478</v>
       </c>
       <c r="C5" t="n">
-        <v>96.55110000000001</v>
+        <v>69.40519999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>111.289</v>
+        <v>110.035</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.5588</v>
+        <v>49.8485</v>
       </c>
       <c r="C6" t="n">
-        <v>81.4649</v>
+        <v>55.7713</v>
       </c>
       <c r="D6" t="n">
-        <v>97.33920000000001</v>
+        <v>97.3772</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50.9172</v>
+        <v>51.895</v>
       </c>
       <c r="C7" t="n">
-        <v>67.0926</v>
+        <v>52.9916</v>
       </c>
       <c r="D7" t="n">
-        <v>89.37569999999999</v>
+        <v>92.18689999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.4954</v>
+        <v>53.531</v>
       </c>
       <c r="C8" t="n">
-        <v>65.2388</v>
+        <v>51.9784</v>
       </c>
       <c r="D8" t="n">
-        <v>88.77970000000001</v>
+        <v>88.61060000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.6117</v>
+        <v>55.7548</v>
       </c>
       <c r="C9" t="n">
-        <v>58.4155</v>
+        <v>50.6524</v>
       </c>
       <c r="D9" t="n">
-        <v>88.008</v>
+        <v>90.54640000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53.9691</v>
+        <v>55.3072</v>
       </c>
       <c r="C10" t="n">
-        <v>62.223</v>
+        <v>53.8696</v>
       </c>
       <c r="D10" t="n">
-        <v>88.5804</v>
+        <v>88.8321</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>54.3549</v>
+        <v>55.6975</v>
       </c>
       <c r="C11" t="n">
-        <v>62.7437</v>
+        <v>55.588</v>
       </c>
       <c r="D11" t="n">
-        <v>88.5475</v>
+        <v>89.9765</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.3609</v>
+        <v>55.6253</v>
       </c>
       <c r="C12" t="n">
-        <v>66.9067</v>
+        <v>55.6368</v>
       </c>
       <c r="D12" t="n">
-        <v>89.63720000000001</v>
+        <v>90.12860000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.044</v>
+        <v>55.7903</v>
       </c>
       <c r="C13" t="n">
-        <v>66.63249999999999</v>
+        <v>55.6558</v>
       </c>
       <c r="D13" t="n">
-        <v>89.4811</v>
+        <v>90.8015</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>54.5431</v>
+        <v>56.1014</v>
       </c>
       <c r="C14" t="n">
-        <v>69.0692</v>
+        <v>56.0538</v>
       </c>
       <c r="D14" t="n">
-        <v>90.19880000000001</v>
+        <v>90.5468</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>54.2728</v>
+        <v>55.9279</v>
       </c>
       <c r="C15" t="n">
-        <v>68.566</v>
+        <v>56.2221</v>
       </c>
       <c r="D15" t="n">
-        <v>90.03440000000001</v>
+        <v>90.53740000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>54.6426</v>
+        <v>56.1457</v>
       </c>
       <c r="C16" t="n">
-        <v>70.76730000000001</v>
+        <v>56.2368</v>
       </c>
       <c r="D16" t="n">
-        <v>90.46510000000001</v>
+        <v>90.72499999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.5073</v>
+        <v>54.5629</v>
       </c>
       <c r="C17" t="n">
-        <v>70.47629999999999</v>
+        <v>56.3279</v>
       </c>
       <c r="D17" t="n">
-        <v>90.3822</v>
+        <v>91.0603</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.8155</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.9806</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.2169</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.1888</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>30.3287</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.0105</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.9483</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.5799</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.6174</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.6067</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.923</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.1742</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>37.5687</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.547</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.5465</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7523</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -278,7 +278,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.0237</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.5483</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7479</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.4058</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.3727</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.4698</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.0389</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.9232</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.4942</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0776</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.1283</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2963</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.9511</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.9614</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.9461</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>36.1476</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -424,7 +424,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.3402</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>30.0421</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.4251</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>45.4028</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.8164</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.9466</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.5062</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.9299</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.7653</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>40.7763</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.2757</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.4834</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3856</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.812</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.5151</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.17</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.3115</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>21.3377</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.9759</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>36.9453</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.0078</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.567</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.0236</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7934</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1537</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>41.2269</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.044</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.2941</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4397</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.4343</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.9971</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2668</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -856,7 +974,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8756</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.3022</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7141</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>32.7353</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.4842</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.8729</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.3784</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.8949</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.2611</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.1615</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.6816</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.4094</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.4607</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.6837</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>35.4533</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1002,7 +1120,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.2281</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>29.3131</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0279</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>43.3401</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.9461</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.324</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3256</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.357</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>42.9263</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>44.4764</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.4995</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>38.8887</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.0915</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>53.1451</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.3253</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.6415</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.38</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.6113</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.9767</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>34.9982</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>31.855</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.9548</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.3225</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.5931</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.1243</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.0461</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.6745</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.6163</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.7882</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.093</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.0737</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.2469</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1434,7 +1670,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.6187</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.3232</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0667</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.0206</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.439</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>33.6879</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.8504</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>32.7418</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.4355</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.636</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.676</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.8253</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4019</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.7958</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7958</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>31.9247</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1580,7 +1816,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>19.4058</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>28.4519</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.4547</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>51.6131</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.8486</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.9607</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.7581</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>35.3177</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.5044</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.2708</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.9998</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.7806</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.4542</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>40.6207</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.0763</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>47.8814</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.80876</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.074</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7496</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.5411</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.8405</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.3267</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.6785</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.1948</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.5386</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.7248</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7471</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.862</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.8593</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.8689</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.765</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7869</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2012,7 +2366,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6049</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.5666</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.408</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.1723</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>35.6446</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.8439</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6128</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.0986</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.8964</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.4847</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.5297</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.2206</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>43.8155</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>43.8653</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>43.6721</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.1658</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2158,7 +2512,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.5764</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.8358</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>45.2819</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>59.1192</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>54.0172</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>54.4127</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>50.4742</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>51.9251</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.902</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>56.1517</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.5848</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>58.5013</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.9038</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>60.0247</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7863</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.8409</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.7868</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.0767</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.7009</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>27.0746</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.6125</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.971</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.3573</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8574</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.0887</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.2369</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2309</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1931</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.1652</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.2482</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.2526</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2590,7 +3062,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6582</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.6945</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.5816</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.5794</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.116</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.2347</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.8983</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.4908</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.6198</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>43.3567</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.8296</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.0611</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>44.0334</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.3743</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.3181</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.2489</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2736,7 +3208,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.2903</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.3309</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>44.6355</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>58.5385</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>53.488</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>53.6234</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>49.8641</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>52.2535</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>52.3654</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.1198</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.0094</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.4396</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.1217</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>59.5574</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7426</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.2745</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.4883</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.1754</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.4118</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>38.4961</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.4254</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>41.5705</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>43.5271</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>45.6261</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>45.7379</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.3791</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.8115</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.6403</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.7812</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.4357</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>45.5424</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>45.8045</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3168,7 +3758,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.5867</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>27.3727</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>37.9749</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>48.9446</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>41.8231</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.5591</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>40.3313</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.9787</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>43.3113</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.4197</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.7413</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.7938</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.9366</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0147</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.0135</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.1628</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3314,7 +3904,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>20.0769</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>37.848</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>53.4698</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>70.1417</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.037</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>59.6639</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>51.8797</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>54.1691</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.4956</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>54.8678</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>54.8131</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.006</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.6955</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.2771</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>58.3954</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.4764</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4073,10 +4781,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4093,6 +4806,9 @@
         <v>18.6855</v>
       </c>
       <c r="D2" t="n">
+        <v>25.1245</v>
+      </c>
+      <c r="E2" t="n">
         <v>29.8425</v>
       </c>
     </row>
@@ -4107,6 +4823,9 @@
         <v>31.0102</v>
       </c>
       <c r="D3" t="n">
+        <v>33.3849</v>
+      </c>
+      <c r="E3" t="n">
         <v>44.9754</v>
       </c>
     </row>
@@ -4121,6 +4840,9 @@
         <v>35.7257</v>
       </c>
       <c r="D4" t="n">
+        <v>48.2392</v>
+      </c>
+      <c r="E4" t="n">
         <v>55.1248</v>
       </c>
     </row>
@@ -4135,6 +4857,9 @@
         <v>50.8404</v>
       </c>
       <c r="D5" t="n">
+        <v>61.9033</v>
+      </c>
+      <c r="E5" t="n">
         <v>74.3052</v>
       </c>
     </row>
@@ -4149,6 +4874,9 @@
         <v>40.4798</v>
       </c>
       <c r="D6" t="n">
+        <v>51.4984</v>
+      </c>
+      <c r="E6" t="n">
         <v>61.2846</v>
       </c>
     </row>
@@ -4163,6 +4891,9 @@
         <v>40.7141</v>
       </c>
       <c r="D7" t="n">
+        <v>49.997</v>
+      </c>
+      <c r="E7" t="n">
         <v>63.3506</v>
       </c>
     </row>
@@ -4177,6 +4908,9 @@
         <v>37.2463</v>
       </c>
       <c r="D8" t="n">
+        <v>53.5658</v>
+      </c>
+      <c r="E8" t="n">
         <v>69.6906</v>
       </c>
     </row>
@@ -4191,6 +4925,9 @@
         <v>39.2744</v>
       </c>
       <c r="D9" t="n">
+        <v>49.8046</v>
+      </c>
+      <c r="E9" t="n">
         <v>60.9708</v>
       </c>
     </row>
@@ -4205,6 +4942,9 @@
         <v>40.4141</v>
       </c>
       <c r="D10" t="n">
+        <v>51.2952</v>
+      </c>
+      <c r="E10" t="n">
         <v>59.1547</v>
       </c>
     </row>
@@ -4219,6 +4959,9 @@
         <v>42.6102</v>
       </c>
       <c r="D11" t="n">
+        <v>55.992</v>
+      </c>
+      <c r="E11" t="n">
         <v>65.57989999999999</v>
       </c>
     </row>
@@ -4233,6 +4976,9 @@
         <v>39.5541</v>
       </c>
       <c r="D12" t="n">
+        <v>51.6304</v>
+      </c>
+      <c r="E12" t="n">
         <v>55.923</v>
       </c>
     </row>
@@ -4247,6 +4993,9 @@
         <v>43.5443</v>
       </c>
       <c r="D13" t="n">
+        <v>54.8665</v>
+      </c>
+      <c r="E13" t="n">
         <v>59.4605</v>
       </c>
     </row>
@@ -4261,6 +5010,9 @@
         <v>48.8967</v>
       </c>
       <c r="D14" t="n">
+        <v>54.975</v>
+      </c>
+      <c r="E14" t="n">
         <v>56.9516</v>
       </c>
     </row>
@@ -4275,6 +5027,9 @@
         <v>45.6242</v>
       </c>
       <c r="D15" t="n">
+        <v>55.5807</v>
+      </c>
+      <c r="E15" t="n">
         <v>58.594</v>
       </c>
     </row>
@@ -4289,6 +5044,9 @@
         <v>49.8071</v>
       </c>
       <c r="D16" t="n">
+        <v>44.9125</v>
+      </c>
+      <c r="E16" t="n">
         <v>60.4237</v>
       </c>
     </row>
@@ -4303,6 +5061,9 @@
         <v>46.0208</v>
       </c>
       <c r="D17" t="n">
+        <v>55.7518</v>
+      </c>
+      <c r="E17" t="n">
         <v>59.0957</v>
       </c>
     </row>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4337,10 +5098,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4357,6 +5123,9 @@
         <v>18.7307</v>
       </c>
       <c r="D2" t="n">
+        <v>24.796</v>
+      </c>
+      <c r="E2" t="n">
         <v>31.4043</v>
       </c>
     </row>
@@ -4371,6 +5140,9 @@
         <v>30.054</v>
       </c>
       <c r="D3" t="n">
+        <v>33.9859</v>
+      </c>
+      <c r="E3" t="n">
         <v>47.1517</v>
       </c>
     </row>
@@ -4385,6 +5157,9 @@
         <v>31.1445</v>
       </c>
       <c r="D4" t="n">
+        <v>50.639</v>
+      </c>
+      <c r="E4" t="n">
         <v>55.8497</v>
       </c>
     </row>
@@ -4399,6 +5174,9 @@
         <v>56.5542</v>
       </c>
       <c r="D5" t="n">
+        <v>59.6739</v>
+      </c>
+      <c r="E5" t="n">
         <v>69.932</v>
       </c>
     </row>
@@ -4413,6 +5191,9 @@
         <v>44.8352</v>
       </c>
       <c r="D6" t="n">
+        <v>51.8423</v>
+      </c>
+      <c r="E6" t="n">
         <v>64.1382</v>
       </c>
     </row>
@@ -4427,6 +5208,9 @@
         <v>42.8956</v>
       </c>
       <c r="D7" t="n">
+        <v>50.5577</v>
+      </c>
+      <c r="E7" t="n">
         <v>65.8357</v>
       </c>
     </row>
@@ -4441,6 +5225,9 @@
         <v>39.6605</v>
       </c>
       <c r="D8" t="n">
+        <v>49.5413</v>
+      </c>
+      <c r="E8" t="n">
         <v>57.1018</v>
       </c>
     </row>
@@ -4455,6 +5242,9 @@
         <v>40.1919</v>
       </c>
       <c r="D9" t="n">
+        <v>50.6425</v>
+      </c>
+      <c r="E9" t="n">
         <v>55.8172</v>
       </c>
     </row>
@@ -4469,6 +5259,9 @@
         <v>42.5084</v>
       </c>
       <c r="D10" t="n">
+        <v>46.3171</v>
+      </c>
+      <c r="E10" t="n">
         <v>60.3966</v>
       </c>
     </row>
@@ -4483,6 +5276,9 @@
         <v>41.0692</v>
       </c>
       <c r="D11" t="n">
+        <v>52.3269</v>
+      </c>
+      <c r="E11" t="n">
         <v>54.1675</v>
       </c>
     </row>
@@ -4497,6 +5293,9 @@
         <v>41.2578</v>
       </c>
       <c r="D12" t="n">
+        <v>56.9057</v>
+      </c>
+      <c r="E12" t="n">
         <v>55.3807</v>
       </c>
     </row>
@@ -4511,6 +5310,9 @@
         <v>39.3876</v>
       </c>
       <c r="D13" t="n">
+        <v>50.1728</v>
+      </c>
+      <c r="E13" t="n">
         <v>54.4787</v>
       </c>
     </row>
@@ -4525,6 +5327,9 @@
         <v>45.3061</v>
       </c>
       <c r="D14" t="n">
+        <v>52.2355</v>
+      </c>
+      <c r="E14" t="n">
         <v>64.9495</v>
       </c>
     </row>
@@ -4539,6 +5344,9 @@
         <v>43.5188</v>
       </c>
       <c r="D15" t="n">
+        <v>49.7858</v>
+      </c>
+      <c r="E15" t="n">
         <v>59.2453</v>
       </c>
     </row>
@@ -4553,6 +5361,9 @@
         <v>41.5308</v>
       </c>
       <c r="D16" t="n">
+        <v>52.4368</v>
+      </c>
+      <c r="E16" t="n">
         <v>62.8083</v>
       </c>
     </row>
@@ -4567,6 +5378,9 @@
         <v>39.1144</v>
       </c>
       <c r="D17" t="n">
+        <v>52.1182</v>
+      </c>
+      <c r="E17" t="n">
         <v>66.2623</v>
       </c>
     </row>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4601,10 +5415,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4621,6 +5440,9 @@
         <v>21.5827</v>
       </c>
       <c r="D2" t="n">
+        <v>27.9769</v>
+      </c>
+      <c r="E2" t="n">
         <v>31.5628</v>
       </c>
     </row>
@@ -4635,6 +5457,9 @@
         <v>32.3908</v>
       </c>
       <c r="D3" t="n">
+        <v>44.1949</v>
+      </c>
+      <c r="E3" t="n">
         <v>43.752</v>
       </c>
     </row>
@@ -4649,6 +5474,9 @@
         <v>47.5115</v>
       </c>
       <c r="D4" t="n">
+        <v>55.2234</v>
+      </c>
+      <c r="E4" t="n">
         <v>52.6192</v>
       </c>
     </row>
@@ -4663,6 +5491,9 @@
         <v>49.794</v>
       </c>
       <c r="D5" t="n">
+        <v>60.1634</v>
+      </c>
+      <c r="E5" t="n">
         <v>78.14919999999999</v>
       </c>
     </row>
@@ -4677,6 +5508,9 @@
         <v>51.1646</v>
       </c>
       <c r="D6" t="n">
+        <v>55.7351</v>
+      </c>
+      <c r="E6" t="n">
         <v>62.6802</v>
       </c>
     </row>
@@ -4691,6 +5525,9 @@
         <v>40.0723</v>
       </c>
       <c r="D7" t="n">
+        <v>55.9809</v>
+      </c>
+      <c r="E7" t="n">
         <v>59.873</v>
       </c>
     </row>
@@ -4705,6 +5542,9 @@
         <v>36.2645</v>
       </c>
       <c r="D8" t="n">
+        <v>55.2427</v>
+      </c>
+      <c r="E8" t="n">
         <v>58.3265</v>
       </c>
     </row>
@@ -4719,6 +5559,9 @@
         <v>37.1725</v>
       </c>
       <c r="D9" t="n">
+        <v>56.5237</v>
+      </c>
+      <c r="E9" t="n">
         <v>57.988</v>
       </c>
     </row>
@@ -4733,6 +5576,9 @@
         <v>44.077</v>
       </c>
       <c r="D10" t="n">
+        <v>50.8869</v>
+      </c>
+      <c r="E10" t="n">
         <v>57.4413</v>
       </c>
     </row>
@@ -4747,6 +5593,9 @@
         <v>36.1714</v>
       </c>
       <c r="D11" t="n">
+        <v>52.1923</v>
+      </c>
+      <c r="E11" t="n">
         <v>55.5125</v>
       </c>
     </row>
@@ -4761,6 +5610,9 @@
         <v>36.7102</v>
       </c>
       <c r="D12" t="n">
+        <v>53.8971</v>
+      </c>
+      <c r="E12" t="n">
         <v>59.4192</v>
       </c>
     </row>
@@ -4775,6 +5627,9 @@
         <v>36.9644</v>
       </c>
       <c r="D13" t="n">
+        <v>51.7317</v>
+      </c>
+      <c r="E13" t="n">
         <v>56.1468</v>
       </c>
     </row>
@@ -4789,6 +5644,9 @@
         <v>33.5907</v>
       </c>
       <c r="D14" t="n">
+        <v>54.8077</v>
+      </c>
+      <c r="E14" t="n">
         <v>58.7876</v>
       </c>
     </row>
@@ -4803,6 +5661,9 @@
         <v>35.4466</v>
       </c>
       <c r="D15" t="n">
+        <v>53.8731</v>
+      </c>
+      <c r="E15" t="n">
         <v>55.4326</v>
       </c>
     </row>
@@ -4817,6 +5678,9 @@
         <v>40.0997</v>
       </c>
       <c r="D16" t="n">
+        <v>52.6968</v>
+      </c>
+      <c r="E16" t="n">
         <v>58.5474</v>
       </c>
     </row>
@@ -4831,6 +5695,9 @@
         <v>40.3332</v>
       </c>
       <c r="D17" t="n">
+        <v>55.1635</v>
+      </c>
+      <c r="E17" t="n">
         <v>55.9369</v>
       </c>
     </row>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4865,10 +5732,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4885,6 +5757,9 @@
         <v>16.7233</v>
       </c>
       <c r="D2" t="n">
+        <v>21.9766</v>
+      </c>
+      <c r="E2" t="n">
         <v>29.0754</v>
       </c>
     </row>
@@ -4899,6 +5774,9 @@
         <v>30.1997</v>
       </c>
       <c r="D3" t="n">
+        <v>41.5459</v>
+      </c>
+      <c r="E3" t="n">
         <v>54.5538</v>
       </c>
     </row>
@@ -4913,6 +5791,9 @@
         <v>41.6321</v>
       </c>
       <c r="D4" t="n">
+        <v>58.6359</v>
+      </c>
+      <c r="E4" t="n">
         <v>76.253</v>
       </c>
     </row>
@@ -4927,6 +5808,9 @@
         <v>52.8318</v>
       </c>
       <c r="D5" t="n">
+        <v>77.124</v>
+      </c>
+      <c r="E5" t="n">
         <v>98.5132</v>
       </c>
     </row>
@@ -4941,6 +5825,9 @@
         <v>45.4503</v>
       </c>
       <c r="D6" t="n">
+        <v>68.72329999999999</v>
+      </c>
+      <c r="E6" t="n">
         <v>91.2414</v>
       </c>
     </row>
@@ -4955,6 +5842,9 @@
         <v>44.9823</v>
       </c>
       <c r="D7" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="E7" t="n">
         <v>92.1234</v>
       </c>
     </row>
@@ -4969,6 +5859,9 @@
         <v>45.1803</v>
       </c>
       <c r="D8" t="n">
+        <v>61.1922</v>
+      </c>
+      <c r="E8" t="n">
         <v>92.2457</v>
       </c>
     </row>
@@ -4983,6 +5876,9 @@
         <v>45.3913</v>
       </c>
       <c r="D9" t="n">
+        <v>63.3006</v>
+      </c>
+      <c r="E9" t="n">
         <v>94.76220000000001</v>
       </c>
     </row>
@@ -4997,6 +5893,9 @@
         <v>49.392</v>
       </c>
       <c r="D10" t="n">
+        <v>64.34780000000001</v>
+      </c>
+      <c r="E10" t="n">
         <v>94.1416</v>
       </c>
     </row>
@@ -5011,6 +5910,9 @@
         <v>51.4528</v>
       </c>
       <c r="D11" t="n">
+        <v>68.33499999999999</v>
+      </c>
+      <c r="E11" t="n">
         <v>96.5194</v>
       </c>
     </row>
@@ -5025,6 +5927,9 @@
         <v>52.7546</v>
       </c>
       <c r="D12" t="n">
+        <v>68.9234</v>
+      </c>
+      <c r="E12" t="n">
         <v>96.55159999999999</v>
       </c>
     </row>
@@ -5039,6 +5944,9 @@
         <v>53.1861</v>
       </c>
       <c r="D13" t="n">
+        <v>71.0347</v>
+      </c>
+      <c r="E13" t="n">
         <v>97.5282</v>
       </c>
     </row>
@@ -5053,6 +5961,9 @@
         <v>53.4008</v>
       </c>
       <c r="D14" t="n">
+        <v>70.60639999999999</v>
+      </c>
+      <c r="E14" t="n">
         <v>96.64530000000001</v>
       </c>
     </row>
@@ -5067,6 +5978,9 @@
         <v>53.1062</v>
       </c>
       <c r="D15" t="n">
+        <v>72.6923</v>
+      </c>
+      <c r="E15" t="n">
         <v>97.2928</v>
       </c>
     </row>
@@ -5081,6 +5995,9 @@
         <v>53.2182</v>
       </c>
       <c r="D16" t="n">
+        <v>73.2376</v>
+      </c>
+      <c r="E16" t="n">
         <v>97.73</v>
       </c>
     </row>
@@ -5095,6 +6012,9 @@
         <v>53.1557</v>
       </c>
       <c r="D17" t="n">
+        <v>75.15989999999999</v>
+      </c>
+      <c r="E17" t="n">
         <v>98.1887</v>
       </c>
     </row>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5129,10 +6049,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5149,6 +6074,9 @@
         <v>16.8623</v>
       </c>
       <c r="D2" t="n">
+        <v>21.6614</v>
+      </c>
+      <c r="E2" t="n">
         <v>29.2114</v>
       </c>
     </row>
@@ -5163,6 +6091,9 @@
         <v>30.4418</v>
       </c>
       <c r="D3" t="n">
+        <v>40.983</v>
+      </c>
+      <c r="E3" t="n">
         <v>55.0544</v>
       </c>
     </row>
@@ -5177,6 +6108,9 @@
         <v>41.9306</v>
       </c>
       <c r="D4" t="n">
+        <v>57.8643</v>
+      </c>
+      <c r="E4" t="n">
         <v>76.6465</v>
       </c>
     </row>
@@ -5191,6 +6125,9 @@
         <v>53.3212</v>
       </c>
       <c r="D5" t="n">
+        <v>75.3456</v>
+      </c>
+      <c r="E5" t="n">
         <v>99.0155</v>
       </c>
     </row>
@@ -5205,6 +6142,9 @@
         <v>45.8896</v>
       </c>
       <c r="D6" t="n">
+        <v>67.7679</v>
+      </c>
+      <c r="E6" t="n">
         <v>92.7735</v>
       </c>
     </row>
@@ -5219,6 +6159,9 @@
         <v>45.4257</v>
       </c>
       <c r="D7" t="n">
+        <v>66.73009999999999</v>
+      </c>
+      <c r="E7" t="n">
         <v>92.7603</v>
       </c>
     </row>
@@ -5233,6 +6176,9 @@
         <v>45.6657</v>
       </c>
       <c r="D8" t="n">
+        <v>60.8219</v>
+      </c>
+      <c r="E8" t="n">
         <v>92.4607</v>
       </c>
     </row>
@@ -5247,6 +6193,9 @@
         <v>45.7964</v>
       </c>
       <c r="D9" t="n">
+        <v>63.7164</v>
+      </c>
+      <c r="E9" t="n">
         <v>95.3095</v>
       </c>
     </row>
@@ -5261,6 +6210,9 @@
         <v>49.8971</v>
       </c>
       <c r="D10" t="n">
+        <v>63.4618</v>
+      </c>
+      <c r="E10" t="n">
         <v>94.92829999999999</v>
       </c>
     </row>
@@ -5275,6 +6227,9 @@
         <v>51.7639</v>
       </c>
       <c r="D11" t="n">
+        <v>66.9796</v>
+      </c>
+      <c r="E11" t="n">
         <v>96.2397</v>
       </c>
     </row>
@@ -5289,6 +6244,9 @@
         <v>52.6884</v>
       </c>
       <c r="D12" t="n">
+        <v>67.62050000000001</v>
+      </c>
+      <c r="E12" t="n">
         <v>96.1519</v>
       </c>
     </row>
@@ -5303,6 +6261,9 @@
         <v>53.1937</v>
       </c>
       <c r="D13" t="n">
+        <v>71.02589999999999</v>
+      </c>
+      <c r="E13" t="n">
         <v>97.8716</v>
       </c>
     </row>
@@ -5317,6 +6278,9 @@
         <v>53.7006</v>
       </c>
       <c r="D14" t="n">
+        <v>71.16</v>
+      </c>
+      <c r="E14" t="n">
         <v>97.4139</v>
       </c>
     </row>
@@ -5331,6 +6295,9 @@
         <v>53.7785</v>
       </c>
       <c r="D15" t="n">
+        <v>72.7496</v>
+      </c>
+      <c r="E15" t="n">
         <v>98.5005</v>
       </c>
     </row>
@@ -5345,6 +6312,9 @@
         <v>53.7269</v>
       </c>
       <c r="D16" t="n">
+        <v>72.3837</v>
+      </c>
+      <c r="E16" t="n">
         <v>98.0639</v>
       </c>
     </row>
@@ -5359,6 +6329,9 @@
         <v>53.7192</v>
       </c>
       <c r="D17" t="n">
+        <v>74.2418</v>
+      </c>
+      <c r="E17" t="n">
         <v>98.62779999999999</v>
       </c>
     </row>
@@ -5377,7 +6350,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5393,10 +6366,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5413,6 +6391,9 @@
         <v>21.5274</v>
       </c>
       <c r="D2" t="n">
+        <v>28.9684</v>
+      </c>
+      <c r="E2" t="n">
         <v>35.2832</v>
       </c>
     </row>
@@ -5427,6 +6408,9 @@
         <v>38.86</v>
       </c>
       <c r="D3" t="n">
+        <v>53.4136</v>
+      </c>
+      <c r="E3" t="n">
         <v>63.2377</v>
       </c>
     </row>
@@ -5441,6 +6425,9 @@
         <v>53.981</v>
       </c>
       <c r="D4" t="n">
+        <v>74.7375</v>
+      </c>
+      <c r="E4" t="n">
         <v>86.4528</v>
       </c>
     </row>
@@ -5455,6 +6442,9 @@
         <v>69.40519999999999</v>
       </c>
       <c r="D5" t="n">
+        <v>96.6634</v>
+      </c>
+      <c r="E5" t="n">
         <v>110.035</v>
       </c>
     </row>
@@ -5469,6 +6459,9 @@
         <v>55.7713</v>
       </c>
       <c r="D6" t="n">
+        <v>81.8841</v>
+      </c>
+      <c r="E6" t="n">
         <v>97.3772</v>
       </c>
     </row>
@@ -5483,6 +6476,9 @@
         <v>52.9916</v>
       </c>
       <c r="D7" t="n">
+        <v>76.7666</v>
+      </c>
+      <c r="E7" t="n">
         <v>92.18689999999999</v>
       </c>
     </row>
@@ -5497,6 +6493,9 @@
         <v>51.9784</v>
       </c>
       <c r="D8" t="n">
+        <v>65.16419999999999</v>
+      </c>
+      <c r="E8" t="n">
         <v>88.61060000000001</v>
       </c>
     </row>
@@ -5511,6 +6510,9 @@
         <v>50.6524</v>
       </c>
       <c r="D9" t="n">
+        <v>66.86709999999999</v>
+      </c>
+      <c r="E9" t="n">
         <v>90.54640000000001</v>
       </c>
     </row>
@@ -5525,6 +6527,9 @@
         <v>53.8696</v>
       </c>
       <c r="D10" t="n">
+        <v>62.977</v>
+      </c>
+      <c r="E10" t="n">
         <v>88.8321</v>
       </c>
     </row>
@@ -5539,6 +6544,9 @@
         <v>55.588</v>
       </c>
       <c r="D11" t="n">
+        <v>66.6215</v>
+      </c>
+      <c r="E11" t="n">
         <v>89.9765</v>
       </c>
     </row>
@@ -5553,6 +6561,9 @@
         <v>55.6368</v>
       </c>
       <c r="D12" t="n">
+        <v>66.7223</v>
+      </c>
+      <c r="E12" t="n">
         <v>90.12860000000001</v>
       </c>
     </row>
@@ -5567,6 +6578,9 @@
         <v>55.6558</v>
       </c>
       <c r="D13" t="n">
+        <v>69.10590000000001</v>
+      </c>
+      <c r="E13" t="n">
         <v>90.8015</v>
       </c>
     </row>
@@ -5581,6 +6595,9 @@
         <v>56.0538</v>
       </c>
       <c r="D14" t="n">
+        <v>69.0123</v>
+      </c>
+      <c r="E14" t="n">
         <v>90.5468</v>
       </c>
     </row>
@@ -5595,6 +6612,9 @@
         <v>56.2221</v>
       </c>
       <c r="D15" t="n">
+        <v>71.21129999999999</v>
+      </c>
+      <c r="E15" t="n">
         <v>90.53740000000001</v>
       </c>
     </row>
@@ -5609,6 +6629,9 @@
         <v>56.2368</v>
       </c>
       <c r="D16" t="n">
+        <v>70.88800000000001</v>
+      </c>
+      <c r="E16" t="n">
         <v>90.72499999999999</v>
       </c>
     </row>
@@ -5623,6 +6646,9 @@
         <v>56.3279</v>
       </c>
       <c r="D17" t="n">
+        <v>72.2978</v>
+      </c>
+      <c r="E17" t="n">
         <v>91.0603</v>
       </c>
     </row>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8891</v>
+        <v>14.0336</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6855</v>
+        <v>18.6117</v>
       </c>
       <c r="D2" t="n">
-        <v>25.1245</v>
+        <v>24.7809</v>
       </c>
       <c r="E2" t="n">
-        <v>29.8425</v>
+        <v>28.971</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.7801</v>
+        <v>27.1401</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0102</v>
+        <v>31.052</v>
       </c>
       <c r="D3" t="n">
-        <v>33.3849</v>
+        <v>32.944</v>
       </c>
       <c r="E3" t="n">
-        <v>44.9754</v>
+        <v>57.2493</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.3916</v>
+        <v>30.6227</v>
       </c>
       <c r="C4" t="n">
-        <v>35.7257</v>
+        <v>39.3733</v>
       </c>
       <c r="D4" t="n">
-        <v>48.2392</v>
+        <v>44.2956</v>
       </c>
       <c r="E4" t="n">
-        <v>55.1248</v>
+        <v>58.4148</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.1114</v>
+        <v>46.0192</v>
       </c>
       <c r="C5" t="n">
-        <v>50.8404</v>
+        <v>49.5833</v>
       </c>
       <c r="D5" t="n">
-        <v>61.9033</v>
+        <v>55.7745</v>
       </c>
       <c r="E5" t="n">
-        <v>74.3052</v>
+        <v>77.8578</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.0238</v>
+        <v>37.5716</v>
       </c>
       <c r="C6" t="n">
-        <v>40.4798</v>
+        <v>46.8392</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4984</v>
+        <v>45.6465</v>
       </c>
       <c r="E6" t="n">
-        <v>61.2846</v>
+        <v>68.2081</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.5469</v>
+        <v>42.3163</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7141</v>
+        <v>46.7285</v>
       </c>
       <c r="D7" t="n">
-        <v>49.997</v>
+        <v>53.6085</v>
       </c>
       <c r="E7" t="n">
-        <v>63.3506</v>
+        <v>66.15309999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.7463</v>
+        <v>39.225</v>
       </c>
       <c r="C8" t="n">
-        <v>37.2463</v>
+        <v>39.0312</v>
       </c>
       <c r="D8" t="n">
-        <v>53.5658</v>
+        <v>49.8741</v>
       </c>
       <c r="E8" t="n">
-        <v>69.6906</v>
+        <v>64.64230000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.7074</v>
+        <v>40.6432</v>
       </c>
       <c r="C9" t="n">
-        <v>39.2744</v>
+        <v>40.1165</v>
       </c>
       <c r="D9" t="n">
-        <v>49.8046</v>
+        <v>57.4977</v>
       </c>
       <c r="E9" t="n">
-        <v>60.9708</v>
+        <v>71.4415</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>46.2775</v>
+        <v>42.4751</v>
       </c>
       <c r="C10" t="n">
-        <v>40.4141</v>
+        <v>46.9534</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2952</v>
+        <v>52.4017</v>
       </c>
       <c r="E10" t="n">
-        <v>59.1547</v>
+        <v>64.1345</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>47.6475</v>
+        <v>41.0658</v>
       </c>
       <c r="C11" t="n">
-        <v>42.6102</v>
+        <v>43.8531</v>
       </c>
       <c r="D11" t="n">
-        <v>55.992</v>
+        <v>57.0156</v>
       </c>
       <c r="E11" t="n">
-        <v>65.57989999999999</v>
+        <v>63.4832</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.1897</v>
+        <v>42.9001</v>
       </c>
       <c r="C12" t="n">
-        <v>39.5541</v>
+        <v>49.6795</v>
       </c>
       <c r="D12" t="n">
-        <v>51.6304</v>
+        <v>50.8682</v>
       </c>
       <c r="E12" t="n">
-        <v>55.923</v>
+        <v>64.8533</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.6059</v>
+        <v>42.1181</v>
       </c>
       <c r="C13" t="n">
-        <v>43.5443</v>
+        <v>41.2812</v>
       </c>
       <c r="D13" t="n">
-        <v>54.8665</v>
+        <v>54.6297</v>
       </c>
       <c r="E13" t="n">
-        <v>59.4605</v>
+        <v>62.9635</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.3724</v>
+        <v>42.0122</v>
       </c>
       <c r="C14" t="n">
-        <v>48.8967</v>
+        <v>39.6695</v>
       </c>
       <c r="D14" t="n">
-        <v>54.975</v>
+        <v>47.8975</v>
       </c>
       <c r="E14" t="n">
-        <v>56.9516</v>
+        <v>56.3135</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.0471</v>
+        <v>48.2265</v>
       </c>
       <c r="C15" t="n">
-        <v>45.6242</v>
+        <v>41.5299</v>
       </c>
       <c r="D15" t="n">
-        <v>55.5807</v>
+        <v>51.3797</v>
       </c>
       <c r="E15" t="n">
-        <v>58.594</v>
+        <v>63.5529</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.8912</v>
+        <v>44.4189</v>
       </c>
       <c r="C16" t="n">
-        <v>49.8071</v>
+        <v>53.2496</v>
       </c>
       <c r="D16" t="n">
-        <v>44.9125</v>
+        <v>52.274</v>
       </c>
       <c r="E16" t="n">
-        <v>60.4237</v>
+        <v>69.0587</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>49.0374</v>
+        <v>43.226</v>
       </c>
       <c r="C17" t="n">
-        <v>46.0208</v>
+        <v>41.9591</v>
       </c>
       <c r="D17" t="n">
-        <v>55.7518</v>
+        <v>54.5562</v>
       </c>
       <c r="E17" t="n">
-        <v>59.0957</v>
+        <v>67.37050000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8284</v>
+        <v>15.0315</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7307</v>
+        <v>18.7678</v>
       </c>
       <c r="D2" t="n">
-        <v>24.796</v>
+        <v>24.9022</v>
       </c>
       <c r="E2" t="n">
-        <v>31.4043</v>
+        <v>30.7935</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4473</v>
+        <v>27.7082</v>
       </c>
       <c r="C3" t="n">
-        <v>30.054</v>
+        <v>31.9062</v>
       </c>
       <c r="D3" t="n">
-        <v>33.9859</v>
+        <v>35.5072</v>
       </c>
       <c r="E3" t="n">
-        <v>47.1517</v>
+        <v>53.6444</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.1368</v>
+        <v>32.506</v>
       </c>
       <c r="C4" t="n">
-        <v>31.1445</v>
+        <v>31.7615</v>
       </c>
       <c r="D4" t="n">
-        <v>50.639</v>
+        <v>48.6942</v>
       </c>
       <c r="E4" t="n">
-        <v>55.8497</v>
+        <v>66.6277</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.2808</v>
+        <v>42.5095</v>
       </c>
       <c r="C5" t="n">
-        <v>56.5542</v>
+        <v>51.4289</v>
       </c>
       <c r="D5" t="n">
-        <v>59.6739</v>
+        <v>62.4625</v>
       </c>
       <c r="E5" t="n">
-        <v>69.932</v>
+        <v>77.5394</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.8696</v>
+        <v>38.4115</v>
       </c>
       <c r="C6" t="n">
-        <v>44.8352</v>
+        <v>44.8419</v>
       </c>
       <c r="D6" t="n">
-        <v>51.8423</v>
+        <v>50.9178</v>
       </c>
       <c r="E6" t="n">
-        <v>64.1382</v>
+        <v>66.6461</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.1551</v>
+        <v>45.4782</v>
       </c>
       <c r="C7" t="n">
-        <v>42.8956</v>
+        <v>39.6784</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5577</v>
+        <v>53.1282</v>
       </c>
       <c r="E7" t="n">
-        <v>65.8357</v>
+        <v>61.2152</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.2648</v>
+        <v>43.9142</v>
       </c>
       <c r="C8" t="n">
-        <v>39.6605</v>
+        <v>41.2353</v>
       </c>
       <c r="D8" t="n">
-        <v>49.5413</v>
+        <v>51.8676</v>
       </c>
       <c r="E8" t="n">
-        <v>57.1018</v>
+        <v>68.6279</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.8725</v>
+        <v>46.1437</v>
       </c>
       <c r="C9" t="n">
-        <v>40.1919</v>
+        <v>39.1687</v>
       </c>
       <c r="D9" t="n">
-        <v>50.6425</v>
+        <v>50.9736</v>
       </c>
       <c r="E9" t="n">
-        <v>55.8172</v>
+        <v>66.2569</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.7774</v>
+        <v>45.348</v>
       </c>
       <c r="C10" t="n">
-        <v>42.5084</v>
+        <v>40.3446</v>
       </c>
       <c r="D10" t="n">
-        <v>46.3171</v>
+        <v>56.2294</v>
       </c>
       <c r="E10" t="n">
-        <v>60.3966</v>
+        <v>69.14279999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.611</v>
+        <v>43.5772</v>
       </c>
       <c r="C11" t="n">
-        <v>41.0692</v>
+        <v>40.9965</v>
       </c>
       <c r="D11" t="n">
-        <v>52.3269</v>
+        <v>53.0733</v>
       </c>
       <c r="E11" t="n">
-        <v>54.1675</v>
+        <v>71.1348</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.2339</v>
+        <v>43.3551</v>
       </c>
       <c r="C12" t="n">
-        <v>41.2578</v>
+        <v>44.1901</v>
       </c>
       <c r="D12" t="n">
-        <v>56.9057</v>
+        <v>52.482</v>
       </c>
       <c r="E12" t="n">
-        <v>55.3807</v>
+        <v>74.1374</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>50.0547</v>
+        <v>47.4284</v>
       </c>
       <c r="C13" t="n">
-        <v>39.3876</v>
+        <v>49.2161</v>
       </c>
       <c r="D13" t="n">
-        <v>50.1728</v>
+        <v>49.4161</v>
       </c>
       <c r="E13" t="n">
-        <v>54.4787</v>
+        <v>68.0936</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.5103</v>
+        <v>45.7573</v>
       </c>
       <c r="C14" t="n">
-        <v>45.3061</v>
+        <v>43.2304</v>
       </c>
       <c r="D14" t="n">
-        <v>52.2355</v>
+        <v>56.161</v>
       </c>
       <c r="E14" t="n">
-        <v>64.9495</v>
+        <v>73.8643</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.0005</v>
+        <v>44.1362</v>
       </c>
       <c r="C15" t="n">
-        <v>43.5188</v>
+        <v>41.7584</v>
       </c>
       <c r="D15" t="n">
-        <v>49.7858</v>
+        <v>54.8849</v>
       </c>
       <c r="E15" t="n">
-        <v>59.2453</v>
+        <v>72.3214</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.9825</v>
+        <v>39.6058</v>
       </c>
       <c r="C16" t="n">
-        <v>41.5308</v>
+        <v>44.7511</v>
       </c>
       <c r="D16" t="n">
-        <v>52.4368</v>
+        <v>49.5943</v>
       </c>
       <c r="E16" t="n">
-        <v>62.8083</v>
+        <v>70.4949</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.1307</v>
+        <v>45.5941</v>
       </c>
       <c r="C17" t="n">
-        <v>39.1144</v>
+        <v>43.1691</v>
       </c>
       <c r="D17" t="n">
-        <v>52.1182</v>
+        <v>54.1915</v>
       </c>
       <c r="E17" t="n">
-        <v>66.2623</v>
+        <v>64.40479999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.3755</v>
+        <v>18.1098</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5827</v>
+        <v>21.7548</v>
       </c>
       <c r="D2" t="n">
-        <v>27.9769</v>
+        <v>27.804</v>
       </c>
       <c r="E2" t="n">
-        <v>31.5628</v>
+        <v>30.2004</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.651</v>
+        <v>30.5268</v>
       </c>
       <c r="C3" t="n">
-        <v>32.3908</v>
+        <v>29.1217</v>
       </c>
       <c r="D3" t="n">
-        <v>44.1949</v>
+        <v>35.9402</v>
       </c>
       <c r="E3" t="n">
-        <v>43.752</v>
+        <v>46.4079</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.6952</v>
+        <v>33.6153</v>
       </c>
       <c r="C4" t="n">
-        <v>47.5115</v>
+        <v>45.2422</v>
       </c>
       <c r="D4" t="n">
-        <v>55.2234</v>
+        <v>49.4708</v>
       </c>
       <c r="E4" t="n">
-        <v>52.6192</v>
+        <v>66.2402</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>45.2723</v>
+        <v>50.6448</v>
       </c>
       <c r="C5" t="n">
-        <v>49.794</v>
+        <v>54.936</v>
       </c>
       <c r="D5" t="n">
-        <v>60.1634</v>
+        <v>58.1234</v>
       </c>
       <c r="E5" t="n">
-        <v>78.14919999999999</v>
+        <v>69.13720000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>41.4905</v>
+        <v>43.9394</v>
       </c>
       <c r="C6" t="n">
-        <v>51.1646</v>
+        <v>45.5557</v>
       </c>
       <c r="D6" t="n">
-        <v>55.7351</v>
+        <v>53.5603</v>
       </c>
       <c r="E6" t="n">
-        <v>62.6802</v>
+        <v>61.7059</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.6835</v>
+        <v>42.7316</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0723</v>
+        <v>43.561</v>
       </c>
       <c r="D7" t="n">
-        <v>55.9809</v>
+        <v>57.9875</v>
       </c>
       <c r="E7" t="n">
-        <v>59.873</v>
+        <v>64.3254</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.0369</v>
+        <v>40.9416</v>
       </c>
       <c r="C8" t="n">
-        <v>36.2645</v>
+        <v>39.4294</v>
       </c>
       <c r="D8" t="n">
-        <v>55.2427</v>
+        <v>49.9502</v>
       </c>
       <c r="E8" t="n">
-        <v>58.3265</v>
+        <v>61.5316</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.2136</v>
+        <v>37.1181</v>
       </c>
       <c r="C9" t="n">
-        <v>37.1725</v>
+        <v>41.3405</v>
       </c>
       <c r="D9" t="n">
-        <v>56.5237</v>
+        <v>52.6714</v>
       </c>
       <c r="E9" t="n">
-        <v>57.988</v>
+        <v>61.4605</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.2119</v>
+        <v>44.7104</v>
       </c>
       <c r="C10" t="n">
-        <v>44.077</v>
+        <v>36.6056</v>
       </c>
       <c r="D10" t="n">
-        <v>50.8869</v>
+        <v>55.1247</v>
       </c>
       <c r="E10" t="n">
-        <v>57.4413</v>
+        <v>64.9375</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.3915</v>
+        <v>45.1117</v>
       </c>
       <c r="C11" t="n">
-        <v>36.1714</v>
+        <v>36.0477</v>
       </c>
       <c r="D11" t="n">
-        <v>52.1923</v>
+        <v>51.7787</v>
       </c>
       <c r="E11" t="n">
-        <v>55.5125</v>
+        <v>74.43810000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.385</v>
+        <v>45.0783</v>
       </c>
       <c r="C12" t="n">
-        <v>36.7102</v>
+        <v>41.8685</v>
       </c>
       <c r="D12" t="n">
-        <v>53.8971</v>
+        <v>52.7215</v>
       </c>
       <c r="E12" t="n">
-        <v>59.4192</v>
+        <v>65.0508</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>49.6034</v>
+        <v>45.6765</v>
       </c>
       <c r="C13" t="n">
-        <v>36.9644</v>
+        <v>37.9356</v>
       </c>
       <c r="D13" t="n">
-        <v>51.7317</v>
+        <v>55.015</v>
       </c>
       <c r="E13" t="n">
-        <v>56.1468</v>
+        <v>64.7587</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.6398</v>
+        <v>49.8786</v>
       </c>
       <c r="C14" t="n">
-        <v>33.5907</v>
+        <v>39.3385</v>
       </c>
       <c r="D14" t="n">
-        <v>54.8077</v>
+        <v>51.2351</v>
       </c>
       <c r="E14" t="n">
-        <v>58.7876</v>
+        <v>60.1112</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>48.8495</v>
+        <v>48.6078</v>
       </c>
       <c r="C15" t="n">
-        <v>35.4466</v>
+        <v>35.7988</v>
       </c>
       <c r="D15" t="n">
-        <v>53.8731</v>
+        <v>53.1673</v>
       </c>
       <c r="E15" t="n">
-        <v>55.4326</v>
+        <v>59.2487</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>48.8871</v>
+        <v>45.0941</v>
       </c>
       <c r="C16" t="n">
-        <v>40.0997</v>
+        <v>35.8797</v>
       </c>
       <c r="D16" t="n">
-        <v>52.6968</v>
+        <v>54.9206</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5474</v>
+        <v>60.7036</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>51.1799</v>
+        <v>48.1847</v>
       </c>
       <c r="C17" t="n">
-        <v>40.3332</v>
+        <v>36.187</v>
       </c>
       <c r="D17" t="n">
-        <v>55.1635</v>
+        <v>57.3907</v>
       </c>
       <c r="E17" t="n">
-        <v>55.9369</v>
+        <v>57.8422</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.84394</v>
+        <v>8.85467</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7233</v>
+        <v>16.7819</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9766</v>
+        <v>22.144</v>
       </c>
       <c r="E2" t="n">
-        <v>29.0754</v>
+        <v>33.2316</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7158</v>
+        <v>16.7398</v>
       </c>
       <c r="C3" t="n">
-        <v>30.1997</v>
+        <v>30.3795</v>
       </c>
       <c r="D3" t="n">
-        <v>41.5459</v>
+        <v>41.8161</v>
       </c>
       <c r="E3" t="n">
-        <v>54.5538</v>
+        <v>61.832</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.793</v>
+        <v>23.7939</v>
       </c>
       <c r="C4" t="n">
-        <v>41.6321</v>
+        <v>41.6491</v>
       </c>
       <c r="D4" t="n">
-        <v>58.6359</v>
+        <v>58.9903</v>
       </c>
       <c r="E4" t="n">
-        <v>76.253</v>
+        <v>86.17610000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0652</v>
+        <v>31.0861</v>
       </c>
       <c r="C5" t="n">
-        <v>52.8318</v>
+        <v>53.2035</v>
       </c>
       <c r="D5" t="n">
-        <v>77.124</v>
+        <v>77.05</v>
       </c>
       <c r="E5" t="n">
-        <v>98.5132</v>
+        <v>109.577</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.2213</v>
+        <v>33.2859</v>
       </c>
       <c r="C6" t="n">
-        <v>45.4503</v>
+        <v>45.5542</v>
       </c>
       <c r="D6" t="n">
-        <v>68.72329999999999</v>
+        <v>68.5335</v>
       </c>
       <c r="E6" t="n">
-        <v>91.2414</v>
+        <v>101.104</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.8946</v>
+        <v>35.8988</v>
       </c>
       <c r="C7" t="n">
-        <v>44.9823</v>
+        <v>45.1287</v>
       </c>
       <c r="D7" t="n">
-        <v>67.69</v>
+        <v>67.44589999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>92.1234</v>
+        <v>100.775</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.3824</v>
+        <v>38.3992</v>
       </c>
       <c r="C8" t="n">
-        <v>45.1803</v>
+        <v>45.3557</v>
       </c>
       <c r="D8" t="n">
-        <v>61.1922</v>
+        <v>61.4136</v>
       </c>
       <c r="E8" t="n">
-        <v>92.2457</v>
+        <v>99.0894</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.9503</v>
+        <v>39.8836</v>
       </c>
       <c r="C9" t="n">
-        <v>45.3913</v>
+        <v>45.2093</v>
       </c>
       <c r="D9" t="n">
-        <v>63.3006</v>
+        <v>63.0012</v>
       </c>
       <c r="E9" t="n">
-        <v>94.76220000000001</v>
+        <v>101.576</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.1866</v>
+        <v>40.1719</v>
       </c>
       <c r="C10" t="n">
-        <v>49.392</v>
+        <v>48.7585</v>
       </c>
       <c r="D10" t="n">
-        <v>64.34780000000001</v>
+        <v>63.2854</v>
       </c>
       <c r="E10" t="n">
-        <v>94.1416</v>
+        <v>101.215</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.3819</v>
+        <v>40.4101</v>
       </c>
       <c r="C11" t="n">
-        <v>51.4528</v>
+        <v>51.2719</v>
       </c>
       <c r="D11" t="n">
-        <v>68.33499999999999</v>
+        <v>68.47069999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>96.5194</v>
+        <v>103.587</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.4949</v>
+        <v>40.6469</v>
       </c>
       <c r="C12" t="n">
-        <v>52.7546</v>
+        <v>52.2606</v>
       </c>
       <c r="D12" t="n">
-        <v>68.9234</v>
+        <v>69.05070000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>96.55159999999999</v>
+        <v>102.719</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.5739</v>
+        <v>40.7596</v>
       </c>
       <c r="C13" t="n">
-        <v>53.1861</v>
+        <v>52.0399</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0347</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>97.5282</v>
+        <v>104.361</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.5144</v>
+        <v>40.663</v>
       </c>
       <c r="C14" t="n">
-        <v>53.4008</v>
+        <v>52.8439</v>
       </c>
       <c r="D14" t="n">
-        <v>70.60639999999999</v>
+        <v>71.64060000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>96.64530000000001</v>
+        <v>103.892</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.4931</v>
+        <v>40.635</v>
       </c>
       <c r="C15" t="n">
-        <v>53.1062</v>
+        <v>53.1782</v>
       </c>
       <c r="D15" t="n">
-        <v>72.6923</v>
+        <v>72.45359999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>97.2928</v>
+        <v>105.264</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.6541</v>
+        <v>40.578</v>
       </c>
       <c r="C16" t="n">
-        <v>53.2182</v>
+        <v>52.9753</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2376</v>
+        <v>73.0518</v>
       </c>
       <c r="E16" t="n">
-        <v>97.73</v>
+        <v>104.621</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.5834</v>
+        <v>40.5278</v>
       </c>
       <c r="C17" t="n">
-        <v>53.1557</v>
+        <v>53.1874</v>
       </c>
       <c r="D17" t="n">
-        <v>75.15989999999999</v>
+        <v>74.6452</v>
       </c>
       <c r="E17" t="n">
-        <v>98.1887</v>
+        <v>105.03</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.8612</v>
+        <v>8.871930000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8623</v>
+        <v>16.922</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6614</v>
+        <v>21.7561</v>
       </c>
       <c r="E2" t="n">
-        <v>29.2114</v>
+        <v>33.4179</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8236</v>
+        <v>16.8243</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4418</v>
+        <v>30.5701</v>
       </c>
       <c r="D3" t="n">
-        <v>40.983</v>
+        <v>41.2925</v>
       </c>
       <c r="E3" t="n">
-        <v>55.0544</v>
+        <v>62.2211</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9331</v>
+        <v>23.989</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9306</v>
+        <v>42.1671</v>
       </c>
       <c r="D4" t="n">
-        <v>57.8643</v>
+        <v>58.0238</v>
       </c>
       <c r="E4" t="n">
-        <v>76.6465</v>
+        <v>86.4012</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4213</v>
+        <v>31.3966</v>
       </c>
       <c r="C5" t="n">
-        <v>53.3212</v>
+        <v>53.992</v>
       </c>
       <c r="D5" t="n">
-        <v>75.3456</v>
+        <v>76.0106</v>
       </c>
       <c r="E5" t="n">
-        <v>99.0155</v>
+        <v>110.585</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7326</v>
+        <v>33.7663</v>
       </c>
       <c r="C6" t="n">
-        <v>45.8896</v>
+        <v>46.197</v>
       </c>
       <c r="D6" t="n">
-        <v>67.7679</v>
+        <v>67.6127</v>
       </c>
       <c r="E6" t="n">
-        <v>92.7735</v>
+        <v>101.745</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.371</v>
+        <v>36.433</v>
       </c>
       <c r="C7" t="n">
-        <v>45.4257</v>
+        <v>45.6122</v>
       </c>
       <c r="D7" t="n">
-        <v>66.73009999999999</v>
+        <v>66.5831</v>
       </c>
       <c r="E7" t="n">
-        <v>92.7603</v>
+        <v>101.254</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.8184</v>
+        <v>38.8053</v>
       </c>
       <c r="C8" t="n">
-        <v>45.6657</v>
+        <v>45.8309</v>
       </c>
       <c r="D8" t="n">
-        <v>60.8219</v>
+        <v>61.0184</v>
       </c>
       <c r="E8" t="n">
-        <v>92.4607</v>
+        <v>99.8493</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.59</v>
+        <v>40.7874</v>
       </c>
       <c r="C9" t="n">
-        <v>45.7964</v>
+        <v>45.8502</v>
       </c>
       <c r="D9" t="n">
-        <v>63.7164</v>
+        <v>63.4548</v>
       </c>
       <c r="E9" t="n">
-        <v>95.3095</v>
+        <v>101.147</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.5871</v>
+        <v>40.7271</v>
       </c>
       <c r="C10" t="n">
-        <v>49.8971</v>
+        <v>49.7082</v>
       </c>
       <c r="D10" t="n">
-        <v>63.4618</v>
+        <v>62.7555</v>
       </c>
       <c r="E10" t="n">
-        <v>94.92829999999999</v>
+        <v>102.743</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.0164</v>
+        <v>41.1038</v>
       </c>
       <c r="C11" t="n">
-        <v>51.7639</v>
+        <v>52.4279</v>
       </c>
       <c r="D11" t="n">
-        <v>66.9796</v>
+        <v>66.3742</v>
       </c>
       <c r="E11" t="n">
-        <v>96.2397</v>
+        <v>104.448</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.1211</v>
+        <v>41.166</v>
       </c>
       <c r="C12" t="n">
-        <v>52.6884</v>
+        <v>52.5416</v>
       </c>
       <c r="D12" t="n">
-        <v>67.62050000000001</v>
+        <v>68.0972</v>
       </c>
       <c r="E12" t="n">
-        <v>96.1519</v>
+        <v>104.937</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2832</v>
+        <v>41.3046</v>
       </c>
       <c r="C13" t="n">
-        <v>53.1937</v>
+        <v>53.7085</v>
       </c>
       <c r="D13" t="n">
-        <v>71.02589999999999</v>
+        <v>70.2514</v>
       </c>
       <c r="E13" t="n">
-        <v>97.8716</v>
+        <v>105.419</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.091</v>
+        <v>41.0949</v>
       </c>
       <c r="C14" t="n">
-        <v>53.7006</v>
+        <v>53.6029</v>
       </c>
       <c r="D14" t="n">
-        <v>71.16</v>
+        <v>71.24679999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>97.4139</v>
+        <v>104.855</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2304</v>
+        <v>41.307</v>
       </c>
       <c r="C15" t="n">
-        <v>53.7785</v>
+        <v>53.8671</v>
       </c>
       <c r="D15" t="n">
-        <v>72.7496</v>
+        <v>71.87779999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>98.5005</v>
+        <v>105.554</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.0708</v>
+        <v>41.2489</v>
       </c>
       <c r="C16" t="n">
-        <v>53.7269</v>
+        <v>53.6038</v>
       </c>
       <c r="D16" t="n">
-        <v>72.3837</v>
+        <v>72.8514</v>
       </c>
       <c r="E16" t="n">
-        <v>98.0639</v>
+        <v>104.957</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.1922</v>
+        <v>41.2276</v>
       </c>
       <c r="C17" t="n">
-        <v>53.7192</v>
+        <v>53.5163</v>
       </c>
       <c r="D17" t="n">
-        <v>74.2418</v>
+        <v>73.6408</v>
       </c>
       <c r="E17" t="n">
-        <v>98.62779999999999</v>
+        <v>106.315</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8006</v>
+        <v>13.8351</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5274</v>
+        <v>21.5367</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9684</v>
+        <v>29.0551</v>
       </c>
       <c r="E2" t="n">
-        <v>35.2832</v>
+        <v>42.1329</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.7653</v>
+        <v>26.7884</v>
       </c>
       <c r="C3" t="n">
-        <v>38.86</v>
+        <v>38.8818</v>
       </c>
       <c r="D3" t="n">
-        <v>53.4136</v>
+        <v>53.3183</v>
       </c>
       <c r="E3" t="n">
-        <v>63.2377</v>
+        <v>74.2188</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.4385</v>
+        <v>38.5315</v>
       </c>
       <c r="C4" t="n">
-        <v>53.981</v>
+        <v>54.1717</v>
       </c>
       <c r="D4" t="n">
-        <v>74.7375</v>
+        <v>74.62949999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>86.4528</v>
+        <v>100.193</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.3478</v>
+        <v>50.4408</v>
       </c>
       <c r="C5" t="n">
-        <v>69.40519999999999</v>
+        <v>69.51690000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>96.6634</v>
+        <v>95.7427</v>
       </c>
       <c r="E5" t="n">
-        <v>110.035</v>
+        <v>126.654</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.8485</v>
+        <v>49.9118</v>
       </c>
       <c r="C6" t="n">
-        <v>55.7713</v>
+        <v>56.087</v>
       </c>
       <c r="D6" t="n">
-        <v>81.8841</v>
+        <v>81.6352</v>
       </c>
       <c r="E6" t="n">
-        <v>97.3772</v>
+        <v>109.22</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.895</v>
+        <v>51.8298</v>
       </c>
       <c r="C7" t="n">
-        <v>52.9916</v>
+        <v>53.1299</v>
       </c>
       <c r="D7" t="n">
-        <v>76.7666</v>
+        <v>76.7366</v>
       </c>
       <c r="E7" t="n">
-        <v>92.18689999999999</v>
+        <v>101.042</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>53.531</v>
+        <v>54.1114</v>
       </c>
       <c r="C8" t="n">
-        <v>51.9784</v>
+        <v>52.0588</v>
       </c>
       <c r="D8" t="n">
-        <v>65.16419999999999</v>
+        <v>64.6769</v>
       </c>
       <c r="E8" t="n">
-        <v>88.61060000000001</v>
+        <v>96.2094</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>55.7548</v>
+        <v>55.9315</v>
       </c>
       <c r="C9" t="n">
-        <v>50.6524</v>
+        <v>50.8092</v>
       </c>
       <c r="D9" t="n">
-        <v>66.86709999999999</v>
+        <v>66.2086</v>
       </c>
       <c r="E9" t="n">
-        <v>90.54640000000001</v>
+        <v>97.0934</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>55.3072</v>
+        <v>55.7205</v>
       </c>
       <c r="C10" t="n">
-        <v>53.8696</v>
+        <v>54.2257</v>
       </c>
       <c r="D10" t="n">
-        <v>62.977</v>
+        <v>62.1756</v>
       </c>
       <c r="E10" t="n">
-        <v>88.8321</v>
+        <v>95.1682</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>55.6975</v>
+        <v>55.7527</v>
       </c>
       <c r="C11" t="n">
-        <v>55.588</v>
+        <v>55.3936</v>
       </c>
       <c r="D11" t="n">
-        <v>66.6215</v>
+        <v>65.34229999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>89.9765</v>
+        <v>96.6139</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>55.6253</v>
+        <v>55.8886</v>
       </c>
       <c r="C12" t="n">
-        <v>55.6368</v>
+        <v>56.0915</v>
       </c>
       <c r="D12" t="n">
-        <v>66.7223</v>
+        <v>66.238</v>
       </c>
       <c r="E12" t="n">
-        <v>90.12860000000001</v>
+        <v>96.5266</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>55.7903</v>
+        <v>55.9648</v>
       </c>
       <c r="C13" t="n">
-        <v>55.6558</v>
+        <v>55.9266</v>
       </c>
       <c r="D13" t="n">
-        <v>69.10590000000001</v>
+        <v>69.3592</v>
       </c>
       <c r="E13" t="n">
-        <v>90.8015</v>
+        <v>97.41889999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>56.1014</v>
+        <v>55.7513</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0538</v>
+        <v>55.9057</v>
       </c>
       <c r="D14" t="n">
-        <v>69.0123</v>
+        <v>68.90819999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>90.5468</v>
+        <v>96.7424</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>55.9279</v>
+        <v>55.837</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2221</v>
+        <v>55.9601</v>
       </c>
       <c r="D15" t="n">
-        <v>71.21129999999999</v>
+        <v>70.42059999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>90.53740000000001</v>
+        <v>97.59399999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>56.1457</v>
+        <v>56.0823</v>
       </c>
       <c r="C16" t="n">
-        <v>56.2368</v>
+        <v>56.0984</v>
       </c>
       <c r="D16" t="n">
-        <v>70.88800000000001</v>
+        <v>70.6378</v>
       </c>
       <c r="E16" t="n">
-        <v>90.72499999999999</v>
+        <v>97.4071</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>54.5629</v>
+        <v>55.6856</v>
       </c>
       <c r="C17" t="n">
-        <v>56.3279</v>
+        <v>56.2871</v>
       </c>
       <c r="D17" t="n">
-        <v>72.2978</v>
+        <v>72.122</v>
       </c>
       <c r="E17" t="n">
-        <v>91.0603</v>
+        <v>97.6674</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,278 +4795,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.0336</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18.6117</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.7809</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28.971</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>27.1401</v>
-      </c>
-      <c r="C3" t="n">
-        <v>31.052</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.944</v>
-      </c>
-      <c r="E3" t="n">
-        <v>57.2493</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>30.6227</v>
-      </c>
-      <c r="C4" t="n">
-        <v>39.3733</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.2956</v>
-      </c>
-      <c r="E4" t="n">
-        <v>58.4148</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>46.0192</v>
-      </c>
-      <c r="C5" t="n">
-        <v>49.5833</v>
-      </c>
-      <c r="D5" t="n">
-        <v>55.7745</v>
-      </c>
-      <c r="E5" t="n">
-        <v>77.8578</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>37.5716</v>
-      </c>
-      <c r="C6" t="n">
-        <v>46.8392</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45.6465</v>
-      </c>
-      <c r="E6" t="n">
-        <v>68.2081</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>42.3163</v>
-      </c>
-      <c r="C7" t="n">
-        <v>46.7285</v>
-      </c>
-      <c r="D7" t="n">
-        <v>53.6085</v>
-      </c>
-      <c r="E7" t="n">
-        <v>66.15309999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>39.225</v>
-      </c>
-      <c r="C8" t="n">
-        <v>39.0312</v>
-      </c>
-      <c r="D8" t="n">
-        <v>49.8741</v>
-      </c>
-      <c r="E8" t="n">
-        <v>64.64230000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>40.6432</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40.1165</v>
-      </c>
-      <c r="D9" t="n">
-        <v>57.4977</v>
-      </c>
-      <c r="E9" t="n">
-        <v>71.4415</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>42.4751</v>
-      </c>
-      <c r="C10" t="n">
-        <v>46.9534</v>
-      </c>
-      <c r="D10" t="n">
-        <v>52.4017</v>
-      </c>
-      <c r="E10" t="n">
-        <v>64.1345</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>41.0658</v>
-      </c>
-      <c r="C11" t="n">
-        <v>43.8531</v>
-      </c>
-      <c r="D11" t="n">
-        <v>57.0156</v>
-      </c>
-      <c r="E11" t="n">
-        <v>63.4832</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>42.9001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>49.6795</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50.8682</v>
-      </c>
-      <c r="E12" t="n">
-        <v>64.8533</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>42.1181</v>
-      </c>
-      <c r="C13" t="n">
-        <v>41.2812</v>
-      </c>
-      <c r="D13" t="n">
-        <v>54.6297</v>
-      </c>
-      <c r="E13" t="n">
-        <v>62.9635</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>42.0122</v>
-      </c>
-      <c r="C14" t="n">
-        <v>39.6695</v>
-      </c>
-      <c r="D14" t="n">
-        <v>47.8975</v>
-      </c>
-      <c r="E14" t="n">
-        <v>56.3135</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>48.2265</v>
-      </c>
-      <c r="C15" t="n">
-        <v>41.5299</v>
-      </c>
-      <c r="D15" t="n">
-        <v>51.3797</v>
-      </c>
-      <c r="E15" t="n">
-        <v>63.5529</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>44.4189</v>
-      </c>
-      <c r="C16" t="n">
-        <v>53.2496</v>
-      </c>
-      <c r="D16" t="n">
-        <v>52.274</v>
-      </c>
-      <c r="E16" t="n">
-        <v>69.0587</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>43.226</v>
-      </c>
-      <c r="C17" t="n">
-        <v>41.9591</v>
-      </c>
-      <c r="D17" t="n">
-        <v>54.5562</v>
-      </c>
-      <c r="E17" t="n">
-        <v>67.37050000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5079,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5112,278 +4840,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15.0315</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18.7678</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.9022</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.7935</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>27.7082</v>
-      </c>
-      <c r="C3" t="n">
-        <v>31.9062</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.5072</v>
-      </c>
-      <c r="E3" t="n">
-        <v>53.6444</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>32.506</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31.7615</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.6942</v>
-      </c>
-      <c r="E4" t="n">
-        <v>66.6277</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>42.5095</v>
-      </c>
-      <c r="C5" t="n">
-        <v>51.4289</v>
-      </c>
-      <c r="D5" t="n">
-        <v>62.4625</v>
-      </c>
-      <c r="E5" t="n">
-        <v>77.5394</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>38.4115</v>
-      </c>
-      <c r="C6" t="n">
-        <v>44.8419</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50.9178</v>
-      </c>
-      <c r="E6" t="n">
-        <v>66.6461</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>45.4782</v>
-      </c>
-      <c r="C7" t="n">
-        <v>39.6784</v>
-      </c>
-      <c r="D7" t="n">
-        <v>53.1282</v>
-      </c>
-      <c r="E7" t="n">
-        <v>61.2152</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>43.9142</v>
-      </c>
-      <c r="C8" t="n">
-        <v>41.2353</v>
-      </c>
-      <c r="D8" t="n">
-        <v>51.8676</v>
-      </c>
-      <c r="E8" t="n">
-        <v>68.6279</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>46.1437</v>
-      </c>
-      <c r="C9" t="n">
-        <v>39.1687</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50.9736</v>
-      </c>
-      <c r="E9" t="n">
-        <v>66.2569</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>45.348</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40.3446</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.2294</v>
-      </c>
-      <c r="E10" t="n">
-        <v>69.14279999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>43.5772</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40.9965</v>
-      </c>
-      <c r="D11" t="n">
-        <v>53.0733</v>
-      </c>
-      <c r="E11" t="n">
-        <v>71.1348</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>43.3551</v>
-      </c>
-      <c r="C12" t="n">
-        <v>44.1901</v>
-      </c>
-      <c r="D12" t="n">
-        <v>52.482</v>
-      </c>
-      <c r="E12" t="n">
-        <v>74.1374</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>47.4284</v>
-      </c>
-      <c r="C13" t="n">
-        <v>49.2161</v>
-      </c>
-      <c r="D13" t="n">
-        <v>49.4161</v>
-      </c>
-      <c r="E13" t="n">
-        <v>68.0936</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>45.7573</v>
-      </c>
-      <c r="C14" t="n">
-        <v>43.2304</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56.161</v>
-      </c>
-      <c r="E14" t="n">
-        <v>73.8643</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>44.1362</v>
-      </c>
-      <c r="C15" t="n">
-        <v>41.7584</v>
-      </c>
-      <c r="D15" t="n">
-        <v>54.8849</v>
-      </c>
-      <c r="E15" t="n">
-        <v>72.3214</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>39.6058</v>
-      </c>
-      <c r="C16" t="n">
-        <v>44.7511</v>
-      </c>
-      <c r="D16" t="n">
-        <v>49.5943</v>
-      </c>
-      <c r="E16" t="n">
-        <v>70.4949</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>45.5941</v>
-      </c>
-      <c r="C17" t="n">
-        <v>43.1691</v>
-      </c>
-      <c r="D17" t="n">
-        <v>54.1915</v>
-      </c>
-      <c r="E17" t="n">
-        <v>64.40479999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5396,7 +4852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5429,278 +4885,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>18.1098</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21.7548</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.2004</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30.5268</v>
-      </c>
-      <c r="C3" t="n">
-        <v>29.1217</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.9402</v>
-      </c>
-      <c r="E3" t="n">
-        <v>46.4079</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>33.6153</v>
-      </c>
-      <c r="C4" t="n">
-        <v>45.2422</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.4708</v>
-      </c>
-      <c r="E4" t="n">
-        <v>66.2402</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>50.6448</v>
-      </c>
-      <c r="C5" t="n">
-        <v>54.936</v>
-      </c>
-      <c r="D5" t="n">
-        <v>58.1234</v>
-      </c>
-      <c r="E5" t="n">
-        <v>69.13720000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>43.9394</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45.5557</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.5603</v>
-      </c>
-      <c r="E6" t="n">
-        <v>61.7059</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>42.7316</v>
-      </c>
-      <c r="C7" t="n">
-        <v>43.561</v>
-      </c>
-      <c r="D7" t="n">
-        <v>57.9875</v>
-      </c>
-      <c r="E7" t="n">
-        <v>64.3254</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>40.9416</v>
-      </c>
-      <c r="C8" t="n">
-        <v>39.4294</v>
-      </c>
-      <c r="D8" t="n">
-        <v>49.9502</v>
-      </c>
-      <c r="E8" t="n">
-        <v>61.5316</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>37.1181</v>
-      </c>
-      <c r="C9" t="n">
-        <v>41.3405</v>
-      </c>
-      <c r="D9" t="n">
-        <v>52.6714</v>
-      </c>
-      <c r="E9" t="n">
-        <v>61.4605</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>44.7104</v>
-      </c>
-      <c r="C10" t="n">
-        <v>36.6056</v>
-      </c>
-      <c r="D10" t="n">
-        <v>55.1247</v>
-      </c>
-      <c r="E10" t="n">
-        <v>64.9375</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>45.1117</v>
-      </c>
-      <c r="C11" t="n">
-        <v>36.0477</v>
-      </c>
-      <c r="D11" t="n">
-        <v>51.7787</v>
-      </c>
-      <c r="E11" t="n">
-        <v>74.43810000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>45.0783</v>
-      </c>
-      <c r="C12" t="n">
-        <v>41.8685</v>
-      </c>
-      <c r="D12" t="n">
-        <v>52.7215</v>
-      </c>
-      <c r="E12" t="n">
-        <v>65.0508</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>45.6765</v>
-      </c>
-      <c r="C13" t="n">
-        <v>37.9356</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.015</v>
-      </c>
-      <c r="E13" t="n">
-        <v>64.7587</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>49.8786</v>
-      </c>
-      <c r="C14" t="n">
-        <v>39.3385</v>
-      </c>
-      <c r="D14" t="n">
-        <v>51.2351</v>
-      </c>
-      <c r="E14" t="n">
-        <v>60.1112</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>48.6078</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35.7988</v>
-      </c>
-      <c r="D15" t="n">
-        <v>53.1673</v>
-      </c>
-      <c r="E15" t="n">
-        <v>59.2487</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>45.0941</v>
-      </c>
-      <c r="C16" t="n">
-        <v>35.8797</v>
-      </c>
-      <c r="D16" t="n">
-        <v>54.9206</v>
-      </c>
-      <c r="E16" t="n">
-        <v>60.7036</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>48.1847</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36.187</v>
-      </c>
-      <c r="D17" t="n">
-        <v>57.3907</v>
-      </c>
-      <c r="E17" t="n">
-        <v>57.8422</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5713,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5746,278 +4930,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.85467</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16.7819</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.144</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33.2316</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16.7398</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30.3795</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.8161</v>
-      </c>
-      <c r="E3" t="n">
-        <v>61.832</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23.7939</v>
-      </c>
-      <c r="C4" t="n">
-        <v>41.6491</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.9903</v>
-      </c>
-      <c r="E4" t="n">
-        <v>86.17610000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>31.0861</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53.2035</v>
-      </c>
-      <c r="D5" t="n">
-        <v>77.05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>109.577</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>33.2859</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45.5542</v>
-      </c>
-      <c r="D6" t="n">
-        <v>68.5335</v>
-      </c>
-      <c r="E6" t="n">
-        <v>101.104</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>35.8988</v>
-      </c>
-      <c r="C7" t="n">
-        <v>45.1287</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67.44589999999999</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100.775</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>38.3992</v>
-      </c>
-      <c r="C8" t="n">
-        <v>45.3557</v>
-      </c>
-      <c r="D8" t="n">
-        <v>61.4136</v>
-      </c>
-      <c r="E8" t="n">
-        <v>99.0894</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>39.8836</v>
-      </c>
-      <c r="C9" t="n">
-        <v>45.2093</v>
-      </c>
-      <c r="D9" t="n">
-        <v>63.0012</v>
-      </c>
-      <c r="E9" t="n">
-        <v>101.576</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>40.1719</v>
-      </c>
-      <c r="C10" t="n">
-        <v>48.7585</v>
-      </c>
-      <c r="D10" t="n">
-        <v>63.2854</v>
-      </c>
-      <c r="E10" t="n">
-        <v>101.215</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>40.4101</v>
-      </c>
-      <c r="C11" t="n">
-        <v>51.2719</v>
-      </c>
-      <c r="D11" t="n">
-        <v>68.47069999999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>103.587</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>40.6469</v>
-      </c>
-      <c r="C12" t="n">
-        <v>52.2606</v>
-      </c>
-      <c r="D12" t="n">
-        <v>69.05070000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>102.719</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>40.7596</v>
-      </c>
-      <c r="C13" t="n">
-        <v>52.0399</v>
-      </c>
-      <c r="D13" t="n">
-        <v>70.95999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>104.361</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>40.663</v>
-      </c>
-      <c r="C14" t="n">
-        <v>52.8439</v>
-      </c>
-      <c r="D14" t="n">
-        <v>71.64060000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>103.892</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>40.635</v>
-      </c>
-      <c r="C15" t="n">
-        <v>53.1782</v>
-      </c>
-      <c r="D15" t="n">
-        <v>72.45359999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>105.264</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>40.578</v>
-      </c>
-      <c r="C16" t="n">
-        <v>52.9753</v>
-      </c>
-      <c r="D16" t="n">
-        <v>73.0518</v>
-      </c>
-      <c r="E16" t="n">
-        <v>104.621</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>40.5278</v>
-      </c>
-      <c r="C17" t="n">
-        <v>53.1874</v>
-      </c>
-      <c r="D17" t="n">
-        <v>74.6452</v>
-      </c>
-      <c r="E17" t="n">
-        <v>105.03</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -6030,7 +4942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -6061,278 +4973,6 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.871930000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16.922</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.7561</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33.4179</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16.8243</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30.5701</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.2925</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62.2211</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23.989</v>
-      </c>
-      <c r="C4" t="n">
-        <v>42.1671</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.0238</v>
-      </c>
-      <c r="E4" t="n">
-        <v>86.4012</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>31.3966</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53.992</v>
-      </c>
-      <c r="D5" t="n">
-        <v>76.0106</v>
-      </c>
-      <c r="E5" t="n">
-        <v>110.585</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>33.7663</v>
-      </c>
-      <c r="C6" t="n">
-        <v>46.197</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67.6127</v>
-      </c>
-      <c r="E6" t="n">
-        <v>101.745</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>36.433</v>
-      </c>
-      <c r="C7" t="n">
-        <v>45.6122</v>
-      </c>
-      <c r="D7" t="n">
-        <v>66.5831</v>
-      </c>
-      <c r="E7" t="n">
-        <v>101.254</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>38.8053</v>
-      </c>
-      <c r="C8" t="n">
-        <v>45.8309</v>
-      </c>
-      <c r="D8" t="n">
-        <v>61.0184</v>
-      </c>
-      <c r="E8" t="n">
-        <v>99.8493</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>40.7874</v>
-      </c>
-      <c r="C9" t="n">
-        <v>45.8502</v>
-      </c>
-      <c r="D9" t="n">
-        <v>63.4548</v>
-      </c>
-      <c r="E9" t="n">
-        <v>101.147</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>40.7271</v>
-      </c>
-      <c r="C10" t="n">
-        <v>49.7082</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62.7555</v>
-      </c>
-      <c r="E10" t="n">
-        <v>102.743</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>41.1038</v>
-      </c>
-      <c r="C11" t="n">
-        <v>52.4279</v>
-      </c>
-      <c r="D11" t="n">
-        <v>66.3742</v>
-      </c>
-      <c r="E11" t="n">
-        <v>104.448</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>41.166</v>
-      </c>
-      <c r="C12" t="n">
-        <v>52.5416</v>
-      </c>
-      <c r="D12" t="n">
-        <v>68.0972</v>
-      </c>
-      <c r="E12" t="n">
-        <v>104.937</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>41.3046</v>
-      </c>
-      <c r="C13" t="n">
-        <v>53.7085</v>
-      </c>
-      <c r="D13" t="n">
-        <v>70.2514</v>
-      </c>
-      <c r="E13" t="n">
-        <v>105.419</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>41.0949</v>
-      </c>
-      <c r="C14" t="n">
-        <v>53.6029</v>
-      </c>
-      <c r="D14" t="n">
-        <v>71.24679999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>104.855</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>41.307</v>
-      </c>
-      <c r="C15" t="n">
-        <v>53.8671</v>
-      </c>
-      <c r="D15" t="n">
-        <v>71.87779999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>105.554</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>41.2489</v>
-      </c>
-      <c r="C16" t="n">
-        <v>53.6038</v>
-      </c>
-      <c r="D16" t="n">
-        <v>72.8514</v>
-      </c>
-      <c r="E16" t="n">
-        <v>104.957</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>41.2276</v>
-      </c>
-      <c r="C17" t="n">
-        <v>53.5163</v>
-      </c>
-      <c r="D17" t="n">
-        <v>73.6408</v>
-      </c>
-      <c r="E17" t="n">
-        <v>106.315</v>
       </c>
     </row>
   </sheetData>
@@ -6380,278 +5020,22 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>13.8351</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21.5367</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.0551</v>
-      </c>
-      <c r="E2" t="n">
-        <v>42.1329</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>26.7884</v>
-      </c>
-      <c r="C3" t="n">
-        <v>38.8818</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.3183</v>
-      </c>
-      <c r="E3" t="n">
-        <v>74.2188</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>38.5315</v>
-      </c>
-      <c r="C4" t="n">
-        <v>54.1717</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.62949999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100.193</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>50.4408</v>
-      </c>
-      <c r="C5" t="n">
-        <v>69.51690000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95.7427</v>
-      </c>
-      <c r="E5" t="n">
-        <v>126.654</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.9118</v>
-      </c>
-      <c r="C6" t="n">
-        <v>56.087</v>
-      </c>
-      <c r="D6" t="n">
-        <v>81.6352</v>
-      </c>
-      <c r="E6" t="n">
-        <v>109.22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>51.8298</v>
-      </c>
-      <c r="C7" t="n">
-        <v>53.1299</v>
-      </c>
-      <c r="D7" t="n">
-        <v>76.7366</v>
-      </c>
-      <c r="E7" t="n">
-        <v>101.042</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>54.1114</v>
-      </c>
-      <c r="C8" t="n">
-        <v>52.0588</v>
-      </c>
-      <c r="D8" t="n">
-        <v>64.6769</v>
-      </c>
-      <c r="E8" t="n">
-        <v>96.2094</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>55.9315</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50.8092</v>
-      </c>
-      <c r="D9" t="n">
-        <v>66.2086</v>
-      </c>
-      <c r="E9" t="n">
-        <v>97.0934</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>55.7205</v>
-      </c>
-      <c r="C10" t="n">
-        <v>54.2257</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62.1756</v>
-      </c>
-      <c r="E10" t="n">
-        <v>95.1682</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>55.7527</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55.3936</v>
-      </c>
-      <c r="D11" t="n">
-        <v>65.34229999999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>96.6139</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>55.8886</v>
-      </c>
-      <c r="C12" t="n">
-        <v>56.0915</v>
-      </c>
-      <c r="D12" t="n">
-        <v>66.238</v>
-      </c>
-      <c r="E12" t="n">
-        <v>96.5266</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>55.9648</v>
-      </c>
-      <c r="C13" t="n">
-        <v>55.9266</v>
-      </c>
-      <c r="D13" t="n">
-        <v>69.3592</v>
-      </c>
-      <c r="E13" t="n">
-        <v>97.41889999999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>55.7513</v>
-      </c>
-      <c r="C14" t="n">
-        <v>55.9057</v>
-      </c>
-      <c r="D14" t="n">
-        <v>68.90819999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>96.7424</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>55.837</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55.9601</v>
-      </c>
-      <c r="D15" t="n">
-        <v>70.42059999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>97.59399999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>56.0823</v>
-      </c>
-      <c r="C16" t="n">
-        <v>56.0984</v>
-      </c>
-      <c r="D16" t="n">
-        <v>70.6378</v>
-      </c>
-      <c r="E16" t="n">
-        <v>97.4071</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>55.6856</v>
-      </c>
-      <c r="C17" t="n">
-        <v>56.2871</v>
-      </c>
-      <c r="D17" t="n">
-        <v>72.122</v>
-      </c>
-      <c r="E17" t="n">
-        <v>97.6674</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,6 +4795,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.1719</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.685</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.9057</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31.9416</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27.0222</v>
+      </c>
+      <c r="C3" t="n">
+        <v>29.8619</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.9278</v>
+      </c>
+      <c r="E3" t="n">
+        <v>56.049</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31.8322</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37.5261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.5621</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67.85899999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>44.1969</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52.9125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.6373</v>
+      </c>
+      <c r="E5" t="n">
+        <v>79.0626</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40.212</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43.1542</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.5616</v>
+      </c>
+      <c r="E6" t="n">
+        <v>63.4723</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>38.9962</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38.9256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.7924</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.9837</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44.1468</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.7117</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54.2112</v>
+      </c>
+      <c r="E8" t="n">
+        <v>64.85890000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40.0419</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39.6936</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.4991</v>
+      </c>
+      <c r="E9" t="n">
+        <v>63.9267</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40.4565</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45.415</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46.3349</v>
+      </c>
+      <c r="E10" t="n">
+        <v>60.456</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44.9431</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.0571</v>
+      </c>
+      <c r="D11" t="n">
+        <v>55.5358</v>
+      </c>
+      <c r="E11" t="n">
+        <v>71.3352</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44.2097</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40.5927</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50.8501</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58.1817</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>43.5078</v>
+      </c>
+      <c r="C13" t="n">
+        <v>44.0478</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.1879</v>
+      </c>
+      <c r="E13" t="n">
+        <v>65.0157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40.974</v>
+      </c>
+      <c r="C14" t="n">
+        <v>43.4832</v>
+      </c>
+      <c r="D14" t="n">
+        <v>53.9644</v>
+      </c>
+      <c r="E14" t="n">
+        <v>62.4073</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38.5978</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40.9918</v>
+      </c>
+      <c r="D15" t="n">
+        <v>48.0539</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.7223</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42.2162</v>
+      </c>
+      <c r="C16" t="n">
+        <v>49.0251</v>
+      </c>
+      <c r="D16" t="n">
+        <v>52.5189</v>
+      </c>
+      <c r="E16" t="n">
+        <v>71.6713</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>45.7302</v>
+      </c>
+      <c r="C17" t="n">
+        <v>43.6703</v>
+      </c>
+      <c r="D17" t="n">
+        <v>52.7304</v>
+      </c>
+      <c r="E17" t="n">
+        <v>67.0842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4807,7 +5079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4840,6 +5112,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.9326</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.6744</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.8306</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26.533</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27.7063</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.9982</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.2856</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50.3063</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31.6038</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43.7017</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.4925</v>
+      </c>
+      <c r="E4" t="n">
+        <v>66.9175</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45.6442</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.1419</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.2533</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91.6086</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40.8494</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45.301</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.4377</v>
+      </c>
+      <c r="E6" t="n">
+        <v>69.67870000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39.4039</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41.4354</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54.9516</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.7094</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40.1602</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.8101</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.8642</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67.7885</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>42.9261</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42.7648</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49.0719</v>
+      </c>
+      <c r="E9" t="n">
+        <v>74.0125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40.9562</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49.1574</v>
+      </c>
+      <c r="D10" t="n">
+        <v>52.7666</v>
+      </c>
+      <c r="E10" t="n">
+        <v>65.3797</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40.7448</v>
+      </c>
+      <c r="C11" t="n">
+        <v>42.047</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54.0417</v>
+      </c>
+      <c r="E11" t="n">
+        <v>66.0532</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>43.5813</v>
+      </c>
+      <c r="C12" t="n">
+        <v>46.0956</v>
+      </c>
+      <c r="D12" t="n">
+        <v>55.8742</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58.6689</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>43.4629</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42.2787</v>
+      </c>
+      <c r="D13" t="n">
+        <v>48.2641</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.4349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>43.3658</v>
+      </c>
+      <c r="C14" t="n">
+        <v>42.3845</v>
+      </c>
+      <c r="D14" t="n">
+        <v>49.5839</v>
+      </c>
+      <c r="E14" t="n">
+        <v>66.2458</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47.6025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44.2452</v>
+      </c>
+      <c r="D15" t="n">
+        <v>54.6959</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61.6521</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42.7104</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43.6124</v>
+      </c>
+      <c r="D16" t="n">
+        <v>52.466</v>
+      </c>
+      <c r="E16" t="n">
+        <v>70.29640000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>42.2334</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42.7579</v>
+      </c>
+      <c r="D17" t="n">
+        <v>52.6412</v>
+      </c>
+      <c r="E17" t="n">
+        <v>62.6015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4852,7 +5396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4885,6 +5429,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18.2418</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.7725</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.9127</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33.8373</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31.2768</v>
+      </c>
+      <c r="C3" t="n">
+        <v>29.5154</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.8245</v>
+      </c>
+      <c r="E3" t="n">
+        <v>54.3032</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32.207</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45.464</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.3742</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59.0409</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>52.4113</v>
+      </c>
+      <c r="C5" t="n">
+        <v>59.4527</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67.16589999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>66.42319999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37.7558</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46.7151</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.341</v>
+      </c>
+      <c r="E6" t="n">
+        <v>69.1902</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39.5612</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47.8555</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.1413</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59.3897</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42.6615</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.0836</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.936</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57.6632</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>41.4801</v>
+      </c>
+      <c r="C9" t="n">
+        <v>34.722</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.5532</v>
+      </c>
+      <c r="E9" t="n">
+        <v>62.165</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>47.9408</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40.4473</v>
+      </c>
+      <c r="D10" t="n">
+        <v>52.1505</v>
+      </c>
+      <c r="E10" t="n">
+        <v>70.7544</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44.0472</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36.2993</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.1914</v>
+      </c>
+      <c r="E11" t="n">
+        <v>64.5558</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>51.9875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>39.6948</v>
+      </c>
+      <c r="D12" t="n">
+        <v>52.9202</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57.2057</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>44.809</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41.3066</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.5246</v>
+      </c>
+      <c r="E13" t="n">
+        <v>63.1796</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48.9963</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39.3181</v>
+      </c>
+      <c r="D14" t="n">
+        <v>58.8967</v>
+      </c>
+      <c r="E14" t="n">
+        <v>59.2782</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47.5464</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34.495</v>
+      </c>
+      <c r="D15" t="n">
+        <v>54.6835</v>
+      </c>
+      <c r="E15" t="n">
+        <v>57.8819</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>46.8118</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37.475</v>
+      </c>
+      <c r="D16" t="n">
+        <v>55.3313</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.2176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>49.517</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36.1232</v>
+      </c>
+      <c r="D17" t="n">
+        <v>56.4088</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57.6834</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4897,7 +5713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4930,6 +5746,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.85153</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.8421</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.1028</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33.3911</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.7522</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.4251</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.691</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62.0469</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23.8166</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42.054</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.0232</v>
+      </c>
+      <c r="E4" t="n">
+        <v>86.25069999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31.086</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53.6406</v>
+      </c>
+      <c r="D5" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>109.524</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33.3985</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45.7303</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.5573</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100.719</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35.9287</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45.3324</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67.70659999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100.881</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.5666</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.2521</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99.5457</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40.3589</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45.3261</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64.5241</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100.978</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40.4399</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49.2723</v>
+      </c>
+      <c r="D10" t="n">
+        <v>63.7538</v>
+      </c>
+      <c r="E10" t="n">
+        <v>99.31319999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40.4934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>51.6978</v>
+      </c>
+      <c r="D11" t="n">
+        <v>66.72199999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>101.978</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40.6638</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52.5974</v>
+      </c>
+      <c r="D12" t="n">
+        <v>69.34439999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>103.162</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40.7632</v>
+      </c>
+      <c r="C13" t="n">
+        <v>53.1396</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71.20569999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>104.247</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40.7183</v>
+      </c>
+      <c r="C14" t="n">
+        <v>52.8968</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.2784</v>
+      </c>
+      <c r="E14" t="n">
+        <v>103.502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40.6955</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53.173</v>
+      </c>
+      <c r="D15" t="n">
+        <v>72.71980000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>104.353</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>40.7712</v>
+      </c>
+      <c r="C16" t="n">
+        <v>53.4763</v>
+      </c>
+      <c r="D16" t="n">
+        <v>73.57899999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>104.553</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40.7708</v>
+      </c>
+      <c r="C17" t="n">
+        <v>53.5128</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74.4948</v>
+      </c>
+      <c r="E17" t="n">
+        <v>102.882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4942,7 +6030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4973,6 +6061,278 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.87369</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.9285</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.7686</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33.6024</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.7645</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.2103</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62.755</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24.0062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42.4846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.8518</v>
+      </c>
+      <c r="E4" t="n">
+        <v>86.65389999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31.487</v>
+      </c>
+      <c r="C5" t="n">
+        <v>54.2659</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.5622</v>
+      </c>
+      <c r="E5" t="n">
+        <v>110.493</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33.8617</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46.0872</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67.8279</v>
+      </c>
+      <c r="E6" t="n">
+        <v>102.383</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36.4598</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45.7437</v>
+      </c>
+      <c r="D7" t="n">
+        <v>66.5629</v>
+      </c>
+      <c r="E7" t="n">
+        <v>101.531</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>38.9804</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46.005</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.3156</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99.6127</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40.8598</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45.8046</v>
+      </c>
+      <c r="D9" t="n">
+        <v>63.7903</v>
+      </c>
+      <c r="E9" t="n">
+        <v>101.499</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40.974</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49.1878</v>
+      </c>
+      <c r="D10" t="n">
+        <v>63.3807</v>
+      </c>
+      <c r="E10" t="n">
+        <v>101.744</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>41.1365</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52.0488</v>
+      </c>
+      <c r="D11" t="n">
+        <v>66.297</v>
+      </c>
+      <c r="E11" t="n">
+        <v>103.458</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>41.2842</v>
+      </c>
+      <c r="C12" t="n">
+        <v>53.222</v>
+      </c>
+      <c r="D12" t="n">
+        <v>68.0996</v>
+      </c>
+      <c r="E12" t="n">
+        <v>104.262</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>41.3021</v>
+      </c>
+      <c r="C13" t="n">
+        <v>53.4487</v>
+      </c>
+      <c r="D13" t="n">
+        <v>70.41370000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>105.567</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>41.1842</v>
+      </c>
+      <c r="C14" t="n">
+        <v>53.9913</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70.8224</v>
+      </c>
+      <c r="E14" t="n">
+        <v>104.598</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>41.2224</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53.9661</v>
+      </c>
+      <c r="D15" t="n">
+        <v>73.3815</v>
+      </c>
+      <c r="E15" t="n">
+        <v>104.607</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="D16" t="n">
+        <v>73.1995</v>
+      </c>
+      <c r="E16" t="n">
+        <v>106.353</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>41.3475</v>
+      </c>
+      <c r="C17" t="n">
+        <v>54.1503</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74.0129</v>
+      </c>
+      <c r="E17" t="n">
+        <v>106.129</v>
       </c>
     </row>
   </sheetData>
@@ -5020,22 +6380,278 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13.8557</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.6271</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.0598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.2119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26.8192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39.3383</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.461</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74.10809999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>38.6033</v>
+      </c>
+      <c r="C4" t="n">
+        <v>54.7364</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.3464</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100.311</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50.4428</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70.89570000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96.6078</v>
+      </c>
+      <c r="E5" t="n">
+        <v>126.661</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>49.8225</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55.9875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80.9374</v>
+      </c>
+      <c r="E6" t="n">
+        <v>108.594</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>52.0448</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53.2213</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76.7791</v>
+      </c>
+      <c r="E7" t="n">
+        <v>101.706</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>53.9696</v>
+      </c>
+      <c r="C8" t="n">
+        <v>52.1022</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65.6178</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.0501</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56.3219</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50.5166</v>
+      </c>
+      <c r="D9" t="n">
+        <v>66.7899</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96.2473</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>55.5473</v>
+      </c>
+      <c r="C10" t="n">
+        <v>53.8933</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62.3731</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.3098</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>55.5882</v>
+      </c>
+      <c r="C11" t="n">
+        <v>55.3205</v>
+      </c>
+      <c r="D11" t="n">
+        <v>65.71210000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>96.05410000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>54.8537</v>
+      </c>
+      <c r="C12" t="n">
+        <v>57.1279</v>
+      </c>
+      <c r="D12" t="n">
+        <v>66.1473</v>
+      </c>
+      <c r="E12" t="n">
+        <v>96.0218</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>55.8386</v>
+      </c>
+      <c r="C13" t="n">
+        <v>55.9312</v>
+      </c>
+      <c r="D13" t="n">
+        <v>69.0423</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.03360000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>56.0207</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56.0263</v>
+      </c>
+      <c r="D14" t="n">
+        <v>68.9132</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96.7166</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>55.9444</v>
+      </c>
+      <c r="C15" t="n">
+        <v>56.2611</v>
+      </c>
+      <c r="D15" t="n">
+        <v>71.0364</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.5187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>56.282</v>
+      </c>
+      <c r="C16" t="n">
+        <v>56.1766</v>
+      </c>
+      <c r="D16" t="n">
+        <v>70.5985</v>
+      </c>
+      <c r="E16" t="n">
+        <v>97.0692</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56.1965</v>
+      </c>
+      <c r="C17" t="n">
+        <v>56.365</v>
+      </c>
+      <c r="D17" t="n">
+        <v>72.3852</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.13809999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="500k, 0.01" sheetId="1" state="visible" r:id="rId1"/>
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.04196</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7548</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.5965</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.1211</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.9593</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.1952</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.9931</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.6191</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>31.8691</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>29.1933</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.0212</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.0733</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>30.7886</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>31.0243</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>30.3046</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.2738</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.8239</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.1098</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.4315</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.4453</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>22.8333</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.6506</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.7991</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.586</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.6552</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>16.9317</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>16.0848</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>16.3772</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.8073</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>16.3375</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>16.3003</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>16.4925</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.8698</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.1979</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.226</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.5083</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.2833</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.809</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.5411</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.648</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.5141</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.696</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.562</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.6898</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.7771</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.6172</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>40.1725</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.233</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.014760000000001</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7253</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.2607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.5955</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>25.8655</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>27.8528</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.2896</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.4791</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>32.5906</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>32.0825</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.1665</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.3791</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.3403</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.6472</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7387</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.6481</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.7263</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.9888</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1975</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.3554</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.0146</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.4836</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.1334</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.3752</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.058</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.4598</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.4539</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.2711</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.6766</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.4165</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.297</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.5872</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.867</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.8568</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.0436</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.7699</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.3931</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>12.9162</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>25.3072</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>36.1843</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.6761</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>24.4303</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.3513</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>31.213</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.823</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8533</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.6766</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.75653</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.6313</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.9494</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>31.5999</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.3215</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.0275</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.7959</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.2449</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.0444</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.5689</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.7024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.6463</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.7974</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.8285</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.7665</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.8454</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5546</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.373</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.1499</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.8795</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.456</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>16.4204</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>15.7672</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>14.967</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>15.9969</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.8365</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.5373</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.3003</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.3664</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.3564</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.6061</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.5156</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.2155</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.1683</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>34.1297</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>44.6755</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.6211</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.7039</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>33.2518</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.6154</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.9122</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0458</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.0682</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.9944</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.1704</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.0711</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>36.2356</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2473</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.08628</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.2805</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.6583</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0278</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.3115</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.9464</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.429</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.6642</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.6046</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.5257</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.8832</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.5263</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.4168</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.5133</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9753</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.5673</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.224</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.5179</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1107</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0303</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4426</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.1139</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4737</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.5707</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>18.4397</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.7371</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.9475</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.448</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6857</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.489</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.5141</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.358</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.4487</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.2258</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.5025</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.9713</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.5319</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.4495</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.2362</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7844</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.7962</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.9492</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.1088</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.8895</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>41.5491</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5762</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.7578</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.7522</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.09909</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.3101</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.7179</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.2652</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.5296</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.98</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.674</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.0632</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8636</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.1339</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7174</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.6251</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1161</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.9719</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9311</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.909</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.1984</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.6114</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.403</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.5845</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.2278</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4989</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.2178</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>19.597</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.323</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.3089</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.4284</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.3952</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.2446</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.7765</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.6216</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.1478</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.7691</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.9245</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.2667</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>38.9787</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.5341</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6022</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.4625</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1908</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.5839</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.3806</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>41.092</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.9808</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5043</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.8637</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>41.843</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.50034</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.8289</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.3146</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.209</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.955</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>34.7817</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3239</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>38.1812</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.8878</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.009</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.3024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.8075</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>38.1555</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.9911</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8898</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>38.1378</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5142</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.5052</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.8285</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>30.4771</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>19.2644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.907</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.0008</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.8152</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>20.8086</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>19.8123</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>18.3327</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>18.6433</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6417</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.8255</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.8327</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.8783</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.4315</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.88</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.26</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.293</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.9577</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.6963</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.2567</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.0037</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.8414</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.8774</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.0872</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.7784</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3415</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>42.2976</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8443</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>42.8458</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4081,19 +4789,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4662</v>
+        <v>14.1719</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8714</v>
+        <v>18.685</v>
       </c>
       <c r="D2" t="n">
-        <v>25.0975</v>
+        <v>24.9057</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31.9416</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8499</v>
+        <v>27.0222</v>
       </c>
       <c r="C3" t="n">
-        <v>32.234</v>
+        <v>29.8619</v>
       </c>
       <c r="D3" t="n">
-        <v>37.7811</v>
+        <v>35.9278</v>
+      </c>
+      <c r="E3" t="n">
+        <v>56.049</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.2613</v>
+        <v>31.8322</v>
       </c>
       <c r="C4" t="n">
-        <v>32.8003</v>
+        <v>37.5261</v>
       </c>
       <c r="D4" t="n">
-        <v>52.6524</v>
+        <v>49.5621</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67.85899999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.2994</v>
+        <v>44.1969</v>
       </c>
       <c r="C5" t="n">
-        <v>49.4204</v>
+        <v>52.9125</v>
       </c>
       <c r="D5" t="n">
-        <v>57.1944</v>
+        <v>62.6373</v>
+      </c>
+      <c r="E5" t="n">
+        <v>79.0626</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.5923</v>
+        <v>40.212</v>
       </c>
       <c r="C6" t="n">
-        <v>41.1067</v>
+        <v>43.1542</v>
       </c>
       <c r="D6" t="n">
-        <v>49.2317</v>
+        <v>50.5616</v>
+      </c>
+      <c r="E6" t="n">
+        <v>63.4723</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.6732</v>
+        <v>38.9962</v>
       </c>
       <c r="C7" t="n">
-        <v>42.1612</v>
+        <v>38.9256</v>
       </c>
       <c r="D7" t="n">
-        <v>57.2218</v>
+        <v>47.7924</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.9837</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.4632</v>
+        <v>44.1468</v>
       </c>
       <c r="C8" t="n">
-        <v>43.4607</v>
+        <v>45.7117</v>
       </c>
       <c r="D8" t="n">
-        <v>56.017</v>
+        <v>54.2112</v>
+      </c>
+      <c r="E8" t="n">
+        <v>64.85890000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.1434</v>
+        <v>40.0419</v>
       </c>
       <c r="C9" t="n">
-        <v>39.5718</v>
+        <v>39.6936</v>
       </c>
       <c r="D9" t="n">
-        <v>41.7517</v>
+        <v>50.4991</v>
+      </c>
+      <c r="E9" t="n">
+        <v>63.9267</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.4623</v>
+        <v>40.4565</v>
       </c>
       <c r="C10" t="n">
-        <v>48.9498</v>
+        <v>45.415</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9052</v>
+        <v>46.3349</v>
+      </c>
+      <c r="E10" t="n">
+        <v>60.456</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.7278</v>
+        <v>44.9431</v>
       </c>
       <c r="C11" t="n">
-        <v>45.7501</v>
+        <v>41.0571</v>
       </c>
       <c r="D11" t="n">
-        <v>47.5167</v>
+        <v>55.5358</v>
+      </c>
+      <c r="E11" t="n">
+        <v>71.3352</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.1279</v>
+        <v>44.2097</v>
       </c>
       <c r="C12" t="n">
-        <v>46.8231</v>
+        <v>40.5927</v>
       </c>
       <c r="D12" t="n">
-        <v>54.2709</v>
+        <v>50.8501</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58.1817</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2446</v>
+        <v>43.5078</v>
       </c>
       <c r="C13" t="n">
-        <v>43.5135</v>
+        <v>44.0478</v>
       </c>
       <c r="D13" t="n">
-        <v>54.9336</v>
+        <v>51.1879</v>
+      </c>
+      <c r="E13" t="n">
+        <v>65.0157</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.3728</v>
+        <v>40.974</v>
       </c>
       <c r="C14" t="n">
-        <v>48.774</v>
+        <v>43.4832</v>
       </c>
       <c r="D14" t="n">
-        <v>54.8601</v>
+        <v>53.9644</v>
+      </c>
+      <c r="E14" t="n">
+        <v>62.4073</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.5276</v>
+        <v>38.5978</v>
       </c>
       <c r="C15" t="n">
-        <v>50.5019</v>
+        <v>40.9918</v>
       </c>
       <c r="D15" t="n">
-        <v>54.9963</v>
+        <v>48.0539</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.7223</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.0745</v>
+        <v>42.2162</v>
       </c>
       <c r="C16" t="n">
-        <v>47.0956</v>
+        <v>49.0251</v>
       </c>
       <c r="D16" t="n">
-        <v>55.059</v>
+        <v>52.5189</v>
+      </c>
+      <c r="E16" t="n">
+        <v>71.6713</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4324</v>
+        <v>45.7302</v>
       </c>
       <c r="C17" t="n">
-        <v>48.9369</v>
+        <v>43.6703</v>
       </c>
       <c r="D17" t="n">
-        <v>54.6419</v>
+        <v>52.7304</v>
+      </c>
+      <c r="E17" t="n">
+        <v>67.0842</v>
       </c>
     </row>
   </sheetData>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4345,19 +5106,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9176</v>
+        <v>14.9326</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5174</v>
+        <v>18.6744</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9843</v>
+        <v>24.8306</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26.533</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.112</v>
+        <v>27.7063</v>
       </c>
       <c r="C3" t="n">
-        <v>31.696</v>
+        <v>30.9982</v>
       </c>
       <c r="D3" t="n">
-        <v>38.0497</v>
+        <v>37.2856</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50.3063</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.4702</v>
+        <v>31.6038</v>
       </c>
       <c r="C4" t="n">
-        <v>34.9771</v>
+        <v>43.7017</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4355</v>
+        <v>47.4925</v>
+      </c>
+      <c r="E4" t="n">
+        <v>66.9175</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>44.7447</v>
+        <v>45.6442</v>
       </c>
       <c r="C5" t="n">
-        <v>49.025</v>
+        <v>50.1419</v>
       </c>
       <c r="D5" t="n">
-        <v>60.2412</v>
+        <v>56.2533</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91.6086</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.1864</v>
+        <v>40.8494</v>
       </c>
       <c r="C6" t="n">
-        <v>45.5975</v>
+        <v>45.301</v>
       </c>
       <c r="D6" t="n">
-        <v>54.9427</v>
+        <v>54.4377</v>
+      </c>
+      <c r="E6" t="n">
+        <v>69.67870000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.0859</v>
+        <v>39.4039</v>
       </c>
       <c r="C7" t="n">
-        <v>42.1321</v>
+        <v>41.4354</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4947</v>
+        <v>54.9516</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.7094</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.9087</v>
+        <v>40.1602</v>
       </c>
       <c r="C8" t="n">
-        <v>41.2281</v>
+        <v>36.8101</v>
       </c>
       <c r="D8" t="n">
-        <v>56.0654</v>
+        <v>45.8642</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67.7885</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>48.0128</v>
+        <v>42.9261</v>
       </c>
       <c r="C9" t="n">
-        <v>42.3213</v>
+        <v>42.7648</v>
       </c>
       <c r="D9" t="n">
-        <v>44.4466</v>
+        <v>49.0719</v>
+      </c>
+      <c r="E9" t="n">
+        <v>74.0125</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.5676</v>
+        <v>40.9562</v>
       </c>
       <c r="C10" t="n">
-        <v>50.5975</v>
+        <v>49.1574</v>
       </c>
       <c r="D10" t="n">
-        <v>45.7678</v>
+        <v>52.7666</v>
+      </c>
+      <c r="E10" t="n">
+        <v>65.3797</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.7314</v>
+        <v>40.7448</v>
       </c>
       <c r="C11" t="n">
-        <v>41.8019</v>
+        <v>42.047</v>
       </c>
       <c r="D11" t="n">
-        <v>53.0791</v>
+        <v>54.0417</v>
+      </c>
+      <c r="E11" t="n">
+        <v>66.0532</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.4558</v>
+        <v>43.5813</v>
       </c>
       <c r="C12" t="n">
-        <v>49.3501</v>
+        <v>46.0956</v>
       </c>
       <c r="D12" t="n">
-        <v>53.2953</v>
+        <v>55.8742</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58.6689</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.0103</v>
+        <v>43.4629</v>
       </c>
       <c r="C13" t="n">
-        <v>48.2453</v>
+        <v>42.2787</v>
       </c>
       <c r="D13" t="n">
-        <v>55.9712</v>
+        <v>48.2641</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.4349</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.607</v>
+        <v>43.3658</v>
       </c>
       <c r="C14" t="n">
-        <v>55.5776</v>
+        <v>42.3845</v>
       </c>
       <c r="D14" t="n">
-        <v>54.3357</v>
+        <v>49.5839</v>
+      </c>
+      <c r="E14" t="n">
+        <v>66.2458</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.3176</v>
+        <v>47.6025</v>
       </c>
       <c r="C15" t="n">
-        <v>48.7952</v>
+        <v>44.2452</v>
       </c>
       <c r="D15" t="n">
-        <v>53.8677</v>
+        <v>54.6959</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61.6521</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.2908</v>
+        <v>42.7104</v>
       </c>
       <c r="C16" t="n">
-        <v>49.5737</v>
+        <v>43.6124</v>
       </c>
       <c r="D16" t="n">
-        <v>56.8306</v>
+        <v>52.466</v>
+      </c>
+      <c r="E16" t="n">
+        <v>70.29640000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.2337</v>
+        <v>42.2334</v>
       </c>
       <c r="C17" t="n">
-        <v>48.2021</v>
+        <v>42.7579</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2968</v>
+        <v>52.6412</v>
+      </c>
+      <c r="E17" t="n">
+        <v>62.6015</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4609,19 +5423,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4511</v>
+        <v>18.2418</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5724</v>
+        <v>21.7725</v>
       </c>
       <c r="D2" t="n">
-        <v>28.1551</v>
+        <v>27.9127</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33.8373</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.7182</v>
+        <v>31.2768</v>
       </c>
       <c r="C3" t="n">
-        <v>32.4224</v>
+        <v>29.5154</v>
       </c>
       <c r="D3" t="n">
-        <v>37.3846</v>
+        <v>41.8245</v>
+      </c>
+      <c r="E3" t="n">
+        <v>54.3032</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8879</v>
+        <v>32.207</v>
       </c>
       <c r="C4" t="n">
-        <v>46.4327</v>
+        <v>45.464</v>
       </c>
       <c r="D4" t="n">
-        <v>51.7052</v>
+        <v>53.3742</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59.0409</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.2955</v>
+        <v>52.4113</v>
       </c>
       <c r="C5" t="n">
-        <v>61.4064</v>
+        <v>59.4527</v>
       </c>
       <c r="D5" t="n">
-        <v>65.37</v>
+        <v>67.16589999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>66.42319999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35.4457</v>
+        <v>37.7558</v>
       </c>
       <c r="C6" t="n">
-        <v>45.189</v>
+        <v>46.7151</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2464</v>
+        <v>53.341</v>
+      </c>
+      <c r="E6" t="n">
+        <v>69.1902</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.1708</v>
+        <v>39.5612</v>
       </c>
       <c r="C7" t="n">
-        <v>49.6919</v>
+        <v>47.8555</v>
       </c>
       <c r="D7" t="n">
-        <v>53.2637</v>
+        <v>55.1413</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59.3897</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4419</v>
+        <v>42.6615</v>
       </c>
       <c r="C8" t="n">
-        <v>40.0544</v>
+        <v>43.0836</v>
       </c>
       <c r="D8" t="n">
-        <v>56.6607</v>
+        <v>52.936</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57.6632</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.0383</v>
+        <v>41.4801</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5947</v>
+        <v>34.722</v>
       </c>
       <c r="D9" t="n">
-        <v>48.8398</v>
+        <v>50.5532</v>
+      </c>
+      <c r="E9" t="n">
+        <v>62.165</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.7198</v>
+        <v>47.9408</v>
       </c>
       <c r="C10" t="n">
-        <v>40.7336</v>
+        <v>40.4473</v>
       </c>
       <c r="D10" t="n">
-        <v>47.8635</v>
+        <v>52.1505</v>
+      </c>
+      <c r="E10" t="n">
+        <v>70.7544</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.9394</v>
+        <v>44.0472</v>
       </c>
       <c r="C11" t="n">
-        <v>46.6906</v>
+        <v>36.2993</v>
       </c>
       <c r="D11" t="n">
-        <v>52.0454</v>
+        <v>51.1914</v>
+      </c>
+      <c r="E11" t="n">
+        <v>64.5558</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8326</v>
+        <v>51.9875</v>
       </c>
       <c r="C12" t="n">
-        <v>40.2835</v>
+        <v>39.6948</v>
       </c>
       <c r="D12" t="n">
-        <v>55.1592</v>
+        <v>52.9202</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57.2057</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.8402</v>
+        <v>44.809</v>
       </c>
       <c r="C13" t="n">
-        <v>42.919</v>
+        <v>41.3066</v>
       </c>
       <c r="D13" t="n">
-        <v>47.0026</v>
+        <v>51.5246</v>
+      </c>
+      <c r="E13" t="n">
+        <v>63.1796</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.3652</v>
+        <v>48.9963</v>
       </c>
       <c r="C14" t="n">
-        <v>40.7389</v>
+        <v>39.3181</v>
       </c>
       <c r="D14" t="n">
-        <v>46.3003</v>
+        <v>58.8967</v>
+      </c>
+      <c r="E14" t="n">
+        <v>59.2782</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.1135</v>
+        <v>47.5464</v>
       </c>
       <c r="C15" t="n">
-        <v>40.2039</v>
+        <v>34.495</v>
       </c>
       <c r="D15" t="n">
-        <v>53.2411</v>
+        <v>54.6835</v>
+      </c>
+      <c r="E15" t="n">
+        <v>57.8819</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.4529</v>
+        <v>46.8118</v>
       </c>
       <c r="C16" t="n">
-        <v>39.9792</v>
+        <v>37.475</v>
       </c>
       <c r="D16" t="n">
-        <v>56.9042</v>
+        <v>55.3313</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.2176</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.609</v>
+        <v>49.517</v>
       </c>
       <c r="C17" t="n">
-        <v>41.6278</v>
+        <v>36.1232</v>
       </c>
       <c r="D17" t="n">
-        <v>48.2064</v>
+        <v>56.4088</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57.6834</v>
       </c>
     </row>
   </sheetData>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4873,19 +5740,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.853680000000001</v>
+        <v>8.85153</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8048</v>
+        <v>16.8421</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2486</v>
+        <v>22.1028</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33.3911</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7872</v>
+        <v>16.7522</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4185</v>
+        <v>30.4251</v>
       </c>
       <c r="D3" t="n">
-        <v>42.1235</v>
+        <v>41.691</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62.0469</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8313</v>
+        <v>23.8166</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9563</v>
+        <v>42.054</v>
       </c>
       <c r="D4" t="n">
-        <v>59.2848</v>
+        <v>59.0232</v>
+      </c>
+      <c r="E4" t="n">
+        <v>86.25069999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1512</v>
+        <v>31.086</v>
       </c>
       <c r="C5" t="n">
-        <v>53.215</v>
+        <v>53.6406</v>
       </c>
       <c r="D5" t="n">
-        <v>77.1354</v>
+        <v>77.48999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>109.524</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4241</v>
+        <v>33.3985</v>
       </c>
       <c r="C6" t="n">
-        <v>46.1253</v>
+        <v>45.7303</v>
       </c>
       <c r="D6" t="n">
-        <v>69.3326</v>
+        <v>68.5573</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100.719</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9764</v>
+        <v>35.9287</v>
       </c>
       <c r="C7" t="n">
-        <v>46.1831</v>
+        <v>45.3324</v>
       </c>
       <c r="D7" t="n">
-        <v>61.4612</v>
+        <v>67.70659999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100.881</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4959</v>
+        <v>38.42</v>
       </c>
       <c r="C8" t="n">
-        <v>46.629</v>
+        <v>45.5666</v>
       </c>
       <c r="D8" t="n">
-        <v>63.0688</v>
+        <v>61.2521</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99.5457</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.2404</v>
+        <v>40.3589</v>
       </c>
       <c r="C9" t="n">
-        <v>46.7193</v>
+        <v>45.3261</v>
       </c>
       <c r="D9" t="n">
-        <v>59.4104</v>
+        <v>64.5241</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100.978</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.349</v>
+        <v>40.4399</v>
       </c>
       <c r="C10" t="n">
-        <v>50.9289</v>
+        <v>49.2723</v>
       </c>
       <c r="D10" t="n">
-        <v>65.0864</v>
+        <v>63.7538</v>
+      </c>
+      <c r="E10" t="n">
+        <v>99.31319999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5973</v>
+        <v>40.4934</v>
       </c>
       <c r="C11" t="n">
-        <v>54.9777</v>
+        <v>51.6978</v>
       </c>
       <c r="D11" t="n">
-        <v>66.1418</v>
+        <v>66.72199999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>101.978</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.7081</v>
+        <v>40.6638</v>
       </c>
       <c r="C12" t="n">
-        <v>55.2092</v>
+        <v>52.5974</v>
       </c>
       <c r="D12" t="n">
-        <v>69.265</v>
+        <v>69.34439999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>103.162</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.5378</v>
+        <v>40.7632</v>
       </c>
       <c r="C13" t="n">
-        <v>55.9604</v>
+        <v>53.1396</v>
       </c>
       <c r="D13" t="n">
-        <v>70.5791</v>
+        <v>71.20569999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>104.247</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7823</v>
+        <v>40.7183</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2733</v>
+        <v>52.8968</v>
       </c>
       <c r="D14" t="n">
-        <v>71.48650000000001</v>
+        <v>71.2784</v>
+      </c>
+      <c r="E14" t="n">
+        <v>103.502</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6489</v>
+        <v>40.6955</v>
       </c>
       <c r="C15" t="n">
-        <v>55.9489</v>
+        <v>53.173</v>
       </c>
       <c r="D15" t="n">
-        <v>72.56829999999999</v>
+        <v>72.71980000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>104.353</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7504</v>
+        <v>40.7712</v>
       </c>
       <c r="C16" t="n">
-        <v>56.5026</v>
+        <v>53.4763</v>
       </c>
       <c r="D16" t="n">
-        <v>73.8202</v>
+        <v>73.57899999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>104.553</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7489</v>
+        <v>40.7708</v>
       </c>
       <c r="C17" t="n">
-        <v>56.5864</v>
+        <v>53.5128</v>
       </c>
       <c r="D17" t="n">
-        <v>73.77</v>
+        <v>74.4948</v>
+      </c>
+      <c r="E17" t="n">
+        <v>102.882</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5137,19 +6057,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.880559999999999</v>
+        <v>8.87369</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9177</v>
+        <v>16.9285</v>
       </c>
       <c r="D2" t="n">
-        <v>21.8331</v>
+        <v>21.7686</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33.6024</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8738</v>
+        <v>16.867</v>
       </c>
       <c r="C3" t="n">
-        <v>30.656</v>
+        <v>30.7645</v>
       </c>
       <c r="D3" t="n">
-        <v>41.4908</v>
+        <v>41.2103</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62.755</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0568</v>
+        <v>24.0062</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4098</v>
+        <v>42.4846</v>
       </c>
       <c r="D4" t="n">
-        <v>58.7037</v>
+        <v>57.8518</v>
+      </c>
+      <c r="E4" t="n">
+        <v>86.65389999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4976</v>
+        <v>31.487</v>
       </c>
       <c r="C5" t="n">
-        <v>53.9223</v>
+        <v>54.2659</v>
       </c>
       <c r="D5" t="n">
-        <v>75.919</v>
+        <v>75.5622</v>
+      </c>
+      <c r="E5" t="n">
+        <v>110.493</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8708</v>
+        <v>33.8617</v>
       </c>
       <c r="C6" t="n">
-        <v>46.7475</v>
+        <v>46.0872</v>
       </c>
       <c r="D6" t="n">
-        <v>67.58880000000001</v>
+        <v>67.8279</v>
+      </c>
+      <c r="E6" t="n">
+        <v>102.383</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5238</v>
+        <v>36.4598</v>
       </c>
       <c r="C7" t="n">
-        <v>46.6952</v>
+        <v>45.7437</v>
       </c>
       <c r="D7" t="n">
-        <v>60.4629</v>
+        <v>66.5629</v>
+      </c>
+      <c r="E7" t="n">
+        <v>101.531</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0037</v>
+        <v>38.9804</v>
       </c>
       <c r="C8" t="n">
-        <v>47.2342</v>
+        <v>46.005</v>
       </c>
       <c r="D8" t="n">
-        <v>61.9913</v>
+        <v>61.3156</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99.6127</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.0749</v>
+        <v>40.8598</v>
       </c>
       <c r="C9" t="n">
-        <v>47.4076</v>
+        <v>45.8046</v>
       </c>
       <c r="D9" t="n">
-        <v>59.7698</v>
+        <v>63.7903</v>
+      </c>
+      <c r="E9" t="n">
+        <v>101.499</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8758</v>
+        <v>40.974</v>
       </c>
       <c r="C10" t="n">
-        <v>52.6786</v>
+        <v>49.1878</v>
       </c>
       <c r="D10" t="n">
-        <v>63.6285</v>
+        <v>63.3807</v>
+      </c>
+      <c r="E10" t="n">
+        <v>101.744</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.115</v>
+        <v>41.1365</v>
       </c>
       <c r="C11" t="n">
-        <v>55.9687</v>
+        <v>52.0488</v>
       </c>
       <c r="D11" t="n">
-        <v>65.44799999999999</v>
+        <v>66.297</v>
+      </c>
+      <c r="E11" t="n">
+        <v>103.458</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3702</v>
+        <v>41.2842</v>
       </c>
       <c r="C12" t="n">
-        <v>56.434</v>
+        <v>53.222</v>
       </c>
       <c r="D12" t="n">
-        <v>68.4452</v>
+        <v>68.0996</v>
+      </c>
+      <c r="E12" t="n">
+        <v>104.262</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3773</v>
+        <v>41.3021</v>
       </c>
       <c r="C13" t="n">
-        <v>56.1777</v>
+        <v>53.4487</v>
       </c>
       <c r="D13" t="n">
-        <v>69.1605</v>
+        <v>70.41370000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>105.567</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3992</v>
+        <v>41.1842</v>
       </c>
       <c r="C14" t="n">
-        <v>56.9042</v>
+        <v>53.9913</v>
       </c>
       <c r="D14" t="n">
-        <v>72.67610000000001</v>
+        <v>70.8224</v>
+      </c>
+      <c r="E14" t="n">
+        <v>104.598</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2795</v>
+        <v>41.2224</v>
       </c>
       <c r="C15" t="n">
-        <v>56.921</v>
+        <v>53.9661</v>
       </c>
       <c r="D15" t="n">
-        <v>71.73220000000001</v>
+        <v>73.3815</v>
+      </c>
+      <c r="E15" t="n">
+        <v>104.607</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.3198</v>
+        <v>41.14</v>
       </c>
       <c r="C16" t="n">
-        <v>56.7194</v>
+        <v>54.02</v>
       </c>
       <c r="D16" t="n">
-        <v>72.7923</v>
+        <v>73.1995</v>
+      </c>
+      <c r="E16" t="n">
+        <v>106.353</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4298</v>
+        <v>41.3475</v>
       </c>
       <c r="C17" t="n">
-        <v>56.9981</v>
+        <v>54.1503</v>
       </c>
       <c r="D17" t="n">
-        <v>72.89790000000001</v>
+        <v>74.0129</v>
+      </c>
+      <c r="E17" t="n">
+        <v>106.129</v>
       </c>
     </row>
   </sheetData>
@@ -5374,10 +6347,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5401,19 +6374,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8636</v>
+        <v>13.8557</v>
       </c>
       <c r="C2" t="n">
-        <v>21.597</v>
+        <v>21.6271</v>
       </c>
       <c r="D2" t="n">
-        <v>29.0854</v>
+        <v>29.0598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.2119</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6398</v>
+        <v>26.8192</v>
       </c>
       <c r="C3" t="n">
-        <v>39.0579</v>
+        <v>39.3383</v>
       </c>
       <c r="D3" t="n">
-        <v>53.3707</v>
+        <v>53.461</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74.10809999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.0937</v>
+        <v>38.6033</v>
       </c>
       <c r="C4" t="n">
-        <v>54.166</v>
+        <v>54.7364</v>
       </c>
       <c r="D4" t="n">
-        <v>74.4365</v>
+        <v>74.3464</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100.311</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.219</v>
+        <v>50.4428</v>
       </c>
       <c r="C5" t="n">
-        <v>69.9495</v>
+        <v>70.89570000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>96.3385</v>
+        <v>96.6078</v>
+      </c>
+      <c r="E5" t="n">
+        <v>126.661</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.2585</v>
+        <v>49.8225</v>
       </c>
       <c r="C6" t="n">
-        <v>56.6061</v>
+        <v>55.9875</v>
       </c>
       <c r="D6" t="n">
-        <v>82.22499999999999</v>
+        <v>80.9374</v>
+      </c>
+      <c r="E6" t="n">
+        <v>108.594</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.5706</v>
+        <v>52.0448</v>
       </c>
       <c r="C7" t="n">
-        <v>54.0098</v>
+        <v>53.2213</v>
       </c>
       <c r="D7" t="n">
-        <v>66.8075</v>
+        <v>76.7791</v>
+      </c>
+      <c r="E7" t="n">
+        <v>101.706</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.5342</v>
+        <v>53.9696</v>
       </c>
       <c r="C8" t="n">
-        <v>53.1276</v>
+        <v>52.1022</v>
       </c>
       <c r="D8" t="n">
-        <v>65.4328</v>
+        <v>65.6178</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.0501</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.2105</v>
+        <v>56.3219</v>
       </c>
       <c r="C9" t="n">
-        <v>51.7419</v>
+        <v>50.5166</v>
       </c>
       <c r="D9" t="n">
-        <v>58.086</v>
+        <v>66.7899</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96.2473</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.6361</v>
+        <v>55.5473</v>
       </c>
       <c r="C10" t="n">
-        <v>56.0136</v>
+        <v>53.8933</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3768</v>
+        <v>62.3731</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.3098</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.023</v>
+        <v>55.5882</v>
       </c>
       <c r="C11" t="n">
-        <v>58.1952</v>
+        <v>55.3205</v>
       </c>
       <c r="D11" t="n">
-        <v>62.7661</v>
+        <v>65.71210000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>96.05410000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.8772</v>
+        <v>54.8537</v>
       </c>
       <c r="C12" t="n">
-        <v>59.0305</v>
+        <v>57.1279</v>
       </c>
       <c r="D12" t="n">
-        <v>66.0046</v>
+        <v>66.1473</v>
+      </c>
+      <c r="E12" t="n">
+        <v>96.0218</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.4257</v>
+        <v>55.8386</v>
       </c>
       <c r="C13" t="n">
-        <v>59.0496</v>
+        <v>55.9312</v>
       </c>
       <c r="D13" t="n">
-        <v>66.3261</v>
+        <v>69.0423</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.03360000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.8692</v>
+        <v>56.0207</v>
       </c>
       <c r="C14" t="n">
-        <v>59.1509</v>
+        <v>56.0263</v>
       </c>
       <c r="D14" t="n">
-        <v>68.70959999999999</v>
+        <v>68.9132</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96.7166</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.1724</v>
+        <v>55.9444</v>
       </c>
       <c r="C15" t="n">
-        <v>59.2803</v>
+        <v>56.2611</v>
       </c>
       <c r="D15" t="n">
-        <v>69.09520000000001</v>
+        <v>71.0364</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97.5187</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>53.2337</v>
+        <v>56.282</v>
       </c>
       <c r="C16" t="n">
-        <v>59.1794</v>
+        <v>56.1766</v>
       </c>
       <c r="D16" t="n">
-        <v>70.36790000000001</v>
+        <v>70.5985</v>
+      </c>
+      <c r="E16" t="n">
+        <v>97.0692</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>53.2819</v>
+        <v>56.1965</v>
       </c>
       <c r="C17" t="n">
-        <v>59.3791</v>
+        <v>56.365</v>
       </c>
       <c r="D17" t="n">
-        <v>70.8415</v>
+        <v>72.3852</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.13809999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1719</v>
+        <v>14.1808</v>
       </c>
       <c r="C2" t="n">
-        <v>18.685</v>
+        <v>18.7552</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9057</v>
+        <v>24.8736</v>
       </c>
       <c r="E2" t="n">
-        <v>31.9416</v>
+        <v>30.8249</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.0222</v>
+        <v>27.2455</v>
       </c>
       <c r="C3" t="n">
-        <v>29.8619</v>
+        <v>31.9339</v>
       </c>
       <c r="D3" t="n">
-        <v>35.9278</v>
+        <v>37.4451</v>
       </c>
       <c r="E3" t="n">
-        <v>56.049</v>
+        <v>50.3169</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8322</v>
+        <v>30.7959</v>
       </c>
       <c r="C4" t="n">
-        <v>37.5261</v>
+        <v>31.5038</v>
       </c>
       <c r="D4" t="n">
-        <v>49.5621</v>
+        <v>48.8969</v>
       </c>
       <c r="E4" t="n">
-        <v>67.85899999999999</v>
+        <v>69.1699</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>44.1969</v>
+        <v>41.2195</v>
       </c>
       <c r="C5" t="n">
-        <v>52.9125</v>
+        <v>46.2076</v>
       </c>
       <c r="D5" t="n">
-        <v>62.6373</v>
+        <v>57.9268</v>
       </c>
       <c r="E5" t="n">
-        <v>79.0626</v>
+        <v>83.56789999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.212</v>
+        <v>40.1765</v>
       </c>
       <c r="C6" t="n">
-        <v>43.1542</v>
+        <v>47.1796</v>
       </c>
       <c r="D6" t="n">
-        <v>50.5616</v>
+        <v>48.5697</v>
       </c>
       <c r="E6" t="n">
-        <v>63.4723</v>
+        <v>62.3652</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.9962</v>
+        <v>42.4366</v>
       </c>
       <c r="C7" t="n">
-        <v>38.9256</v>
+        <v>46.2941</v>
       </c>
       <c r="D7" t="n">
-        <v>47.7924</v>
+        <v>54.7195</v>
       </c>
       <c r="E7" t="n">
-        <v>64.9837</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.1468</v>
+        <v>37.5604</v>
       </c>
       <c r="C8" t="n">
-        <v>45.7117</v>
+        <v>38.3617</v>
       </c>
       <c r="D8" t="n">
-        <v>54.2112</v>
+        <v>53.995</v>
       </c>
       <c r="E8" t="n">
-        <v>64.85890000000001</v>
+        <v>62.8907</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.0419</v>
+        <v>42.1401</v>
       </c>
       <c r="C9" t="n">
-        <v>39.6936</v>
+        <v>46.9215</v>
       </c>
       <c r="D9" t="n">
-        <v>50.4991</v>
+        <v>54.228</v>
       </c>
       <c r="E9" t="n">
-        <v>63.9267</v>
+        <v>60.025</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4565</v>
+        <v>42.3224</v>
       </c>
       <c r="C10" t="n">
-        <v>45.415</v>
+        <v>48.607</v>
       </c>
       <c r="D10" t="n">
-        <v>46.3349</v>
+        <v>51.6831</v>
       </c>
       <c r="E10" t="n">
-        <v>60.456</v>
+        <v>75.29600000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.9431</v>
+        <v>41.948</v>
       </c>
       <c r="C11" t="n">
-        <v>41.0571</v>
+        <v>42.1897</v>
       </c>
       <c r="D11" t="n">
-        <v>55.5358</v>
+        <v>56.3284</v>
       </c>
       <c r="E11" t="n">
-        <v>71.3352</v>
+        <v>64.6502</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.2097</v>
+        <v>40.5589</v>
       </c>
       <c r="C12" t="n">
-        <v>40.5927</v>
+        <v>38.5728</v>
       </c>
       <c r="D12" t="n">
-        <v>50.8501</v>
+        <v>53.3537</v>
       </c>
       <c r="E12" t="n">
-        <v>58.1817</v>
+        <v>65.62739999999999</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.5078</v>
+        <v>43.5576</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0478</v>
+        <v>41.5502</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1879</v>
+        <v>50.9843</v>
       </c>
       <c r="E13" t="n">
-        <v>65.0157</v>
+        <v>67.851</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.974</v>
+        <v>41.8526</v>
       </c>
       <c r="C14" t="n">
-        <v>43.4832</v>
+        <v>39.4536</v>
       </c>
       <c r="D14" t="n">
-        <v>53.9644</v>
+        <v>57.2154</v>
       </c>
       <c r="E14" t="n">
-        <v>62.4073</v>
+        <v>60.3823</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.5978</v>
+        <v>45.297</v>
       </c>
       <c r="C15" t="n">
-        <v>40.9918</v>
+        <v>38.9023</v>
       </c>
       <c r="D15" t="n">
-        <v>48.0539</v>
+        <v>51.8988</v>
       </c>
       <c r="E15" t="n">
-        <v>67.7223</v>
+        <v>64.7787</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.2162</v>
+        <v>44.1976</v>
       </c>
       <c r="C16" t="n">
-        <v>49.0251</v>
+        <v>41.4049</v>
       </c>
       <c r="D16" t="n">
-        <v>52.5189</v>
+        <v>52.3978</v>
       </c>
       <c r="E16" t="n">
-        <v>71.6713</v>
+        <v>61.652</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.7302</v>
+        <v>42.9809</v>
       </c>
       <c r="C17" t="n">
-        <v>43.6703</v>
+        <v>40.6268</v>
       </c>
       <c r="D17" t="n">
-        <v>52.7304</v>
+        <v>53.4686</v>
       </c>
       <c r="E17" t="n">
-        <v>67.0842</v>
+        <v>62.5594</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9326</v>
+        <v>14.8099</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6744</v>
+        <v>18.3762</v>
       </c>
       <c r="D2" t="n">
-        <v>24.8306</v>
+        <v>24.9089</v>
       </c>
       <c r="E2" t="n">
-        <v>26.533</v>
+        <v>32.0117</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.7063</v>
+        <v>28.1435</v>
       </c>
       <c r="C3" t="n">
-        <v>30.9982</v>
+        <v>32.1043</v>
       </c>
       <c r="D3" t="n">
-        <v>37.2856</v>
+        <v>36.3872</v>
       </c>
       <c r="E3" t="n">
-        <v>50.3063</v>
+        <v>56.1962</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.6038</v>
+        <v>30.3594</v>
       </c>
       <c r="C4" t="n">
-        <v>43.7017</v>
+        <v>31.941</v>
       </c>
       <c r="D4" t="n">
-        <v>47.4925</v>
+        <v>50.3909</v>
       </c>
       <c r="E4" t="n">
-        <v>66.9175</v>
+        <v>64.5702</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>45.6442</v>
+        <v>39.4894</v>
       </c>
       <c r="C5" t="n">
-        <v>50.1419</v>
+        <v>51.0961</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2533</v>
+        <v>56.3379</v>
       </c>
       <c r="E5" t="n">
-        <v>91.6086</v>
+        <v>84.70950000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.8494</v>
+        <v>42.924</v>
       </c>
       <c r="C6" t="n">
-        <v>45.301</v>
+        <v>46.3912</v>
       </c>
       <c r="D6" t="n">
-        <v>54.4377</v>
+        <v>53.9831</v>
       </c>
       <c r="E6" t="n">
-        <v>69.67870000000001</v>
+        <v>66.2448</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.4039</v>
+        <v>40.4264</v>
       </c>
       <c r="C7" t="n">
-        <v>41.4354</v>
+        <v>50.807</v>
       </c>
       <c r="D7" t="n">
-        <v>54.9516</v>
+        <v>56.7368</v>
       </c>
       <c r="E7" t="n">
-        <v>64.7094</v>
+        <v>68.1412</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.1602</v>
+        <v>44.7722</v>
       </c>
       <c r="C8" t="n">
-        <v>36.8101</v>
+        <v>39.849</v>
       </c>
       <c r="D8" t="n">
-        <v>45.8642</v>
+        <v>50.8011</v>
       </c>
       <c r="E8" t="n">
-        <v>67.7885</v>
+        <v>62.6445</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.9261</v>
+        <v>45.9253</v>
       </c>
       <c r="C9" t="n">
-        <v>42.7648</v>
+        <v>38.5754</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0719</v>
+        <v>55.8347</v>
       </c>
       <c r="E9" t="n">
-        <v>74.0125</v>
+        <v>66.149</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.9562</v>
+        <v>44.0259</v>
       </c>
       <c r="C10" t="n">
-        <v>49.1574</v>
+        <v>41.5908</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7666</v>
+        <v>47.6377</v>
       </c>
       <c r="E10" t="n">
-        <v>65.3797</v>
+        <v>63.4901</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7448</v>
+        <v>46.235</v>
       </c>
       <c r="C11" t="n">
-        <v>42.047</v>
+        <v>44.2418</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0417</v>
+        <v>52.6449</v>
       </c>
       <c r="E11" t="n">
-        <v>66.0532</v>
+        <v>68.6007</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.5813</v>
+        <v>42.4494</v>
       </c>
       <c r="C12" t="n">
-        <v>46.0956</v>
+        <v>47.4429</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8742</v>
+        <v>51.1589</v>
       </c>
       <c r="E12" t="n">
-        <v>58.6689</v>
+        <v>61.3193</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.4629</v>
+        <v>45.2165</v>
       </c>
       <c r="C13" t="n">
-        <v>42.2787</v>
+        <v>39.9046</v>
       </c>
       <c r="D13" t="n">
-        <v>48.2641</v>
+        <v>48.7718</v>
       </c>
       <c r="E13" t="n">
-        <v>74.4349</v>
+        <v>60.9378</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.3658</v>
+        <v>43.2989</v>
       </c>
       <c r="C14" t="n">
-        <v>42.3845</v>
+        <v>45.8253</v>
       </c>
       <c r="D14" t="n">
-        <v>49.5839</v>
+        <v>53.731</v>
       </c>
       <c r="E14" t="n">
-        <v>66.2458</v>
+        <v>63.9322</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>47.6025</v>
+        <v>43.4845</v>
       </c>
       <c r="C15" t="n">
-        <v>44.2452</v>
+        <v>39.4371</v>
       </c>
       <c r="D15" t="n">
-        <v>54.6959</v>
+        <v>51.1672</v>
       </c>
       <c r="E15" t="n">
-        <v>61.6521</v>
+        <v>55.063</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.7104</v>
+        <v>43.9577</v>
       </c>
       <c r="C16" t="n">
-        <v>43.6124</v>
+        <v>49.1045</v>
       </c>
       <c r="D16" t="n">
-        <v>52.466</v>
+        <v>49.3031</v>
       </c>
       <c r="E16" t="n">
-        <v>70.29640000000001</v>
+        <v>70.5322</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.2334</v>
+        <v>41.9403</v>
       </c>
       <c r="C17" t="n">
-        <v>42.7579</v>
+        <v>43.5281</v>
       </c>
       <c r="D17" t="n">
-        <v>52.6412</v>
+        <v>57.8689</v>
       </c>
       <c r="E17" t="n">
-        <v>62.6015</v>
+        <v>65.83069999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2418</v>
+        <v>18.4211</v>
       </c>
       <c r="C2" t="n">
-        <v>21.7725</v>
+        <v>21.8782</v>
       </c>
       <c r="D2" t="n">
-        <v>27.9127</v>
+        <v>27.8598</v>
       </c>
       <c r="E2" t="n">
-        <v>33.8373</v>
+        <v>32.3389</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.2768</v>
+        <v>29.7429</v>
       </c>
       <c r="C3" t="n">
-        <v>29.5154</v>
+        <v>28.4004</v>
       </c>
       <c r="D3" t="n">
-        <v>41.8245</v>
+        <v>38.9902</v>
       </c>
       <c r="E3" t="n">
-        <v>54.3032</v>
+        <v>51.6761</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.207</v>
+        <v>32.5305</v>
       </c>
       <c r="C4" t="n">
-        <v>45.464</v>
+        <v>46.1952</v>
       </c>
       <c r="D4" t="n">
-        <v>53.3742</v>
+        <v>50.9969</v>
       </c>
       <c r="E4" t="n">
-        <v>59.0409</v>
+        <v>63.7875</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>52.4113</v>
+        <v>38.7052</v>
       </c>
       <c r="C5" t="n">
-        <v>59.4527</v>
+        <v>51.8691</v>
       </c>
       <c r="D5" t="n">
-        <v>67.16589999999999</v>
+        <v>61.3819</v>
       </c>
       <c r="E5" t="n">
-        <v>66.42319999999999</v>
+        <v>75.99809999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.7558</v>
+        <v>38.354</v>
       </c>
       <c r="C6" t="n">
-        <v>46.7151</v>
+        <v>48.4726</v>
       </c>
       <c r="D6" t="n">
-        <v>53.341</v>
+        <v>60.7399</v>
       </c>
       <c r="E6" t="n">
-        <v>69.1902</v>
+        <v>58.0382</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.5612</v>
+        <v>36.3348</v>
       </c>
       <c r="C7" t="n">
-        <v>47.8555</v>
+        <v>45.9533</v>
       </c>
       <c r="D7" t="n">
-        <v>55.1413</v>
+        <v>57.4281</v>
       </c>
       <c r="E7" t="n">
-        <v>59.3897</v>
+        <v>62.7364</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.6615</v>
+        <v>36.0892</v>
       </c>
       <c r="C8" t="n">
-        <v>43.0836</v>
+        <v>37.1558</v>
       </c>
       <c r="D8" t="n">
-        <v>52.936</v>
+        <v>56.2527</v>
       </c>
       <c r="E8" t="n">
-        <v>57.6632</v>
+        <v>58.3165</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.4801</v>
+        <v>39.7099</v>
       </c>
       <c r="C9" t="n">
-        <v>34.722</v>
+        <v>40.3088</v>
       </c>
       <c r="D9" t="n">
-        <v>50.5532</v>
+        <v>49.7315</v>
       </c>
       <c r="E9" t="n">
-        <v>62.165</v>
+        <v>60.6857</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>47.9408</v>
+        <v>38.9928</v>
       </c>
       <c r="C10" t="n">
-        <v>40.4473</v>
+        <v>40.5427</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1505</v>
+        <v>55.6328</v>
       </c>
       <c r="E10" t="n">
-        <v>70.7544</v>
+        <v>59.9516</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.0472</v>
+        <v>40.5261</v>
       </c>
       <c r="C11" t="n">
-        <v>36.2993</v>
+        <v>39.1806</v>
       </c>
       <c r="D11" t="n">
-        <v>51.1914</v>
+        <v>52.0874</v>
       </c>
       <c r="E11" t="n">
-        <v>64.5558</v>
+        <v>55.9265</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>51.9875</v>
+        <v>38.8999</v>
       </c>
       <c r="C12" t="n">
-        <v>39.6948</v>
+        <v>37.6993</v>
       </c>
       <c r="D12" t="n">
-        <v>52.9202</v>
+        <v>50.4295</v>
       </c>
       <c r="E12" t="n">
-        <v>57.2057</v>
+        <v>59.8012</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.809</v>
+        <v>43.8115</v>
       </c>
       <c r="C13" t="n">
-        <v>41.3066</v>
+        <v>37.8447</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5246</v>
+        <v>53.1115</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1796</v>
+        <v>62.7122</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>48.9963</v>
+        <v>43.6076</v>
       </c>
       <c r="C14" t="n">
-        <v>39.3181</v>
+        <v>37.1182</v>
       </c>
       <c r="D14" t="n">
-        <v>58.8967</v>
+        <v>52.4334</v>
       </c>
       <c r="E14" t="n">
-        <v>59.2782</v>
+        <v>56.1251</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>47.5464</v>
+        <v>45.1751</v>
       </c>
       <c r="C15" t="n">
-        <v>34.495</v>
+        <v>38.0087</v>
       </c>
       <c r="D15" t="n">
-        <v>54.6835</v>
+        <v>53.7707</v>
       </c>
       <c r="E15" t="n">
-        <v>57.8819</v>
+        <v>55.1947</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.8118</v>
+        <v>41.4289</v>
       </c>
       <c r="C16" t="n">
-        <v>37.475</v>
+        <v>42.1659</v>
       </c>
       <c r="D16" t="n">
-        <v>55.3313</v>
+        <v>54.6693</v>
       </c>
       <c r="E16" t="n">
-        <v>58.2176</v>
+        <v>59.8429</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>49.517</v>
+        <v>42.815</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1232</v>
+        <v>38.8603</v>
       </c>
       <c r="D17" t="n">
-        <v>56.4088</v>
+        <v>54.3655</v>
       </c>
       <c r="E17" t="n">
-        <v>57.6834</v>
+        <v>56.1236</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.85153</v>
+        <v>8.84986</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8421</v>
+        <v>16.7711</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1028</v>
+        <v>22.029</v>
       </c>
       <c r="E2" t="n">
-        <v>33.3911</v>
+        <v>33.331</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7522</v>
+        <v>16.7441</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4251</v>
+        <v>30.3519</v>
       </c>
       <c r="D3" t="n">
-        <v>41.691</v>
+        <v>41.7028</v>
       </c>
       <c r="E3" t="n">
-        <v>62.0469</v>
+        <v>61.8763</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8166</v>
+        <v>23.7893</v>
       </c>
       <c r="C4" t="n">
-        <v>42.054</v>
+        <v>41.8343</v>
       </c>
       <c r="D4" t="n">
-        <v>59.0232</v>
+        <v>58.513</v>
       </c>
       <c r="E4" t="n">
-        <v>86.25069999999999</v>
+        <v>85.9885</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.086</v>
+        <v>31.002</v>
       </c>
       <c r="C5" t="n">
-        <v>53.6406</v>
+        <v>53.2352</v>
       </c>
       <c r="D5" t="n">
-        <v>77.48999999999999</v>
+        <v>76.2453</v>
       </c>
       <c r="E5" t="n">
-        <v>109.524</v>
+        <v>109.405</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3985</v>
+        <v>33.298</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7303</v>
+        <v>44.5834</v>
       </c>
       <c r="D6" t="n">
-        <v>68.5573</v>
+        <v>68.2345</v>
       </c>
       <c r="E6" t="n">
-        <v>100.719</v>
+        <v>102.349</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9287</v>
+        <v>35.94</v>
       </c>
       <c r="C7" t="n">
-        <v>45.3324</v>
+        <v>44.3282</v>
       </c>
       <c r="D7" t="n">
-        <v>67.70659999999999</v>
+        <v>67.92310000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>100.881</v>
+        <v>100.476</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.42</v>
+        <v>38.4007</v>
       </c>
       <c r="C8" t="n">
-        <v>45.5666</v>
+        <v>44.4782</v>
       </c>
       <c r="D8" t="n">
-        <v>61.2521</v>
+        <v>61.2356</v>
       </c>
       <c r="E8" t="n">
-        <v>99.5457</v>
+        <v>98.58110000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.3589</v>
+        <v>39.994</v>
       </c>
       <c r="C9" t="n">
-        <v>45.3261</v>
+        <v>44.3007</v>
       </c>
       <c r="D9" t="n">
-        <v>64.5241</v>
+        <v>64.8964</v>
       </c>
       <c r="E9" t="n">
-        <v>100.978</v>
+        <v>101.026</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4399</v>
+        <v>40.1233</v>
       </c>
       <c r="C10" t="n">
-        <v>49.2723</v>
+        <v>48.5244</v>
       </c>
       <c r="D10" t="n">
-        <v>63.7538</v>
+        <v>64.5964</v>
       </c>
       <c r="E10" t="n">
-        <v>99.31319999999999</v>
+        <v>101.341</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.4934</v>
+        <v>40.4916</v>
       </c>
       <c r="C11" t="n">
-        <v>51.6978</v>
+        <v>51.9527</v>
       </c>
       <c r="D11" t="n">
-        <v>66.72199999999999</v>
+        <v>66.5911</v>
       </c>
       <c r="E11" t="n">
-        <v>101.978</v>
+        <v>102.938</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6638</v>
+        <v>40.5061</v>
       </c>
       <c r="C12" t="n">
-        <v>52.5974</v>
+        <v>51.6941</v>
       </c>
       <c r="D12" t="n">
-        <v>69.34439999999999</v>
+        <v>68.3913</v>
       </c>
       <c r="E12" t="n">
-        <v>103.162</v>
+        <v>103.78</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7632</v>
+        <v>40.6412</v>
       </c>
       <c r="C13" t="n">
-        <v>53.1396</v>
+        <v>52.7306</v>
       </c>
       <c r="D13" t="n">
-        <v>71.20569999999999</v>
+        <v>70.9233</v>
       </c>
       <c r="E13" t="n">
-        <v>104.247</v>
+        <v>104.473</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7183</v>
+        <v>40.5247</v>
       </c>
       <c r="C14" t="n">
-        <v>52.8968</v>
+        <v>52.708</v>
       </c>
       <c r="D14" t="n">
-        <v>71.2784</v>
+        <v>71.3947</v>
       </c>
       <c r="E14" t="n">
-        <v>103.502</v>
+        <v>103.991</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6955</v>
+        <v>40.5419</v>
       </c>
       <c r="C15" t="n">
-        <v>53.173</v>
+        <v>52.9468</v>
       </c>
       <c r="D15" t="n">
-        <v>72.71980000000001</v>
+        <v>73.4148</v>
       </c>
       <c r="E15" t="n">
-        <v>104.353</v>
+        <v>104.583</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7712</v>
+        <v>40.7439</v>
       </c>
       <c r="C16" t="n">
-        <v>53.4763</v>
+        <v>52.9906</v>
       </c>
       <c r="D16" t="n">
-        <v>73.57899999999999</v>
+        <v>73.34180000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>104.553</v>
+        <v>104.383</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7708</v>
+        <v>40.6013</v>
       </c>
       <c r="C17" t="n">
-        <v>53.5128</v>
+        <v>53.1325</v>
       </c>
       <c r="D17" t="n">
-        <v>74.4948</v>
+        <v>74.6829</v>
       </c>
       <c r="E17" t="n">
-        <v>102.882</v>
+        <v>104.849</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87369</v>
+        <v>8.862120000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9285</v>
+        <v>16.9093</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7686</v>
+        <v>21.6894</v>
       </c>
       <c r="E2" t="n">
-        <v>33.6024</v>
+        <v>33.5849</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.867</v>
+        <v>16.8572</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7645</v>
+        <v>30.6299</v>
       </c>
       <c r="D3" t="n">
-        <v>41.2103</v>
+        <v>41.1545</v>
       </c>
       <c r="E3" t="n">
-        <v>62.755</v>
+        <v>62.4852</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0062</v>
+        <v>23.9861</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4846</v>
+        <v>42.3839</v>
       </c>
       <c r="D4" t="n">
-        <v>57.8518</v>
+        <v>57.856</v>
       </c>
       <c r="E4" t="n">
-        <v>86.65389999999999</v>
+        <v>87.1193</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.487</v>
+        <v>31.407</v>
       </c>
       <c r="C5" t="n">
-        <v>54.2659</v>
+        <v>53.835</v>
       </c>
       <c r="D5" t="n">
-        <v>75.5622</v>
+        <v>75.3574</v>
       </c>
       <c r="E5" t="n">
-        <v>110.493</v>
+        <v>110.663</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8617</v>
+        <v>33.7858</v>
       </c>
       <c r="C6" t="n">
-        <v>46.0872</v>
+        <v>45.1819</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8279</v>
+        <v>67.2488</v>
       </c>
       <c r="E6" t="n">
-        <v>102.383</v>
+        <v>101.295</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.4598</v>
+        <v>36.3202</v>
       </c>
       <c r="C7" t="n">
-        <v>45.7437</v>
+        <v>44.9631</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5629</v>
+        <v>66.96250000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>101.531</v>
+        <v>101.591</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.9804</v>
+        <v>38.8889</v>
       </c>
       <c r="C8" t="n">
-        <v>46.005</v>
+        <v>44.9474</v>
       </c>
       <c r="D8" t="n">
-        <v>61.3156</v>
+        <v>60.5616</v>
       </c>
       <c r="E8" t="n">
-        <v>99.6127</v>
+        <v>100.185</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.8598</v>
+        <v>40.8695</v>
       </c>
       <c r="C9" t="n">
-        <v>45.8046</v>
+        <v>44.8591</v>
       </c>
       <c r="D9" t="n">
-        <v>63.7903</v>
+        <v>65.34099999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>101.499</v>
+        <v>101.901</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.974</v>
+        <v>40.8085</v>
       </c>
       <c r="C10" t="n">
-        <v>49.1878</v>
+        <v>49.2108</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3807</v>
+        <v>64.5454</v>
       </c>
       <c r="E10" t="n">
-        <v>101.744</v>
+        <v>100.883</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.1365</v>
+        <v>40.9985</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0488</v>
+        <v>52.3815</v>
       </c>
       <c r="D11" t="n">
-        <v>66.297</v>
+        <v>66.38249999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>103.458</v>
+        <v>104.262</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2842</v>
+        <v>41.2573</v>
       </c>
       <c r="C12" t="n">
-        <v>53.222</v>
+        <v>53.8529</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0996</v>
+        <v>67.94499999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>104.262</v>
+        <v>104.252</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3021</v>
+        <v>41.1705</v>
       </c>
       <c r="C13" t="n">
-        <v>53.4487</v>
+        <v>53.4194</v>
       </c>
       <c r="D13" t="n">
-        <v>70.41370000000001</v>
+        <v>69.97799999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>105.567</v>
+        <v>105.171</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1842</v>
+        <v>41.1717</v>
       </c>
       <c r="C14" t="n">
-        <v>53.9913</v>
+        <v>53.131</v>
       </c>
       <c r="D14" t="n">
-        <v>70.8224</v>
+        <v>72.2933</v>
       </c>
       <c r="E14" t="n">
-        <v>104.598</v>
+        <v>104.757</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2224</v>
+        <v>41.2852</v>
       </c>
       <c r="C15" t="n">
-        <v>53.9661</v>
+        <v>53.5372</v>
       </c>
       <c r="D15" t="n">
-        <v>73.3815</v>
+        <v>73.30929999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>104.607</v>
+        <v>105.52</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.14</v>
+        <v>41.2645</v>
       </c>
       <c r="C16" t="n">
-        <v>54.02</v>
+        <v>53.8125</v>
       </c>
       <c r="D16" t="n">
-        <v>73.1995</v>
+        <v>72.2312</v>
       </c>
       <c r="E16" t="n">
-        <v>106.353</v>
+        <v>104.984</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3475</v>
+        <v>41.3092</v>
       </c>
       <c r="C17" t="n">
-        <v>54.1503</v>
+        <v>53.7503</v>
       </c>
       <c r="D17" t="n">
-        <v>74.0129</v>
+        <v>73.697</v>
       </c>
       <c r="E17" t="n">
-        <v>106.129</v>
+        <v>106.177</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8557</v>
+        <v>13.828</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6271</v>
+        <v>21.6072</v>
       </c>
       <c r="D2" t="n">
-        <v>29.0598</v>
+        <v>29.0159</v>
       </c>
       <c r="E2" t="n">
-        <v>42.2119</v>
+        <v>42.1241</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8192</v>
+        <v>26.582</v>
       </c>
       <c r="C3" t="n">
-        <v>39.3383</v>
+        <v>39.2937</v>
       </c>
       <c r="D3" t="n">
-        <v>53.461</v>
+        <v>53.5097</v>
       </c>
       <c r="E3" t="n">
-        <v>74.10809999999999</v>
+        <v>74.07259999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.6033</v>
+        <v>37.971</v>
       </c>
       <c r="C4" t="n">
-        <v>54.7364</v>
+        <v>54.7377</v>
       </c>
       <c r="D4" t="n">
-        <v>74.3464</v>
+        <v>74.5718</v>
       </c>
       <c r="E4" t="n">
-        <v>100.311</v>
+        <v>100.739</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.4428</v>
+        <v>49.1276</v>
       </c>
       <c r="C5" t="n">
-        <v>70.89570000000001</v>
+        <v>70.798</v>
       </c>
       <c r="D5" t="n">
-        <v>96.6078</v>
+        <v>96.40779999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>126.661</v>
+        <v>126.122</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.8225</v>
+        <v>47.928</v>
       </c>
       <c r="C6" t="n">
-        <v>55.9875</v>
+        <v>55.3831</v>
       </c>
       <c r="D6" t="n">
-        <v>80.9374</v>
+        <v>81.6357</v>
       </c>
       <c r="E6" t="n">
-        <v>108.594</v>
+        <v>108.929</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>52.0448</v>
+        <v>49.174</v>
       </c>
       <c r="C7" t="n">
-        <v>53.2213</v>
+        <v>52.9811</v>
       </c>
       <c r="D7" t="n">
-        <v>76.7791</v>
+        <v>76.5997</v>
       </c>
       <c r="E7" t="n">
-        <v>101.706</v>
+        <v>101.968</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>53.9696</v>
+        <v>50.7004</v>
       </c>
       <c r="C8" t="n">
-        <v>52.1022</v>
+        <v>51.6085</v>
       </c>
       <c r="D8" t="n">
-        <v>65.6178</v>
+        <v>65.304</v>
       </c>
       <c r="E8" t="n">
-        <v>96.0501</v>
+        <v>96.07769999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.3219</v>
+        <v>52.7243</v>
       </c>
       <c r="C9" t="n">
-        <v>50.5166</v>
+        <v>50.236</v>
       </c>
       <c r="D9" t="n">
-        <v>66.7899</v>
+        <v>66.58329999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>96.2473</v>
+        <v>96.9828</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>55.5473</v>
+        <v>52.3154</v>
       </c>
       <c r="C10" t="n">
-        <v>53.8933</v>
+        <v>53.5158</v>
       </c>
       <c r="D10" t="n">
-        <v>62.3731</v>
+        <v>62.3757</v>
       </c>
       <c r="E10" t="n">
-        <v>95.3098</v>
+        <v>94.9829</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>55.5882</v>
+        <v>52.3783</v>
       </c>
       <c r="C11" t="n">
-        <v>55.3205</v>
+        <v>55.4588</v>
       </c>
       <c r="D11" t="n">
-        <v>65.71210000000001</v>
+        <v>66.2574</v>
       </c>
       <c r="E11" t="n">
-        <v>96.05410000000001</v>
+        <v>96.83620000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.8537</v>
+        <v>52.6034</v>
       </c>
       <c r="C12" t="n">
-        <v>57.1279</v>
+        <v>55.6933</v>
       </c>
       <c r="D12" t="n">
-        <v>66.1473</v>
+        <v>66.2503</v>
       </c>
       <c r="E12" t="n">
-        <v>96.0218</v>
+        <v>96.1983</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>55.8386</v>
+        <v>52.4091</v>
       </c>
       <c r="C13" t="n">
-        <v>55.9312</v>
+        <v>55.7002</v>
       </c>
       <c r="D13" t="n">
-        <v>69.0423</v>
+        <v>68.64409999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>97.03360000000001</v>
+        <v>96.6613</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>56.0207</v>
+        <v>52.4815</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0263</v>
+        <v>56.011</v>
       </c>
       <c r="D14" t="n">
-        <v>68.9132</v>
+        <v>68.8018</v>
       </c>
       <c r="E14" t="n">
-        <v>96.7166</v>
+        <v>96.5839</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>55.9444</v>
+        <v>52.3943</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2611</v>
+        <v>55.9203</v>
       </c>
       <c r="D15" t="n">
-        <v>71.0364</v>
+        <v>70.9842</v>
       </c>
       <c r="E15" t="n">
-        <v>97.5187</v>
+        <v>97.35169999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>56.282</v>
+        <v>52.4461</v>
       </c>
       <c r="C16" t="n">
-        <v>56.1766</v>
+        <v>56.0332</v>
       </c>
       <c r="D16" t="n">
-        <v>70.5985</v>
+        <v>70.7897</v>
       </c>
       <c r="E16" t="n">
-        <v>97.0692</v>
+        <v>97.0703</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>56.1965</v>
+        <v>52.3875</v>
       </c>
       <c r="C17" t="n">
-        <v>56.365</v>
+        <v>56.073</v>
       </c>
       <c r="D17" t="n">
-        <v>72.3852</v>
+        <v>72.3976</v>
       </c>
       <c r="E17" t="n">
-        <v>97.13809999999999</v>
+        <v>97.8734</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1719</v>
+        <v>14.1589</v>
       </c>
       <c r="C2" t="n">
-        <v>18.685</v>
+        <v>18.4969</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9057</v>
+        <v>24.7296</v>
       </c>
       <c r="E2" t="n">
-        <v>31.9416</v>
+        <v>31.773</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.0222</v>
+        <v>27.1626</v>
       </c>
       <c r="C3" t="n">
-        <v>29.8619</v>
+        <v>28.3213</v>
       </c>
       <c r="D3" t="n">
-        <v>35.9278</v>
+        <v>34.4965</v>
       </c>
       <c r="E3" t="n">
-        <v>56.049</v>
+        <v>47.6466</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8322</v>
+        <v>30.461</v>
       </c>
       <c r="C4" t="n">
-        <v>37.5261</v>
+        <v>32.1014</v>
       </c>
       <c r="D4" t="n">
-        <v>49.5621</v>
+        <v>48.7441</v>
       </c>
       <c r="E4" t="n">
-        <v>67.85899999999999</v>
+        <v>68.08880000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>44.1969</v>
+        <v>38.7865</v>
       </c>
       <c r="C5" t="n">
-        <v>52.9125</v>
+        <v>54.6223</v>
       </c>
       <c r="D5" t="n">
-        <v>62.6373</v>
+        <v>55.8371</v>
       </c>
       <c r="E5" t="n">
-        <v>79.0626</v>
+        <v>82.26609999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.212</v>
+        <v>40.4265</v>
       </c>
       <c r="C6" t="n">
-        <v>43.1542</v>
+        <v>44.7993</v>
       </c>
       <c r="D6" t="n">
-        <v>50.5616</v>
+        <v>52.5991</v>
       </c>
       <c r="E6" t="n">
-        <v>63.4723</v>
+        <v>66.44880000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.9962</v>
+        <v>41.4335</v>
       </c>
       <c r="C7" t="n">
-        <v>38.9256</v>
+        <v>42.4289</v>
       </c>
       <c r="D7" t="n">
-        <v>47.7924</v>
+        <v>54.4932</v>
       </c>
       <c r="E7" t="n">
-        <v>64.9837</v>
+        <v>62.2237</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.1468</v>
+        <v>39.3817</v>
       </c>
       <c r="C8" t="n">
-        <v>45.7117</v>
+        <v>43.094</v>
       </c>
       <c r="D8" t="n">
-        <v>54.2112</v>
+        <v>55.5579</v>
       </c>
       <c r="E8" t="n">
-        <v>64.85890000000001</v>
+        <v>78.0128</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.0419</v>
+        <v>44.6891</v>
       </c>
       <c r="C9" t="n">
-        <v>39.6936</v>
+        <v>43.4399</v>
       </c>
       <c r="D9" t="n">
-        <v>50.4991</v>
+        <v>50.9142</v>
       </c>
       <c r="E9" t="n">
-        <v>63.9267</v>
+        <v>67.8805</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4565</v>
+        <v>41.985</v>
       </c>
       <c r="C10" t="n">
-        <v>45.415</v>
+        <v>49.5862</v>
       </c>
       <c r="D10" t="n">
-        <v>46.3349</v>
+        <v>54.7699</v>
       </c>
       <c r="E10" t="n">
-        <v>60.456</v>
+        <v>66.1562</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.9431</v>
+        <v>41.4514</v>
       </c>
       <c r="C11" t="n">
-        <v>41.0571</v>
+        <v>45.2396</v>
       </c>
       <c r="D11" t="n">
-        <v>55.5358</v>
+        <v>51.4275</v>
       </c>
       <c r="E11" t="n">
-        <v>71.3352</v>
+        <v>74.3043</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.2097</v>
+        <v>42.1305</v>
       </c>
       <c r="C12" t="n">
-        <v>40.5927</v>
+        <v>45.8113</v>
       </c>
       <c r="D12" t="n">
-        <v>50.8501</v>
+        <v>47.8471</v>
       </c>
       <c r="E12" t="n">
-        <v>58.1817</v>
+        <v>69.4528</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.5078</v>
+        <v>42.2057</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0478</v>
+        <v>41.9188</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1879</v>
+        <v>53.821</v>
       </c>
       <c r="E13" t="n">
-        <v>65.0157</v>
+        <v>76.176</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.974</v>
+        <v>42.6178</v>
       </c>
       <c r="C14" t="n">
-        <v>43.4832</v>
+        <v>48.3284</v>
       </c>
       <c r="D14" t="n">
-        <v>53.9644</v>
+        <v>51.0064</v>
       </c>
       <c r="E14" t="n">
-        <v>62.4073</v>
+        <v>63.1611</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.5978</v>
+        <v>49.2763</v>
       </c>
       <c r="C15" t="n">
-        <v>40.9918</v>
+        <v>45.9656</v>
       </c>
       <c r="D15" t="n">
-        <v>48.0539</v>
+        <v>52.5753</v>
       </c>
       <c r="E15" t="n">
-        <v>67.7223</v>
+        <v>72.61190000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.2162</v>
+        <v>43.5207</v>
       </c>
       <c r="C16" t="n">
-        <v>49.0251</v>
+        <v>46.4842</v>
       </c>
       <c r="D16" t="n">
-        <v>52.5189</v>
+        <v>56.3842</v>
       </c>
       <c r="E16" t="n">
-        <v>71.6713</v>
+        <v>62.2403</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.7302</v>
+        <v>44.3495</v>
       </c>
       <c r="C17" t="n">
-        <v>43.6703</v>
+        <v>41.256</v>
       </c>
       <c r="D17" t="n">
-        <v>52.7304</v>
+        <v>49.7013</v>
       </c>
       <c r="E17" t="n">
-        <v>67.0842</v>
+        <v>61.1527</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9326</v>
+        <v>14.9023</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6744</v>
+        <v>18.4885</v>
       </c>
       <c r="D2" t="n">
-        <v>24.8306</v>
+        <v>24.7925</v>
       </c>
       <c r="E2" t="n">
-        <v>26.533</v>
+        <v>31.8987</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.7063</v>
+        <v>26.8941</v>
       </c>
       <c r="C3" t="n">
-        <v>30.9982</v>
+        <v>31.0815</v>
       </c>
       <c r="D3" t="n">
-        <v>37.2856</v>
+        <v>32.0408</v>
       </c>
       <c r="E3" t="n">
-        <v>50.3063</v>
+        <v>53.6201</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.6038</v>
+        <v>34.0275</v>
       </c>
       <c r="C4" t="n">
-        <v>43.7017</v>
+        <v>40.459</v>
       </c>
       <c r="D4" t="n">
-        <v>47.4925</v>
+        <v>44.9879</v>
       </c>
       <c r="E4" t="n">
-        <v>66.9175</v>
+        <v>65.8849</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>45.6442</v>
+        <v>37.7969</v>
       </c>
       <c r="C5" t="n">
-        <v>50.1419</v>
+        <v>45.1439</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2533</v>
+        <v>59.4745</v>
       </c>
       <c r="E5" t="n">
-        <v>91.6086</v>
+        <v>84.1401</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.8494</v>
+        <v>37.3506</v>
       </c>
       <c r="C6" t="n">
-        <v>45.301</v>
+        <v>40.5158</v>
       </c>
       <c r="D6" t="n">
-        <v>54.4377</v>
+        <v>54.2824</v>
       </c>
       <c r="E6" t="n">
-        <v>69.67870000000001</v>
+        <v>75.32559999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.4039</v>
+        <v>40.4868</v>
       </c>
       <c r="C7" t="n">
-        <v>41.4354</v>
+        <v>39.395</v>
       </c>
       <c r="D7" t="n">
-        <v>54.9516</v>
+        <v>50.3087</v>
       </c>
       <c r="E7" t="n">
-        <v>64.7094</v>
+        <v>73.96810000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.1602</v>
+        <v>41.2492</v>
       </c>
       <c r="C8" t="n">
-        <v>36.8101</v>
+        <v>42.954</v>
       </c>
       <c r="D8" t="n">
-        <v>45.8642</v>
+        <v>51.0933</v>
       </c>
       <c r="E8" t="n">
-        <v>67.7885</v>
+        <v>65.5258</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.9261</v>
+        <v>41.879</v>
       </c>
       <c r="C9" t="n">
-        <v>42.7648</v>
+        <v>38.9633</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0719</v>
+        <v>53.0684</v>
       </c>
       <c r="E9" t="n">
-        <v>74.0125</v>
+        <v>67.75239999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.9562</v>
+        <v>46.0036</v>
       </c>
       <c r="C10" t="n">
-        <v>49.1574</v>
+        <v>43.6817</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7666</v>
+        <v>48.3553</v>
       </c>
       <c r="E10" t="n">
-        <v>65.3797</v>
+        <v>70.0977</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7448</v>
+        <v>40.5354</v>
       </c>
       <c r="C11" t="n">
-        <v>42.047</v>
+        <v>42.4805</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0417</v>
+        <v>49.3684</v>
       </c>
       <c r="E11" t="n">
-        <v>66.0532</v>
+        <v>60.5056</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.5813</v>
+        <v>46.2762</v>
       </c>
       <c r="C12" t="n">
-        <v>46.0956</v>
+        <v>39.9595</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8742</v>
+        <v>49.123</v>
       </c>
       <c r="E12" t="n">
-        <v>58.6689</v>
+        <v>65.4149</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.4629</v>
+        <v>45.2173</v>
       </c>
       <c r="C13" t="n">
-        <v>42.2787</v>
+        <v>42.4227</v>
       </c>
       <c r="D13" t="n">
-        <v>48.2641</v>
+        <v>55.7464</v>
       </c>
       <c r="E13" t="n">
-        <v>74.4349</v>
+        <v>61.0902</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.3658</v>
+        <v>41.1035</v>
       </c>
       <c r="C14" t="n">
-        <v>42.3845</v>
+        <v>43.6646</v>
       </c>
       <c r="D14" t="n">
-        <v>49.5839</v>
+        <v>55.4921</v>
       </c>
       <c r="E14" t="n">
-        <v>66.2458</v>
+        <v>66.0429</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>47.6025</v>
+        <v>43.7017</v>
       </c>
       <c r="C15" t="n">
-        <v>44.2452</v>
+        <v>43.3017</v>
       </c>
       <c r="D15" t="n">
-        <v>54.6959</v>
+        <v>57.8299</v>
       </c>
       <c r="E15" t="n">
-        <v>61.6521</v>
+        <v>62.3837</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.7104</v>
+        <v>44.4946</v>
       </c>
       <c r="C16" t="n">
-        <v>43.6124</v>
+        <v>42.6135</v>
       </c>
       <c r="D16" t="n">
-        <v>52.466</v>
+        <v>47.0402</v>
       </c>
       <c r="E16" t="n">
-        <v>70.29640000000001</v>
+        <v>62.7993</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.2334</v>
+        <v>47.8182</v>
       </c>
       <c r="C17" t="n">
-        <v>42.7579</v>
+        <v>50.8487</v>
       </c>
       <c r="D17" t="n">
-        <v>52.6412</v>
+        <v>53.2702</v>
       </c>
       <c r="E17" t="n">
-        <v>62.6015</v>
+        <v>61.5503</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2418</v>
+        <v>18.2131</v>
       </c>
       <c r="C2" t="n">
-        <v>21.7725</v>
+        <v>21.8879</v>
       </c>
       <c r="D2" t="n">
-        <v>27.9127</v>
+        <v>27.7386</v>
       </c>
       <c r="E2" t="n">
-        <v>33.8373</v>
+        <v>33.7488</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.2768</v>
+        <v>30.4962</v>
       </c>
       <c r="C3" t="n">
-        <v>29.5154</v>
+        <v>29.4742</v>
       </c>
       <c r="D3" t="n">
-        <v>41.8245</v>
+        <v>37.4945</v>
       </c>
       <c r="E3" t="n">
-        <v>54.3032</v>
+        <v>49.4099</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.207</v>
+        <v>34.067</v>
       </c>
       <c r="C4" t="n">
-        <v>45.464</v>
+        <v>45.8693</v>
       </c>
       <c r="D4" t="n">
-        <v>53.3742</v>
+        <v>50.6972</v>
       </c>
       <c r="E4" t="n">
-        <v>59.0409</v>
+        <v>63.0684</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>52.4113</v>
+        <v>47.8487</v>
       </c>
       <c r="C5" t="n">
-        <v>59.4527</v>
+        <v>56.3905</v>
       </c>
       <c r="D5" t="n">
-        <v>67.16589999999999</v>
+        <v>62.0077</v>
       </c>
       <c r="E5" t="n">
-        <v>66.42319999999999</v>
+        <v>81.4494</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.7558</v>
+        <v>48.5228</v>
       </c>
       <c r="C6" t="n">
-        <v>46.7151</v>
+        <v>51.4572</v>
       </c>
       <c r="D6" t="n">
-        <v>53.341</v>
+        <v>54.4435</v>
       </c>
       <c r="E6" t="n">
-        <v>69.1902</v>
+        <v>74.2779</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.5612</v>
+        <v>42.2053</v>
       </c>
       <c r="C7" t="n">
-        <v>47.8555</v>
+        <v>43.9399</v>
       </c>
       <c r="D7" t="n">
-        <v>55.1413</v>
+        <v>54.0118</v>
       </c>
       <c r="E7" t="n">
-        <v>59.3897</v>
+        <v>59.0844</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.6615</v>
+        <v>40.1696</v>
       </c>
       <c r="C8" t="n">
-        <v>43.0836</v>
+        <v>42.6803</v>
       </c>
       <c r="D8" t="n">
-        <v>52.936</v>
+        <v>47.1503</v>
       </c>
       <c r="E8" t="n">
-        <v>57.6632</v>
+        <v>81.2841</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.4801</v>
+        <v>38.6713</v>
       </c>
       <c r="C9" t="n">
-        <v>34.722</v>
+        <v>38.4906</v>
       </c>
       <c r="D9" t="n">
-        <v>50.5532</v>
+        <v>53.5516</v>
       </c>
       <c r="E9" t="n">
-        <v>62.165</v>
+        <v>57.2036</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>47.9408</v>
+        <v>43.0099</v>
       </c>
       <c r="C10" t="n">
-        <v>40.4473</v>
+        <v>42.2066</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1505</v>
+        <v>52.0365</v>
       </c>
       <c r="E10" t="n">
-        <v>70.7544</v>
+        <v>63.5389</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.0472</v>
+        <v>42.3861</v>
       </c>
       <c r="C11" t="n">
-        <v>36.2993</v>
+        <v>46.4969</v>
       </c>
       <c r="D11" t="n">
-        <v>51.1914</v>
+        <v>54.0396</v>
       </c>
       <c r="E11" t="n">
-        <v>64.5558</v>
+        <v>58.2461</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>51.9875</v>
+        <v>44.5589</v>
       </c>
       <c r="C12" t="n">
-        <v>39.6948</v>
+        <v>43.2592</v>
       </c>
       <c r="D12" t="n">
-        <v>52.9202</v>
+        <v>52.435</v>
       </c>
       <c r="E12" t="n">
-        <v>57.2057</v>
+        <v>57.024</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.809</v>
+        <v>51.1801</v>
       </c>
       <c r="C13" t="n">
-        <v>41.3066</v>
+        <v>39.9494</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5246</v>
+        <v>54.5453</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1796</v>
+        <v>56.7589</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>48.9963</v>
+        <v>45.8697</v>
       </c>
       <c r="C14" t="n">
-        <v>39.3181</v>
+        <v>36.5841</v>
       </c>
       <c r="D14" t="n">
-        <v>58.8967</v>
+        <v>52.9302</v>
       </c>
       <c r="E14" t="n">
-        <v>59.2782</v>
+        <v>57.7662</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>47.5464</v>
+        <v>48.4506</v>
       </c>
       <c r="C15" t="n">
-        <v>34.495</v>
+        <v>39.259</v>
       </c>
       <c r="D15" t="n">
-        <v>54.6835</v>
+        <v>52.6757</v>
       </c>
       <c r="E15" t="n">
-        <v>57.8819</v>
+        <v>67.18510000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.8118</v>
+        <v>50.8834</v>
       </c>
       <c r="C16" t="n">
-        <v>37.475</v>
+        <v>44.9037</v>
       </c>
       <c r="D16" t="n">
-        <v>55.3313</v>
+        <v>50.4496</v>
       </c>
       <c r="E16" t="n">
-        <v>58.2176</v>
+        <v>56.4431</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>49.517</v>
+        <v>48.2169</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1232</v>
+        <v>43.5508</v>
       </c>
       <c r="D17" t="n">
-        <v>56.4088</v>
+        <v>53.7801</v>
       </c>
       <c r="E17" t="n">
-        <v>57.6834</v>
+        <v>56.0178</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.85153</v>
+        <v>8.83042</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8421</v>
+        <v>16.7361</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1028</v>
+        <v>22.0841</v>
       </c>
       <c r="E2" t="n">
-        <v>33.3911</v>
+        <v>33.9379</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7522</v>
+        <v>16.7263</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4251</v>
+        <v>30.1951</v>
       </c>
       <c r="D3" t="n">
-        <v>41.691</v>
+        <v>41.8147</v>
       </c>
       <c r="E3" t="n">
-        <v>62.0469</v>
+        <v>63.4972</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8166</v>
+        <v>23.7765</v>
       </c>
       <c r="C4" t="n">
-        <v>42.054</v>
+        <v>41.5488</v>
       </c>
       <c r="D4" t="n">
-        <v>59.0232</v>
+        <v>59.08</v>
       </c>
       <c r="E4" t="n">
-        <v>86.25069999999999</v>
+        <v>88.4089</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.086</v>
+        <v>31.0715</v>
       </c>
       <c r="C5" t="n">
-        <v>53.6406</v>
+        <v>52.6762</v>
       </c>
       <c r="D5" t="n">
-        <v>77.48999999999999</v>
+        <v>77.22629999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>109.524</v>
+        <v>113.43</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3985</v>
+        <v>33.0413</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7303</v>
+        <v>44.4197</v>
       </c>
       <c r="D6" t="n">
-        <v>68.5573</v>
+        <v>68.971</v>
       </c>
       <c r="E6" t="n">
-        <v>100.719</v>
+        <v>104.62</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9287</v>
+        <v>35.7562</v>
       </c>
       <c r="C7" t="n">
-        <v>45.3324</v>
+        <v>44.2263</v>
       </c>
       <c r="D7" t="n">
-        <v>67.70659999999999</v>
+        <v>68.1972</v>
       </c>
       <c r="E7" t="n">
-        <v>100.881</v>
+        <v>101.956</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.42</v>
+        <v>38.1702</v>
       </c>
       <c r="C8" t="n">
-        <v>45.5666</v>
+        <v>44.2483</v>
       </c>
       <c r="D8" t="n">
-        <v>61.2521</v>
+        <v>61.3842</v>
       </c>
       <c r="E8" t="n">
-        <v>99.5457</v>
+        <v>100.707</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.3589</v>
+        <v>39.8983</v>
       </c>
       <c r="C9" t="n">
-        <v>45.3261</v>
+        <v>44.4337</v>
       </c>
       <c r="D9" t="n">
-        <v>64.5241</v>
+        <v>65.0519</v>
       </c>
       <c r="E9" t="n">
-        <v>100.978</v>
+        <v>103.643</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4399</v>
+        <v>39.8183</v>
       </c>
       <c r="C10" t="n">
-        <v>49.2723</v>
+        <v>49.0777</v>
       </c>
       <c r="D10" t="n">
-        <v>63.7538</v>
+        <v>62.8374</v>
       </c>
       <c r="E10" t="n">
-        <v>99.31319999999999</v>
+        <v>103.124</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.4934</v>
+        <v>40.2418</v>
       </c>
       <c r="C11" t="n">
-        <v>51.6978</v>
+        <v>51.0657</v>
       </c>
       <c r="D11" t="n">
-        <v>66.72199999999999</v>
+        <v>68.69589999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>101.978</v>
+        <v>104.881</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6638</v>
+        <v>40.3231</v>
       </c>
       <c r="C12" t="n">
-        <v>52.5974</v>
+        <v>51.4113</v>
       </c>
       <c r="D12" t="n">
-        <v>69.34439999999999</v>
+        <v>69.3027</v>
       </c>
       <c r="E12" t="n">
-        <v>103.162</v>
+        <v>104.973</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7632</v>
+        <v>40.5358</v>
       </c>
       <c r="C13" t="n">
-        <v>53.1396</v>
+        <v>52.3396</v>
       </c>
       <c r="D13" t="n">
-        <v>71.20569999999999</v>
+        <v>71.3663</v>
       </c>
       <c r="E13" t="n">
-        <v>104.247</v>
+        <v>106.422</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7183</v>
+        <v>40.5646</v>
       </c>
       <c r="C14" t="n">
-        <v>52.8968</v>
+        <v>52.8265</v>
       </c>
       <c r="D14" t="n">
-        <v>71.2784</v>
+        <v>72.58029999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>103.502</v>
+        <v>105.958</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6955</v>
+        <v>40.5779</v>
       </c>
       <c r="C15" t="n">
-        <v>53.173</v>
+        <v>52.4933</v>
       </c>
       <c r="D15" t="n">
-        <v>72.71980000000001</v>
+        <v>73.6006</v>
       </c>
       <c r="E15" t="n">
-        <v>104.353</v>
+        <v>106.843</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7712</v>
+        <v>40.5007</v>
       </c>
       <c r="C16" t="n">
-        <v>53.4763</v>
+        <v>52.8461</v>
       </c>
       <c r="D16" t="n">
-        <v>73.57899999999999</v>
+        <v>73.37139999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>104.553</v>
+        <v>107.317</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7708</v>
+        <v>40.5449</v>
       </c>
       <c r="C17" t="n">
-        <v>53.5128</v>
+        <v>53.0432</v>
       </c>
       <c r="D17" t="n">
-        <v>74.4948</v>
+        <v>74.3535</v>
       </c>
       <c r="E17" t="n">
-        <v>102.882</v>
+        <v>106.319</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87369</v>
+        <v>8.85046</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9285</v>
+        <v>16.853</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7686</v>
+        <v>21.7156</v>
       </c>
       <c r="E2" t="n">
-        <v>33.6024</v>
+        <v>34.0454</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.867</v>
+        <v>16.8158</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7645</v>
+        <v>30.3919</v>
       </c>
       <c r="D3" t="n">
-        <v>41.2103</v>
+        <v>41.1989</v>
       </c>
       <c r="E3" t="n">
-        <v>62.755</v>
+        <v>63.9489</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0062</v>
+        <v>23.9637</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4846</v>
+        <v>42.0859</v>
       </c>
       <c r="D4" t="n">
-        <v>57.8518</v>
+        <v>58.225</v>
       </c>
       <c r="E4" t="n">
-        <v>86.65389999999999</v>
+        <v>88.4014</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.487</v>
+        <v>31.4238</v>
       </c>
       <c r="C5" t="n">
-        <v>54.2659</v>
+        <v>53.4125</v>
       </c>
       <c r="D5" t="n">
-        <v>75.5622</v>
+        <v>76.1452</v>
       </c>
       <c r="E5" t="n">
-        <v>110.493</v>
+        <v>113.582</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8617</v>
+        <v>33.635</v>
       </c>
       <c r="C6" t="n">
-        <v>46.0872</v>
+        <v>44.8751</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8279</v>
+        <v>67.9272</v>
       </c>
       <c r="E6" t="n">
-        <v>102.383</v>
+        <v>105.081</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.4598</v>
+        <v>36.2837</v>
       </c>
       <c r="C7" t="n">
-        <v>45.7437</v>
+        <v>44.8074</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5629</v>
+        <v>67.38249999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>101.531</v>
+        <v>103.318</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.9804</v>
+        <v>38.6724</v>
       </c>
       <c r="C8" t="n">
-        <v>46.005</v>
+        <v>44.8169</v>
       </c>
       <c r="D8" t="n">
-        <v>61.3156</v>
+        <v>61.4555</v>
       </c>
       <c r="E8" t="n">
-        <v>99.6127</v>
+        <v>101.629</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.8598</v>
+        <v>40.3911</v>
       </c>
       <c r="C9" t="n">
-        <v>45.8046</v>
+        <v>44.9087</v>
       </c>
       <c r="D9" t="n">
-        <v>63.7903</v>
+        <v>62.7667</v>
       </c>
       <c r="E9" t="n">
-        <v>101.499</v>
+        <v>103.74</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.974</v>
+        <v>40.4567</v>
       </c>
       <c r="C10" t="n">
-        <v>49.1878</v>
+        <v>49.8438</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3807</v>
+        <v>64.2698</v>
       </c>
       <c r="E10" t="n">
-        <v>101.744</v>
+        <v>104.734</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.1365</v>
+        <v>40.8652</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0488</v>
+        <v>51.7273</v>
       </c>
       <c r="D11" t="n">
-        <v>66.297</v>
+        <v>67.321</v>
       </c>
       <c r="E11" t="n">
-        <v>103.458</v>
+        <v>105.815</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2842</v>
+        <v>40.9762</v>
       </c>
       <c r="C12" t="n">
-        <v>53.222</v>
+        <v>52.5347</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0996</v>
+        <v>68.42010000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>104.262</v>
+        <v>105.97</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3021</v>
+        <v>41.0346</v>
       </c>
       <c r="C13" t="n">
-        <v>53.4487</v>
+        <v>53.005</v>
       </c>
       <c r="D13" t="n">
-        <v>70.41370000000001</v>
+        <v>71.04130000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>105.567</v>
+        <v>107.183</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1842</v>
+        <v>41.1866</v>
       </c>
       <c r="C14" t="n">
-        <v>53.9913</v>
+        <v>53.2195</v>
       </c>
       <c r="D14" t="n">
-        <v>70.8224</v>
+        <v>71.46939999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>104.598</v>
+        <v>107.574</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2224</v>
+        <v>41.1071</v>
       </c>
       <c r="C15" t="n">
-        <v>53.9661</v>
+        <v>52.7753</v>
       </c>
       <c r="D15" t="n">
-        <v>73.3815</v>
+        <v>73.4819</v>
       </c>
       <c r="E15" t="n">
-        <v>104.607</v>
+        <v>107.133</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.14</v>
+        <v>41.1839</v>
       </c>
       <c r="C16" t="n">
-        <v>54.02</v>
+        <v>53.1735</v>
       </c>
       <c r="D16" t="n">
-        <v>73.1995</v>
+        <v>72.626</v>
       </c>
       <c r="E16" t="n">
-        <v>106.353</v>
+        <v>106.821</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3475</v>
+        <v>41.0158</v>
       </c>
       <c r="C17" t="n">
-        <v>54.1503</v>
+        <v>53.5651</v>
       </c>
       <c r="D17" t="n">
-        <v>74.0129</v>
+        <v>74.17140000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>106.129</v>
+        <v>106.939</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8557</v>
+        <v>13.8321</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6271</v>
+        <v>21.5054</v>
       </c>
       <c r="D2" t="n">
-        <v>29.0598</v>
+        <v>28.9987</v>
       </c>
       <c r="E2" t="n">
-        <v>42.2119</v>
+        <v>41.8644</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8192</v>
+        <v>26.7395</v>
       </c>
       <c r="C3" t="n">
-        <v>39.3383</v>
+        <v>38.8497</v>
       </c>
       <c r="D3" t="n">
-        <v>53.461</v>
+        <v>53.2878</v>
       </c>
       <c r="E3" t="n">
-        <v>74.10809999999999</v>
+        <v>73.9096</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.6033</v>
+        <v>38.6283</v>
       </c>
       <c r="C4" t="n">
-        <v>54.7364</v>
+        <v>54.002</v>
       </c>
       <c r="D4" t="n">
-        <v>74.3464</v>
+        <v>74.6397</v>
       </c>
       <c r="E4" t="n">
-        <v>100.311</v>
+        <v>100.094</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.4428</v>
+        <v>50.6177</v>
       </c>
       <c r="C5" t="n">
-        <v>70.89570000000001</v>
+        <v>69.24720000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>96.6078</v>
+        <v>96.59910000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>126.661</v>
+        <v>126.663</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.8225</v>
+        <v>50.0217</v>
       </c>
       <c r="C6" t="n">
-        <v>55.9875</v>
+        <v>55.1444</v>
       </c>
       <c r="D6" t="n">
-        <v>80.9374</v>
+        <v>82.1108</v>
       </c>
       <c r="E6" t="n">
-        <v>108.594</v>
+        <v>110.287</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>52.0448</v>
+        <v>51.9955</v>
       </c>
       <c r="C7" t="n">
-        <v>53.2213</v>
+        <v>52.8254</v>
       </c>
       <c r="D7" t="n">
-        <v>76.7791</v>
+        <v>76.9295</v>
       </c>
       <c r="E7" t="n">
-        <v>101.706</v>
+        <v>101.944</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>53.9696</v>
+        <v>53.642</v>
       </c>
       <c r="C8" t="n">
-        <v>52.1022</v>
+        <v>51.6322</v>
       </c>
       <c r="D8" t="n">
-        <v>65.6178</v>
+        <v>65.44670000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>96.0501</v>
+        <v>96.90349999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.3219</v>
+        <v>56.0366</v>
       </c>
       <c r="C9" t="n">
-        <v>50.5166</v>
+        <v>50.5371</v>
       </c>
       <c r="D9" t="n">
-        <v>66.7899</v>
+        <v>66.85129999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>96.2473</v>
+        <v>97.2086</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>55.5473</v>
+        <v>55.6727</v>
       </c>
       <c r="C10" t="n">
-        <v>53.8933</v>
+        <v>54.061</v>
       </c>
       <c r="D10" t="n">
-        <v>62.3731</v>
+        <v>62.4825</v>
       </c>
       <c r="E10" t="n">
-        <v>95.3098</v>
+        <v>96.00149999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>55.5882</v>
+        <v>55.5016</v>
       </c>
       <c r="C11" t="n">
-        <v>55.3205</v>
+        <v>55.2735</v>
       </c>
       <c r="D11" t="n">
-        <v>65.71210000000001</v>
+        <v>66.4448</v>
       </c>
       <c r="E11" t="n">
-        <v>96.05410000000001</v>
+        <v>97.2423</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.8537</v>
+        <v>55.6435</v>
       </c>
       <c r="C12" t="n">
-        <v>57.1279</v>
+        <v>55.8153</v>
       </c>
       <c r="D12" t="n">
-        <v>66.1473</v>
+        <v>66.8075</v>
       </c>
       <c r="E12" t="n">
-        <v>96.0218</v>
+        <v>97.03660000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>55.8386</v>
+        <v>55.4477</v>
       </c>
       <c r="C13" t="n">
-        <v>55.9312</v>
+        <v>55.9384</v>
       </c>
       <c r="D13" t="n">
-        <v>69.0423</v>
+        <v>69.5453</v>
       </c>
       <c r="E13" t="n">
-        <v>97.03360000000001</v>
+        <v>97.75830000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>56.0207</v>
+        <v>55.9461</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0263</v>
+        <v>55.7217</v>
       </c>
       <c r="D14" t="n">
-        <v>68.9132</v>
+        <v>69.2778</v>
       </c>
       <c r="E14" t="n">
-        <v>96.7166</v>
+        <v>97.5099</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>55.9444</v>
+        <v>55.8741</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2611</v>
+        <v>56.061</v>
       </c>
       <c r="D15" t="n">
-        <v>71.0364</v>
+        <v>71.4957</v>
       </c>
       <c r="E15" t="n">
-        <v>97.5187</v>
+        <v>98.44410000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>56.282</v>
+        <v>55.7739</v>
       </c>
       <c r="C16" t="n">
-        <v>56.1766</v>
+        <v>56.1088</v>
       </c>
       <c r="D16" t="n">
-        <v>70.5985</v>
+        <v>71.1147</v>
       </c>
       <c r="E16" t="n">
-        <v>97.0692</v>
+        <v>97.6245</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>56.1965</v>
+        <v>55.8233</v>
       </c>
       <c r="C17" t="n">
-        <v>56.365</v>
+        <v>56.2094</v>
       </c>
       <c r="D17" t="n">
-        <v>72.3852</v>
+        <v>72.5805</v>
       </c>
       <c r="E17" t="n">
-        <v>97.13809999999999</v>
+        <v>98.48779999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1808</v>
+        <v>14.0956</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7552</v>
+        <v>18.9045</v>
       </c>
       <c r="D2" t="n">
-        <v>24.8736</v>
+        <v>24.9127</v>
       </c>
       <c r="E2" t="n">
-        <v>30.8249</v>
+        <v>30.6026</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.2455</v>
+        <v>27.183</v>
       </c>
       <c r="C3" t="n">
-        <v>31.9339</v>
+        <v>32.3905</v>
       </c>
       <c r="D3" t="n">
-        <v>37.4451</v>
+        <v>38.4633</v>
       </c>
       <c r="E3" t="n">
-        <v>50.3169</v>
+        <v>52.1418</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.7959</v>
+        <v>31.1033</v>
       </c>
       <c r="C4" t="n">
-        <v>31.5038</v>
+        <v>35.0436</v>
       </c>
       <c r="D4" t="n">
-        <v>48.8969</v>
+        <v>53.747</v>
       </c>
       <c r="E4" t="n">
-        <v>69.1699</v>
+        <v>70.5282</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41.2195</v>
+        <v>38.4162</v>
       </c>
       <c r="C5" t="n">
-        <v>46.2076</v>
+        <v>52.657</v>
       </c>
       <c r="D5" t="n">
-        <v>57.9268</v>
+        <v>57.7935</v>
       </c>
       <c r="E5" t="n">
-        <v>83.56789999999999</v>
+        <v>78.58069999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.1765</v>
+        <v>40.6238</v>
       </c>
       <c r="C6" t="n">
-        <v>47.1796</v>
+        <v>45.2884</v>
       </c>
       <c r="D6" t="n">
-        <v>48.5697</v>
+        <v>54.2725</v>
       </c>
       <c r="E6" t="n">
-        <v>62.3652</v>
+        <v>75.0625</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.4366</v>
+        <v>47.6316</v>
       </c>
       <c r="C7" t="n">
-        <v>46.2941</v>
+        <v>42.6867</v>
       </c>
       <c r="D7" t="n">
-        <v>54.7195</v>
+        <v>52.0394</v>
       </c>
       <c r="E7" t="n">
-        <v>60.84</v>
+        <v>74.50709999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.5604</v>
+        <v>39.9092</v>
       </c>
       <c r="C8" t="n">
-        <v>38.3617</v>
+        <v>47.3164</v>
       </c>
       <c r="D8" t="n">
-        <v>53.995</v>
+        <v>49.9373</v>
       </c>
       <c r="E8" t="n">
-        <v>62.8907</v>
+        <v>63.4595</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.1401</v>
+        <v>41.6999</v>
       </c>
       <c r="C9" t="n">
-        <v>46.9215</v>
+        <v>41.2472</v>
       </c>
       <c r="D9" t="n">
-        <v>54.228</v>
+        <v>48.6282</v>
       </c>
       <c r="E9" t="n">
-        <v>60.025</v>
+        <v>66.1519</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.3224</v>
+        <v>39.642</v>
       </c>
       <c r="C10" t="n">
-        <v>48.607</v>
+        <v>43.4995</v>
       </c>
       <c r="D10" t="n">
-        <v>51.6831</v>
+        <v>48.5229</v>
       </c>
       <c r="E10" t="n">
-        <v>75.29600000000001</v>
+        <v>66.11320000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.948</v>
+        <v>42.8303</v>
       </c>
       <c r="C11" t="n">
-        <v>42.1897</v>
+        <v>41.2884</v>
       </c>
       <c r="D11" t="n">
-        <v>56.3284</v>
+        <v>53.842</v>
       </c>
       <c r="E11" t="n">
-        <v>64.6502</v>
+        <v>65.7024</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.5589</v>
+        <v>41.5995</v>
       </c>
       <c r="C12" t="n">
-        <v>38.5728</v>
+        <v>44.0488</v>
       </c>
       <c r="D12" t="n">
-        <v>53.3537</v>
+        <v>52.076</v>
       </c>
       <c r="E12" t="n">
-        <v>65.62739999999999</v>
+        <v>66.46810000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.5576</v>
+        <v>44.1154</v>
       </c>
       <c r="C13" t="n">
-        <v>41.5502</v>
+        <v>44.9019</v>
       </c>
       <c r="D13" t="n">
-        <v>50.9843</v>
+        <v>54.7434</v>
       </c>
       <c r="E13" t="n">
-        <v>67.851</v>
+        <v>72.73399999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.8526</v>
+        <v>44.0692</v>
       </c>
       <c r="C14" t="n">
-        <v>39.4536</v>
+        <v>46.1954</v>
       </c>
       <c r="D14" t="n">
-        <v>57.2154</v>
+        <v>53.2924</v>
       </c>
       <c r="E14" t="n">
-        <v>60.3823</v>
+        <v>66.22190000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.297</v>
+        <v>46.0703</v>
       </c>
       <c r="C15" t="n">
-        <v>38.9023</v>
+        <v>43.7204</v>
       </c>
       <c r="D15" t="n">
-        <v>51.8988</v>
+        <v>56.7472</v>
       </c>
       <c r="E15" t="n">
-        <v>64.7787</v>
+        <v>59.5545</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.1976</v>
+        <v>42.5222</v>
       </c>
       <c r="C16" t="n">
-        <v>41.4049</v>
+        <v>40.4543</v>
       </c>
       <c r="D16" t="n">
-        <v>52.3978</v>
+        <v>53.0459</v>
       </c>
       <c r="E16" t="n">
-        <v>61.652</v>
+        <v>60.9708</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.9809</v>
+        <v>40.8715</v>
       </c>
       <c r="C17" t="n">
-        <v>40.6268</v>
+        <v>50.7038</v>
       </c>
       <c r="D17" t="n">
-        <v>53.4686</v>
+        <v>55.5337</v>
       </c>
       <c r="E17" t="n">
-        <v>62.5594</v>
+        <v>68.13160000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8099</v>
+        <v>14.9595</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3762</v>
+        <v>18.5133</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9089</v>
+        <v>24.4913</v>
       </c>
       <c r="E2" t="n">
-        <v>32.0117</v>
+        <v>29.7809</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.1435</v>
+        <v>27.8737</v>
       </c>
       <c r="C3" t="n">
-        <v>32.1043</v>
+        <v>29.784</v>
       </c>
       <c r="D3" t="n">
-        <v>36.3872</v>
+        <v>36.0015</v>
       </c>
       <c r="E3" t="n">
-        <v>56.1962</v>
+        <v>50.2331</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.3594</v>
+        <v>32.0083</v>
       </c>
       <c r="C4" t="n">
-        <v>31.941</v>
+        <v>33.4813</v>
       </c>
       <c r="D4" t="n">
-        <v>50.3909</v>
+        <v>48.8029</v>
       </c>
       <c r="E4" t="n">
-        <v>64.5702</v>
+        <v>71.42359999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.4894</v>
+        <v>45.5393</v>
       </c>
       <c r="C5" t="n">
-        <v>51.0961</v>
+        <v>50.5358</v>
       </c>
       <c r="D5" t="n">
-        <v>56.3379</v>
+        <v>58.8429</v>
       </c>
       <c r="E5" t="n">
-        <v>84.70950000000001</v>
+        <v>86.6722</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.924</v>
+        <v>38.1444</v>
       </c>
       <c r="C6" t="n">
-        <v>46.3912</v>
+        <v>46.6397</v>
       </c>
       <c r="D6" t="n">
-        <v>53.9831</v>
+        <v>56.6158</v>
       </c>
       <c r="E6" t="n">
-        <v>66.2448</v>
+        <v>68.1696</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.4264</v>
+        <v>43.9713</v>
       </c>
       <c r="C7" t="n">
-        <v>50.807</v>
+        <v>40.7485</v>
       </c>
       <c r="D7" t="n">
-        <v>56.7368</v>
+        <v>51.8921</v>
       </c>
       <c r="E7" t="n">
-        <v>68.1412</v>
+        <v>83.05759999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.7722</v>
+        <v>39.2481</v>
       </c>
       <c r="C8" t="n">
-        <v>39.849</v>
+        <v>39.555</v>
       </c>
       <c r="D8" t="n">
-        <v>50.8011</v>
+        <v>52.4461</v>
       </c>
       <c r="E8" t="n">
-        <v>62.6445</v>
+        <v>65.6413</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45.9253</v>
+        <v>43.8963</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5754</v>
+        <v>43.6949</v>
       </c>
       <c r="D9" t="n">
-        <v>55.8347</v>
+        <v>54.1967</v>
       </c>
       <c r="E9" t="n">
-        <v>66.149</v>
+        <v>72.1735</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.0259</v>
+        <v>45.2046</v>
       </c>
       <c r="C10" t="n">
-        <v>41.5908</v>
+        <v>43.5469</v>
       </c>
       <c r="D10" t="n">
-        <v>47.6377</v>
+        <v>52.1406</v>
       </c>
       <c r="E10" t="n">
-        <v>63.4901</v>
+        <v>65.4344</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46.235</v>
+        <v>42.259</v>
       </c>
       <c r="C11" t="n">
-        <v>44.2418</v>
+        <v>44.2183</v>
       </c>
       <c r="D11" t="n">
-        <v>52.6449</v>
+        <v>51.8579</v>
       </c>
       <c r="E11" t="n">
-        <v>68.6007</v>
+        <v>65.5676</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.4494</v>
+        <v>45.5481</v>
       </c>
       <c r="C12" t="n">
-        <v>47.4429</v>
+        <v>45.5714</v>
       </c>
       <c r="D12" t="n">
-        <v>51.1589</v>
+        <v>50.339</v>
       </c>
       <c r="E12" t="n">
-        <v>61.3193</v>
+        <v>73.44459999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.2165</v>
+        <v>44.8586</v>
       </c>
       <c r="C13" t="n">
-        <v>39.9046</v>
+        <v>46.4611</v>
       </c>
       <c r="D13" t="n">
-        <v>48.7718</v>
+        <v>49.1861</v>
       </c>
       <c r="E13" t="n">
-        <v>60.9378</v>
+        <v>87.34050000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.2989</v>
+        <v>45.2432</v>
       </c>
       <c r="C14" t="n">
-        <v>45.8253</v>
+        <v>41.887</v>
       </c>
       <c r="D14" t="n">
-        <v>53.731</v>
+        <v>47.6381</v>
       </c>
       <c r="E14" t="n">
-        <v>63.9322</v>
+        <v>58.8616</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.4845</v>
+        <v>41.441</v>
       </c>
       <c r="C15" t="n">
-        <v>39.4371</v>
+        <v>46.4968</v>
       </c>
       <c r="D15" t="n">
-        <v>51.1672</v>
+        <v>51.2179</v>
       </c>
       <c r="E15" t="n">
-        <v>55.063</v>
+        <v>66.8248</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.9577</v>
+        <v>43.7009</v>
       </c>
       <c r="C16" t="n">
-        <v>49.1045</v>
+        <v>49.1624</v>
       </c>
       <c r="D16" t="n">
-        <v>49.3031</v>
+        <v>54.6449</v>
       </c>
       <c r="E16" t="n">
-        <v>70.5322</v>
+        <v>57.8584</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.9403</v>
+        <v>42.086</v>
       </c>
       <c r="C17" t="n">
-        <v>43.5281</v>
+        <v>46.8107</v>
       </c>
       <c r="D17" t="n">
-        <v>57.8689</v>
+        <v>53.1841</v>
       </c>
       <c r="E17" t="n">
-        <v>65.83069999999999</v>
+        <v>60.2203</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4211</v>
+        <v>18.2875</v>
       </c>
       <c r="C2" t="n">
-        <v>21.8782</v>
+        <v>21.5978</v>
       </c>
       <c r="D2" t="n">
-        <v>27.8598</v>
+        <v>27.6628</v>
       </c>
       <c r="E2" t="n">
-        <v>32.3389</v>
+        <v>34.2247</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29.7429</v>
+        <v>31.5903</v>
       </c>
       <c r="C3" t="n">
-        <v>28.4004</v>
+        <v>33.7166</v>
       </c>
       <c r="D3" t="n">
-        <v>38.9902</v>
+        <v>37.4313</v>
       </c>
       <c r="E3" t="n">
-        <v>51.6761</v>
+        <v>51.3231</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5305</v>
+        <v>34.5628</v>
       </c>
       <c r="C4" t="n">
-        <v>46.1952</v>
+        <v>47.8848</v>
       </c>
       <c r="D4" t="n">
-        <v>50.9969</v>
+        <v>51.5718</v>
       </c>
       <c r="E4" t="n">
-        <v>63.7875</v>
+        <v>73.3832</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.7052</v>
+        <v>46.1449</v>
       </c>
       <c r="C5" t="n">
-        <v>51.8691</v>
+        <v>56.4466</v>
       </c>
       <c r="D5" t="n">
-        <v>61.3819</v>
+        <v>57.7131</v>
       </c>
       <c r="E5" t="n">
-        <v>75.99809999999999</v>
+        <v>80.4243</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.354</v>
+        <v>44.4176</v>
       </c>
       <c r="C6" t="n">
-        <v>48.4726</v>
+        <v>52.3435</v>
       </c>
       <c r="D6" t="n">
-        <v>60.7399</v>
+        <v>54.885</v>
       </c>
       <c r="E6" t="n">
-        <v>58.0382</v>
+        <v>62.1631</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3348</v>
+        <v>38.688</v>
       </c>
       <c r="C7" t="n">
-        <v>45.9533</v>
+        <v>46.3299</v>
       </c>
       <c r="D7" t="n">
-        <v>57.4281</v>
+        <v>47.6051</v>
       </c>
       <c r="E7" t="n">
-        <v>62.7364</v>
+        <v>59.7026</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.0892</v>
+        <v>38.3578</v>
       </c>
       <c r="C8" t="n">
-        <v>37.1558</v>
+        <v>39.5321</v>
       </c>
       <c r="D8" t="n">
-        <v>56.2527</v>
+        <v>51.17</v>
       </c>
       <c r="E8" t="n">
-        <v>58.3165</v>
+        <v>72.70610000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.7099</v>
+        <v>41.3827</v>
       </c>
       <c r="C9" t="n">
-        <v>40.3088</v>
+        <v>37.0866</v>
       </c>
       <c r="D9" t="n">
-        <v>49.7315</v>
+        <v>56.4945</v>
       </c>
       <c r="E9" t="n">
-        <v>60.6857</v>
+        <v>60.1044</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.9928</v>
+        <v>40.9278</v>
       </c>
       <c r="C10" t="n">
-        <v>40.5427</v>
+        <v>42.0951</v>
       </c>
       <c r="D10" t="n">
-        <v>55.6328</v>
+        <v>49.1358</v>
       </c>
       <c r="E10" t="n">
-        <v>59.9516</v>
+        <v>62.0667</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5261</v>
+        <v>37.1589</v>
       </c>
       <c r="C11" t="n">
-        <v>39.1806</v>
+        <v>38.1902</v>
       </c>
       <c r="D11" t="n">
-        <v>52.0874</v>
+        <v>53.6116</v>
       </c>
       <c r="E11" t="n">
-        <v>55.9265</v>
+        <v>63.1066</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.8999</v>
+        <v>39.2054</v>
       </c>
       <c r="C12" t="n">
-        <v>37.6993</v>
+        <v>39.4523</v>
       </c>
       <c r="D12" t="n">
-        <v>50.4295</v>
+        <v>53.3034</v>
       </c>
       <c r="E12" t="n">
-        <v>59.8012</v>
+        <v>59.3633</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.8115</v>
+        <v>43.4554</v>
       </c>
       <c r="C13" t="n">
-        <v>37.8447</v>
+        <v>40.2428</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1115</v>
+        <v>48.2954</v>
       </c>
       <c r="E13" t="n">
-        <v>62.7122</v>
+        <v>57.5424</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.6076</v>
+        <v>40.1886</v>
       </c>
       <c r="C14" t="n">
-        <v>37.1182</v>
+        <v>37.7395</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4334</v>
+        <v>52.6503</v>
       </c>
       <c r="E14" t="n">
-        <v>56.1251</v>
+        <v>50.5288</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.1751</v>
+        <v>36.0942</v>
       </c>
       <c r="C15" t="n">
-        <v>38.0087</v>
+        <v>38.3687</v>
       </c>
       <c r="D15" t="n">
-        <v>53.7707</v>
+        <v>52.5494</v>
       </c>
       <c r="E15" t="n">
-        <v>55.1947</v>
+        <v>46.0449</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.4289</v>
+        <v>39.5085</v>
       </c>
       <c r="C16" t="n">
-        <v>42.1659</v>
+        <v>42.7941</v>
       </c>
       <c r="D16" t="n">
-        <v>54.6693</v>
+        <v>45.0779</v>
       </c>
       <c r="E16" t="n">
-        <v>59.8429</v>
+        <v>60.9987</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.815</v>
+        <v>39.5107</v>
       </c>
       <c r="C17" t="n">
-        <v>38.8603</v>
+        <v>41.1716</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3655</v>
+        <v>54.549</v>
       </c>
       <c r="E17" t="n">
-        <v>56.1236</v>
+        <v>59.3498</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.84986</v>
+        <v>8.83029</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7711</v>
+        <v>16.7456</v>
       </c>
       <c r="D2" t="n">
-        <v>22.029</v>
+        <v>22.0833</v>
       </c>
       <c r="E2" t="n">
-        <v>33.331</v>
+        <v>33.9908</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7441</v>
+        <v>16.7302</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3519</v>
+        <v>30.2331</v>
       </c>
       <c r="D3" t="n">
-        <v>41.7028</v>
+        <v>41.8517</v>
       </c>
       <c r="E3" t="n">
-        <v>61.8763</v>
+        <v>63.7522</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7893</v>
+        <v>23.7675</v>
       </c>
       <c r="C4" t="n">
-        <v>41.8343</v>
+        <v>41.5631</v>
       </c>
       <c r="D4" t="n">
-        <v>58.513</v>
+        <v>59.1191</v>
       </c>
       <c r="E4" t="n">
-        <v>85.9885</v>
+        <v>87.8586</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.002</v>
+        <v>31.0378</v>
       </c>
       <c r="C5" t="n">
-        <v>53.2352</v>
+        <v>52.7986</v>
       </c>
       <c r="D5" t="n">
-        <v>76.2453</v>
+        <v>77.07599999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>109.405</v>
+        <v>113.584</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.298</v>
+        <v>33.2274</v>
       </c>
       <c r="C6" t="n">
-        <v>44.5834</v>
+        <v>45.3729</v>
       </c>
       <c r="D6" t="n">
-        <v>68.2345</v>
+        <v>69.02889999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>102.349</v>
+        <v>103.803</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.94</v>
+        <v>35.8329</v>
       </c>
       <c r="C7" t="n">
-        <v>44.3282</v>
+        <v>45.0291</v>
       </c>
       <c r="D7" t="n">
-        <v>67.92310000000001</v>
+        <v>67.93810000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>100.476</v>
+        <v>102.012</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4007</v>
+        <v>38.1984</v>
       </c>
       <c r="C8" t="n">
-        <v>44.4782</v>
+        <v>45.2261</v>
       </c>
       <c r="D8" t="n">
-        <v>61.2356</v>
+        <v>62.4247</v>
       </c>
       <c r="E8" t="n">
-        <v>98.58110000000001</v>
+        <v>100.285</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.994</v>
+        <v>39.8974</v>
       </c>
       <c r="C9" t="n">
-        <v>44.3007</v>
+        <v>45.5787</v>
       </c>
       <c r="D9" t="n">
-        <v>64.8964</v>
+        <v>64.5727</v>
       </c>
       <c r="E9" t="n">
-        <v>101.026</v>
+        <v>103.278</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.1233</v>
+        <v>39.9537</v>
       </c>
       <c r="C10" t="n">
-        <v>48.5244</v>
+        <v>50.1546</v>
       </c>
       <c r="D10" t="n">
-        <v>64.5964</v>
+        <v>64.2046</v>
       </c>
       <c r="E10" t="n">
-        <v>101.341</v>
+        <v>103.271</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.4916</v>
+        <v>40.2165</v>
       </c>
       <c r="C11" t="n">
-        <v>51.9527</v>
+        <v>52.0208</v>
       </c>
       <c r="D11" t="n">
-        <v>66.5911</v>
+        <v>67.803</v>
       </c>
       <c r="E11" t="n">
-        <v>102.938</v>
+        <v>104.428</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.5061</v>
+        <v>40.5621</v>
       </c>
       <c r="C12" t="n">
-        <v>51.6941</v>
+        <v>52.5488</v>
       </c>
       <c r="D12" t="n">
-        <v>68.3913</v>
+        <v>68.78870000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>103.78</v>
+        <v>105.301</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.6412</v>
+        <v>40.5693</v>
       </c>
       <c r="C13" t="n">
-        <v>52.7306</v>
+        <v>52.8735</v>
       </c>
       <c r="D13" t="n">
-        <v>70.9233</v>
+        <v>71.27209999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>104.473</v>
+        <v>105.533</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.5247</v>
+        <v>40.6018</v>
       </c>
       <c r="C14" t="n">
-        <v>52.708</v>
+        <v>53.0565</v>
       </c>
       <c r="D14" t="n">
-        <v>71.3947</v>
+        <v>71.3998</v>
       </c>
       <c r="E14" t="n">
-        <v>103.991</v>
+        <v>106.069</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.5419</v>
+        <v>40.7235</v>
       </c>
       <c r="C15" t="n">
-        <v>52.9468</v>
+        <v>52.9531</v>
       </c>
       <c r="D15" t="n">
-        <v>73.4148</v>
+        <v>73.4388</v>
       </c>
       <c r="E15" t="n">
-        <v>104.583</v>
+        <v>106.869</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7439</v>
+        <v>40.6625</v>
       </c>
       <c r="C16" t="n">
-        <v>52.9906</v>
+        <v>53.0157</v>
       </c>
       <c r="D16" t="n">
-        <v>73.34180000000001</v>
+        <v>73.2589</v>
       </c>
       <c r="E16" t="n">
-        <v>104.383</v>
+        <v>106.083</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.6013</v>
+        <v>40.4927</v>
       </c>
       <c r="C17" t="n">
-        <v>53.1325</v>
+        <v>53.3515</v>
       </c>
       <c r="D17" t="n">
-        <v>74.6829</v>
+        <v>74.8329</v>
       </c>
       <c r="E17" t="n">
-        <v>104.849</v>
+        <v>107.217</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.862120000000001</v>
+        <v>8.854699999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9093</v>
+        <v>16.8531</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6894</v>
+        <v>21.7423</v>
       </c>
       <c r="E2" t="n">
-        <v>33.5849</v>
+        <v>34.1121</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8572</v>
+        <v>16.8124</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6299</v>
+        <v>30.4446</v>
       </c>
       <c r="D3" t="n">
-        <v>41.1545</v>
+        <v>41.2655</v>
       </c>
       <c r="E3" t="n">
-        <v>62.4852</v>
+        <v>63.8998</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9861</v>
+        <v>23.9373</v>
       </c>
       <c r="C4" t="n">
-        <v>42.3839</v>
+        <v>42.1339</v>
       </c>
       <c r="D4" t="n">
-        <v>57.856</v>
+        <v>58.4297</v>
       </c>
       <c r="E4" t="n">
-        <v>87.1193</v>
+        <v>88.8356</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.407</v>
+        <v>31.3665</v>
       </c>
       <c r="C5" t="n">
-        <v>53.835</v>
+        <v>53.3609</v>
       </c>
       <c r="D5" t="n">
-        <v>75.3574</v>
+        <v>76.09480000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>110.663</v>
+        <v>113.345</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7858</v>
+        <v>33.7017</v>
       </c>
       <c r="C6" t="n">
-        <v>45.1819</v>
+        <v>46.0025</v>
       </c>
       <c r="D6" t="n">
-        <v>67.2488</v>
+        <v>67.8583</v>
       </c>
       <c r="E6" t="n">
-        <v>101.295</v>
+        <v>103.841</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3202</v>
+        <v>36.3106</v>
       </c>
       <c r="C7" t="n">
-        <v>44.9631</v>
+        <v>45.6538</v>
       </c>
       <c r="D7" t="n">
-        <v>66.96250000000001</v>
+        <v>67.82089999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>101.591</v>
+        <v>102.949</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.8889</v>
+        <v>38.7582</v>
       </c>
       <c r="C8" t="n">
-        <v>44.9474</v>
+        <v>45.787</v>
       </c>
       <c r="D8" t="n">
-        <v>60.5616</v>
+        <v>61.3247</v>
       </c>
       <c r="E8" t="n">
-        <v>100.185</v>
+        <v>101.481</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.8695</v>
+        <v>40.4676</v>
       </c>
       <c r="C9" t="n">
-        <v>44.8591</v>
+        <v>45.9035</v>
       </c>
       <c r="D9" t="n">
-        <v>65.34099999999999</v>
+        <v>63.5476</v>
       </c>
       <c r="E9" t="n">
-        <v>101.901</v>
+        <v>103.507</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8085</v>
+        <v>40.6297</v>
       </c>
       <c r="C10" t="n">
-        <v>49.2108</v>
+        <v>49.7044</v>
       </c>
       <c r="D10" t="n">
-        <v>64.5454</v>
+        <v>63.819</v>
       </c>
       <c r="E10" t="n">
-        <v>100.883</v>
+        <v>104.051</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.9985</v>
+        <v>40.7273</v>
       </c>
       <c r="C11" t="n">
-        <v>52.3815</v>
+        <v>52.6287</v>
       </c>
       <c r="D11" t="n">
-        <v>66.38249999999999</v>
+        <v>67.6374</v>
       </c>
       <c r="E11" t="n">
-        <v>104.262</v>
+        <v>105.864</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2573</v>
+        <v>41.1882</v>
       </c>
       <c r="C12" t="n">
-        <v>53.8529</v>
+        <v>53.0386</v>
       </c>
       <c r="D12" t="n">
-        <v>67.94499999999999</v>
+        <v>68.7269</v>
       </c>
       <c r="E12" t="n">
-        <v>104.252</v>
+        <v>106.497</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.1705</v>
+        <v>41.3111</v>
       </c>
       <c r="C13" t="n">
-        <v>53.4194</v>
+        <v>53.6618</v>
       </c>
       <c r="D13" t="n">
-        <v>69.97799999999999</v>
+        <v>70.5711</v>
       </c>
       <c r="E13" t="n">
-        <v>105.171</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1717</v>
+        <v>41.0901</v>
       </c>
       <c r="C14" t="n">
-        <v>53.131</v>
+        <v>53.8258</v>
       </c>
       <c r="D14" t="n">
-        <v>72.2933</v>
+        <v>71.1498</v>
       </c>
       <c r="E14" t="n">
-        <v>104.757</v>
+        <v>107.461</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2852</v>
+        <v>41.2584</v>
       </c>
       <c r="C15" t="n">
-        <v>53.5372</v>
+        <v>53.8516</v>
       </c>
       <c r="D15" t="n">
-        <v>73.30929999999999</v>
+        <v>73.50920000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>105.52</v>
+        <v>108.095</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.2645</v>
+        <v>41.2425</v>
       </c>
       <c r="C16" t="n">
-        <v>53.8125</v>
+        <v>53.6703</v>
       </c>
       <c r="D16" t="n">
-        <v>72.2312</v>
+        <v>73.2928</v>
       </c>
       <c r="E16" t="n">
-        <v>104.984</v>
+        <v>107.749</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3092</v>
+        <v>41.1673</v>
       </c>
       <c r="C17" t="n">
-        <v>53.7503</v>
+        <v>53.6649</v>
       </c>
       <c r="D17" t="n">
-        <v>73.697</v>
+        <v>74.244</v>
       </c>
       <c r="E17" t="n">
-        <v>106.177</v>
+        <v>107.615</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.828</v>
+        <v>13.8671</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6072</v>
+        <v>21.5812</v>
       </c>
       <c r="D2" t="n">
-        <v>29.0159</v>
+        <v>28.9882</v>
       </c>
       <c r="E2" t="n">
-        <v>42.1241</v>
+        <v>41.9661</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.582</v>
+        <v>26.5345</v>
       </c>
       <c r="C3" t="n">
-        <v>39.2937</v>
+        <v>38.8633</v>
       </c>
       <c r="D3" t="n">
-        <v>53.5097</v>
+        <v>53.4099</v>
       </c>
       <c r="E3" t="n">
-        <v>74.07259999999999</v>
+        <v>73.8785</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.971</v>
+        <v>37.9794</v>
       </c>
       <c r="C4" t="n">
-        <v>54.7377</v>
+        <v>53.9883</v>
       </c>
       <c r="D4" t="n">
-        <v>74.5718</v>
+        <v>74.6966</v>
       </c>
       <c r="E4" t="n">
-        <v>100.739</v>
+        <v>99.6163</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.1276</v>
+        <v>49.2859</v>
       </c>
       <c r="C5" t="n">
-        <v>70.798</v>
+        <v>69.0269</v>
       </c>
       <c r="D5" t="n">
-        <v>96.40779999999999</v>
+        <v>96.64019999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>126.122</v>
+        <v>126.605</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47.928</v>
+        <v>47.9793</v>
       </c>
       <c r="C6" t="n">
-        <v>55.3831</v>
+        <v>55.9807</v>
       </c>
       <c r="D6" t="n">
-        <v>81.6357</v>
+        <v>82.1387</v>
       </c>
       <c r="E6" t="n">
-        <v>108.929</v>
+        <v>110.138</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.174</v>
+        <v>49.3971</v>
       </c>
       <c r="C7" t="n">
-        <v>52.9811</v>
+        <v>53.0666</v>
       </c>
       <c r="D7" t="n">
-        <v>76.5997</v>
+        <v>77.1464</v>
       </c>
       <c r="E7" t="n">
-        <v>101.968</v>
+        <v>101.453</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50.7004</v>
+        <v>50.9953</v>
       </c>
       <c r="C8" t="n">
-        <v>51.6085</v>
+        <v>51.9909</v>
       </c>
       <c r="D8" t="n">
-        <v>65.304</v>
+        <v>65.5381</v>
       </c>
       <c r="E8" t="n">
-        <v>96.07769999999999</v>
+        <v>96.5189</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.7243</v>
+        <v>52.5878</v>
       </c>
       <c r="C9" t="n">
-        <v>50.236</v>
+        <v>50.8674</v>
       </c>
       <c r="D9" t="n">
-        <v>66.58329999999999</v>
+        <v>67.14100000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>96.9828</v>
+        <v>97.3428</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.3154</v>
+        <v>52.317</v>
       </c>
       <c r="C10" t="n">
-        <v>53.5158</v>
+        <v>54.1902</v>
       </c>
       <c r="D10" t="n">
-        <v>62.3757</v>
+        <v>63.1445</v>
       </c>
       <c r="E10" t="n">
-        <v>94.9829</v>
+        <v>95.62649999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.3783</v>
+        <v>52.4214</v>
       </c>
       <c r="C11" t="n">
-        <v>55.4588</v>
+        <v>55.3159</v>
       </c>
       <c r="D11" t="n">
-        <v>66.2574</v>
+        <v>66.3762</v>
       </c>
       <c r="E11" t="n">
-        <v>96.83620000000001</v>
+        <v>97.45740000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.6034</v>
+        <v>52.3603</v>
       </c>
       <c r="C12" t="n">
-        <v>55.6933</v>
+        <v>56.0373</v>
       </c>
       <c r="D12" t="n">
-        <v>66.2503</v>
+        <v>66.6268</v>
       </c>
       <c r="E12" t="n">
-        <v>96.1983</v>
+        <v>97.10720000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.4091</v>
+        <v>52.4118</v>
       </c>
       <c r="C13" t="n">
-        <v>55.7002</v>
+        <v>56.0641</v>
       </c>
       <c r="D13" t="n">
-        <v>68.64409999999999</v>
+        <v>69.76900000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>96.6613</v>
+        <v>97.8293</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.4815</v>
+        <v>52.4935</v>
       </c>
       <c r="C14" t="n">
-        <v>56.011</v>
+        <v>56.1905</v>
       </c>
       <c r="D14" t="n">
-        <v>68.8018</v>
+        <v>69.17959999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>96.5839</v>
+        <v>98.07559999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>52.3943</v>
+        <v>52.4722</v>
       </c>
       <c r="C15" t="n">
-        <v>55.9203</v>
+        <v>56.2807</v>
       </c>
       <c r="D15" t="n">
-        <v>70.9842</v>
+        <v>71.3758</v>
       </c>
       <c r="E15" t="n">
-        <v>97.35169999999999</v>
+        <v>98.2022</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.4461</v>
+        <v>52.2466</v>
       </c>
       <c r="C16" t="n">
-        <v>56.0332</v>
+        <v>56.3221</v>
       </c>
       <c r="D16" t="n">
-        <v>70.7897</v>
+        <v>71.2628</v>
       </c>
       <c r="E16" t="n">
-        <v>97.0703</v>
+        <v>97.70740000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.3875</v>
+        <v>52.2279</v>
       </c>
       <c r="C17" t="n">
-        <v>56.073</v>
+        <v>56.4465</v>
       </c>
       <c r="D17" t="n">
-        <v>72.3976</v>
+        <v>72.8544</v>
       </c>
       <c r="E17" t="n">
-        <v>97.8734</v>
+        <v>97.72839999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.0956</v>
+        <v>13.9123</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9045</v>
+        <v>18.7002</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9127</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>30.6026</v>
+        <v>26.7999</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.183</v>
+        <v>27.3032</v>
       </c>
       <c r="C3" t="n">
-        <v>32.3905</v>
+        <v>30.2306</v>
       </c>
       <c r="D3" t="n">
-        <v>38.4633</v>
+        <v>27.2091</v>
       </c>
       <c r="E3" t="n">
-        <v>52.1418</v>
+        <v>39.3026</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.1033</v>
+        <v>33.9348</v>
       </c>
       <c r="C4" t="n">
-        <v>35.0436</v>
+        <v>33.9909</v>
       </c>
       <c r="D4" t="n">
-        <v>53.747</v>
+        <v>37.3933</v>
       </c>
       <c r="E4" t="n">
-        <v>70.5282</v>
+        <v>51.3892</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.4162</v>
+        <v>41.4451</v>
       </c>
       <c r="C5" t="n">
-        <v>52.657</v>
+        <v>48.9715</v>
       </c>
       <c r="D5" t="n">
-        <v>57.7935</v>
+        <v>49.1495</v>
       </c>
       <c r="E5" t="n">
-        <v>78.58069999999999</v>
+        <v>72.22150000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.6238</v>
+        <v>40.9506</v>
       </c>
       <c r="C6" t="n">
-        <v>45.2884</v>
+        <v>43.5772</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2725</v>
+        <v>40.625</v>
       </c>
       <c r="E6" t="n">
-        <v>75.0625</v>
+        <v>56.1684</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47.6316</v>
+        <v>37.4613</v>
       </c>
       <c r="C7" t="n">
-        <v>42.6867</v>
+        <v>41.6293</v>
       </c>
       <c r="D7" t="n">
-        <v>52.0394</v>
+        <v>39.6512</v>
       </c>
       <c r="E7" t="n">
-        <v>74.50709999999999</v>
+        <v>57.227</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.9092</v>
+        <v>42.8429</v>
       </c>
       <c r="C8" t="n">
-        <v>47.3164</v>
+        <v>38.6648</v>
       </c>
       <c r="D8" t="n">
-        <v>49.9373</v>
+        <v>35.2388</v>
       </c>
       <c r="E8" t="n">
-        <v>63.4595</v>
+        <v>57.8826</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.6999</v>
+        <v>44.6255</v>
       </c>
       <c r="C9" t="n">
-        <v>41.2472</v>
+        <v>42.0274</v>
       </c>
       <c r="D9" t="n">
-        <v>48.6282</v>
+        <v>39.5523</v>
       </c>
       <c r="E9" t="n">
-        <v>66.1519</v>
+        <v>55.6198</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.642</v>
+        <v>44.8611</v>
       </c>
       <c r="C10" t="n">
-        <v>43.4995</v>
+        <v>46.7573</v>
       </c>
       <c r="D10" t="n">
-        <v>48.5229</v>
+        <v>37.6756</v>
       </c>
       <c r="E10" t="n">
-        <v>66.11320000000001</v>
+        <v>56.682</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.8303</v>
+        <v>46.4459</v>
       </c>
       <c r="C11" t="n">
-        <v>41.2884</v>
+        <v>45.1959</v>
       </c>
       <c r="D11" t="n">
-        <v>53.842</v>
+        <v>38.7639</v>
       </c>
       <c r="E11" t="n">
-        <v>65.7024</v>
+        <v>49.8002</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.5995</v>
+        <v>42.5962</v>
       </c>
       <c r="C12" t="n">
-        <v>44.0488</v>
+        <v>44.0518</v>
       </c>
       <c r="D12" t="n">
-        <v>52.076</v>
+        <v>44.2063</v>
       </c>
       <c r="E12" t="n">
-        <v>66.46810000000001</v>
+        <v>51.1975</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.1154</v>
+        <v>41.9626</v>
       </c>
       <c r="C13" t="n">
-        <v>44.9019</v>
+        <v>52.5853</v>
       </c>
       <c r="D13" t="n">
-        <v>54.7434</v>
+        <v>38.5057</v>
       </c>
       <c r="E13" t="n">
-        <v>72.73399999999999</v>
+        <v>53.5659</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.0692</v>
+        <v>41.9613</v>
       </c>
       <c r="C14" t="n">
-        <v>46.1954</v>
+        <v>48.7632</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2924</v>
+        <v>37.2597</v>
       </c>
       <c r="E14" t="n">
-        <v>66.22190000000001</v>
+        <v>55.3072</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.0703</v>
+        <v>40.6515</v>
       </c>
       <c r="C15" t="n">
-        <v>43.7204</v>
+        <v>44.7823</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7472</v>
+        <v>45.1409</v>
       </c>
       <c r="E15" t="n">
-        <v>59.5545</v>
+        <v>54.8814</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.5222</v>
+        <v>40.0927</v>
       </c>
       <c r="C16" t="n">
-        <v>40.4543</v>
+        <v>52.8627</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0459</v>
+        <v>38.2595</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9708</v>
+        <v>54.6402</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.8715</v>
+        <v>43.39</v>
       </c>
       <c r="C17" t="n">
-        <v>50.7038</v>
+        <v>48.6166</v>
       </c>
       <c r="D17" t="n">
-        <v>55.5337</v>
+        <v>38.2197</v>
       </c>
       <c r="E17" t="n">
-        <v>68.13160000000001</v>
+        <v>48.2242</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9595</v>
+        <v>14.809</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5133</v>
+        <v>18.5561</v>
       </c>
       <c r="D2" t="n">
-        <v>24.4913</v>
+        <v>21.4113</v>
       </c>
       <c r="E2" t="n">
-        <v>29.7809</v>
+        <v>28.785</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8737</v>
+        <v>27.764</v>
       </c>
       <c r="C3" t="n">
-        <v>29.784</v>
+        <v>31.8661</v>
       </c>
       <c r="D3" t="n">
-        <v>36.0015</v>
+        <v>31.2093</v>
       </c>
       <c r="E3" t="n">
-        <v>50.2331</v>
+        <v>43.6345</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0083</v>
+        <v>33.1582</v>
       </c>
       <c r="C4" t="n">
-        <v>33.4813</v>
+        <v>31.6392</v>
       </c>
       <c r="D4" t="n">
-        <v>48.8029</v>
+        <v>44.0856</v>
       </c>
       <c r="E4" t="n">
-        <v>71.42359999999999</v>
+        <v>51.2132</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>45.5393</v>
+        <v>41.6832</v>
       </c>
       <c r="C5" t="n">
-        <v>50.5358</v>
+        <v>52.7275</v>
       </c>
       <c r="D5" t="n">
-        <v>58.8429</v>
+        <v>46.4934</v>
       </c>
       <c r="E5" t="n">
-        <v>86.6722</v>
+        <v>62.1087</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.1444</v>
+        <v>42.1683</v>
       </c>
       <c r="C6" t="n">
-        <v>46.6397</v>
+        <v>47.8288</v>
       </c>
       <c r="D6" t="n">
-        <v>56.6158</v>
+        <v>47.5439</v>
       </c>
       <c r="E6" t="n">
-        <v>68.1696</v>
+        <v>57.7717</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.9713</v>
+        <v>41.87</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7485</v>
+        <v>42.1994</v>
       </c>
       <c r="D7" t="n">
-        <v>51.8921</v>
+        <v>45.7883</v>
       </c>
       <c r="E7" t="n">
-        <v>83.05759999999999</v>
+        <v>55.5147</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.2481</v>
+        <v>42.0665</v>
       </c>
       <c r="C8" t="n">
-        <v>39.555</v>
+        <v>43.3623</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4461</v>
+        <v>39.9626</v>
       </c>
       <c r="E8" t="n">
-        <v>65.6413</v>
+        <v>55.8004</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.8963</v>
+        <v>45.9598</v>
       </c>
       <c r="C9" t="n">
-        <v>43.6949</v>
+        <v>40.8191</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1967</v>
+        <v>38.5535</v>
       </c>
       <c r="E9" t="n">
-        <v>72.1735</v>
+        <v>55.194</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.2046</v>
+        <v>44.494</v>
       </c>
       <c r="C10" t="n">
-        <v>43.5469</v>
+        <v>45.5483</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1406</v>
+        <v>41.7068</v>
       </c>
       <c r="E10" t="n">
-        <v>65.4344</v>
+        <v>50.0224</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.259</v>
+        <v>43.3783</v>
       </c>
       <c r="C11" t="n">
-        <v>44.2183</v>
+        <v>41.5869</v>
       </c>
       <c r="D11" t="n">
-        <v>51.8579</v>
+        <v>38.1533</v>
       </c>
       <c r="E11" t="n">
-        <v>65.5676</v>
+        <v>55.3733</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.5481</v>
+        <v>41.3885</v>
       </c>
       <c r="C12" t="n">
-        <v>45.5714</v>
+        <v>48.082</v>
       </c>
       <c r="D12" t="n">
-        <v>50.339</v>
+        <v>42.713</v>
       </c>
       <c r="E12" t="n">
-        <v>73.44459999999999</v>
+        <v>54.2824</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.8586</v>
+        <v>44.8204</v>
       </c>
       <c r="C13" t="n">
-        <v>46.4611</v>
+        <v>46.0241</v>
       </c>
       <c r="D13" t="n">
-        <v>49.1861</v>
+        <v>36.6054</v>
       </c>
       <c r="E13" t="n">
-        <v>87.34050000000001</v>
+        <v>47.5404</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.2432</v>
+        <v>43.8538</v>
       </c>
       <c r="C14" t="n">
-        <v>41.887</v>
+        <v>48.8019</v>
       </c>
       <c r="D14" t="n">
-        <v>47.6381</v>
+        <v>38.8635</v>
       </c>
       <c r="E14" t="n">
-        <v>58.8616</v>
+        <v>53.5789</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.441</v>
+        <v>45.2709</v>
       </c>
       <c r="C15" t="n">
-        <v>46.4968</v>
+        <v>47.5272</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2179</v>
+        <v>43.1147</v>
       </c>
       <c r="E15" t="n">
-        <v>66.8248</v>
+        <v>47.3498</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.7009</v>
+        <v>43.8968</v>
       </c>
       <c r="C16" t="n">
-        <v>49.1624</v>
+        <v>50.9917</v>
       </c>
       <c r="D16" t="n">
-        <v>54.6449</v>
+        <v>38.9246</v>
       </c>
       <c r="E16" t="n">
-        <v>57.8584</v>
+        <v>53.4363</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.086</v>
+        <v>39.8498</v>
       </c>
       <c r="C17" t="n">
-        <v>46.8107</v>
+        <v>46.7796</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1841</v>
+        <v>45.7555</v>
       </c>
       <c r="E17" t="n">
-        <v>60.2203</v>
+        <v>56.5075</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2875</v>
+        <v>18.2687</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5978</v>
+        <v>21.746</v>
       </c>
       <c r="D2" t="n">
-        <v>27.6628</v>
+        <v>25.7711</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2247</v>
+        <v>32.474</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.5903</v>
+        <v>29.4764</v>
       </c>
       <c r="C3" t="n">
-        <v>33.7166</v>
+        <v>33.545</v>
       </c>
       <c r="D3" t="n">
-        <v>37.4313</v>
+        <v>40.5461</v>
       </c>
       <c r="E3" t="n">
-        <v>51.3231</v>
+        <v>42.5661</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5628</v>
+        <v>32.5601</v>
       </c>
       <c r="C4" t="n">
-        <v>47.8848</v>
+        <v>49.1624</v>
       </c>
       <c r="D4" t="n">
-        <v>51.5718</v>
+        <v>52.9593</v>
       </c>
       <c r="E4" t="n">
-        <v>73.3832</v>
+        <v>59.6308</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.1449</v>
+        <v>43.2351</v>
       </c>
       <c r="C5" t="n">
-        <v>56.4466</v>
+        <v>58.1256</v>
       </c>
       <c r="D5" t="n">
-        <v>57.7131</v>
+        <v>59.7864</v>
       </c>
       <c r="E5" t="n">
-        <v>80.4243</v>
+        <v>78.4633</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44.4176</v>
+        <v>42.2471</v>
       </c>
       <c r="C6" t="n">
-        <v>52.3435</v>
+        <v>46.5333</v>
       </c>
       <c r="D6" t="n">
-        <v>54.885</v>
+        <v>53.521</v>
       </c>
       <c r="E6" t="n">
-        <v>62.1631</v>
+        <v>71.1987</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.688</v>
+        <v>45.0499</v>
       </c>
       <c r="C7" t="n">
-        <v>46.3299</v>
+        <v>39.5305</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6051</v>
+        <v>52.3518</v>
       </c>
       <c r="E7" t="n">
-        <v>59.7026</v>
+        <v>56.6904</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.3578</v>
+        <v>48.7772</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5321</v>
+        <v>41.2221</v>
       </c>
       <c r="D8" t="n">
-        <v>51.17</v>
+        <v>52.3895</v>
       </c>
       <c r="E8" t="n">
-        <v>72.70610000000001</v>
+        <v>54.2213</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.3827</v>
+        <v>41.7513</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0866</v>
+        <v>34.9509</v>
       </c>
       <c r="D9" t="n">
-        <v>56.4945</v>
+        <v>42.8233</v>
       </c>
       <c r="E9" t="n">
-        <v>60.1044</v>
+        <v>53.808</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.9278</v>
+        <v>43.5212</v>
       </c>
       <c r="C10" t="n">
-        <v>42.0951</v>
+        <v>38.4085</v>
       </c>
       <c r="D10" t="n">
-        <v>49.1358</v>
+        <v>43.1365</v>
       </c>
       <c r="E10" t="n">
-        <v>62.0667</v>
+        <v>54.2265</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.1589</v>
+        <v>42.0743</v>
       </c>
       <c r="C11" t="n">
-        <v>38.1902</v>
+        <v>40.367</v>
       </c>
       <c r="D11" t="n">
-        <v>53.6116</v>
+        <v>47.1145</v>
       </c>
       <c r="E11" t="n">
-        <v>63.1066</v>
+        <v>56.9329</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.2054</v>
+        <v>41.7017</v>
       </c>
       <c r="C12" t="n">
-        <v>39.4523</v>
+        <v>39.8192</v>
       </c>
       <c r="D12" t="n">
-        <v>53.3034</v>
+        <v>48.618</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3633</v>
+        <v>54.6328</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.4554</v>
+        <v>42.6894</v>
       </c>
       <c r="C13" t="n">
-        <v>40.2428</v>
+        <v>39.1467</v>
       </c>
       <c r="D13" t="n">
-        <v>48.2954</v>
+        <v>53.2608</v>
       </c>
       <c r="E13" t="n">
-        <v>57.5424</v>
+        <v>53.8621</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.1886</v>
+        <v>46.7052</v>
       </c>
       <c r="C14" t="n">
-        <v>37.7395</v>
+        <v>40.0831</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6503</v>
+        <v>54.2993</v>
       </c>
       <c r="E14" t="n">
-        <v>50.5288</v>
+        <v>57.2254</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0942</v>
+        <v>43.2855</v>
       </c>
       <c r="C15" t="n">
-        <v>38.3687</v>
+        <v>40.7106</v>
       </c>
       <c r="D15" t="n">
-        <v>52.5494</v>
+        <v>50.9838</v>
       </c>
       <c r="E15" t="n">
-        <v>46.0449</v>
+        <v>58.9924</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.5085</v>
+        <v>40.1787</v>
       </c>
       <c r="C16" t="n">
-        <v>42.7941</v>
+        <v>39.1349</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0779</v>
+        <v>53.3451</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9987</v>
+        <v>57.0786</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.5107</v>
+        <v>36.7354</v>
       </c>
       <c r="C17" t="n">
-        <v>41.1716</v>
+        <v>41.9591</v>
       </c>
       <c r="D17" t="n">
-        <v>54.549</v>
+        <v>43.9628</v>
       </c>
       <c r="E17" t="n">
-        <v>59.3498</v>
+        <v>57.5705</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.83029</v>
+        <v>8.87721</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7456</v>
+        <v>16.8391</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0833</v>
+        <v>18.9222</v>
       </c>
       <c r="E2" t="n">
-        <v>33.9908</v>
+        <v>27.958</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7302</v>
+        <v>16.7998</v>
       </c>
       <c r="C3" t="n">
-        <v>30.2331</v>
+        <v>30.6383</v>
       </c>
       <c r="D3" t="n">
-        <v>41.8517</v>
+        <v>34.934</v>
       </c>
       <c r="E3" t="n">
-        <v>63.7522</v>
+        <v>50.7551</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7675</v>
+        <v>23.89</v>
       </c>
       <c r="C4" t="n">
-        <v>41.5631</v>
+        <v>42.2667</v>
       </c>
       <c r="D4" t="n">
-        <v>59.1191</v>
+        <v>48.3375</v>
       </c>
       <c r="E4" t="n">
-        <v>87.8586</v>
+        <v>69.7765</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0378</v>
+        <v>31.1758</v>
       </c>
       <c r="C5" t="n">
-        <v>52.7986</v>
+        <v>53.8823</v>
       </c>
       <c r="D5" t="n">
-        <v>77.07599999999999</v>
+        <v>62.6195</v>
       </c>
       <c r="E5" t="n">
-        <v>113.584</v>
+        <v>88.4761</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.2274</v>
+        <v>33.5933</v>
       </c>
       <c r="C6" t="n">
-        <v>45.3729</v>
+        <v>45.0618</v>
       </c>
       <c r="D6" t="n">
-        <v>69.02889999999999</v>
+        <v>55.0182</v>
       </c>
       <c r="E6" t="n">
-        <v>103.803</v>
+        <v>80.1285</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.8329</v>
+        <v>36.0062</v>
       </c>
       <c r="C7" t="n">
-        <v>45.0291</v>
+        <v>45.6496</v>
       </c>
       <c r="D7" t="n">
-        <v>67.93810000000001</v>
+        <v>49.7085</v>
       </c>
       <c r="E7" t="n">
-        <v>102.012</v>
+        <v>76.99339999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.1984</v>
+        <v>38.5689</v>
       </c>
       <c r="C8" t="n">
-        <v>45.2261</v>
+        <v>46.0443</v>
       </c>
       <c r="D8" t="n">
-        <v>62.4247</v>
+        <v>51.5335</v>
       </c>
       <c r="E8" t="n">
-        <v>100.285</v>
+        <v>78.18040000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.8974</v>
+        <v>40.6911</v>
       </c>
       <c r="C9" t="n">
-        <v>45.5787</v>
+        <v>45.7481</v>
       </c>
       <c r="D9" t="n">
-        <v>64.5727</v>
+        <v>48.6154</v>
       </c>
       <c r="E9" t="n">
-        <v>103.278</v>
+        <v>78.6782</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.9537</v>
+        <v>40.8481</v>
       </c>
       <c r="C10" t="n">
-        <v>50.1546</v>
+        <v>51.1982</v>
       </c>
       <c r="D10" t="n">
-        <v>64.2046</v>
+        <v>52.4716</v>
       </c>
       <c r="E10" t="n">
-        <v>103.271</v>
+        <v>79.9327</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.2165</v>
+        <v>40.5592</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0208</v>
+        <v>55.258</v>
       </c>
       <c r="D11" t="n">
-        <v>67.803</v>
+        <v>52.1347</v>
       </c>
       <c r="E11" t="n">
-        <v>104.428</v>
+        <v>79.2283</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.5621</v>
+        <v>40.9155</v>
       </c>
       <c r="C12" t="n">
-        <v>52.5488</v>
+        <v>54.886</v>
       </c>
       <c r="D12" t="n">
-        <v>68.78870000000001</v>
+        <v>53.7966</v>
       </c>
       <c r="E12" t="n">
-        <v>105.301</v>
+        <v>78.73690000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.5693</v>
+        <v>40.8495</v>
       </c>
       <c r="C13" t="n">
-        <v>52.8735</v>
+        <v>55.8278</v>
       </c>
       <c r="D13" t="n">
-        <v>71.27209999999999</v>
+        <v>50.3313</v>
       </c>
       <c r="E13" t="n">
-        <v>105.533</v>
+        <v>77.4813</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.6018</v>
+        <v>40.7438</v>
       </c>
       <c r="C14" t="n">
-        <v>53.0565</v>
+        <v>55.7172</v>
       </c>
       <c r="D14" t="n">
-        <v>71.3998</v>
+        <v>50.0573</v>
       </c>
       <c r="E14" t="n">
-        <v>106.069</v>
+        <v>75.7273</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.7235</v>
+        <v>40.9205</v>
       </c>
       <c r="C15" t="n">
-        <v>52.9531</v>
+        <v>56.1399</v>
       </c>
       <c r="D15" t="n">
-        <v>73.4388</v>
+        <v>49.6678</v>
       </c>
       <c r="E15" t="n">
-        <v>106.869</v>
+        <v>74.95050000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.6625</v>
+        <v>40.9671</v>
       </c>
       <c r="C16" t="n">
-        <v>53.0157</v>
+        <v>56.1284</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2589</v>
+        <v>48.2222</v>
       </c>
       <c r="E16" t="n">
-        <v>106.083</v>
+        <v>74.81359999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.4927</v>
+        <v>40.7306</v>
       </c>
       <c r="C17" t="n">
-        <v>53.3515</v>
+        <v>56.2041</v>
       </c>
       <c r="D17" t="n">
-        <v>74.8329</v>
+        <v>46.9202</v>
       </c>
       <c r="E17" t="n">
-        <v>107.217</v>
+        <v>71.64239999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.854699999999999</v>
+        <v>8.893549999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8531</v>
+        <v>16.9764</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7423</v>
+        <v>18.9767</v>
       </c>
       <c r="E2" t="n">
-        <v>34.1121</v>
+        <v>28.507</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8124</v>
+        <v>16.9097</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4446</v>
+        <v>30.9104</v>
       </c>
       <c r="D3" t="n">
-        <v>41.2655</v>
+        <v>34.9695</v>
       </c>
       <c r="E3" t="n">
-        <v>63.8998</v>
+        <v>51.659</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9373</v>
+        <v>24.0518</v>
       </c>
       <c r="C4" t="n">
-        <v>42.1339</v>
+        <v>42.8811</v>
       </c>
       <c r="D4" t="n">
-        <v>58.4297</v>
+        <v>48.8507</v>
       </c>
       <c r="E4" t="n">
-        <v>88.8356</v>
+        <v>71.4152</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.3665</v>
+        <v>31.4863</v>
       </c>
       <c r="C5" t="n">
-        <v>53.3609</v>
+        <v>54.5219</v>
       </c>
       <c r="D5" t="n">
-        <v>76.09480000000001</v>
+        <v>62.6224</v>
       </c>
       <c r="E5" t="n">
-        <v>113.345</v>
+        <v>89.8442</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7017</v>
+        <v>33.8784</v>
       </c>
       <c r="C6" t="n">
-        <v>46.0025</v>
+        <v>47.2914</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8583</v>
+        <v>55.5546</v>
       </c>
       <c r="E6" t="n">
-        <v>103.841</v>
+        <v>80.78230000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3106</v>
+        <v>36.5936</v>
       </c>
       <c r="C7" t="n">
-        <v>45.6538</v>
+        <v>46.0694</v>
       </c>
       <c r="D7" t="n">
-        <v>67.82089999999999</v>
+        <v>49.1612</v>
       </c>
       <c r="E7" t="n">
-        <v>102.949</v>
+        <v>78.1752</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.7582</v>
+        <v>39.0423</v>
       </c>
       <c r="C8" t="n">
-        <v>45.787</v>
+        <v>46.6878</v>
       </c>
       <c r="D8" t="n">
-        <v>61.3247</v>
+        <v>50.7146</v>
       </c>
       <c r="E8" t="n">
-        <v>101.481</v>
+        <v>78.73480000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4676</v>
+        <v>41.2344</v>
       </c>
       <c r="C9" t="n">
-        <v>45.9035</v>
+        <v>46.4772</v>
       </c>
       <c r="D9" t="n">
-        <v>63.5476</v>
+        <v>49.0314</v>
       </c>
       <c r="E9" t="n">
-        <v>103.507</v>
+        <v>79.44629999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6297</v>
+        <v>41.3886</v>
       </c>
       <c r="C10" t="n">
-        <v>49.7044</v>
+        <v>52.402</v>
       </c>
       <c r="D10" t="n">
-        <v>63.819</v>
+        <v>51.072</v>
       </c>
       <c r="E10" t="n">
-        <v>104.051</v>
+        <v>79.1045</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7273</v>
+        <v>41.4619</v>
       </c>
       <c r="C11" t="n">
-        <v>52.6287</v>
+        <v>55.1627</v>
       </c>
       <c r="D11" t="n">
-        <v>67.6374</v>
+        <v>50.4843</v>
       </c>
       <c r="E11" t="n">
-        <v>105.864</v>
+        <v>78.2719</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.1882</v>
+        <v>41.5779</v>
       </c>
       <c r="C12" t="n">
-        <v>53.0386</v>
+        <v>54.9304</v>
       </c>
       <c r="D12" t="n">
-        <v>68.7269</v>
+        <v>52.0598</v>
       </c>
       <c r="E12" t="n">
-        <v>106.497</v>
+        <v>77.9911</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3111</v>
+        <v>41.4942</v>
       </c>
       <c r="C13" t="n">
-        <v>53.6618</v>
+        <v>55.9814</v>
       </c>
       <c r="D13" t="n">
-        <v>70.5711</v>
+        <v>49.7509</v>
       </c>
       <c r="E13" t="n">
-        <v>107.2</v>
+        <v>76.7505</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.0901</v>
+        <v>41.7348</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8258</v>
+        <v>56.7151</v>
       </c>
       <c r="D14" t="n">
-        <v>71.1498</v>
+        <v>48.6705</v>
       </c>
       <c r="E14" t="n">
-        <v>107.461</v>
+        <v>74.78100000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2584</v>
+        <v>41.6103</v>
       </c>
       <c r="C15" t="n">
-        <v>53.8516</v>
+        <v>56.8447</v>
       </c>
       <c r="D15" t="n">
-        <v>73.50920000000001</v>
+        <v>46.4964</v>
       </c>
       <c r="E15" t="n">
-        <v>108.095</v>
+        <v>73.9254</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.2425</v>
+        <v>41.5234</v>
       </c>
       <c r="C16" t="n">
-        <v>53.6703</v>
+        <v>56.8436</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2928</v>
+        <v>47.0355</v>
       </c>
       <c r="E16" t="n">
-        <v>107.749</v>
+        <v>73.9265</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.1673</v>
+        <v>41.4686</v>
       </c>
       <c r="C17" t="n">
-        <v>53.6649</v>
+        <v>56.892</v>
       </c>
       <c r="D17" t="n">
-        <v>74.244</v>
+        <v>46.4819</v>
       </c>
       <c r="E17" t="n">
-        <v>107.615</v>
+        <v>72.18040000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8671</v>
+        <v>13.8925</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5812</v>
+        <v>21.6473</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9882</v>
+        <v>26.9455</v>
       </c>
       <c r="E2" t="n">
-        <v>41.9661</v>
+        <v>35.3081</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5345</v>
+        <v>26.6843</v>
       </c>
       <c r="C3" t="n">
-        <v>38.8633</v>
+        <v>39.6143</v>
       </c>
       <c r="D3" t="n">
-        <v>53.4099</v>
+        <v>49.5462</v>
       </c>
       <c r="E3" t="n">
-        <v>73.8785</v>
+        <v>63.0736</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.9794</v>
+        <v>38.0482</v>
       </c>
       <c r="C4" t="n">
-        <v>53.9883</v>
+        <v>55.5549</v>
       </c>
       <c r="D4" t="n">
-        <v>74.6966</v>
+        <v>69.1292</v>
       </c>
       <c r="E4" t="n">
-        <v>99.6163</v>
+        <v>86.77670000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.2859</v>
+        <v>49.1426</v>
       </c>
       <c r="C5" t="n">
-        <v>69.0269</v>
+        <v>72.0814</v>
       </c>
       <c r="D5" t="n">
-        <v>96.64019999999999</v>
+        <v>88.5184</v>
       </c>
       <c r="E5" t="n">
-        <v>126.605</v>
+        <v>111.016</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47.9793</v>
+        <v>48.5346</v>
       </c>
       <c r="C6" t="n">
-        <v>55.9807</v>
+        <v>56.3072</v>
       </c>
       <c r="D6" t="n">
-        <v>82.1387</v>
+        <v>71.5354</v>
       </c>
       <c r="E6" t="n">
-        <v>110.138</v>
+        <v>91.29089999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.3971</v>
+        <v>50.0541</v>
       </c>
       <c r="C7" t="n">
-        <v>53.0666</v>
+        <v>53.9358</v>
       </c>
       <c r="D7" t="n">
-        <v>77.1464</v>
+        <v>62.0715</v>
       </c>
       <c r="E7" t="n">
-        <v>101.453</v>
+        <v>84.8823</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50.9953</v>
+        <v>51.476</v>
       </c>
       <c r="C8" t="n">
-        <v>51.9909</v>
+        <v>52.9412</v>
       </c>
       <c r="D8" t="n">
-        <v>65.5381</v>
+        <v>59.2169</v>
       </c>
       <c r="E8" t="n">
-        <v>96.5189</v>
+        <v>82.94629999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.5878</v>
+        <v>53.4101</v>
       </c>
       <c r="C9" t="n">
-        <v>50.8674</v>
+        <v>51.3076</v>
       </c>
       <c r="D9" t="n">
-        <v>67.14100000000001</v>
+        <v>54.7757</v>
       </c>
       <c r="E9" t="n">
-        <v>97.3428</v>
+        <v>83.9455</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.317</v>
+        <v>52.8829</v>
       </c>
       <c r="C10" t="n">
-        <v>54.1902</v>
+        <v>55.6003</v>
       </c>
       <c r="D10" t="n">
-        <v>63.1445</v>
+        <v>57.0257</v>
       </c>
       <c r="E10" t="n">
-        <v>95.62649999999999</v>
+        <v>81.3603</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.4214</v>
+        <v>53.0163</v>
       </c>
       <c r="C11" t="n">
-        <v>55.3159</v>
+        <v>58.0986</v>
       </c>
       <c r="D11" t="n">
-        <v>66.3762</v>
+        <v>58.2432</v>
       </c>
       <c r="E11" t="n">
-        <v>97.45740000000001</v>
+        <v>83.2791</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.3603</v>
+        <v>52.7476</v>
       </c>
       <c r="C12" t="n">
-        <v>56.0373</v>
+        <v>58.6242</v>
       </c>
       <c r="D12" t="n">
-        <v>66.6268</v>
+        <v>59.7231</v>
       </c>
       <c r="E12" t="n">
-        <v>97.10720000000001</v>
+        <v>83.3523</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.4118</v>
+        <v>53.2393</v>
       </c>
       <c r="C13" t="n">
-        <v>56.0641</v>
+        <v>59.3129</v>
       </c>
       <c r="D13" t="n">
-        <v>69.76900000000001</v>
+        <v>60.6695</v>
       </c>
       <c r="E13" t="n">
-        <v>97.8293</v>
+        <v>86.0821</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.4935</v>
+        <v>52.8499</v>
       </c>
       <c r="C14" t="n">
-        <v>56.1905</v>
+        <v>59.316</v>
       </c>
       <c r="D14" t="n">
-        <v>69.17959999999999</v>
+        <v>62.6994</v>
       </c>
       <c r="E14" t="n">
-        <v>98.07559999999999</v>
+        <v>86.3488</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>52.4722</v>
+        <v>53.259</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2807</v>
+        <v>59.2203</v>
       </c>
       <c r="D15" t="n">
-        <v>71.3758</v>
+        <v>63.1685</v>
       </c>
       <c r="E15" t="n">
-        <v>98.2022</v>
+        <v>87.41160000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.2466</v>
+        <v>53.0171</v>
       </c>
       <c r="C16" t="n">
-        <v>56.3221</v>
+        <v>59.2023</v>
       </c>
       <c r="D16" t="n">
-        <v>71.2628</v>
+        <v>64.1345</v>
       </c>
       <c r="E16" t="n">
-        <v>97.70740000000001</v>
+        <v>87.36369999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.2279</v>
+        <v>53.4379</v>
       </c>
       <c r="C17" t="n">
-        <v>56.4465</v>
+        <v>59.3801</v>
       </c>
       <c r="D17" t="n">
-        <v>72.8544</v>
+        <v>60.8733</v>
       </c>
       <c r="E17" t="n">
-        <v>97.72839999999999</v>
+        <v>86.8186</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9123</v>
+        <v>14.1053</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7002</v>
+        <v>18.846</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>23.5088</v>
       </c>
       <c r="E2" t="n">
-        <v>26.7999</v>
+        <v>30.9676</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.3032</v>
+        <v>27.5643</v>
       </c>
       <c r="C3" t="n">
-        <v>30.2306</v>
+        <v>29.4937</v>
       </c>
       <c r="D3" t="n">
-        <v>27.2091</v>
+        <v>29.3998</v>
       </c>
       <c r="E3" t="n">
-        <v>39.3026</v>
+        <v>46.4572</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.9348</v>
+        <v>28.5112</v>
       </c>
       <c r="C4" t="n">
-        <v>33.9909</v>
+        <v>34.397</v>
       </c>
       <c r="D4" t="n">
-        <v>37.3933</v>
+        <v>46.2657</v>
       </c>
       <c r="E4" t="n">
-        <v>51.3892</v>
+        <v>58.2828</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41.4451</v>
+        <v>41.4942</v>
       </c>
       <c r="C5" t="n">
-        <v>48.9715</v>
+        <v>50.3349</v>
       </c>
       <c r="D5" t="n">
-        <v>49.1495</v>
+        <v>54.8385</v>
       </c>
       <c r="E5" t="n">
-        <v>72.22150000000001</v>
+        <v>67.2538</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.9506</v>
+        <v>39.4847</v>
       </c>
       <c r="C6" t="n">
-        <v>43.5772</v>
+        <v>46.1938</v>
       </c>
       <c r="D6" t="n">
-        <v>40.625</v>
+        <v>51.6814</v>
       </c>
       <c r="E6" t="n">
-        <v>56.1684</v>
+        <v>67.2921</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.4613</v>
+        <v>43.4784</v>
       </c>
       <c r="C7" t="n">
-        <v>41.6293</v>
+        <v>45.23</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6512</v>
+        <v>46.2743</v>
       </c>
       <c r="E7" t="n">
-        <v>57.227</v>
+        <v>55.2787</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.8429</v>
+        <v>38.5217</v>
       </c>
       <c r="C8" t="n">
-        <v>38.6648</v>
+        <v>41.0746</v>
       </c>
       <c r="D8" t="n">
-        <v>35.2388</v>
+        <v>45.668</v>
       </c>
       <c r="E8" t="n">
-        <v>57.8826</v>
+        <v>56.7293</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.6255</v>
+        <v>47.653</v>
       </c>
       <c r="C9" t="n">
-        <v>42.0274</v>
+        <v>41.6438</v>
       </c>
       <c r="D9" t="n">
-        <v>39.5523</v>
+        <v>39.6102</v>
       </c>
       <c r="E9" t="n">
-        <v>55.6198</v>
+        <v>58.8748</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.8611</v>
+        <v>39.4395</v>
       </c>
       <c r="C10" t="n">
-        <v>46.7573</v>
+        <v>46.4472</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6756</v>
+        <v>47.4557</v>
       </c>
       <c r="E10" t="n">
-        <v>56.682</v>
+        <v>56.672</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46.4459</v>
+        <v>42.5596</v>
       </c>
       <c r="C11" t="n">
-        <v>45.1959</v>
+        <v>40.3203</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7639</v>
+        <v>49.4582</v>
       </c>
       <c r="E11" t="n">
-        <v>49.8002</v>
+        <v>51.5579</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.5962</v>
+        <v>41.3964</v>
       </c>
       <c r="C12" t="n">
-        <v>44.0518</v>
+        <v>45.8608</v>
       </c>
       <c r="D12" t="n">
-        <v>44.2063</v>
+        <v>47.7267</v>
       </c>
       <c r="E12" t="n">
-        <v>51.1975</v>
+        <v>57.043</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.9626</v>
+        <v>39.1764</v>
       </c>
       <c r="C13" t="n">
-        <v>52.5853</v>
+        <v>44.8934</v>
       </c>
       <c r="D13" t="n">
-        <v>38.5057</v>
+        <v>43.0759</v>
       </c>
       <c r="E13" t="n">
-        <v>53.5659</v>
+        <v>54.1201</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.9613</v>
+        <v>41.657</v>
       </c>
       <c r="C14" t="n">
-        <v>48.7632</v>
+        <v>52.3375</v>
       </c>
       <c r="D14" t="n">
-        <v>37.2597</v>
+        <v>47.301</v>
       </c>
       <c r="E14" t="n">
-        <v>55.3072</v>
+        <v>52.3358</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6515</v>
+        <v>44.083</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7823</v>
+        <v>44.8929</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1409</v>
+        <v>47.7053</v>
       </c>
       <c r="E15" t="n">
-        <v>54.8814</v>
+        <v>49.7615</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.0927</v>
+        <v>35.7536</v>
       </c>
       <c r="C16" t="n">
-        <v>52.8627</v>
+        <v>45.7796</v>
       </c>
       <c r="D16" t="n">
-        <v>38.2595</v>
+        <v>48.5887</v>
       </c>
       <c r="E16" t="n">
-        <v>54.6402</v>
+        <v>58.6946</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.39</v>
+        <v>40.5776</v>
       </c>
       <c r="C17" t="n">
-        <v>48.6166</v>
+        <v>44.6273</v>
       </c>
       <c r="D17" t="n">
-        <v>38.2197</v>
+        <v>43.4983</v>
       </c>
       <c r="E17" t="n">
-        <v>48.2242</v>
+        <v>58.8299</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.809</v>
+        <v>15.0614</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5561</v>
+        <v>18.5065</v>
       </c>
       <c r="D2" t="n">
-        <v>21.4113</v>
+        <v>23.3487</v>
       </c>
       <c r="E2" t="n">
-        <v>28.785</v>
+        <v>28.1925</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.764</v>
+        <v>28.1375</v>
       </c>
       <c r="C3" t="n">
-        <v>31.8661</v>
+        <v>30.7621</v>
       </c>
       <c r="D3" t="n">
-        <v>31.2093</v>
+        <v>30.7606</v>
       </c>
       <c r="E3" t="n">
-        <v>43.6345</v>
+        <v>46.858</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.1582</v>
+        <v>32.8615</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6392</v>
+        <v>33.5421</v>
       </c>
       <c r="D4" t="n">
-        <v>44.0856</v>
+        <v>47.5174</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2132</v>
+        <v>55.2854</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41.6832</v>
+        <v>43.2597</v>
       </c>
       <c r="C5" t="n">
-        <v>52.7275</v>
+        <v>50.1597</v>
       </c>
       <c r="D5" t="n">
-        <v>46.4934</v>
+        <v>52.9696</v>
       </c>
       <c r="E5" t="n">
-        <v>62.1087</v>
+        <v>66.9344</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.1683</v>
+        <v>40.7789</v>
       </c>
       <c r="C6" t="n">
-        <v>47.8288</v>
+        <v>45.685</v>
       </c>
       <c r="D6" t="n">
-        <v>47.5439</v>
+        <v>47.7225</v>
       </c>
       <c r="E6" t="n">
-        <v>57.7717</v>
+        <v>57.6152</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.87</v>
+        <v>40.9361</v>
       </c>
       <c r="C7" t="n">
-        <v>42.1994</v>
+        <v>39.3537</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7883</v>
+        <v>37.9845</v>
       </c>
       <c r="E7" t="n">
-        <v>55.5147</v>
+        <v>61.3761</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.0665</v>
+        <v>42.5995</v>
       </c>
       <c r="C8" t="n">
-        <v>43.3623</v>
+        <v>45.7572</v>
       </c>
       <c r="D8" t="n">
-        <v>39.9626</v>
+        <v>45.3802</v>
       </c>
       <c r="E8" t="n">
-        <v>55.8004</v>
+        <v>60.4779</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>45.9598</v>
+        <v>43.3228</v>
       </c>
       <c r="C9" t="n">
-        <v>40.8191</v>
+        <v>45.2968</v>
       </c>
       <c r="D9" t="n">
-        <v>38.5535</v>
+        <v>45.3441</v>
       </c>
       <c r="E9" t="n">
-        <v>55.194</v>
+        <v>60.0555</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.494</v>
+        <v>49.4407</v>
       </c>
       <c r="C10" t="n">
-        <v>45.5483</v>
+        <v>49.642</v>
       </c>
       <c r="D10" t="n">
-        <v>41.7068</v>
+        <v>41.4036</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0224</v>
+        <v>55.8439</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.3783</v>
+        <v>44.3882</v>
       </c>
       <c r="C11" t="n">
-        <v>41.5869</v>
+        <v>51.5884</v>
       </c>
       <c r="D11" t="n">
-        <v>38.1533</v>
+        <v>40.7132</v>
       </c>
       <c r="E11" t="n">
-        <v>55.3733</v>
+        <v>55.2006</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3885</v>
+        <v>42.2437</v>
       </c>
       <c r="C12" t="n">
-        <v>48.082</v>
+        <v>45.8823</v>
       </c>
       <c r="D12" t="n">
-        <v>42.713</v>
+        <v>39.2371</v>
       </c>
       <c r="E12" t="n">
-        <v>54.2824</v>
+        <v>55.9623</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.8204</v>
+        <v>39.5179</v>
       </c>
       <c r="C13" t="n">
-        <v>46.0241</v>
+        <v>50.0004</v>
       </c>
       <c r="D13" t="n">
-        <v>36.6054</v>
+        <v>37.3623</v>
       </c>
       <c r="E13" t="n">
-        <v>47.5404</v>
+        <v>53.2459</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.8538</v>
+        <v>44.0066</v>
       </c>
       <c r="C14" t="n">
-        <v>48.8019</v>
+        <v>48.7756</v>
       </c>
       <c r="D14" t="n">
-        <v>38.8635</v>
+        <v>46.2526</v>
       </c>
       <c r="E14" t="n">
-        <v>53.5789</v>
+        <v>54.1673</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.2709</v>
+        <v>44.0015</v>
       </c>
       <c r="C15" t="n">
-        <v>47.5272</v>
+        <v>46.443</v>
       </c>
       <c r="D15" t="n">
-        <v>43.1147</v>
+        <v>41.21</v>
       </c>
       <c r="E15" t="n">
-        <v>47.3498</v>
+        <v>53.497</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.8968</v>
+        <v>40.0514</v>
       </c>
       <c r="C16" t="n">
-        <v>50.9917</v>
+        <v>44.9573</v>
       </c>
       <c r="D16" t="n">
-        <v>38.9246</v>
+        <v>47.6932</v>
       </c>
       <c r="E16" t="n">
-        <v>53.4363</v>
+        <v>56.2642</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.8498</v>
+        <v>44.4287</v>
       </c>
       <c r="C17" t="n">
-        <v>46.7796</v>
+        <v>49.526</v>
       </c>
       <c r="D17" t="n">
-        <v>45.7555</v>
+        <v>40.8845</v>
       </c>
       <c r="E17" t="n">
-        <v>56.5075</v>
+        <v>57.7426</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2687</v>
+        <v>18.3613</v>
       </c>
       <c r="C2" t="n">
-        <v>21.746</v>
+        <v>21.7402</v>
       </c>
       <c r="D2" t="n">
-        <v>25.7711</v>
+        <v>26.6858</v>
       </c>
       <c r="E2" t="n">
-        <v>32.474</v>
+        <v>32.4644</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29.4764</v>
+        <v>28.8653</v>
       </c>
       <c r="C3" t="n">
-        <v>33.545</v>
+        <v>31.7155</v>
       </c>
       <c r="D3" t="n">
-        <v>40.5461</v>
+        <v>39.2463</v>
       </c>
       <c r="E3" t="n">
-        <v>42.5661</v>
+        <v>52.9675</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5601</v>
+        <v>34.2937</v>
       </c>
       <c r="C4" t="n">
-        <v>49.1624</v>
+        <v>45.9122</v>
       </c>
       <c r="D4" t="n">
-        <v>52.9593</v>
+        <v>50.1855</v>
       </c>
       <c r="E4" t="n">
-        <v>59.6308</v>
+        <v>63.6132</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.2351</v>
+        <v>45.1787</v>
       </c>
       <c r="C5" t="n">
-        <v>58.1256</v>
+        <v>60.1458</v>
       </c>
       <c r="D5" t="n">
-        <v>59.7864</v>
+        <v>62.0842</v>
       </c>
       <c r="E5" t="n">
-        <v>78.4633</v>
+        <v>75.7677</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.2471</v>
+        <v>38.3924</v>
       </c>
       <c r="C6" t="n">
-        <v>46.5333</v>
+        <v>41.654</v>
       </c>
       <c r="D6" t="n">
-        <v>53.521</v>
+        <v>52.7974</v>
       </c>
       <c r="E6" t="n">
-        <v>71.1987</v>
+        <v>62.2156</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.0499</v>
+        <v>45.1844</v>
       </c>
       <c r="C7" t="n">
-        <v>39.5305</v>
+        <v>41.5244</v>
       </c>
       <c r="D7" t="n">
-        <v>52.3518</v>
+        <v>49.6678</v>
       </c>
       <c r="E7" t="n">
-        <v>56.6904</v>
+        <v>56.148</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48.7772</v>
+        <v>47.169</v>
       </c>
       <c r="C8" t="n">
-        <v>41.2221</v>
+        <v>40.8668</v>
       </c>
       <c r="D8" t="n">
-        <v>52.3895</v>
+        <v>54.1991</v>
       </c>
       <c r="E8" t="n">
-        <v>54.2213</v>
+        <v>57.8996</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.7513</v>
+        <v>39.58</v>
       </c>
       <c r="C9" t="n">
-        <v>34.9509</v>
+        <v>40.6402</v>
       </c>
       <c r="D9" t="n">
-        <v>42.8233</v>
+        <v>41.2774</v>
       </c>
       <c r="E9" t="n">
-        <v>53.808</v>
+        <v>54.4743</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.5212</v>
+        <v>39.5709</v>
       </c>
       <c r="C10" t="n">
-        <v>38.4085</v>
+        <v>36.0009</v>
       </c>
       <c r="D10" t="n">
-        <v>43.1365</v>
+        <v>50.0151</v>
       </c>
       <c r="E10" t="n">
-        <v>54.2265</v>
+        <v>53.7541</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.0743</v>
+        <v>45.2405</v>
       </c>
       <c r="C11" t="n">
-        <v>40.367</v>
+        <v>40.9693</v>
       </c>
       <c r="D11" t="n">
-        <v>47.1145</v>
+        <v>49.8989</v>
       </c>
       <c r="E11" t="n">
-        <v>56.9329</v>
+        <v>54.8494</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.7017</v>
+        <v>39.9106</v>
       </c>
       <c r="C12" t="n">
-        <v>39.8192</v>
+        <v>36.4756</v>
       </c>
       <c r="D12" t="n">
-        <v>48.618</v>
+        <v>51.5523</v>
       </c>
       <c r="E12" t="n">
-        <v>54.6328</v>
+        <v>53.9261</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>42.6894</v>
+        <v>36.711</v>
       </c>
       <c r="C13" t="n">
-        <v>39.1467</v>
+        <v>40.9396</v>
       </c>
       <c r="D13" t="n">
-        <v>53.2608</v>
+        <v>51.31</v>
       </c>
       <c r="E13" t="n">
-        <v>53.8621</v>
+        <v>58.1049</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46.7052</v>
+        <v>40.2393</v>
       </c>
       <c r="C14" t="n">
-        <v>40.0831</v>
+        <v>41.1767</v>
       </c>
       <c r="D14" t="n">
-        <v>54.2993</v>
+        <v>50.9233</v>
       </c>
       <c r="E14" t="n">
-        <v>57.2254</v>
+        <v>55.7071</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.2855</v>
+        <v>42.6649</v>
       </c>
       <c r="C15" t="n">
-        <v>40.7106</v>
+        <v>38.6525</v>
       </c>
       <c r="D15" t="n">
-        <v>50.9838</v>
+        <v>55.7939</v>
       </c>
       <c r="E15" t="n">
-        <v>58.9924</v>
+        <v>55.0522</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.1787</v>
+        <v>44.5012</v>
       </c>
       <c r="C16" t="n">
-        <v>39.1349</v>
+        <v>37.9715</v>
       </c>
       <c r="D16" t="n">
-        <v>53.3451</v>
+        <v>45.5401</v>
       </c>
       <c r="E16" t="n">
-        <v>57.0786</v>
+        <v>55.0682</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.7354</v>
+        <v>41.6315</v>
       </c>
       <c r="C17" t="n">
-        <v>41.9591</v>
+        <v>41.6127</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9628</v>
+        <v>52.6521</v>
       </c>
       <c r="E17" t="n">
-        <v>57.5705</v>
+        <v>54.5613</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87721</v>
+        <v>8.881629999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8391</v>
+        <v>16.8468</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9222</v>
+        <v>20.9025</v>
       </c>
       <c r="E2" t="n">
-        <v>27.958</v>
+        <v>32.0496</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7998</v>
+        <v>16.8055</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6383</v>
+        <v>30.6387</v>
       </c>
       <c r="D3" t="n">
-        <v>34.934</v>
+        <v>38.623</v>
       </c>
       <c r="E3" t="n">
-        <v>50.7551</v>
+        <v>58.1437</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.89</v>
+        <v>23.8936</v>
       </c>
       <c r="C4" t="n">
-        <v>42.2667</v>
+        <v>42.1347</v>
       </c>
       <c r="D4" t="n">
-        <v>48.3375</v>
+        <v>53.5018</v>
       </c>
       <c r="E4" t="n">
-        <v>69.7765</v>
+        <v>78.9295</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1758</v>
+        <v>31.1543</v>
       </c>
       <c r="C5" t="n">
-        <v>53.8823</v>
+        <v>53.7999</v>
       </c>
       <c r="D5" t="n">
-        <v>62.6195</v>
+        <v>68.53740000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>88.4761</v>
+        <v>98.4392</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.5933</v>
+        <v>33.5502</v>
       </c>
       <c r="C6" t="n">
-        <v>45.0618</v>
+        <v>46.5743</v>
       </c>
       <c r="D6" t="n">
-        <v>55.0182</v>
+        <v>60.2082</v>
       </c>
       <c r="E6" t="n">
-        <v>80.1285</v>
+        <v>86.8845</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0062</v>
+        <v>36.1363</v>
       </c>
       <c r="C7" t="n">
-        <v>45.6496</v>
+        <v>46.7336</v>
       </c>
       <c r="D7" t="n">
-        <v>49.7085</v>
+        <v>54.3292</v>
       </c>
       <c r="E7" t="n">
-        <v>76.99339999999999</v>
+        <v>82.62220000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5689</v>
+        <v>38.3497</v>
       </c>
       <c r="C8" t="n">
-        <v>46.0443</v>
+        <v>46.8874</v>
       </c>
       <c r="D8" t="n">
-        <v>51.5335</v>
+        <v>55.0553</v>
       </c>
       <c r="E8" t="n">
-        <v>78.18040000000001</v>
+        <v>83.9061</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.6911</v>
+        <v>40.4732</v>
       </c>
       <c r="C9" t="n">
-        <v>45.7481</v>
+        <v>47.0688</v>
       </c>
       <c r="D9" t="n">
-        <v>48.6154</v>
+        <v>52.1067</v>
       </c>
       <c r="E9" t="n">
-        <v>78.6782</v>
+        <v>83.8681</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8481</v>
+        <v>40.6669</v>
       </c>
       <c r="C10" t="n">
-        <v>51.1982</v>
+        <v>50.6492</v>
       </c>
       <c r="D10" t="n">
-        <v>52.4716</v>
+        <v>56.3636</v>
       </c>
       <c r="E10" t="n">
-        <v>79.9327</v>
+        <v>84.86620000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5592</v>
+        <v>40.7408</v>
       </c>
       <c r="C11" t="n">
-        <v>55.258</v>
+        <v>54.3497</v>
       </c>
       <c r="D11" t="n">
-        <v>52.1347</v>
+        <v>55.4095</v>
       </c>
       <c r="E11" t="n">
-        <v>79.2283</v>
+        <v>82.8048</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.9155</v>
+        <v>40.9391</v>
       </c>
       <c r="C12" t="n">
-        <v>54.886</v>
+        <v>55.6878</v>
       </c>
       <c r="D12" t="n">
-        <v>53.7966</v>
+        <v>56.3459</v>
       </c>
       <c r="E12" t="n">
-        <v>78.73690000000001</v>
+        <v>80.2856</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.8495</v>
+        <v>40.9641</v>
       </c>
       <c r="C13" t="n">
-        <v>55.8278</v>
+        <v>56.3503</v>
       </c>
       <c r="D13" t="n">
-        <v>50.3313</v>
+        <v>54.5669</v>
       </c>
       <c r="E13" t="n">
-        <v>77.4813</v>
+        <v>82.6447</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7438</v>
+        <v>40.9479</v>
       </c>
       <c r="C14" t="n">
-        <v>55.7172</v>
+        <v>56.8035</v>
       </c>
       <c r="D14" t="n">
-        <v>50.0573</v>
+        <v>53.2744</v>
       </c>
       <c r="E14" t="n">
-        <v>75.7273</v>
+        <v>79.06019999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.9205</v>
+        <v>40.932</v>
       </c>
       <c r="C15" t="n">
-        <v>56.1399</v>
+        <v>57.0715</v>
       </c>
       <c r="D15" t="n">
-        <v>49.6678</v>
+        <v>51.762</v>
       </c>
       <c r="E15" t="n">
-        <v>74.95050000000001</v>
+        <v>78.7684</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.9671</v>
+        <v>40.9728</v>
       </c>
       <c r="C16" t="n">
-        <v>56.1284</v>
+        <v>57.0716</v>
       </c>
       <c r="D16" t="n">
-        <v>48.2222</v>
+        <v>49.0446</v>
       </c>
       <c r="E16" t="n">
-        <v>74.81359999999999</v>
+        <v>75.38720000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7306</v>
+        <v>40.9952</v>
       </c>
       <c r="C17" t="n">
-        <v>56.2041</v>
+        <v>57.1675</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9202</v>
+        <v>50.9056</v>
       </c>
       <c r="E17" t="n">
-        <v>71.64239999999999</v>
+        <v>78.6581</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.893549999999999</v>
+        <v>8.90063</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9764</v>
+        <v>16.9656</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9767</v>
+        <v>20.7327</v>
       </c>
       <c r="E2" t="n">
-        <v>28.507</v>
+        <v>32.1838</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.9097</v>
+        <v>16.895</v>
       </c>
       <c r="C3" t="n">
-        <v>30.9104</v>
+        <v>30.8621</v>
       </c>
       <c r="D3" t="n">
-        <v>34.9695</v>
+        <v>38.2675</v>
       </c>
       <c r="E3" t="n">
-        <v>51.659</v>
+        <v>58.1168</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0518</v>
+        <v>24.0844</v>
       </c>
       <c r="C4" t="n">
-        <v>42.8811</v>
+        <v>42.7277</v>
       </c>
       <c r="D4" t="n">
-        <v>48.8507</v>
+        <v>53.1881</v>
       </c>
       <c r="E4" t="n">
-        <v>71.4152</v>
+        <v>79.16119999999999</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4863</v>
+        <v>31.4867</v>
       </c>
       <c r="C5" t="n">
-        <v>54.5219</v>
+        <v>54.1648</v>
       </c>
       <c r="D5" t="n">
-        <v>62.6224</v>
+        <v>68.3357</v>
       </c>
       <c r="E5" t="n">
-        <v>89.8442</v>
+        <v>98.5712</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8784</v>
+        <v>33.9053</v>
       </c>
       <c r="C6" t="n">
-        <v>47.2914</v>
+        <v>47.1859</v>
       </c>
       <c r="D6" t="n">
-        <v>55.5546</v>
+        <v>59.5728</v>
       </c>
       <c r="E6" t="n">
-        <v>80.78230000000001</v>
+        <v>88.1713</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5936</v>
+        <v>36.5771</v>
       </c>
       <c r="C7" t="n">
-        <v>46.0694</v>
+        <v>47.204</v>
       </c>
       <c r="D7" t="n">
-        <v>49.1612</v>
+        <v>53.1971</v>
       </c>
       <c r="E7" t="n">
-        <v>78.1752</v>
+        <v>83.3343</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0423</v>
+        <v>39.1204</v>
       </c>
       <c r="C8" t="n">
-        <v>46.6878</v>
+        <v>47.8149</v>
       </c>
       <c r="D8" t="n">
-        <v>50.7146</v>
+        <v>52.5483</v>
       </c>
       <c r="E8" t="n">
-        <v>78.73480000000001</v>
+        <v>83.8484</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.2344</v>
+        <v>41.2298</v>
       </c>
       <c r="C9" t="n">
-        <v>46.4772</v>
+        <v>47.557</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0314</v>
+        <v>52.6054</v>
       </c>
       <c r="E9" t="n">
-        <v>79.44629999999999</v>
+        <v>84.28270000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.3886</v>
+        <v>41.2576</v>
       </c>
       <c r="C10" t="n">
-        <v>52.402</v>
+        <v>52.4668</v>
       </c>
       <c r="D10" t="n">
-        <v>51.072</v>
+        <v>53.9276</v>
       </c>
       <c r="E10" t="n">
-        <v>79.1045</v>
+        <v>82.2161</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.4619</v>
+        <v>41.4296</v>
       </c>
       <c r="C11" t="n">
-        <v>55.1627</v>
+        <v>55.5558</v>
       </c>
       <c r="D11" t="n">
-        <v>50.4843</v>
+        <v>53.7772</v>
       </c>
       <c r="E11" t="n">
-        <v>78.2719</v>
+        <v>81.1144</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.5779</v>
+        <v>41.3895</v>
       </c>
       <c r="C12" t="n">
-        <v>54.9304</v>
+        <v>56.1423</v>
       </c>
       <c r="D12" t="n">
-        <v>52.0598</v>
+        <v>55.1655</v>
       </c>
       <c r="E12" t="n">
-        <v>77.9911</v>
+        <v>79.9164</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.4942</v>
+        <v>41.3993</v>
       </c>
       <c r="C13" t="n">
-        <v>55.9814</v>
+        <v>56.5453</v>
       </c>
       <c r="D13" t="n">
-        <v>49.7509</v>
+        <v>52.6336</v>
       </c>
       <c r="E13" t="n">
-        <v>76.7505</v>
+        <v>79.8443</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.7348</v>
+        <v>41.4996</v>
       </c>
       <c r="C14" t="n">
-        <v>56.7151</v>
+        <v>57.2359</v>
       </c>
       <c r="D14" t="n">
-        <v>48.6705</v>
+        <v>52.158</v>
       </c>
       <c r="E14" t="n">
-        <v>74.78100000000001</v>
+        <v>76.16849999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.6103</v>
+        <v>41.5413</v>
       </c>
       <c r="C15" t="n">
-        <v>56.8447</v>
+        <v>57.4415</v>
       </c>
       <c r="D15" t="n">
-        <v>46.4964</v>
+        <v>50.5515</v>
       </c>
       <c r="E15" t="n">
-        <v>73.9254</v>
+        <v>75.1738</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.5234</v>
+        <v>41.5033</v>
       </c>
       <c r="C16" t="n">
-        <v>56.8436</v>
+        <v>57.2367</v>
       </c>
       <c r="D16" t="n">
-        <v>47.0355</v>
+        <v>50.6596</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9265</v>
+        <v>75.80289999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4686</v>
+        <v>41.4725</v>
       </c>
       <c r="C17" t="n">
-        <v>56.892</v>
+        <v>57.4298</v>
       </c>
       <c r="D17" t="n">
-        <v>46.4819</v>
+        <v>47.3483</v>
       </c>
       <c r="E17" t="n">
-        <v>72.18040000000001</v>
+        <v>76.1705</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8925</v>
+        <v>13.893</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6473</v>
+        <v>21.6826</v>
       </c>
       <c r="D2" t="n">
-        <v>26.9455</v>
+        <v>28.0499</v>
       </c>
       <c r="E2" t="n">
-        <v>35.3081</v>
+        <v>37.1974</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6843</v>
+        <v>26.6783</v>
       </c>
       <c r="C3" t="n">
-        <v>39.6143</v>
+        <v>39.4474</v>
       </c>
       <c r="D3" t="n">
-        <v>49.5462</v>
+        <v>51.834</v>
       </c>
       <c r="E3" t="n">
-        <v>63.0736</v>
+        <v>66.5996</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.0482</v>
+        <v>38.0853</v>
       </c>
       <c r="C4" t="n">
-        <v>55.5549</v>
+        <v>54.9531</v>
       </c>
       <c r="D4" t="n">
-        <v>69.1292</v>
+        <v>72.2304</v>
       </c>
       <c r="E4" t="n">
-        <v>86.77670000000001</v>
+        <v>90.9725</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.1426</v>
+        <v>49.1342</v>
       </c>
       <c r="C5" t="n">
-        <v>72.0814</v>
+        <v>71.16719999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>88.5184</v>
+        <v>92.75239999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>111.016</v>
+        <v>115.25</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.5346</v>
+        <v>47.9369</v>
       </c>
       <c r="C6" t="n">
-        <v>56.3072</v>
+        <v>56.7481</v>
       </c>
       <c r="D6" t="n">
-        <v>71.5354</v>
+        <v>75.0313</v>
       </c>
       <c r="E6" t="n">
-        <v>91.29089999999999</v>
+        <v>94.078</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>50.0541</v>
+        <v>49.6538</v>
       </c>
       <c r="C7" t="n">
-        <v>53.9358</v>
+        <v>54.299</v>
       </c>
       <c r="D7" t="n">
-        <v>62.0715</v>
+        <v>63.5893</v>
       </c>
       <c r="E7" t="n">
-        <v>84.8823</v>
+        <v>88.54470000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.476</v>
+        <v>51.4748</v>
       </c>
       <c r="C8" t="n">
-        <v>52.9412</v>
+        <v>53.3578</v>
       </c>
       <c r="D8" t="n">
-        <v>59.2169</v>
+        <v>60.7428</v>
       </c>
       <c r="E8" t="n">
-        <v>82.94629999999999</v>
+        <v>84.9254</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.4101</v>
+        <v>53.6322</v>
       </c>
       <c r="C9" t="n">
-        <v>51.3076</v>
+        <v>51.915</v>
       </c>
       <c r="D9" t="n">
-        <v>54.7757</v>
+        <v>56.0629</v>
       </c>
       <c r="E9" t="n">
-        <v>83.9455</v>
+        <v>85.5753</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.8829</v>
+        <v>52.8068</v>
       </c>
       <c r="C10" t="n">
-        <v>55.6003</v>
+        <v>55.9574</v>
       </c>
       <c r="D10" t="n">
-        <v>57.0257</v>
+        <v>58.8004</v>
       </c>
       <c r="E10" t="n">
-        <v>81.3603</v>
+        <v>84.45440000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.0163</v>
+        <v>52.5959</v>
       </c>
       <c r="C11" t="n">
-        <v>58.0986</v>
+        <v>58.6131</v>
       </c>
       <c r="D11" t="n">
-        <v>58.2432</v>
+        <v>59.8445</v>
       </c>
       <c r="E11" t="n">
-        <v>83.2791</v>
+        <v>84.5558</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.7476</v>
+        <v>53.0826</v>
       </c>
       <c r="C12" t="n">
-        <v>58.6242</v>
+        <v>58.9224</v>
       </c>
       <c r="D12" t="n">
-        <v>59.7231</v>
+        <v>61.3891</v>
       </c>
       <c r="E12" t="n">
-        <v>83.3523</v>
+        <v>86.1143</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.2393</v>
+        <v>52.937</v>
       </c>
       <c r="C13" t="n">
-        <v>59.3129</v>
+        <v>59.0976</v>
       </c>
       <c r="D13" t="n">
-        <v>60.6695</v>
+        <v>62.8492</v>
       </c>
       <c r="E13" t="n">
-        <v>86.0821</v>
+        <v>87.471</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.8499</v>
+        <v>52.9186</v>
       </c>
       <c r="C14" t="n">
-        <v>59.316</v>
+        <v>59.391</v>
       </c>
       <c r="D14" t="n">
-        <v>62.6994</v>
+        <v>66.5364</v>
       </c>
       <c r="E14" t="n">
-        <v>86.3488</v>
+        <v>89.2381</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.259</v>
+        <v>50.9932</v>
       </c>
       <c r="C15" t="n">
-        <v>59.2203</v>
+        <v>60.5881</v>
       </c>
       <c r="D15" t="n">
-        <v>63.1685</v>
+        <v>64.4413</v>
       </c>
       <c r="E15" t="n">
-        <v>87.41160000000001</v>
+        <v>89.1681</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>53.0171</v>
+        <v>53.0618</v>
       </c>
       <c r="C16" t="n">
-        <v>59.2023</v>
+        <v>59.2596</v>
       </c>
       <c r="D16" t="n">
-        <v>64.1345</v>
+        <v>64.9624</v>
       </c>
       <c r="E16" t="n">
-        <v>87.36369999999999</v>
+        <v>89.0304</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>53.4379</v>
+        <v>53.2333</v>
       </c>
       <c r="C17" t="n">
-        <v>59.3801</v>
+        <v>59.7317</v>
       </c>
       <c r="D17" t="n">
-        <v>60.8733</v>
+        <v>62.297</v>
       </c>
       <c r="E17" t="n">
-        <v>86.8186</v>
+        <v>82.05410000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1053</v>
+        <v>14.3603</v>
       </c>
       <c r="C2" t="n">
-        <v>18.846</v>
+        <v>18.6588</v>
       </c>
       <c r="D2" t="n">
-        <v>23.5088</v>
+        <v>24.7118</v>
       </c>
       <c r="E2" t="n">
-        <v>30.9676</v>
+        <v>31.5996</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.5643</v>
+        <v>27.0175</v>
       </c>
       <c r="C3" t="n">
-        <v>29.4937</v>
+        <v>29.2555</v>
       </c>
       <c r="D3" t="n">
-        <v>29.3998</v>
+        <v>34.3254</v>
       </c>
       <c r="E3" t="n">
-        <v>46.4572</v>
+        <v>45.4296</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.5112</v>
+        <v>33.5954</v>
       </c>
       <c r="C4" t="n">
-        <v>34.397</v>
+        <v>37.9618</v>
       </c>
       <c r="D4" t="n">
-        <v>46.2657</v>
+        <v>49.7566</v>
       </c>
       <c r="E4" t="n">
-        <v>58.2828</v>
+        <v>50.5317</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41.4942</v>
+        <v>40.7957</v>
       </c>
       <c r="C5" t="n">
-        <v>50.3349</v>
+        <v>49.7183</v>
       </c>
       <c r="D5" t="n">
-        <v>54.8385</v>
+        <v>52.2026</v>
       </c>
       <c r="E5" t="n">
-        <v>67.2538</v>
+        <v>75.8441</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.4847</v>
+        <v>40.9488</v>
       </c>
       <c r="C6" t="n">
-        <v>46.1938</v>
+        <v>40.4324</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6814</v>
+        <v>52.7051</v>
       </c>
       <c r="E6" t="n">
-        <v>67.2921</v>
+        <v>58.7141</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.4784</v>
+        <v>39.6033</v>
       </c>
       <c r="C7" t="n">
-        <v>45.23</v>
+        <v>44.3696</v>
       </c>
       <c r="D7" t="n">
-        <v>46.2743</v>
+        <v>42.8919</v>
       </c>
       <c r="E7" t="n">
-        <v>55.2787</v>
+        <v>57.2722</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5217</v>
+        <v>45.7143</v>
       </c>
       <c r="C8" t="n">
-        <v>41.0746</v>
+        <v>41.9833</v>
       </c>
       <c r="D8" t="n">
-        <v>45.668</v>
+        <v>46.0561</v>
       </c>
       <c r="E8" t="n">
-        <v>56.7293</v>
+        <v>60.4774</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>47.653</v>
+        <v>43.7586</v>
       </c>
       <c r="C9" t="n">
-        <v>41.6438</v>
+        <v>41.1212</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6102</v>
+        <v>43.6411</v>
       </c>
       <c r="E9" t="n">
-        <v>58.8748</v>
+        <v>55.3281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.4395</v>
+        <v>42.286</v>
       </c>
       <c r="C10" t="n">
-        <v>46.4472</v>
+        <v>42.3243</v>
       </c>
       <c r="D10" t="n">
-        <v>47.4557</v>
+        <v>42.4553</v>
       </c>
       <c r="E10" t="n">
-        <v>56.672</v>
+        <v>55.9465</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.5596</v>
+        <v>40.264</v>
       </c>
       <c r="C11" t="n">
-        <v>40.3203</v>
+        <v>41.3312</v>
       </c>
       <c r="D11" t="n">
-        <v>49.4582</v>
+        <v>47.8482</v>
       </c>
       <c r="E11" t="n">
-        <v>51.5579</v>
+        <v>55.9559</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3964</v>
+        <v>44.3088</v>
       </c>
       <c r="C12" t="n">
-        <v>45.8608</v>
+        <v>48.0525</v>
       </c>
       <c r="D12" t="n">
-        <v>47.7267</v>
+        <v>43.809</v>
       </c>
       <c r="E12" t="n">
-        <v>57.043</v>
+        <v>52.6772</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>39.1764</v>
+        <v>38.4677</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8934</v>
+        <v>49.3826</v>
       </c>
       <c r="D13" t="n">
-        <v>43.0759</v>
+        <v>42.7048</v>
       </c>
       <c r="E13" t="n">
-        <v>54.1201</v>
+        <v>54.7507</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.657</v>
+        <v>40.51</v>
       </c>
       <c r="C14" t="n">
-        <v>52.3375</v>
+        <v>50.6551</v>
       </c>
       <c r="D14" t="n">
-        <v>47.301</v>
+        <v>45.6013</v>
       </c>
       <c r="E14" t="n">
-        <v>52.3358</v>
+        <v>51.1954</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.083</v>
+        <v>46.2147</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8929</v>
+        <v>44.6641</v>
       </c>
       <c r="D15" t="n">
-        <v>47.7053</v>
+        <v>42.8758</v>
       </c>
       <c r="E15" t="n">
-        <v>49.7615</v>
+        <v>57.5186</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35.7536</v>
+        <v>47.0265</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7796</v>
+        <v>47.9768</v>
       </c>
       <c r="D16" t="n">
-        <v>48.5887</v>
+        <v>42.3061</v>
       </c>
       <c r="E16" t="n">
-        <v>58.6946</v>
+        <v>51.9528</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.5776</v>
+        <v>42.2826</v>
       </c>
       <c r="C17" t="n">
-        <v>44.6273</v>
+        <v>48.5954</v>
       </c>
       <c r="D17" t="n">
-        <v>43.4983</v>
+        <v>44.4907</v>
       </c>
       <c r="E17" t="n">
-        <v>58.8299</v>
+        <v>59.3691</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>15.0614</v>
+        <v>14.9883</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5065</v>
+        <v>18.5177</v>
       </c>
       <c r="D2" t="n">
-        <v>23.3487</v>
+        <v>24.633</v>
       </c>
       <c r="E2" t="n">
-        <v>28.1925</v>
+        <v>27.5157</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.1375</v>
+        <v>27.7223</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7621</v>
+        <v>32.2095</v>
       </c>
       <c r="D3" t="n">
-        <v>30.7606</v>
+        <v>32.1962</v>
       </c>
       <c r="E3" t="n">
-        <v>46.858</v>
+        <v>47.6616</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.8615</v>
+        <v>35.0206</v>
       </c>
       <c r="C4" t="n">
-        <v>33.5421</v>
+        <v>32.0113</v>
       </c>
       <c r="D4" t="n">
-        <v>47.5174</v>
+        <v>44.6151</v>
       </c>
       <c r="E4" t="n">
-        <v>55.2854</v>
+        <v>50.8142</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.2597</v>
+        <v>42.4475</v>
       </c>
       <c r="C5" t="n">
-        <v>50.1597</v>
+        <v>45.5028</v>
       </c>
       <c r="D5" t="n">
-        <v>52.9696</v>
+        <v>49.3268</v>
       </c>
       <c r="E5" t="n">
-        <v>66.9344</v>
+        <v>75.1613</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.7789</v>
+        <v>36.9308</v>
       </c>
       <c r="C6" t="n">
-        <v>45.685</v>
+        <v>48.6543</v>
       </c>
       <c r="D6" t="n">
-        <v>47.7225</v>
+        <v>45.0962</v>
       </c>
       <c r="E6" t="n">
-        <v>57.6152</v>
+        <v>63.3306</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.9361</v>
+        <v>42.8336</v>
       </c>
       <c r="C7" t="n">
-        <v>39.3537</v>
+        <v>41.2955</v>
       </c>
       <c r="D7" t="n">
-        <v>37.9845</v>
+        <v>43.2767</v>
       </c>
       <c r="E7" t="n">
-        <v>61.3761</v>
+        <v>58.2709</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.5995</v>
+        <v>43.2563</v>
       </c>
       <c r="C8" t="n">
-        <v>45.7572</v>
+        <v>42.6504</v>
       </c>
       <c r="D8" t="n">
-        <v>45.3802</v>
+        <v>42.7254</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4779</v>
+        <v>56.0175</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.3228</v>
+        <v>41.029</v>
       </c>
       <c r="C9" t="n">
-        <v>45.2968</v>
+        <v>44.4479</v>
       </c>
       <c r="D9" t="n">
-        <v>45.3441</v>
+        <v>41.3256</v>
       </c>
       <c r="E9" t="n">
-        <v>60.0555</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>49.4407</v>
+        <v>43.5448</v>
       </c>
       <c r="C10" t="n">
-        <v>49.642</v>
+        <v>42.8082</v>
       </c>
       <c r="D10" t="n">
-        <v>41.4036</v>
+        <v>45.9525</v>
       </c>
       <c r="E10" t="n">
-        <v>55.8439</v>
+        <v>54.9816</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.3882</v>
+        <v>44.0654</v>
       </c>
       <c r="C11" t="n">
-        <v>51.5884</v>
+        <v>49.376</v>
       </c>
       <c r="D11" t="n">
-        <v>40.7132</v>
+        <v>48.8359</v>
       </c>
       <c r="E11" t="n">
-        <v>55.2006</v>
+        <v>56.0379</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.2437</v>
+        <v>45.4939</v>
       </c>
       <c r="C12" t="n">
-        <v>45.8823</v>
+        <v>47.5004</v>
       </c>
       <c r="D12" t="n">
-        <v>39.2371</v>
+        <v>36.8726</v>
       </c>
       <c r="E12" t="n">
-        <v>55.9623</v>
+        <v>57.7317</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>39.5179</v>
+        <v>46.0088</v>
       </c>
       <c r="C13" t="n">
-        <v>50.0004</v>
+        <v>48.2386</v>
       </c>
       <c r="D13" t="n">
-        <v>37.3623</v>
+        <v>38.5493</v>
       </c>
       <c r="E13" t="n">
-        <v>53.2459</v>
+        <v>59.9167</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.0066</v>
+        <v>44.5623</v>
       </c>
       <c r="C14" t="n">
-        <v>48.7756</v>
+        <v>48.6683</v>
       </c>
       <c r="D14" t="n">
-        <v>46.2526</v>
+        <v>39.2723</v>
       </c>
       <c r="E14" t="n">
-        <v>54.1673</v>
+        <v>55.0226</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.0015</v>
+        <v>43.5048</v>
       </c>
       <c r="C15" t="n">
-        <v>46.443</v>
+        <v>50.1215</v>
       </c>
       <c r="D15" t="n">
-        <v>41.21</v>
+        <v>46.8639</v>
       </c>
       <c r="E15" t="n">
-        <v>53.497</v>
+        <v>52.2494</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.0514</v>
+        <v>43.6475</v>
       </c>
       <c r="C16" t="n">
-        <v>44.9573</v>
+        <v>46.4983</v>
       </c>
       <c r="D16" t="n">
-        <v>47.6932</v>
+        <v>43.4918</v>
       </c>
       <c r="E16" t="n">
-        <v>56.2642</v>
+        <v>58.625</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.4287</v>
+        <v>41.5778</v>
       </c>
       <c r="C17" t="n">
-        <v>49.526</v>
+        <v>49.0438</v>
       </c>
       <c r="D17" t="n">
-        <v>40.8845</v>
+        <v>43.2528</v>
       </c>
       <c r="E17" t="n">
-        <v>57.7426</v>
+        <v>58.7265</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.3613</v>
+        <v>18.3872</v>
       </c>
       <c r="C2" t="n">
-        <v>21.7402</v>
+        <v>21.4005</v>
       </c>
       <c r="D2" t="n">
-        <v>26.6858</v>
+        <v>27.332</v>
       </c>
       <c r="E2" t="n">
-        <v>32.4644</v>
+        <v>29.2023</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.8653</v>
+        <v>30.1213</v>
       </c>
       <c r="C3" t="n">
-        <v>31.7155</v>
+        <v>36.4098</v>
       </c>
       <c r="D3" t="n">
-        <v>39.2463</v>
+        <v>37.5067</v>
       </c>
       <c r="E3" t="n">
-        <v>52.9675</v>
+        <v>57.2675</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.2937</v>
+        <v>35.7094</v>
       </c>
       <c r="C4" t="n">
-        <v>45.9122</v>
+        <v>44.6423</v>
       </c>
       <c r="D4" t="n">
-        <v>50.1855</v>
+        <v>53.2199</v>
       </c>
       <c r="E4" t="n">
-        <v>63.6132</v>
+        <v>59.0291</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>45.1787</v>
+        <v>46.5999</v>
       </c>
       <c r="C5" t="n">
-        <v>60.1458</v>
+        <v>56.4814</v>
       </c>
       <c r="D5" t="n">
-        <v>62.0842</v>
+        <v>59.1858</v>
       </c>
       <c r="E5" t="n">
-        <v>75.7677</v>
+        <v>71.4933</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.3924</v>
+        <v>39.455</v>
       </c>
       <c r="C6" t="n">
-        <v>41.654</v>
+        <v>48.4721</v>
       </c>
       <c r="D6" t="n">
-        <v>52.7974</v>
+        <v>52.6929</v>
       </c>
       <c r="E6" t="n">
-        <v>62.2156</v>
+        <v>70.9247</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.1844</v>
+        <v>42.7067</v>
       </c>
       <c r="C7" t="n">
-        <v>41.5244</v>
+        <v>40.7593</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6678</v>
+        <v>52.1856</v>
       </c>
       <c r="E7" t="n">
-        <v>56.148</v>
+        <v>54.3879</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>47.169</v>
+        <v>41.9648</v>
       </c>
       <c r="C8" t="n">
-        <v>40.8668</v>
+        <v>40.9132</v>
       </c>
       <c r="D8" t="n">
-        <v>54.1991</v>
+        <v>52.8452</v>
       </c>
       <c r="E8" t="n">
-        <v>57.8996</v>
+        <v>55.4938</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.58</v>
+        <v>49.6307</v>
       </c>
       <c r="C9" t="n">
-        <v>40.6402</v>
+        <v>37.0828</v>
       </c>
       <c r="D9" t="n">
-        <v>41.2774</v>
+        <v>44.0314</v>
       </c>
       <c r="E9" t="n">
-        <v>54.4743</v>
+        <v>58.3486</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.5709</v>
+        <v>44.6674</v>
       </c>
       <c r="C10" t="n">
-        <v>36.0009</v>
+        <v>37.2117</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0151</v>
+        <v>50.0105</v>
       </c>
       <c r="E10" t="n">
-        <v>53.7541</v>
+        <v>58.2064</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.2405</v>
+        <v>40.0362</v>
       </c>
       <c r="C11" t="n">
-        <v>40.9693</v>
+        <v>39.393</v>
       </c>
       <c r="D11" t="n">
-        <v>49.8989</v>
+        <v>52.8612</v>
       </c>
       <c r="E11" t="n">
-        <v>54.8494</v>
+        <v>57.766</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.9106</v>
+        <v>46.6564</v>
       </c>
       <c r="C12" t="n">
-        <v>36.4756</v>
+        <v>39.3167</v>
       </c>
       <c r="D12" t="n">
-        <v>51.5523</v>
+        <v>48.7456</v>
       </c>
       <c r="E12" t="n">
-        <v>53.9261</v>
+        <v>57.3791</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.711</v>
+        <v>38.8672</v>
       </c>
       <c r="C13" t="n">
-        <v>40.9396</v>
+        <v>38.1896</v>
       </c>
       <c r="D13" t="n">
-        <v>51.31</v>
+        <v>49.4262</v>
       </c>
       <c r="E13" t="n">
-        <v>58.1049</v>
+        <v>55.2264</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.2393</v>
+        <v>39.2799</v>
       </c>
       <c r="C14" t="n">
-        <v>41.1767</v>
+        <v>40.1025</v>
       </c>
       <c r="D14" t="n">
-        <v>50.9233</v>
+        <v>45.9766</v>
       </c>
       <c r="E14" t="n">
-        <v>55.7071</v>
+        <v>56.1428</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.6649</v>
+        <v>39.5769</v>
       </c>
       <c r="C15" t="n">
-        <v>38.6525</v>
+        <v>37.1523</v>
       </c>
       <c r="D15" t="n">
-        <v>55.7939</v>
+        <v>49.9833</v>
       </c>
       <c r="E15" t="n">
-        <v>55.0522</v>
+        <v>55.3914</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.5012</v>
+        <v>46.753</v>
       </c>
       <c r="C16" t="n">
-        <v>37.9715</v>
+        <v>40.9041</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5401</v>
+        <v>50.89</v>
       </c>
       <c r="E16" t="n">
-        <v>55.0682</v>
+        <v>57.3959</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.6315</v>
+        <v>43.652</v>
       </c>
       <c r="C17" t="n">
-        <v>41.6127</v>
+        <v>43.7609</v>
       </c>
       <c r="D17" t="n">
-        <v>52.6521</v>
+        <v>47.0373</v>
       </c>
       <c r="E17" t="n">
-        <v>54.5613</v>
+        <v>55.784</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.881629999999999</v>
+        <v>8.87097</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8468</v>
+        <v>16.8316</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9025</v>
+        <v>21.7258</v>
       </c>
       <c r="E2" t="n">
-        <v>32.0496</v>
+        <v>33.8316</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8055</v>
+        <v>16.7854</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6387</v>
+        <v>30.4965</v>
       </c>
       <c r="D3" t="n">
-        <v>38.623</v>
+        <v>39.5132</v>
       </c>
       <c r="E3" t="n">
-        <v>58.1437</v>
+        <v>60.6714</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8936</v>
+        <v>23.8218</v>
       </c>
       <c r="C4" t="n">
-        <v>42.1347</v>
+        <v>41.9846</v>
       </c>
       <c r="D4" t="n">
-        <v>53.5018</v>
+        <v>54.1352</v>
       </c>
       <c r="E4" t="n">
-        <v>78.9295</v>
+        <v>80.7323</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1543</v>
+        <v>31.1244</v>
       </c>
       <c r="C5" t="n">
-        <v>53.7999</v>
+        <v>53.3719</v>
       </c>
       <c r="D5" t="n">
-        <v>68.53740000000001</v>
+        <v>69.0155</v>
       </c>
       <c r="E5" t="n">
-        <v>98.4392</v>
+        <v>100.973</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.5502</v>
+        <v>33.3924</v>
       </c>
       <c r="C6" t="n">
-        <v>46.5743</v>
+        <v>44.9807</v>
       </c>
       <c r="D6" t="n">
-        <v>60.2082</v>
+        <v>60.9299</v>
       </c>
       <c r="E6" t="n">
-        <v>86.8845</v>
+        <v>88.4666</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.1363</v>
+        <v>36.0486</v>
       </c>
       <c r="C7" t="n">
-        <v>46.7336</v>
+        <v>45.636</v>
       </c>
       <c r="D7" t="n">
-        <v>54.3292</v>
+        <v>54.6605</v>
       </c>
       <c r="E7" t="n">
-        <v>82.62220000000001</v>
+        <v>83.8807</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.3497</v>
+        <v>38.5513</v>
       </c>
       <c r="C8" t="n">
-        <v>46.8874</v>
+        <v>45.8146</v>
       </c>
       <c r="D8" t="n">
-        <v>55.0553</v>
+        <v>54.6411</v>
       </c>
       <c r="E8" t="n">
-        <v>83.9061</v>
+        <v>83.56189999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4732</v>
+        <v>40.6327</v>
       </c>
       <c r="C9" t="n">
-        <v>47.0688</v>
+        <v>45.8622</v>
       </c>
       <c r="D9" t="n">
-        <v>52.1067</v>
+        <v>53.7401</v>
       </c>
       <c r="E9" t="n">
-        <v>83.8681</v>
+        <v>84.6506</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6669</v>
+        <v>40.4152</v>
       </c>
       <c r="C10" t="n">
-        <v>50.6492</v>
+        <v>50.7854</v>
       </c>
       <c r="D10" t="n">
-        <v>56.3636</v>
+        <v>54.7282</v>
       </c>
       <c r="E10" t="n">
-        <v>84.86620000000001</v>
+        <v>83.4559</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7408</v>
+        <v>40.6558</v>
       </c>
       <c r="C11" t="n">
-        <v>54.3497</v>
+        <v>53.4924</v>
       </c>
       <c r="D11" t="n">
-        <v>55.4095</v>
+        <v>54.9683</v>
       </c>
       <c r="E11" t="n">
-        <v>82.8048</v>
+        <v>83.23009999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.9391</v>
+        <v>40.712</v>
       </c>
       <c r="C12" t="n">
-        <v>55.6878</v>
+        <v>54.7207</v>
       </c>
       <c r="D12" t="n">
-        <v>56.3459</v>
+        <v>56.2479</v>
       </c>
       <c r="E12" t="n">
-        <v>80.2856</v>
+        <v>81.14230000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.9641</v>
+        <v>40.8502</v>
       </c>
       <c r="C13" t="n">
-        <v>56.3503</v>
+        <v>55.7909</v>
       </c>
       <c r="D13" t="n">
-        <v>54.5669</v>
+        <v>54.8425</v>
       </c>
       <c r="E13" t="n">
-        <v>82.6447</v>
+        <v>81.5874</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.9479</v>
+        <v>40.9422</v>
       </c>
       <c r="C14" t="n">
-        <v>56.8035</v>
+        <v>55.8615</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2744</v>
+        <v>53.7796</v>
       </c>
       <c r="E14" t="n">
-        <v>79.06019999999999</v>
+        <v>79.0968</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.932</v>
+        <v>40.7786</v>
       </c>
       <c r="C15" t="n">
-        <v>57.0715</v>
+        <v>56.2887</v>
       </c>
       <c r="D15" t="n">
-        <v>51.762</v>
+        <v>51.1616</v>
       </c>
       <c r="E15" t="n">
-        <v>78.7684</v>
+        <v>78.3374</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.9728</v>
+        <v>40.7914</v>
       </c>
       <c r="C16" t="n">
-        <v>57.0716</v>
+        <v>56.6458</v>
       </c>
       <c r="D16" t="n">
-        <v>49.0446</v>
+        <v>51.2557</v>
       </c>
       <c r="E16" t="n">
-        <v>75.38720000000001</v>
+        <v>76.3793</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.9952</v>
+        <v>40.9524</v>
       </c>
       <c r="C17" t="n">
-        <v>57.1675</v>
+        <v>56.3427</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9056</v>
+        <v>50.1589</v>
       </c>
       <c r="E17" t="n">
-        <v>78.6581</v>
+        <v>73.67959999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.90063</v>
+        <v>8.890140000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9656</v>
+        <v>16.9799</v>
       </c>
       <c r="D2" t="n">
-        <v>20.7327</v>
+        <v>21.3776</v>
       </c>
       <c r="E2" t="n">
-        <v>32.1838</v>
+        <v>33.6795</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.895</v>
+        <v>16.863</v>
       </c>
       <c r="C3" t="n">
-        <v>30.8621</v>
+        <v>30.7583</v>
       </c>
       <c r="D3" t="n">
-        <v>38.2675</v>
+        <v>39.2348</v>
       </c>
       <c r="E3" t="n">
-        <v>58.1168</v>
+        <v>60.4364</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0844</v>
+        <v>24.0475</v>
       </c>
       <c r="C4" t="n">
-        <v>42.7277</v>
+        <v>42.4725</v>
       </c>
       <c r="D4" t="n">
-        <v>53.1881</v>
+        <v>53.6421</v>
       </c>
       <c r="E4" t="n">
-        <v>79.16119999999999</v>
+        <v>80.7286</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4867</v>
+        <v>31.4747</v>
       </c>
       <c r="C5" t="n">
-        <v>54.1648</v>
+        <v>54.1533</v>
       </c>
       <c r="D5" t="n">
-        <v>68.3357</v>
+        <v>68.5351</v>
       </c>
       <c r="E5" t="n">
-        <v>98.5712</v>
+        <v>99.78060000000001</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9053</v>
+        <v>33.7873</v>
       </c>
       <c r="C6" t="n">
-        <v>47.1859</v>
+        <v>45.7889</v>
       </c>
       <c r="D6" t="n">
-        <v>59.5728</v>
+        <v>60.0495</v>
       </c>
       <c r="E6" t="n">
-        <v>88.1713</v>
+        <v>87.31950000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5771</v>
+        <v>36.5475</v>
       </c>
       <c r="C7" t="n">
-        <v>47.204</v>
+        <v>46.1539</v>
       </c>
       <c r="D7" t="n">
-        <v>53.1971</v>
+        <v>53.0548</v>
       </c>
       <c r="E7" t="n">
-        <v>83.3343</v>
+        <v>82.84529999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.1204</v>
+        <v>38.998</v>
       </c>
       <c r="C8" t="n">
-        <v>47.8149</v>
+        <v>46.6339</v>
       </c>
       <c r="D8" t="n">
-        <v>52.5483</v>
+        <v>53.6243</v>
       </c>
       <c r="E8" t="n">
-        <v>83.8484</v>
+        <v>82.571</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.2298</v>
+        <v>41.2545</v>
       </c>
       <c r="C9" t="n">
-        <v>47.557</v>
+        <v>46.2702</v>
       </c>
       <c r="D9" t="n">
-        <v>52.6054</v>
+        <v>52.1629</v>
       </c>
       <c r="E9" t="n">
-        <v>84.28270000000001</v>
+        <v>82.4442</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2576</v>
+        <v>41.2415</v>
       </c>
       <c r="C10" t="n">
-        <v>52.4668</v>
+        <v>51.4053</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9276</v>
+        <v>54.1425</v>
       </c>
       <c r="E10" t="n">
-        <v>82.2161</v>
+        <v>81.9689</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.4296</v>
+        <v>41.4835</v>
       </c>
       <c r="C11" t="n">
-        <v>55.5558</v>
+        <v>55.983</v>
       </c>
       <c r="D11" t="n">
-        <v>53.7772</v>
+        <v>53.5378</v>
       </c>
       <c r="E11" t="n">
-        <v>81.1144</v>
+        <v>80.1855</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3895</v>
+        <v>41.4872</v>
       </c>
       <c r="C12" t="n">
-        <v>56.1423</v>
+        <v>55.7569</v>
       </c>
       <c r="D12" t="n">
-        <v>55.1655</v>
+        <v>54.1697</v>
       </c>
       <c r="E12" t="n">
-        <v>79.9164</v>
+        <v>80.26009999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3993</v>
+        <v>41.388</v>
       </c>
       <c r="C13" t="n">
-        <v>56.5453</v>
+        <v>56.6071</v>
       </c>
       <c r="D13" t="n">
-        <v>52.6336</v>
+        <v>52.4231</v>
       </c>
       <c r="E13" t="n">
-        <v>79.8443</v>
+        <v>78.07510000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.4996</v>
+        <v>41.5425</v>
       </c>
       <c r="C14" t="n">
-        <v>57.2359</v>
+        <v>57.0218</v>
       </c>
       <c r="D14" t="n">
-        <v>52.158</v>
+        <v>52.6592</v>
       </c>
       <c r="E14" t="n">
-        <v>76.16849999999999</v>
+        <v>77.7924</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.5413</v>
+        <v>41.5262</v>
       </c>
       <c r="C15" t="n">
-        <v>57.4415</v>
+        <v>56.9618</v>
       </c>
       <c r="D15" t="n">
-        <v>50.5515</v>
+        <v>49.8857</v>
       </c>
       <c r="E15" t="n">
-        <v>75.1738</v>
+        <v>77.3232</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.5033</v>
+        <v>41.5937</v>
       </c>
       <c r="C16" t="n">
-        <v>57.2367</v>
+        <v>57.3001</v>
       </c>
       <c r="D16" t="n">
-        <v>50.6596</v>
+        <v>49.2293</v>
       </c>
       <c r="E16" t="n">
-        <v>75.80289999999999</v>
+        <v>74.3702</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4725</v>
+        <v>41.4864</v>
       </c>
       <c r="C17" t="n">
-        <v>57.4298</v>
+        <v>57.0819</v>
       </c>
       <c r="D17" t="n">
-        <v>47.3483</v>
+        <v>48.6567</v>
       </c>
       <c r="E17" t="n">
-        <v>76.1705</v>
+        <v>73.34820000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.893</v>
+        <v>13.8774</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6826</v>
+        <v>21.6463</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0499</v>
+        <v>28.3471</v>
       </c>
       <c r="E2" t="n">
-        <v>37.1974</v>
+        <v>37.7349</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6783</v>
+        <v>26.6286</v>
       </c>
       <c r="C3" t="n">
-        <v>39.4474</v>
+        <v>39.1142</v>
       </c>
       <c r="D3" t="n">
-        <v>51.834</v>
+        <v>52.5696</v>
       </c>
       <c r="E3" t="n">
-        <v>66.5996</v>
+        <v>67.2796</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.0853</v>
+        <v>38.084</v>
       </c>
       <c r="C4" t="n">
-        <v>54.9531</v>
+        <v>54.3222</v>
       </c>
       <c r="D4" t="n">
-        <v>72.2304</v>
+        <v>72.79430000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>90.9725</v>
+        <v>91.54179999999999</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.1342</v>
+        <v>49.2087</v>
       </c>
       <c r="C5" t="n">
-        <v>71.16719999999999</v>
+        <v>70.08929999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>92.75239999999999</v>
+        <v>93.8235</v>
       </c>
       <c r="E5" t="n">
-        <v>115.25</v>
+        <v>114.993</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47.9369</v>
+        <v>48.095</v>
       </c>
       <c r="C6" t="n">
-        <v>56.7481</v>
+        <v>56.0623</v>
       </c>
       <c r="D6" t="n">
-        <v>75.0313</v>
+        <v>74.9023</v>
       </c>
       <c r="E6" t="n">
-        <v>94.078</v>
+        <v>93.3725</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.6538</v>
+        <v>49.8276</v>
       </c>
       <c r="C7" t="n">
-        <v>54.299</v>
+        <v>54.1549</v>
       </c>
       <c r="D7" t="n">
-        <v>63.5893</v>
+        <v>63.1789</v>
       </c>
       <c r="E7" t="n">
-        <v>88.54470000000001</v>
+        <v>87.6199</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.4748</v>
+        <v>51.7194</v>
       </c>
       <c r="C8" t="n">
-        <v>53.3578</v>
+        <v>53.1802</v>
       </c>
       <c r="D8" t="n">
-        <v>60.7428</v>
+        <v>60.7212</v>
       </c>
       <c r="E8" t="n">
-        <v>84.9254</v>
+        <v>84.5766</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.6322</v>
+        <v>53.2883</v>
       </c>
       <c r="C9" t="n">
-        <v>51.915</v>
+        <v>51.3783</v>
       </c>
       <c r="D9" t="n">
-        <v>56.0629</v>
+        <v>55.5754</v>
       </c>
       <c r="E9" t="n">
-        <v>85.5753</v>
+        <v>84.6122</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.8068</v>
+        <v>52.9154</v>
       </c>
       <c r="C10" t="n">
-        <v>55.9574</v>
+        <v>55.8589</v>
       </c>
       <c r="D10" t="n">
-        <v>58.8004</v>
+        <v>58.2908</v>
       </c>
       <c r="E10" t="n">
-        <v>84.45440000000001</v>
+        <v>83.5643</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.5959</v>
+        <v>52.8261</v>
       </c>
       <c r="C11" t="n">
-        <v>58.6131</v>
+        <v>58.2729</v>
       </c>
       <c r="D11" t="n">
-        <v>59.8445</v>
+        <v>58.9924</v>
       </c>
       <c r="E11" t="n">
-        <v>84.5558</v>
+        <v>84.1052</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.0826</v>
+        <v>52.865</v>
       </c>
       <c r="C12" t="n">
-        <v>58.9224</v>
+        <v>58.3514</v>
       </c>
       <c r="D12" t="n">
-        <v>61.3891</v>
+        <v>61.6356</v>
       </c>
       <c r="E12" t="n">
-        <v>86.1143</v>
+        <v>84.7719</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.937</v>
+        <v>53.119</v>
       </c>
       <c r="C13" t="n">
-        <v>59.0976</v>
+        <v>58.8817</v>
       </c>
       <c r="D13" t="n">
-        <v>62.8492</v>
+        <v>61.9232</v>
       </c>
       <c r="E13" t="n">
-        <v>87.471</v>
+        <v>86.8224</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.9186</v>
+        <v>53.1132</v>
       </c>
       <c r="C14" t="n">
-        <v>59.391</v>
+        <v>59.0364</v>
       </c>
       <c r="D14" t="n">
-        <v>66.5364</v>
+        <v>63.7508</v>
       </c>
       <c r="E14" t="n">
-        <v>89.2381</v>
+        <v>86.61669999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>50.9932</v>
+        <v>53.0583</v>
       </c>
       <c r="C15" t="n">
-        <v>60.5881</v>
+        <v>59.2987</v>
       </c>
       <c r="D15" t="n">
-        <v>64.4413</v>
+        <v>64.34399999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>89.1681</v>
+        <v>87.6078</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>53.0618</v>
+        <v>53.4253</v>
       </c>
       <c r="C16" t="n">
-        <v>59.2596</v>
+        <v>59.1826</v>
       </c>
       <c r="D16" t="n">
-        <v>64.9624</v>
+        <v>64.89879999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>89.0304</v>
+        <v>88.4033</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>53.2333</v>
+        <v>52.9934</v>
       </c>
       <c r="C17" t="n">
-        <v>59.7317</v>
+        <v>59.3232</v>
       </c>
       <c r="D17" t="n">
-        <v>62.297</v>
+        <v>62.662</v>
       </c>
       <c r="E17" t="n">
-        <v>82.05410000000001</v>
+        <v>86.2821</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3603</v>
+        <v>14.1904</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6588</v>
+        <v>18.6772</v>
       </c>
       <c r="D2" t="n">
-        <v>24.7118</v>
+        <v>21.1396</v>
       </c>
       <c r="E2" t="n">
-        <v>31.5996</v>
+        <v>27.9155</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.0175</v>
+        <v>27.4165</v>
       </c>
       <c r="C3" t="n">
-        <v>29.2555</v>
+        <v>30.4957</v>
       </c>
       <c r="D3" t="n">
-        <v>34.3254</v>
+        <v>29.4183</v>
       </c>
       <c r="E3" t="n">
-        <v>45.4296</v>
+        <v>40.4683</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.5954</v>
+        <v>31.5926</v>
       </c>
       <c r="C4" t="n">
-        <v>37.9618</v>
+        <v>37.3176</v>
       </c>
       <c r="D4" t="n">
-        <v>49.7566</v>
+        <v>40.2496</v>
       </c>
       <c r="E4" t="n">
-        <v>50.5317</v>
+        <v>62.7376</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.7957</v>
+        <v>40.4334</v>
       </c>
       <c r="C5" t="n">
-        <v>49.7183</v>
+        <v>50.6298</v>
       </c>
       <c r="D5" t="n">
-        <v>52.2026</v>
+        <v>49.891</v>
       </c>
       <c r="E5" t="n">
-        <v>75.8441</v>
+        <v>56.5877</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.9488</v>
+        <v>41.3592</v>
       </c>
       <c r="C6" t="n">
-        <v>40.4324</v>
+        <v>45.0365</v>
       </c>
       <c r="D6" t="n">
-        <v>52.7051</v>
+        <v>41.7045</v>
       </c>
       <c r="E6" t="n">
-        <v>58.7141</v>
+        <v>58.5929</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.6033</v>
+        <v>39.3779</v>
       </c>
       <c r="C7" t="n">
-        <v>44.3696</v>
+        <v>47.9491</v>
       </c>
       <c r="D7" t="n">
-        <v>42.8919</v>
+        <v>36.0631</v>
       </c>
       <c r="E7" t="n">
-        <v>57.2722</v>
+        <v>55.5407</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.7143</v>
+        <v>40.3895</v>
       </c>
       <c r="C8" t="n">
-        <v>41.9833</v>
+        <v>44.7327</v>
       </c>
       <c r="D8" t="n">
-        <v>46.0561</v>
+        <v>36.61</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4774</v>
+        <v>54.6337</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.7586</v>
+        <v>44.0764</v>
       </c>
       <c r="C9" t="n">
-        <v>41.1212</v>
+        <v>44.3279</v>
       </c>
       <c r="D9" t="n">
-        <v>43.6411</v>
+        <v>39.2295</v>
       </c>
       <c r="E9" t="n">
-        <v>55.3281</v>
+        <v>55.4016</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.286</v>
+        <v>40.4001</v>
       </c>
       <c r="C10" t="n">
-        <v>42.3243</v>
+        <v>44.8696</v>
       </c>
       <c r="D10" t="n">
-        <v>42.4553</v>
+        <v>39.0085</v>
       </c>
       <c r="E10" t="n">
-        <v>55.9465</v>
+        <v>48.6618</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.264</v>
+        <v>45.2238</v>
       </c>
       <c r="C11" t="n">
-        <v>41.3312</v>
+        <v>46.8089</v>
       </c>
       <c r="D11" t="n">
-        <v>47.8482</v>
+        <v>36.3022</v>
       </c>
       <c r="E11" t="n">
-        <v>55.9559</v>
+        <v>55.4957</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.3088</v>
+        <v>41.7491</v>
       </c>
       <c r="C12" t="n">
-        <v>48.0525</v>
+        <v>41.4993</v>
       </c>
       <c r="D12" t="n">
-        <v>43.809</v>
+        <v>39.869</v>
       </c>
       <c r="E12" t="n">
-        <v>52.6772</v>
+        <v>56.9862</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>38.4677</v>
+        <v>47.2312</v>
       </c>
       <c r="C13" t="n">
-        <v>49.3826</v>
+        <v>47.049</v>
       </c>
       <c r="D13" t="n">
-        <v>42.7048</v>
+        <v>39.2099</v>
       </c>
       <c r="E13" t="n">
-        <v>54.7507</v>
+        <v>54.241</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.51</v>
+        <v>45.5145</v>
       </c>
       <c r="C14" t="n">
-        <v>50.6551</v>
+        <v>42.4215</v>
       </c>
       <c r="D14" t="n">
-        <v>45.6013</v>
+        <v>41.6491</v>
       </c>
       <c r="E14" t="n">
-        <v>51.1954</v>
+        <v>54.8686</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.2147</v>
+        <v>44.0202</v>
       </c>
       <c r="C15" t="n">
-        <v>44.6641</v>
+        <v>43.5184</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8758</v>
+        <v>40.3172</v>
       </c>
       <c r="E15" t="n">
-        <v>57.5186</v>
+        <v>50.9679</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>47.0265</v>
+        <v>41.4909</v>
       </c>
       <c r="C16" t="n">
-        <v>47.9768</v>
+        <v>51.6373</v>
       </c>
       <c r="D16" t="n">
-        <v>42.3061</v>
+        <v>47.6695</v>
       </c>
       <c r="E16" t="n">
-        <v>51.9528</v>
+        <v>54.4162</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.2826</v>
+        <v>44.6826</v>
       </c>
       <c r="C17" t="n">
-        <v>48.5954</v>
+        <v>46.5838</v>
       </c>
       <c r="D17" t="n">
-        <v>44.4907</v>
+        <v>38.7783</v>
       </c>
       <c r="E17" t="n">
-        <v>59.3691</v>
+        <v>50.8634</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9883</v>
+        <v>14.8289</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5177</v>
+        <v>18.4665</v>
       </c>
       <c r="D2" t="n">
-        <v>24.633</v>
+        <v>21.1836</v>
       </c>
       <c r="E2" t="n">
-        <v>27.5157</v>
+        <v>28.2642</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.7223</v>
+        <v>27.8888</v>
       </c>
       <c r="C3" t="n">
-        <v>32.2095</v>
+        <v>31.8245</v>
       </c>
       <c r="D3" t="n">
-        <v>32.1962</v>
+        <v>32.3259</v>
       </c>
       <c r="E3" t="n">
-        <v>47.6616</v>
+        <v>45.2196</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>35.0206</v>
+        <v>34.0403</v>
       </c>
       <c r="C4" t="n">
-        <v>32.0113</v>
+        <v>34.2413</v>
       </c>
       <c r="D4" t="n">
-        <v>44.6151</v>
+        <v>43.3493</v>
       </c>
       <c r="E4" t="n">
-        <v>50.8142</v>
+        <v>56.2604</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.4475</v>
+        <v>44.8311</v>
       </c>
       <c r="C5" t="n">
-        <v>45.5028</v>
+        <v>44.6795</v>
       </c>
       <c r="D5" t="n">
-        <v>49.3268</v>
+        <v>52.4238</v>
       </c>
       <c r="E5" t="n">
-        <v>75.1613</v>
+        <v>63.3885</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36.9308</v>
+        <v>37.7597</v>
       </c>
       <c r="C6" t="n">
-        <v>48.6543</v>
+        <v>44.034</v>
       </c>
       <c r="D6" t="n">
-        <v>45.0962</v>
+        <v>47.2968</v>
       </c>
       <c r="E6" t="n">
-        <v>63.3306</v>
+        <v>57.062</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.8336</v>
+        <v>45.9531</v>
       </c>
       <c r="C7" t="n">
-        <v>41.2955</v>
+        <v>51.4618</v>
       </c>
       <c r="D7" t="n">
-        <v>43.2767</v>
+        <v>36.2961</v>
       </c>
       <c r="E7" t="n">
-        <v>58.2709</v>
+        <v>55.7871</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.2563</v>
+        <v>45.8447</v>
       </c>
       <c r="C8" t="n">
-        <v>42.6504</v>
+        <v>43.5586</v>
       </c>
       <c r="D8" t="n">
-        <v>42.7254</v>
+        <v>40.2533</v>
       </c>
       <c r="E8" t="n">
-        <v>56.0175</v>
+        <v>55.9375</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.029</v>
+        <v>42.3329</v>
       </c>
       <c r="C9" t="n">
-        <v>44.4479</v>
+        <v>39.3299</v>
       </c>
       <c r="D9" t="n">
-        <v>41.3256</v>
+        <v>37.9556</v>
       </c>
       <c r="E9" t="n">
-        <v>53.13</v>
+        <v>50.7975</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.5448</v>
+        <v>39.7647</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8082</v>
+        <v>45.2209</v>
       </c>
       <c r="D10" t="n">
-        <v>45.9525</v>
+        <v>40.3642</v>
       </c>
       <c r="E10" t="n">
-        <v>54.9816</v>
+        <v>53.4374</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.0654</v>
+        <v>45.9813</v>
       </c>
       <c r="C11" t="n">
-        <v>49.376</v>
+        <v>47.3764</v>
       </c>
       <c r="D11" t="n">
-        <v>48.8359</v>
+        <v>38.2255</v>
       </c>
       <c r="E11" t="n">
-        <v>56.0379</v>
+        <v>53.7907</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.4939</v>
+        <v>42.4</v>
       </c>
       <c r="C12" t="n">
-        <v>47.5004</v>
+        <v>47.1237</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8726</v>
+        <v>44.4557</v>
       </c>
       <c r="E12" t="n">
-        <v>57.7317</v>
+        <v>57.8195</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.0088</v>
+        <v>40.9363</v>
       </c>
       <c r="C13" t="n">
-        <v>48.2386</v>
+        <v>52.7265</v>
       </c>
       <c r="D13" t="n">
-        <v>38.5493</v>
+        <v>39.0614</v>
       </c>
       <c r="E13" t="n">
-        <v>59.9167</v>
+        <v>56.2269</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.5623</v>
+        <v>42.42</v>
       </c>
       <c r="C14" t="n">
-        <v>48.6683</v>
+        <v>47.215</v>
       </c>
       <c r="D14" t="n">
-        <v>39.2723</v>
+        <v>41.9837</v>
       </c>
       <c r="E14" t="n">
-        <v>55.0226</v>
+        <v>49.6064</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.5048</v>
+        <v>47.2225</v>
       </c>
       <c r="C15" t="n">
-        <v>50.1215</v>
+        <v>49.9585</v>
       </c>
       <c r="D15" t="n">
-        <v>46.8639</v>
+        <v>47.3431</v>
       </c>
       <c r="E15" t="n">
-        <v>52.2494</v>
+        <v>54.5967</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.6475</v>
+        <v>41.0447</v>
       </c>
       <c r="C16" t="n">
-        <v>46.4983</v>
+        <v>47.0062</v>
       </c>
       <c r="D16" t="n">
-        <v>43.4918</v>
+        <v>35.2691</v>
       </c>
       <c r="E16" t="n">
-        <v>58.625</v>
+        <v>52.8898</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.5778</v>
+        <v>44.3687</v>
       </c>
       <c r="C17" t="n">
-        <v>49.0438</v>
+        <v>50.6008</v>
       </c>
       <c r="D17" t="n">
-        <v>43.2528</v>
+        <v>40.5529</v>
       </c>
       <c r="E17" t="n">
-        <v>58.7265</v>
+        <v>56.0922</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.3872</v>
+        <v>18.2724</v>
       </c>
       <c r="C2" t="n">
-        <v>21.4005</v>
+        <v>21.59</v>
       </c>
       <c r="D2" t="n">
-        <v>27.332</v>
+        <v>25.8312</v>
       </c>
       <c r="E2" t="n">
-        <v>29.2023</v>
+        <v>32.4847</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.1213</v>
+        <v>29.2587</v>
       </c>
       <c r="C3" t="n">
-        <v>36.4098</v>
+        <v>28.8296</v>
       </c>
       <c r="D3" t="n">
-        <v>37.5067</v>
+        <v>37.665</v>
       </c>
       <c r="E3" t="n">
-        <v>57.2675</v>
+        <v>50.3998</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>35.7094</v>
+        <v>32.9881</v>
       </c>
       <c r="C4" t="n">
-        <v>44.6423</v>
+        <v>41.14</v>
       </c>
       <c r="D4" t="n">
-        <v>53.2199</v>
+        <v>48.4092</v>
       </c>
       <c r="E4" t="n">
-        <v>59.0291</v>
+        <v>50.8127</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.5999</v>
+        <v>48.257</v>
       </c>
       <c r="C5" t="n">
-        <v>56.4814</v>
+        <v>58.8648</v>
       </c>
       <c r="D5" t="n">
-        <v>59.1858</v>
+        <v>68.4918</v>
       </c>
       <c r="E5" t="n">
-        <v>71.4933</v>
+        <v>75.63160000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.455</v>
+        <v>49.2325</v>
       </c>
       <c r="C6" t="n">
-        <v>48.4721</v>
+        <v>46.8537</v>
       </c>
       <c r="D6" t="n">
-        <v>52.6929</v>
+        <v>53.3291</v>
       </c>
       <c r="E6" t="n">
-        <v>70.9247</v>
+        <v>61.5197</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.7067</v>
+        <v>46.6721</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7593</v>
+        <v>42.8972</v>
       </c>
       <c r="D7" t="n">
-        <v>52.1856</v>
+        <v>50.4639</v>
       </c>
       <c r="E7" t="n">
-        <v>54.3879</v>
+        <v>54.1113</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41.9648</v>
+        <v>44.4678</v>
       </c>
       <c r="C8" t="n">
-        <v>40.9132</v>
+        <v>37.3898</v>
       </c>
       <c r="D8" t="n">
-        <v>52.8452</v>
+        <v>55.3045</v>
       </c>
       <c r="E8" t="n">
-        <v>55.4938</v>
+        <v>53.0807</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>49.6307</v>
+        <v>42.4868</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0828</v>
+        <v>37.5447</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0314</v>
+        <v>49.0351</v>
       </c>
       <c r="E9" t="n">
-        <v>58.3486</v>
+        <v>54.9296</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.6674</v>
+        <v>43.4279</v>
       </c>
       <c r="C10" t="n">
-        <v>37.2117</v>
+        <v>38.5565</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0105</v>
+        <v>46.1818</v>
       </c>
       <c r="E10" t="n">
-        <v>58.2064</v>
+        <v>54.9125</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.0362</v>
+        <v>48.6615</v>
       </c>
       <c r="C11" t="n">
-        <v>39.393</v>
+        <v>41.9107</v>
       </c>
       <c r="D11" t="n">
-        <v>52.8612</v>
+        <v>52.0222</v>
       </c>
       <c r="E11" t="n">
-        <v>57.766</v>
+        <v>58.4399</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.6564</v>
+        <v>44.994</v>
       </c>
       <c r="C12" t="n">
-        <v>39.3167</v>
+        <v>36.1775</v>
       </c>
       <c r="D12" t="n">
-        <v>48.7456</v>
+        <v>50.4099</v>
       </c>
       <c r="E12" t="n">
-        <v>57.3791</v>
+        <v>53.6114</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>38.8672</v>
+        <v>40.2014</v>
       </c>
       <c r="C13" t="n">
-        <v>38.1896</v>
+        <v>40.6953</v>
       </c>
       <c r="D13" t="n">
-        <v>49.4262</v>
+        <v>49.0271</v>
       </c>
       <c r="E13" t="n">
-        <v>55.2264</v>
+        <v>53.1457</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>39.2799</v>
+        <v>42.6624</v>
       </c>
       <c r="C14" t="n">
-        <v>40.1025</v>
+        <v>44.0461</v>
       </c>
       <c r="D14" t="n">
-        <v>45.9766</v>
+        <v>52.44</v>
       </c>
       <c r="E14" t="n">
-        <v>56.1428</v>
+        <v>57.2675</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>39.5769</v>
+        <v>37.9651</v>
       </c>
       <c r="C15" t="n">
-        <v>37.1523</v>
+        <v>39.2815</v>
       </c>
       <c r="D15" t="n">
-        <v>49.9833</v>
+        <v>50.5811</v>
       </c>
       <c r="E15" t="n">
-        <v>55.3914</v>
+        <v>55.1677</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.753</v>
+        <v>41.9246</v>
       </c>
       <c r="C16" t="n">
-        <v>40.9041</v>
+        <v>40.9766</v>
       </c>
       <c r="D16" t="n">
-        <v>50.89</v>
+        <v>53.0408</v>
       </c>
       <c r="E16" t="n">
-        <v>57.3959</v>
+        <v>60.1085</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.652</v>
+        <v>39.325</v>
       </c>
       <c r="C17" t="n">
-        <v>43.7609</v>
+        <v>38.3005</v>
       </c>
       <c r="D17" t="n">
-        <v>47.0373</v>
+        <v>45.0547</v>
       </c>
       <c r="E17" t="n">
-        <v>55.784</v>
+        <v>56.9751</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87097</v>
+        <v>8.88148</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8316</v>
+        <v>16.8336</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7258</v>
+        <v>18.9296</v>
       </c>
       <c r="E2" t="n">
-        <v>33.8316</v>
+        <v>27.9055</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7854</v>
+        <v>16.7853</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4965</v>
+        <v>30.4703</v>
       </c>
       <c r="D3" t="n">
-        <v>39.5132</v>
+        <v>35.0204</v>
       </c>
       <c r="E3" t="n">
-        <v>60.6714</v>
+        <v>50.8707</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8218</v>
+        <v>23.868</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9846</v>
+        <v>41.9955</v>
       </c>
       <c r="D4" t="n">
-        <v>54.1352</v>
+        <v>48.4444</v>
       </c>
       <c r="E4" t="n">
-        <v>80.7323</v>
+        <v>69.69840000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1244</v>
+        <v>31.1481</v>
       </c>
       <c r="C5" t="n">
-        <v>53.3719</v>
+        <v>53.4617</v>
       </c>
       <c r="D5" t="n">
-        <v>69.0155</v>
+        <v>62.82</v>
       </c>
       <c r="E5" t="n">
-        <v>100.973</v>
+        <v>88.7756</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3924</v>
+        <v>33.5031</v>
       </c>
       <c r="C6" t="n">
-        <v>44.9807</v>
+        <v>45.166</v>
       </c>
       <c r="D6" t="n">
-        <v>60.9299</v>
+        <v>55.4081</v>
       </c>
       <c r="E6" t="n">
-        <v>88.4666</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0486</v>
+        <v>36.0548</v>
       </c>
       <c r="C7" t="n">
-        <v>45.636</v>
+        <v>45.6467</v>
       </c>
       <c r="D7" t="n">
-        <v>54.6605</v>
+        <v>49.9729</v>
       </c>
       <c r="E7" t="n">
-        <v>83.8807</v>
+        <v>77.16</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5513</v>
+        <v>38.5674</v>
       </c>
       <c r="C8" t="n">
-        <v>45.8146</v>
+        <v>45.8655</v>
       </c>
       <c r="D8" t="n">
-        <v>54.6411</v>
+        <v>51.2016</v>
       </c>
       <c r="E8" t="n">
-        <v>83.56189999999999</v>
+        <v>78.2289</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.6327</v>
+        <v>40.6326</v>
       </c>
       <c r="C9" t="n">
-        <v>45.8622</v>
+        <v>45.8484</v>
       </c>
       <c r="D9" t="n">
-        <v>53.7401</v>
+        <v>51.5299</v>
       </c>
       <c r="E9" t="n">
-        <v>84.6506</v>
+        <v>80.3974</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4152</v>
+        <v>40.4644</v>
       </c>
       <c r="C10" t="n">
-        <v>50.7854</v>
+        <v>50.7831</v>
       </c>
       <c r="D10" t="n">
-        <v>54.7282</v>
+        <v>53.1768</v>
       </c>
       <c r="E10" t="n">
-        <v>83.4559</v>
+        <v>79.22499999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.6558</v>
+        <v>40.836</v>
       </c>
       <c r="C11" t="n">
-        <v>53.4924</v>
+        <v>54.4187</v>
       </c>
       <c r="D11" t="n">
-        <v>54.9683</v>
+        <v>51.7975</v>
       </c>
       <c r="E11" t="n">
-        <v>83.23009999999999</v>
+        <v>78.13509999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.712</v>
+        <v>40.8399</v>
       </c>
       <c r="C12" t="n">
-        <v>54.7207</v>
+        <v>55.28</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2479</v>
+        <v>53.5104</v>
       </c>
       <c r="E12" t="n">
-        <v>81.14230000000001</v>
+        <v>78.21939999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.8502</v>
+        <v>40.8545</v>
       </c>
       <c r="C13" t="n">
-        <v>55.7909</v>
+        <v>55.7829</v>
       </c>
       <c r="D13" t="n">
-        <v>54.8425</v>
+        <v>52.6298</v>
       </c>
       <c r="E13" t="n">
-        <v>81.5874</v>
+        <v>78.2345</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.9422</v>
+        <v>40.913</v>
       </c>
       <c r="C14" t="n">
-        <v>55.8615</v>
+        <v>55.3419</v>
       </c>
       <c r="D14" t="n">
-        <v>53.7796</v>
+        <v>50.6624</v>
       </c>
       <c r="E14" t="n">
-        <v>79.0968</v>
+        <v>75.82389999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.7786</v>
+        <v>40.8625</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2887</v>
+        <v>55.9821</v>
       </c>
       <c r="D15" t="n">
-        <v>51.1616</v>
+        <v>48.3296</v>
       </c>
       <c r="E15" t="n">
-        <v>78.3374</v>
+        <v>74.3121</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7914</v>
+        <v>40.864</v>
       </c>
       <c r="C16" t="n">
-        <v>56.6458</v>
+        <v>56.6818</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2557</v>
+        <v>49.2885</v>
       </c>
       <c r="E16" t="n">
-        <v>76.3793</v>
+        <v>76.4289</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.9524</v>
+        <v>40.8336</v>
       </c>
       <c r="C17" t="n">
-        <v>56.3427</v>
+        <v>56.7269</v>
       </c>
       <c r="D17" t="n">
-        <v>50.1589</v>
+        <v>46.9255</v>
       </c>
       <c r="E17" t="n">
-        <v>73.67959999999999</v>
+        <v>74.3764</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.890140000000001</v>
+        <v>8.889099999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9799</v>
+        <v>16.9638</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3776</v>
+        <v>18.9984</v>
       </c>
       <c r="E2" t="n">
-        <v>33.6795</v>
+        <v>28.5152</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.863</v>
+        <v>16.8954</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7583</v>
+        <v>30.6827</v>
       </c>
       <c r="D3" t="n">
-        <v>39.2348</v>
+        <v>34.913</v>
       </c>
       <c r="E3" t="n">
-        <v>60.4364</v>
+        <v>51.5615</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0475</v>
+        <v>24.0556</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4725</v>
+        <v>42.4559</v>
       </c>
       <c r="D4" t="n">
-        <v>53.6421</v>
+        <v>48.6785</v>
       </c>
       <c r="E4" t="n">
-        <v>80.7286</v>
+        <v>71.0806</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4747</v>
+        <v>31.4886</v>
       </c>
       <c r="C5" t="n">
-        <v>54.1533</v>
+        <v>54.0716</v>
       </c>
       <c r="D5" t="n">
-        <v>68.5351</v>
+        <v>63.1123</v>
       </c>
       <c r="E5" t="n">
-        <v>99.78060000000001</v>
+        <v>90.5513</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7873</v>
+        <v>33.8637</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7889</v>
+        <v>45.922</v>
       </c>
       <c r="D6" t="n">
-        <v>60.0495</v>
+        <v>55.6392</v>
       </c>
       <c r="E6" t="n">
-        <v>87.31950000000001</v>
+        <v>81.2265</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5475</v>
+        <v>36.63</v>
       </c>
       <c r="C7" t="n">
-        <v>46.1539</v>
+        <v>46.3048</v>
       </c>
       <c r="D7" t="n">
-        <v>53.0548</v>
+        <v>49.7439</v>
       </c>
       <c r="E7" t="n">
-        <v>82.84529999999999</v>
+        <v>78.3265</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.998</v>
+        <v>39.1716</v>
       </c>
       <c r="C8" t="n">
-        <v>46.6339</v>
+        <v>46.5696</v>
       </c>
       <c r="D8" t="n">
-        <v>53.6243</v>
+        <v>49.795</v>
       </c>
       <c r="E8" t="n">
-        <v>82.571</v>
+        <v>79.0693</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.2545</v>
+        <v>41.2154</v>
       </c>
       <c r="C9" t="n">
-        <v>46.2702</v>
+        <v>46.4392</v>
       </c>
       <c r="D9" t="n">
-        <v>52.1629</v>
+        <v>49.9518</v>
       </c>
       <c r="E9" t="n">
-        <v>82.4442</v>
+        <v>79.5823</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2415</v>
+        <v>41.2771</v>
       </c>
       <c r="C10" t="n">
-        <v>51.4053</v>
+        <v>50.9189</v>
       </c>
       <c r="D10" t="n">
-        <v>54.1425</v>
+        <v>51.9934</v>
       </c>
       <c r="E10" t="n">
-        <v>81.9689</v>
+        <v>80.49469999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.4835</v>
+        <v>41.307</v>
       </c>
       <c r="C11" t="n">
-        <v>55.983</v>
+        <v>54.8238</v>
       </c>
       <c r="D11" t="n">
-        <v>53.5378</v>
+        <v>51.4751</v>
       </c>
       <c r="E11" t="n">
-        <v>80.1855</v>
+        <v>78.64019999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.4872</v>
+        <v>41.4883</v>
       </c>
       <c r="C12" t="n">
-        <v>55.7569</v>
+        <v>55.7971</v>
       </c>
       <c r="D12" t="n">
-        <v>54.1697</v>
+        <v>50.6079</v>
       </c>
       <c r="E12" t="n">
-        <v>80.26009999999999</v>
+        <v>77.7877</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.388</v>
+        <v>41.2841</v>
       </c>
       <c r="C13" t="n">
-        <v>56.6071</v>
+        <v>56.3928</v>
       </c>
       <c r="D13" t="n">
-        <v>52.4231</v>
+        <v>50.5443</v>
       </c>
       <c r="E13" t="n">
-        <v>78.07510000000001</v>
+        <v>77.282</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.5425</v>
+        <v>41.5162</v>
       </c>
       <c r="C14" t="n">
-        <v>57.0218</v>
+        <v>56.565</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6592</v>
+        <v>49.3495</v>
       </c>
       <c r="E14" t="n">
-        <v>77.7924</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.5262</v>
+        <v>41.5838</v>
       </c>
       <c r="C15" t="n">
-        <v>56.9618</v>
+        <v>56.8741</v>
       </c>
       <c r="D15" t="n">
-        <v>49.8857</v>
+        <v>48.1019</v>
       </c>
       <c r="E15" t="n">
-        <v>77.3232</v>
+        <v>73.658</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.5937</v>
+        <v>41.563</v>
       </c>
       <c r="C16" t="n">
-        <v>57.3001</v>
+        <v>56.5909</v>
       </c>
       <c r="D16" t="n">
-        <v>49.2293</v>
+        <v>46.6644</v>
       </c>
       <c r="E16" t="n">
-        <v>74.3702</v>
+        <v>74.2102</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4864</v>
+        <v>41.6476</v>
       </c>
       <c r="C17" t="n">
-        <v>57.0819</v>
+        <v>57.4716</v>
       </c>
       <c r="D17" t="n">
-        <v>48.6567</v>
+        <v>46.5336</v>
       </c>
       <c r="E17" t="n">
-        <v>73.34820000000001</v>
+        <v>73.9485</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8774</v>
+        <v>13.9057</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6463</v>
+        <v>21.65</v>
       </c>
       <c r="D2" t="n">
-        <v>28.3471</v>
+        <v>26.9777</v>
       </c>
       <c r="E2" t="n">
-        <v>37.7349</v>
+        <v>35.2908</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6286</v>
+        <v>26.6907</v>
       </c>
       <c r="C3" t="n">
-        <v>39.1142</v>
+        <v>39.0161</v>
       </c>
       <c r="D3" t="n">
-        <v>52.5696</v>
+        <v>49.6343</v>
       </c>
       <c r="E3" t="n">
-        <v>67.2796</v>
+        <v>62.9417</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.084</v>
+        <v>38.0385</v>
       </c>
       <c r="C4" t="n">
-        <v>54.3222</v>
+        <v>54.5071</v>
       </c>
       <c r="D4" t="n">
-        <v>72.79430000000001</v>
+        <v>69.2792</v>
       </c>
       <c r="E4" t="n">
-        <v>91.54179999999999</v>
+        <v>86.78830000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.2087</v>
+        <v>49.2572</v>
       </c>
       <c r="C5" t="n">
-        <v>70.08929999999999</v>
+        <v>69.87309999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>93.8235</v>
+        <v>89.2539</v>
       </c>
       <c r="E5" t="n">
-        <v>114.993</v>
+        <v>110.43</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.095</v>
+        <v>48.2415</v>
       </c>
       <c r="C6" t="n">
-        <v>56.0623</v>
+        <v>56.274</v>
       </c>
       <c r="D6" t="n">
-        <v>74.9023</v>
+        <v>72.2736</v>
       </c>
       <c r="E6" t="n">
-        <v>93.3725</v>
+        <v>91.62050000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.8276</v>
+        <v>49.5767</v>
       </c>
       <c r="C7" t="n">
-        <v>54.1549</v>
+        <v>54.0191</v>
       </c>
       <c r="D7" t="n">
-        <v>63.1789</v>
+        <v>61.3182</v>
       </c>
       <c r="E7" t="n">
-        <v>87.6199</v>
+        <v>84.72499999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.7194</v>
+        <v>51.3403</v>
       </c>
       <c r="C8" t="n">
-        <v>53.1802</v>
+        <v>53.1094</v>
       </c>
       <c r="D8" t="n">
-        <v>60.7212</v>
+        <v>59.6293</v>
       </c>
       <c r="E8" t="n">
-        <v>84.5766</v>
+        <v>82.76479999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.2883</v>
+        <v>53.223</v>
       </c>
       <c r="C9" t="n">
-        <v>51.3783</v>
+        <v>51.5424</v>
       </c>
       <c r="D9" t="n">
-        <v>55.5754</v>
+        <v>55.766</v>
       </c>
       <c r="E9" t="n">
-        <v>84.6122</v>
+        <v>83.8539</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.9154</v>
+        <v>52.875</v>
       </c>
       <c r="C10" t="n">
-        <v>55.8589</v>
+        <v>55.7425</v>
       </c>
       <c r="D10" t="n">
-        <v>58.2908</v>
+        <v>56.8329</v>
       </c>
       <c r="E10" t="n">
-        <v>83.5643</v>
+        <v>81.995</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.8261</v>
+        <v>52.8875</v>
       </c>
       <c r="C11" t="n">
-        <v>58.2729</v>
+        <v>58.1122</v>
       </c>
       <c r="D11" t="n">
-        <v>58.9924</v>
+        <v>58.1226</v>
       </c>
       <c r="E11" t="n">
-        <v>84.1052</v>
+        <v>83.2633</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.865</v>
+        <v>52.8645</v>
       </c>
       <c r="C12" t="n">
-        <v>58.3514</v>
+        <v>58.9009</v>
       </c>
       <c r="D12" t="n">
-        <v>61.6356</v>
+        <v>59.6148</v>
       </c>
       <c r="E12" t="n">
-        <v>84.7719</v>
+        <v>83.6996</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.119</v>
+        <v>53.0579</v>
       </c>
       <c r="C13" t="n">
-        <v>58.8817</v>
+        <v>59.0453</v>
       </c>
       <c r="D13" t="n">
-        <v>61.9232</v>
+        <v>61.1844</v>
       </c>
       <c r="E13" t="n">
-        <v>86.8224</v>
+        <v>85.2199</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>53.1132</v>
+        <v>52.8332</v>
       </c>
       <c r="C14" t="n">
-        <v>59.0364</v>
+        <v>58.9487</v>
       </c>
       <c r="D14" t="n">
-        <v>63.7508</v>
+        <v>62.617</v>
       </c>
       <c r="E14" t="n">
-        <v>86.61669999999999</v>
+        <v>86.83880000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.0583</v>
+        <v>52.7136</v>
       </c>
       <c r="C15" t="n">
-        <v>59.2987</v>
+        <v>59.2323</v>
       </c>
       <c r="D15" t="n">
-        <v>64.34399999999999</v>
+        <v>62.3667</v>
       </c>
       <c r="E15" t="n">
-        <v>87.6078</v>
+        <v>87.1418</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>53.4253</v>
+        <v>52.906</v>
       </c>
       <c r="C16" t="n">
-        <v>59.1826</v>
+        <v>59.3082</v>
       </c>
       <c r="D16" t="n">
-        <v>64.89879999999999</v>
+        <v>63.4492</v>
       </c>
       <c r="E16" t="n">
-        <v>88.4033</v>
+        <v>87.94540000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.9934</v>
+        <v>52.4861</v>
       </c>
       <c r="C17" t="n">
-        <v>59.3232</v>
+        <v>59.2803</v>
       </c>
       <c r="D17" t="n">
-        <v>62.662</v>
+        <v>61.4638</v>
       </c>
       <c r="E17" t="n">
-        <v>86.2821</v>
+        <v>84.6566</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1904</v>
+        <v>14.4236</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6772</v>
+        <v>18.674</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1396</v>
+        <v>24.4775</v>
       </c>
       <c r="E2" t="n">
-        <v>27.9155</v>
+        <v>31.3259</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4165</v>
+        <v>26.8055</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4957</v>
+        <v>28.9689</v>
       </c>
       <c r="D3" t="n">
-        <v>29.4183</v>
+        <v>37.1988</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4683</v>
+        <v>53.9918</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.5926</v>
+        <v>32.1757</v>
       </c>
       <c r="C4" t="n">
-        <v>37.3176</v>
+        <v>32.36</v>
       </c>
       <c r="D4" t="n">
-        <v>40.2496</v>
+        <v>48.729</v>
       </c>
       <c r="E4" t="n">
-        <v>62.7376</v>
+        <v>64.28789999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.4334</v>
+        <v>39.3916</v>
       </c>
       <c r="C5" t="n">
-        <v>50.6298</v>
+        <v>46.1924</v>
       </c>
       <c r="D5" t="n">
-        <v>49.891</v>
+        <v>61.3014</v>
       </c>
       <c r="E5" t="n">
-        <v>56.5877</v>
+        <v>74.9954</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>41.3592</v>
+        <v>42.0556</v>
       </c>
       <c r="C6" t="n">
-        <v>45.0365</v>
+        <v>43.1189</v>
       </c>
       <c r="D6" t="n">
-        <v>41.7045</v>
+        <v>49.0247</v>
       </c>
       <c r="E6" t="n">
-        <v>58.5929</v>
+        <v>57.3346</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.3779</v>
+        <v>35.5755</v>
       </c>
       <c r="C7" t="n">
-        <v>47.9491</v>
+        <v>42.1194</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0631</v>
+        <v>54.458</v>
       </c>
       <c r="E7" t="n">
-        <v>55.5407</v>
+        <v>57.749</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.3895</v>
+        <v>43.3637</v>
       </c>
       <c r="C8" t="n">
-        <v>44.7327</v>
+        <v>41.4744</v>
       </c>
       <c r="D8" t="n">
-        <v>36.61</v>
+        <v>45.2742</v>
       </c>
       <c r="E8" t="n">
-        <v>54.6337</v>
+        <v>59.2759</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.0764</v>
+        <v>44.4562</v>
       </c>
       <c r="C9" t="n">
-        <v>44.3279</v>
+        <v>45.2218</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2295</v>
+        <v>48.4726</v>
       </c>
       <c r="E9" t="n">
-        <v>55.4016</v>
+        <v>60.5537</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4001</v>
+        <v>43.7638</v>
       </c>
       <c r="C10" t="n">
-        <v>44.8696</v>
+        <v>42.9379</v>
       </c>
       <c r="D10" t="n">
-        <v>39.0085</v>
+        <v>51.8614</v>
       </c>
       <c r="E10" t="n">
-        <v>48.6618</v>
+        <v>65.1322</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.2238</v>
+        <v>45.3271</v>
       </c>
       <c r="C11" t="n">
-        <v>46.8089</v>
+        <v>44.9907</v>
       </c>
       <c r="D11" t="n">
-        <v>36.3022</v>
+        <v>52.288</v>
       </c>
       <c r="E11" t="n">
-        <v>55.4957</v>
+        <v>63.4503</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.7491</v>
+        <v>42.2748</v>
       </c>
       <c r="C12" t="n">
-        <v>41.4993</v>
+        <v>45.4969</v>
       </c>
       <c r="D12" t="n">
-        <v>39.869</v>
+        <v>47.6545</v>
       </c>
       <c r="E12" t="n">
-        <v>56.9862</v>
+        <v>63.4049</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>47.2312</v>
+        <v>45.0237</v>
       </c>
       <c r="C13" t="n">
-        <v>47.049</v>
+        <v>43.8131</v>
       </c>
       <c r="D13" t="n">
-        <v>39.2099</v>
+        <v>46.8307</v>
       </c>
       <c r="E13" t="n">
-        <v>54.241</v>
+        <v>62.5307</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.5145</v>
+        <v>41.7943</v>
       </c>
       <c r="C14" t="n">
-        <v>42.4215</v>
+        <v>49.7538</v>
       </c>
       <c r="D14" t="n">
-        <v>41.6491</v>
+        <v>52.6553</v>
       </c>
       <c r="E14" t="n">
-        <v>54.8686</v>
+        <v>65.9658</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.0202</v>
+        <v>40.9348</v>
       </c>
       <c r="C15" t="n">
-        <v>43.5184</v>
+        <v>44.2612</v>
       </c>
       <c r="D15" t="n">
-        <v>40.3172</v>
+        <v>51.639</v>
       </c>
       <c r="E15" t="n">
-        <v>50.9679</v>
+        <v>65.8623</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.4909</v>
+        <v>42.3816</v>
       </c>
       <c r="C16" t="n">
-        <v>51.6373</v>
+        <v>49.2284</v>
       </c>
       <c r="D16" t="n">
-        <v>47.6695</v>
+        <v>48.0889</v>
       </c>
       <c r="E16" t="n">
-        <v>54.4162</v>
+        <v>66.1592</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.6826</v>
+        <v>44.3223</v>
       </c>
       <c r="C17" t="n">
-        <v>46.5838</v>
+        <v>48.4886</v>
       </c>
       <c r="D17" t="n">
-        <v>38.7783</v>
+        <v>45.1839</v>
       </c>
       <c r="E17" t="n">
-        <v>50.8634</v>
+        <v>68.6721</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8289</v>
+        <v>15.0047</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4665</v>
+        <v>18.3761</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1836</v>
+        <v>24.4468</v>
       </c>
       <c r="E2" t="n">
-        <v>28.2642</v>
+        <v>33.1185</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8888</v>
+        <v>27.8314</v>
       </c>
       <c r="C3" t="n">
-        <v>31.8245</v>
+        <v>30.056</v>
       </c>
       <c r="D3" t="n">
-        <v>32.3259</v>
+        <v>33.6059</v>
       </c>
       <c r="E3" t="n">
-        <v>45.2196</v>
+        <v>47.356</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.0403</v>
+        <v>30.0401</v>
       </c>
       <c r="C4" t="n">
-        <v>34.2413</v>
+        <v>34.116</v>
       </c>
       <c r="D4" t="n">
-        <v>43.3493</v>
+        <v>48.2448</v>
       </c>
       <c r="E4" t="n">
-        <v>56.2604</v>
+        <v>66.9175</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>44.8311</v>
+        <v>43.5456</v>
       </c>
       <c r="C5" t="n">
-        <v>44.6795</v>
+        <v>49.6276</v>
       </c>
       <c r="D5" t="n">
-        <v>52.4238</v>
+        <v>59.4466</v>
       </c>
       <c r="E5" t="n">
-        <v>63.3885</v>
+        <v>81.3078</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.7597</v>
+        <v>39.7444</v>
       </c>
       <c r="C6" t="n">
-        <v>44.034</v>
+        <v>49.0925</v>
       </c>
       <c r="D6" t="n">
-        <v>47.2968</v>
+        <v>46.9365</v>
       </c>
       <c r="E6" t="n">
-        <v>57.062</v>
+        <v>60.4792</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.9531</v>
+        <v>38.4992</v>
       </c>
       <c r="C7" t="n">
-        <v>51.4618</v>
+        <v>40.0016</v>
       </c>
       <c r="D7" t="n">
-        <v>36.2961</v>
+        <v>49.2649</v>
       </c>
       <c r="E7" t="n">
-        <v>55.7871</v>
+        <v>62.6058</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.8447</v>
+        <v>42.9535</v>
       </c>
       <c r="C8" t="n">
-        <v>43.5586</v>
+        <v>39.3476</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2533</v>
+        <v>51.3922</v>
       </c>
       <c r="E8" t="n">
-        <v>55.9375</v>
+        <v>66.5158</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.3329</v>
+        <v>42.7937</v>
       </c>
       <c r="C9" t="n">
-        <v>39.3299</v>
+        <v>42.693</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9556</v>
+        <v>49.5924</v>
       </c>
       <c r="E9" t="n">
-        <v>50.7975</v>
+        <v>58.77</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.7647</v>
+        <v>47.504</v>
       </c>
       <c r="C10" t="n">
-        <v>45.2209</v>
+        <v>45.9694</v>
       </c>
       <c r="D10" t="n">
-        <v>40.3642</v>
+        <v>48.9778</v>
       </c>
       <c r="E10" t="n">
-        <v>53.4374</v>
+        <v>67.4345</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.9813</v>
+        <v>43.413</v>
       </c>
       <c r="C11" t="n">
-        <v>47.3764</v>
+        <v>43.4849</v>
       </c>
       <c r="D11" t="n">
-        <v>38.2255</v>
+        <v>52.3572</v>
       </c>
       <c r="E11" t="n">
-        <v>53.7907</v>
+        <v>66.5077</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.4</v>
+        <v>45.0539</v>
       </c>
       <c r="C12" t="n">
-        <v>47.1237</v>
+        <v>45.8171</v>
       </c>
       <c r="D12" t="n">
-        <v>44.4557</v>
+        <v>51.5954</v>
       </c>
       <c r="E12" t="n">
-        <v>57.8195</v>
+        <v>65.81789999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.9363</v>
+        <v>42.7521</v>
       </c>
       <c r="C13" t="n">
-        <v>52.7265</v>
+        <v>45.2055</v>
       </c>
       <c r="D13" t="n">
-        <v>39.0614</v>
+        <v>55.7189</v>
       </c>
       <c r="E13" t="n">
-        <v>56.2269</v>
+        <v>71.53830000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.42</v>
+        <v>44.9748</v>
       </c>
       <c r="C14" t="n">
-        <v>47.215</v>
+        <v>47.1464</v>
       </c>
       <c r="D14" t="n">
-        <v>41.9837</v>
+        <v>48.5124</v>
       </c>
       <c r="E14" t="n">
-        <v>49.6064</v>
+        <v>80.39060000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>47.2225</v>
+        <v>46.2687</v>
       </c>
       <c r="C15" t="n">
-        <v>49.9585</v>
+        <v>47.2061</v>
       </c>
       <c r="D15" t="n">
-        <v>47.3431</v>
+        <v>49.9577</v>
       </c>
       <c r="E15" t="n">
-        <v>54.5967</v>
+        <v>62.2885</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.0447</v>
+        <v>46.6067</v>
       </c>
       <c r="C16" t="n">
-        <v>47.0062</v>
+        <v>50.3588</v>
       </c>
       <c r="D16" t="n">
-        <v>35.2691</v>
+        <v>56.8603</v>
       </c>
       <c r="E16" t="n">
-        <v>52.8898</v>
+        <v>59.8339</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.3687</v>
+        <v>39.7594</v>
       </c>
       <c r="C17" t="n">
-        <v>50.6008</v>
+        <v>42.9998</v>
       </c>
       <c r="D17" t="n">
-        <v>40.5529</v>
+        <v>53.2626</v>
       </c>
       <c r="E17" t="n">
-        <v>56.0922</v>
+        <v>76.21080000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2724</v>
+        <v>18.3289</v>
       </c>
       <c r="C2" t="n">
-        <v>21.59</v>
+        <v>21.6453</v>
       </c>
       <c r="D2" t="n">
-        <v>25.8312</v>
+        <v>26.9466</v>
       </c>
       <c r="E2" t="n">
-        <v>32.4847</v>
+        <v>29.3039</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29.2587</v>
+        <v>30.744</v>
       </c>
       <c r="C3" t="n">
-        <v>28.8296</v>
+        <v>30.7223</v>
       </c>
       <c r="D3" t="n">
-        <v>37.665</v>
+        <v>40.0793</v>
       </c>
       <c r="E3" t="n">
-        <v>50.3998</v>
+        <v>55.6206</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.9881</v>
+        <v>31.7607</v>
       </c>
       <c r="C4" t="n">
-        <v>41.14</v>
+        <v>47.9544</v>
       </c>
       <c r="D4" t="n">
-        <v>48.4092</v>
+        <v>60.1235</v>
       </c>
       <c r="E4" t="n">
-        <v>50.8127</v>
+        <v>59.2232</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48.257</v>
+        <v>44.3881</v>
       </c>
       <c r="C5" t="n">
-        <v>58.8648</v>
+        <v>55.1613</v>
       </c>
       <c r="D5" t="n">
-        <v>68.4918</v>
+        <v>71.69110000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>75.63160000000001</v>
+        <v>78.36060000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.2325</v>
+        <v>35.8848</v>
       </c>
       <c r="C6" t="n">
-        <v>46.8537</v>
+        <v>49.2436</v>
       </c>
       <c r="D6" t="n">
-        <v>53.3291</v>
+        <v>54.5521</v>
       </c>
       <c r="E6" t="n">
-        <v>61.5197</v>
+        <v>64.337</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>46.6721</v>
+        <v>42.3098</v>
       </c>
       <c r="C7" t="n">
-        <v>42.8972</v>
+        <v>45.9529</v>
       </c>
       <c r="D7" t="n">
-        <v>50.4639</v>
+        <v>52.4856</v>
       </c>
       <c r="E7" t="n">
-        <v>54.1113</v>
+        <v>63.9474</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.4678</v>
+        <v>36.5797</v>
       </c>
       <c r="C8" t="n">
-        <v>37.3898</v>
+        <v>43.3715</v>
       </c>
       <c r="D8" t="n">
-        <v>55.3045</v>
+        <v>50.0674</v>
       </c>
       <c r="E8" t="n">
-        <v>53.0807</v>
+        <v>58.7871</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.4868</v>
+        <v>34.4703</v>
       </c>
       <c r="C9" t="n">
-        <v>37.5447</v>
+        <v>41.384</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0351</v>
+        <v>56.812</v>
       </c>
       <c r="E9" t="n">
-        <v>54.9296</v>
+        <v>59.9575</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.4279</v>
+        <v>41.1973</v>
       </c>
       <c r="C10" t="n">
-        <v>38.5565</v>
+        <v>43.1188</v>
       </c>
       <c r="D10" t="n">
-        <v>46.1818</v>
+        <v>49.9602</v>
       </c>
       <c r="E10" t="n">
-        <v>54.9125</v>
+        <v>57.8958</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>48.6615</v>
+        <v>45.7915</v>
       </c>
       <c r="C11" t="n">
-        <v>41.9107</v>
+        <v>41.8209</v>
       </c>
       <c r="D11" t="n">
-        <v>52.0222</v>
+        <v>58.4751</v>
       </c>
       <c r="E11" t="n">
-        <v>58.4399</v>
+        <v>62.1407</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.994</v>
+        <v>45.1856</v>
       </c>
       <c r="C12" t="n">
-        <v>36.1775</v>
+        <v>40.9418</v>
       </c>
       <c r="D12" t="n">
-        <v>50.4099</v>
+        <v>53.7485</v>
       </c>
       <c r="E12" t="n">
-        <v>53.6114</v>
+        <v>75.75409999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.2014</v>
+        <v>48.4518</v>
       </c>
       <c r="C13" t="n">
-        <v>40.6953</v>
+        <v>38.7219</v>
       </c>
       <c r="D13" t="n">
-        <v>49.0271</v>
+        <v>54.4972</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1457</v>
+        <v>89.2891</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.6624</v>
+        <v>41.0823</v>
       </c>
       <c r="C14" t="n">
-        <v>44.0461</v>
+        <v>38.873</v>
       </c>
       <c r="D14" t="n">
-        <v>52.44</v>
+        <v>55.8141</v>
       </c>
       <c r="E14" t="n">
-        <v>57.2675</v>
+        <v>90.7548</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>37.9651</v>
+        <v>40.1151</v>
       </c>
       <c r="C15" t="n">
-        <v>39.2815</v>
+        <v>38.8252</v>
       </c>
       <c r="D15" t="n">
-        <v>50.5811</v>
+        <v>56.6792</v>
       </c>
       <c r="E15" t="n">
-        <v>55.1677</v>
+        <v>82.3627</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.9246</v>
+        <v>40.3658</v>
       </c>
       <c r="C16" t="n">
-        <v>40.9766</v>
+        <v>40.4943</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0408</v>
+        <v>57.4876</v>
       </c>
       <c r="E16" t="n">
-        <v>60.1085</v>
+        <v>69.4961</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.325</v>
+        <v>41.9894</v>
       </c>
       <c r="C17" t="n">
-        <v>38.3005</v>
+        <v>39.8504</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0547</v>
+        <v>58.3467</v>
       </c>
       <c r="E17" t="n">
-        <v>56.9751</v>
+        <v>63.0771</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.88148</v>
+        <v>8.86077</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8336</v>
+        <v>16.7565</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9296</v>
+        <v>21.6802</v>
       </c>
       <c r="E2" t="n">
-        <v>27.9055</v>
+        <v>33.3712</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7853</v>
+        <v>16.7521</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4703</v>
+        <v>30.3035</v>
       </c>
       <c r="D3" t="n">
-        <v>35.0204</v>
+        <v>41.0245</v>
       </c>
       <c r="E3" t="n">
-        <v>50.8707</v>
+        <v>62.2135</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.868</v>
+        <v>23.8345</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9955</v>
+        <v>41.8583</v>
       </c>
       <c r="D4" t="n">
-        <v>48.4444</v>
+        <v>57.7468</v>
       </c>
       <c r="E4" t="n">
-        <v>69.69840000000001</v>
+        <v>86.178</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1481</v>
+        <v>31.0287</v>
       </c>
       <c r="C5" t="n">
-        <v>53.4617</v>
+        <v>53.1961</v>
       </c>
       <c r="D5" t="n">
-        <v>62.82</v>
+        <v>74.98609999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>88.7756</v>
+        <v>110.633</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.5031</v>
+        <v>33.3471</v>
       </c>
       <c r="C6" t="n">
-        <v>45.166</v>
+        <v>45.5948</v>
       </c>
       <c r="D6" t="n">
-        <v>55.4081</v>
+        <v>65.5522</v>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>97.1939</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0548</v>
+        <v>35.9096</v>
       </c>
       <c r="C7" t="n">
-        <v>45.6467</v>
+        <v>45.9625</v>
       </c>
       <c r="D7" t="n">
-        <v>49.9729</v>
+        <v>63.9354</v>
       </c>
       <c r="E7" t="n">
-        <v>77.16</v>
+        <v>95.28959999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5674</v>
+        <v>38.3606</v>
       </c>
       <c r="C8" t="n">
-        <v>45.8655</v>
+        <v>46.4908</v>
       </c>
       <c r="D8" t="n">
-        <v>51.2016</v>
+        <v>56.7631</v>
       </c>
       <c r="E8" t="n">
-        <v>78.2289</v>
+        <v>94.2136</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.6326</v>
+        <v>40.1498</v>
       </c>
       <c r="C9" t="n">
-        <v>45.8484</v>
+        <v>46.6284</v>
       </c>
       <c r="D9" t="n">
-        <v>51.5299</v>
+        <v>61.5959</v>
       </c>
       <c r="E9" t="n">
-        <v>80.3974</v>
+        <v>94.8974</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4644</v>
+        <v>40.194</v>
       </c>
       <c r="C10" t="n">
-        <v>50.7831</v>
+        <v>51.1567</v>
       </c>
       <c r="D10" t="n">
-        <v>53.1768</v>
+        <v>61.8806</v>
       </c>
       <c r="E10" t="n">
-        <v>79.22499999999999</v>
+        <v>97.3951</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.836</v>
+        <v>40.5829</v>
       </c>
       <c r="C11" t="n">
-        <v>54.4187</v>
+        <v>53.7458</v>
       </c>
       <c r="D11" t="n">
-        <v>51.7975</v>
+        <v>64.80159999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>78.13509999999999</v>
+        <v>99.3398</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.8399</v>
+        <v>40.6255</v>
       </c>
       <c r="C12" t="n">
-        <v>55.28</v>
+        <v>55.2114</v>
       </c>
       <c r="D12" t="n">
-        <v>53.5104</v>
+        <v>65.937</v>
       </c>
       <c r="E12" t="n">
-        <v>78.21939999999999</v>
+        <v>100.417</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.8545</v>
+        <v>40.6431</v>
       </c>
       <c r="C13" t="n">
-        <v>55.7829</v>
+        <v>55.5201</v>
       </c>
       <c r="D13" t="n">
-        <v>52.6298</v>
+        <v>68.1564</v>
       </c>
       <c r="E13" t="n">
-        <v>78.2345</v>
+        <v>102.216</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.913</v>
+        <v>40.5824</v>
       </c>
       <c r="C14" t="n">
-        <v>55.3419</v>
+        <v>55.5393</v>
       </c>
       <c r="D14" t="n">
-        <v>50.6624</v>
+        <v>69.3818</v>
       </c>
       <c r="E14" t="n">
-        <v>75.82389999999999</v>
+        <v>101.821</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.8625</v>
+        <v>40.5593</v>
       </c>
       <c r="C15" t="n">
-        <v>55.9821</v>
+        <v>56.1261</v>
       </c>
       <c r="D15" t="n">
-        <v>48.3296</v>
+        <v>70.5719</v>
       </c>
       <c r="E15" t="n">
-        <v>74.3121</v>
+        <v>102.77</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.864</v>
+        <v>40.5677</v>
       </c>
       <c r="C16" t="n">
-        <v>56.6818</v>
+        <v>56.2404</v>
       </c>
       <c r="D16" t="n">
-        <v>49.2885</v>
+        <v>71.1831</v>
       </c>
       <c r="E16" t="n">
-        <v>76.4289</v>
+        <v>103.664</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.8336</v>
+        <v>40.7229</v>
       </c>
       <c r="C17" t="n">
-        <v>56.7269</v>
+        <v>56.2178</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9255</v>
+        <v>72.16670000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>74.3764</v>
+        <v>102.75</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.889099999999999</v>
+        <v>8.86741</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9638</v>
+        <v>16.9258</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9984</v>
+        <v>21.3558</v>
       </c>
       <c r="E2" t="n">
-        <v>28.5152</v>
+        <v>33.2958</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8954</v>
+        <v>16.8396</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6827</v>
+        <v>30.6528</v>
       </c>
       <c r="D3" t="n">
-        <v>34.913</v>
+        <v>40.4586</v>
       </c>
       <c r="E3" t="n">
-        <v>51.5615</v>
+        <v>62.2481</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0556</v>
+        <v>24.0311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4559</v>
+        <v>42.4563</v>
       </c>
       <c r="D4" t="n">
-        <v>48.6785</v>
+        <v>57.3153</v>
       </c>
       <c r="E4" t="n">
-        <v>71.0806</v>
+        <v>86.21550000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4886</v>
+        <v>31.44</v>
       </c>
       <c r="C5" t="n">
-        <v>54.0716</v>
+        <v>53.8113</v>
       </c>
       <c r="D5" t="n">
-        <v>63.1123</v>
+        <v>74.102</v>
       </c>
       <c r="E5" t="n">
-        <v>90.5513</v>
+        <v>110.102</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8637</v>
+        <v>33.8329</v>
       </c>
       <c r="C6" t="n">
-        <v>45.922</v>
+        <v>46.3951</v>
       </c>
       <c r="D6" t="n">
-        <v>55.6392</v>
+        <v>64.5684</v>
       </c>
       <c r="E6" t="n">
-        <v>81.2265</v>
+        <v>98.7311</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.63</v>
+        <v>36.4293</v>
       </c>
       <c r="C7" t="n">
-        <v>46.3048</v>
+        <v>46.6952</v>
       </c>
       <c r="D7" t="n">
-        <v>49.7439</v>
+        <v>62.8433</v>
       </c>
       <c r="E7" t="n">
-        <v>78.3265</v>
+        <v>95.2154</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.1716</v>
+        <v>38.912</v>
       </c>
       <c r="C8" t="n">
-        <v>46.5696</v>
+        <v>46.974</v>
       </c>
       <c r="D8" t="n">
-        <v>49.795</v>
+        <v>57.6055</v>
       </c>
       <c r="E8" t="n">
-        <v>79.0693</v>
+        <v>93.47239999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.2154</v>
+        <v>40.8404</v>
       </c>
       <c r="C9" t="n">
-        <v>46.4392</v>
+        <v>47.2144</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9518</v>
+        <v>60.0876</v>
       </c>
       <c r="E9" t="n">
-        <v>79.5823</v>
+        <v>96.17919999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2771</v>
+        <v>40.8846</v>
       </c>
       <c r="C10" t="n">
-        <v>50.9189</v>
+        <v>52.4553</v>
       </c>
       <c r="D10" t="n">
-        <v>51.9934</v>
+        <v>59.7525</v>
       </c>
       <c r="E10" t="n">
-        <v>80.49469999999999</v>
+        <v>98.75360000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.307</v>
+        <v>40.9972</v>
       </c>
       <c r="C11" t="n">
-        <v>54.8238</v>
+        <v>54.5507</v>
       </c>
       <c r="D11" t="n">
-        <v>51.4751</v>
+        <v>63.3008</v>
       </c>
       <c r="E11" t="n">
-        <v>78.64019999999999</v>
+        <v>100.59</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.4883</v>
+        <v>41.3222</v>
       </c>
       <c r="C12" t="n">
-        <v>55.7971</v>
+        <v>55.771</v>
       </c>
       <c r="D12" t="n">
-        <v>50.6079</v>
+        <v>65.44329999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>77.7877</v>
+        <v>101.731</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2841</v>
+        <v>41.2974</v>
       </c>
       <c r="C13" t="n">
-        <v>56.3928</v>
+        <v>56.2882</v>
       </c>
       <c r="D13" t="n">
-        <v>50.5443</v>
+        <v>67.5782</v>
       </c>
       <c r="E13" t="n">
-        <v>77.282</v>
+        <v>103.844</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.5162</v>
+        <v>41.2069</v>
       </c>
       <c r="C14" t="n">
-        <v>56.565</v>
+        <v>56.8212</v>
       </c>
       <c r="D14" t="n">
-        <v>49.3495</v>
+        <v>69.2106</v>
       </c>
       <c r="E14" t="n">
-        <v>74.7</v>
+        <v>103.772</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.5838</v>
+        <v>41.1701</v>
       </c>
       <c r="C15" t="n">
-        <v>56.8741</v>
+        <v>56.6767</v>
       </c>
       <c r="D15" t="n">
-        <v>48.1019</v>
+        <v>70.37690000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>73.658</v>
+        <v>104.796</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.563</v>
+        <v>41.2255</v>
       </c>
       <c r="C16" t="n">
-        <v>56.5909</v>
+        <v>56.8762</v>
       </c>
       <c r="D16" t="n">
-        <v>46.6644</v>
+        <v>70.3021</v>
       </c>
       <c r="E16" t="n">
-        <v>74.2102</v>
+        <v>105.053</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.6476</v>
+        <v>41.3194</v>
       </c>
       <c r="C17" t="n">
-        <v>57.4716</v>
+        <v>57.163</v>
       </c>
       <c r="D17" t="n">
-        <v>46.5336</v>
+        <v>71.4254</v>
       </c>
       <c r="E17" t="n">
-        <v>73.9485</v>
+        <v>105.683</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9057</v>
+        <v>13.8295</v>
       </c>
       <c r="C2" t="n">
-        <v>21.65</v>
+        <v>21.5383</v>
       </c>
       <c r="D2" t="n">
-        <v>26.9777</v>
+        <v>28.3273</v>
       </c>
       <c r="E2" t="n">
-        <v>35.2908</v>
+        <v>37.6107</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6907</v>
+        <v>26.5669</v>
       </c>
       <c r="C3" t="n">
-        <v>39.0161</v>
+        <v>38.9351</v>
       </c>
       <c r="D3" t="n">
-        <v>49.6343</v>
+        <v>53.3267</v>
       </c>
       <c r="E3" t="n">
-        <v>62.9417</v>
+        <v>69.17019999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.0385</v>
+        <v>37.9548</v>
       </c>
       <c r="C4" t="n">
-        <v>54.5071</v>
+        <v>54.1922</v>
       </c>
       <c r="D4" t="n">
-        <v>69.2792</v>
+        <v>75.0341</v>
       </c>
       <c r="E4" t="n">
-        <v>86.78830000000001</v>
+        <v>96.3485</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.2572</v>
+        <v>49.0067</v>
       </c>
       <c r="C5" t="n">
-        <v>69.87309999999999</v>
+        <v>69.901</v>
       </c>
       <c r="D5" t="n">
-        <v>89.2539</v>
+        <v>97.9757</v>
       </c>
       <c r="E5" t="n">
-        <v>110.43</v>
+        <v>124.737</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.2415</v>
+        <v>48.1845</v>
       </c>
       <c r="C6" t="n">
-        <v>56.274</v>
+        <v>56.5616</v>
       </c>
       <c r="D6" t="n">
-        <v>72.2736</v>
+        <v>79.4666</v>
       </c>
       <c r="E6" t="n">
-        <v>91.62050000000001</v>
+        <v>103.331</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.5767</v>
+        <v>49.5604</v>
       </c>
       <c r="C7" t="n">
-        <v>54.0191</v>
+        <v>53.9224</v>
       </c>
       <c r="D7" t="n">
-        <v>61.3182</v>
+        <v>74.25149999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>84.72499999999999</v>
+        <v>97.7383</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.3403</v>
+        <v>51.3993</v>
       </c>
       <c r="C8" t="n">
-        <v>53.1094</v>
+        <v>53.305</v>
       </c>
       <c r="D8" t="n">
-        <v>59.6293</v>
+        <v>65.3223</v>
       </c>
       <c r="E8" t="n">
-        <v>82.76479999999999</v>
+        <v>94.69119999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.223</v>
+        <v>52.9813</v>
       </c>
       <c r="C9" t="n">
-        <v>51.5424</v>
+        <v>51.9636</v>
       </c>
       <c r="D9" t="n">
-        <v>55.766</v>
+        <v>65.3811</v>
       </c>
       <c r="E9" t="n">
-        <v>83.8539</v>
+        <v>96.1611</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.875</v>
+        <v>52.8478</v>
       </c>
       <c r="C10" t="n">
-        <v>55.7425</v>
+        <v>55.9989</v>
       </c>
       <c r="D10" t="n">
-        <v>56.8329</v>
+        <v>64.8527</v>
       </c>
       <c r="E10" t="n">
-        <v>81.995</v>
+        <v>98.48569999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.8875</v>
+        <v>52.7869</v>
       </c>
       <c r="C11" t="n">
-        <v>58.1122</v>
+        <v>57.9773</v>
       </c>
       <c r="D11" t="n">
-        <v>58.1226</v>
+        <v>68.1996</v>
       </c>
       <c r="E11" t="n">
-        <v>83.2633</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.8645</v>
+        <v>53.2105</v>
       </c>
       <c r="C12" t="n">
-        <v>58.9009</v>
+        <v>58.8173</v>
       </c>
       <c r="D12" t="n">
-        <v>59.6148</v>
+        <v>69.93980000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>83.6996</v>
+        <v>103.828</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.0579</v>
+        <v>53.1043</v>
       </c>
       <c r="C13" t="n">
-        <v>59.0453</v>
+        <v>58.7583</v>
       </c>
       <c r="D13" t="n">
-        <v>61.1844</v>
+        <v>72.6484</v>
       </c>
       <c r="E13" t="n">
-        <v>85.2199</v>
+        <v>105.032</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.8332</v>
+        <v>53.0876</v>
       </c>
       <c r="C14" t="n">
-        <v>58.9487</v>
+        <v>59.073</v>
       </c>
       <c r="D14" t="n">
-        <v>62.617</v>
+        <v>73.7411</v>
       </c>
       <c r="E14" t="n">
-        <v>86.83880000000001</v>
+        <v>105.167</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>52.7136</v>
+        <v>53.1121</v>
       </c>
       <c r="C15" t="n">
-        <v>59.2323</v>
+        <v>59.1218</v>
       </c>
       <c r="D15" t="n">
-        <v>62.3667</v>
+        <v>75.6361</v>
       </c>
       <c r="E15" t="n">
-        <v>87.1418</v>
+        <v>107.143</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.906</v>
+        <v>52.9274</v>
       </c>
       <c r="C16" t="n">
-        <v>59.3082</v>
+        <v>59.2302</v>
       </c>
       <c r="D16" t="n">
-        <v>63.4492</v>
+        <v>77.00360000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>87.94540000000001</v>
+        <v>108.714</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.4861</v>
+        <v>52.9307</v>
       </c>
       <c r="C17" t="n">
-        <v>59.2803</v>
+        <v>59.6122</v>
       </c>
       <c r="D17" t="n">
-        <v>61.4638</v>
+        <v>78.79900000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>84.6566</v>
+        <v>109.001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4236</v>
+        <v>14.2303</v>
       </c>
       <c r="C2" t="n">
-        <v>18.674</v>
+        <v>18.7289</v>
       </c>
       <c r="D2" t="n">
-        <v>24.4775</v>
+        <v>24.6042</v>
       </c>
       <c r="E2" t="n">
-        <v>31.3259</v>
+        <v>31.079</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8055</v>
+        <v>27.0661</v>
       </c>
       <c r="C3" t="n">
-        <v>28.9689</v>
+        <v>28.4274</v>
       </c>
       <c r="D3" t="n">
-        <v>37.1988</v>
+        <v>39.1577</v>
       </c>
       <c r="E3" t="n">
-        <v>53.9918</v>
+        <v>49.3012</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.1757</v>
+        <v>29.6718</v>
       </c>
       <c r="C4" t="n">
-        <v>32.36</v>
+        <v>31.8256</v>
       </c>
       <c r="D4" t="n">
-        <v>48.729</v>
+        <v>49.6981</v>
       </c>
       <c r="E4" t="n">
-        <v>64.28789999999999</v>
+        <v>57.7445</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.3916</v>
+        <v>37.8038</v>
       </c>
       <c r="C5" t="n">
-        <v>46.1924</v>
+        <v>47.244</v>
       </c>
       <c r="D5" t="n">
-        <v>61.3014</v>
+        <v>57.354</v>
       </c>
       <c r="E5" t="n">
-        <v>74.9954</v>
+        <v>84.9057</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42.0556</v>
+        <v>36.6301</v>
       </c>
       <c r="C6" t="n">
-        <v>43.1189</v>
+        <v>45.9471</v>
       </c>
       <c r="D6" t="n">
-        <v>49.0247</v>
+        <v>53.5314</v>
       </c>
       <c r="E6" t="n">
-        <v>57.3346</v>
+        <v>62.2822</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.5755</v>
+        <v>42.4506</v>
       </c>
       <c r="C7" t="n">
-        <v>42.1194</v>
+        <v>46.3573</v>
       </c>
       <c r="D7" t="n">
-        <v>54.458</v>
+        <v>49.8892</v>
       </c>
       <c r="E7" t="n">
-        <v>57.749</v>
+        <v>69.5663</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.3637</v>
+        <v>38.2538</v>
       </c>
       <c r="C8" t="n">
-        <v>41.4744</v>
+        <v>43.9907</v>
       </c>
       <c r="D8" t="n">
-        <v>45.2742</v>
+        <v>44.4026</v>
       </c>
       <c r="E8" t="n">
-        <v>59.2759</v>
+        <v>58.7745</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.4562</v>
+        <v>42.2719</v>
       </c>
       <c r="C9" t="n">
-        <v>45.2218</v>
+        <v>41.2874</v>
       </c>
       <c r="D9" t="n">
-        <v>48.4726</v>
+        <v>49.8207</v>
       </c>
       <c r="E9" t="n">
-        <v>60.5537</v>
+        <v>59.8334</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.7638</v>
+        <v>39.8136</v>
       </c>
       <c r="C10" t="n">
-        <v>42.9379</v>
+        <v>47.118</v>
       </c>
       <c r="D10" t="n">
-        <v>51.8614</v>
+        <v>54.6745</v>
       </c>
       <c r="E10" t="n">
-        <v>65.1322</v>
+        <v>60.2263</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.3271</v>
+        <v>41.1512</v>
       </c>
       <c r="C11" t="n">
-        <v>44.9907</v>
+        <v>47.4916</v>
       </c>
       <c r="D11" t="n">
-        <v>52.288</v>
+        <v>50.1599</v>
       </c>
       <c r="E11" t="n">
-        <v>63.4503</v>
+        <v>61.6013</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.2748</v>
+        <v>43.0123</v>
       </c>
       <c r="C12" t="n">
-        <v>45.4969</v>
+        <v>43.9819</v>
       </c>
       <c r="D12" t="n">
-        <v>47.6545</v>
+        <v>53.1434</v>
       </c>
       <c r="E12" t="n">
-        <v>63.4049</v>
+        <v>62.8156</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.0237</v>
+        <v>43.9556</v>
       </c>
       <c r="C13" t="n">
-        <v>43.8131</v>
+        <v>46.5165</v>
       </c>
       <c r="D13" t="n">
-        <v>46.8307</v>
+        <v>56.1251</v>
       </c>
       <c r="E13" t="n">
-        <v>62.5307</v>
+        <v>64.2175</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.7943</v>
+        <v>40.9524</v>
       </c>
       <c r="C14" t="n">
-        <v>49.7538</v>
+        <v>45.5122</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6553</v>
+        <v>53.8462</v>
       </c>
       <c r="E14" t="n">
-        <v>65.9658</v>
+        <v>62.4041</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.9348</v>
+        <v>44.3261</v>
       </c>
       <c r="C15" t="n">
-        <v>44.2612</v>
+        <v>43.7855</v>
       </c>
       <c r="D15" t="n">
-        <v>51.639</v>
+        <v>54.0231</v>
       </c>
       <c r="E15" t="n">
-        <v>65.8623</v>
+        <v>60.4637</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.3816</v>
+        <v>38.9164</v>
       </c>
       <c r="C16" t="n">
-        <v>49.2284</v>
+        <v>46.4701</v>
       </c>
       <c r="D16" t="n">
-        <v>48.0889</v>
+        <v>52.3074</v>
       </c>
       <c r="E16" t="n">
-        <v>66.1592</v>
+        <v>65.40519999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.3223</v>
+        <v>39.7903</v>
       </c>
       <c r="C17" t="n">
-        <v>48.4886</v>
+        <v>47.2005</v>
       </c>
       <c r="D17" t="n">
-        <v>45.1839</v>
+        <v>54.2796</v>
       </c>
       <c r="E17" t="n">
-        <v>68.6721</v>
+        <v>72.2174</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>15.0047</v>
+        <v>14.9103</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3761</v>
+        <v>18.542</v>
       </c>
       <c r="D2" t="n">
-        <v>24.4468</v>
+        <v>24.2818</v>
       </c>
       <c r="E2" t="n">
-        <v>33.1185</v>
+        <v>32.753</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8314</v>
+        <v>27.4102</v>
       </c>
       <c r="C3" t="n">
-        <v>30.056</v>
+        <v>31.9141</v>
       </c>
       <c r="D3" t="n">
-        <v>33.6059</v>
+        <v>34.3474</v>
       </c>
       <c r="E3" t="n">
-        <v>47.356</v>
+        <v>50.6384</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.0401</v>
+        <v>33.8936</v>
       </c>
       <c r="C4" t="n">
-        <v>34.116</v>
+        <v>32.4779</v>
       </c>
       <c r="D4" t="n">
-        <v>48.2448</v>
+        <v>49.772</v>
       </c>
       <c r="E4" t="n">
-        <v>66.9175</v>
+        <v>53.9097</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.5456</v>
+        <v>42.5204</v>
       </c>
       <c r="C5" t="n">
-        <v>49.6276</v>
+        <v>49.5064</v>
       </c>
       <c r="D5" t="n">
-        <v>59.4466</v>
+        <v>55.6274</v>
       </c>
       <c r="E5" t="n">
-        <v>81.3078</v>
+        <v>82.93729999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.7444</v>
+        <v>39.801</v>
       </c>
       <c r="C6" t="n">
-        <v>49.0925</v>
+        <v>48.131</v>
       </c>
       <c r="D6" t="n">
-        <v>46.9365</v>
+        <v>48.6093</v>
       </c>
       <c r="E6" t="n">
-        <v>60.4792</v>
+        <v>75.28619999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.4992</v>
+        <v>41.4806</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0016</v>
+        <v>43.636</v>
       </c>
       <c r="D7" t="n">
-        <v>49.2649</v>
+        <v>54.7707</v>
       </c>
       <c r="E7" t="n">
-        <v>62.6058</v>
+        <v>60.7536</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.9535</v>
+        <v>39.018</v>
       </c>
       <c r="C8" t="n">
-        <v>39.3476</v>
+        <v>38.2806</v>
       </c>
       <c r="D8" t="n">
-        <v>51.3922</v>
+        <v>49.531</v>
       </c>
       <c r="E8" t="n">
-        <v>66.5158</v>
+        <v>61.349</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.7937</v>
+        <v>44.9217</v>
       </c>
       <c r="C9" t="n">
-        <v>42.693</v>
+        <v>39.7094</v>
       </c>
       <c r="D9" t="n">
-        <v>49.5924</v>
+        <v>52.8474</v>
       </c>
       <c r="E9" t="n">
-        <v>58.77</v>
+        <v>64.11109999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>47.504</v>
+        <v>46.69</v>
       </c>
       <c r="C10" t="n">
-        <v>45.9694</v>
+        <v>42.465</v>
       </c>
       <c r="D10" t="n">
-        <v>48.9778</v>
+        <v>52.1533</v>
       </c>
       <c r="E10" t="n">
-        <v>67.4345</v>
+        <v>59.919</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.413</v>
+        <v>44.8005</v>
       </c>
       <c r="C11" t="n">
-        <v>43.4849</v>
+        <v>48.1662</v>
       </c>
       <c r="D11" t="n">
-        <v>52.3572</v>
+        <v>47.0065</v>
       </c>
       <c r="E11" t="n">
-        <v>66.5077</v>
+        <v>67.5003</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.0539</v>
+        <v>43.0392</v>
       </c>
       <c r="C12" t="n">
-        <v>45.8171</v>
+        <v>47.2118</v>
       </c>
       <c r="D12" t="n">
-        <v>51.5954</v>
+        <v>52.1184</v>
       </c>
       <c r="E12" t="n">
-        <v>65.81789999999999</v>
+        <v>69.42440000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>42.7521</v>
+        <v>43.1747</v>
       </c>
       <c r="C13" t="n">
-        <v>45.2055</v>
+        <v>44.6247</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7189</v>
+        <v>53.5827</v>
       </c>
       <c r="E13" t="n">
-        <v>71.53830000000001</v>
+        <v>72.35120000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.9748</v>
+        <v>43.6446</v>
       </c>
       <c r="C14" t="n">
-        <v>47.1464</v>
+        <v>50.8999</v>
       </c>
       <c r="D14" t="n">
-        <v>48.5124</v>
+        <v>53.7446</v>
       </c>
       <c r="E14" t="n">
-        <v>80.39060000000001</v>
+        <v>60.9388</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.2687</v>
+        <v>41.538</v>
       </c>
       <c r="C15" t="n">
-        <v>47.2061</v>
+        <v>48.5831</v>
       </c>
       <c r="D15" t="n">
-        <v>49.9577</v>
+        <v>50.6798</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2885</v>
+        <v>60.3449</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.6067</v>
+        <v>43.5488</v>
       </c>
       <c r="C16" t="n">
-        <v>50.3588</v>
+        <v>48.4368</v>
       </c>
       <c r="D16" t="n">
-        <v>56.8603</v>
+        <v>50.7408</v>
       </c>
       <c r="E16" t="n">
-        <v>59.8339</v>
+        <v>63.8054</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.7594</v>
+        <v>48.7377</v>
       </c>
       <c r="C17" t="n">
-        <v>42.9998</v>
+        <v>44.4958</v>
       </c>
       <c r="D17" t="n">
-        <v>53.2626</v>
+        <v>56.3497</v>
       </c>
       <c r="E17" t="n">
-        <v>76.21080000000001</v>
+        <v>63.8453</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.3289</v>
+        <v>18.4475</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6453</v>
+        <v>21.4689</v>
       </c>
       <c r="D2" t="n">
-        <v>26.9466</v>
+        <v>27.1018</v>
       </c>
       <c r="E2" t="n">
-        <v>29.3039</v>
+        <v>31.0881</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.744</v>
+        <v>29.4618</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7223</v>
+        <v>32.2785</v>
       </c>
       <c r="D3" t="n">
-        <v>40.0793</v>
+        <v>38.9801</v>
       </c>
       <c r="E3" t="n">
-        <v>55.6206</v>
+        <v>52.3653</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7607</v>
+        <v>32.0316</v>
       </c>
       <c r="C4" t="n">
-        <v>47.9544</v>
+        <v>46.3409</v>
       </c>
       <c r="D4" t="n">
-        <v>60.1235</v>
+        <v>52.114</v>
       </c>
       <c r="E4" t="n">
-        <v>59.2232</v>
+        <v>71.71599999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>44.3881</v>
+        <v>40.178</v>
       </c>
       <c r="C5" t="n">
-        <v>55.1613</v>
+        <v>57.3958</v>
       </c>
       <c r="D5" t="n">
-        <v>71.69110000000001</v>
+        <v>63.6048</v>
       </c>
       <c r="E5" t="n">
-        <v>78.36060000000001</v>
+        <v>97.6306</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35.8848</v>
+        <v>43.6175</v>
       </c>
       <c r="C6" t="n">
-        <v>49.2436</v>
+        <v>48.7398</v>
       </c>
       <c r="D6" t="n">
-        <v>54.5521</v>
+        <v>56.5702</v>
       </c>
       <c r="E6" t="n">
-        <v>64.337</v>
+        <v>62.5387</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.3098</v>
+        <v>42.0424</v>
       </c>
       <c r="C7" t="n">
-        <v>45.9529</v>
+        <v>44.7101</v>
       </c>
       <c r="D7" t="n">
-        <v>52.4856</v>
+        <v>52.3325</v>
       </c>
       <c r="E7" t="n">
-        <v>63.9474</v>
+        <v>57.7193</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.5797</v>
+        <v>34.9712</v>
       </c>
       <c r="C8" t="n">
-        <v>43.3715</v>
+        <v>38.5908</v>
       </c>
       <c r="D8" t="n">
-        <v>50.0674</v>
+        <v>53.4616</v>
       </c>
       <c r="E8" t="n">
-        <v>58.7871</v>
+        <v>55.5086</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.4703</v>
+        <v>43.8319</v>
       </c>
       <c r="C9" t="n">
-        <v>41.384</v>
+        <v>42.2975</v>
       </c>
       <c r="D9" t="n">
-        <v>56.812</v>
+        <v>53.9908</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9575</v>
+        <v>63.1449</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.1973</v>
+        <v>42.1596</v>
       </c>
       <c r="C10" t="n">
-        <v>43.1188</v>
+        <v>40.1533</v>
       </c>
       <c r="D10" t="n">
-        <v>49.9602</v>
+        <v>53.4514</v>
       </c>
       <c r="E10" t="n">
-        <v>57.8958</v>
+        <v>83.77209999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.7915</v>
+        <v>43.075</v>
       </c>
       <c r="C11" t="n">
-        <v>41.8209</v>
+        <v>46.142</v>
       </c>
       <c r="D11" t="n">
-        <v>58.4751</v>
+        <v>54.9824</v>
       </c>
       <c r="E11" t="n">
-        <v>62.1407</v>
+        <v>88.0286</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.1856</v>
+        <v>45.2821</v>
       </c>
       <c r="C12" t="n">
-        <v>40.9418</v>
+        <v>37.9496</v>
       </c>
       <c r="D12" t="n">
-        <v>53.7485</v>
+        <v>51.274</v>
       </c>
       <c r="E12" t="n">
-        <v>75.75409999999999</v>
+        <v>83.5303</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>48.4518</v>
+        <v>45.2568</v>
       </c>
       <c r="C13" t="n">
-        <v>38.7219</v>
+        <v>39.7581</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4972</v>
+        <v>54.4533</v>
       </c>
       <c r="E13" t="n">
-        <v>89.2891</v>
+        <v>83.9192</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.0823</v>
+        <v>44.8946</v>
       </c>
       <c r="C14" t="n">
-        <v>38.873</v>
+        <v>40.5341</v>
       </c>
       <c r="D14" t="n">
-        <v>55.8141</v>
+        <v>56.1261</v>
       </c>
       <c r="E14" t="n">
-        <v>90.7548</v>
+        <v>85.4337</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.1151</v>
+        <v>44.8044</v>
       </c>
       <c r="C15" t="n">
-        <v>38.8252</v>
+        <v>37.5424</v>
       </c>
       <c r="D15" t="n">
-        <v>56.6792</v>
+        <v>54.9079</v>
       </c>
       <c r="E15" t="n">
-        <v>82.3627</v>
+        <v>77.60980000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.3658</v>
+        <v>48.0422</v>
       </c>
       <c r="C16" t="n">
-        <v>40.4943</v>
+        <v>46.7017</v>
       </c>
       <c r="D16" t="n">
-        <v>57.4876</v>
+        <v>56.3639</v>
       </c>
       <c r="E16" t="n">
-        <v>69.4961</v>
+        <v>77.26260000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.9894</v>
+        <v>51.6647</v>
       </c>
       <c r="C17" t="n">
-        <v>39.8504</v>
+        <v>41.9294</v>
       </c>
       <c r="D17" t="n">
-        <v>58.3467</v>
+        <v>57.8509</v>
       </c>
       <c r="E17" t="n">
-        <v>63.0771</v>
+        <v>77.3451</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.86077</v>
+        <v>8.85901</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7565</v>
+        <v>16.7981</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6802</v>
+        <v>21.7793</v>
       </c>
       <c r="E2" t="n">
-        <v>33.3712</v>
+        <v>33.3293</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7521</v>
+        <v>16.7713</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3035</v>
+        <v>30.4434</v>
       </c>
       <c r="D3" t="n">
-        <v>41.0245</v>
+        <v>41.0994</v>
       </c>
       <c r="E3" t="n">
-        <v>62.2135</v>
+        <v>62.2891</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8345</v>
+        <v>23.8221</v>
       </c>
       <c r="C4" t="n">
-        <v>41.8583</v>
+        <v>41.9443</v>
       </c>
       <c r="D4" t="n">
-        <v>57.7468</v>
+        <v>58.1186</v>
       </c>
       <c r="E4" t="n">
-        <v>86.178</v>
+        <v>85.95999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0287</v>
+        <v>31.0631</v>
       </c>
       <c r="C5" t="n">
-        <v>53.1961</v>
+        <v>53.2682</v>
       </c>
       <c r="D5" t="n">
-        <v>74.98609999999999</v>
+        <v>75.82859999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>110.633</v>
+        <v>110.062</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3471</v>
+        <v>33.4416</v>
       </c>
       <c r="C6" t="n">
-        <v>45.5948</v>
+        <v>44.7882</v>
       </c>
       <c r="D6" t="n">
-        <v>65.5522</v>
+        <v>66.0192</v>
       </c>
       <c r="E6" t="n">
-        <v>97.1939</v>
+        <v>97.8882</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9096</v>
+        <v>36.0072</v>
       </c>
       <c r="C7" t="n">
-        <v>45.9625</v>
+        <v>45.2847</v>
       </c>
       <c r="D7" t="n">
-        <v>63.9354</v>
+        <v>63.7801</v>
       </c>
       <c r="E7" t="n">
-        <v>95.28959999999999</v>
+        <v>95.0438</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.3606</v>
+        <v>38.4146</v>
       </c>
       <c r="C8" t="n">
-        <v>46.4908</v>
+        <v>45.6094</v>
       </c>
       <c r="D8" t="n">
-        <v>56.7631</v>
+        <v>59.1714</v>
       </c>
       <c r="E8" t="n">
-        <v>94.2136</v>
+        <v>93.92870000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.1498</v>
+        <v>40.2269</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6284</v>
+        <v>45.6673</v>
       </c>
       <c r="D9" t="n">
-        <v>61.5959</v>
+        <v>61.5332</v>
       </c>
       <c r="E9" t="n">
-        <v>94.8974</v>
+        <v>95.48309999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.194</v>
+        <v>40.4736</v>
       </c>
       <c r="C10" t="n">
-        <v>51.1567</v>
+        <v>50.2478</v>
       </c>
       <c r="D10" t="n">
-        <v>61.8806</v>
+        <v>61.2576</v>
       </c>
       <c r="E10" t="n">
-        <v>97.3951</v>
+        <v>96.6621</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5829</v>
+        <v>40.5801</v>
       </c>
       <c r="C11" t="n">
-        <v>53.7458</v>
+        <v>53.4875</v>
       </c>
       <c r="D11" t="n">
-        <v>64.80159999999999</v>
+        <v>65.83159999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>99.3398</v>
+        <v>98.9978</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6255</v>
+        <v>40.609</v>
       </c>
       <c r="C12" t="n">
-        <v>55.2114</v>
+        <v>55.1712</v>
       </c>
       <c r="D12" t="n">
-        <v>65.937</v>
+        <v>65.8939</v>
       </c>
       <c r="E12" t="n">
-        <v>100.417</v>
+        <v>100.613</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.6431</v>
+        <v>40.5683</v>
       </c>
       <c r="C13" t="n">
-        <v>55.5201</v>
+        <v>55.3183</v>
       </c>
       <c r="D13" t="n">
-        <v>68.1564</v>
+        <v>67.87269999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>102.216</v>
+        <v>102.484</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.5824</v>
+        <v>40.64</v>
       </c>
       <c r="C14" t="n">
-        <v>55.5393</v>
+        <v>55.6528</v>
       </c>
       <c r="D14" t="n">
-        <v>69.3818</v>
+        <v>69.0849</v>
       </c>
       <c r="E14" t="n">
-        <v>101.821</v>
+        <v>101.818</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.5593</v>
+        <v>40.6987</v>
       </c>
       <c r="C15" t="n">
-        <v>56.1261</v>
+        <v>55.721</v>
       </c>
       <c r="D15" t="n">
-        <v>70.5719</v>
+        <v>71.377</v>
       </c>
       <c r="E15" t="n">
-        <v>102.77</v>
+        <v>102.752</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.5677</v>
+        <v>40.7674</v>
       </c>
       <c r="C16" t="n">
-        <v>56.2404</v>
+        <v>55.8695</v>
       </c>
       <c r="D16" t="n">
-        <v>71.1831</v>
+        <v>70.55670000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>103.664</v>
+        <v>102.665</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7229</v>
+        <v>40.7184</v>
       </c>
       <c r="C17" t="n">
-        <v>56.2178</v>
+        <v>56.2449</v>
       </c>
       <c r="D17" t="n">
-        <v>72.16670000000001</v>
+        <v>71.8639</v>
       </c>
       <c r="E17" t="n">
-        <v>102.75</v>
+        <v>102.519</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.86741</v>
+        <v>8.871130000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9258</v>
+        <v>16.9194</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3558</v>
+        <v>21.4465</v>
       </c>
       <c r="E2" t="n">
-        <v>33.2958</v>
+        <v>33.2415</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8396</v>
+        <v>16.8403</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6528</v>
+        <v>30.7264</v>
       </c>
       <c r="D3" t="n">
-        <v>40.4586</v>
+        <v>40.576</v>
       </c>
       <c r="E3" t="n">
-        <v>62.2481</v>
+        <v>62.18</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0311</v>
+        <v>24.0098</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4563</v>
+        <v>42.49</v>
       </c>
       <c r="D4" t="n">
-        <v>57.3153</v>
+        <v>57.1499</v>
       </c>
       <c r="E4" t="n">
-        <v>86.21550000000001</v>
+        <v>86.62</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.44</v>
+        <v>31.459</v>
       </c>
       <c r="C5" t="n">
-        <v>53.8113</v>
+        <v>53.9996</v>
       </c>
       <c r="D5" t="n">
-        <v>74.102</v>
+        <v>74.5069</v>
       </c>
       <c r="E5" t="n">
-        <v>110.102</v>
+        <v>108.817</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8329</v>
+        <v>33.788</v>
       </c>
       <c r="C6" t="n">
-        <v>46.3951</v>
+        <v>45.7181</v>
       </c>
       <c r="D6" t="n">
-        <v>64.5684</v>
+        <v>64.895</v>
       </c>
       <c r="E6" t="n">
-        <v>98.7311</v>
+        <v>97.7773</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.4293</v>
+        <v>36.4477</v>
       </c>
       <c r="C7" t="n">
-        <v>46.6952</v>
+        <v>45.9258</v>
       </c>
       <c r="D7" t="n">
-        <v>62.8433</v>
+        <v>62.6272</v>
       </c>
       <c r="E7" t="n">
-        <v>95.2154</v>
+        <v>94.83710000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.912</v>
+        <v>39.0315</v>
       </c>
       <c r="C8" t="n">
-        <v>46.974</v>
+        <v>46.2105</v>
       </c>
       <c r="D8" t="n">
-        <v>57.6055</v>
+        <v>57.6426</v>
       </c>
       <c r="E8" t="n">
-        <v>93.47239999999999</v>
+        <v>93.79640000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.8404</v>
+        <v>40.8772</v>
       </c>
       <c r="C9" t="n">
-        <v>47.2144</v>
+        <v>46.3949</v>
       </c>
       <c r="D9" t="n">
-        <v>60.0876</v>
+        <v>61.258</v>
       </c>
       <c r="E9" t="n">
-        <v>96.17919999999999</v>
+        <v>96.392</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8846</v>
+        <v>40.8312</v>
       </c>
       <c r="C10" t="n">
-        <v>52.4553</v>
+        <v>51.4459</v>
       </c>
       <c r="D10" t="n">
-        <v>59.7525</v>
+        <v>60.5452</v>
       </c>
       <c r="E10" t="n">
-        <v>98.75360000000001</v>
+        <v>98.4735</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.9972</v>
+        <v>41.1319</v>
       </c>
       <c r="C11" t="n">
-        <v>54.5507</v>
+        <v>54.6208</v>
       </c>
       <c r="D11" t="n">
-        <v>63.3008</v>
+        <v>63.8124</v>
       </c>
       <c r="E11" t="n">
-        <v>100.59</v>
+        <v>99.4997</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3222</v>
+        <v>41.2662</v>
       </c>
       <c r="C12" t="n">
-        <v>55.771</v>
+        <v>55.7847</v>
       </c>
       <c r="D12" t="n">
-        <v>65.44329999999999</v>
+        <v>65.5891</v>
       </c>
       <c r="E12" t="n">
-        <v>101.731</v>
+        <v>101.525</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2974</v>
+        <v>41.2567</v>
       </c>
       <c r="C13" t="n">
-        <v>56.2882</v>
+        <v>55.7898</v>
       </c>
       <c r="D13" t="n">
-        <v>67.5782</v>
+        <v>68.0675</v>
       </c>
       <c r="E13" t="n">
-        <v>103.844</v>
+        <v>103.455</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.2069</v>
+        <v>41.3398</v>
       </c>
       <c r="C14" t="n">
-        <v>56.8212</v>
+        <v>56.359</v>
       </c>
       <c r="D14" t="n">
-        <v>69.2106</v>
+        <v>67.7928</v>
       </c>
       <c r="E14" t="n">
-        <v>103.772</v>
+        <v>104.328</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.1701</v>
+        <v>41.2193</v>
       </c>
       <c r="C15" t="n">
-        <v>56.6767</v>
+        <v>56.4244</v>
       </c>
       <c r="D15" t="n">
-        <v>70.37690000000001</v>
+        <v>71.2041</v>
       </c>
       <c r="E15" t="n">
-        <v>104.796</v>
+        <v>105.462</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.2255</v>
+        <v>41.2139</v>
       </c>
       <c r="C16" t="n">
-        <v>56.8762</v>
+        <v>56.6668</v>
       </c>
       <c r="D16" t="n">
-        <v>70.3021</v>
+        <v>71.15430000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>105.053</v>
+        <v>105.213</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3194</v>
+        <v>41.3066</v>
       </c>
       <c r="C17" t="n">
-        <v>57.163</v>
+        <v>57.0795</v>
       </c>
       <c r="D17" t="n">
-        <v>71.4254</v>
+        <v>71.8869</v>
       </c>
       <c r="E17" t="n">
-        <v>105.683</v>
+        <v>103.711</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8295</v>
+        <v>13.8393</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5383</v>
+        <v>21.5125</v>
       </c>
       <c r="D2" t="n">
-        <v>28.3273</v>
+        <v>28.3482</v>
       </c>
       <c r="E2" t="n">
-        <v>37.6107</v>
+        <v>37.7448</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5669</v>
+        <v>26.5828</v>
       </c>
       <c r="C3" t="n">
-        <v>38.9351</v>
+        <v>39.141</v>
       </c>
       <c r="D3" t="n">
-        <v>53.3267</v>
+        <v>53.1667</v>
       </c>
       <c r="E3" t="n">
-        <v>69.17019999999999</v>
+        <v>68.9469</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.9548</v>
+        <v>37.9942</v>
       </c>
       <c r="C4" t="n">
-        <v>54.1922</v>
+        <v>54.5274</v>
       </c>
       <c r="D4" t="n">
-        <v>75.0341</v>
+        <v>75.1374</v>
       </c>
       <c r="E4" t="n">
-        <v>96.3485</v>
+        <v>96.45829999999999</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.0067</v>
+        <v>49.1306</v>
       </c>
       <c r="C5" t="n">
-        <v>69.901</v>
+        <v>70.3205</v>
       </c>
       <c r="D5" t="n">
-        <v>97.9757</v>
+        <v>97.99720000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>124.737</v>
+        <v>124.185</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.1845</v>
+        <v>48.0241</v>
       </c>
       <c r="C6" t="n">
-        <v>56.5616</v>
+        <v>55.9863</v>
       </c>
       <c r="D6" t="n">
-        <v>79.4666</v>
+        <v>79.1418</v>
       </c>
       <c r="E6" t="n">
-        <v>103.331</v>
+        <v>103.861</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.5604</v>
+        <v>49.4653</v>
       </c>
       <c r="C7" t="n">
-        <v>53.9224</v>
+        <v>53.8192</v>
       </c>
       <c r="D7" t="n">
-        <v>74.25149999999999</v>
+        <v>73.5291</v>
       </c>
       <c r="E7" t="n">
-        <v>97.7383</v>
+        <v>97.5608</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.3993</v>
+        <v>51.2624</v>
       </c>
       <c r="C8" t="n">
-        <v>53.305</v>
+        <v>52.8272</v>
       </c>
       <c r="D8" t="n">
-        <v>65.3223</v>
+        <v>64.696</v>
       </c>
       <c r="E8" t="n">
-        <v>94.69119999999999</v>
+        <v>95.4079</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.9813</v>
+        <v>53.0731</v>
       </c>
       <c r="C9" t="n">
-        <v>51.9636</v>
+        <v>51.5623</v>
       </c>
       <c r="D9" t="n">
-        <v>65.3811</v>
+        <v>64.80289999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>96.1611</v>
+        <v>96.19240000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.8478</v>
+        <v>52.808</v>
       </c>
       <c r="C10" t="n">
-        <v>55.9989</v>
+        <v>55.3564</v>
       </c>
       <c r="D10" t="n">
-        <v>64.8527</v>
+        <v>64.4663</v>
       </c>
       <c r="E10" t="n">
-        <v>98.48569999999999</v>
+        <v>98.0483</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.7869</v>
+        <v>52.8728</v>
       </c>
       <c r="C11" t="n">
-        <v>57.9773</v>
+        <v>57.7163</v>
       </c>
       <c r="D11" t="n">
-        <v>68.1996</v>
+        <v>68.2525</v>
       </c>
       <c r="E11" t="n">
-        <v>100.13</v>
+        <v>100.477</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.2105</v>
+        <v>53.0407</v>
       </c>
       <c r="C12" t="n">
-        <v>58.8173</v>
+        <v>58.437</v>
       </c>
       <c r="D12" t="n">
-        <v>69.93980000000001</v>
+        <v>70.2362</v>
       </c>
       <c r="E12" t="n">
-        <v>103.828</v>
+        <v>102.714</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.1043</v>
+        <v>52.9941</v>
       </c>
       <c r="C13" t="n">
-        <v>58.7583</v>
+        <v>58.8973</v>
       </c>
       <c r="D13" t="n">
-        <v>72.6484</v>
+        <v>73.0825</v>
       </c>
       <c r="E13" t="n">
-        <v>105.032</v>
+        <v>105.079</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>53.0876</v>
+        <v>52.9126</v>
       </c>
       <c r="C14" t="n">
-        <v>59.073</v>
+        <v>58.9405</v>
       </c>
       <c r="D14" t="n">
-        <v>73.7411</v>
+        <v>74.55</v>
       </c>
       <c r="E14" t="n">
-        <v>105.167</v>
+        <v>106.926</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.1121</v>
+        <v>53.407</v>
       </c>
       <c r="C15" t="n">
-        <v>59.1218</v>
+        <v>59.0461</v>
       </c>
       <c r="D15" t="n">
-        <v>75.6361</v>
+        <v>75.2916</v>
       </c>
       <c r="E15" t="n">
-        <v>107.143</v>
+        <v>107.006</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.9274</v>
+        <v>53.053</v>
       </c>
       <c r="C16" t="n">
-        <v>59.2302</v>
+        <v>59.3167</v>
       </c>
       <c r="D16" t="n">
-        <v>77.00360000000001</v>
+        <v>76.8008</v>
       </c>
       <c r="E16" t="n">
-        <v>108.714</v>
+        <v>108.374</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.9307</v>
+        <v>53.0543</v>
       </c>
       <c r="C17" t="n">
-        <v>59.6122</v>
+        <v>59.4462</v>
       </c>
       <c r="D17" t="n">
-        <v>78.79900000000001</v>
+        <v>77.6331</v>
       </c>
       <c r="E17" t="n">
-        <v>109.001</v>
+        <v>108.761</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2303</v>
+        <v>14.2451</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7289</v>
+        <v>18.6528</v>
       </c>
       <c r="D2" t="n">
-        <v>24.6042</v>
+        <v>24.773</v>
       </c>
       <c r="E2" t="n">
-        <v>31.079</v>
+        <v>31.1039</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.0661</v>
+        <v>26.9108</v>
       </c>
       <c r="C3" t="n">
-        <v>28.4274</v>
+        <v>32.3941</v>
       </c>
       <c r="D3" t="n">
-        <v>39.1577</v>
+        <v>34.1854</v>
       </c>
       <c r="E3" t="n">
-        <v>49.3012</v>
+        <v>49.6489</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.6718</v>
+        <v>32.0707</v>
       </c>
       <c r="C4" t="n">
-        <v>31.8256</v>
+        <v>38.9631</v>
       </c>
       <c r="D4" t="n">
-        <v>49.6981</v>
+        <v>50.1192</v>
       </c>
       <c r="E4" t="n">
-        <v>57.7445</v>
+        <v>68.9267</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>37.8038</v>
+        <v>39.9934</v>
       </c>
       <c r="C5" t="n">
-        <v>47.244</v>
+        <v>48.0405</v>
       </c>
       <c r="D5" t="n">
-        <v>57.354</v>
+        <v>56.1563</v>
       </c>
       <c r="E5" t="n">
-        <v>84.9057</v>
+        <v>72.26000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36.6301</v>
+        <v>36.4065</v>
       </c>
       <c r="C6" t="n">
-        <v>45.9471</v>
+        <v>46.0524</v>
       </c>
       <c r="D6" t="n">
-        <v>53.5314</v>
+        <v>49.3686</v>
       </c>
       <c r="E6" t="n">
-        <v>62.2822</v>
+        <v>64.24299999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.4506</v>
+        <v>43.1489</v>
       </c>
       <c r="C7" t="n">
-        <v>46.3573</v>
+        <v>45.6206</v>
       </c>
       <c r="D7" t="n">
-        <v>49.8892</v>
+        <v>40.6925</v>
       </c>
       <c r="E7" t="n">
-        <v>69.5663</v>
+        <v>57.2717</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.2538</v>
+        <v>37.4329</v>
       </c>
       <c r="C8" t="n">
-        <v>43.9907</v>
+        <v>42.7424</v>
       </c>
       <c r="D8" t="n">
-        <v>44.4026</v>
+        <v>50.2511</v>
       </c>
       <c r="E8" t="n">
-        <v>58.7745</v>
+        <v>63.4162</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.2719</v>
+        <v>43.4346</v>
       </c>
       <c r="C9" t="n">
-        <v>41.2874</v>
+        <v>45.6661</v>
       </c>
       <c r="D9" t="n">
-        <v>49.8207</v>
+        <v>46.3254</v>
       </c>
       <c r="E9" t="n">
-        <v>59.8334</v>
+        <v>64.8327</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.8136</v>
+        <v>38.9934</v>
       </c>
       <c r="C10" t="n">
-        <v>47.118</v>
+        <v>47.5894</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6745</v>
+        <v>47.1913</v>
       </c>
       <c r="E10" t="n">
-        <v>60.2263</v>
+        <v>64.70780000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.1512</v>
+        <v>44.1798</v>
       </c>
       <c r="C11" t="n">
-        <v>47.4916</v>
+        <v>44.0482</v>
       </c>
       <c r="D11" t="n">
-        <v>50.1599</v>
+        <v>54.7584</v>
       </c>
       <c r="E11" t="n">
-        <v>61.6013</v>
+        <v>60.7209</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.0123</v>
+        <v>44.8</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9819</v>
+        <v>44.5661</v>
       </c>
       <c r="D12" t="n">
-        <v>53.1434</v>
+        <v>49.0679</v>
       </c>
       <c r="E12" t="n">
-        <v>62.8156</v>
+        <v>71.8365</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.9556</v>
+        <v>41.4991</v>
       </c>
       <c r="C13" t="n">
-        <v>46.5165</v>
+        <v>46.5516</v>
       </c>
       <c r="D13" t="n">
-        <v>56.1251</v>
+        <v>53.2363</v>
       </c>
       <c r="E13" t="n">
-        <v>64.2175</v>
+        <v>67.9952</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.9524</v>
+        <v>40.0926</v>
       </c>
       <c r="C14" t="n">
-        <v>45.5122</v>
+        <v>45.0092</v>
       </c>
       <c r="D14" t="n">
-        <v>53.8462</v>
+        <v>56.1988</v>
       </c>
       <c r="E14" t="n">
-        <v>62.4041</v>
+        <v>65.0082</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.3261</v>
+        <v>46.3229</v>
       </c>
       <c r="C15" t="n">
-        <v>43.7855</v>
+        <v>46.9589</v>
       </c>
       <c r="D15" t="n">
-        <v>54.0231</v>
+        <v>57.0516</v>
       </c>
       <c r="E15" t="n">
-        <v>60.4637</v>
+        <v>65.3575</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>38.9164</v>
+        <v>42.925</v>
       </c>
       <c r="C16" t="n">
-        <v>46.4701</v>
+        <v>50.0225</v>
       </c>
       <c r="D16" t="n">
-        <v>52.3074</v>
+        <v>53.8532</v>
       </c>
       <c r="E16" t="n">
-        <v>65.40519999999999</v>
+        <v>68.1541</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.7903</v>
+        <v>41.6701</v>
       </c>
       <c r="C17" t="n">
-        <v>47.2005</v>
+        <v>48.7229</v>
       </c>
       <c r="D17" t="n">
-        <v>54.2796</v>
+        <v>47.9831</v>
       </c>
       <c r="E17" t="n">
-        <v>72.2174</v>
+        <v>56.4576</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9103</v>
+        <v>14.8003</v>
       </c>
       <c r="C2" t="n">
-        <v>18.542</v>
+        <v>18.6126</v>
       </c>
       <c r="D2" t="n">
-        <v>24.2818</v>
+        <v>24.4782</v>
       </c>
       <c r="E2" t="n">
-        <v>32.753</v>
+        <v>32.5983</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4102</v>
+        <v>27.8234</v>
       </c>
       <c r="C3" t="n">
-        <v>31.9141</v>
+        <v>30.6447</v>
       </c>
       <c r="D3" t="n">
-        <v>34.3474</v>
+        <v>31.5781</v>
       </c>
       <c r="E3" t="n">
-        <v>50.6384</v>
+        <v>50.5723</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.8936</v>
+        <v>30.7073</v>
       </c>
       <c r="C4" t="n">
-        <v>32.4779</v>
+        <v>40.3206</v>
       </c>
       <c r="D4" t="n">
-        <v>49.772</v>
+        <v>49.992</v>
       </c>
       <c r="E4" t="n">
-        <v>53.9097</v>
+        <v>56.0057</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.5204</v>
+        <v>39.8135</v>
       </c>
       <c r="C5" t="n">
-        <v>49.5064</v>
+        <v>45.1888</v>
       </c>
       <c r="D5" t="n">
-        <v>55.6274</v>
+        <v>56.8983</v>
       </c>
       <c r="E5" t="n">
-        <v>82.93729999999999</v>
+        <v>80.7397</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.801</v>
+        <v>37.338</v>
       </c>
       <c r="C6" t="n">
-        <v>48.131</v>
+        <v>41.9123</v>
       </c>
       <c r="D6" t="n">
-        <v>48.6093</v>
+        <v>53.3236</v>
       </c>
       <c r="E6" t="n">
-        <v>75.28619999999999</v>
+        <v>68.23650000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.4806</v>
+        <v>43.529</v>
       </c>
       <c r="C7" t="n">
-        <v>43.636</v>
+        <v>38.5635</v>
       </c>
       <c r="D7" t="n">
-        <v>54.7707</v>
+        <v>45.7839</v>
       </c>
       <c r="E7" t="n">
-        <v>60.7536</v>
+        <v>73.2966</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.018</v>
+        <v>40.2463</v>
       </c>
       <c r="C8" t="n">
-        <v>38.2806</v>
+        <v>38.1978</v>
       </c>
       <c r="D8" t="n">
-        <v>49.531</v>
+        <v>43.8997</v>
       </c>
       <c r="E8" t="n">
-        <v>61.349</v>
+        <v>67.9714</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.9217</v>
+        <v>41.9145</v>
       </c>
       <c r="C9" t="n">
-        <v>39.7094</v>
+        <v>40.0176</v>
       </c>
       <c r="D9" t="n">
-        <v>52.8474</v>
+        <v>56.3215</v>
       </c>
       <c r="E9" t="n">
-        <v>64.11109999999999</v>
+        <v>72.5565</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>46.69</v>
+        <v>41.7046</v>
       </c>
       <c r="C10" t="n">
-        <v>42.465</v>
+        <v>45.0605</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1533</v>
+        <v>54.9919</v>
       </c>
       <c r="E10" t="n">
-        <v>59.919</v>
+        <v>65.2958</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.8005</v>
+        <v>43.5736</v>
       </c>
       <c r="C11" t="n">
-        <v>48.1662</v>
+        <v>45.9714</v>
       </c>
       <c r="D11" t="n">
-        <v>47.0065</v>
+        <v>49.6215</v>
       </c>
       <c r="E11" t="n">
-        <v>67.5003</v>
+        <v>66.87390000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.0392</v>
+        <v>47.2903</v>
       </c>
       <c r="C12" t="n">
-        <v>47.2118</v>
+        <v>46.1129</v>
       </c>
       <c r="D12" t="n">
-        <v>52.1184</v>
+        <v>46.8976</v>
       </c>
       <c r="E12" t="n">
-        <v>69.42440000000001</v>
+        <v>69.4174</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.1747</v>
+        <v>46.2747</v>
       </c>
       <c r="C13" t="n">
-        <v>44.6247</v>
+        <v>44.9882</v>
       </c>
       <c r="D13" t="n">
-        <v>53.5827</v>
+        <v>52.2497</v>
       </c>
       <c r="E13" t="n">
-        <v>72.35120000000001</v>
+        <v>51.838</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.6446</v>
+        <v>45.2549</v>
       </c>
       <c r="C14" t="n">
-        <v>50.8999</v>
+        <v>44.5764</v>
       </c>
       <c r="D14" t="n">
-        <v>53.7446</v>
+        <v>51.447</v>
       </c>
       <c r="E14" t="n">
-        <v>60.9388</v>
+        <v>76.18680000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.538</v>
+        <v>41.0432</v>
       </c>
       <c r="C15" t="n">
-        <v>48.5831</v>
+        <v>44.8533</v>
       </c>
       <c r="D15" t="n">
-        <v>50.6798</v>
+        <v>46.5683</v>
       </c>
       <c r="E15" t="n">
-        <v>60.3449</v>
+        <v>66.26430000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.5488</v>
+        <v>42.2176</v>
       </c>
       <c r="C16" t="n">
-        <v>48.4368</v>
+        <v>51.4928</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7408</v>
+        <v>56.5134</v>
       </c>
       <c r="E16" t="n">
-        <v>63.8054</v>
+        <v>72.2795</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>48.7377</v>
+        <v>46.9136</v>
       </c>
       <c r="C17" t="n">
-        <v>44.4958</v>
+        <v>50.908</v>
       </c>
       <c r="D17" t="n">
-        <v>56.3497</v>
+        <v>48.7472</v>
       </c>
       <c r="E17" t="n">
-        <v>63.8453</v>
+        <v>58.648</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4475</v>
+        <v>18.212</v>
       </c>
       <c r="C2" t="n">
-        <v>21.4689</v>
+        <v>21.5767</v>
       </c>
       <c r="D2" t="n">
-        <v>27.1018</v>
+        <v>27.5561</v>
       </c>
       <c r="E2" t="n">
-        <v>31.0881</v>
+        <v>30.5841</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29.4618</v>
+        <v>29.4515</v>
       </c>
       <c r="C3" t="n">
-        <v>32.2785</v>
+        <v>29.8853</v>
       </c>
       <c r="D3" t="n">
-        <v>38.9801</v>
+        <v>39.3412</v>
       </c>
       <c r="E3" t="n">
-        <v>52.3653</v>
+        <v>53.4467</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0316</v>
+        <v>31.5154</v>
       </c>
       <c r="C4" t="n">
-        <v>46.3409</v>
+        <v>49.096</v>
       </c>
       <c r="D4" t="n">
-        <v>52.114</v>
+        <v>56.063</v>
       </c>
       <c r="E4" t="n">
-        <v>71.71599999999999</v>
+        <v>69.14870000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.178</v>
+        <v>46.4273</v>
       </c>
       <c r="C5" t="n">
-        <v>57.3958</v>
+        <v>55.6658</v>
       </c>
       <c r="D5" t="n">
-        <v>63.6048</v>
+        <v>67.58280000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>97.6306</v>
+        <v>88.2906</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43.6175</v>
+        <v>41.8904</v>
       </c>
       <c r="C6" t="n">
-        <v>48.7398</v>
+        <v>55.2926</v>
       </c>
       <c r="D6" t="n">
-        <v>56.5702</v>
+        <v>62.0242</v>
       </c>
       <c r="E6" t="n">
-        <v>62.5387</v>
+        <v>75.67270000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.0424</v>
+        <v>36.0443</v>
       </c>
       <c r="C7" t="n">
-        <v>44.7101</v>
+        <v>47.2964</v>
       </c>
       <c r="D7" t="n">
-        <v>52.3325</v>
+        <v>56.3074</v>
       </c>
       <c r="E7" t="n">
-        <v>57.7193</v>
+        <v>69.5177</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>34.9712</v>
+        <v>40.8942</v>
       </c>
       <c r="C8" t="n">
-        <v>38.5908</v>
+        <v>40.3569</v>
       </c>
       <c r="D8" t="n">
-        <v>53.4616</v>
+        <v>54.9848</v>
       </c>
       <c r="E8" t="n">
-        <v>55.5086</v>
+        <v>84.7486</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.8319</v>
+        <v>38.9682</v>
       </c>
       <c r="C9" t="n">
-        <v>42.2975</v>
+        <v>43.5838</v>
       </c>
       <c r="D9" t="n">
-        <v>53.9908</v>
+        <v>53.2352</v>
       </c>
       <c r="E9" t="n">
-        <v>63.1449</v>
+        <v>82.0326</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.1596</v>
+        <v>40.4488</v>
       </c>
       <c r="C10" t="n">
-        <v>40.1533</v>
+        <v>37.8132</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4514</v>
+        <v>56.9711</v>
       </c>
       <c r="E10" t="n">
-        <v>83.77209999999999</v>
+        <v>75.9115</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.075</v>
+        <v>39.1693</v>
       </c>
       <c r="C11" t="n">
-        <v>46.142</v>
+        <v>44.1637</v>
       </c>
       <c r="D11" t="n">
-        <v>54.9824</v>
+        <v>53.4219</v>
       </c>
       <c r="E11" t="n">
-        <v>88.0286</v>
+        <v>64.7903</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.2821</v>
+        <v>35.8898</v>
       </c>
       <c r="C12" t="n">
-        <v>37.9496</v>
+        <v>44.1604</v>
       </c>
       <c r="D12" t="n">
-        <v>51.274</v>
+        <v>56.0496</v>
       </c>
       <c r="E12" t="n">
-        <v>83.5303</v>
+        <v>80.2257</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.2568</v>
+        <v>43.4972</v>
       </c>
       <c r="C13" t="n">
-        <v>39.7581</v>
+        <v>44.5319</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4533</v>
+        <v>54.5219</v>
       </c>
       <c r="E13" t="n">
-        <v>83.9192</v>
+        <v>79.23220000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.8946</v>
+        <v>45.8358</v>
       </c>
       <c r="C14" t="n">
-        <v>40.5341</v>
+        <v>36.7871</v>
       </c>
       <c r="D14" t="n">
-        <v>56.1261</v>
+        <v>56.7448</v>
       </c>
       <c r="E14" t="n">
-        <v>85.4337</v>
+        <v>93.7381</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.8044</v>
+        <v>45.5469</v>
       </c>
       <c r="C15" t="n">
-        <v>37.5424</v>
+        <v>40.3978</v>
       </c>
       <c r="D15" t="n">
-        <v>54.9079</v>
+        <v>60.3715</v>
       </c>
       <c r="E15" t="n">
-        <v>77.60980000000001</v>
+        <v>79.90940000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>48.0422</v>
+        <v>42.5865</v>
       </c>
       <c r="C16" t="n">
-        <v>46.7017</v>
+        <v>44.573</v>
       </c>
       <c r="D16" t="n">
-        <v>56.3639</v>
+        <v>58.5082</v>
       </c>
       <c r="E16" t="n">
-        <v>77.26260000000001</v>
+        <v>83.24769999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>51.6647</v>
+        <v>46.0876</v>
       </c>
       <c r="C17" t="n">
-        <v>41.9294</v>
+        <v>42.0406</v>
       </c>
       <c r="D17" t="n">
-        <v>57.8509</v>
+        <v>57.4088</v>
       </c>
       <c r="E17" t="n">
-        <v>77.3451</v>
+        <v>93.6099</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.85901</v>
+        <v>8.84282</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7981</v>
+        <v>16.7515</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7793</v>
+        <v>21.5831</v>
       </c>
       <c r="E2" t="n">
-        <v>33.3293</v>
+        <v>33.5123</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7713</v>
+        <v>16.752</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4434</v>
+        <v>30.3159</v>
       </c>
       <c r="D3" t="n">
-        <v>41.0994</v>
+        <v>40.6218</v>
       </c>
       <c r="E3" t="n">
-        <v>62.2891</v>
+        <v>62.0819</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8221</v>
+        <v>23.7841</v>
       </c>
       <c r="C4" t="n">
-        <v>41.9443</v>
+        <v>41.8414</v>
       </c>
       <c r="D4" t="n">
-        <v>58.1186</v>
+        <v>57.1107</v>
       </c>
       <c r="E4" t="n">
-        <v>85.95999999999999</v>
+        <v>85.2893</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0631</v>
+        <v>31.0823</v>
       </c>
       <c r="C5" t="n">
-        <v>53.2682</v>
+        <v>52.9594</v>
       </c>
       <c r="D5" t="n">
-        <v>75.82859999999999</v>
+        <v>74.90479999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>110.062</v>
+        <v>108.779</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4416</v>
+        <v>33.3677</v>
       </c>
       <c r="C6" t="n">
-        <v>44.7882</v>
+        <v>44.8804</v>
       </c>
       <c r="D6" t="n">
-        <v>66.0192</v>
+        <v>67.04170000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>97.8882</v>
+        <v>99.7881</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0072</v>
+        <v>35.7916</v>
       </c>
       <c r="C7" t="n">
-        <v>45.2847</v>
+        <v>45.2579</v>
       </c>
       <c r="D7" t="n">
-        <v>63.7801</v>
+        <v>58.5152</v>
       </c>
       <c r="E7" t="n">
-        <v>95.0438</v>
+        <v>96.5899</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4146</v>
+        <v>38.2926</v>
       </c>
       <c r="C8" t="n">
-        <v>45.6094</v>
+        <v>45.3378</v>
       </c>
       <c r="D8" t="n">
-        <v>59.1714</v>
+        <v>60.1983</v>
       </c>
       <c r="E8" t="n">
-        <v>93.92870000000001</v>
+        <v>98.4644</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.2269</v>
+        <v>39.9836</v>
       </c>
       <c r="C9" t="n">
-        <v>45.6673</v>
+        <v>45.6127</v>
       </c>
       <c r="D9" t="n">
-        <v>61.5332</v>
+        <v>57.8275</v>
       </c>
       <c r="E9" t="n">
-        <v>95.48309999999999</v>
+        <v>98.3597</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4736</v>
+        <v>40.16</v>
       </c>
       <c r="C10" t="n">
-        <v>50.2478</v>
+        <v>50.7484</v>
       </c>
       <c r="D10" t="n">
-        <v>61.2576</v>
+        <v>62.9877</v>
       </c>
       <c r="E10" t="n">
-        <v>96.6621</v>
+        <v>102.728</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.5801</v>
+        <v>40.3308</v>
       </c>
       <c r="C11" t="n">
-        <v>53.4875</v>
+        <v>53.6303</v>
       </c>
       <c r="D11" t="n">
-        <v>65.83159999999999</v>
+        <v>65.12860000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>98.9978</v>
+        <v>103.035</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.609</v>
+        <v>40.6959</v>
       </c>
       <c r="C12" t="n">
-        <v>55.1712</v>
+        <v>54.4508</v>
       </c>
       <c r="D12" t="n">
-        <v>65.8939</v>
+        <v>69.837</v>
       </c>
       <c r="E12" t="n">
-        <v>100.613</v>
+        <v>105.512</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.5683</v>
+        <v>40.7546</v>
       </c>
       <c r="C13" t="n">
-        <v>55.3183</v>
+        <v>55.3857</v>
       </c>
       <c r="D13" t="n">
-        <v>67.87269999999999</v>
+        <v>69.8644</v>
       </c>
       <c r="E13" t="n">
-        <v>102.484</v>
+        <v>106.242</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.64</v>
+        <v>40.5198</v>
       </c>
       <c r="C14" t="n">
-        <v>55.6528</v>
+        <v>55.6477</v>
       </c>
       <c r="D14" t="n">
-        <v>69.0849</v>
+        <v>71.9216</v>
       </c>
       <c r="E14" t="n">
-        <v>101.818</v>
+        <v>106.639</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6987</v>
+        <v>40.5675</v>
       </c>
       <c r="C15" t="n">
-        <v>55.721</v>
+        <v>55.2555</v>
       </c>
       <c r="D15" t="n">
-        <v>71.377</v>
+        <v>71.911</v>
       </c>
       <c r="E15" t="n">
-        <v>102.752</v>
+        <v>106.546</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7674</v>
+        <v>40.6333</v>
       </c>
       <c r="C16" t="n">
-        <v>55.8695</v>
+        <v>55.9293</v>
       </c>
       <c r="D16" t="n">
-        <v>70.55670000000001</v>
+        <v>72.08450000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>102.665</v>
+        <v>107.636</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7184</v>
+        <v>40.7462</v>
       </c>
       <c r="C17" t="n">
-        <v>56.2449</v>
+        <v>55.7743</v>
       </c>
       <c r="D17" t="n">
-        <v>71.8639</v>
+        <v>72.4252</v>
       </c>
       <c r="E17" t="n">
-        <v>102.519</v>
+        <v>106.645</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.871130000000001</v>
+        <v>8.85356</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9194</v>
+        <v>16.8834</v>
       </c>
       <c r="D2" t="n">
-        <v>21.4465</v>
+        <v>21.2897</v>
       </c>
       <c r="E2" t="n">
-        <v>33.2415</v>
+        <v>33.5233</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8403</v>
+        <v>16.8316</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7264</v>
+        <v>30.5699</v>
       </c>
       <c r="D3" t="n">
-        <v>40.576</v>
+        <v>40.0249</v>
       </c>
       <c r="E3" t="n">
-        <v>62.18</v>
+        <v>62.5311</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0098</v>
+        <v>24.0091</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49</v>
+        <v>42.1908</v>
       </c>
       <c r="D4" t="n">
-        <v>57.1499</v>
+        <v>56.3926</v>
       </c>
       <c r="E4" t="n">
-        <v>86.62</v>
+        <v>85.8567</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.459</v>
+        <v>31.4291</v>
       </c>
       <c r="C5" t="n">
-        <v>53.9996</v>
+        <v>53.755</v>
       </c>
       <c r="D5" t="n">
-        <v>74.5069</v>
+        <v>73.1879</v>
       </c>
       <c r="E5" t="n">
-        <v>108.817</v>
+        <v>109.657</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.788</v>
+        <v>33.7333</v>
       </c>
       <c r="C6" t="n">
-        <v>45.7181</v>
+        <v>45.6067</v>
       </c>
       <c r="D6" t="n">
-        <v>64.895</v>
+        <v>66.07340000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>97.7773</v>
+        <v>100.343</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.4477</v>
+        <v>36.3787</v>
       </c>
       <c r="C7" t="n">
-        <v>45.9258</v>
+        <v>45.8632</v>
       </c>
       <c r="D7" t="n">
-        <v>62.6272</v>
+        <v>58.9169</v>
       </c>
       <c r="E7" t="n">
-        <v>94.83710000000001</v>
+        <v>96.1183</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0315</v>
+        <v>38.7402</v>
       </c>
       <c r="C8" t="n">
-        <v>46.2105</v>
+        <v>45.9763</v>
       </c>
       <c r="D8" t="n">
-        <v>57.6426</v>
+        <v>60.795</v>
       </c>
       <c r="E8" t="n">
-        <v>93.79640000000001</v>
+        <v>99.5744</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.8772</v>
+        <v>40.4412</v>
       </c>
       <c r="C9" t="n">
-        <v>46.3949</v>
+        <v>46.2971</v>
       </c>
       <c r="D9" t="n">
-        <v>61.258</v>
+        <v>58.6976</v>
       </c>
       <c r="E9" t="n">
-        <v>96.392</v>
+        <v>101.038</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.8312</v>
+        <v>40.7471</v>
       </c>
       <c r="C10" t="n">
-        <v>51.4459</v>
+        <v>52.0365</v>
       </c>
       <c r="D10" t="n">
-        <v>60.5452</v>
+        <v>62.6566</v>
       </c>
       <c r="E10" t="n">
-        <v>98.4735</v>
+        <v>102.583</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.1319</v>
+        <v>40.9309</v>
       </c>
       <c r="C11" t="n">
-        <v>54.6208</v>
+        <v>54.8813</v>
       </c>
       <c r="D11" t="n">
-        <v>63.8124</v>
+        <v>64.40260000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>99.4997</v>
+        <v>103.895</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2662</v>
+        <v>41.2289</v>
       </c>
       <c r="C12" t="n">
-        <v>55.7847</v>
+        <v>55.5887</v>
       </c>
       <c r="D12" t="n">
-        <v>65.5891</v>
+        <v>68.17529999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>101.525</v>
+        <v>106.947</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2567</v>
+        <v>41.2076</v>
       </c>
       <c r="C13" t="n">
-        <v>55.7898</v>
+        <v>55.7424</v>
       </c>
       <c r="D13" t="n">
-        <v>68.0675</v>
+        <v>68.49209999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>103.455</v>
+        <v>106.731</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3398</v>
+        <v>41.2505</v>
       </c>
       <c r="C14" t="n">
-        <v>56.359</v>
+        <v>56.0701</v>
       </c>
       <c r="D14" t="n">
-        <v>67.7928</v>
+        <v>70.9491</v>
       </c>
       <c r="E14" t="n">
-        <v>104.328</v>
+        <v>107.807</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2193</v>
+        <v>41.2415</v>
       </c>
       <c r="C15" t="n">
-        <v>56.4244</v>
+        <v>56.4574</v>
       </c>
       <c r="D15" t="n">
-        <v>71.2041</v>
+        <v>71.4119</v>
       </c>
       <c r="E15" t="n">
-        <v>105.462</v>
+        <v>107.824</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.2139</v>
+        <v>41.1962</v>
       </c>
       <c r="C16" t="n">
-        <v>56.6668</v>
+        <v>56.2869</v>
       </c>
       <c r="D16" t="n">
-        <v>71.15430000000001</v>
+        <v>72.69199999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>105.213</v>
+        <v>108.16</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3066</v>
+        <v>41.1866</v>
       </c>
       <c r="C17" t="n">
-        <v>57.0795</v>
+        <v>56.5987</v>
       </c>
       <c r="D17" t="n">
-        <v>71.8869</v>
+        <v>71.8419</v>
       </c>
       <c r="E17" t="n">
-        <v>103.711</v>
+        <v>108.288</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8393</v>
+        <v>13.8193</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5125</v>
+        <v>21.5867</v>
       </c>
       <c r="D2" t="n">
-        <v>28.3482</v>
+        <v>28.642</v>
       </c>
       <c r="E2" t="n">
-        <v>37.7448</v>
+        <v>41.2465</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5828</v>
+        <v>26.6027</v>
       </c>
       <c r="C3" t="n">
-        <v>39.141</v>
+        <v>38.9148</v>
       </c>
       <c r="D3" t="n">
-        <v>53.1667</v>
+        <v>53.9527</v>
       </c>
       <c r="E3" t="n">
-        <v>68.9469</v>
+        <v>75.2474</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.9942</v>
+        <v>37.9234</v>
       </c>
       <c r="C4" t="n">
-        <v>54.5274</v>
+        <v>54.1694</v>
       </c>
       <c r="D4" t="n">
-        <v>75.1374</v>
+        <v>75.82510000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>96.45829999999999</v>
+        <v>104.121</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.1306</v>
+        <v>49.0794</v>
       </c>
       <c r="C5" t="n">
-        <v>70.3205</v>
+        <v>69.81319999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>97.99720000000001</v>
+        <v>98.8818</v>
       </c>
       <c r="E5" t="n">
-        <v>124.185</v>
+        <v>134.801</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.0241</v>
+        <v>48.022</v>
       </c>
       <c r="C6" t="n">
-        <v>55.9863</v>
+        <v>56.1577</v>
       </c>
       <c r="D6" t="n">
-        <v>79.1418</v>
+        <v>84.40430000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>103.861</v>
+        <v>117.795</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.4653</v>
+        <v>49.6249</v>
       </c>
       <c r="C7" t="n">
-        <v>53.8192</v>
+        <v>53.8228</v>
       </c>
       <c r="D7" t="n">
-        <v>73.5291</v>
+        <v>71.7259</v>
       </c>
       <c r="E7" t="n">
-        <v>97.5608</v>
+        <v>108.654</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.2624</v>
+        <v>51.1986</v>
       </c>
       <c r="C8" t="n">
-        <v>52.8272</v>
+        <v>52.8578</v>
       </c>
       <c r="D8" t="n">
-        <v>64.696</v>
+        <v>71.8764</v>
       </c>
       <c r="E8" t="n">
-        <v>95.4079</v>
+        <v>109.512</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.0731</v>
+        <v>52.9621</v>
       </c>
       <c r="C9" t="n">
-        <v>51.5623</v>
+        <v>51.672</v>
       </c>
       <c r="D9" t="n">
-        <v>64.80289999999999</v>
+        <v>64.7024</v>
       </c>
       <c r="E9" t="n">
-        <v>96.19240000000001</v>
+        <v>108.002</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.808</v>
+        <v>53.0822</v>
       </c>
       <c r="C10" t="n">
-        <v>55.3564</v>
+        <v>55.7601</v>
       </c>
       <c r="D10" t="n">
-        <v>64.4663</v>
+        <v>72.1353</v>
       </c>
       <c r="E10" t="n">
-        <v>98.0483</v>
+        <v>112.083</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.8728</v>
+        <v>52.7771</v>
       </c>
       <c r="C11" t="n">
-        <v>57.7163</v>
+        <v>58.2006</v>
       </c>
       <c r="D11" t="n">
-        <v>68.2525</v>
+        <v>73.5752</v>
       </c>
       <c r="E11" t="n">
-        <v>100.477</v>
+        <v>111.784</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.0407</v>
+        <v>53.0507</v>
       </c>
       <c r="C12" t="n">
-        <v>58.437</v>
+        <v>58.5304</v>
       </c>
       <c r="D12" t="n">
-        <v>70.2362</v>
+        <v>77.63039999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>102.714</v>
+        <v>115.127</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.9941</v>
+        <v>52.9709</v>
       </c>
       <c r="C13" t="n">
-        <v>58.8973</v>
+        <v>58.8064</v>
       </c>
       <c r="D13" t="n">
-        <v>73.0825</v>
+        <v>76.8913</v>
       </c>
       <c r="E13" t="n">
-        <v>105.079</v>
+        <v>115.637</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.9126</v>
+        <v>53.1816</v>
       </c>
       <c r="C14" t="n">
-        <v>58.9405</v>
+        <v>59.0054</v>
       </c>
       <c r="D14" t="n">
-        <v>74.55</v>
+        <v>80.8631</v>
       </c>
       <c r="E14" t="n">
-        <v>106.926</v>
+        <v>117.45</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.407</v>
+        <v>52.7336</v>
       </c>
       <c r="C15" t="n">
-        <v>59.0461</v>
+        <v>59.0057</v>
       </c>
       <c r="D15" t="n">
-        <v>75.2916</v>
+        <v>81.1023</v>
       </c>
       <c r="E15" t="n">
-        <v>107.006</v>
+        <v>116.972</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>53.053</v>
+        <v>52.9367</v>
       </c>
       <c r="C16" t="n">
-        <v>59.3167</v>
+        <v>59.0666</v>
       </c>
       <c r="D16" t="n">
-        <v>76.8008</v>
+        <v>83.2889</v>
       </c>
       <c r="E16" t="n">
-        <v>108.374</v>
+        <v>119.39</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>53.0543</v>
+        <v>51.5786</v>
       </c>
       <c r="C17" t="n">
-        <v>59.4462</v>
+        <v>59.1846</v>
       </c>
       <c r="D17" t="n">
-        <v>77.6331</v>
+        <v>82.9708</v>
       </c>
       <c r="E17" t="n">
-        <v>108.761</v>
+        <v>118.903</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2451</v>
+        <v>14.1773</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6528</v>
+        <v>18.9413</v>
       </c>
       <c r="D2" t="n">
-        <v>24.773</v>
+        <v>25.2414</v>
       </c>
       <c r="E2" t="n">
-        <v>31.1039</v>
+        <v>33.7725</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9108</v>
+        <v>27.4235</v>
       </c>
       <c r="C3" t="n">
-        <v>32.3941</v>
+        <v>31.1898</v>
       </c>
       <c r="D3" t="n">
-        <v>34.1854</v>
+        <v>35.0977</v>
       </c>
       <c r="E3" t="n">
-        <v>49.6489</v>
+        <v>53.2335</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0707</v>
+        <v>29.7945</v>
       </c>
       <c r="C4" t="n">
-        <v>38.9631</v>
+        <v>39.4373</v>
       </c>
       <c r="D4" t="n">
-        <v>50.1192</v>
+        <v>48.5972</v>
       </c>
       <c r="E4" t="n">
-        <v>68.9267</v>
+        <v>63.8568</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.9934</v>
+        <v>47.1569</v>
       </c>
       <c r="C5" t="n">
-        <v>48.0405</v>
+        <v>46.492</v>
       </c>
       <c r="D5" t="n">
-        <v>56.1563</v>
+        <v>57.998</v>
       </c>
       <c r="E5" t="n">
-        <v>72.26000000000001</v>
+        <v>84.629</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36.4065</v>
+        <v>37.6576</v>
       </c>
       <c r="C6" t="n">
-        <v>46.0524</v>
+        <v>47.2521</v>
       </c>
       <c r="D6" t="n">
-        <v>49.3686</v>
+        <v>55.9434</v>
       </c>
       <c r="E6" t="n">
-        <v>64.24299999999999</v>
+        <v>60.4637</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.1489</v>
+        <v>37.2595</v>
       </c>
       <c r="C7" t="n">
-        <v>45.6206</v>
+        <v>44.9437</v>
       </c>
       <c r="D7" t="n">
-        <v>40.6925</v>
+        <v>50.3385</v>
       </c>
       <c r="E7" t="n">
-        <v>57.2717</v>
+        <v>64.7092</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.4329</v>
+        <v>40.722</v>
       </c>
       <c r="C8" t="n">
-        <v>42.7424</v>
+        <v>41.4857</v>
       </c>
       <c r="D8" t="n">
-        <v>50.2511</v>
+        <v>48.744</v>
       </c>
       <c r="E8" t="n">
-        <v>63.4162</v>
+        <v>61.1505</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.4346</v>
+        <v>38.4389</v>
       </c>
       <c r="C9" t="n">
-        <v>45.6661</v>
+        <v>43.7139</v>
       </c>
       <c r="D9" t="n">
-        <v>46.3254</v>
+        <v>46.8238</v>
       </c>
       <c r="E9" t="n">
-        <v>64.8327</v>
+        <v>63.5452</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.9934</v>
+        <v>42.9024</v>
       </c>
       <c r="C10" t="n">
-        <v>47.5894</v>
+        <v>49.8394</v>
       </c>
       <c r="D10" t="n">
-        <v>47.1913</v>
+        <v>52.9995</v>
       </c>
       <c r="E10" t="n">
-        <v>64.70780000000001</v>
+        <v>66.376</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.1798</v>
+        <v>46.6934</v>
       </c>
       <c r="C11" t="n">
-        <v>44.0482</v>
+        <v>45.3644</v>
       </c>
       <c r="D11" t="n">
-        <v>54.7584</v>
+        <v>57.1681</v>
       </c>
       <c r="E11" t="n">
-        <v>60.7209</v>
+        <v>73.2102</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.8</v>
+        <v>45.6431</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5661</v>
+        <v>51.4841</v>
       </c>
       <c r="D12" t="n">
-        <v>49.0679</v>
+        <v>53.6438</v>
       </c>
       <c r="E12" t="n">
-        <v>71.8365</v>
+        <v>73.87130000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.4991</v>
+        <v>43.955</v>
       </c>
       <c r="C13" t="n">
-        <v>46.5516</v>
+        <v>43.3291</v>
       </c>
       <c r="D13" t="n">
-        <v>53.2363</v>
+        <v>56.3622</v>
       </c>
       <c r="E13" t="n">
-        <v>67.9952</v>
+        <v>50.2674</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.0926</v>
+        <v>39.0818</v>
       </c>
       <c r="C14" t="n">
-        <v>45.0092</v>
+        <v>49.0368</v>
       </c>
       <c r="D14" t="n">
-        <v>56.1988</v>
+        <v>53.1051</v>
       </c>
       <c r="E14" t="n">
-        <v>65.0082</v>
+        <v>72.8074</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.3229</v>
+        <v>42.1988</v>
       </c>
       <c r="C15" t="n">
-        <v>46.9589</v>
+        <v>52.9483</v>
       </c>
       <c r="D15" t="n">
-        <v>57.0516</v>
+        <v>55.2818</v>
       </c>
       <c r="E15" t="n">
-        <v>65.3575</v>
+        <v>63.255</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.925</v>
+        <v>44.0543</v>
       </c>
       <c r="C16" t="n">
-        <v>50.0225</v>
+        <v>47.3815</v>
       </c>
       <c r="D16" t="n">
-        <v>53.8532</v>
+        <v>56.4831</v>
       </c>
       <c r="E16" t="n">
-        <v>68.1541</v>
+        <v>65.79859999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.6701</v>
+        <v>42.5511</v>
       </c>
       <c r="C17" t="n">
-        <v>48.7229</v>
+        <v>48.171</v>
       </c>
       <c r="D17" t="n">
-        <v>47.9831</v>
+        <v>52.9264</v>
       </c>
       <c r="E17" t="n">
-        <v>56.4576</v>
+        <v>69.8998</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8003</v>
+        <v>15.0042</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6126</v>
+        <v>18.4819</v>
       </c>
       <c r="D2" t="n">
-        <v>24.4782</v>
+        <v>24.6129</v>
       </c>
       <c r="E2" t="n">
-        <v>32.5983</v>
+        <v>30.4337</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8234</v>
+        <v>27.8358</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6447</v>
+        <v>30.7032</v>
       </c>
       <c r="D3" t="n">
-        <v>31.5781</v>
+        <v>33.7721</v>
       </c>
       <c r="E3" t="n">
-        <v>50.5723</v>
+        <v>49.0272</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.7073</v>
+        <v>30.374</v>
       </c>
       <c r="C4" t="n">
-        <v>40.3206</v>
+        <v>33.0668</v>
       </c>
       <c r="D4" t="n">
-        <v>49.992</v>
+        <v>52.1245</v>
       </c>
       <c r="E4" t="n">
-        <v>56.0057</v>
+        <v>70.7046</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39.8135</v>
+        <v>46.141</v>
       </c>
       <c r="C5" t="n">
-        <v>45.1888</v>
+        <v>51.8215</v>
       </c>
       <c r="D5" t="n">
-        <v>56.8983</v>
+        <v>54.9762</v>
       </c>
       <c r="E5" t="n">
-        <v>80.7397</v>
+        <v>86.80329999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.338</v>
+        <v>45.1261</v>
       </c>
       <c r="C6" t="n">
-        <v>41.9123</v>
+        <v>48.1591</v>
       </c>
       <c r="D6" t="n">
-        <v>53.3236</v>
+        <v>57.2926</v>
       </c>
       <c r="E6" t="n">
-        <v>68.23650000000001</v>
+        <v>65.6151</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.529</v>
+        <v>42.6426</v>
       </c>
       <c r="C7" t="n">
-        <v>38.5635</v>
+        <v>42.2971</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7839</v>
+        <v>52.6812</v>
       </c>
       <c r="E7" t="n">
-        <v>73.2966</v>
+        <v>64.9988</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.2463</v>
+        <v>43.6372</v>
       </c>
       <c r="C8" t="n">
-        <v>38.1978</v>
+        <v>41.7425</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8997</v>
+        <v>53.7961</v>
       </c>
       <c r="E8" t="n">
-        <v>67.9714</v>
+        <v>62.5409</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.9145</v>
+        <v>41.9865</v>
       </c>
       <c r="C9" t="n">
-        <v>40.0176</v>
+        <v>39.7428</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3215</v>
+        <v>54.9346</v>
       </c>
       <c r="E9" t="n">
-        <v>72.5565</v>
+        <v>71.9841</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.7046</v>
+        <v>40.243</v>
       </c>
       <c r="C10" t="n">
-        <v>45.0605</v>
+        <v>46.7391</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9919</v>
+        <v>51.072</v>
       </c>
       <c r="E10" t="n">
-        <v>65.2958</v>
+        <v>67.76130000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.5736</v>
+        <v>44.7615</v>
       </c>
       <c r="C11" t="n">
-        <v>45.9714</v>
+        <v>51.183</v>
       </c>
       <c r="D11" t="n">
-        <v>49.6215</v>
+        <v>47.7852</v>
       </c>
       <c r="E11" t="n">
-        <v>66.87390000000001</v>
+        <v>68.96980000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>47.2903</v>
+        <v>43.2254</v>
       </c>
       <c r="C12" t="n">
-        <v>46.1129</v>
+        <v>45.0633</v>
       </c>
       <c r="D12" t="n">
-        <v>46.8976</v>
+        <v>55.5437</v>
       </c>
       <c r="E12" t="n">
-        <v>69.4174</v>
+        <v>81.7868</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.2747</v>
+        <v>48.1153</v>
       </c>
       <c r="C13" t="n">
-        <v>44.9882</v>
+        <v>49.0622</v>
       </c>
       <c r="D13" t="n">
-        <v>52.2497</v>
+        <v>52.2398</v>
       </c>
       <c r="E13" t="n">
-        <v>51.838</v>
+        <v>64.4295</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.2549</v>
+        <v>43.6511</v>
       </c>
       <c r="C14" t="n">
-        <v>44.5764</v>
+        <v>53.6396</v>
       </c>
       <c r="D14" t="n">
-        <v>51.447</v>
+        <v>52.4295</v>
       </c>
       <c r="E14" t="n">
-        <v>76.18680000000001</v>
+        <v>64.43770000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.0432</v>
+        <v>43.4962</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8533</v>
+        <v>45.5854</v>
       </c>
       <c r="D15" t="n">
-        <v>46.5683</v>
+        <v>57.0373</v>
       </c>
       <c r="E15" t="n">
-        <v>66.26430000000001</v>
+        <v>66.9764</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.2176</v>
+        <v>45.5143</v>
       </c>
       <c r="C16" t="n">
-        <v>51.4928</v>
+        <v>49.4548</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5134</v>
+        <v>53.1917</v>
       </c>
       <c r="E16" t="n">
-        <v>72.2795</v>
+        <v>76.57170000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.9136</v>
+        <v>41.4433</v>
       </c>
       <c r="C17" t="n">
-        <v>50.908</v>
+        <v>52.1128</v>
       </c>
       <c r="D17" t="n">
-        <v>48.7472</v>
+        <v>55.8393</v>
       </c>
       <c r="E17" t="n">
-        <v>58.648</v>
+        <v>79.0697</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.212</v>
+        <v>18.3477</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5767</v>
+        <v>21.8206</v>
       </c>
       <c r="D2" t="n">
-        <v>27.5561</v>
+        <v>28.3067</v>
       </c>
       <c r="E2" t="n">
-        <v>30.5841</v>
+        <v>31.1628</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29.4515</v>
+        <v>31.5693</v>
       </c>
       <c r="C3" t="n">
-        <v>29.8853</v>
+        <v>29.3077</v>
       </c>
       <c r="D3" t="n">
-        <v>39.3412</v>
+        <v>41.9071</v>
       </c>
       <c r="E3" t="n">
-        <v>53.4467</v>
+        <v>48.8118</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.5154</v>
+        <v>32.7849</v>
       </c>
       <c r="C4" t="n">
-        <v>49.096</v>
+        <v>47.4779</v>
       </c>
       <c r="D4" t="n">
-        <v>56.063</v>
+        <v>52.8433</v>
       </c>
       <c r="E4" t="n">
-        <v>69.14870000000001</v>
+        <v>74.74850000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.4273</v>
+        <v>43.1453</v>
       </c>
       <c r="C5" t="n">
-        <v>55.6658</v>
+        <v>54.1039</v>
       </c>
       <c r="D5" t="n">
-        <v>67.58280000000001</v>
+        <v>75.7574</v>
       </c>
       <c r="E5" t="n">
-        <v>88.2906</v>
+        <v>82.33199999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>41.8904</v>
+        <v>39.3124</v>
       </c>
       <c r="C6" t="n">
-        <v>55.2926</v>
+        <v>46.9876</v>
       </c>
       <c r="D6" t="n">
-        <v>62.0242</v>
+        <v>59.5859</v>
       </c>
       <c r="E6" t="n">
-        <v>75.67270000000001</v>
+        <v>83.3575</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0443</v>
+        <v>34.9596</v>
       </c>
       <c r="C7" t="n">
-        <v>47.2964</v>
+        <v>48.2972</v>
       </c>
       <c r="D7" t="n">
-        <v>56.3074</v>
+        <v>56.6704</v>
       </c>
       <c r="E7" t="n">
-        <v>69.5177</v>
+        <v>77.3378</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.8942</v>
+        <v>40.9744</v>
       </c>
       <c r="C8" t="n">
-        <v>40.3569</v>
+        <v>43.5771</v>
       </c>
       <c r="D8" t="n">
-        <v>54.9848</v>
+        <v>58.7405</v>
       </c>
       <c r="E8" t="n">
-        <v>84.7486</v>
+        <v>70.0596</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.9682</v>
+        <v>39.6302</v>
       </c>
       <c r="C9" t="n">
-        <v>43.5838</v>
+        <v>39.0911</v>
       </c>
       <c r="D9" t="n">
-        <v>53.2352</v>
+        <v>53.5541</v>
       </c>
       <c r="E9" t="n">
-        <v>82.0326</v>
+        <v>79.7629</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.4488</v>
+        <v>38.547</v>
       </c>
       <c r="C10" t="n">
-        <v>37.8132</v>
+        <v>38.3618</v>
       </c>
       <c r="D10" t="n">
-        <v>56.9711</v>
+        <v>51.3869</v>
       </c>
       <c r="E10" t="n">
-        <v>75.9115</v>
+        <v>79.7499</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39.1693</v>
+        <v>41.0891</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1637</v>
+        <v>39.9431</v>
       </c>
       <c r="D11" t="n">
-        <v>53.4219</v>
+        <v>58.0356</v>
       </c>
       <c r="E11" t="n">
-        <v>64.7903</v>
+        <v>85.3378</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.8898</v>
+        <v>46.3758</v>
       </c>
       <c r="C12" t="n">
-        <v>44.1604</v>
+        <v>41.1506</v>
       </c>
       <c r="D12" t="n">
-        <v>56.0496</v>
+        <v>55.3806</v>
       </c>
       <c r="E12" t="n">
-        <v>80.2257</v>
+        <v>89.623</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.4972</v>
+        <v>46.2317</v>
       </c>
       <c r="C13" t="n">
-        <v>44.5319</v>
+        <v>37.6295</v>
       </c>
       <c r="D13" t="n">
-        <v>54.5219</v>
+        <v>54.5294</v>
       </c>
       <c r="E13" t="n">
-        <v>79.23220000000001</v>
+        <v>89.794</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.8358</v>
+        <v>45.8188</v>
       </c>
       <c r="C14" t="n">
-        <v>36.7871</v>
+        <v>41.1756</v>
       </c>
       <c r="D14" t="n">
-        <v>56.7448</v>
+        <v>57.6613</v>
       </c>
       <c r="E14" t="n">
-        <v>93.7381</v>
+        <v>88.6611</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.5469</v>
+        <v>46.043</v>
       </c>
       <c r="C15" t="n">
-        <v>40.3978</v>
+        <v>43.1756</v>
       </c>
       <c r="D15" t="n">
-        <v>60.3715</v>
+        <v>56.3438</v>
       </c>
       <c r="E15" t="n">
-        <v>79.90940000000001</v>
+        <v>83.4251</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.5865</v>
+        <v>46.6902</v>
       </c>
       <c r="C16" t="n">
-        <v>44.573</v>
+        <v>38.1302</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5082</v>
+        <v>55.876</v>
       </c>
       <c r="E16" t="n">
-        <v>83.24769999999999</v>
+        <v>87.4709</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.0876</v>
+        <v>37.5069</v>
       </c>
       <c r="C17" t="n">
-        <v>42.0406</v>
+        <v>39.9872</v>
       </c>
       <c r="D17" t="n">
-        <v>57.4088</v>
+        <v>57.4235</v>
       </c>
       <c r="E17" t="n">
-        <v>93.6099</v>
+        <v>91.7385</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.84282</v>
+        <v>8.85134</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7515</v>
+        <v>16.7205</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5831</v>
+        <v>21.8279</v>
       </c>
       <c r="E2" t="n">
-        <v>33.5123</v>
+        <v>33.5564</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.752</v>
+        <v>16.7566</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3159</v>
+        <v>30.2877</v>
       </c>
       <c r="D3" t="n">
-        <v>40.6218</v>
+        <v>40.9114</v>
       </c>
       <c r="E3" t="n">
-        <v>62.0819</v>
+        <v>62.5283</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7841</v>
+        <v>23.8152</v>
       </c>
       <c r="C4" t="n">
-        <v>41.8414</v>
+        <v>41.7624</v>
       </c>
       <c r="D4" t="n">
-        <v>57.1107</v>
+        <v>57.4644</v>
       </c>
       <c r="E4" t="n">
-        <v>85.2893</v>
+        <v>86.29770000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0823</v>
+        <v>31.0667</v>
       </c>
       <c r="C5" t="n">
-        <v>52.9594</v>
+        <v>53.1723</v>
       </c>
       <c r="D5" t="n">
-        <v>74.90479999999999</v>
+        <v>75.6318</v>
       </c>
       <c r="E5" t="n">
-        <v>108.779</v>
+        <v>109.363</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3677</v>
+        <v>33.29</v>
       </c>
       <c r="C6" t="n">
-        <v>44.8804</v>
+        <v>44.6904</v>
       </c>
       <c r="D6" t="n">
-        <v>67.04170000000001</v>
+        <v>67.6895</v>
       </c>
       <c r="E6" t="n">
-        <v>99.7881</v>
+        <v>100.79</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.7916</v>
+        <v>35.7872</v>
       </c>
       <c r="C7" t="n">
-        <v>45.2579</v>
+        <v>45.0212</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5152</v>
+        <v>58.8081</v>
       </c>
       <c r="E7" t="n">
-        <v>96.5899</v>
+        <v>96.2552</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.2926</v>
+        <v>38.0971</v>
       </c>
       <c r="C8" t="n">
-        <v>45.3378</v>
+        <v>45.3563</v>
       </c>
       <c r="D8" t="n">
-        <v>60.1983</v>
+        <v>60.5093</v>
       </c>
       <c r="E8" t="n">
-        <v>98.4644</v>
+        <v>99.06359999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.9836</v>
+        <v>40.0571</v>
       </c>
       <c r="C9" t="n">
-        <v>45.6127</v>
+        <v>45.8163</v>
       </c>
       <c r="D9" t="n">
-        <v>57.8275</v>
+        <v>60.8475</v>
       </c>
       <c r="E9" t="n">
-        <v>98.3597</v>
+        <v>98.67440000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.16</v>
+        <v>39.9646</v>
       </c>
       <c r="C10" t="n">
-        <v>50.7484</v>
+        <v>51.3417</v>
       </c>
       <c r="D10" t="n">
-        <v>62.9877</v>
+        <v>64.29430000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>102.728</v>
+        <v>102.273</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.3308</v>
+        <v>40.3021</v>
       </c>
       <c r="C11" t="n">
-        <v>53.6303</v>
+        <v>53.5063</v>
       </c>
       <c r="D11" t="n">
-        <v>65.12860000000001</v>
+        <v>66.21769999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>103.035</v>
+        <v>101.905</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6959</v>
+        <v>40.4845</v>
       </c>
       <c r="C12" t="n">
-        <v>54.4508</v>
+        <v>54.0049</v>
       </c>
       <c r="D12" t="n">
-        <v>69.837</v>
+        <v>69.4919</v>
       </c>
       <c r="E12" t="n">
-        <v>105.512</v>
+        <v>106.755</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7546</v>
+        <v>40.4824</v>
       </c>
       <c r="C13" t="n">
-        <v>55.3857</v>
+        <v>54.9178</v>
       </c>
       <c r="D13" t="n">
-        <v>69.8644</v>
+        <v>69.938</v>
       </c>
       <c r="E13" t="n">
-        <v>106.242</v>
+        <v>106.842</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.5198</v>
+        <v>40.5588</v>
       </c>
       <c r="C14" t="n">
-        <v>55.6477</v>
+        <v>55.3341</v>
       </c>
       <c r="D14" t="n">
-        <v>71.9216</v>
+        <v>72.56310000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>106.639</v>
+        <v>106.715</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.5675</v>
+        <v>40.6078</v>
       </c>
       <c r="C15" t="n">
-        <v>55.2555</v>
+        <v>55.1984</v>
       </c>
       <c r="D15" t="n">
-        <v>71.911</v>
+        <v>71.87309999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>106.546</v>
+        <v>107.819</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.6333</v>
+        <v>40.4306</v>
       </c>
       <c r="C16" t="n">
-        <v>55.9293</v>
+        <v>55.7176</v>
       </c>
       <c r="D16" t="n">
-        <v>72.08450000000001</v>
+        <v>74.1871</v>
       </c>
       <c r="E16" t="n">
-        <v>107.636</v>
+        <v>106.463</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7462</v>
+        <v>40.7069</v>
       </c>
       <c r="C17" t="n">
-        <v>55.7743</v>
+        <v>55.7091</v>
       </c>
       <c r="D17" t="n">
-        <v>72.4252</v>
+        <v>73.6087</v>
       </c>
       <c r="E17" t="n">
-        <v>106.645</v>
+        <v>107.19</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.85356</v>
+        <v>8.84803</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8834</v>
+        <v>16.8269</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2897</v>
+        <v>21.4726</v>
       </c>
       <c r="E2" t="n">
-        <v>33.5233</v>
+        <v>33.6362</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8316</v>
+        <v>16.832</v>
       </c>
       <c r="C3" t="n">
-        <v>30.5699</v>
+        <v>30.5249</v>
       </c>
       <c r="D3" t="n">
-        <v>40.0249</v>
+        <v>40.4428</v>
       </c>
       <c r="E3" t="n">
-        <v>62.5311</v>
+        <v>62.6223</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0091</v>
+        <v>23.9936</v>
       </c>
       <c r="C4" t="n">
-        <v>42.1908</v>
+        <v>42.2373</v>
       </c>
       <c r="D4" t="n">
-        <v>56.3926</v>
+        <v>56.6849</v>
       </c>
       <c r="E4" t="n">
-        <v>85.8567</v>
+        <v>86.2704</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4291</v>
+        <v>31.4454</v>
       </c>
       <c r="C5" t="n">
-        <v>53.755</v>
+        <v>53.7598</v>
       </c>
       <c r="D5" t="n">
-        <v>73.1879</v>
+        <v>73.8704</v>
       </c>
       <c r="E5" t="n">
-        <v>109.657</v>
+        <v>109.818</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7333</v>
+        <v>33.7498</v>
       </c>
       <c r="C6" t="n">
-        <v>45.6067</v>
+        <v>45.4999</v>
       </c>
       <c r="D6" t="n">
-        <v>66.07340000000001</v>
+        <v>66.36409999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>100.343</v>
+        <v>101.517</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3787</v>
+        <v>36.2668</v>
       </c>
       <c r="C7" t="n">
-        <v>45.8632</v>
+        <v>45.728</v>
       </c>
       <c r="D7" t="n">
-        <v>58.9169</v>
+        <v>58.7504</v>
       </c>
       <c r="E7" t="n">
-        <v>96.1183</v>
+        <v>97.52079999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.7402</v>
+        <v>38.8057</v>
       </c>
       <c r="C8" t="n">
-        <v>45.9763</v>
+        <v>45.8725</v>
       </c>
       <c r="D8" t="n">
-        <v>60.795</v>
+        <v>60.8303</v>
       </c>
       <c r="E8" t="n">
-        <v>99.5744</v>
+        <v>99.63079999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4412</v>
+        <v>40.4784</v>
       </c>
       <c r="C9" t="n">
-        <v>46.2971</v>
+        <v>46.4089</v>
       </c>
       <c r="D9" t="n">
-        <v>58.6976</v>
+        <v>60.8961</v>
       </c>
       <c r="E9" t="n">
-        <v>101.038</v>
+        <v>100.921</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.7471</v>
+        <v>40.6461</v>
       </c>
       <c r="C10" t="n">
-        <v>52.0365</v>
+        <v>51.2211</v>
       </c>
       <c r="D10" t="n">
-        <v>62.6566</v>
+        <v>63.6534</v>
       </c>
       <c r="E10" t="n">
-        <v>102.583</v>
+        <v>103.586</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.9309</v>
+        <v>40.9392</v>
       </c>
       <c r="C11" t="n">
-        <v>54.8813</v>
+        <v>54.789</v>
       </c>
       <c r="D11" t="n">
-        <v>64.40260000000001</v>
+        <v>65.7509</v>
       </c>
       <c r="E11" t="n">
-        <v>103.895</v>
+        <v>104.809</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2289</v>
+        <v>41.0621</v>
       </c>
       <c r="C12" t="n">
-        <v>55.5887</v>
+        <v>55.0573</v>
       </c>
       <c r="D12" t="n">
-        <v>68.17529999999999</v>
+        <v>68.73309999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>106.947</v>
+        <v>106.532</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2076</v>
+        <v>41.1078</v>
       </c>
       <c r="C13" t="n">
-        <v>55.7424</v>
+        <v>55.8301</v>
       </c>
       <c r="D13" t="n">
-        <v>68.49209999999999</v>
+        <v>69.9492</v>
       </c>
       <c r="E13" t="n">
-        <v>106.731</v>
+        <v>106.922</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.2505</v>
+        <v>41.1006</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0701</v>
+        <v>55.8369</v>
       </c>
       <c r="D14" t="n">
-        <v>70.9491</v>
+        <v>72.25539999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>107.807</v>
+        <v>108.497</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2415</v>
+        <v>41.2902</v>
       </c>
       <c r="C15" t="n">
-        <v>56.4574</v>
+        <v>56.1514</v>
       </c>
       <c r="D15" t="n">
-        <v>71.4119</v>
+        <v>71.3822</v>
       </c>
       <c r="E15" t="n">
-        <v>107.824</v>
+        <v>106.594</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.1962</v>
+        <v>41.0916</v>
       </c>
       <c r="C16" t="n">
-        <v>56.2869</v>
+        <v>56.0167</v>
       </c>
       <c r="D16" t="n">
-        <v>72.69199999999999</v>
+        <v>73.2856</v>
       </c>
       <c r="E16" t="n">
-        <v>108.16</v>
+        <v>108.687</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.1866</v>
+        <v>41.329</v>
       </c>
       <c r="C17" t="n">
-        <v>56.5987</v>
+        <v>56.3681</v>
       </c>
       <c r="D17" t="n">
-        <v>71.8419</v>
+        <v>73.2261</v>
       </c>
       <c r="E17" t="n">
-        <v>108.288</v>
+        <v>108.059</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8193</v>
+        <v>13.7886</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5867</v>
+        <v>21.5416</v>
       </c>
       <c r="D2" t="n">
-        <v>28.642</v>
+        <v>28.9494</v>
       </c>
       <c r="E2" t="n">
-        <v>41.2465</v>
+        <v>41.3893</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6027</v>
+        <v>26.56</v>
       </c>
       <c r="C3" t="n">
-        <v>38.9148</v>
+        <v>39.2486</v>
       </c>
       <c r="D3" t="n">
-        <v>53.9527</v>
+        <v>54.3434</v>
       </c>
       <c r="E3" t="n">
-        <v>75.2474</v>
+        <v>75.6108</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.9234</v>
+        <v>37.8454</v>
       </c>
       <c r="C4" t="n">
-        <v>54.1694</v>
+        <v>54.8515</v>
       </c>
       <c r="D4" t="n">
-        <v>75.82510000000001</v>
+        <v>76.7556</v>
       </c>
       <c r="E4" t="n">
-        <v>104.121</v>
+        <v>104.925</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.0794</v>
+        <v>49.0531</v>
       </c>
       <c r="C5" t="n">
-        <v>69.81319999999999</v>
+        <v>70.64149999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>98.8818</v>
+        <v>99.7069</v>
       </c>
       <c r="E5" t="n">
-        <v>134.801</v>
+        <v>136.04</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.022</v>
+        <v>47.6825</v>
       </c>
       <c r="C6" t="n">
-        <v>56.1577</v>
+        <v>56.2337</v>
       </c>
       <c r="D6" t="n">
-        <v>84.40430000000001</v>
+        <v>86.4267</v>
       </c>
       <c r="E6" t="n">
-        <v>117.795</v>
+        <v>117.135</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.6249</v>
+        <v>49.5191</v>
       </c>
       <c r="C7" t="n">
-        <v>53.8228</v>
+        <v>53.9348</v>
       </c>
       <c r="D7" t="n">
-        <v>71.7259</v>
+        <v>71.8139</v>
       </c>
       <c r="E7" t="n">
-        <v>108.654</v>
+        <v>109.37</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.1986</v>
+        <v>51.1211</v>
       </c>
       <c r="C8" t="n">
-        <v>52.8578</v>
+        <v>52.8744</v>
       </c>
       <c r="D8" t="n">
-        <v>71.8764</v>
+        <v>71.4973</v>
       </c>
       <c r="E8" t="n">
-        <v>109.512</v>
+        <v>110.598</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.9621</v>
+        <v>52.8859</v>
       </c>
       <c r="C9" t="n">
-        <v>51.672</v>
+        <v>51.9981</v>
       </c>
       <c r="D9" t="n">
-        <v>64.7024</v>
+        <v>66.6474</v>
       </c>
       <c r="E9" t="n">
-        <v>108.002</v>
+        <v>109.714</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53.0822</v>
+        <v>52.4865</v>
       </c>
       <c r="C10" t="n">
-        <v>55.7601</v>
+        <v>56.0212</v>
       </c>
       <c r="D10" t="n">
-        <v>72.1353</v>
+        <v>72.8199</v>
       </c>
       <c r="E10" t="n">
-        <v>112.083</v>
+        <v>113.306</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.7771</v>
+        <v>52.5044</v>
       </c>
       <c r="C11" t="n">
-        <v>58.2006</v>
+        <v>58.1965</v>
       </c>
       <c r="D11" t="n">
-        <v>73.5752</v>
+        <v>73.4188</v>
       </c>
       <c r="E11" t="n">
-        <v>111.784</v>
+        <v>114.006</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.0507</v>
+        <v>52.4813</v>
       </c>
       <c r="C12" t="n">
-        <v>58.5304</v>
+        <v>58.8614</v>
       </c>
       <c r="D12" t="n">
-        <v>77.63039999999999</v>
+        <v>76.7576</v>
       </c>
       <c r="E12" t="n">
-        <v>115.127</v>
+        <v>116.393</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.9709</v>
+        <v>53.0249</v>
       </c>
       <c r="C13" t="n">
-        <v>58.8064</v>
+        <v>58.8703</v>
       </c>
       <c r="D13" t="n">
-        <v>76.8913</v>
+        <v>76.724</v>
       </c>
       <c r="E13" t="n">
-        <v>115.637</v>
+        <v>115.322</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>53.1816</v>
+        <v>52.679</v>
       </c>
       <c r="C14" t="n">
-        <v>59.0054</v>
+        <v>58.9097</v>
       </c>
       <c r="D14" t="n">
-        <v>80.8631</v>
+        <v>79.87560000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>117.45</v>
+        <v>118.162</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>52.7336</v>
+        <v>52.7127</v>
       </c>
       <c r="C15" t="n">
-        <v>59.0057</v>
+        <v>59.3116</v>
       </c>
       <c r="D15" t="n">
-        <v>81.1023</v>
+        <v>81.15179999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>116.972</v>
+        <v>117.855</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.9367</v>
+        <v>52.9153</v>
       </c>
       <c r="C16" t="n">
-        <v>59.0666</v>
+        <v>59.2269</v>
       </c>
       <c r="D16" t="n">
-        <v>83.2889</v>
+        <v>82.2328</v>
       </c>
       <c r="E16" t="n">
-        <v>119.39</v>
+        <v>118.738</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>51.5786</v>
+        <v>52.7278</v>
       </c>
       <c r="C17" t="n">
-        <v>59.1846</v>
+        <v>59.3285</v>
       </c>
       <c r="D17" t="n">
-        <v>82.9708</v>
+        <v>82.3476</v>
       </c>
       <c r="E17" t="n">
-        <v>118.903</v>
+        <v>119.1</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1773</v>
+        <v>14.0675</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9413</v>
+        <v>18.8661</v>
       </c>
       <c r="D2" t="n">
-        <v>25.2414</v>
+        <v>24.6862</v>
       </c>
       <c r="E2" t="n">
-        <v>33.7725</v>
+        <v>31.2048</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4235</v>
+        <v>27.4608</v>
       </c>
       <c r="C3" t="n">
-        <v>31.1898</v>
+        <v>31.4946</v>
       </c>
       <c r="D3" t="n">
-        <v>35.0977</v>
+        <v>35.0215</v>
       </c>
       <c r="E3" t="n">
-        <v>53.2335</v>
+        <v>54.0923</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29.7945</v>
+        <v>32.2667</v>
       </c>
       <c r="C4" t="n">
-        <v>39.4373</v>
+        <v>39.2783</v>
       </c>
       <c r="D4" t="n">
-        <v>48.5972</v>
+        <v>46.3989</v>
       </c>
       <c r="E4" t="n">
-        <v>63.8568</v>
+        <v>59.8587</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>47.1569</v>
+        <v>37.858</v>
       </c>
       <c r="C5" t="n">
-        <v>46.492</v>
+        <v>51.1969</v>
       </c>
       <c r="D5" t="n">
-        <v>57.998</v>
+        <v>56.3784</v>
       </c>
       <c r="E5" t="n">
-        <v>84.629</v>
+        <v>75.9709</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.6576</v>
+        <v>40.1787</v>
       </c>
       <c r="C6" t="n">
-        <v>47.2521</v>
+        <v>47.0974</v>
       </c>
       <c r="D6" t="n">
-        <v>55.9434</v>
+        <v>53.2055</v>
       </c>
       <c r="E6" t="n">
-        <v>60.4637</v>
+        <v>63.0238</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.2595</v>
+        <v>38.4889</v>
       </c>
       <c r="C7" t="n">
-        <v>44.9437</v>
+        <v>43.5532</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3385</v>
+        <v>54.673</v>
       </c>
       <c r="E7" t="n">
-        <v>64.7092</v>
+        <v>62.1516</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.722</v>
+        <v>42.964</v>
       </c>
       <c r="C8" t="n">
-        <v>41.4857</v>
+        <v>39.1122</v>
       </c>
       <c r="D8" t="n">
-        <v>48.744</v>
+        <v>51.9239</v>
       </c>
       <c r="E8" t="n">
-        <v>61.1505</v>
+        <v>56.8431</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.4389</v>
+        <v>43.8406</v>
       </c>
       <c r="C9" t="n">
-        <v>43.7139</v>
+        <v>44.0463</v>
       </c>
       <c r="D9" t="n">
-        <v>46.8238</v>
+        <v>46.7829</v>
       </c>
       <c r="E9" t="n">
-        <v>63.5452</v>
+        <v>61.3907</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.9024</v>
+        <v>42.2494</v>
       </c>
       <c r="C10" t="n">
-        <v>49.8394</v>
+        <v>44.1572</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9995</v>
+        <v>52.4882</v>
       </c>
       <c r="E10" t="n">
-        <v>66.376</v>
+        <v>70.0341</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46.6934</v>
+        <v>43.817</v>
       </c>
       <c r="C11" t="n">
-        <v>45.3644</v>
+        <v>47.8014</v>
       </c>
       <c r="D11" t="n">
-        <v>57.1681</v>
+        <v>50.5906</v>
       </c>
       <c r="E11" t="n">
-        <v>73.2102</v>
+        <v>60.5356</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.6431</v>
+        <v>39.638</v>
       </c>
       <c r="C12" t="n">
-        <v>51.4841</v>
+        <v>46.838</v>
       </c>
       <c r="D12" t="n">
-        <v>53.6438</v>
+        <v>48.4333</v>
       </c>
       <c r="E12" t="n">
-        <v>73.87130000000001</v>
+        <v>65.2351</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.955</v>
+        <v>41.0774</v>
       </c>
       <c r="C13" t="n">
-        <v>43.3291</v>
+        <v>43.9488</v>
       </c>
       <c r="D13" t="n">
-        <v>56.3622</v>
+        <v>52.5932</v>
       </c>
       <c r="E13" t="n">
-        <v>50.2674</v>
+        <v>62.3777</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>39.0818</v>
+        <v>41.9434</v>
       </c>
       <c r="C14" t="n">
-        <v>49.0368</v>
+        <v>49.6912</v>
       </c>
       <c r="D14" t="n">
-        <v>53.1051</v>
+        <v>49.8986</v>
       </c>
       <c r="E14" t="n">
-        <v>72.8074</v>
+        <v>60.4594</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.1988</v>
+        <v>40.4555</v>
       </c>
       <c r="C15" t="n">
-        <v>52.9483</v>
+        <v>47.5596</v>
       </c>
       <c r="D15" t="n">
-        <v>55.2818</v>
+        <v>56.2101</v>
       </c>
       <c r="E15" t="n">
-        <v>63.255</v>
+        <v>77.3331</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.0543</v>
+        <v>43.7922</v>
       </c>
       <c r="C16" t="n">
-        <v>47.3815</v>
+        <v>45.6288</v>
       </c>
       <c r="D16" t="n">
-        <v>56.4831</v>
+        <v>58.0172</v>
       </c>
       <c r="E16" t="n">
-        <v>65.79859999999999</v>
+        <v>66.13630000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.5511</v>
+        <v>44.5763</v>
       </c>
       <c r="C17" t="n">
-        <v>48.171</v>
+        <v>53.3512</v>
       </c>
       <c r="D17" t="n">
-        <v>52.9264</v>
+        <v>54.242</v>
       </c>
       <c r="E17" t="n">
-        <v>69.8998</v>
+        <v>67.0885</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>15.0042</v>
+        <v>14.8584</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4819</v>
+        <v>18.6769</v>
       </c>
       <c r="D2" t="n">
-        <v>24.6129</v>
+        <v>24.1259</v>
       </c>
       <c r="E2" t="n">
-        <v>30.4337</v>
+        <v>32.8519</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8358</v>
+        <v>27.7216</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7032</v>
+        <v>30.2549</v>
       </c>
       <c r="D3" t="n">
-        <v>33.7721</v>
+        <v>36.2853</v>
       </c>
       <c r="E3" t="n">
-        <v>49.0272</v>
+        <v>49.3997</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.374</v>
+        <v>31.2905</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0668</v>
+        <v>31.9611</v>
       </c>
       <c r="D4" t="n">
-        <v>52.1245</v>
+        <v>47.66</v>
       </c>
       <c r="E4" t="n">
-        <v>70.7046</v>
+        <v>61.67</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.141</v>
+        <v>46.3759</v>
       </c>
       <c r="C5" t="n">
-        <v>51.8215</v>
+        <v>50.0073</v>
       </c>
       <c r="D5" t="n">
-        <v>54.9762</v>
+        <v>57.5436</v>
       </c>
       <c r="E5" t="n">
-        <v>86.80329999999999</v>
+        <v>69.18729999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>45.1261</v>
+        <v>38.2554</v>
       </c>
       <c r="C6" t="n">
-        <v>48.1591</v>
+        <v>45.8643</v>
       </c>
       <c r="D6" t="n">
-        <v>57.2926</v>
+        <v>50.8773</v>
       </c>
       <c r="E6" t="n">
-        <v>65.6151</v>
+        <v>68.13</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.6426</v>
+        <v>41.6347</v>
       </c>
       <c r="C7" t="n">
-        <v>42.2971</v>
+        <v>40.5986</v>
       </c>
       <c r="D7" t="n">
-        <v>52.6812</v>
+        <v>40.6016</v>
       </c>
       <c r="E7" t="n">
-        <v>64.9988</v>
+        <v>65.52760000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.6372</v>
+        <v>39.4868</v>
       </c>
       <c r="C8" t="n">
-        <v>41.7425</v>
+        <v>43.4922</v>
       </c>
       <c r="D8" t="n">
-        <v>53.7961</v>
+        <v>48.6682</v>
       </c>
       <c r="E8" t="n">
-        <v>62.5409</v>
+        <v>68.4743</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.9865</v>
+        <v>43.785</v>
       </c>
       <c r="C9" t="n">
-        <v>39.7428</v>
+        <v>46.1019</v>
       </c>
       <c r="D9" t="n">
-        <v>54.9346</v>
+        <v>46.9989</v>
       </c>
       <c r="E9" t="n">
-        <v>71.9841</v>
+        <v>67.9451</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.243</v>
+        <v>44.2477</v>
       </c>
       <c r="C10" t="n">
-        <v>46.7391</v>
+        <v>41.0391</v>
       </c>
       <c r="D10" t="n">
-        <v>51.072</v>
+        <v>51.1422</v>
       </c>
       <c r="E10" t="n">
-        <v>67.76130000000001</v>
+        <v>61.7956</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.7615</v>
+        <v>43.4725</v>
       </c>
       <c r="C11" t="n">
-        <v>51.183</v>
+        <v>47.6037</v>
       </c>
       <c r="D11" t="n">
-        <v>47.7852</v>
+        <v>51.942</v>
       </c>
       <c r="E11" t="n">
-        <v>68.96980000000001</v>
+        <v>63.5211</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.2254</v>
+        <v>43.0826</v>
       </c>
       <c r="C12" t="n">
-        <v>45.0633</v>
+        <v>46.417</v>
       </c>
       <c r="D12" t="n">
-        <v>55.5437</v>
+        <v>49.1373</v>
       </c>
       <c r="E12" t="n">
-        <v>81.7868</v>
+        <v>70.2508</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>48.1153</v>
+        <v>45.1634</v>
       </c>
       <c r="C13" t="n">
-        <v>49.0622</v>
+        <v>45.5784</v>
       </c>
       <c r="D13" t="n">
-        <v>52.2398</v>
+        <v>51.367</v>
       </c>
       <c r="E13" t="n">
-        <v>64.4295</v>
+        <v>81.2989</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.6511</v>
+        <v>41.8609</v>
       </c>
       <c r="C14" t="n">
-        <v>53.6396</v>
+        <v>45.0455</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4295</v>
+        <v>55.062</v>
       </c>
       <c r="E14" t="n">
-        <v>64.43770000000001</v>
+        <v>79.5574</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.4962</v>
+        <v>44.9178</v>
       </c>
       <c r="C15" t="n">
-        <v>45.5854</v>
+        <v>50.667</v>
       </c>
       <c r="D15" t="n">
-        <v>57.0373</v>
+        <v>51.2008</v>
       </c>
       <c r="E15" t="n">
-        <v>66.9764</v>
+        <v>60.5671</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>45.5143</v>
+        <v>45.2597</v>
       </c>
       <c r="C16" t="n">
-        <v>49.4548</v>
+        <v>47.3564</v>
       </c>
       <c r="D16" t="n">
-        <v>53.1917</v>
+        <v>49.2698</v>
       </c>
       <c r="E16" t="n">
-        <v>76.57170000000001</v>
+        <v>66.4187</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4433</v>
+        <v>43.15</v>
       </c>
       <c r="C17" t="n">
-        <v>52.1128</v>
+        <v>51.1926</v>
       </c>
       <c r="D17" t="n">
-        <v>55.8393</v>
+        <v>58.5075</v>
       </c>
       <c r="E17" t="n">
-        <v>79.0697</v>
+        <v>57.7957</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.3477</v>
+        <v>18.1782</v>
       </c>
       <c r="C2" t="n">
-        <v>21.8206</v>
+        <v>21.5575</v>
       </c>
       <c r="D2" t="n">
-        <v>28.3067</v>
+        <v>27.5608</v>
       </c>
       <c r="E2" t="n">
-        <v>31.1628</v>
+        <v>30.2966</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.5693</v>
+        <v>30.6094</v>
       </c>
       <c r="C3" t="n">
-        <v>29.3077</v>
+        <v>31.1378</v>
       </c>
       <c r="D3" t="n">
-        <v>41.9071</v>
+        <v>44.7297</v>
       </c>
       <c r="E3" t="n">
-        <v>48.8118</v>
+        <v>53.1697</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.7849</v>
+        <v>32.0978</v>
       </c>
       <c r="C4" t="n">
-        <v>47.4779</v>
+        <v>45.8778</v>
       </c>
       <c r="D4" t="n">
-        <v>52.8433</v>
+        <v>53.5582</v>
       </c>
       <c r="E4" t="n">
-        <v>74.74850000000001</v>
+        <v>66.9602</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.1453</v>
+        <v>44.2227</v>
       </c>
       <c r="C5" t="n">
-        <v>54.1039</v>
+        <v>53.4494</v>
       </c>
       <c r="D5" t="n">
-        <v>75.7574</v>
+        <v>62.198</v>
       </c>
       <c r="E5" t="n">
-        <v>82.33199999999999</v>
+        <v>78.2184</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.3124</v>
+        <v>38.947</v>
       </c>
       <c r="C6" t="n">
-        <v>46.9876</v>
+        <v>48.525</v>
       </c>
       <c r="D6" t="n">
-        <v>59.5859</v>
+        <v>55.4939</v>
       </c>
       <c r="E6" t="n">
-        <v>83.3575</v>
+        <v>76.1011</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9596</v>
+        <v>41.702</v>
       </c>
       <c r="C7" t="n">
-        <v>48.2972</v>
+        <v>45.1793</v>
       </c>
       <c r="D7" t="n">
-        <v>56.6704</v>
+        <v>52.8966</v>
       </c>
       <c r="E7" t="n">
-        <v>77.3378</v>
+        <v>70.2662</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.9744</v>
+        <v>37.449</v>
       </c>
       <c r="C8" t="n">
-        <v>43.5771</v>
+        <v>40.1911</v>
       </c>
       <c r="D8" t="n">
-        <v>58.7405</v>
+        <v>53.8327</v>
       </c>
       <c r="E8" t="n">
-        <v>70.0596</v>
+        <v>79.622</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.6302</v>
+        <v>37.5549</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0911</v>
+        <v>38.8535</v>
       </c>
       <c r="D9" t="n">
-        <v>53.5541</v>
+        <v>53.2912</v>
       </c>
       <c r="E9" t="n">
-        <v>79.7629</v>
+        <v>75.11109999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.547</v>
+        <v>39.2321</v>
       </c>
       <c r="C10" t="n">
-        <v>38.3618</v>
+        <v>38.5493</v>
       </c>
       <c r="D10" t="n">
-        <v>51.3869</v>
+        <v>54.5519</v>
       </c>
       <c r="E10" t="n">
-        <v>79.7499</v>
+        <v>89.0491</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.0891</v>
+        <v>47.4618</v>
       </c>
       <c r="C11" t="n">
-        <v>39.9431</v>
+        <v>39.666</v>
       </c>
       <c r="D11" t="n">
-        <v>58.0356</v>
+        <v>55.8968</v>
       </c>
       <c r="E11" t="n">
-        <v>85.3378</v>
+        <v>81.5458</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.3758</v>
+        <v>44.8469</v>
       </c>
       <c r="C12" t="n">
-        <v>41.1506</v>
+        <v>37.1288</v>
       </c>
       <c r="D12" t="n">
-        <v>55.3806</v>
+        <v>55.2967</v>
       </c>
       <c r="E12" t="n">
-        <v>89.623</v>
+        <v>88.69670000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.2317</v>
+        <v>46.4133</v>
       </c>
       <c r="C13" t="n">
-        <v>37.6295</v>
+        <v>41.2257</v>
       </c>
       <c r="D13" t="n">
-        <v>54.5294</v>
+        <v>54.979</v>
       </c>
       <c r="E13" t="n">
-        <v>89.794</v>
+        <v>87.4657</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.8188</v>
+        <v>45.516</v>
       </c>
       <c r="C14" t="n">
-        <v>41.1756</v>
+        <v>41.2891</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6613</v>
+        <v>58.649</v>
       </c>
       <c r="E14" t="n">
-        <v>88.6611</v>
+        <v>89.07850000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.043</v>
+        <v>45.5997</v>
       </c>
       <c r="C15" t="n">
-        <v>43.1756</v>
+        <v>38.8857</v>
       </c>
       <c r="D15" t="n">
-        <v>56.3438</v>
+        <v>56.6779</v>
       </c>
       <c r="E15" t="n">
-        <v>83.4251</v>
+        <v>86.3441</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46.6902</v>
+        <v>47.8667</v>
       </c>
       <c r="C16" t="n">
-        <v>38.1302</v>
+        <v>40.6174</v>
       </c>
       <c r="D16" t="n">
-        <v>55.876</v>
+        <v>53.3812</v>
       </c>
       <c r="E16" t="n">
-        <v>87.4709</v>
+        <v>80.44799999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>37.5069</v>
+        <v>39.2277</v>
       </c>
       <c r="C17" t="n">
-        <v>39.9872</v>
+        <v>37.0269</v>
       </c>
       <c r="D17" t="n">
-        <v>57.4235</v>
+        <v>59.2362</v>
       </c>
       <c r="E17" t="n">
-        <v>91.7385</v>
+        <v>79.4282</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.85134</v>
+        <v>8.85181</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7205</v>
+        <v>16.7699</v>
       </c>
       <c r="D2" t="n">
-        <v>21.8279</v>
+        <v>21.5659</v>
       </c>
       <c r="E2" t="n">
-        <v>33.5564</v>
+        <v>33.3763</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7566</v>
+        <v>16.7513</v>
       </c>
       <c r="C3" t="n">
-        <v>30.2877</v>
+        <v>30.3027</v>
       </c>
       <c r="D3" t="n">
-        <v>40.9114</v>
+        <v>40.6169</v>
       </c>
       <c r="E3" t="n">
-        <v>62.5283</v>
+        <v>62.1834</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8152</v>
+        <v>23.8411</v>
       </c>
       <c r="C4" t="n">
-        <v>41.7624</v>
+        <v>41.7688</v>
       </c>
       <c r="D4" t="n">
-        <v>57.4644</v>
+        <v>57.0667</v>
       </c>
       <c r="E4" t="n">
-        <v>86.29770000000001</v>
+        <v>85.97620000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0667</v>
+        <v>31.1083</v>
       </c>
       <c r="C5" t="n">
-        <v>53.1723</v>
+        <v>53.1202</v>
       </c>
       <c r="D5" t="n">
-        <v>75.6318</v>
+        <v>73.91459999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>109.363</v>
+        <v>108.888</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.29</v>
+        <v>33.3403</v>
       </c>
       <c r="C6" t="n">
-        <v>44.6904</v>
+        <v>45.876</v>
       </c>
       <c r="D6" t="n">
-        <v>67.6895</v>
+        <v>66.45480000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>100.79</v>
+        <v>99.8526</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.7872</v>
+        <v>35.9584</v>
       </c>
       <c r="C7" t="n">
-        <v>45.0212</v>
+        <v>46.0942</v>
       </c>
       <c r="D7" t="n">
-        <v>58.8081</v>
+        <v>58.6748</v>
       </c>
       <c r="E7" t="n">
-        <v>96.2552</v>
+        <v>95.6324</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.0971</v>
+        <v>38.3033</v>
       </c>
       <c r="C8" t="n">
-        <v>45.3563</v>
+        <v>46.5502</v>
       </c>
       <c r="D8" t="n">
-        <v>60.5093</v>
+        <v>60.748</v>
       </c>
       <c r="E8" t="n">
-        <v>99.06359999999999</v>
+        <v>97.36320000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.0571</v>
+        <v>40.0802</v>
       </c>
       <c r="C9" t="n">
-        <v>45.8163</v>
+        <v>46.8903</v>
       </c>
       <c r="D9" t="n">
-        <v>60.8475</v>
+        <v>58.3041</v>
       </c>
       <c r="E9" t="n">
-        <v>98.67440000000001</v>
+        <v>97.2456</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.9646</v>
+        <v>39.9984</v>
       </c>
       <c r="C10" t="n">
-        <v>51.3417</v>
+        <v>51.155</v>
       </c>
       <c r="D10" t="n">
-        <v>64.29430000000001</v>
+        <v>63.3256</v>
       </c>
       <c r="E10" t="n">
-        <v>102.273</v>
+        <v>101.666</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.3021</v>
+        <v>40.4706</v>
       </c>
       <c r="C11" t="n">
-        <v>53.5063</v>
+        <v>54.3852</v>
       </c>
       <c r="D11" t="n">
-        <v>66.21769999999999</v>
+        <v>64.40649999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>101.905</v>
+        <v>102.999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.4845</v>
+        <v>40.6434</v>
       </c>
       <c r="C12" t="n">
-        <v>54.0049</v>
+        <v>54.7745</v>
       </c>
       <c r="D12" t="n">
-        <v>69.4919</v>
+        <v>68.1297</v>
       </c>
       <c r="E12" t="n">
-        <v>106.755</v>
+        <v>105.067</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.4824</v>
+        <v>40.6541</v>
       </c>
       <c r="C13" t="n">
-        <v>54.9178</v>
+        <v>55.469</v>
       </c>
       <c r="D13" t="n">
-        <v>69.938</v>
+        <v>68.6549</v>
       </c>
       <c r="E13" t="n">
-        <v>106.842</v>
+        <v>105.194</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.5588</v>
+        <v>40.7129</v>
       </c>
       <c r="C14" t="n">
-        <v>55.3341</v>
+        <v>55.9693</v>
       </c>
       <c r="D14" t="n">
-        <v>72.56310000000001</v>
+        <v>71.25749999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>106.715</v>
+        <v>106.72</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6078</v>
+        <v>40.6422</v>
       </c>
       <c r="C15" t="n">
-        <v>55.1984</v>
+        <v>55.7934</v>
       </c>
       <c r="D15" t="n">
-        <v>71.87309999999999</v>
+        <v>72.0068</v>
       </c>
       <c r="E15" t="n">
-        <v>107.819</v>
+        <v>105.017</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.4306</v>
+        <v>40.6222</v>
       </c>
       <c r="C16" t="n">
-        <v>55.7176</v>
+        <v>55.9963</v>
       </c>
       <c r="D16" t="n">
-        <v>74.1871</v>
+        <v>72.4932</v>
       </c>
       <c r="E16" t="n">
-        <v>106.463</v>
+        <v>104.976</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.7069</v>
+        <v>40.6844</v>
       </c>
       <c r="C17" t="n">
-        <v>55.7091</v>
+        <v>56.0218</v>
       </c>
       <c r="D17" t="n">
-        <v>73.6087</v>
+        <v>71.9174</v>
       </c>
       <c r="E17" t="n">
-        <v>107.19</v>
+        <v>105.199</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.84803</v>
+        <v>8.857229999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8269</v>
+        <v>16.9079</v>
       </c>
       <c r="D2" t="n">
-        <v>21.4726</v>
+        <v>21.2362</v>
       </c>
       <c r="E2" t="n">
-        <v>33.6362</v>
+        <v>33.3439</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.832</v>
+        <v>16.8519</v>
       </c>
       <c r="C3" t="n">
-        <v>30.5249</v>
+        <v>30.6005</v>
       </c>
       <c r="D3" t="n">
-        <v>40.4428</v>
+        <v>40.1415</v>
       </c>
       <c r="E3" t="n">
-        <v>62.6223</v>
+        <v>62.2968</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9936</v>
+        <v>24.0305</v>
       </c>
       <c r="C4" t="n">
-        <v>42.2373</v>
+        <v>42.3881</v>
       </c>
       <c r="D4" t="n">
-        <v>56.6849</v>
+        <v>56.587</v>
       </c>
       <c r="E4" t="n">
-        <v>86.2704</v>
+        <v>85.9264</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4454</v>
+        <v>31.4918</v>
       </c>
       <c r="C5" t="n">
-        <v>53.7598</v>
+        <v>53.7336</v>
       </c>
       <c r="D5" t="n">
-        <v>73.8704</v>
+        <v>73.19029999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>109.818</v>
+        <v>109.67</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7498</v>
+        <v>33.7997</v>
       </c>
       <c r="C6" t="n">
-        <v>45.4999</v>
+        <v>46.5024</v>
       </c>
       <c r="D6" t="n">
-        <v>66.36409999999999</v>
+        <v>66.26260000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>101.517</v>
+        <v>100.138</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.2668</v>
+        <v>36.3565</v>
       </c>
       <c r="C7" t="n">
-        <v>45.728</v>
+        <v>46.6921</v>
       </c>
       <c r="D7" t="n">
-        <v>58.7504</v>
+        <v>58.2203</v>
       </c>
       <c r="E7" t="n">
-        <v>97.52079999999999</v>
+        <v>96.1892</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.8057</v>
+        <v>38.8393</v>
       </c>
       <c r="C8" t="n">
-        <v>45.8725</v>
+        <v>47.1699</v>
       </c>
       <c r="D8" t="n">
-        <v>60.8303</v>
+        <v>60.5478</v>
       </c>
       <c r="E8" t="n">
-        <v>99.63079999999999</v>
+        <v>98.9436</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4784</v>
+        <v>40.5756</v>
       </c>
       <c r="C9" t="n">
-        <v>46.4089</v>
+        <v>47.4207</v>
       </c>
       <c r="D9" t="n">
-        <v>60.8961</v>
+        <v>58.7381</v>
       </c>
       <c r="E9" t="n">
-        <v>100.921</v>
+        <v>99.23909999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6461</v>
+        <v>40.5016</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2211</v>
+        <v>52.0035</v>
       </c>
       <c r="D10" t="n">
-        <v>63.6534</v>
+        <v>63.1287</v>
       </c>
       <c r="E10" t="n">
-        <v>103.586</v>
+        <v>103.568</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.9392</v>
+        <v>41.0512</v>
       </c>
       <c r="C11" t="n">
-        <v>54.789</v>
+        <v>54.4283</v>
       </c>
       <c r="D11" t="n">
-        <v>65.7509</v>
+        <v>64.7945</v>
       </c>
       <c r="E11" t="n">
-        <v>104.809</v>
+        <v>104.031</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.0621</v>
+        <v>41.2237</v>
       </c>
       <c r="C12" t="n">
-        <v>55.0573</v>
+        <v>55.8889</v>
       </c>
       <c r="D12" t="n">
-        <v>68.73309999999999</v>
+        <v>67.7633</v>
       </c>
       <c r="E12" t="n">
-        <v>106.532</v>
+        <v>105.363</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.1078</v>
+        <v>41.3404</v>
       </c>
       <c r="C13" t="n">
-        <v>55.8301</v>
+        <v>56.0509</v>
       </c>
       <c r="D13" t="n">
-        <v>69.9492</v>
+        <v>68.9019</v>
       </c>
       <c r="E13" t="n">
-        <v>106.922</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1006</v>
+        <v>41.1011</v>
       </c>
       <c r="C14" t="n">
-        <v>55.8369</v>
+        <v>56.5245</v>
       </c>
       <c r="D14" t="n">
-        <v>72.25539999999999</v>
+        <v>70.822</v>
       </c>
       <c r="E14" t="n">
-        <v>108.497</v>
+        <v>106.986</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2902</v>
+        <v>41.2892</v>
       </c>
       <c r="C15" t="n">
-        <v>56.1514</v>
+        <v>56.442</v>
       </c>
       <c r="D15" t="n">
-        <v>71.3822</v>
+        <v>71.6382</v>
       </c>
       <c r="E15" t="n">
-        <v>106.594</v>
+        <v>107.055</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.0916</v>
+        <v>41.2425</v>
       </c>
       <c r="C16" t="n">
-        <v>56.0167</v>
+        <v>56.0476</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2856</v>
+        <v>72.44670000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>108.687</v>
+        <v>106.957</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.329</v>
+        <v>41.3069</v>
       </c>
       <c r="C17" t="n">
-        <v>56.3681</v>
+        <v>56.8493</v>
       </c>
       <c r="D17" t="n">
-        <v>73.2261</v>
+        <v>71.953</v>
       </c>
       <c r="E17" t="n">
-        <v>108.059</v>
+        <v>108.403</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.7886</v>
+        <v>13.8399</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5416</v>
+        <v>21.5519</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9494</v>
+        <v>28.5731</v>
       </c>
       <c r="E2" t="n">
-        <v>41.3893</v>
+        <v>40.8638</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.56</v>
+        <v>26.5266</v>
       </c>
       <c r="C3" t="n">
-        <v>39.2486</v>
+        <v>39.2365</v>
       </c>
       <c r="D3" t="n">
-        <v>54.3434</v>
+        <v>53.6477</v>
       </c>
       <c r="E3" t="n">
-        <v>75.6108</v>
+        <v>74.1635</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.8454</v>
+        <v>37.8704</v>
       </c>
       <c r="C4" t="n">
-        <v>54.8515</v>
+        <v>54.7411</v>
       </c>
       <c r="D4" t="n">
-        <v>76.7556</v>
+        <v>75.4602</v>
       </c>
       <c r="E4" t="n">
-        <v>104.925</v>
+        <v>102.999</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.0531</v>
+        <v>49.0432</v>
       </c>
       <c r="C5" t="n">
-        <v>70.64149999999999</v>
+        <v>70.94</v>
       </c>
       <c r="D5" t="n">
-        <v>99.7069</v>
+        <v>98.4524</v>
       </c>
       <c r="E5" t="n">
-        <v>136.04</v>
+        <v>132.804</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47.6825</v>
+        <v>48.0036</v>
       </c>
       <c r="C6" t="n">
-        <v>56.2337</v>
+        <v>56.625</v>
       </c>
       <c r="D6" t="n">
-        <v>86.4267</v>
+        <v>84.5797</v>
       </c>
       <c r="E6" t="n">
-        <v>117.135</v>
+        <v>115.293</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.5191</v>
+        <v>49.737</v>
       </c>
       <c r="C7" t="n">
-        <v>53.9348</v>
+        <v>54.2184</v>
       </c>
       <c r="D7" t="n">
-        <v>71.8139</v>
+        <v>70.398</v>
       </c>
       <c r="E7" t="n">
-        <v>109.37</v>
+        <v>107.307</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.1211</v>
+        <v>51.1234</v>
       </c>
       <c r="C8" t="n">
-        <v>52.8744</v>
+        <v>53.3724</v>
       </c>
       <c r="D8" t="n">
-        <v>71.4973</v>
+        <v>70.4404</v>
       </c>
       <c r="E8" t="n">
-        <v>110.598</v>
+        <v>108.328</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.8859</v>
+        <v>52.9803</v>
       </c>
       <c r="C9" t="n">
-        <v>51.9981</v>
+        <v>52.1552</v>
       </c>
       <c r="D9" t="n">
-        <v>66.6474</v>
+        <v>64.03230000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>109.714</v>
+        <v>107.508</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.4865</v>
+        <v>52.7071</v>
       </c>
       <c r="C10" t="n">
-        <v>56.0212</v>
+        <v>55.9204</v>
       </c>
       <c r="D10" t="n">
-        <v>72.8199</v>
+        <v>71.1246</v>
       </c>
       <c r="E10" t="n">
-        <v>113.306</v>
+        <v>112.204</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.5044</v>
+        <v>52.6837</v>
       </c>
       <c r="C11" t="n">
-        <v>58.1965</v>
+        <v>58.5279</v>
       </c>
       <c r="D11" t="n">
-        <v>73.4188</v>
+        <v>71.9885</v>
       </c>
       <c r="E11" t="n">
-        <v>114.006</v>
+        <v>111.851</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.4813</v>
+        <v>52.7084</v>
       </c>
       <c r="C12" t="n">
-        <v>58.8614</v>
+        <v>58.7903</v>
       </c>
       <c r="D12" t="n">
-        <v>76.7576</v>
+        <v>75.8747</v>
       </c>
       <c r="E12" t="n">
-        <v>116.393</v>
+        <v>112.095</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53.0249</v>
+        <v>52.4476</v>
       </c>
       <c r="C13" t="n">
-        <v>58.8703</v>
+        <v>59.0546</v>
       </c>
       <c r="D13" t="n">
-        <v>76.724</v>
+        <v>75.6759</v>
       </c>
       <c r="E13" t="n">
-        <v>115.322</v>
+        <v>115.329</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.679</v>
+        <v>53.0347</v>
       </c>
       <c r="C14" t="n">
-        <v>58.9097</v>
+        <v>59.1418</v>
       </c>
       <c r="D14" t="n">
-        <v>79.87560000000001</v>
+        <v>78.9997</v>
       </c>
       <c r="E14" t="n">
-        <v>118.162</v>
+        <v>117.024</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>52.7127</v>
+        <v>51.3469</v>
       </c>
       <c r="C15" t="n">
-        <v>59.3116</v>
+        <v>59.035</v>
       </c>
       <c r="D15" t="n">
-        <v>81.15179999999999</v>
+        <v>79.0681</v>
       </c>
       <c r="E15" t="n">
-        <v>117.855</v>
+        <v>116.3</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.9153</v>
+        <v>52.8432</v>
       </c>
       <c r="C16" t="n">
-        <v>59.2269</v>
+        <v>59.1967</v>
       </c>
       <c r="D16" t="n">
-        <v>82.2328</v>
+        <v>81.5119</v>
       </c>
       <c r="E16" t="n">
-        <v>118.738</v>
+        <v>117.741</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.7278</v>
+        <v>52.7897</v>
       </c>
       <c r="C17" t="n">
-        <v>59.3285</v>
+        <v>59.2215</v>
       </c>
       <c r="D17" t="n">
-        <v>82.3476</v>
+        <v>80.8168</v>
       </c>
       <c r="E17" t="n">
-        <v>119.1</v>
+        <v>118.072</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.0675</v>
+        <v>14.4359</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8661</v>
+        <v>18.6479</v>
       </c>
       <c r="D2" t="n">
-        <v>24.6862</v>
+        <v>24.7949</v>
       </c>
       <c r="E2" t="n">
-        <v>31.2048</v>
+        <v>30.8375</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4608</v>
+        <v>27.8796</v>
       </c>
       <c r="C3" t="n">
-        <v>31.4946</v>
+        <v>32.3209</v>
       </c>
       <c r="D3" t="n">
-        <v>35.0215</v>
+        <v>37.9412</v>
       </c>
       <c r="E3" t="n">
-        <v>54.0923</v>
+        <v>55.5467</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.2667</v>
+        <v>32.6235</v>
       </c>
       <c r="C4" t="n">
-        <v>39.2783</v>
+        <v>34.3787</v>
       </c>
       <c r="D4" t="n">
-        <v>46.3989</v>
+        <v>47.6603</v>
       </c>
       <c r="E4" t="n">
-        <v>59.8587</v>
+        <v>57.0628</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>37.858</v>
+        <v>37.6208</v>
       </c>
       <c r="C5" t="n">
-        <v>51.1969</v>
+        <v>45.9567</v>
       </c>
       <c r="D5" t="n">
-        <v>56.3784</v>
+        <v>59.7959</v>
       </c>
       <c r="E5" t="n">
-        <v>75.9709</v>
+        <v>73.6421</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.1787</v>
+        <v>36.4356</v>
       </c>
       <c r="C6" t="n">
-        <v>47.0974</v>
+        <v>46.4496</v>
       </c>
       <c r="D6" t="n">
-        <v>53.2055</v>
+        <v>50.6363</v>
       </c>
       <c r="E6" t="n">
-        <v>63.0238</v>
+        <v>58.2539</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.4889</v>
+        <v>42.5769</v>
       </c>
       <c r="C7" t="n">
-        <v>43.5532</v>
+        <v>39.44</v>
       </c>
       <c r="D7" t="n">
-        <v>54.673</v>
+        <v>50.3034</v>
       </c>
       <c r="E7" t="n">
-        <v>62.1516</v>
+        <v>60.6983</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.964</v>
+        <v>40.0039</v>
       </c>
       <c r="C8" t="n">
-        <v>39.1122</v>
+        <v>50.0362</v>
       </c>
       <c r="D8" t="n">
-        <v>51.9239</v>
+        <v>44.8282</v>
       </c>
       <c r="E8" t="n">
-        <v>56.8431</v>
+        <v>64.1694</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.8406</v>
+        <v>42.7747</v>
       </c>
       <c r="C9" t="n">
-        <v>44.0463</v>
+        <v>49.29</v>
       </c>
       <c r="D9" t="n">
-        <v>46.7829</v>
+        <v>45.3833</v>
       </c>
       <c r="E9" t="n">
-        <v>61.3907</v>
+        <v>74.9808</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.2494</v>
+        <v>44.9652</v>
       </c>
       <c r="C10" t="n">
-        <v>44.1572</v>
+        <v>48.0277</v>
       </c>
       <c r="D10" t="n">
-        <v>52.4882</v>
+        <v>50.8808</v>
       </c>
       <c r="E10" t="n">
-        <v>70.0341</v>
+        <v>69.8866</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.817</v>
+        <v>43.4172</v>
       </c>
       <c r="C11" t="n">
-        <v>47.8014</v>
+        <v>45.1626</v>
       </c>
       <c r="D11" t="n">
-        <v>50.5906</v>
+        <v>50.7438</v>
       </c>
       <c r="E11" t="n">
-        <v>60.5356</v>
+        <v>67.23</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.638</v>
+        <v>41.8644</v>
       </c>
       <c r="C12" t="n">
-        <v>46.838</v>
+        <v>48.8128</v>
       </c>
       <c r="D12" t="n">
-        <v>48.4333</v>
+        <v>51.7113</v>
       </c>
       <c r="E12" t="n">
-        <v>65.2351</v>
+        <v>74.12949999999999</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.0774</v>
+        <v>48.1199</v>
       </c>
       <c r="C13" t="n">
-        <v>43.9488</v>
+        <v>52.7489</v>
       </c>
       <c r="D13" t="n">
-        <v>52.5932</v>
+        <v>51.5692</v>
       </c>
       <c r="E13" t="n">
-        <v>62.3777</v>
+        <v>58.7386</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.9434</v>
+        <v>42.8537</v>
       </c>
       <c r="C14" t="n">
-        <v>49.6912</v>
+        <v>48.6044</v>
       </c>
       <c r="D14" t="n">
-        <v>49.8986</v>
+        <v>52.9329</v>
       </c>
       <c r="E14" t="n">
-        <v>60.4594</v>
+        <v>76.65479999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.4555</v>
+        <v>45.4839</v>
       </c>
       <c r="C15" t="n">
-        <v>47.5596</v>
+        <v>44.3206</v>
       </c>
       <c r="D15" t="n">
-        <v>56.2101</v>
+        <v>54.9578</v>
       </c>
       <c r="E15" t="n">
-        <v>77.3331</v>
+        <v>74.26990000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.7922</v>
+        <v>42.3821</v>
       </c>
       <c r="C16" t="n">
-        <v>45.6288</v>
+        <v>52.3416</v>
       </c>
       <c r="D16" t="n">
-        <v>58.0172</v>
+        <v>51.2711</v>
       </c>
       <c r="E16" t="n">
-        <v>66.13630000000001</v>
+        <v>71.5117</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.5763</v>
+        <v>41.2205</v>
       </c>
       <c r="C17" t="n">
-        <v>53.3512</v>
+        <v>44.6001</v>
       </c>
       <c r="D17" t="n">
-        <v>54.242</v>
+        <v>55.2512</v>
       </c>
       <c r="E17" t="n">
-        <v>67.0885</v>
+        <v>62.583</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8584</v>
+        <v>14.9004</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6769</v>
+        <v>18.6284</v>
       </c>
       <c r="D2" t="n">
-        <v>24.1259</v>
+        <v>24.595</v>
       </c>
       <c r="E2" t="n">
-        <v>32.8519</v>
+        <v>27.0125</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.7216</v>
+        <v>27.9343</v>
       </c>
       <c r="C3" t="n">
-        <v>30.2549</v>
+        <v>29.4563</v>
       </c>
       <c r="D3" t="n">
-        <v>36.2853</v>
+        <v>37.8368</v>
       </c>
       <c r="E3" t="n">
-        <v>49.3997</v>
+        <v>49.8127</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.2905</v>
+        <v>33.5348</v>
       </c>
       <c r="C4" t="n">
-        <v>31.9611</v>
+        <v>31.7523</v>
       </c>
       <c r="D4" t="n">
-        <v>47.66</v>
+        <v>52.157</v>
       </c>
       <c r="E4" t="n">
-        <v>61.67</v>
+        <v>58.871</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.3759</v>
+        <v>43.0385</v>
       </c>
       <c r="C5" t="n">
-        <v>50.0073</v>
+        <v>51.0666</v>
       </c>
       <c r="D5" t="n">
-        <v>57.5436</v>
+        <v>52.4263</v>
       </c>
       <c r="E5" t="n">
-        <v>69.18729999999999</v>
+        <v>79.4491</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.2554</v>
+        <v>38.5695</v>
       </c>
       <c r="C6" t="n">
-        <v>45.8643</v>
+        <v>42.4994</v>
       </c>
       <c r="D6" t="n">
-        <v>50.8773</v>
+        <v>56.2933</v>
       </c>
       <c r="E6" t="n">
-        <v>68.13</v>
+        <v>71.56180000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.6347</v>
+        <v>39.8523</v>
       </c>
       <c r="C7" t="n">
-        <v>40.5986</v>
+        <v>46.9607</v>
       </c>
       <c r="D7" t="n">
-        <v>40.6016</v>
+        <v>51.9821</v>
       </c>
       <c r="E7" t="n">
-        <v>65.52760000000001</v>
+        <v>75.7495</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.4868</v>
+        <v>40.6261</v>
       </c>
       <c r="C8" t="n">
-        <v>43.4922</v>
+        <v>42.4774</v>
       </c>
       <c r="D8" t="n">
-        <v>48.6682</v>
+        <v>51.3752</v>
       </c>
       <c r="E8" t="n">
-        <v>68.4743</v>
+        <v>75.28879999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.785</v>
+        <v>38.6478</v>
       </c>
       <c r="C9" t="n">
-        <v>46.1019</v>
+        <v>40.3834</v>
       </c>
       <c r="D9" t="n">
-        <v>46.9989</v>
+        <v>55.4057</v>
       </c>
       <c r="E9" t="n">
-        <v>67.9451</v>
+        <v>62.5058</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.2477</v>
+        <v>42.1146</v>
       </c>
       <c r="C10" t="n">
-        <v>41.0391</v>
+        <v>46.7633</v>
       </c>
       <c r="D10" t="n">
-        <v>51.1422</v>
+        <v>51.7478</v>
       </c>
       <c r="E10" t="n">
-        <v>61.7956</v>
+        <v>69.25060000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.4725</v>
+        <v>41.3008</v>
       </c>
       <c r="C11" t="n">
-        <v>47.6037</v>
+        <v>43.6709</v>
       </c>
       <c r="D11" t="n">
-        <v>51.942</v>
+        <v>49.8245</v>
       </c>
       <c r="E11" t="n">
-        <v>63.5211</v>
+        <v>66.03360000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.0826</v>
+        <v>44.9414</v>
       </c>
       <c r="C12" t="n">
-        <v>46.417</v>
+        <v>48.9109</v>
       </c>
       <c r="D12" t="n">
-        <v>49.1373</v>
+        <v>45.6249</v>
       </c>
       <c r="E12" t="n">
-        <v>70.2508</v>
+        <v>72.0722</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45.1634</v>
+        <v>44.255</v>
       </c>
       <c r="C13" t="n">
-        <v>45.5784</v>
+        <v>51.9523</v>
       </c>
       <c r="D13" t="n">
-        <v>51.367</v>
+        <v>56.3717</v>
       </c>
       <c r="E13" t="n">
-        <v>81.2989</v>
+        <v>75.9117</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.8609</v>
+        <v>42.9608</v>
       </c>
       <c r="C14" t="n">
-        <v>45.0455</v>
+        <v>37.4388</v>
       </c>
       <c r="D14" t="n">
-        <v>55.062</v>
+        <v>53.2727</v>
       </c>
       <c r="E14" t="n">
-        <v>79.5574</v>
+        <v>64.818</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>44.9178</v>
+        <v>45.9576</v>
       </c>
       <c r="C15" t="n">
-        <v>50.667</v>
+        <v>50.8167</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2008</v>
+        <v>50.67</v>
       </c>
       <c r="E15" t="n">
-        <v>60.5671</v>
+        <v>75.3723</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>45.2597</v>
+        <v>43.4691</v>
       </c>
       <c r="C16" t="n">
-        <v>47.3564</v>
+        <v>47.9217</v>
       </c>
       <c r="D16" t="n">
-        <v>49.2698</v>
+        <v>52.335</v>
       </c>
       <c r="E16" t="n">
-        <v>66.4187</v>
+        <v>80.86150000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.15</v>
+        <v>45.014</v>
       </c>
       <c r="C17" t="n">
-        <v>51.1926</v>
+        <v>53.8583</v>
       </c>
       <c r="D17" t="n">
-        <v>58.5075</v>
+        <v>54.258</v>
       </c>
       <c r="E17" t="n">
-        <v>57.7957</v>
+        <v>66.95780000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.1782</v>
+        <v>18.4184</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5575</v>
+        <v>22.0343</v>
       </c>
       <c r="D2" t="n">
-        <v>27.5608</v>
+        <v>28.0851</v>
       </c>
       <c r="E2" t="n">
-        <v>30.2966</v>
+        <v>31.3459</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.6094</v>
+        <v>31.0853</v>
       </c>
       <c r="C3" t="n">
-        <v>31.1378</v>
+        <v>32.8793</v>
       </c>
       <c r="D3" t="n">
-        <v>44.7297</v>
+        <v>39.0624</v>
       </c>
       <c r="E3" t="n">
-        <v>53.1697</v>
+        <v>59.9844</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0978</v>
+        <v>33.4696</v>
       </c>
       <c r="C4" t="n">
-        <v>45.8778</v>
+        <v>46.6537</v>
       </c>
       <c r="D4" t="n">
-        <v>53.5582</v>
+        <v>57.7127</v>
       </c>
       <c r="E4" t="n">
-        <v>66.9602</v>
+        <v>72.0343</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>44.2227</v>
+        <v>49.1409</v>
       </c>
       <c r="C5" t="n">
-        <v>53.4494</v>
+        <v>55.1161</v>
       </c>
       <c r="D5" t="n">
-        <v>62.198</v>
+        <v>59.4929</v>
       </c>
       <c r="E5" t="n">
-        <v>78.2184</v>
+        <v>75.226</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.947</v>
+        <v>44.2538</v>
       </c>
       <c r="C6" t="n">
-        <v>48.525</v>
+        <v>52.3153</v>
       </c>
       <c r="D6" t="n">
-        <v>55.4939</v>
+        <v>66.7021</v>
       </c>
       <c r="E6" t="n">
-        <v>76.1011</v>
+        <v>72.2338</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.702</v>
+        <v>41.5785</v>
       </c>
       <c r="C7" t="n">
-        <v>45.1793</v>
+        <v>42.3172</v>
       </c>
       <c r="D7" t="n">
-        <v>52.8966</v>
+        <v>50.8983</v>
       </c>
       <c r="E7" t="n">
-        <v>70.2662</v>
+        <v>72.70480000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37.449</v>
+        <v>38.1159</v>
       </c>
       <c r="C8" t="n">
-        <v>40.1911</v>
+        <v>47.4424</v>
       </c>
       <c r="D8" t="n">
-        <v>53.8327</v>
+        <v>58.1799</v>
       </c>
       <c r="E8" t="n">
-        <v>79.622</v>
+        <v>81.1009</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37.5549</v>
+        <v>35.5196</v>
       </c>
       <c r="C9" t="n">
-        <v>38.8535</v>
+        <v>40.1357</v>
       </c>
       <c r="D9" t="n">
-        <v>53.2912</v>
+        <v>46.5489</v>
       </c>
       <c r="E9" t="n">
-        <v>75.11109999999999</v>
+        <v>72.0397</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.2321</v>
+        <v>36.7014</v>
       </c>
       <c r="C10" t="n">
-        <v>38.5493</v>
+        <v>37.0435</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5519</v>
+        <v>58.1455</v>
       </c>
       <c r="E10" t="n">
-        <v>89.0491</v>
+        <v>81.5851</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>47.4618</v>
+        <v>35.698</v>
       </c>
       <c r="C11" t="n">
-        <v>39.666</v>
+        <v>42.2748</v>
       </c>
       <c r="D11" t="n">
-        <v>55.8968</v>
+        <v>55.0162</v>
       </c>
       <c r="E11" t="n">
-        <v>81.5458</v>
+        <v>86.17400000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.8469</v>
+        <v>38.3985</v>
       </c>
       <c r="C12" t="n">
-        <v>37.1288</v>
+        <v>38.475</v>
       </c>
       <c r="D12" t="n">
-        <v>55.2967</v>
+        <v>57.4563</v>
       </c>
       <c r="E12" t="n">
-        <v>88.69670000000001</v>
+        <v>89.99850000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.4133</v>
+        <v>40.3574</v>
       </c>
       <c r="C13" t="n">
-        <v>41.2257</v>
+        <v>44.6184</v>
       </c>
       <c r="D13" t="n">
-        <v>54.979</v>
+        <v>55.7093</v>
       </c>
       <c r="E13" t="n">
-        <v>87.4657</v>
+        <v>85.4751</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.516</v>
+        <v>38.617</v>
       </c>
       <c r="C14" t="n">
-        <v>41.2891</v>
+        <v>42.9562</v>
       </c>
       <c r="D14" t="n">
-        <v>58.649</v>
+        <v>57.3961</v>
       </c>
       <c r="E14" t="n">
-        <v>89.07850000000001</v>
+        <v>84.12130000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.5997</v>
+        <v>42.7871</v>
       </c>
       <c r="C15" t="n">
-        <v>38.8857</v>
+        <v>41.1002</v>
       </c>
       <c r="D15" t="n">
-        <v>56.6779</v>
+        <v>58.4504</v>
       </c>
       <c r="E15" t="n">
-        <v>86.3441</v>
+        <v>77.91200000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>47.8667</v>
+        <v>37.6755</v>
       </c>
       <c r="C16" t="n">
-        <v>40.6174</v>
+        <v>43.3647</v>
       </c>
       <c r="D16" t="n">
-        <v>53.3812</v>
+        <v>56.9667</v>
       </c>
       <c r="E16" t="n">
-        <v>80.44799999999999</v>
+        <v>95.2187</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.2277</v>
+        <v>47.1112</v>
       </c>
       <c r="C17" t="n">
-        <v>37.0269</v>
+        <v>42.9004</v>
       </c>
       <c r="D17" t="n">
-        <v>59.2362</v>
+        <v>56.4942</v>
       </c>
       <c r="E17" t="n">
-        <v>79.4282</v>
+        <v>94.0654</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.85181</v>
+        <v>8.8492</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7699</v>
+        <v>16.7445</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5659</v>
+        <v>21.8606</v>
       </c>
       <c r="E2" t="n">
-        <v>33.3763</v>
+        <v>33.6673</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7513</v>
+        <v>16.7511</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3027</v>
+        <v>30.3688</v>
       </c>
       <c r="D3" t="n">
-        <v>40.6169</v>
+        <v>41.0651</v>
       </c>
       <c r="E3" t="n">
-        <v>62.1834</v>
+        <v>62.3004</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8411</v>
+        <v>23.8281</v>
       </c>
       <c r="C4" t="n">
-        <v>41.7688</v>
+        <v>41.8001</v>
       </c>
       <c r="D4" t="n">
-        <v>57.0667</v>
+        <v>57.7765</v>
       </c>
       <c r="E4" t="n">
-        <v>85.97620000000001</v>
+        <v>86.5879</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1083</v>
+        <v>31.1026</v>
       </c>
       <c r="C5" t="n">
-        <v>53.1202</v>
+        <v>53.1191</v>
       </c>
       <c r="D5" t="n">
-        <v>73.91459999999999</v>
+        <v>74.6592</v>
       </c>
       <c r="E5" t="n">
-        <v>108.888</v>
+        <v>109.883</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3403</v>
+        <v>33.3156</v>
       </c>
       <c r="C6" t="n">
-        <v>45.876</v>
+        <v>45.4494</v>
       </c>
       <c r="D6" t="n">
-        <v>66.45480000000001</v>
+        <v>66.8492</v>
       </c>
       <c r="E6" t="n">
-        <v>99.8526</v>
+        <v>100.61</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9584</v>
+        <v>35.9473</v>
       </c>
       <c r="C7" t="n">
-        <v>46.0942</v>
+        <v>45.7597</v>
       </c>
       <c r="D7" t="n">
-        <v>58.6748</v>
+        <v>60.5803</v>
       </c>
       <c r="E7" t="n">
-        <v>95.6324</v>
+        <v>97.001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.3033</v>
+        <v>38.4482</v>
       </c>
       <c r="C8" t="n">
-        <v>46.5502</v>
+        <v>46.2611</v>
       </c>
       <c r="D8" t="n">
-        <v>60.748</v>
+        <v>60.9359</v>
       </c>
       <c r="E8" t="n">
-        <v>97.36320000000001</v>
+        <v>100.186</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.0802</v>
+        <v>40.3042</v>
       </c>
       <c r="C9" t="n">
-        <v>46.8903</v>
+        <v>46.5851</v>
       </c>
       <c r="D9" t="n">
-        <v>58.3041</v>
+        <v>58.6314</v>
       </c>
       <c r="E9" t="n">
-        <v>97.2456</v>
+        <v>101.412</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.9984</v>
+        <v>40.378</v>
       </c>
       <c r="C10" t="n">
-        <v>51.155</v>
+        <v>51.0507</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3256</v>
+        <v>63.472</v>
       </c>
       <c r="E10" t="n">
-        <v>101.666</v>
+        <v>103.212</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.4706</v>
+        <v>40.293</v>
       </c>
       <c r="C11" t="n">
-        <v>54.3852</v>
+        <v>55.2293</v>
       </c>
       <c r="D11" t="n">
-        <v>64.40649999999999</v>
+        <v>66.8222</v>
       </c>
       <c r="E11" t="n">
-        <v>102.999</v>
+        <v>104.589</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6434</v>
+        <v>40.6468</v>
       </c>
       <c r="C12" t="n">
-        <v>54.7745</v>
+        <v>54.7277</v>
       </c>
       <c r="D12" t="n">
-        <v>68.1297</v>
+        <v>69.21729999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>105.067</v>
+        <v>106.485</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.6541</v>
+        <v>40.7486</v>
       </c>
       <c r="C13" t="n">
-        <v>55.469</v>
+        <v>55.6604</v>
       </c>
       <c r="D13" t="n">
-        <v>68.6549</v>
+        <v>71.32729999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>105.194</v>
+        <v>106.671</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7129</v>
+        <v>40.6655</v>
       </c>
       <c r="C14" t="n">
-        <v>55.9693</v>
+        <v>55.7681</v>
       </c>
       <c r="D14" t="n">
-        <v>71.25749999999999</v>
+        <v>72.5478</v>
       </c>
       <c r="E14" t="n">
-        <v>106.72</v>
+        <v>108.707</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.6422</v>
+        <v>40.5797</v>
       </c>
       <c r="C15" t="n">
-        <v>55.7934</v>
+        <v>56.1139</v>
       </c>
       <c r="D15" t="n">
-        <v>72.0068</v>
+        <v>73.3605</v>
       </c>
       <c r="E15" t="n">
-        <v>105.017</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.6222</v>
+        <v>40.7019</v>
       </c>
       <c r="C16" t="n">
-        <v>55.9963</v>
+        <v>56.0572</v>
       </c>
       <c r="D16" t="n">
-        <v>72.4932</v>
+        <v>73.3738</v>
       </c>
       <c r="E16" t="n">
-        <v>104.976</v>
+        <v>107.148</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.6844</v>
+        <v>40.663</v>
       </c>
       <c r="C17" t="n">
-        <v>56.0218</v>
+        <v>56.2786</v>
       </c>
       <c r="D17" t="n">
-        <v>71.9174</v>
+        <v>73.82040000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>105.199</v>
+        <v>108.769</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.857229999999999</v>
+        <v>8.864100000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9079</v>
+        <v>16.8797</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2362</v>
+        <v>21.5376</v>
       </c>
       <c r="E2" t="n">
-        <v>33.3439</v>
+        <v>33.7463</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8519</v>
+        <v>16.8498</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6005</v>
+        <v>30.5993</v>
       </c>
       <c r="D3" t="n">
-        <v>40.1415</v>
+        <v>40.4518</v>
       </c>
       <c r="E3" t="n">
-        <v>62.2968</v>
+        <v>62.3898</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0305</v>
+        <v>23.9695</v>
       </c>
       <c r="C4" t="n">
-        <v>42.3881</v>
+        <v>42.3504</v>
       </c>
       <c r="D4" t="n">
-        <v>56.587</v>
+        <v>56.9082</v>
       </c>
       <c r="E4" t="n">
-        <v>85.9264</v>
+        <v>86.6082</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4918</v>
+        <v>31.3838</v>
       </c>
       <c r="C5" t="n">
-        <v>53.7336</v>
+        <v>53.9531</v>
       </c>
       <c r="D5" t="n">
-        <v>73.19029999999999</v>
+        <v>73.66419999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>109.67</v>
+        <v>110.702</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7997</v>
+        <v>33.7633</v>
       </c>
       <c r="C6" t="n">
-        <v>46.5024</v>
+        <v>45.9589</v>
       </c>
       <c r="D6" t="n">
-        <v>66.26260000000001</v>
+        <v>66.7166</v>
       </c>
       <c r="E6" t="n">
-        <v>100.138</v>
+        <v>101.659</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3565</v>
+        <v>36.3147</v>
       </c>
       <c r="C7" t="n">
-        <v>46.6921</v>
+        <v>46.2559</v>
       </c>
       <c r="D7" t="n">
-        <v>58.2203</v>
+        <v>59.8585</v>
       </c>
       <c r="E7" t="n">
-        <v>96.1892</v>
+        <v>98.96250000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.8393</v>
+        <v>38.2756</v>
       </c>
       <c r="C8" t="n">
-        <v>47.1699</v>
+        <v>46.6995</v>
       </c>
       <c r="D8" t="n">
-        <v>60.5478</v>
+        <v>61.3188</v>
       </c>
       <c r="E8" t="n">
-        <v>98.9436</v>
+        <v>100.803</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.5756</v>
+        <v>40.5067</v>
       </c>
       <c r="C9" t="n">
-        <v>47.4207</v>
+        <v>47.0253</v>
       </c>
       <c r="D9" t="n">
-        <v>58.7381</v>
+        <v>59.4086</v>
       </c>
       <c r="E9" t="n">
-        <v>99.23909999999999</v>
+        <v>102.038</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.5016</v>
+        <v>40.6472</v>
       </c>
       <c r="C10" t="n">
-        <v>52.0035</v>
+        <v>51.8245</v>
       </c>
       <c r="D10" t="n">
-        <v>63.1287</v>
+        <v>64.7775</v>
       </c>
       <c r="E10" t="n">
-        <v>103.568</v>
+        <v>105.047</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.0512</v>
+        <v>41.0109</v>
       </c>
       <c r="C11" t="n">
-        <v>54.4283</v>
+        <v>55.4589</v>
       </c>
       <c r="D11" t="n">
-        <v>64.7945</v>
+        <v>66.1683</v>
       </c>
       <c r="E11" t="n">
-        <v>104.031</v>
+        <v>105.585</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2237</v>
+        <v>41.2791</v>
       </c>
       <c r="C12" t="n">
-        <v>55.8889</v>
+        <v>55.7718</v>
       </c>
       <c r="D12" t="n">
-        <v>67.7633</v>
+        <v>69.0762</v>
       </c>
       <c r="E12" t="n">
-        <v>105.363</v>
+        <v>108.992</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3404</v>
+        <v>41.2304</v>
       </c>
       <c r="C13" t="n">
-        <v>56.0509</v>
+        <v>55.5596</v>
       </c>
       <c r="D13" t="n">
-        <v>68.9019</v>
+        <v>70.06480000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>106.84</v>
+        <v>107.24</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1011</v>
+        <v>41.1061</v>
       </c>
       <c r="C14" t="n">
-        <v>56.5245</v>
+        <v>55.2298</v>
       </c>
       <c r="D14" t="n">
-        <v>70.822</v>
+        <v>72.7813</v>
       </c>
       <c r="E14" t="n">
-        <v>106.986</v>
+        <v>109.033</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2892</v>
+        <v>41.0288</v>
       </c>
       <c r="C15" t="n">
-        <v>56.442</v>
+        <v>55.5508</v>
       </c>
       <c r="D15" t="n">
-        <v>71.6382</v>
+        <v>72.57080000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>107.055</v>
+        <v>109.168</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.2425</v>
+        <v>41.216</v>
       </c>
       <c r="C16" t="n">
-        <v>56.0476</v>
+        <v>55.8843</v>
       </c>
       <c r="D16" t="n">
-        <v>72.44670000000001</v>
+        <v>73.18689999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>106.957</v>
+        <v>109.902</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3069</v>
+        <v>41.3073</v>
       </c>
       <c r="C17" t="n">
-        <v>56.8493</v>
+        <v>56.8604</v>
       </c>
       <c r="D17" t="n">
-        <v>71.953</v>
+        <v>73.7389</v>
       </c>
       <c r="E17" t="n">
-        <v>108.403</v>
+        <v>109.515</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8399</v>
+        <v>13.7866</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5519</v>
+        <v>21.6121</v>
       </c>
       <c r="D2" t="n">
-        <v>28.5731</v>
+        <v>28.9696</v>
       </c>
       <c r="E2" t="n">
-        <v>40.8638</v>
+        <v>41.4362</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5266</v>
+        <v>26.5183</v>
       </c>
       <c r="C3" t="n">
-        <v>39.2365</v>
+        <v>39.2688</v>
       </c>
       <c r="D3" t="n">
-        <v>53.6477</v>
+        <v>54.2701</v>
       </c>
       <c r="E3" t="n">
-        <v>74.1635</v>
+        <v>75.3351</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.8704</v>
+        <v>37.8892</v>
       </c>
       <c r="C4" t="n">
-        <v>54.7411</v>
+        <v>54.7797</v>
       </c>
       <c r="D4" t="n">
-        <v>75.4602</v>
+        <v>76.5201</v>
       </c>
       <c r="E4" t="n">
-        <v>102.999</v>
+        <v>104.712</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.0432</v>
+        <v>49.014</v>
       </c>
       <c r="C5" t="n">
-        <v>70.94</v>
+        <v>70.4194</v>
       </c>
       <c r="D5" t="n">
-        <v>98.4524</v>
+        <v>99.2109</v>
       </c>
       <c r="E5" t="n">
-        <v>132.804</v>
+        <v>136.024</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.0036</v>
+        <v>48.1009</v>
       </c>
       <c r="C6" t="n">
-        <v>56.625</v>
+        <v>56.4259</v>
       </c>
       <c r="D6" t="n">
-        <v>84.5797</v>
+        <v>84.48309999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>115.293</v>
+        <v>115.751</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.737</v>
+        <v>49.8057</v>
       </c>
       <c r="C7" t="n">
-        <v>54.2184</v>
+        <v>53.9567</v>
       </c>
       <c r="D7" t="n">
-        <v>70.398</v>
+        <v>71.34350000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>107.307</v>
+        <v>109.185</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.1234</v>
+        <v>51.205</v>
       </c>
       <c r="C8" t="n">
-        <v>53.3724</v>
+        <v>53.3932</v>
       </c>
       <c r="D8" t="n">
-        <v>70.4404</v>
+        <v>71.6232</v>
       </c>
       <c r="E8" t="n">
-        <v>108.328</v>
+        <v>111.484</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.9803</v>
+        <v>52.9099</v>
       </c>
       <c r="C9" t="n">
-        <v>52.1552</v>
+        <v>51.9917</v>
       </c>
       <c r="D9" t="n">
-        <v>64.03230000000001</v>
+        <v>66.44889999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>107.508</v>
+        <v>110.952</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.7071</v>
+        <v>52.6508</v>
       </c>
       <c r="C10" t="n">
-        <v>55.9204</v>
+        <v>55.8369</v>
       </c>
       <c r="D10" t="n">
-        <v>71.1246</v>
+        <v>73.0894</v>
       </c>
       <c r="E10" t="n">
-        <v>112.204</v>
+        <v>113.584</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.6837</v>
+        <v>52.7362</v>
       </c>
       <c r="C11" t="n">
-        <v>58.5279</v>
+        <v>58.0896</v>
       </c>
       <c r="D11" t="n">
-        <v>71.9885</v>
+        <v>73.5462</v>
       </c>
       <c r="E11" t="n">
-        <v>111.851</v>
+        <v>113.051</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.7084</v>
+        <v>52.9874</v>
       </c>
       <c r="C12" t="n">
-        <v>58.7903</v>
+        <v>58.6174</v>
       </c>
       <c r="D12" t="n">
-        <v>75.8747</v>
+        <v>77.6974</v>
       </c>
       <c r="E12" t="n">
-        <v>112.095</v>
+        <v>115.918</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.4476</v>
+        <v>52.744</v>
       </c>
       <c r="C13" t="n">
-        <v>59.0546</v>
+        <v>58.7873</v>
       </c>
       <c r="D13" t="n">
-        <v>75.6759</v>
+        <v>77.8677</v>
       </c>
       <c r="E13" t="n">
-        <v>115.329</v>
+        <v>116.132</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>53.0347</v>
+        <v>52.4484</v>
       </c>
       <c r="C14" t="n">
-        <v>59.1418</v>
+        <v>59.1056</v>
       </c>
       <c r="D14" t="n">
-        <v>78.9997</v>
+        <v>79.86660000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>117.024</v>
+        <v>117.984</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>51.3469</v>
+        <v>53.0451</v>
       </c>
       <c r="C15" t="n">
-        <v>59.035</v>
+        <v>59.342</v>
       </c>
       <c r="D15" t="n">
-        <v>79.0681</v>
+        <v>80.9713</v>
       </c>
       <c r="E15" t="n">
-        <v>116.3</v>
+        <v>118.232</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.8432</v>
+        <v>52.7626</v>
       </c>
       <c r="C16" t="n">
-        <v>59.1967</v>
+        <v>59.0744</v>
       </c>
       <c r="D16" t="n">
-        <v>81.5119</v>
+        <v>82.65989999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>117.741</v>
+        <v>119.56</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.7897</v>
+        <v>52.931</v>
       </c>
       <c r="C17" t="n">
-        <v>59.2215</v>
+        <v>60.0719</v>
       </c>
       <c r="D17" t="n">
-        <v>80.8168</v>
+        <v>84.2166</v>
       </c>
       <c r="E17" t="n">
-        <v>118.072</v>
+        <v>117.607</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4359</v>
+        <v>14.1135</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6479</v>
+        <v>18.8697</v>
       </c>
       <c r="D2" t="n">
-        <v>24.7949</v>
+        <v>24.8465</v>
       </c>
       <c r="E2" t="n">
-        <v>30.8375</v>
+        <v>30.6367</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8796</v>
+        <v>26.479</v>
       </c>
       <c r="C3" t="n">
-        <v>32.3209</v>
+        <v>28.3046</v>
       </c>
       <c r="D3" t="n">
-        <v>37.9412</v>
+        <v>32.4729</v>
       </c>
       <c r="E3" t="n">
-        <v>55.5467</v>
+        <v>46.7469</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.6235</v>
+        <v>32.896</v>
       </c>
       <c r="C4" t="n">
-        <v>34.3787</v>
+        <v>32.3192</v>
       </c>
       <c r="D4" t="n">
-        <v>47.6603</v>
+        <v>51.0193</v>
       </c>
       <c r="E4" t="n">
-        <v>57.0628</v>
+        <v>67.91200000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>37.6208</v>
+        <v>42.8566</v>
       </c>
       <c r="C5" t="n">
-        <v>45.9567</v>
+        <v>50.9127</v>
       </c>
       <c r="D5" t="n">
-        <v>59.7959</v>
+        <v>53.8076</v>
       </c>
       <c r="E5" t="n">
-        <v>73.6421</v>
+        <v>79.2527</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36.4356</v>
+        <v>38.8373</v>
       </c>
       <c r="C6" t="n">
-        <v>46.4496</v>
+        <v>42.9713</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6363</v>
+        <v>52.7863</v>
       </c>
       <c r="E6" t="n">
-        <v>58.2539</v>
+        <v>59.2924</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.5769</v>
+        <v>39.1435</v>
       </c>
       <c r="C7" t="n">
-        <v>39.44</v>
+        <v>47.2913</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3034</v>
+        <v>45.6517</v>
       </c>
       <c r="E7" t="n">
-        <v>60.6983</v>
+        <v>72.3267</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.0039</v>
+        <v>39.6949</v>
       </c>
       <c r="C8" t="n">
-        <v>50.0362</v>
+        <v>43.8663</v>
       </c>
       <c r="D8" t="n">
-        <v>44.8282</v>
+        <v>49.3486</v>
       </c>
       <c r="E8" t="n">
-        <v>64.1694</v>
+        <v>58.4416</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.7747</v>
+        <v>43.93</v>
       </c>
       <c r="C9" t="n">
-        <v>49.29</v>
+        <v>43.5387</v>
       </c>
       <c r="D9" t="n">
-        <v>45.3833</v>
+        <v>57.1602</v>
       </c>
       <c r="E9" t="n">
-        <v>74.9808</v>
+        <v>71.9282</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.9652</v>
+        <v>43.6479</v>
       </c>
       <c r="C10" t="n">
-        <v>48.0277</v>
+        <v>44.1511</v>
       </c>
       <c r="D10" t="n">
-        <v>50.8808</v>
+        <v>51.2194</v>
       </c>
       <c r="E10" t="n">
-        <v>69.8866</v>
+        <v>63.2204</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.4172</v>
+        <v>46.0239</v>
       </c>
       <c r="C11" t="n">
-        <v>45.1626</v>
+        <v>45.4086</v>
       </c>
       <c r="D11" t="n">
-        <v>50.7438</v>
+        <v>55.758</v>
       </c>
       <c r="E11" t="n">
-        <v>67.23</v>
+        <v>75.3086</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.8644</v>
+        <v>40.0868</v>
       </c>
       <c r="C12" t="n">
-        <v>48.8128</v>
+        <v>45.8033</v>
       </c>
       <c r="D12" t="n">
-        <v>51.7113</v>
+        <v>56.874</v>
       </c>
       <c r="E12" t="n">
-        <v>74.12949999999999</v>
+        <v>77.94889999999999</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>48.1199</v>
+        <v>40.3696</v>
       </c>
       <c r="C13" t="n">
-        <v>52.7489</v>
+        <v>46.9461</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5692</v>
+        <v>53.3978</v>
       </c>
       <c r="E13" t="n">
-        <v>58.7386</v>
+        <v>69.87479999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.8537</v>
+        <v>46.5848</v>
       </c>
       <c r="C14" t="n">
-        <v>48.6044</v>
+        <v>51.3438</v>
       </c>
       <c r="D14" t="n">
-        <v>52.9329</v>
+        <v>48.743</v>
       </c>
       <c r="E14" t="n">
-        <v>76.65479999999999</v>
+        <v>73.2752</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.4839</v>
+        <v>43.0109</v>
       </c>
       <c r="C15" t="n">
-        <v>44.3206</v>
+        <v>46.4574</v>
       </c>
       <c r="D15" t="n">
-        <v>54.9578</v>
+        <v>55.627</v>
       </c>
       <c r="E15" t="n">
-        <v>74.26990000000001</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.3821</v>
+        <v>39.3698</v>
       </c>
       <c r="C16" t="n">
-        <v>52.3416</v>
+        <v>48.8919</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2711</v>
+        <v>53.1805</v>
       </c>
       <c r="E16" t="n">
-        <v>71.5117</v>
+        <v>72.9752</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.2205</v>
+        <v>42.6544</v>
       </c>
       <c r="C17" t="n">
-        <v>44.6001</v>
+        <v>45.8056</v>
       </c>
       <c r="D17" t="n">
-        <v>55.2512</v>
+        <v>51.4325</v>
       </c>
       <c r="E17" t="n">
-        <v>62.583</v>
+        <v>65.48609999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9004</v>
+        <v>14.9569</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6284</v>
+        <v>18.3325</v>
       </c>
       <c r="D2" t="n">
-        <v>24.595</v>
+        <v>24.1737</v>
       </c>
       <c r="E2" t="n">
-        <v>27.0125</v>
+        <v>32.2742</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.9343</v>
+        <v>27.8074</v>
       </c>
       <c r="C3" t="n">
-        <v>29.4563</v>
+        <v>31.0255</v>
       </c>
       <c r="D3" t="n">
-        <v>37.8368</v>
+        <v>33.5298</v>
       </c>
       <c r="E3" t="n">
-        <v>49.8127</v>
+        <v>46.3577</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.5348</v>
+        <v>30.8017</v>
       </c>
       <c r="C4" t="n">
-        <v>31.7523</v>
+        <v>34.0027</v>
       </c>
       <c r="D4" t="n">
-        <v>52.157</v>
+        <v>45.378</v>
       </c>
       <c r="E4" t="n">
-        <v>58.871</v>
+        <v>67.4177</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.0385</v>
+        <v>38.5869</v>
       </c>
       <c r="C5" t="n">
-        <v>51.0666</v>
+        <v>51.5815</v>
       </c>
       <c r="D5" t="n">
-        <v>52.4263</v>
+        <v>53.579</v>
       </c>
       <c r="E5" t="n">
-        <v>79.4491</v>
+        <v>76.8351</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.5695</v>
+        <v>38.2464</v>
       </c>
       <c r="C6" t="n">
-        <v>42.4994</v>
+        <v>46.1015</v>
       </c>
       <c r="D6" t="n">
-        <v>56.2933</v>
+        <v>53.8393</v>
       </c>
       <c r="E6" t="n">
-        <v>71.56180000000001</v>
+        <v>68.3557</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.8523</v>
+        <v>42.9904</v>
       </c>
       <c r="C7" t="n">
-        <v>46.9607</v>
+        <v>46.7663</v>
       </c>
       <c r="D7" t="n">
-        <v>51.9821</v>
+        <v>53.0474</v>
       </c>
       <c r="E7" t="n">
-        <v>75.7495</v>
+        <v>67.1545</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.6261</v>
+        <v>39.8826</v>
       </c>
       <c r="C8" t="n">
-        <v>42.4774</v>
+        <v>42.1472</v>
       </c>
       <c r="D8" t="n">
-        <v>51.3752</v>
+        <v>52.661</v>
       </c>
       <c r="E8" t="n">
-        <v>75.28879999999999</v>
+        <v>67.0722</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.6478</v>
+        <v>43.6101</v>
       </c>
       <c r="C9" t="n">
-        <v>40.3834</v>
+        <v>41.5535</v>
       </c>
       <c r="D9" t="n">
-        <v>55.4057</v>
+        <v>49.9277</v>
       </c>
       <c r="E9" t="n">
-        <v>62.5058</v>
+        <v>81.1575</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.1146</v>
+        <v>43.0747</v>
       </c>
       <c r="C10" t="n">
-        <v>46.7633</v>
+        <v>49.6384</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7478</v>
+        <v>50.9139</v>
       </c>
       <c r="E10" t="n">
-        <v>69.25060000000001</v>
+        <v>73.8526</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.3008</v>
+        <v>45.7102</v>
       </c>
       <c r="C11" t="n">
-        <v>43.6709</v>
+        <v>50.759</v>
       </c>
       <c r="D11" t="n">
-        <v>49.8245</v>
+        <v>52.1267</v>
       </c>
       <c r="E11" t="n">
-        <v>66.03360000000001</v>
+        <v>73.8694</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.9414</v>
+        <v>40.9636</v>
       </c>
       <c r="C12" t="n">
-        <v>48.9109</v>
+        <v>50.4439</v>
       </c>
       <c r="D12" t="n">
-        <v>45.6249</v>
+        <v>53.2515</v>
       </c>
       <c r="E12" t="n">
-        <v>72.0722</v>
+        <v>66.1936</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.255</v>
+        <v>41.2399</v>
       </c>
       <c r="C13" t="n">
-        <v>51.9523</v>
+        <v>45.0721</v>
       </c>
       <c r="D13" t="n">
-        <v>56.3717</v>
+        <v>49.0996</v>
       </c>
       <c r="E13" t="n">
-        <v>75.9117</v>
+        <v>71.1503</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.9608</v>
+        <v>46.3572</v>
       </c>
       <c r="C14" t="n">
-        <v>37.4388</v>
+        <v>52.8234</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2727</v>
+        <v>58.5107</v>
       </c>
       <c r="E14" t="n">
-        <v>64.818</v>
+        <v>66.1186</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.9576</v>
+        <v>39.1104</v>
       </c>
       <c r="C15" t="n">
-        <v>50.8167</v>
+        <v>47.2151</v>
       </c>
       <c r="D15" t="n">
-        <v>50.67</v>
+        <v>55.2025</v>
       </c>
       <c r="E15" t="n">
-        <v>75.3723</v>
+        <v>71.7137</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.4691</v>
+        <v>42.6853</v>
       </c>
       <c r="C16" t="n">
-        <v>47.9217</v>
+        <v>49.1057</v>
       </c>
       <c r="D16" t="n">
-        <v>52.335</v>
+        <v>57.5294</v>
       </c>
       <c r="E16" t="n">
-        <v>80.86150000000001</v>
+        <v>73.9747</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>45.014</v>
+        <v>43.7897</v>
       </c>
       <c r="C17" t="n">
-        <v>53.8583</v>
+        <v>51.9697</v>
       </c>
       <c r="D17" t="n">
-        <v>54.258</v>
+        <v>51.9891</v>
       </c>
       <c r="E17" t="n">
-        <v>66.95780000000001</v>
+        <v>67.6088</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.4184</v>
+        <v>18.2599</v>
       </c>
       <c r="C2" t="n">
-        <v>22.0343</v>
+        <v>21.5155</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0851</v>
+        <v>26.9042</v>
       </c>
       <c r="E2" t="n">
-        <v>31.3459</v>
+        <v>32.2028</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.0853</v>
+        <v>30.8964</v>
       </c>
       <c r="C3" t="n">
-        <v>32.8793</v>
+        <v>30.8491</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0624</v>
+        <v>45.6936</v>
       </c>
       <c r="E3" t="n">
-        <v>59.9844</v>
+        <v>55.8135</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.4696</v>
+        <v>36.1294</v>
       </c>
       <c r="C4" t="n">
-        <v>46.6537</v>
+        <v>41.5863</v>
       </c>
       <c r="D4" t="n">
-        <v>57.7127</v>
+        <v>52.6423</v>
       </c>
       <c r="E4" t="n">
-        <v>72.0343</v>
+        <v>72.499</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.1409</v>
+        <v>48.4331</v>
       </c>
       <c r="C5" t="n">
-        <v>55.1161</v>
+        <v>51.0967</v>
       </c>
       <c r="D5" t="n">
-        <v>59.4929</v>
+        <v>56.4833</v>
       </c>
       <c r="E5" t="n">
-        <v>75.226</v>
+        <v>82.70099999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44.2538</v>
+        <v>44.7499</v>
       </c>
       <c r="C6" t="n">
-        <v>52.3153</v>
+        <v>46.4101</v>
       </c>
       <c r="D6" t="n">
-        <v>66.7021</v>
+        <v>58.0594</v>
       </c>
       <c r="E6" t="n">
-        <v>72.2338</v>
+        <v>81.1206</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.5785</v>
+        <v>41.4052</v>
       </c>
       <c r="C7" t="n">
-        <v>42.3172</v>
+        <v>50.4114</v>
       </c>
       <c r="D7" t="n">
-        <v>50.8983</v>
+        <v>55.9417</v>
       </c>
       <c r="E7" t="n">
-        <v>72.70480000000001</v>
+        <v>67.1802</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.1159</v>
+        <v>45.2389</v>
       </c>
       <c r="C8" t="n">
-        <v>47.4424</v>
+        <v>43.2042</v>
       </c>
       <c r="D8" t="n">
-        <v>58.1799</v>
+        <v>60.5168</v>
       </c>
       <c r="E8" t="n">
-        <v>81.1009</v>
+        <v>83.809</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>35.5196</v>
+        <v>42.3943</v>
       </c>
       <c r="C9" t="n">
-        <v>40.1357</v>
+        <v>38.3677</v>
       </c>
       <c r="D9" t="n">
-        <v>46.5489</v>
+        <v>55.6271</v>
       </c>
       <c r="E9" t="n">
-        <v>72.0397</v>
+        <v>89.40309999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36.7014</v>
+        <v>47.0474</v>
       </c>
       <c r="C10" t="n">
-        <v>37.0435</v>
+        <v>35.8943</v>
       </c>
       <c r="D10" t="n">
-        <v>58.1455</v>
+        <v>54.8709</v>
       </c>
       <c r="E10" t="n">
-        <v>81.5851</v>
+        <v>87.253</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.698</v>
+        <v>45.7331</v>
       </c>
       <c r="C11" t="n">
-        <v>42.2748</v>
+        <v>39.3554</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0162</v>
+        <v>54.5041</v>
       </c>
       <c r="E11" t="n">
-        <v>86.17400000000001</v>
+        <v>79.7135</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.3985</v>
+        <v>47.1001</v>
       </c>
       <c r="C12" t="n">
-        <v>38.475</v>
+        <v>41.2034</v>
       </c>
       <c r="D12" t="n">
-        <v>57.4563</v>
+        <v>56.2085</v>
       </c>
       <c r="E12" t="n">
-        <v>89.99850000000001</v>
+        <v>83.60339999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.3574</v>
+        <v>44.0056</v>
       </c>
       <c r="C13" t="n">
-        <v>44.6184</v>
+        <v>40.9918</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7093</v>
+        <v>57.1892</v>
       </c>
       <c r="E13" t="n">
-        <v>85.4751</v>
+        <v>82.2124</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.617</v>
+        <v>48.7235</v>
       </c>
       <c r="C14" t="n">
-        <v>42.9562</v>
+        <v>41.9712</v>
       </c>
       <c r="D14" t="n">
-        <v>57.3961</v>
+        <v>57.6604</v>
       </c>
       <c r="E14" t="n">
-        <v>84.12130000000001</v>
+        <v>92.3475</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.7871</v>
+        <v>42.3937</v>
       </c>
       <c r="C15" t="n">
-        <v>41.1002</v>
+        <v>36.7889</v>
       </c>
       <c r="D15" t="n">
-        <v>58.4504</v>
+        <v>58.2533</v>
       </c>
       <c r="E15" t="n">
-        <v>77.91200000000001</v>
+        <v>90.7606</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.6755</v>
+        <v>42.032</v>
       </c>
       <c r="C16" t="n">
-        <v>43.3647</v>
+        <v>39.957</v>
       </c>
       <c r="D16" t="n">
-        <v>56.9667</v>
+        <v>58.506</v>
       </c>
       <c r="E16" t="n">
-        <v>95.2187</v>
+        <v>91.99420000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>47.1112</v>
+        <v>40.5036</v>
       </c>
       <c r="C17" t="n">
-        <v>42.9004</v>
+        <v>41.2265</v>
       </c>
       <c r="D17" t="n">
-        <v>56.4942</v>
+        <v>55.0923</v>
       </c>
       <c r="E17" t="n">
-        <v>94.0654</v>
+        <v>90.7931</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.8492</v>
+        <v>8.880089999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7445</v>
+        <v>16.8271</v>
       </c>
       <c r="D2" t="n">
-        <v>21.8606</v>
+        <v>22.031</v>
       </c>
       <c r="E2" t="n">
-        <v>33.6673</v>
+        <v>33.9446</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7511</v>
+        <v>16.7934</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3688</v>
+        <v>30.4866</v>
       </c>
       <c r="D3" t="n">
-        <v>41.0651</v>
+        <v>39.8845</v>
       </c>
       <c r="E3" t="n">
-        <v>62.3004</v>
+        <v>61.0708</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8281</v>
+        <v>23.8628</v>
       </c>
       <c r="C4" t="n">
-        <v>41.8001</v>
+        <v>42.2041</v>
       </c>
       <c r="D4" t="n">
-        <v>57.7765</v>
+        <v>55.9639</v>
       </c>
       <c r="E4" t="n">
-        <v>86.5879</v>
+        <v>84.6795</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1026</v>
+        <v>31.1898</v>
       </c>
       <c r="C5" t="n">
-        <v>53.1191</v>
+        <v>53.5324</v>
       </c>
       <c r="D5" t="n">
-        <v>74.6592</v>
+        <v>72.90779999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>109.883</v>
+        <v>109.142</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.3156</v>
+        <v>33.4306</v>
       </c>
       <c r="C6" t="n">
-        <v>45.4494</v>
+        <v>46.2787</v>
       </c>
       <c r="D6" t="n">
-        <v>66.8492</v>
+        <v>66.80800000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>100.61</v>
+        <v>101.382</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.9473</v>
+        <v>36.1033</v>
       </c>
       <c r="C7" t="n">
-        <v>45.7597</v>
+        <v>46.6105</v>
       </c>
       <c r="D7" t="n">
-        <v>60.5803</v>
+        <v>59.829</v>
       </c>
       <c r="E7" t="n">
-        <v>97.001</v>
+        <v>100.308</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4482</v>
+        <v>38.4749</v>
       </c>
       <c r="C8" t="n">
-        <v>46.2611</v>
+        <v>46.9651</v>
       </c>
       <c r="D8" t="n">
-        <v>60.9359</v>
+        <v>61.254</v>
       </c>
       <c r="E8" t="n">
-        <v>100.186</v>
+        <v>101.273</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.3042</v>
+        <v>40.6265</v>
       </c>
       <c r="C9" t="n">
-        <v>46.5851</v>
+        <v>47.073</v>
       </c>
       <c r="D9" t="n">
-        <v>58.6314</v>
+        <v>59.9043</v>
       </c>
       <c r="E9" t="n">
-        <v>101.412</v>
+        <v>103.417</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.378</v>
+        <v>40.6245</v>
       </c>
       <c r="C10" t="n">
-        <v>51.0507</v>
+        <v>51.2021</v>
       </c>
       <c r="D10" t="n">
-        <v>63.472</v>
+        <v>64.2598</v>
       </c>
       <c r="E10" t="n">
-        <v>103.212</v>
+        <v>107.403</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.293</v>
+        <v>40.9286</v>
       </c>
       <c r="C11" t="n">
-        <v>55.2293</v>
+        <v>55.1597</v>
       </c>
       <c r="D11" t="n">
-        <v>66.8222</v>
+        <v>65.77030000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>104.589</v>
+        <v>108.811</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6468</v>
+        <v>40.7556</v>
       </c>
       <c r="C12" t="n">
-        <v>54.7277</v>
+        <v>56.3229</v>
       </c>
       <c r="D12" t="n">
-        <v>69.21729999999999</v>
+        <v>70.1884</v>
       </c>
       <c r="E12" t="n">
-        <v>106.485</v>
+        <v>111.261</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7486</v>
+        <v>40.9131</v>
       </c>
       <c r="C13" t="n">
-        <v>55.6604</v>
+        <v>55.6667</v>
       </c>
       <c r="D13" t="n">
-        <v>71.32729999999999</v>
+        <v>70.47190000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>106.671</v>
+        <v>112.474</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.6655</v>
+        <v>40.937</v>
       </c>
       <c r="C14" t="n">
-        <v>55.7681</v>
+        <v>56.606</v>
       </c>
       <c r="D14" t="n">
-        <v>72.5478</v>
+        <v>74.63039999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>108.707</v>
+        <v>113.36</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.5797</v>
+        <v>40.8733</v>
       </c>
       <c r="C15" t="n">
-        <v>56.1139</v>
+        <v>56.102</v>
       </c>
       <c r="D15" t="n">
-        <v>73.3605</v>
+        <v>73.7801</v>
       </c>
       <c r="E15" t="n">
-        <v>106.15</v>
+        <v>113.036</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7019</v>
+        <v>41.0313</v>
       </c>
       <c r="C16" t="n">
-        <v>56.0572</v>
+        <v>56.5459</v>
       </c>
       <c r="D16" t="n">
-        <v>73.3738</v>
+        <v>76.18340000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>107.148</v>
+        <v>115.859</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.663</v>
+        <v>40.8652</v>
       </c>
       <c r="C17" t="n">
-        <v>56.2786</v>
+        <v>56.8091</v>
       </c>
       <c r="D17" t="n">
-        <v>73.82040000000001</v>
+        <v>76.0454</v>
       </c>
       <c r="E17" t="n">
-        <v>108.769</v>
+        <v>114.029</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.864100000000001</v>
+        <v>8.891069999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8797</v>
+        <v>16.9484</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5376</v>
+        <v>21.6322</v>
       </c>
       <c r="E2" t="n">
-        <v>33.7463</v>
+        <v>33.8965</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8498</v>
+        <v>16.8762</v>
       </c>
       <c r="C3" t="n">
-        <v>30.5993</v>
+        <v>30.7455</v>
       </c>
       <c r="D3" t="n">
-        <v>40.4518</v>
+        <v>39.5256</v>
       </c>
       <c r="E3" t="n">
-        <v>62.3898</v>
+        <v>61.2545</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9695</v>
+        <v>24.063</v>
       </c>
       <c r="C4" t="n">
-        <v>42.3504</v>
+        <v>42.4988</v>
       </c>
       <c r="D4" t="n">
-        <v>56.9082</v>
+        <v>55.1937</v>
       </c>
       <c r="E4" t="n">
-        <v>86.6082</v>
+        <v>85.13549999999999</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.3838</v>
+        <v>31.4951</v>
       </c>
       <c r="C5" t="n">
-        <v>53.9531</v>
+        <v>54.1606</v>
       </c>
       <c r="D5" t="n">
-        <v>73.66419999999999</v>
+        <v>72.2128</v>
       </c>
       <c r="E5" t="n">
-        <v>110.702</v>
+        <v>109.259</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7633</v>
+        <v>33.9554</v>
       </c>
       <c r="C6" t="n">
-        <v>45.9589</v>
+        <v>47.0802</v>
       </c>
       <c r="D6" t="n">
-        <v>66.7166</v>
+        <v>65.3541</v>
       </c>
       <c r="E6" t="n">
-        <v>101.659</v>
+        <v>100.215</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3147</v>
+        <v>36.5009</v>
       </c>
       <c r="C7" t="n">
-        <v>46.2559</v>
+        <v>47.2871</v>
       </c>
       <c r="D7" t="n">
-        <v>59.8585</v>
+        <v>57.6292</v>
       </c>
       <c r="E7" t="n">
-        <v>98.96250000000001</v>
+        <v>99.4093</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.2756</v>
+        <v>39.055</v>
       </c>
       <c r="C8" t="n">
-        <v>46.6995</v>
+        <v>47.8172</v>
       </c>
       <c r="D8" t="n">
-        <v>61.3188</v>
+        <v>60.4436</v>
       </c>
       <c r="E8" t="n">
-        <v>100.803</v>
+        <v>101.293</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.5067</v>
+        <v>41.1345</v>
       </c>
       <c r="C9" t="n">
-        <v>47.0253</v>
+        <v>47.5193</v>
       </c>
       <c r="D9" t="n">
-        <v>59.4086</v>
+        <v>61.4939</v>
       </c>
       <c r="E9" t="n">
-        <v>102.038</v>
+        <v>105.403</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6472</v>
+        <v>41.381</v>
       </c>
       <c r="C10" t="n">
-        <v>51.8245</v>
+        <v>51.7414</v>
       </c>
       <c r="D10" t="n">
-        <v>64.7775</v>
+        <v>64.2894</v>
       </c>
       <c r="E10" t="n">
-        <v>105.047</v>
+        <v>107.333</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.0109</v>
+        <v>41.4559</v>
       </c>
       <c r="C11" t="n">
-        <v>55.4589</v>
+        <v>55.2992</v>
       </c>
       <c r="D11" t="n">
-        <v>66.1683</v>
+        <v>66.7621</v>
       </c>
       <c r="E11" t="n">
-        <v>105.585</v>
+        <v>108.883</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2791</v>
+        <v>41.5352</v>
       </c>
       <c r="C12" t="n">
-        <v>55.7718</v>
+        <v>56.6928</v>
       </c>
       <c r="D12" t="n">
-        <v>69.0762</v>
+        <v>70.0271</v>
       </c>
       <c r="E12" t="n">
-        <v>108.992</v>
+        <v>111.058</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2304</v>
+        <v>41.6041</v>
       </c>
       <c r="C13" t="n">
-        <v>55.5596</v>
+        <v>55.9819</v>
       </c>
       <c r="D13" t="n">
-        <v>70.06480000000001</v>
+        <v>70.624</v>
       </c>
       <c r="E13" t="n">
-        <v>107.24</v>
+        <v>112.813</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1061</v>
+        <v>41.3768</v>
       </c>
       <c r="C14" t="n">
-        <v>55.2298</v>
+        <v>57.02</v>
       </c>
       <c r="D14" t="n">
-        <v>72.7813</v>
+        <v>72.3454</v>
       </c>
       <c r="E14" t="n">
-        <v>109.033</v>
+        <v>113.749</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.0288</v>
+        <v>41.4509</v>
       </c>
       <c r="C15" t="n">
-        <v>55.5508</v>
+        <v>56.8778</v>
       </c>
       <c r="D15" t="n">
-        <v>72.57080000000001</v>
+        <v>73.5956</v>
       </c>
       <c r="E15" t="n">
-        <v>109.168</v>
+        <v>112.225</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.216</v>
+        <v>41.7019</v>
       </c>
       <c r="C16" t="n">
-        <v>55.8843</v>
+        <v>57.4531</v>
       </c>
       <c r="D16" t="n">
-        <v>73.18689999999999</v>
+        <v>75.1742</v>
       </c>
       <c r="E16" t="n">
-        <v>109.902</v>
+        <v>114.164</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3073</v>
+        <v>41.5679</v>
       </c>
       <c r="C17" t="n">
-        <v>56.8604</v>
+        <v>57.4852</v>
       </c>
       <c r="D17" t="n">
-        <v>73.7389</v>
+        <v>75.1468</v>
       </c>
       <c r="E17" t="n">
-        <v>109.515</v>
+        <v>113.314</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.7866</v>
+        <v>13.8886</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6121</v>
+        <v>21.5959</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9696</v>
+        <v>29.03</v>
       </c>
       <c r="E2" t="n">
-        <v>41.4362</v>
+        <v>41.6498</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5183</v>
+        <v>26.6791</v>
       </c>
       <c r="C3" t="n">
-        <v>39.2688</v>
+        <v>39.1163</v>
       </c>
       <c r="D3" t="n">
-        <v>54.2701</v>
+        <v>53.7069</v>
       </c>
       <c r="E3" t="n">
-        <v>75.3351</v>
+        <v>74.6863</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.8892</v>
+        <v>37.9905</v>
       </c>
       <c r="C4" t="n">
-        <v>54.7797</v>
+        <v>54.5367</v>
       </c>
       <c r="D4" t="n">
-        <v>76.5201</v>
+        <v>75.65770000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>104.712</v>
+        <v>103.554</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.014</v>
+        <v>49.1875</v>
       </c>
       <c r="C5" t="n">
-        <v>70.4194</v>
+        <v>70.0137</v>
       </c>
       <c r="D5" t="n">
-        <v>99.2109</v>
+        <v>97.28230000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>136.024</v>
+        <v>133.306</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.1009</v>
+        <v>48.0769</v>
       </c>
       <c r="C6" t="n">
-        <v>56.4259</v>
+        <v>56.5495</v>
       </c>
       <c r="D6" t="n">
-        <v>84.48309999999999</v>
+        <v>84.0506</v>
       </c>
       <c r="E6" t="n">
-        <v>115.751</v>
+        <v>114.906</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.8057</v>
+        <v>49.9262</v>
       </c>
       <c r="C7" t="n">
-        <v>53.9567</v>
+        <v>54.0965</v>
       </c>
       <c r="D7" t="n">
-        <v>71.34350000000001</v>
+        <v>70.47620000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>109.185</v>
+        <v>106.231</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.205</v>
+        <v>51.2459</v>
       </c>
       <c r="C8" t="n">
-        <v>53.3932</v>
+        <v>53.4425</v>
       </c>
       <c r="D8" t="n">
-        <v>71.6232</v>
+        <v>71.89879999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>111.484</v>
+        <v>108.132</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.9099</v>
+        <v>53.444</v>
       </c>
       <c r="C9" t="n">
-        <v>51.9917</v>
+        <v>51.8208</v>
       </c>
       <c r="D9" t="n">
-        <v>66.44889999999999</v>
+        <v>65.65479999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>110.952</v>
+        <v>109.283</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.6508</v>
+        <v>52.8853</v>
       </c>
       <c r="C10" t="n">
-        <v>55.8369</v>
+        <v>55.6703</v>
       </c>
       <c r="D10" t="n">
-        <v>73.0894</v>
+        <v>75.9468</v>
       </c>
       <c r="E10" t="n">
-        <v>113.584</v>
+        <v>110.912</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.7362</v>
+        <v>52.8036</v>
       </c>
       <c r="C11" t="n">
-        <v>58.0896</v>
+        <v>58.2976</v>
       </c>
       <c r="D11" t="n">
-        <v>73.5462</v>
+        <v>76.119</v>
       </c>
       <c r="E11" t="n">
-        <v>113.051</v>
+        <v>110.598</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.9874</v>
+        <v>53.2291</v>
       </c>
       <c r="C12" t="n">
-        <v>58.6174</v>
+        <v>58.761</v>
       </c>
       <c r="D12" t="n">
-        <v>77.6974</v>
+        <v>80.45489999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>115.918</v>
+        <v>113.105</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.744</v>
+        <v>52.7881</v>
       </c>
       <c r="C13" t="n">
-        <v>58.7873</v>
+        <v>58.9212</v>
       </c>
       <c r="D13" t="n">
-        <v>77.8677</v>
+        <v>78.81229999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>116.132</v>
+        <v>114.718</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.4484</v>
+        <v>53.1436</v>
       </c>
       <c r="C14" t="n">
-        <v>59.1056</v>
+        <v>59.189</v>
       </c>
       <c r="D14" t="n">
-        <v>79.86660000000001</v>
+        <v>81.4066</v>
       </c>
       <c r="E14" t="n">
-        <v>117.984</v>
+        <v>115.477</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.0451</v>
+        <v>53.0376</v>
       </c>
       <c r="C15" t="n">
-        <v>59.342</v>
+        <v>59.6727</v>
       </c>
       <c r="D15" t="n">
-        <v>80.9713</v>
+        <v>80.9144</v>
       </c>
       <c r="E15" t="n">
-        <v>118.232</v>
+        <v>115.211</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.7626</v>
+        <v>52.847</v>
       </c>
       <c r="C16" t="n">
-        <v>59.0744</v>
+        <v>59.3054</v>
       </c>
       <c r="D16" t="n">
-        <v>82.65989999999999</v>
+        <v>82.56010000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>119.56</v>
+        <v>117.455</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.931</v>
+        <v>52.9251</v>
       </c>
       <c r="C17" t="n">
-        <v>60.0719</v>
+        <v>59.4134</v>
       </c>
       <c r="D17" t="n">
-        <v>84.2166</v>
+        <v>84.74250000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>117.607</v>
+        <v>115.141</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1135</v>
+        <v>14.1492</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8697</v>
+        <v>18.4323</v>
       </c>
       <c r="D2" t="n">
-        <v>24.8465</v>
+        <v>24.8639</v>
       </c>
       <c r="E2" t="n">
-        <v>30.6367</v>
+        <v>30.942</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.479</v>
+        <v>27.025</v>
       </c>
       <c r="C3" t="n">
-        <v>28.3046</v>
+        <v>30.2887</v>
       </c>
       <c r="D3" t="n">
-        <v>32.4729</v>
+        <v>35.5927</v>
       </c>
       <c r="E3" t="n">
-        <v>46.7469</v>
+        <v>49.1343</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.896</v>
+        <v>30.2501</v>
       </c>
       <c r="C4" t="n">
-        <v>32.3192</v>
+        <v>34.6029</v>
       </c>
       <c r="D4" t="n">
-        <v>51.0193</v>
+        <v>45.4653</v>
       </c>
       <c r="E4" t="n">
-        <v>67.91200000000001</v>
+        <v>68.5438</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.8566</v>
+        <v>43.1407</v>
       </c>
       <c r="C5" t="n">
-        <v>50.9127</v>
+        <v>42.2743</v>
       </c>
       <c r="D5" t="n">
-        <v>53.8076</v>
+        <v>56.8074</v>
       </c>
       <c r="E5" t="n">
-        <v>79.2527</v>
+        <v>69.7278</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.8373</v>
+        <v>38.0911</v>
       </c>
       <c r="C6" t="n">
-        <v>42.9713</v>
+        <v>45.9772</v>
       </c>
       <c r="D6" t="n">
-        <v>52.7863</v>
+        <v>57.2226</v>
       </c>
       <c r="E6" t="n">
-        <v>59.2924</v>
+        <v>66.6728</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.1435</v>
+        <v>40.0325</v>
       </c>
       <c r="C7" t="n">
-        <v>47.2913</v>
+        <v>39.481</v>
       </c>
       <c r="D7" t="n">
-        <v>45.6517</v>
+        <v>49.1171</v>
       </c>
       <c r="E7" t="n">
-        <v>72.3267</v>
+        <v>61.0227</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.6949</v>
+        <v>44.5735</v>
       </c>
       <c r="C8" t="n">
-        <v>43.8663</v>
+        <v>45.5659</v>
       </c>
       <c r="D8" t="n">
-        <v>49.3486</v>
+        <v>44.0044</v>
       </c>
       <c r="E8" t="n">
-        <v>58.4416</v>
+        <v>61.0553</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.93</v>
+        <v>42.1569</v>
       </c>
       <c r="C9" t="n">
-        <v>43.5387</v>
+        <v>44.3922</v>
       </c>
       <c r="D9" t="n">
-        <v>57.1602</v>
+        <v>48.4161</v>
       </c>
       <c r="E9" t="n">
-        <v>71.9282</v>
+        <v>59.9726</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.6479</v>
+        <v>39.3135</v>
       </c>
       <c r="C10" t="n">
-        <v>44.1511</v>
+        <v>46.6962</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2194</v>
+        <v>54.8452</v>
       </c>
       <c r="E10" t="n">
-        <v>63.2204</v>
+        <v>75.5583</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46.0239</v>
+        <v>44.5267</v>
       </c>
       <c r="C11" t="n">
-        <v>45.4086</v>
+        <v>48.6508</v>
       </c>
       <c r="D11" t="n">
-        <v>55.758</v>
+        <v>51.9327</v>
       </c>
       <c r="E11" t="n">
-        <v>75.3086</v>
+        <v>63.4092</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.0868</v>
+        <v>42.6579</v>
       </c>
       <c r="C12" t="n">
-        <v>45.8033</v>
+        <v>43.8911</v>
       </c>
       <c r="D12" t="n">
-        <v>56.874</v>
+        <v>55.3786</v>
       </c>
       <c r="E12" t="n">
-        <v>77.94889999999999</v>
+        <v>71.7539</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.3696</v>
+        <v>46.6379</v>
       </c>
       <c r="C13" t="n">
-        <v>46.9461</v>
+        <v>44.3317</v>
       </c>
       <c r="D13" t="n">
-        <v>53.3978</v>
+        <v>53.3892</v>
       </c>
       <c r="E13" t="n">
-        <v>69.87479999999999</v>
+        <v>67.8509</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46.5848</v>
+        <v>37.0686</v>
       </c>
       <c r="C14" t="n">
-        <v>51.3438</v>
+        <v>50.1527</v>
       </c>
       <c r="D14" t="n">
-        <v>48.743</v>
+        <v>52.0922</v>
       </c>
       <c r="E14" t="n">
-        <v>73.2752</v>
+        <v>71.88800000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.0109</v>
+        <v>43.2258</v>
       </c>
       <c r="C15" t="n">
-        <v>46.4574</v>
+        <v>44.4821</v>
       </c>
       <c r="D15" t="n">
-        <v>55.627</v>
+        <v>54.8261</v>
       </c>
       <c r="E15" t="n">
-        <v>73.2</v>
+        <v>71.6454</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.3698</v>
+        <v>38.9457</v>
       </c>
       <c r="C16" t="n">
-        <v>48.8919</v>
+        <v>47.7674</v>
       </c>
       <c r="D16" t="n">
-        <v>53.1805</v>
+        <v>54.4139</v>
       </c>
       <c r="E16" t="n">
-        <v>72.9752</v>
+        <v>60.3898</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.6544</v>
+        <v>43.6204</v>
       </c>
       <c r="C17" t="n">
-        <v>45.8056</v>
+        <v>45.448</v>
       </c>
       <c r="D17" t="n">
-        <v>51.4325</v>
+        <v>56.3017</v>
       </c>
       <c r="E17" t="n">
-        <v>65.48609999999999</v>
+        <v>66.8381</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9569</v>
+        <v>14.8484</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3325</v>
+        <v>18.2277</v>
       </c>
       <c r="D2" t="n">
-        <v>24.1737</v>
+        <v>24.816</v>
       </c>
       <c r="E2" t="n">
-        <v>32.2742</v>
+        <v>31.9657</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8074</v>
+        <v>27.6968</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0255</v>
+        <v>31.3662</v>
       </c>
       <c r="D3" t="n">
-        <v>33.5298</v>
+        <v>32.6598</v>
       </c>
       <c r="E3" t="n">
-        <v>46.3577</v>
+        <v>49.3551</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.8017</v>
+        <v>32.4502</v>
       </c>
       <c r="C4" t="n">
-        <v>34.0027</v>
+        <v>30.7743</v>
       </c>
       <c r="D4" t="n">
-        <v>45.378</v>
+        <v>50.6995</v>
       </c>
       <c r="E4" t="n">
-        <v>67.4177</v>
+        <v>70.1587</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.5869</v>
+        <v>40.0543</v>
       </c>
       <c r="C5" t="n">
-        <v>51.5815</v>
+        <v>42.2146</v>
       </c>
       <c r="D5" t="n">
-        <v>53.579</v>
+        <v>53.233</v>
       </c>
       <c r="E5" t="n">
-        <v>76.8351</v>
+        <v>82.854</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.2464</v>
+        <v>41.0087</v>
       </c>
       <c r="C6" t="n">
-        <v>46.1015</v>
+        <v>45.5112</v>
       </c>
       <c r="D6" t="n">
-        <v>53.8393</v>
+        <v>55.2239</v>
       </c>
       <c r="E6" t="n">
-        <v>68.3557</v>
+        <v>66.31140000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.9904</v>
+        <v>40.3175</v>
       </c>
       <c r="C7" t="n">
-        <v>46.7663</v>
+        <v>42.1494</v>
       </c>
       <c r="D7" t="n">
-        <v>53.0474</v>
+        <v>52.4284</v>
       </c>
       <c r="E7" t="n">
-        <v>67.1545</v>
+        <v>70.5052</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.8826</v>
+        <v>40.5244</v>
       </c>
       <c r="C8" t="n">
-        <v>42.1472</v>
+        <v>40.8033</v>
       </c>
       <c r="D8" t="n">
-        <v>52.661</v>
+        <v>47.0625</v>
       </c>
       <c r="E8" t="n">
-        <v>67.0722</v>
+        <v>60.3844</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.6101</v>
+        <v>40.4405</v>
       </c>
       <c r="C9" t="n">
-        <v>41.5535</v>
+        <v>41.0556</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9277</v>
+        <v>55.8669</v>
       </c>
       <c r="E9" t="n">
-        <v>81.1575</v>
+        <v>74.1365</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.0747</v>
+        <v>42.4596</v>
       </c>
       <c r="C10" t="n">
-        <v>49.6384</v>
+        <v>42.6145</v>
       </c>
       <c r="D10" t="n">
-        <v>50.9139</v>
+        <v>49.2975</v>
       </c>
       <c r="E10" t="n">
-        <v>73.8526</v>
+        <v>73.53100000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.7102</v>
+        <v>42.5918</v>
       </c>
       <c r="C11" t="n">
-        <v>50.759</v>
+        <v>46.4952</v>
       </c>
       <c r="D11" t="n">
-        <v>52.1267</v>
+        <v>54.3882</v>
       </c>
       <c r="E11" t="n">
-        <v>73.8694</v>
+        <v>75.3991</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.9636</v>
+        <v>44.8377</v>
       </c>
       <c r="C12" t="n">
-        <v>50.4439</v>
+        <v>47.8766</v>
       </c>
       <c r="D12" t="n">
-        <v>53.2515</v>
+        <v>51.7566</v>
       </c>
       <c r="E12" t="n">
-        <v>66.1936</v>
+        <v>67.40470000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.2399</v>
+        <v>44.056</v>
       </c>
       <c r="C13" t="n">
-        <v>45.0721</v>
+        <v>50.9354</v>
       </c>
       <c r="D13" t="n">
-        <v>49.0996</v>
+        <v>55.2091</v>
       </c>
       <c r="E13" t="n">
-        <v>71.1503</v>
+        <v>75.1003</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46.3572</v>
+        <v>41.2803</v>
       </c>
       <c r="C14" t="n">
-        <v>52.8234</v>
+        <v>47.1997</v>
       </c>
       <c r="D14" t="n">
-        <v>58.5107</v>
+        <v>52.5822</v>
       </c>
       <c r="E14" t="n">
-        <v>66.1186</v>
+        <v>72.7852</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>39.1104</v>
+        <v>43.4567</v>
       </c>
       <c r="C15" t="n">
-        <v>47.2151</v>
+        <v>44.7448</v>
       </c>
       <c r="D15" t="n">
-        <v>55.2025</v>
+        <v>54.077</v>
       </c>
       <c r="E15" t="n">
-        <v>71.7137</v>
+        <v>73.1473</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.6853</v>
+        <v>44.3521</v>
       </c>
       <c r="C16" t="n">
-        <v>49.1057</v>
+        <v>46.6313</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5294</v>
+        <v>53.0377</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9747</v>
+        <v>66.86839999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.7897</v>
+        <v>41.4648</v>
       </c>
       <c r="C17" t="n">
-        <v>51.9697</v>
+        <v>49.3495</v>
       </c>
       <c r="D17" t="n">
-        <v>51.9891</v>
+        <v>53.0343</v>
       </c>
       <c r="E17" t="n">
-        <v>67.6088</v>
+        <v>83.6824</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2599</v>
+        <v>18.1548</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5155</v>
+        <v>21.2101</v>
       </c>
       <c r="D2" t="n">
-        <v>26.9042</v>
+        <v>27.8397</v>
       </c>
       <c r="E2" t="n">
-        <v>32.2028</v>
+        <v>31.9587</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.8964</v>
+        <v>31.4235</v>
       </c>
       <c r="C3" t="n">
-        <v>30.8491</v>
+        <v>31.0495</v>
       </c>
       <c r="D3" t="n">
-        <v>45.6936</v>
+        <v>41.6293</v>
       </c>
       <c r="E3" t="n">
-        <v>55.8135</v>
+        <v>58.5791</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>36.1294</v>
+        <v>32.4232</v>
       </c>
       <c r="C4" t="n">
-        <v>41.5863</v>
+        <v>42.3082</v>
       </c>
       <c r="D4" t="n">
-        <v>52.6423</v>
+        <v>60.0788</v>
       </c>
       <c r="E4" t="n">
-        <v>72.499</v>
+        <v>76.96559999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48.4331</v>
+        <v>46.5769</v>
       </c>
       <c r="C5" t="n">
-        <v>51.0967</v>
+        <v>54.2811</v>
       </c>
       <c r="D5" t="n">
-        <v>56.4833</v>
+        <v>68.8703</v>
       </c>
       <c r="E5" t="n">
-        <v>82.70099999999999</v>
+        <v>89.0853</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44.7499</v>
+        <v>43.8685</v>
       </c>
       <c r="C6" t="n">
-        <v>46.4101</v>
+        <v>47.9302</v>
       </c>
       <c r="D6" t="n">
-        <v>58.0594</v>
+        <v>55.4834</v>
       </c>
       <c r="E6" t="n">
-        <v>81.1206</v>
+        <v>82.25960000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.4052</v>
+        <v>40.5983</v>
       </c>
       <c r="C7" t="n">
-        <v>50.4114</v>
+        <v>45.1652</v>
       </c>
       <c r="D7" t="n">
-        <v>55.9417</v>
+        <v>59.8235</v>
       </c>
       <c r="E7" t="n">
-        <v>67.1802</v>
+        <v>83.5956</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.2389</v>
+        <v>36.2621</v>
       </c>
       <c r="C8" t="n">
-        <v>43.2042</v>
+        <v>43.6157</v>
       </c>
       <c r="D8" t="n">
-        <v>60.5168</v>
+        <v>57.5119</v>
       </c>
       <c r="E8" t="n">
-        <v>83.809</v>
+        <v>80.37820000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.3943</v>
+        <v>36.6335</v>
       </c>
       <c r="C9" t="n">
-        <v>38.3677</v>
+        <v>38.8446</v>
       </c>
       <c r="D9" t="n">
-        <v>55.6271</v>
+        <v>56.9856</v>
       </c>
       <c r="E9" t="n">
-        <v>89.40309999999999</v>
+        <v>80.414</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>47.0474</v>
+        <v>40.1592</v>
       </c>
       <c r="C10" t="n">
-        <v>35.8943</v>
+        <v>36.989</v>
       </c>
       <c r="D10" t="n">
-        <v>54.8709</v>
+        <v>63.8912</v>
       </c>
       <c r="E10" t="n">
-        <v>87.253</v>
+        <v>92.6857</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.7331</v>
+        <v>44.5183</v>
       </c>
       <c r="C11" t="n">
-        <v>39.3554</v>
+        <v>35.7315</v>
       </c>
       <c r="D11" t="n">
-        <v>54.5041</v>
+        <v>56.302</v>
       </c>
       <c r="E11" t="n">
-        <v>79.7135</v>
+        <v>91.6156</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>47.1001</v>
+        <v>46.808</v>
       </c>
       <c r="C12" t="n">
-        <v>41.2034</v>
+        <v>40.1702</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2085</v>
+        <v>65.4926</v>
       </c>
       <c r="E12" t="n">
-        <v>83.60339999999999</v>
+        <v>92.1117</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.0056</v>
+        <v>40.798</v>
       </c>
       <c r="C13" t="n">
-        <v>40.9918</v>
+        <v>37.3535</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1892</v>
+        <v>57.9043</v>
       </c>
       <c r="E13" t="n">
-        <v>82.2124</v>
+        <v>83.44159999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>48.7235</v>
+        <v>43.5812</v>
       </c>
       <c r="C14" t="n">
-        <v>41.9712</v>
+        <v>38.6109</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6604</v>
+        <v>62.373</v>
       </c>
       <c r="E14" t="n">
-        <v>92.3475</v>
+        <v>91.3445</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.3937</v>
+        <v>45.9643</v>
       </c>
       <c r="C15" t="n">
-        <v>36.7889</v>
+        <v>38.4536</v>
       </c>
       <c r="D15" t="n">
-        <v>58.2533</v>
+        <v>59.2371</v>
       </c>
       <c r="E15" t="n">
-        <v>90.7606</v>
+        <v>86.5702</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.032</v>
+        <v>39.3299</v>
       </c>
       <c r="C16" t="n">
-        <v>39.957</v>
+        <v>40.3308</v>
       </c>
       <c r="D16" t="n">
-        <v>58.506</v>
+        <v>61.0582</v>
       </c>
       <c r="E16" t="n">
-        <v>91.99420000000001</v>
+        <v>92.742</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.5036</v>
+        <v>46.2201</v>
       </c>
       <c r="C17" t="n">
-        <v>41.2265</v>
+        <v>39.9168</v>
       </c>
       <c r="D17" t="n">
-        <v>55.0923</v>
+        <v>64.1125</v>
       </c>
       <c r="E17" t="n">
-        <v>90.7931</v>
+        <v>88.745</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.880089999999999</v>
+        <v>8.853579999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8271</v>
+        <v>16.6297</v>
       </c>
       <c r="D2" t="n">
-        <v>22.031</v>
+        <v>21.7969</v>
       </c>
       <c r="E2" t="n">
-        <v>33.9446</v>
+        <v>33.6455</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7934</v>
+        <v>16.7728</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4866</v>
+        <v>29.6338</v>
       </c>
       <c r="D3" t="n">
-        <v>39.8845</v>
+        <v>39.509</v>
       </c>
       <c r="E3" t="n">
-        <v>61.0708</v>
+        <v>60.7098</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8628</v>
+        <v>23.7892</v>
       </c>
       <c r="C4" t="n">
-        <v>42.2041</v>
+        <v>40.7349</v>
       </c>
       <c r="D4" t="n">
-        <v>55.9639</v>
+        <v>55.6105</v>
       </c>
       <c r="E4" t="n">
-        <v>84.6795</v>
+        <v>84.44280000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1898</v>
+        <v>31.1159</v>
       </c>
       <c r="C5" t="n">
-        <v>53.5324</v>
+        <v>51.8843</v>
       </c>
       <c r="D5" t="n">
-        <v>72.90779999999999</v>
+        <v>72.146</v>
       </c>
       <c r="E5" t="n">
-        <v>109.142</v>
+        <v>107.078</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4306</v>
+        <v>33.4859</v>
       </c>
       <c r="C6" t="n">
-        <v>46.2787</v>
+        <v>44.6423</v>
       </c>
       <c r="D6" t="n">
-        <v>66.80800000000001</v>
+        <v>65.7222</v>
       </c>
       <c r="E6" t="n">
-        <v>101.382</v>
+        <v>101.358</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.1033</v>
+        <v>36.0984</v>
       </c>
       <c r="C7" t="n">
-        <v>46.6105</v>
+        <v>45.1286</v>
       </c>
       <c r="D7" t="n">
-        <v>59.829</v>
+        <v>58.9838</v>
       </c>
       <c r="E7" t="n">
-        <v>100.308</v>
+        <v>100.021</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4749</v>
+        <v>38.55</v>
       </c>
       <c r="C8" t="n">
-        <v>46.9651</v>
+        <v>45.7836</v>
       </c>
       <c r="D8" t="n">
-        <v>61.254</v>
+        <v>59.6647</v>
       </c>
       <c r="E8" t="n">
-        <v>101.273</v>
+        <v>102.917</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.6265</v>
+        <v>40.3422</v>
       </c>
       <c r="C9" t="n">
-        <v>47.073</v>
+        <v>45.7367</v>
       </c>
       <c r="D9" t="n">
-        <v>59.9043</v>
+        <v>61.581</v>
       </c>
       <c r="E9" t="n">
-        <v>103.417</v>
+        <v>104.295</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6245</v>
+        <v>40.6312</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2021</v>
+        <v>50.6352</v>
       </c>
       <c r="D10" t="n">
-        <v>64.2598</v>
+        <v>64.7722</v>
       </c>
       <c r="E10" t="n">
-        <v>107.403</v>
+        <v>108.415</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.9286</v>
+        <v>40.8144</v>
       </c>
       <c r="C11" t="n">
-        <v>55.1597</v>
+        <v>52.4684</v>
       </c>
       <c r="D11" t="n">
-        <v>65.77030000000001</v>
+        <v>66.7009</v>
       </c>
       <c r="E11" t="n">
-        <v>108.811</v>
+        <v>108.882</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.7556</v>
+        <v>40.8604</v>
       </c>
       <c r="C12" t="n">
-        <v>56.3229</v>
+        <v>55.2528</v>
       </c>
       <c r="D12" t="n">
-        <v>70.1884</v>
+        <v>69.7752</v>
       </c>
       <c r="E12" t="n">
-        <v>111.261</v>
+        <v>111.988</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.9131</v>
+        <v>40.9825</v>
       </c>
       <c r="C13" t="n">
-        <v>55.6667</v>
+        <v>54.8502</v>
       </c>
       <c r="D13" t="n">
-        <v>70.47190000000001</v>
+        <v>70.9391</v>
       </c>
       <c r="E13" t="n">
-        <v>112.474</v>
+        <v>113.104</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.937</v>
+        <v>40.8151</v>
       </c>
       <c r="C14" t="n">
-        <v>56.606</v>
+        <v>55.6586</v>
       </c>
       <c r="D14" t="n">
-        <v>74.63039999999999</v>
+        <v>72.74160000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>113.36</v>
+        <v>114.598</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.8733</v>
+        <v>40.8867</v>
       </c>
       <c r="C15" t="n">
-        <v>56.102</v>
+        <v>55.4819</v>
       </c>
       <c r="D15" t="n">
-        <v>73.7801</v>
+        <v>73.3052</v>
       </c>
       <c r="E15" t="n">
-        <v>113.036</v>
+        <v>114.185</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.0313</v>
+        <v>40.659</v>
       </c>
       <c r="C16" t="n">
-        <v>56.5459</v>
+        <v>56.0305</v>
       </c>
       <c r="D16" t="n">
-        <v>76.18340000000001</v>
+        <v>74.89400000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>115.859</v>
+        <v>115.09</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.8652</v>
+        <v>40.9893</v>
       </c>
       <c r="C17" t="n">
-        <v>56.8091</v>
+        <v>55.9419</v>
       </c>
       <c r="D17" t="n">
-        <v>76.0454</v>
+        <v>76.0645</v>
       </c>
       <c r="E17" t="n">
-        <v>114.029</v>
+        <v>114.186</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.891069999999999</v>
+        <v>8.845610000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9484</v>
+        <v>16.73</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6322</v>
+        <v>21.4249</v>
       </c>
       <c r="E2" t="n">
-        <v>33.8965</v>
+        <v>33.7357</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8762</v>
+        <v>16.8641</v>
       </c>
       <c r="C3" t="n">
-        <v>30.7455</v>
+        <v>29.8719</v>
       </c>
       <c r="D3" t="n">
-        <v>39.5256</v>
+        <v>39.1167</v>
       </c>
       <c r="E3" t="n">
-        <v>61.2545</v>
+        <v>61.0167</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.063</v>
+        <v>24.0094</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4988</v>
+        <v>41.203</v>
       </c>
       <c r="D4" t="n">
-        <v>55.1937</v>
+        <v>54.977</v>
       </c>
       <c r="E4" t="n">
-        <v>85.13549999999999</v>
+        <v>84.3796</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4951</v>
+        <v>31.4437</v>
       </c>
       <c r="C5" t="n">
-        <v>54.1606</v>
+        <v>52.522</v>
       </c>
       <c r="D5" t="n">
-        <v>72.2128</v>
+        <v>71.02889999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>109.259</v>
+        <v>107.481</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9554</v>
+        <v>33.8908</v>
       </c>
       <c r="C6" t="n">
-        <v>47.0802</v>
+        <v>45.3239</v>
       </c>
       <c r="D6" t="n">
-        <v>65.3541</v>
+        <v>64.6039</v>
       </c>
       <c r="E6" t="n">
-        <v>100.215</v>
+        <v>100.928</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5009</v>
+        <v>36.5554</v>
       </c>
       <c r="C7" t="n">
-        <v>47.2871</v>
+        <v>45.659</v>
       </c>
       <c r="D7" t="n">
-        <v>57.6292</v>
+        <v>57.1515</v>
       </c>
       <c r="E7" t="n">
-        <v>99.4093</v>
+        <v>99.3399</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.055</v>
+        <v>39.0297</v>
       </c>
       <c r="C8" t="n">
-        <v>47.8172</v>
+        <v>46.4048</v>
       </c>
       <c r="D8" t="n">
-        <v>60.4436</v>
+        <v>59.2648</v>
       </c>
       <c r="E8" t="n">
-        <v>101.293</v>
+        <v>102.953</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.1345</v>
+        <v>41.05</v>
       </c>
       <c r="C9" t="n">
-        <v>47.5193</v>
+        <v>46.3788</v>
       </c>
       <c r="D9" t="n">
-        <v>61.4939</v>
+        <v>59.0216</v>
       </c>
       <c r="E9" t="n">
-        <v>105.403</v>
+        <v>105.245</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.381</v>
+        <v>41.067</v>
       </c>
       <c r="C10" t="n">
-        <v>51.7414</v>
+        <v>50.6619</v>
       </c>
       <c r="D10" t="n">
-        <v>64.2894</v>
+        <v>63.3768</v>
       </c>
       <c r="E10" t="n">
-        <v>107.333</v>
+        <v>109.354</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.4559</v>
+        <v>41.3732</v>
       </c>
       <c r="C11" t="n">
-        <v>55.2992</v>
+        <v>53.6699</v>
       </c>
       <c r="D11" t="n">
-        <v>66.7621</v>
+        <v>66.7137</v>
       </c>
       <c r="E11" t="n">
-        <v>108.883</v>
+        <v>109.967</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.5352</v>
+        <v>41.3911</v>
       </c>
       <c r="C12" t="n">
-        <v>56.6928</v>
+        <v>55.7039</v>
       </c>
       <c r="D12" t="n">
-        <v>70.0271</v>
+        <v>69.4945</v>
       </c>
       <c r="E12" t="n">
-        <v>111.058</v>
+        <v>113.287</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.6041</v>
+        <v>41.4516</v>
       </c>
       <c r="C13" t="n">
-        <v>55.9819</v>
+        <v>55.8074</v>
       </c>
       <c r="D13" t="n">
-        <v>70.624</v>
+        <v>70.51730000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>112.813</v>
+        <v>111.669</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3768</v>
+        <v>41.3209</v>
       </c>
       <c r="C14" t="n">
-        <v>57.02</v>
+        <v>55.4161</v>
       </c>
       <c r="D14" t="n">
-        <v>72.3454</v>
+        <v>72.6725</v>
       </c>
       <c r="E14" t="n">
-        <v>113.749</v>
+        <v>114.534</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.4509</v>
+        <v>41.2928</v>
       </c>
       <c r="C15" t="n">
-        <v>56.8778</v>
+        <v>56.2563</v>
       </c>
       <c r="D15" t="n">
-        <v>73.5956</v>
+        <v>73.1835</v>
       </c>
       <c r="E15" t="n">
-        <v>112.225</v>
+        <v>113.595</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.7019</v>
+        <v>41.4264</v>
       </c>
       <c r="C16" t="n">
-        <v>57.4531</v>
+        <v>56.3969</v>
       </c>
       <c r="D16" t="n">
-        <v>75.1742</v>
+        <v>74.5718</v>
       </c>
       <c r="E16" t="n">
-        <v>114.164</v>
+        <v>116.351</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.5679</v>
+        <v>41.515</v>
       </c>
       <c r="C17" t="n">
-        <v>57.4852</v>
+        <v>56.6479</v>
       </c>
       <c r="D17" t="n">
-        <v>75.1468</v>
+        <v>75.1931</v>
       </c>
       <c r="E17" t="n">
-        <v>113.314</v>
+        <v>115.325</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8886</v>
+        <v>13.8699</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5959</v>
+        <v>21.2932</v>
       </c>
       <c r="D2" t="n">
-        <v>29.03</v>
+        <v>29.1505</v>
       </c>
       <c r="E2" t="n">
-        <v>41.6498</v>
+        <v>41.6813</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6791</v>
+        <v>26.674</v>
       </c>
       <c r="C3" t="n">
-        <v>39.1163</v>
+        <v>38.0253</v>
       </c>
       <c r="D3" t="n">
-        <v>53.7069</v>
+        <v>54.1122</v>
       </c>
       <c r="E3" t="n">
-        <v>74.6863</v>
+        <v>75.7833</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.9905</v>
+        <v>37.9168</v>
       </c>
       <c r="C4" t="n">
-        <v>54.5367</v>
+        <v>52.9186</v>
       </c>
       <c r="D4" t="n">
-        <v>75.65770000000001</v>
+        <v>75.84180000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>103.554</v>
+        <v>105.604</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.1875</v>
+        <v>49.0857</v>
       </c>
       <c r="C5" t="n">
-        <v>70.0137</v>
+        <v>68.2505</v>
       </c>
       <c r="D5" t="n">
-        <v>97.28230000000001</v>
+        <v>98.7868</v>
       </c>
       <c r="E5" t="n">
-        <v>133.306</v>
+        <v>136.697</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.0769</v>
+        <v>48.1196</v>
       </c>
       <c r="C6" t="n">
-        <v>56.5495</v>
+        <v>55.1064</v>
       </c>
       <c r="D6" t="n">
-        <v>84.0506</v>
+        <v>85.62350000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>114.906</v>
+        <v>122.475</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.9262</v>
+        <v>49.8271</v>
       </c>
       <c r="C7" t="n">
-        <v>54.0965</v>
+        <v>53.0198</v>
       </c>
       <c r="D7" t="n">
-        <v>70.47620000000001</v>
+        <v>72.358</v>
       </c>
       <c r="E7" t="n">
-        <v>106.231</v>
+        <v>117.272</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.2459</v>
+        <v>51.4383</v>
       </c>
       <c r="C8" t="n">
-        <v>53.4425</v>
+        <v>52.2086</v>
       </c>
       <c r="D8" t="n">
-        <v>71.89879999999999</v>
+        <v>72.9426</v>
       </c>
       <c r="E8" t="n">
-        <v>108.132</v>
+        <v>119.991</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.444</v>
+        <v>53.3607</v>
       </c>
       <c r="C9" t="n">
-        <v>51.8208</v>
+        <v>50.9513</v>
       </c>
       <c r="D9" t="n">
-        <v>65.65479999999999</v>
+        <v>66.4067</v>
       </c>
       <c r="E9" t="n">
-        <v>109.283</v>
+        <v>120.626</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.8853</v>
+        <v>53.0067</v>
       </c>
       <c r="C10" t="n">
-        <v>55.6703</v>
+        <v>55.0599</v>
       </c>
       <c r="D10" t="n">
-        <v>75.9468</v>
+        <v>75.80800000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>110.912</v>
+        <v>124.011</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.8036</v>
+        <v>53.0988</v>
       </c>
       <c r="C11" t="n">
-        <v>58.2976</v>
+        <v>57.7255</v>
       </c>
       <c r="D11" t="n">
-        <v>76.119</v>
+        <v>80.12350000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>110.598</v>
+        <v>127.781</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.2291</v>
+        <v>52.5052</v>
       </c>
       <c r="C12" t="n">
-        <v>58.761</v>
+        <v>59.302</v>
       </c>
       <c r="D12" t="n">
-        <v>80.45489999999999</v>
+        <v>84.9367</v>
       </c>
       <c r="E12" t="n">
-        <v>113.105</v>
+        <v>131.061</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.7881</v>
+        <v>51.1573</v>
       </c>
       <c r="C13" t="n">
-        <v>58.9212</v>
+        <v>59.1459</v>
       </c>
       <c r="D13" t="n">
-        <v>78.81229999999999</v>
+        <v>87.1242</v>
       </c>
       <c r="E13" t="n">
-        <v>114.718</v>
+        <v>131.461</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>53.1436</v>
+        <v>52.7866</v>
       </c>
       <c r="C14" t="n">
-        <v>59.189</v>
+        <v>58.2728</v>
       </c>
       <c r="D14" t="n">
-        <v>81.4066</v>
+        <v>90.74590000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>115.477</v>
+        <v>133.927</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>53.0376</v>
+        <v>52.8158</v>
       </c>
       <c r="C15" t="n">
-        <v>59.6727</v>
+        <v>58.5642</v>
       </c>
       <c r="D15" t="n">
-        <v>80.9144</v>
+        <v>91.65309999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>115.211</v>
+        <v>133.415</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.847</v>
+        <v>52.8418</v>
       </c>
       <c r="C16" t="n">
-        <v>59.3054</v>
+        <v>58.6049</v>
       </c>
       <c r="D16" t="n">
-        <v>82.56010000000001</v>
+        <v>94.23609999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>117.455</v>
+        <v>134.945</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.9251</v>
+        <v>52.5337</v>
       </c>
       <c r="C17" t="n">
-        <v>59.4134</v>
+        <v>58.739</v>
       </c>
       <c r="D17" t="n">
-        <v>84.74250000000001</v>
+        <v>93.8955</v>
       </c>
       <c r="E17" t="n">
-        <v>115.141</v>
+        <v>135.136</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1492</v>
+        <v>14.2524</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4323</v>
+        <v>17.5144</v>
       </c>
       <c r="D2" t="n">
-        <v>24.8639</v>
+        <v>25.3963</v>
       </c>
       <c r="E2" t="n">
-        <v>30.942</v>
+        <v>30.6235</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.025</v>
+        <v>26.8953</v>
       </c>
       <c r="C3" t="n">
-        <v>30.2887</v>
+        <v>29.1617</v>
       </c>
       <c r="D3" t="n">
-        <v>35.5927</v>
+        <v>35.6345</v>
       </c>
       <c r="E3" t="n">
-        <v>49.1343</v>
+        <v>45.3613</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.2501</v>
+        <v>31.3266</v>
       </c>
       <c r="C4" t="n">
-        <v>34.6029</v>
+        <v>32.0478</v>
       </c>
       <c r="D4" t="n">
-        <v>45.4653</v>
+        <v>50.6963</v>
       </c>
       <c r="E4" t="n">
-        <v>68.5438</v>
+        <v>64.35129999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.1407</v>
+        <v>39.8959</v>
       </c>
       <c r="C5" t="n">
-        <v>42.2743</v>
+        <v>45.6195</v>
       </c>
       <c r="D5" t="n">
-        <v>56.8074</v>
+        <v>55.3594</v>
       </c>
       <c r="E5" t="n">
-        <v>69.7278</v>
+        <v>83.6268</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.0911</v>
+        <v>42.524</v>
       </c>
       <c r="C6" t="n">
-        <v>45.9772</v>
+        <v>34.5825</v>
       </c>
       <c r="D6" t="n">
-        <v>57.2226</v>
+        <v>51.9684</v>
       </c>
       <c r="E6" t="n">
-        <v>66.6728</v>
+        <v>72.4701</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.0325</v>
+        <v>40.7767</v>
       </c>
       <c r="C7" t="n">
-        <v>39.481</v>
+        <v>37.7688</v>
       </c>
       <c r="D7" t="n">
-        <v>49.1171</v>
+        <v>55.5925</v>
       </c>
       <c r="E7" t="n">
-        <v>61.0227</v>
+        <v>72.5812</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.5735</v>
+        <v>44.9156</v>
       </c>
       <c r="C8" t="n">
-        <v>45.5659</v>
+        <v>35.6267</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0044</v>
+        <v>53.4516</v>
       </c>
       <c r="E8" t="n">
-        <v>61.0553</v>
+        <v>64.4145</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.1569</v>
+        <v>44.3984</v>
       </c>
       <c r="C9" t="n">
-        <v>44.3922</v>
+        <v>36.9703</v>
       </c>
       <c r="D9" t="n">
-        <v>48.4161</v>
+        <v>52.5118</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9726</v>
+        <v>64.6902</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.3135</v>
+        <v>45.5455</v>
       </c>
       <c r="C10" t="n">
-        <v>46.6962</v>
+        <v>42.2614</v>
       </c>
       <c r="D10" t="n">
-        <v>54.8452</v>
+        <v>47.7558</v>
       </c>
       <c r="E10" t="n">
-        <v>75.5583</v>
+        <v>70.54259999999999</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.5267</v>
+        <v>46.4685</v>
       </c>
       <c r="C11" t="n">
-        <v>48.6508</v>
+        <v>44.0742</v>
       </c>
       <c r="D11" t="n">
-        <v>51.9327</v>
+        <v>54.6478</v>
       </c>
       <c r="E11" t="n">
-        <v>63.4092</v>
+        <v>73.685</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.6579</v>
+        <v>44.274</v>
       </c>
       <c r="C12" t="n">
-        <v>43.8911</v>
+        <v>41.8473</v>
       </c>
       <c r="D12" t="n">
-        <v>55.3786</v>
+        <v>53.2867</v>
       </c>
       <c r="E12" t="n">
-        <v>71.7539</v>
+        <v>57.4364</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46.6379</v>
+        <v>40.9848</v>
       </c>
       <c r="C13" t="n">
-        <v>44.3317</v>
+        <v>44.557</v>
       </c>
       <c r="D13" t="n">
-        <v>53.3892</v>
+        <v>57.7944</v>
       </c>
       <c r="E13" t="n">
-        <v>67.8509</v>
+        <v>73.0575</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>37.0686</v>
+        <v>40.461</v>
       </c>
       <c r="C14" t="n">
-        <v>50.1527</v>
+        <v>40.169</v>
       </c>
       <c r="D14" t="n">
-        <v>52.0922</v>
+        <v>55.8247</v>
       </c>
       <c r="E14" t="n">
-        <v>71.88800000000001</v>
+        <v>73.0128</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.2258</v>
+        <v>40.755</v>
       </c>
       <c r="C15" t="n">
-        <v>44.4821</v>
+        <v>49.6863</v>
       </c>
       <c r="D15" t="n">
-        <v>54.8261</v>
+        <v>57.639</v>
       </c>
       <c r="E15" t="n">
-        <v>71.6454</v>
+        <v>73.235</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>38.9457</v>
+        <v>41.8282</v>
       </c>
       <c r="C16" t="n">
-        <v>47.7674</v>
+        <v>43.3608</v>
       </c>
       <c r="D16" t="n">
-        <v>54.4139</v>
+        <v>53.1531</v>
       </c>
       <c r="E16" t="n">
-        <v>60.3898</v>
+        <v>83.0431</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.6204</v>
+        <v>45.5264</v>
       </c>
       <c r="C17" t="n">
-        <v>45.448</v>
+        <v>42.0186</v>
       </c>
       <c r="D17" t="n">
-        <v>56.3017</v>
+        <v>52.6875</v>
       </c>
       <c r="E17" t="n">
-        <v>66.8381</v>
+        <v>64.30029999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8484</v>
+        <v>15.0317</v>
       </c>
       <c r="C2" t="n">
-        <v>18.2277</v>
+        <v>17.0016</v>
       </c>
       <c r="D2" t="n">
-        <v>24.816</v>
+        <v>24.7987</v>
       </c>
       <c r="E2" t="n">
-        <v>31.9657</v>
+        <v>28.7949</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.6968</v>
+        <v>27.7615</v>
       </c>
       <c r="C3" t="n">
-        <v>31.3662</v>
+        <v>28.0093</v>
       </c>
       <c r="D3" t="n">
-        <v>32.6598</v>
+        <v>34.2476</v>
       </c>
       <c r="E3" t="n">
-        <v>49.3551</v>
+        <v>57.7563</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.4502</v>
+        <v>35.2</v>
       </c>
       <c r="C4" t="n">
-        <v>30.7743</v>
+        <v>31.933</v>
       </c>
       <c r="D4" t="n">
-        <v>50.6995</v>
+        <v>50.5905</v>
       </c>
       <c r="E4" t="n">
-        <v>70.1587</v>
+        <v>74.05500000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.0543</v>
+        <v>40.029</v>
       </c>
       <c r="C5" t="n">
-        <v>42.2146</v>
+        <v>40.7121</v>
       </c>
       <c r="D5" t="n">
-        <v>53.233</v>
+        <v>65.29689999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>82.854</v>
+        <v>81.8917</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>41.0087</v>
+        <v>38.0718</v>
       </c>
       <c r="C6" t="n">
-        <v>45.5112</v>
+        <v>42.2655</v>
       </c>
       <c r="D6" t="n">
-        <v>55.2239</v>
+        <v>56.7606</v>
       </c>
       <c r="E6" t="n">
-        <v>66.31140000000001</v>
+        <v>67.29130000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.3175</v>
+        <v>39.4353</v>
       </c>
       <c r="C7" t="n">
-        <v>42.1494</v>
+        <v>40.2964</v>
       </c>
       <c r="D7" t="n">
-        <v>52.4284</v>
+        <v>52.666</v>
       </c>
       <c r="E7" t="n">
-        <v>70.5052</v>
+        <v>71.7983</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.5244</v>
+        <v>46.3477</v>
       </c>
       <c r="C8" t="n">
-        <v>40.8033</v>
+        <v>38.1797</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0625</v>
+        <v>49.9707</v>
       </c>
       <c r="E8" t="n">
-        <v>60.3844</v>
+        <v>76.55719999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4405</v>
+        <v>42.6752</v>
       </c>
       <c r="C9" t="n">
-        <v>41.0556</v>
+        <v>40.539</v>
       </c>
       <c r="D9" t="n">
-        <v>55.8669</v>
+        <v>48.9061</v>
       </c>
       <c r="E9" t="n">
-        <v>74.1365</v>
+        <v>74.40479999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.4596</v>
+        <v>44.6616</v>
       </c>
       <c r="C10" t="n">
-        <v>42.6145</v>
+        <v>38.9687</v>
       </c>
       <c r="D10" t="n">
-        <v>49.2975</v>
+        <v>52.4816</v>
       </c>
       <c r="E10" t="n">
-        <v>73.53100000000001</v>
+        <v>81.7324</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.5918</v>
+        <v>42.9259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.4952</v>
+        <v>40.8082</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3882</v>
+        <v>48.1329</v>
       </c>
       <c r="E11" t="n">
-        <v>75.3991</v>
+        <v>76.88630000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>44.8377</v>
+        <v>41.9986</v>
       </c>
       <c r="C12" t="n">
-        <v>47.8766</v>
+        <v>44.7097</v>
       </c>
       <c r="D12" t="n">
-        <v>51.7566</v>
+        <v>50.0103</v>
       </c>
       <c r="E12" t="n">
-        <v>67.40470000000001</v>
+        <v>84.6429</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.056</v>
+        <v>44.8701</v>
       </c>
       <c r="C13" t="n">
-        <v>50.9354</v>
+        <v>44.4088</v>
       </c>
       <c r="D13" t="n">
-        <v>55.2091</v>
+        <v>52.3736</v>
       </c>
       <c r="E13" t="n">
-        <v>75.1003</v>
+        <v>71.97</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.2803</v>
+        <v>43.3046</v>
       </c>
       <c r="C14" t="n">
-        <v>47.1997</v>
+        <v>48.4481</v>
       </c>
       <c r="D14" t="n">
-        <v>52.5822</v>
+        <v>59.5419</v>
       </c>
       <c r="E14" t="n">
-        <v>72.7852</v>
+        <v>82.02679999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.4567</v>
+        <v>46.3418</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7448</v>
+        <v>41.6511</v>
       </c>
       <c r="D15" t="n">
-        <v>54.077</v>
+        <v>54.8277</v>
       </c>
       <c r="E15" t="n">
-        <v>73.1473</v>
+        <v>78.1523</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.3521</v>
+        <v>43.038</v>
       </c>
       <c r="C16" t="n">
-        <v>46.6313</v>
+        <v>41.2081</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0377</v>
+        <v>55.4752</v>
       </c>
       <c r="E16" t="n">
-        <v>66.86839999999999</v>
+        <v>65.9511</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.4648</v>
+        <v>45.5017</v>
       </c>
       <c r="C17" t="n">
-        <v>49.3495</v>
+        <v>47.8454</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0343</v>
+        <v>57.5917</v>
       </c>
       <c r="E17" t="n">
-        <v>83.6824</v>
+        <v>73.4423</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.1548</v>
+        <v>18.0717</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2101</v>
+        <v>19.7963</v>
       </c>
       <c r="D2" t="n">
-        <v>27.8397</v>
+        <v>28.179</v>
       </c>
       <c r="E2" t="n">
-        <v>31.9587</v>
+        <v>35.7547</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.4235</v>
+        <v>30.6186</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0495</v>
+        <v>30.7971</v>
       </c>
       <c r="D3" t="n">
-        <v>41.6293</v>
+        <v>43.4171</v>
       </c>
       <c r="E3" t="n">
-        <v>58.5791</v>
+        <v>52.3436</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.4232</v>
+        <v>32.863</v>
       </c>
       <c r="C4" t="n">
-        <v>42.3082</v>
+        <v>31.6321</v>
       </c>
       <c r="D4" t="n">
-        <v>60.0788</v>
+        <v>55.1154</v>
       </c>
       <c r="E4" t="n">
-        <v>76.96559999999999</v>
+        <v>75.04949999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.5769</v>
+        <v>46.8976</v>
       </c>
       <c r="C5" t="n">
-        <v>54.2811</v>
+        <v>47.466</v>
       </c>
       <c r="D5" t="n">
-        <v>68.8703</v>
+        <v>76.8749</v>
       </c>
       <c r="E5" t="n">
-        <v>89.0853</v>
+        <v>96.73739999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43.8685</v>
+        <v>46.4513</v>
       </c>
       <c r="C6" t="n">
-        <v>47.9302</v>
+        <v>40.307</v>
       </c>
       <c r="D6" t="n">
-        <v>55.4834</v>
+        <v>62.6898</v>
       </c>
       <c r="E6" t="n">
-        <v>82.25960000000001</v>
+        <v>93.1481</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.5983</v>
+        <v>39.2599</v>
       </c>
       <c r="C7" t="n">
-        <v>45.1652</v>
+        <v>40.4639</v>
       </c>
       <c r="D7" t="n">
-        <v>59.8235</v>
+        <v>53.6359</v>
       </c>
       <c r="E7" t="n">
-        <v>83.5956</v>
+        <v>88.2137</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.2621</v>
+        <v>44.1367</v>
       </c>
       <c r="C8" t="n">
-        <v>43.6157</v>
+        <v>39.5687</v>
       </c>
       <c r="D8" t="n">
-        <v>57.5119</v>
+        <v>55.277</v>
       </c>
       <c r="E8" t="n">
-        <v>80.37820000000001</v>
+        <v>84.899</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36.6335</v>
+        <v>44.2895</v>
       </c>
       <c r="C9" t="n">
-        <v>38.8446</v>
+        <v>38.4117</v>
       </c>
       <c r="D9" t="n">
-        <v>56.9856</v>
+        <v>54.2348</v>
       </c>
       <c r="E9" t="n">
-        <v>80.414</v>
+        <v>85.9701</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.1592</v>
+        <v>43.2641</v>
       </c>
       <c r="C10" t="n">
-        <v>36.989</v>
+        <v>38.4858</v>
       </c>
       <c r="D10" t="n">
-        <v>63.8912</v>
+        <v>53.6552</v>
       </c>
       <c r="E10" t="n">
-        <v>92.6857</v>
+        <v>84.4171</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.5183</v>
+        <v>42.2277</v>
       </c>
       <c r="C11" t="n">
-        <v>35.7315</v>
+        <v>39.879</v>
       </c>
       <c r="D11" t="n">
-        <v>56.302</v>
+        <v>57.9917</v>
       </c>
       <c r="E11" t="n">
-        <v>91.6156</v>
+        <v>78.9614</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>46.808</v>
+        <v>43.2473</v>
       </c>
       <c r="C12" t="n">
-        <v>40.1702</v>
+        <v>43.1351</v>
       </c>
       <c r="D12" t="n">
-        <v>65.4926</v>
+        <v>58.7401</v>
       </c>
       <c r="E12" t="n">
-        <v>92.1117</v>
+        <v>107.782</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.798</v>
+        <v>47.172</v>
       </c>
       <c r="C13" t="n">
-        <v>37.3535</v>
+        <v>38.8352</v>
       </c>
       <c r="D13" t="n">
-        <v>57.9043</v>
+        <v>61.9035</v>
       </c>
       <c r="E13" t="n">
-        <v>83.44159999999999</v>
+        <v>96.7432</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>43.5812</v>
+        <v>42.4865</v>
       </c>
       <c r="C14" t="n">
-        <v>38.6109</v>
+        <v>38.7839</v>
       </c>
       <c r="D14" t="n">
-        <v>62.373</v>
+        <v>56.9542</v>
       </c>
       <c r="E14" t="n">
-        <v>91.3445</v>
+        <v>97.0226</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>45.9643</v>
+        <v>41.0633</v>
       </c>
       <c r="C15" t="n">
-        <v>38.4536</v>
+        <v>38.6399</v>
       </c>
       <c r="D15" t="n">
-        <v>59.2371</v>
+        <v>71.837</v>
       </c>
       <c r="E15" t="n">
-        <v>86.5702</v>
+        <v>92.1557</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.3299</v>
+        <v>39.8415</v>
       </c>
       <c r="C16" t="n">
-        <v>40.3308</v>
+        <v>36.3451</v>
       </c>
       <c r="D16" t="n">
-        <v>61.0582</v>
+        <v>71.4353</v>
       </c>
       <c r="E16" t="n">
-        <v>92.742</v>
+        <v>84.1015</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>46.2201</v>
+        <v>40.9043</v>
       </c>
       <c r="C17" t="n">
-        <v>39.9168</v>
+        <v>36.992</v>
       </c>
       <c r="D17" t="n">
-        <v>64.1125</v>
+        <v>59.9317</v>
       </c>
       <c r="E17" t="n">
-        <v>88.745</v>
+        <v>91.4045</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.853579999999999</v>
+        <v>8.8765</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6297</v>
+        <v>15.8513</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7969</v>
+        <v>22.0009</v>
       </c>
       <c r="E2" t="n">
-        <v>33.6455</v>
+        <v>33.9359</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7728</v>
+        <v>16.803</v>
       </c>
       <c r="C3" t="n">
-        <v>29.6338</v>
+        <v>27.9511</v>
       </c>
       <c r="D3" t="n">
-        <v>39.509</v>
+        <v>39.9398</v>
       </c>
       <c r="E3" t="n">
-        <v>60.7098</v>
+        <v>61.5094</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7892</v>
+        <v>23.8258</v>
       </c>
       <c r="C4" t="n">
-        <v>40.7349</v>
+        <v>38.5223</v>
       </c>
       <c r="D4" t="n">
-        <v>55.6105</v>
+        <v>56.3918</v>
       </c>
       <c r="E4" t="n">
-        <v>84.44280000000001</v>
+        <v>85.9041</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1159</v>
+        <v>31.1341</v>
       </c>
       <c r="C5" t="n">
-        <v>51.8843</v>
+        <v>49.1674</v>
       </c>
       <c r="D5" t="n">
-        <v>72.146</v>
+        <v>73.0656</v>
       </c>
       <c r="E5" t="n">
-        <v>107.078</v>
+        <v>109.708</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4859</v>
+        <v>33.5345</v>
       </c>
       <c r="C6" t="n">
-        <v>44.6423</v>
+        <v>42.2872</v>
       </c>
       <c r="D6" t="n">
-        <v>65.7222</v>
+        <v>66.2313</v>
       </c>
       <c r="E6" t="n">
-        <v>101.358</v>
+        <v>102.846</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0984</v>
+        <v>36.0491</v>
       </c>
       <c r="C7" t="n">
-        <v>45.1286</v>
+        <v>42.8747</v>
       </c>
       <c r="D7" t="n">
-        <v>58.9838</v>
+        <v>60.5425</v>
       </c>
       <c r="E7" t="n">
-        <v>100.021</v>
+        <v>101.441</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.55</v>
+        <v>38.5912</v>
       </c>
       <c r="C8" t="n">
-        <v>45.7836</v>
+        <v>43.1011</v>
       </c>
       <c r="D8" t="n">
-        <v>59.6647</v>
+        <v>61.0568</v>
       </c>
       <c r="E8" t="n">
-        <v>102.917</v>
+        <v>104.205</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.3422</v>
+        <v>40.635</v>
       </c>
       <c r="C9" t="n">
-        <v>45.7367</v>
+        <v>43.3788</v>
       </c>
       <c r="D9" t="n">
-        <v>61.581</v>
+        <v>60.3822</v>
       </c>
       <c r="E9" t="n">
-        <v>104.295</v>
+        <v>107.206</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6312</v>
+        <v>40.4738</v>
       </c>
       <c r="C10" t="n">
-        <v>50.6352</v>
+        <v>47.7122</v>
       </c>
       <c r="D10" t="n">
-        <v>64.7722</v>
+        <v>64.84690000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>108.415</v>
+        <v>110.134</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.8144</v>
+        <v>40.8561</v>
       </c>
       <c r="C11" t="n">
-        <v>52.4684</v>
+        <v>52.0905</v>
       </c>
       <c r="D11" t="n">
-        <v>66.7009</v>
+        <v>67.33540000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>108.882</v>
+        <v>111.79</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.8604</v>
+        <v>40.721</v>
       </c>
       <c r="C12" t="n">
-        <v>55.2528</v>
+        <v>52.2488</v>
       </c>
       <c r="D12" t="n">
-        <v>69.7752</v>
+        <v>70.60290000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>111.988</v>
+        <v>113.495</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.9825</v>
+        <v>40.914</v>
       </c>
       <c r="C13" t="n">
-        <v>54.8502</v>
+        <v>52.7973</v>
       </c>
       <c r="D13" t="n">
-        <v>70.9391</v>
+        <v>72.92489999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>113.104</v>
+        <v>115.628</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.8151</v>
+        <v>40.7699</v>
       </c>
       <c r="C14" t="n">
-        <v>55.6586</v>
+        <v>53.2969</v>
       </c>
       <c r="D14" t="n">
-        <v>72.74160000000001</v>
+        <v>74.3693</v>
       </c>
       <c r="E14" t="n">
-        <v>114.598</v>
+        <v>115.581</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.8867</v>
+        <v>40.969</v>
       </c>
       <c r="C15" t="n">
-        <v>55.4819</v>
+        <v>53.2213</v>
       </c>
       <c r="D15" t="n">
-        <v>73.3052</v>
+        <v>74.6358</v>
       </c>
       <c r="E15" t="n">
-        <v>114.185</v>
+        <v>115.449</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.659</v>
+        <v>40.9375</v>
       </c>
       <c r="C16" t="n">
-        <v>56.0305</v>
+        <v>53.9465</v>
       </c>
       <c r="D16" t="n">
-        <v>74.89400000000001</v>
+        <v>76.374</v>
       </c>
       <c r="E16" t="n">
-        <v>115.09</v>
+        <v>116.546</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.9893</v>
+        <v>40.966</v>
       </c>
       <c r="C17" t="n">
-        <v>55.9419</v>
+        <v>53.4101</v>
       </c>
       <c r="D17" t="n">
-        <v>76.0645</v>
+        <v>76.6168</v>
       </c>
       <c r="E17" t="n">
-        <v>114.186</v>
+        <v>116.945</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.845610000000001</v>
+        <v>8.895210000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.73</v>
+        <v>15.9451</v>
       </c>
       <c r="D2" t="n">
-        <v>21.4249</v>
+        <v>21.6674</v>
       </c>
       <c r="E2" t="n">
-        <v>33.7357</v>
+        <v>34.043</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8641</v>
+        <v>16.8926</v>
       </c>
       <c r="C3" t="n">
-        <v>29.8719</v>
+        <v>28.1312</v>
       </c>
       <c r="D3" t="n">
-        <v>39.1167</v>
+        <v>39.6392</v>
       </c>
       <c r="E3" t="n">
-        <v>61.0167</v>
+        <v>61.7633</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0094</v>
+        <v>24.0569</v>
       </c>
       <c r="C4" t="n">
-        <v>41.203</v>
+        <v>38.8419</v>
       </c>
       <c r="D4" t="n">
-        <v>54.977</v>
+        <v>55.8591</v>
       </c>
       <c r="E4" t="n">
-        <v>84.3796</v>
+        <v>86.69280000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4437</v>
+        <v>31.4953</v>
       </c>
       <c r="C5" t="n">
-        <v>52.522</v>
+        <v>49.5712</v>
       </c>
       <c r="D5" t="n">
-        <v>71.02889999999999</v>
+        <v>72.449</v>
       </c>
       <c r="E5" t="n">
-        <v>107.481</v>
+        <v>109.449</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8908</v>
+        <v>33.9603</v>
       </c>
       <c r="C6" t="n">
-        <v>45.3239</v>
+        <v>42.9346</v>
       </c>
       <c r="D6" t="n">
-        <v>64.6039</v>
+        <v>66.4716</v>
       </c>
       <c r="E6" t="n">
-        <v>100.928</v>
+        <v>103.525</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5554</v>
+        <v>36.5394</v>
       </c>
       <c r="C7" t="n">
-        <v>45.659</v>
+        <v>43.3372</v>
       </c>
       <c r="D7" t="n">
-        <v>57.1515</v>
+        <v>60.3015</v>
       </c>
       <c r="E7" t="n">
-        <v>99.3399</v>
+        <v>101.455</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0297</v>
+        <v>39.2014</v>
       </c>
       <c r="C8" t="n">
-        <v>46.4048</v>
+        <v>43.963</v>
       </c>
       <c r="D8" t="n">
-        <v>59.2648</v>
+        <v>59.256</v>
       </c>
       <c r="E8" t="n">
-        <v>102.953</v>
+        <v>104.057</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.05</v>
+        <v>41.0624</v>
       </c>
       <c r="C9" t="n">
-        <v>46.3788</v>
+        <v>44.1106</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0216</v>
+        <v>58.7422</v>
       </c>
       <c r="E9" t="n">
-        <v>105.245</v>
+        <v>107.356</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.067</v>
+        <v>41.1813</v>
       </c>
       <c r="C10" t="n">
-        <v>50.6619</v>
+        <v>48.5244</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3768</v>
+        <v>63.8486</v>
       </c>
       <c r="E10" t="n">
-        <v>109.354</v>
+        <v>111.098</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.3732</v>
+        <v>41.1687</v>
       </c>
       <c r="C11" t="n">
-        <v>53.6699</v>
+        <v>51.1991</v>
       </c>
       <c r="D11" t="n">
-        <v>66.7137</v>
+        <v>66.8798</v>
       </c>
       <c r="E11" t="n">
-        <v>109.967</v>
+        <v>112.135</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3911</v>
+        <v>41.4822</v>
       </c>
       <c r="C12" t="n">
-        <v>55.7039</v>
+        <v>53.0411</v>
       </c>
       <c r="D12" t="n">
-        <v>69.4945</v>
+        <v>70.6836</v>
       </c>
       <c r="E12" t="n">
-        <v>113.287</v>
+        <v>113.91</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.4516</v>
+        <v>41.5994</v>
       </c>
       <c r="C13" t="n">
-        <v>55.8074</v>
+        <v>53.5141</v>
       </c>
       <c r="D13" t="n">
-        <v>70.51730000000001</v>
+        <v>72.01990000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>111.669</v>
+        <v>114.817</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3209</v>
+        <v>41.327</v>
       </c>
       <c r="C14" t="n">
-        <v>55.4161</v>
+        <v>53.9701</v>
       </c>
       <c r="D14" t="n">
-        <v>72.6725</v>
+        <v>73.81</v>
       </c>
       <c r="E14" t="n">
-        <v>114.534</v>
+        <v>117.122</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2928</v>
+        <v>41.4969</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2563</v>
+        <v>53.6693</v>
       </c>
       <c r="D15" t="n">
-        <v>73.1835</v>
+        <v>73.8626</v>
       </c>
       <c r="E15" t="n">
-        <v>113.595</v>
+        <v>117.385</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.4264</v>
+        <v>41.5239</v>
       </c>
       <c r="C16" t="n">
-        <v>56.3969</v>
+        <v>53.8503</v>
       </c>
       <c r="D16" t="n">
-        <v>74.5718</v>
+        <v>75.15130000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>116.351</v>
+        <v>118.006</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.515</v>
+        <v>41.6115</v>
       </c>
       <c r="C17" t="n">
-        <v>56.6479</v>
+        <v>54.3797</v>
       </c>
       <c r="D17" t="n">
-        <v>75.1931</v>
+        <v>76.7068</v>
       </c>
       <c r="E17" t="n">
-        <v>115.325</v>
+        <v>117.811</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8699</v>
+        <v>13.9122</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2932</v>
+        <v>19.7453</v>
       </c>
       <c r="D2" t="n">
-        <v>29.1505</v>
+        <v>29.2907</v>
       </c>
       <c r="E2" t="n">
-        <v>41.6813</v>
+        <v>42.0236</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.674</v>
+        <v>26.704</v>
       </c>
       <c r="C3" t="n">
-        <v>38.0253</v>
+        <v>34.7208</v>
       </c>
       <c r="D3" t="n">
-        <v>54.1122</v>
+        <v>54.4748</v>
       </c>
       <c r="E3" t="n">
-        <v>75.7833</v>
+        <v>77.1682</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.9168</v>
+        <v>38.0073</v>
       </c>
       <c r="C4" t="n">
-        <v>52.9186</v>
+        <v>48.1638</v>
       </c>
       <c r="D4" t="n">
-        <v>75.84180000000001</v>
+        <v>77.13549999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>105.604</v>
+        <v>107.376</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.0857</v>
+        <v>49.267</v>
       </c>
       <c r="C5" t="n">
-        <v>68.2505</v>
+        <v>61.9564</v>
       </c>
       <c r="D5" t="n">
-        <v>98.7868</v>
+        <v>99.0364</v>
       </c>
       <c r="E5" t="n">
-        <v>136.697</v>
+        <v>137.421</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.1196</v>
+        <v>48.2029</v>
       </c>
       <c r="C6" t="n">
-        <v>55.1064</v>
+        <v>51.8154</v>
       </c>
       <c r="D6" t="n">
-        <v>85.62350000000001</v>
+        <v>86.31180000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>122.475</v>
+        <v>124.125</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.8271</v>
+        <v>49.9638</v>
       </c>
       <c r="C7" t="n">
-        <v>53.0198</v>
+        <v>49.9183</v>
       </c>
       <c r="D7" t="n">
-        <v>72.358</v>
+        <v>72.583</v>
       </c>
       <c r="E7" t="n">
-        <v>117.272</v>
+        <v>117.645</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51.4383</v>
+        <v>51.1578</v>
       </c>
       <c r="C8" t="n">
-        <v>52.2086</v>
+        <v>49.5127</v>
       </c>
       <c r="D8" t="n">
-        <v>72.9426</v>
+        <v>74.1579</v>
       </c>
       <c r="E8" t="n">
-        <v>119.991</v>
+        <v>120.748</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.3607</v>
+        <v>53.5514</v>
       </c>
       <c r="C9" t="n">
-        <v>50.9513</v>
+        <v>48.3493</v>
       </c>
       <c r="D9" t="n">
-        <v>66.4067</v>
+        <v>74.536</v>
       </c>
       <c r="E9" t="n">
-        <v>120.626</v>
+        <v>119.598</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53.0067</v>
+        <v>52.8303</v>
       </c>
       <c r="C10" t="n">
-        <v>55.0599</v>
+        <v>52.5671</v>
       </c>
       <c r="D10" t="n">
-        <v>75.80800000000001</v>
+        <v>77.5424</v>
       </c>
       <c r="E10" t="n">
-        <v>124.011</v>
+        <v>125.106</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.0988</v>
+        <v>52.8403</v>
       </c>
       <c r="C11" t="n">
-        <v>57.7255</v>
+        <v>55.2372</v>
       </c>
       <c r="D11" t="n">
-        <v>80.12350000000001</v>
+        <v>81.2672</v>
       </c>
       <c r="E11" t="n">
-        <v>127.781</v>
+        <v>129.08</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.5052</v>
+        <v>52.8944</v>
       </c>
       <c r="C12" t="n">
-        <v>59.302</v>
+        <v>55.3512</v>
       </c>
       <c r="D12" t="n">
-        <v>84.9367</v>
+        <v>86.0598</v>
       </c>
       <c r="E12" t="n">
-        <v>131.061</v>
+        <v>131.759</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>51.1573</v>
+        <v>52.3843</v>
       </c>
       <c r="C13" t="n">
-        <v>59.1459</v>
+        <v>56.0442</v>
       </c>
       <c r="D13" t="n">
-        <v>87.1242</v>
+        <v>85.70480000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>131.461</v>
+        <v>132.79</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.7866</v>
+        <v>52.9605</v>
       </c>
       <c r="C14" t="n">
-        <v>58.2728</v>
+        <v>56.2555</v>
       </c>
       <c r="D14" t="n">
-        <v>90.74590000000001</v>
+        <v>90.9875</v>
       </c>
       <c r="E14" t="n">
-        <v>133.927</v>
+        <v>132.875</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>52.8158</v>
+        <v>53.1121</v>
       </c>
       <c r="C15" t="n">
-        <v>58.5642</v>
+        <v>56.197</v>
       </c>
       <c r="D15" t="n">
-        <v>91.65309999999999</v>
+        <v>91.55329999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>133.415</v>
+        <v>135.503</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.8418</v>
+        <v>53.0854</v>
       </c>
       <c r="C16" t="n">
-        <v>58.6049</v>
+        <v>56.1434</v>
       </c>
       <c r="D16" t="n">
-        <v>94.23609999999999</v>
+        <v>94.09829999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>134.945</v>
+        <v>136.586</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.5337</v>
+        <v>53.1199</v>
       </c>
       <c r="C17" t="n">
-        <v>58.739</v>
+        <v>56.2422</v>
       </c>
       <c r="D17" t="n">
-        <v>93.8955</v>
+        <v>96.1755</v>
       </c>
       <c r="E17" t="n">
-        <v>135.136</v>
+        <v>135.814</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.0956</v>
+        <v>14.3341</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9045</v>
+        <v>17.4763</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9127</v>
+        <v>24.7459</v>
       </c>
       <c r="E2" t="n">
-        <v>30.6026</v>
+        <v>29.6019</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.183</v>
+        <v>27.4</v>
       </c>
       <c r="C3" t="n">
-        <v>32.3905</v>
+        <v>29.02</v>
       </c>
       <c r="D3" t="n">
-        <v>38.4633</v>
+        <v>37.3315</v>
       </c>
       <c r="E3" t="n">
-        <v>52.1418</v>
+        <v>47.7662</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.1033</v>
+        <v>31.8047</v>
       </c>
       <c r="C4" t="n">
-        <v>35.0436</v>
+        <v>31.8137</v>
       </c>
       <c r="D4" t="n">
-        <v>53.747</v>
+        <v>47.2076</v>
       </c>
       <c r="E4" t="n">
-        <v>70.5282</v>
+        <v>68.5938</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.4162</v>
+        <v>43.2527</v>
       </c>
       <c r="C5" t="n">
-        <v>52.657</v>
+        <v>45.2985</v>
       </c>
       <c r="D5" t="n">
-        <v>57.7935</v>
+        <v>55.3833</v>
       </c>
       <c r="E5" t="n">
-        <v>78.58069999999999</v>
+        <v>67.9507</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.6238</v>
+        <v>39.5331</v>
       </c>
       <c r="C6" t="n">
-        <v>45.2884</v>
+        <v>41.751</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2725</v>
+        <v>57.877</v>
       </c>
       <c r="E6" t="n">
-        <v>75.0625</v>
+        <v>69.27719999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47.6316</v>
+        <v>39.687</v>
       </c>
       <c r="C7" t="n">
-        <v>42.6867</v>
+        <v>39.6795</v>
       </c>
       <c r="D7" t="n">
-        <v>52.0394</v>
+        <v>55.3391</v>
       </c>
       <c r="E7" t="n">
-        <v>74.50709999999999</v>
+        <v>76.47450000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.9092</v>
+        <v>45.337</v>
       </c>
       <c r="C8" t="n">
-        <v>47.3164</v>
+        <v>38.5835</v>
       </c>
       <c r="D8" t="n">
-        <v>49.9373</v>
+        <v>48.3796</v>
       </c>
       <c r="E8" t="n">
-        <v>63.4595</v>
+        <v>69.40260000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.6999</v>
+        <v>44.8111</v>
       </c>
       <c r="C9" t="n">
-        <v>41.2472</v>
+        <v>39.6282</v>
       </c>
       <c r="D9" t="n">
-        <v>48.6282</v>
+        <v>52.7439</v>
       </c>
       <c r="E9" t="n">
-        <v>66.1519</v>
+        <v>71.9836</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.642</v>
+        <v>45.2898</v>
       </c>
       <c r="C10" t="n">
-        <v>43.4995</v>
+        <v>37.1086</v>
       </c>
       <c r="D10" t="n">
-        <v>48.5229</v>
+        <v>50.9826</v>
       </c>
       <c r="E10" t="n">
-        <v>66.11320000000001</v>
+        <v>64.1515</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.8303</v>
+        <v>43.8662</v>
       </c>
       <c r="C11" t="n">
-        <v>41.2884</v>
+        <v>38.082</v>
       </c>
       <c r="D11" t="n">
-        <v>53.842</v>
+        <v>49.9941</v>
       </c>
       <c r="E11" t="n">
-        <v>65.7024</v>
+        <v>64.3021</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.5995</v>
+        <v>40.297</v>
       </c>
       <c r="C12" t="n">
-        <v>44.0488</v>
+        <v>43.3064</v>
       </c>
       <c r="D12" t="n">
-        <v>52.076</v>
+        <v>54.807</v>
       </c>
       <c r="E12" t="n">
-        <v>66.46810000000001</v>
+        <v>70.02679999999999</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.1154</v>
+        <v>44.8575</v>
       </c>
       <c r="C13" t="n">
-        <v>44.9019</v>
+        <v>41.2332</v>
       </c>
       <c r="D13" t="n">
-        <v>54.7434</v>
+        <v>53.6712</v>
       </c>
       <c r="E13" t="n">
-        <v>72.73399999999999</v>
+        <v>66.3494</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.0692</v>
+        <v>46.2386</v>
       </c>
       <c r="C14" t="n">
-        <v>46.1954</v>
+        <v>40.2825</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2924</v>
+        <v>51.4509</v>
       </c>
       <c r="E14" t="n">
-        <v>66.22190000000001</v>
+        <v>64.42270000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.0703</v>
+        <v>40.096</v>
       </c>
       <c r="C15" t="n">
-        <v>43.7204</v>
+        <v>39.9465</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7472</v>
+        <v>49.9759</v>
       </c>
       <c r="E15" t="n">
-        <v>59.5545</v>
+        <v>67.2945</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.5222</v>
+        <v>43.1928</v>
       </c>
       <c r="C16" t="n">
-        <v>40.4543</v>
+        <v>41.0813</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0459</v>
+        <v>53.7152</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9708</v>
+        <v>65.2021</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.8715</v>
+        <v>44.267</v>
       </c>
       <c r="C17" t="n">
-        <v>50.7038</v>
+        <v>42.0024</v>
       </c>
       <c r="D17" t="n">
-        <v>55.5337</v>
+        <v>56.8145</v>
       </c>
       <c r="E17" t="n">
-        <v>68.13160000000001</v>
+        <v>70.098</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9595</v>
+        <v>15.0869</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5133</v>
+        <v>17.28</v>
       </c>
       <c r="D2" t="n">
-        <v>24.4913</v>
+        <v>24.7894</v>
       </c>
       <c r="E2" t="n">
-        <v>29.7809</v>
+        <v>32.4264</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8737</v>
+        <v>27.5342</v>
       </c>
       <c r="C3" t="n">
-        <v>29.784</v>
+        <v>27.0138</v>
       </c>
       <c r="D3" t="n">
-        <v>36.0015</v>
+        <v>34.7738</v>
       </c>
       <c r="E3" t="n">
-        <v>50.2331</v>
+        <v>55.0928</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0083</v>
+        <v>33.6858</v>
       </c>
       <c r="C4" t="n">
-        <v>33.4813</v>
+        <v>31.7391</v>
       </c>
       <c r="D4" t="n">
-        <v>48.8029</v>
+        <v>49.1161</v>
       </c>
       <c r="E4" t="n">
-        <v>71.42359999999999</v>
+        <v>60.6626</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>45.5393</v>
+        <v>42.0526</v>
       </c>
       <c r="C5" t="n">
-        <v>50.5358</v>
+        <v>47.3809</v>
       </c>
       <c r="D5" t="n">
-        <v>58.8429</v>
+        <v>57.8508</v>
       </c>
       <c r="E5" t="n">
-        <v>86.6722</v>
+        <v>70.79559999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.1444</v>
+        <v>41.4368</v>
       </c>
       <c r="C6" t="n">
-        <v>46.6397</v>
+        <v>38.8127</v>
       </c>
       <c r="D6" t="n">
-        <v>56.6158</v>
+        <v>60.032</v>
       </c>
       <c r="E6" t="n">
-        <v>68.1696</v>
+        <v>67.62139999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.9713</v>
+        <v>39.9506</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7485</v>
+        <v>39.9597</v>
       </c>
       <c r="D7" t="n">
-        <v>51.8921</v>
+        <v>54.4318</v>
       </c>
       <c r="E7" t="n">
-        <v>83.05759999999999</v>
+        <v>61.2941</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.2481</v>
+        <v>44.6562</v>
       </c>
       <c r="C8" t="n">
-        <v>39.555</v>
+        <v>39.2256</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4461</v>
+        <v>51.255</v>
       </c>
       <c r="E8" t="n">
-        <v>65.6413</v>
+        <v>68.8532</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.8963</v>
+        <v>40.7562</v>
       </c>
       <c r="C9" t="n">
-        <v>43.6949</v>
+        <v>33.1175</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1967</v>
+        <v>53.2195</v>
       </c>
       <c r="E9" t="n">
-        <v>72.1735</v>
+        <v>76.1033</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.2046</v>
+        <v>44.0173</v>
       </c>
       <c r="C10" t="n">
-        <v>43.5469</v>
+        <v>39.2242</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1406</v>
+        <v>52.2562</v>
       </c>
       <c r="E10" t="n">
-        <v>65.4344</v>
+        <v>68.8056</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.259</v>
+        <v>43.9454</v>
       </c>
       <c r="C11" t="n">
-        <v>44.2183</v>
+        <v>43.0256</v>
       </c>
       <c r="D11" t="n">
-        <v>51.8579</v>
+        <v>50.6954</v>
       </c>
       <c r="E11" t="n">
-        <v>65.5676</v>
+        <v>69.3175</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.5481</v>
+        <v>41.2015</v>
       </c>
       <c r="C12" t="n">
-        <v>45.5714</v>
+        <v>41.8306</v>
       </c>
       <c r="D12" t="n">
-        <v>50.339</v>
+        <v>50.285</v>
       </c>
       <c r="E12" t="n">
-        <v>73.44459999999999</v>
+        <v>78.53060000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.8586</v>
+        <v>43.0427</v>
       </c>
       <c r="C13" t="n">
-        <v>46.4611</v>
+        <v>46.121</v>
       </c>
       <c r="D13" t="n">
-        <v>49.1861</v>
+        <v>45.0933</v>
       </c>
       <c r="E13" t="n">
-        <v>87.34050000000001</v>
+        <v>64.8186</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.2432</v>
+        <v>42.2861</v>
       </c>
       <c r="C14" t="n">
-        <v>41.887</v>
+        <v>41.1077</v>
       </c>
       <c r="D14" t="n">
-        <v>47.6381</v>
+        <v>51.426</v>
       </c>
       <c r="E14" t="n">
-        <v>58.8616</v>
+        <v>70.7851</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.441</v>
+        <v>48.9339</v>
       </c>
       <c r="C15" t="n">
-        <v>46.4968</v>
+        <v>44.1157</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2179</v>
+        <v>55.1739</v>
       </c>
       <c r="E15" t="n">
-        <v>66.8248</v>
+        <v>66.38720000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.7009</v>
+        <v>39.6161</v>
       </c>
       <c r="C16" t="n">
-        <v>49.1624</v>
+        <v>47.2193</v>
       </c>
       <c r="D16" t="n">
-        <v>54.6449</v>
+        <v>54.6053</v>
       </c>
       <c r="E16" t="n">
-        <v>57.8584</v>
+        <v>68.88849999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.086</v>
+        <v>39.1471</v>
       </c>
       <c r="C17" t="n">
-        <v>46.8107</v>
+        <v>40.1451</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1841</v>
+        <v>53.8095</v>
       </c>
       <c r="E17" t="n">
-        <v>60.2203</v>
+        <v>65.7222</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2875</v>
+        <v>18.3652</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5978</v>
+        <v>19.9494</v>
       </c>
       <c r="D2" t="n">
-        <v>27.6628</v>
+        <v>28.2317</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2247</v>
+        <v>28.5926</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.5903</v>
+        <v>29.5322</v>
       </c>
       <c r="C3" t="n">
-        <v>33.7166</v>
+        <v>32.7662</v>
       </c>
       <c r="D3" t="n">
-        <v>37.4313</v>
+        <v>38.5422</v>
       </c>
       <c r="E3" t="n">
-        <v>51.3231</v>
+        <v>53.5601</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5628</v>
+        <v>32.5493</v>
       </c>
       <c r="C4" t="n">
-        <v>47.8848</v>
+        <v>34.0209</v>
       </c>
       <c r="D4" t="n">
-        <v>51.5718</v>
+        <v>48.4288</v>
       </c>
       <c r="E4" t="n">
-        <v>73.3832</v>
+        <v>76.37569999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.1449</v>
+        <v>47.1128</v>
       </c>
       <c r="C5" t="n">
-        <v>56.4466</v>
+        <v>50.2819</v>
       </c>
       <c r="D5" t="n">
-        <v>57.7131</v>
+        <v>70.6514</v>
       </c>
       <c r="E5" t="n">
-        <v>80.4243</v>
+        <v>78.9738</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44.4176</v>
+        <v>49.4705</v>
       </c>
       <c r="C6" t="n">
-        <v>52.3435</v>
+        <v>38.7314</v>
       </c>
       <c r="D6" t="n">
-        <v>54.885</v>
+        <v>53.4208</v>
       </c>
       <c r="E6" t="n">
-        <v>62.1631</v>
+        <v>64.4588</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.688</v>
+        <v>47.4791</v>
       </c>
       <c r="C7" t="n">
-        <v>46.3299</v>
+        <v>31.8069</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6051</v>
+        <v>54.6175</v>
       </c>
       <c r="E7" t="n">
-        <v>59.7026</v>
+        <v>79.0348</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.3578</v>
+        <v>48.8763</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5321</v>
+        <v>38.046</v>
       </c>
       <c r="D8" t="n">
-        <v>51.17</v>
+        <v>51.3469</v>
       </c>
       <c r="E8" t="n">
-        <v>72.70610000000001</v>
+        <v>59.8306</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.3827</v>
+        <v>50.1343</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0866</v>
+        <v>32.9517</v>
       </c>
       <c r="D9" t="n">
-        <v>56.4945</v>
+        <v>53.0855</v>
       </c>
       <c r="E9" t="n">
-        <v>60.1044</v>
+        <v>67.40470000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.9278</v>
+        <v>52.4236</v>
       </c>
       <c r="C10" t="n">
-        <v>42.0951</v>
+        <v>38.3358</v>
       </c>
       <c r="D10" t="n">
-        <v>49.1358</v>
+        <v>49.6196</v>
       </c>
       <c r="E10" t="n">
-        <v>62.0667</v>
+        <v>63.6323</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.1589</v>
+        <v>50.3929</v>
       </c>
       <c r="C11" t="n">
-        <v>38.1902</v>
+        <v>38.007</v>
       </c>
       <c r="D11" t="n">
-        <v>53.6116</v>
+        <v>52.544</v>
       </c>
       <c r="E11" t="n">
-        <v>63.1066</v>
+        <v>60.6846</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.2054</v>
+        <v>42.7599</v>
       </c>
       <c r="C12" t="n">
-        <v>39.4523</v>
+        <v>39.0359</v>
       </c>
       <c r="D12" t="n">
-        <v>53.3034</v>
+        <v>55.2806</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3633</v>
+        <v>64.7625</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.4554</v>
+        <v>47.0668</v>
       </c>
       <c r="C13" t="n">
-        <v>40.2428</v>
+        <v>38.8034</v>
       </c>
       <c r="D13" t="n">
-        <v>48.2954</v>
+        <v>53.8846</v>
       </c>
       <c r="E13" t="n">
-        <v>57.5424</v>
+        <v>62.126</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.1886</v>
+        <v>49.191</v>
       </c>
       <c r="C14" t="n">
-        <v>37.7395</v>
+        <v>36.299</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6503</v>
+        <v>54.1152</v>
       </c>
       <c r="E14" t="n">
-        <v>50.5288</v>
+        <v>65.95480000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0942</v>
+        <v>47.0955</v>
       </c>
       <c r="C15" t="n">
-        <v>38.3687</v>
+        <v>32.8967</v>
       </c>
       <c r="D15" t="n">
-        <v>52.5494</v>
+        <v>56.6508</v>
       </c>
       <c r="E15" t="n">
-        <v>46.0449</v>
+        <v>56.4346</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.5085</v>
+        <v>44.0292</v>
       </c>
       <c r="C16" t="n">
-        <v>42.7941</v>
+        <v>35.5117</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0779</v>
+        <v>54.9541</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9987</v>
+        <v>57.9269</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.5107</v>
+        <v>47.3825</v>
       </c>
       <c r="C17" t="n">
-        <v>41.1716</v>
+        <v>36.5197</v>
       </c>
       <c r="D17" t="n">
-        <v>54.549</v>
+        <v>55.48</v>
       </c>
       <c r="E17" t="n">
-        <v>59.3498</v>
+        <v>57.9341</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.83029</v>
+        <v>8.87735</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7456</v>
+        <v>15.8645</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0833</v>
+        <v>22.1668</v>
       </c>
       <c r="E2" t="n">
-        <v>33.9908</v>
+        <v>34.2988</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7302</v>
+        <v>16.8126</v>
       </c>
       <c r="C3" t="n">
-        <v>30.2331</v>
+        <v>27.9415</v>
       </c>
       <c r="D3" t="n">
-        <v>41.8517</v>
+        <v>41.798</v>
       </c>
       <c r="E3" t="n">
-        <v>63.7522</v>
+        <v>63.833</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7675</v>
+        <v>23.8378</v>
       </c>
       <c r="C4" t="n">
-        <v>41.5631</v>
+        <v>38.4718</v>
       </c>
       <c r="D4" t="n">
-        <v>59.1191</v>
+        <v>58.7966</v>
       </c>
       <c r="E4" t="n">
-        <v>87.8586</v>
+        <v>88.0949</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0378</v>
+        <v>31.1234</v>
       </c>
       <c r="C5" t="n">
-        <v>52.7986</v>
+        <v>49.0602</v>
       </c>
       <c r="D5" t="n">
-        <v>77.07599999999999</v>
+        <v>77.0039</v>
       </c>
       <c r="E5" t="n">
-        <v>113.584</v>
+        <v>113.033</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.2274</v>
+        <v>33.4635</v>
       </c>
       <c r="C6" t="n">
-        <v>45.3729</v>
+        <v>42.233</v>
       </c>
       <c r="D6" t="n">
-        <v>69.02889999999999</v>
+        <v>68.1768</v>
       </c>
       <c r="E6" t="n">
-        <v>103.803</v>
+        <v>102.029</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.8329</v>
+        <v>36.0905</v>
       </c>
       <c r="C7" t="n">
-        <v>45.0291</v>
+        <v>42.4008</v>
       </c>
       <c r="D7" t="n">
-        <v>67.93810000000001</v>
+        <v>67.17740000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>102.012</v>
+        <v>100.667</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.1984</v>
+        <v>38.5575</v>
       </c>
       <c r="C8" t="n">
-        <v>45.2261</v>
+        <v>42.9413</v>
       </c>
       <c r="D8" t="n">
-        <v>62.4247</v>
+        <v>61.5545</v>
       </c>
       <c r="E8" t="n">
-        <v>100.285</v>
+        <v>100.191</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.8974</v>
+        <v>40.6576</v>
       </c>
       <c r="C9" t="n">
-        <v>45.5787</v>
+        <v>42.6626</v>
       </c>
       <c r="D9" t="n">
-        <v>64.5727</v>
+        <v>65.2838</v>
       </c>
       <c r="E9" t="n">
-        <v>103.278</v>
+        <v>102.006</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.9537</v>
+        <v>40.7463</v>
       </c>
       <c r="C10" t="n">
-        <v>50.1546</v>
+        <v>46.9486</v>
       </c>
       <c r="D10" t="n">
-        <v>64.2046</v>
+        <v>64.4101</v>
       </c>
       <c r="E10" t="n">
-        <v>103.271</v>
+        <v>101.275</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.2165</v>
+        <v>40.8843</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0208</v>
+        <v>49.6806</v>
       </c>
       <c r="D11" t="n">
-        <v>67.803</v>
+        <v>68.0643</v>
       </c>
       <c r="E11" t="n">
-        <v>104.428</v>
+        <v>104.592</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.5621</v>
+        <v>40.7996</v>
       </c>
       <c r="C12" t="n">
-        <v>52.5488</v>
+        <v>50.8418</v>
       </c>
       <c r="D12" t="n">
-        <v>68.78870000000001</v>
+        <v>69.1007</v>
       </c>
       <c r="E12" t="n">
-        <v>105.301</v>
+        <v>104.705</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.5693</v>
+        <v>40.9082</v>
       </c>
       <c r="C13" t="n">
-        <v>52.8735</v>
+        <v>51.501</v>
       </c>
       <c r="D13" t="n">
-        <v>71.27209999999999</v>
+        <v>70.8069</v>
       </c>
       <c r="E13" t="n">
-        <v>105.533</v>
+        <v>105.779</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.6018</v>
+        <v>40.9099</v>
       </c>
       <c r="C14" t="n">
-        <v>53.0565</v>
+        <v>51.5339</v>
       </c>
       <c r="D14" t="n">
-        <v>71.3998</v>
+        <v>71.26860000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>106.069</v>
+        <v>105.505</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.7235</v>
+        <v>40.905</v>
       </c>
       <c r="C15" t="n">
-        <v>52.9531</v>
+        <v>51.6194</v>
       </c>
       <c r="D15" t="n">
-        <v>73.4388</v>
+        <v>72.84990000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>106.869</v>
+        <v>105.65</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.6625</v>
+        <v>40.9452</v>
       </c>
       <c r="C16" t="n">
-        <v>53.0157</v>
+        <v>51.8113</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2589</v>
+        <v>72.7954</v>
       </c>
       <c r="E16" t="n">
-        <v>106.083</v>
+        <v>106.162</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.4927</v>
+        <v>40.9142</v>
       </c>
       <c r="C17" t="n">
-        <v>53.3515</v>
+        <v>51.7385</v>
       </c>
       <c r="D17" t="n">
-        <v>74.8329</v>
+        <v>73.37560000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>107.217</v>
+        <v>106.136</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.854699999999999</v>
+        <v>8.8993</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8531</v>
+        <v>15.9568</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7423</v>
+        <v>21.7573</v>
       </c>
       <c r="E2" t="n">
-        <v>34.1121</v>
+        <v>34.2778</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8124</v>
+        <v>16.898</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4446</v>
+        <v>28.192</v>
       </c>
       <c r="D3" t="n">
-        <v>41.2655</v>
+        <v>41.2014</v>
       </c>
       <c r="E3" t="n">
-        <v>63.8998</v>
+        <v>64.0517</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9373</v>
+        <v>24.0621</v>
       </c>
       <c r="C4" t="n">
-        <v>42.1339</v>
+        <v>38.9203</v>
       </c>
       <c r="D4" t="n">
-        <v>58.4297</v>
+        <v>58.0531</v>
       </c>
       <c r="E4" t="n">
-        <v>88.8356</v>
+        <v>88.54130000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.3665</v>
+        <v>31.4968</v>
       </c>
       <c r="C5" t="n">
-        <v>53.3609</v>
+        <v>49.6911</v>
       </c>
       <c r="D5" t="n">
-        <v>76.09480000000001</v>
+        <v>75.49420000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>113.345</v>
+        <v>112.818</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7017</v>
+        <v>33.9629</v>
       </c>
       <c r="C6" t="n">
-        <v>46.0025</v>
+        <v>42.7848</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8583</v>
+        <v>66.99120000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>103.841</v>
+        <v>104.078</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3106</v>
+        <v>36.5753</v>
       </c>
       <c r="C7" t="n">
-        <v>45.6538</v>
+        <v>42.9066</v>
       </c>
       <c r="D7" t="n">
-        <v>67.82089999999999</v>
+        <v>66.76690000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>102.949</v>
+        <v>101.77</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.7582</v>
+        <v>39.0189</v>
       </c>
       <c r="C8" t="n">
-        <v>45.787</v>
+        <v>43.5024</v>
       </c>
       <c r="D8" t="n">
-        <v>61.3247</v>
+        <v>60.5098</v>
       </c>
       <c r="E8" t="n">
-        <v>101.481</v>
+        <v>101.069</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4676</v>
+        <v>41.3207</v>
       </c>
       <c r="C9" t="n">
-        <v>45.9035</v>
+        <v>43.034</v>
       </c>
       <c r="D9" t="n">
-        <v>63.5476</v>
+        <v>64.5719</v>
       </c>
       <c r="E9" t="n">
-        <v>103.507</v>
+        <v>103.297</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6297</v>
+        <v>41.3665</v>
       </c>
       <c r="C10" t="n">
-        <v>49.7044</v>
+        <v>47.0235</v>
       </c>
       <c r="D10" t="n">
-        <v>63.819</v>
+        <v>64.21980000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>104.051</v>
+        <v>103.056</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7273</v>
+        <v>41.4456</v>
       </c>
       <c r="C11" t="n">
-        <v>52.6287</v>
+        <v>50.3701</v>
       </c>
       <c r="D11" t="n">
-        <v>67.6374</v>
+        <v>66.1486</v>
       </c>
       <c r="E11" t="n">
-        <v>105.864</v>
+        <v>106.212</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.1882</v>
+        <v>41.5019</v>
       </c>
       <c r="C12" t="n">
-        <v>53.0386</v>
+        <v>51.5188</v>
       </c>
       <c r="D12" t="n">
-        <v>68.7269</v>
+        <v>67.98520000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>106.497</v>
+        <v>105.422</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3111</v>
+        <v>41.5501</v>
       </c>
       <c r="C13" t="n">
-        <v>53.6618</v>
+        <v>51.9857</v>
       </c>
       <c r="D13" t="n">
-        <v>70.5711</v>
+        <v>70.20099999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>107.2</v>
+        <v>105.423</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.0901</v>
+        <v>41.6058</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8258</v>
+        <v>51.215</v>
       </c>
       <c r="D14" t="n">
-        <v>71.1498</v>
+        <v>70.8296</v>
       </c>
       <c r="E14" t="n">
-        <v>107.461</v>
+        <v>105.982</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2584</v>
+        <v>41.6294</v>
       </c>
       <c r="C15" t="n">
-        <v>53.8516</v>
+        <v>52.2977</v>
       </c>
       <c r="D15" t="n">
-        <v>73.50920000000001</v>
+        <v>72.8515</v>
       </c>
       <c r="E15" t="n">
-        <v>108.095</v>
+        <v>107.012</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.2425</v>
+        <v>41.6007</v>
       </c>
       <c r="C16" t="n">
-        <v>53.6703</v>
+        <v>51.7828</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2928</v>
+        <v>73.0248</v>
       </c>
       <c r="E16" t="n">
-        <v>107.749</v>
+        <v>107.086</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.1673</v>
+        <v>41.6133</v>
       </c>
       <c r="C17" t="n">
-        <v>53.6649</v>
+        <v>52.5386</v>
       </c>
       <c r="D17" t="n">
-        <v>74.244</v>
+        <v>74.304</v>
       </c>
       <c r="E17" t="n">
-        <v>107.615</v>
+        <v>106.15</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8671</v>
+        <v>13.9144</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5812</v>
+        <v>19.7794</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9882</v>
+        <v>29.1634</v>
       </c>
       <c r="E2" t="n">
-        <v>41.9661</v>
+        <v>42.12</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5345</v>
+        <v>26.9098</v>
       </c>
       <c r="C3" t="n">
-        <v>38.8633</v>
+        <v>34.7155</v>
       </c>
       <c r="D3" t="n">
-        <v>53.4099</v>
+        <v>53.4451</v>
       </c>
       <c r="E3" t="n">
-        <v>73.8785</v>
+        <v>74.05370000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.9794</v>
+        <v>38.7211</v>
       </c>
       <c r="C4" t="n">
-        <v>53.9883</v>
+        <v>48.1298</v>
       </c>
       <c r="D4" t="n">
-        <v>74.6966</v>
+        <v>74.66160000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>99.6163</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.2859</v>
+        <v>50.5921</v>
       </c>
       <c r="C5" t="n">
-        <v>69.0269</v>
+        <v>62.1832</v>
       </c>
       <c r="D5" t="n">
-        <v>96.64019999999999</v>
+        <v>96.60809999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>126.605</v>
+        <v>125.251</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47.9793</v>
+        <v>50.3076</v>
       </c>
       <c r="C6" t="n">
-        <v>55.9807</v>
+        <v>51.081</v>
       </c>
       <c r="D6" t="n">
-        <v>82.1387</v>
+        <v>80.8142</v>
       </c>
       <c r="E6" t="n">
-        <v>110.138</v>
+        <v>107.425</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.3971</v>
+        <v>52.2102</v>
       </c>
       <c r="C7" t="n">
-        <v>53.0666</v>
+        <v>49.2318</v>
       </c>
       <c r="D7" t="n">
-        <v>77.1464</v>
+        <v>76.94289999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>101.453</v>
+        <v>101.477</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50.9953</v>
+        <v>53.8277</v>
       </c>
       <c r="C8" t="n">
-        <v>51.9909</v>
+        <v>48.6584</v>
       </c>
       <c r="D8" t="n">
-        <v>65.5381</v>
+        <v>65.1324</v>
       </c>
       <c r="E8" t="n">
-        <v>96.5189</v>
+        <v>95.7944</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.5878</v>
+        <v>56.587</v>
       </c>
       <c r="C9" t="n">
-        <v>50.8674</v>
+        <v>47.4072</v>
       </c>
       <c r="D9" t="n">
-        <v>67.14100000000001</v>
+        <v>67.5313</v>
       </c>
       <c r="E9" t="n">
-        <v>97.3428</v>
+        <v>96.96129999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.317</v>
+        <v>56.0289</v>
       </c>
       <c r="C10" t="n">
-        <v>54.1902</v>
+        <v>50.532</v>
       </c>
       <c r="D10" t="n">
-        <v>63.1445</v>
+        <v>62.1478</v>
       </c>
       <c r="E10" t="n">
-        <v>95.62649999999999</v>
+        <v>94.9933</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.4214</v>
+        <v>55.5257</v>
       </c>
       <c r="C11" t="n">
-        <v>55.3159</v>
+        <v>53.3028</v>
       </c>
       <c r="D11" t="n">
-        <v>66.3762</v>
+        <v>66.2431</v>
       </c>
       <c r="E11" t="n">
-        <v>97.45740000000001</v>
+        <v>96.69029999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.3603</v>
+        <v>55.5822</v>
       </c>
       <c r="C12" t="n">
-        <v>56.0373</v>
+        <v>53.5619</v>
       </c>
       <c r="D12" t="n">
-        <v>66.6268</v>
+        <v>65.97920000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>97.10720000000001</v>
+        <v>95.9085</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.4118</v>
+        <v>56.1307</v>
       </c>
       <c r="C13" t="n">
-        <v>56.0641</v>
+        <v>53.9041</v>
       </c>
       <c r="D13" t="n">
-        <v>69.76900000000001</v>
+        <v>68.44929999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>97.8293</v>
+        <v>96.9237</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.4935</v>
+        <v>55.9064</v>
       </c>
       <c r="C14" t="n">
-        <v>56.1905</v>
+        <v>53.8256</v>
       </c>
       <c r="D14" t="n">
-        <v>69.17959999999999</v>
+        <v>68.1587</v>
       </c>
       <c r="E14" t="n">
-        <v>98.07559999999999</v>
+        <v>96.90560000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>52.4722</v>
+        <v>55.8109</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2807</v>
+        <v>54.0946</v>
       </c>
       <c r="D15" t="n">
-        <v>71.3758</v>
+        <v>70.3057</v>
       </c>
       <c r="E15" t="n">
-        <v>98.2022</v>
+        <v>96.8017</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.2466</v>
+        <v>55.9059</v>
       </c>
       <c r="C16" t="n">
-        <v>56.3221</v>
+        <v>54.1177</v>
       </c>
       <c r="D16" t="n">
-        <v>71.2628</v>
+        <v>69.8613</v>
       </c>
       <c r="E16" t="n">
-        <v>97.70740000000001</v>
+        <v>97.26690000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.2279</v>
+        <v>55.5465</v>
       </c>
       <c r="C17" t="n">
-        <v>56.4465</v>
+        <v>54.0288</v>
       </c>
       <c r="D17" t="n">
-        <v>72.8544</v>
+        <v>71.4823</v>
       </c>
       <c r="E17" t="n">
-        <v>97.72839999999999</v>
+        <v>97.8373</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3341</v>
+        <v>14.3923</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4763</v>
+        <v>17.242</v>
       </c>
       <c r="D2" t="n">
-        <v>24.7459</v>
+        <v>25.0934</v>
       </c>
       <c r="E2" t="n">
-        <v>29.6019</v>
+        <v>30.9112</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.4</v>
+        <v>26.9415</v>
       </c>
       <c r="C3" t="n">
-        <v>29.02</v>
+        <v>29.0821</v>
       </c>
       <c r="D3" t="n">
-        <v>37.3315</v>
+        <v>34.0355</v>
       </c>
       <c r="E3" t="n">
-        <v>47.7662</v>
+        <v>48.6383</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8047</v>
+        <v>33.4564</v>
       </c>
       <c r="C4" t="n">
-        <v>31.8137</v>
+        <v>31.6379</v>
       </c>
       <c r="D4" t="n">
-        <v>47.2076</v>
+        <v>49.4183</v>
       </c>
       <c r="E4" t="n">
-        <v>68.5938</v>
+        <v>67.61539999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.2527</v>
+        <v>40.2333</v>
       </c>
       <c r="C5" t="n">
-        <v>45.2985</v>
+        <v>41.9685</v>
       </c>
       <c r="D5" t="n">
-        <v>55.3833</v>
+        <v>53.741</v>
       </c>
       <c r="E5" t="n">
-        <v>67.9507</v>
+        <v>66.47020000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.5331</v>
+        <v>40.7255</v>
       </c>
       <c r="C6" t="n">
-        <v>41.751</v>
+        <v>37.0519</v>
       </c>
       <c r="D6" t="n">
-        <v>57.877</v>
+        <v>49.0394</v>
       </c>
       <c r="E6" t="n">
-        <v>69.27719999999999</v>
+        <v>60.975</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.687</v>
+        <v>39.0256</v>
       </c>
       <c r="C7" t="n">
-        <v>39.6795</v>
+        <v>40.599</v>
       </c>
       <c r="D7" t="n">
-        <v>55.3391</v>
+        <v>49.5696</v>
       </c>
       <c r="E7" t="n">
-        <v>76.47450000000001</v>
+        <v>69.3279</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.337</v>
+        <v>38.0049</v>
       </c>
       <c r="C8" t="n">
-        <v>38.5835</v>
+        <v>37.1478</v>
       </c>
       <c r="D8" t="n">
-        <v>48.3796</v>
+        <v>44.7154</v>
       </c>
       <c r="E8" t="n">
-        <v>69.40260000000001</v>
+        <v>64.8158</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.8111</v>
+        <v>39.7225</v>
       </c>
       <c r="C9" t="n">
-        <v>39.6282</v>
+        <v>34.9296</v>
       </c>
       <c r="D9" t="n">
-        <v>52.7439</v>
+        <v>50.799</v>
       </c>
       <c r="E9" t="n">
-        <v>71.9836</v>
+        <v>61.8713</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.2898</v>
+        <v>44.5122</v>
       </c>
       <c r="C10" t="n">
-        <v>37.1086</v>
+        <v>42.9789</v>
       </c>
       <c r="D10" t="n">
-        <v>50.9826</v>
+        <v>48.2888</v>
       </c>
       <c r="E10" t="n">
-        <v>64.1515</v>
+        <v>61.3173</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.8662</v>
+        <v>38.7434</v>
       </c>
       <c r="C11" t="n">
-        <v>38.082</v>
+        <v>44.7884</v>
       </c>
       <c r="D11" t="n">
-        <v>49.9941</v>
+        <v>50.5759</v>
       </c>
       <c r="E11" t="n">
-        <v>64.3021</v>
+        <v>59.5907</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.297</v>
+        <v>42.5274</v>
       </c>
       <c r="C12" t="n">
-        <v>43.3064</v>
+        <v>36.4547</v>
       </c>
       <c r="D12" t="n">
-        <v>54.807</v>
+        <v>51.8214</v>
       </c>
       <c r="E12" t="n">
-        <v>70.02679999999999</v>
+        <v>64.1258</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.8575</v>
+        <v>40.0001</v>
       </c>
       <c r="C13" t="n">
-        <v>41.2332</v>
+        <v>40.4228</v>
       </c>
       <c r="D13" t="n">
-        <v>53.6712</v>
+        <v>51.5156</v>
       </c>
       <c r="E13" t="n">
-        <v>66.3494</v>
+        <v>62.6282</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46.2386</v>
+        <v>44.2681</v>
       </c>
       <c r="C14" t="n">
-        <v>40.2825</v>
+        <v>39.9018</v>
       </c>
       <c r="D14" t="n">
-        <v>51.4509</v>
+        <v>56.4029</v>
       </c>
       <c r="E14" t="n">
-        <v>64.42270000000001</v>
+        <v>60.6198</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.096</v>
+        <v>42.3627</v>
       </c>
       <c r="C15" t="n">
-        <v>39.9465</v>
+        <v>36.6957</v>
       </c>
       <c r="D15" t="n">
-        <v>49.9759</v>
+        <v>52.5218</v>
       </c>
       <c r="E15" t="n">
-        <v>67.2945</v>
+        <v>65.4757</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.1928</v>
+        <v>43.5253</v>
       </c>
       <c r="C16" t="n">
-        <v>41.0813</v>
+        <v>43.0539</v>
       </c>
       <c r="D16" t="n">
-        <v>53.7152</v>
+        <v>56.4328</v>
       </c>
       <c r="E16" t="n">
-        <v>65.2021</v>
+        <v>61.5596</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>44.267</v>
+        <v>41.5653</v>
       </c>
       <c r="C17" t="n">
-        <v>42.0024</v>
+        <v>37.408</v>
       </c>
       <c r="D17" t="n">
-        <v>56.8145</v>
+        <v>55.505</v>
       </c>
       <c r="E17" t="n">
-        <v>70.098</v>
+        <v>60.2527</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>15.0869</v>
+        <v>14.8745</v>
       </c>
       <c r="C2" t="n">
-        <v>17.28</v>
+        <v>17.0059</v>
       </c>
       <c r="D2" t="n">
-        <v>24.7894</v>
+        <v>24.6301</v>
       </c>
       <c r="E2" t="n">
-        <v>32.4264</v>
+        <v>28.6709</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.5342</v>
+        <v>27.7626</v>
       </c>
       <c r="C3" t="n">
-        <v>27.0138</v>
+        <v>29.2829</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7738</v>
+        <v>36.1017</v>
       </c>
       <c r="E3" t="n">
-        <v>55.0928</v>
+        <v>50.7411</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.6858</v>
+        <v>30.8062</v>
       </c>
       <c r="C4" t="n">
-        <v>31.7391</v>
+        <v>31.4918</v>
       </c>
       <c r="D4" t="n">
-        <v>49.1161</v>
+        <v>46.2677</v>
       </c>
       <c r="E4" t="n">
-        <v>60.6626</v>
+        <v>73.0303</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.0526</v>
+        <v>46.2588</v>
       </c>
       <c r="C5" t="n">
-        <v>47.3809</v>
+        <v>41.7313</v>
       </c>
       <c r="D5" t="n">
-        <v>57.8508</v>
+        <v>60.6764</v>
       </c>
       <c r="E5" t="n">
-        <v>70.79559999999999</v>
+        <v>75.4277</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>41.4368</v>
+        <v>38.41</v>
       </c>
       <c r="C6" t="n">
-        <v>38.8127</v>
+        <v>34.6526</v>
       </c>
       <c r="D6" t="n">
-        <v>60.032</v>
+        <v>56.1517</v>
       </c>
       <c r="E6" t="n">
-        <v>67.62139999999999</v>
+        <v>67.4144</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.9506</v>
+        <v>41.4888</v>
       </c>
       <c r="C7" t="n">
-        <v>39.9597</v>
+        <v>38.5897</v>
       </c>
       <c r="D7" t="n">
-        <v>54.4318</v>
+        <v>53.594</v>
       </c>
       <c r="E7" t="n">
-        <v>61.2941</v>
+        <v>65.2435</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>44.6562</v>
+        <v>41.6654</v>
       </c>
       <c r="C8" t="n">
-        <v>39.2256</v>
+        <v>34.9696</v>
       </c>
       <c r="D8" t="n">
-        <v>51.255</v>
+        <v>51.7264</v>
       </c>
       <c r="E8" t="n">
-        <v>68.8532</v>
+        <v>62.804</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.7562</v>
+        <v>46.2886</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1175</v>
+        <v>41.2909</v>
       </c>
       <c r="D9" t="n">
-        <v>53.2195</v>
+        <v>46.9651</v>
       </c>
       <c r="E9" t="n">
-        <v>76.1033</v>
+        <v>60.5479</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.0173</v>
+        <v>45.8773</v>
       </c>
       <c r="C10" t="n">
-        <v>39.2242</v>
+        <v>36.8037</v>
       </c>
       <c r="D10" t="n">
-        <v>52.2562</v>
+        <v>49.8654</v>
       </c>
       <c r="E10" t="n">
-        <v>68.8056</v>
+        <v>69.3283</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>43.9454</v>
+        <v>42.7828</v>
       </c>
       <c r="C11" t="n">
-        <v>43.0256</v>
+        <v>38.9344</v>
       </c>
       <c r="D11" t="n">
-        <v>50.6954</v>
+        <v>52.9083</v>
       </c>
       <c r="E11" t="n">
-        <v>69.3175</v>
+        <v>69.44929999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.2015</v>
+        <v>41.4116</v>
       </c>
       <c r="C12" t="n">
-        <v>41.8306</v>
+        <v>47.0093</v>
       </c>
       <c r="D12" t="n">
-        <v>50.285</v>
+        <v>51.2495</v>
       </c>
       <c r="E12" t="n">
-        <v>78.53060000000001</v>
+        <v>63.917</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.0427</v>
+        <v>40.7169</v>
       </c>
       <c r="C13" t="n">
-        <v>46.121</v>
+        <v>39.761</v>
       </c>
       <c r="D13" t="n">
-        <v>45.0933</v>
+        <v>50.5095</v>
       </c>
       <c r="E13" t="n">
-        <v>64.8186</v>
+        <v>61.8815</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.2861</v>
+        <v>42.3847</v>
       </c>
       <c r="C14" t="n">
-        <v>41.1077</v>
+        <v>48.1237</v>
       </c>
       <c r="D14" t="n">
-        <v>51.426</v>
+        <v>51.1033</v>
       </c>
       <c r="E14" t="n">
-        <v>70.7851</v>
+        <v>62.2151</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>48.9339</v>
+        <v>43.1361</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1157</v>
+        <v>44.7075</v>
       </c>
       <c r="D15" t="n">
-        <v>55.1739</v>
+        <v>53.8849</v>
       </c>
       <c r="E15" t="n">
-        <v>66.38720000000001</v>
+        <v>67.8759</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.6161</v>
+        <v>39.0985</v>
       </c>
       <c r="C16" t="n">
-        <v>47.2193</v>
+        <v>40.1597</v>
       </c>
       <c r="D16" t="n">
-        <v>54.6053</v>
+        <v>55.2707</v>
       </c>
       <c r="E16" t="n">
-        <v>68.88849999999999</v>
+        <v>59.3752</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.1471</v>
+        <v>42.8426</v>
       </c>
       <c r="C17" t="n">
-        <v>40.1451</v>
+        <v>45.7532</v>
       </c>
       <c r="D17" t="n">
-        <v>53.8095</v>
+        <v>46.6598</v>
       </c>
       <c r="E17" t="n">
-        <v>65.7222</v>
+        <v>75.5513</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.3652</v>
+        <v>18.2919</v>
       </c>
       <c r="C2" t="n">
-        <v>19.9494</v>
+        <v>19.7429</v>
       </c>
       <c r="D2" t="n">
-        <v>28.2317</v>
+        <v>27.6302</v>
       </c>
       <c r="E2" t="n">
-        <v>28.5926</v>
+        <v>33.9042</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29.5322</v>
+        <v>29.6836</v>
       </c>
       <c r="C3" t="n">
-        <v>32.7662</v>
+        <v>31.6283</v>
       </c>
       <c r="D3" t="n">
-        <v>38.5422</v>
+        <v>39.9401</v>
       </c>
       <c r="E3" t="n">
-        <v>53.5601</v>
+        <v>48.3485</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5493</v>
+        <v>34.4448</v>
       </c>
       <c r="C4" t="n">
-        <v>34.0209</v>
+        <v>35.3282</v>
       </c>
       <c r="D4" t="n">
-        <v>48.4288</v>
+        <v>50.6273</v>
       </c>
       <c r="E4" t="n">
-        <v>76.37569999999999</v>
+        <v>64.23009999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>47.1128</v>
+        <v>48.3388</v>
       </c>
       <c r="C5" t="n">
-        <v>50.2819</v>
+        <v>50.1913</v>
       </c>
       <c r="D5" t="n">
-        <v>70.6514</v>
+        <v>55.9364</v>
       </c>
       <c r="E5" t="n">
-        <v>78.9738</v>
+        <v>82.14319999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.4705</v>
+        <v>45.0919</v>
       </c>
       <c r="C6" t="n">
-        <v>38.7314</v>
+        <v>37.7483</v>
       </c>
       <c r="D6" t="n">
-        <v>53.4208</v>
+        <v>54.2756</v>
       </c>
       <c r="E6" t="n">
-        <v>64.4588</v>
+        <v>60.4474</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47.4791</v>
+        <v>47.1814</v>
       </c>
       <c r="C7" t="n">
-        <v>31.8069</v>
+        <v>39.317</v>
       </c>
       <c r="D7" t="n">
-        <v>54.6175</v>
+        <v>53.0119</v>
       </c>
       <c r="E7" t="n">
-        <v>79.0348</v>
+        <v>74.84139999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48.8763</v>
+        <v>49.8732</v>
       </c>
       <c r="C8" t="n">
-        <v>38.046</v>
+        <v>37.5052</v>
       </c>
       <c r="D8" t="n">
-        <v>51.3469</v>
+        <v>50.3642</v>
       </c>
       <c r="E8" t="n">
-        <v>59.8306</v>
+        <v>56.6273</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>50.1343</v>
+        <v>46.7787</v>
       </c>
       <c r="C9" t="n">
-        <v>32.9517</v>
+        <v>30.7412</v>
       </c>
       <c r="D9" t="n">
-        <v>53.0855</v>
+        <v>54.8576</v>
       </c>
       <c r="E9" t="n">
-        <v>67.40470000000001</v>
+        <v>60.9624</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.4236</v>
+        <v>47.0814</v>
       </c>
       <c r="C10" t="n">
-        <v>38.3358</v>
+        <v>35.1005</v>
       </c>
       <c r="D10" t="n">
-        <v>49.6196</v>
+        <v>53.8753</v>
       </c>
       <c r="E10" t="n">
-        <v>63.6323</v>
+        <v>55.3938</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>50.3929</v>
+        <v>49.3957</v>
       </c>
       <c r="C11" t="n">
-        <v>38.007</v>
+        <v>41.4296</v>
       </c>
       <c r="D11" t="n">
-        <v>52.544</v>
+        <v>54.8366</v>
       </c>
       <c r="E11" t="n">
-        <v>60.6846</v>
+        <v>57.3718</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.7599</v>
+        <v>51.384</v>
       </c>
       <c r="C12" t="n">
-        <v>39.0359</v>
+        <v>36.8377</v>
       </c>
       <c r="D12" t="n">
-        <v>55.2806</v>
+        <v>53.4612</v>
       </c>
       <c r="E12" t="n">
-        <v>64.7625</v>
+        <v>57.3284</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>47.0668</v>
+        <v>51.4087</v>
       </c>
       <c r="C13" t="n">
-        <v>38.8034</v>
+        <v>34.3804</v>
       </c>
       <c r="D13" t="n">
-        <v>53.8846</v>
+        <v>54.4741</v>
       </c>
       <c r="E13" t="n">
-        <v>62.126</v>
+        <v>63.2542</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>49.191</v>
+        <v>46.4209</v>
       </c>
       <c r="C14" t="n">
-        <v>36.299</v>
+        <v>34.2725</v>
       </c>
       <c r="D14" t="n">
-        <v>54.1152</v>
+        <v>53.6135</v>
       </c>
       <c r="E14" t="n">
-        <v>65.95480000000001</v>
+        <v>56.7939</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>47.0955</v>
+        <v>42.601</v>
       </c>
       <c r="C15" t="n">
-        <v>32.8967</v>
+        <v>35.4905</v>
       </c>
       <c r="D15" t="n">
-        <v>56.6508</v>
+        <v>54.0955</v>
       </c>
       <c r="E15" t="n">
-        <v>56.4346</v>
+        <v>55.2789</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>44.0292</v>
+        <v>49.7852</v>
       </c>
       <c r="C16" t="n">
-        <v>35.5117</v>
+        <v>39.7811</v>
       </c>
       <c r="D16" t="n">
-        <v>54.9541</v>
+        <v>56.5303</v>
       </c>
       <c r="E16" t="n">
-        <v>57.9269</v>
+        <v>56.254</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>47.3825</v>
+        <v>52.5061</v>
       </c>
       <c r="C17" t="n">
-        <v>36.5197</v>
+        <v>38.0666</v>
       </c>
       <c r="D17" t="n">
-        <v>55.48</v>
+        <v>46.601</v>
       </c>
       <c r="E17" t="n">
-        <v>57.9341</v>
+        <v>57.901</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87735</v>
+        <v>8.87567</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8645</v>
+        <v>15.8319</v>
       </c>
       <c r="D2" t="n">
-        <v>22.1668</v>
+        <v>22.0428</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2988</v>
+        <v>34.0039</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8126</v>
+        <v>16.7895</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9415</v>
+        <v>27.9735</v>
       </c>
       <c r="D3" t="n">
-        <v>41.798</v>
+        <v>41.4228</v>
       </c>
       <c r="E3" t="n">
-        <v>63.833</v>
+        <v>62.9503</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8378</v>
+        <v>23.841</v>
       </c>
       <c r="C4" t="n">
-        <v>38.4718</v>
+        <v>38.4371</v>
       </c>
       <c r="D4" t="n">
-        <v>58.7966</v>
+        <v>58.0065</v>
       </c>
       <c r="E4" t="n">
-        <v>88.0949</v>
+        <v>86.7556</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.1234</v>
+        <v>31.0876</v>
       </c>
       <c r="C5" t="n">
-        <v>49.0602</v>
+        <v>49.0317</v>
       </c>
       <c r="D5" t="n">
-        <v>77.0039</v>
+        <v>75.17</v>
       </c>
       <c r="E5" t="n">
-        <v>113.033</v>
+        <v>109.204</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4635</v>
+        <v>33.4125</v>
       </c>
       <c r="C6" t="n">
-        <v>42.233</v>
+        <v>42.833</v>
       </c>
       <c r="D6" t="n">
-        <v>68.1768</v>
+        <v>67.4483</v>
       </c>
       <c r="E6" t="n">
-        <v>102.029</v>
+        <v>100.483</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0905</v>
+        <v>36.0535</v>
       </c>
       <c r="C7" t="n">
-        <v>42.4008</v>
+        <v>43.0795</v>
       </c>
       <c r="D7" t="n">
-        <v>67.17740000000001</v>
+        <v>66.0127</v>
       </c>
       <c r="E7" t="n">
-        <v>100.667</v>
+        <v>99.7329</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5575</v>
+        <v>38.4201</v>
       </c>
       <c r="C8" t="n">
-        <v>42.9413</v>
+        <v>43.4607</v>
       </c>
       <c r="D8" t="n">
-        <v>61.5545</v>
+        <v>61.4834</v>
       </c>
       <c r="E8" t="n">
-        <v>100.191</v>
+        <v>98.017</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.6576</v>
+        <v>40.2244</v>
       </c>
       <c r="C9" t="n">
-        <v>42.6626</v>
+        <v>43.5641</v>
       </c>
       <c r="D9" t="n">
-        <v>65.2838</v>
+        <v>63.9935</v>
       </c>
       <c r="E9" t="n">
-        <v>102.006</v>
+        <v>100.804</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.7463</v>
+        <v>40.3382</v>
       </c>
       <c r="C10" t="n">
-        <v>46.9486</v>
+        <v>47.634</v>
       </c>
       <c r="D10" t="n">
-        <v>64.4101</v>
+        <v>63.1227</v>
       </c>
       <c r="E10" t="n">
-        <v>101.275</v>
+        <v>99.4173</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.8843</v>
+        <v>40.6705</v>
       </c>
       <c r="C11" t="n">
-        <v>49.6806</v>
+        <v>50.3014</v>
       </c>
       <c r="D11" t="n">
-        <v>68.0643</v>
+        <v>66.4222</v>
       </c>
       <c r="E11" t="n">
-        <v>104.592</v>
+        <v>101.77</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.7996</v>
+        <v>40.6299</v>
       </c>
       <c r="C12" t="n">
-        <v>50.8418</v>
+        <v>50.8192</v>
       </c>
       <c r="D12" t="n">
-        <v>69.1007</v>
+        <v>67.8092</v>
       </c>
       <c r="E12" t="n">
-        <v>104.705</v>
+        <v>102.326</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.9082</v>
+        <v>40.7146</v>
       </c>
       <c r="C13" t="n">
-        <v>51.501</v>
+        <v>51.6073</v>
       </c>
       <c r="D13" t="n">
-        <v>70.8069</v>
+        <v>70.4528</v>
       </c>
       <c r="E13" t="n">
-        <v>105.779</v>
+        <v>104.517</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.9099</v>
+        <v>40.7074</v>
       </c>
       <c r="C14" t="n">
-        <v>51.5339</v>
+        <v>51.9657</v>
       </c>
       <c r="D14" t="n">
-        <v>71.26860000000001</v>
+        <v>70.1833</v>
       </c>
       <c r="E14" t="n">
-        <v>105.505</v>
+        <v>103.494</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.905</v>
+        <v>40.8991</v>
       </c>
       <c r="C15" t="n">
-        <v>51.6194</v>
+        <v>51.8354</v>
       </c>
       <c r="D15" t="n">
-        <v>72.84990000000001</v>
+        <v>71.92619999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>105.65</v>
+        <v>103.543</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.9452</v>
+        <v>40.7846</v>
       </c>
       <c r="C16" t="n">
-        <v>51.8113</v>
+        <v>51.9953</v>
       </c>
       <c r="D16" t="n">
-        <v>72.7954</v>
+        <v>72.5104</v>
       </c>
       <c r="E16" t="n">
-        <v>106.162</v>
+        <v>103.503</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.9142</v>
+        <v>40.6498</v>
       </c>
       <c r="C17" t="n">
-        <v>51.7385</v>
+        <v>52.1063</v>
       </c>
       <c r="D17" t="n">
-        <v>73.37560000000001</v>
+        <v>72.8177</v>
       </c>
       <c r="E17" t="n">
-        <v>106.136</v>
+        <v>103.175</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.8993</v>
+        <v>8.88219</v>
       </c>
       <c r="C2" t="n">
-        <v>15.9568</v>
+        <v>15.9278</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7573</v>
+        <v>21.6744</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2778</v>
+        <v>33.9547</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.898</v>
+        <v>16.8709</v>
       </c>
       <c r="C3" t="n">
-        <v>28.192</v>
+        <v>28.1842</v>
       </c>
       <c r="D3" t="n">
-        <v>41.2014</v>
+        <v>40.8677</v>
       </c>
       <c r="E3" t="n">
-        <v>64.0517</v>
+        <v>63.0209</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0621</v>
+        <v>24.0472</v>
       </c>
       <c r="C4" t="n">
-        <v>38.9203</v>
+        <v>38.9041</v>
       </c>
       <c r="D4" t="n">
-        <v>58.0531</v>
+        <v>57.125</v>
       </c>
       <c r="E4" t="n">
-        <v>88.54130000000001</v>
+        <v>86.54000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4968</v>
+        <v>31.4437</v>
       </c>
       <c r="C5" t="n">
-        <v>49.6911</v>
+        <v>49.5425</v>
       </c>
       <c r="D5" t="n">
-        <v>75.49420000000001</v>
+        <v>73.9422</v>
       </c>
       <c r="E5" t="n">
-        <v>112.818</v>
+        <v>110.706</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.9629</v>
+        <v>33.8685</v>
       </c>
       <c r="C6" t="n">
-        <v>42.7848</v>
+        <v>43.2264</v>
       </c>
       <c r="D6" t="n">
-        <v>66.99120000000001</v>
+        <v>66.6028</v>
       </c>
       <c r="E6" t="n">
-        <v>104.078</v>
+        <v>101.187</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5753</v>
+        <v>36.6156</v>
       </c>
       <c r="C7" t="n">
-        <v>42.9066</v>
+        <v>43.3735</v>
       </c>
       <c r="D7" t="n">
-        <v>66.76690000000001</v>
+        <v>65.7466</v>
       </c>
       <c r="E7" t="n">
-        <v>101.77</v>
+        <v>100.186</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.0189</v>
+        <v>39.1212</v>
       </c>
       <c r="C8" t="n">
-        <v>43.5024</v>
+        <v>44.1018</v>
       </c>
       <c r="D8" t="n">
-        <v>60.5098</v>
+        <v>60.1845</v>
       </c>
       <c r="E8" t="n">
-        <v>101.069</v>
+        <v>99.0316</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.3207</v>
+        <v>41.2136</v>
       </c>
       <c r="C9" t="n">
-        <v>43.034</v>
+        <v>44.0363</v>
       </c>
       <c r="D9" t="n">
-        <v>64.5719</v>
+        <v>63.3056</v>
       </c>
       <c r="E9" t="n">
-        <v>103.297</v>
+        <v>100.178</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.3665</v>
+        <v>41.2714</v>
       </c>
       <c r="C10" t="n">
-        <v>47.0235</v>
+        <v>47.4716</v>
       </c>
       <c r="D10" t="n">
-        <v>64.21980000000001</v>
+        <v>63.0341</v>
       </c>
       <c r="E10" t="n">
-        <v>103.056</v>
+        <v>101.234</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.4456</v>
+        <v>41.3512</v>
       </c>
       <c r="C11" t="n">
-        <v>50.3701</v>
+        <v>50.9082</v>
       </c>
       <c r="D11" t="n">
-        <v>66.1486</v>
+        <v>66.2658</v>
       </c>
       <c r="E11" t="n">
-        <v>106.212</v>
+        <v>102.857</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.5019</v>
+        <v>41.3924</v>
       </c>
       <c r="C12" t="n">
-        <v>51.5188</v>
+        <v>51.6794</v>
       </c>
       <c r="D12" t="n">
-        <v>67.98520000000001</v>
+        <v>67.9867</v>
       </c>
       <c r="E12" t="n">
-        <v>105.422</v>
+        <v>103.237</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.5501</v>
+        <v>41.386</v>
       </c>
       <c r="C13" t="n">
-        <v>51.9857</v>
+        <v>52.4024</v>
       </c>
       <c r="D13" t="n">
-        <v>70.20099999999999</v>
+        <v>70.2784</v>
       </c>
       <c r="E13" t="n">
-        <v>105.423</v>
+        <v>103.905</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.6058</v>
+        <v>41.5095</v>
       </c>
       <c r="C14" t="n">
-        <v>51.215</v>
+        <v>52.4871</v>
       </c>
       <c r="D14" t="n">
-        <v>70.8296</v>
+        <v>70.3347</v>
       </c>
       <c r="E14" t="n">
-        <v>105.982</v>
+        <v>104.744</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.6294</v>
+        <v>41.5484</v>
       </c>
       <c r="C15" t="n">
-        <v>52.2977</v>
+        <v>52.7002</v>
       </c>
       <c r="D15" t="n">
-        <v>72.8515</v>
+        <v>71.4328</v>
       </c>
       <c r="E15" t="n">
-        <v>107.012</v>
+        <v>105.333</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.6007</v>
+        <v>41.5887</v>
       </c>
       <c r="C16" t="n">
-        <v>51.7828</v>
+        <v>52.3608</v>
       </c>
       <c r="D16" t="n">
-        <v>73.0248</v>
+        <v>70.7478</v>
       </c>
       <c r="E16" t="n">
-        <v>107.086</v>
+        <v>103.604</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.6133</v>
+        <v>41.3946</v>
       </c>
       <c r="C17" t="n">
-        <v>52.5386</v>
+        <v>52.446</v>
       </c>
       <c r="D17" t="n">
-        <v>74.304</v>
+        <v>72.598</v>
       </c>
       <c r="E17" t="n">
-        <v>106.15</v>
+        <v>104.211</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9144</v>
+        <v>13.9327</v>
       </c>
       <c r="C2" t="n">
-        <v>19.7794</v>
+        <v>19.7439</v>
       </c>
       <c r="D2" t="n">
-        <v>29.1634</v>
+        <v>28.9836</v>
       </c>
       <c r="E2" t="n">
-        <v>42.12</v>
+        <v>41.6941</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9098</v>
+        <v>26.8848</v>
       </c>
       <c r="C3" t="n">
-        <v>34.7155</v>
+        <v>34.697</v>
       </c>
       <c r="D3" t="n">
-        <v>53.4451</v>
+        <v>53.2435</v>
       </c>
       <c r="E3" t="n">
-        <v>74.05370000000001</v>
+        <v>72.8282</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.7211</v>
+        <v>38.8751</v>
       </c>
       <c r="C4" t="n">
-        <v>48.1298</v>
+        <v>48.1354</v>
       </c>
       <c r="D4" t="n">
-        <v>74.66160000000001</v>
+        <v>73.83280000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>100.16</v>
+        <v>98.303</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.5921</v>
+        <v>50.4804</v>
       </c>
       <c r="C5" t="n">
-        <v>62.1832</v>
+        <v>61.861</v>
       </c>
       <c r="D5" t="n">
-        <v>96.60809999999999</v>
+        <v>94.9148</v>
       </c>
       <c r="E5" t="n">
-        <v>125.251</v>
+        <v>123.152</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>50.3076</v>
+        <v>50.3635</v>
       </c>
       <c r="C6" t="n">
-        <v>51.081</v>
+        <v>51.5769</v>
       </c>
       <c r="D6" t="n">
-        <v>80.8142</v>
+        <v>80.6908</v>
       </c>
       <c r="E6" t="n">
-        <v>107.425</v>
+        <v>106.764</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>52.2102</v>
+        <v>52.0254</v>
       </c>
       <c r="C7" t="n">
-        <v>49.2318</v>
+        <v>49.2639</v>
       </c>
       <c r="D7" t="n">
-        <v>76.94289999999999</v>
+        <v>76.33369999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>101.477</v>
+        <v>99.78570000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>53.8277</v>
+        <v>53.9268</v>
       </c>
       <c r="C8" t="n">
-        <v>48.6584</v>
+        <v>48.8281</v>
       </c>
       <c r="D8" t="n">
-        <v>65.1324</v>
+        <v>64.76309999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>95.7944</v>
+        <v>94.9991</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.587</v>
+        <v>56.4714</v>
       </c>
       <c r="C9" t="n">
-        <v>47.4072</v>
+        <v>47.7082</v>
       </c>
       <c r="D9" t="n">
-        <v>67.5313</v>
+        <v>66.1713</v>
       </c>
       <c r="E9" t="n">
-        <v>96.96129999999999</v>
+        <v>95.3077</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>56.0289</v>
+        <v>55.3973</v>
       </c>
       <c r="C10" t="n">
-        <v>50.532</v>
+        <v>50.5803</v>
       </c>
       <c r="D10" t="n">
-        <v>62.1478</v>
+        <v>61.9131</v>
       </c>
       <c r="E10" t="n">
-        <v>94.9933</v>
+        <v>93.87909999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>55.5257</v>
+        <v>55.6584</v>
       </c>
       <c r="C11" t="n">
-        <v>53.3028</v>
+        <v>53.1509</v>
       </c>
       <c r="D11" t="n">
-        <v>66.2431</v>
+        <v>66.2495</v>
       </c>
       <c r="E11" t="n">
-        <v>96.69029999999999</v>
+        <v>95.2441</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>55.5822</v>
+        <v>55.8453</v>
       </c>
       <c r="C12" t="n">
-        <v>53.5619</v>
+        <v>53.9079</v>
       </c>
       <c r="D12" t="n">
-        <v>65.97920000000001</v>
+        <v>65.614</v>
       </c>
       <c r="E12" t="n">
-        <v>95.9085</v>
+        <v>94.8244</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>56.1307</v>
+        <v>55.8758</v>
       </c>
       <c r="C13" t="n">
-        <v>53.9041</v>
+        <v>53.9916</v>
       </c>
       <c r="D13" t="n">
-        <v>68.44929999999999</v>
+        <v>67.94629999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>96.9237</v>
+        <v>95.4221</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>55.9064</v>
+        <v>56.2869</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8256</v>
+        <v>54.0705</v>
       </c>
       <c r="D14" t="n">
-        <v>68.1587</v>
+        <v>68.36790000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>96.90560000000001</v>
+        <v>95.97110000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>55.8109</v>
+        <v>56.193</v>
       </c>
       <c r="C15" t="n">
-        <v>54.0946</v>
+        <v>54.1204</v>
       </c>
       <c r="D15" t="n">
-        <v>70.3057</v>
+        <v>69.7717</v>
       </c>
       <c r="E15" t="n">
-        <v>96.8017</v>
+        <v>96.1758</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>55.9059</v>
+        <v>56.438</v>
       </c>
       <c r="C16" t="n">
-        <v>54.1177</v>
+        <v>54.2699</v>
       </c>
       <c r="D16" t="n">
-        <v>69.8613</v>
+        <v>69.88630000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>97.26690000000001</v>
+        <v>95.56180000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>55.5465</v>
+        <v>55.7334</v>
       </c>
       <c r="C17" t="n">
-        <v>54.0288</v>
+        <v>54.2237</v>
       </c>
       <c r="D17" t="n">
-        <v>71.4823</v>
+        <v>71.59569999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>97.8373</v>
+        <v>96.70399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3923</v>
+        <v>14.2011</v>
       </c>
       <c r="C2" t="n">
-        <v>17.242</v>
+        <v>17.4708</v>
       </c>
       <c r="D2" t="n">
-        <v>25.0934</v>
+        <v>24.961</v>
       </c>
       <c r="E2" t="n">
-        <v>30.9112</v>
+        <v>29.9446</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9415</v>
+        <v>27.0916</v>
       </c>
       <c r="C3" t="n">
-        <v>29.0821</v>
+        <v>27.6861</v>
       </c>
       <c r="D3" t="n">
-        <v>34.0355</v>
+        <v>34.7266</v>
       </c>
       <c r="E3" t="n">
-        <v>48.6383</v>
+        <v>51.9146</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.4564</v>
+        <v>30.4312</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6379</v>
+        <v>32.5405</v>
       </c>
       <c r="D4" t="n">
-        <v>49.4183</v>
+        <v>48.6779</v>
       </c>
       <c r="E4" t="n">
-        <v>67.61539999999999</v>
+        <v>66.6711</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.2333</v>
+        <v>44.502</v>
       </c>
       <c r="C5" t="n">
-        <v>41.9685</v>
+        <v>37.157</v>
       </c>
       <c r="D5" t="n">
-        <v>53.741</v>
+        <v>58.0245</v>
       </c>
       <c r="E5" t="n">
-        <v>66.47020000000001</v>
+        <v>70.6031</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.7255</v>
+        <v>38.6659</v>
       </c>
       <c r="C6" t="n">
-        <v>37.0519</v>
+        <v>36.1357</v>
       </c>
       <c r="D6" t="n">
-        <v>49.0394</v>
+        <v>53.5344</v>
       </c>
       <c r="E6" t="n">
-        <v>60.975</v>
+        <v>68.64530000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.0256</v>
+        <v>39.8177</v>
       </c>
       <c r="C7" t="n">
-        <v>40.599</v>
+        <v>38.7082</v>
       </c>
       <c r="D7" t="n">
-        <v>49.5696</v>
+        <v>56.9536</v>
       </c>
       <c r="E7" t="n">
-        <v>69.3279</v>
+        <v>62.8587</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.0049</v>
+        <v>42.6575</v>
       </c>
       <c r="C8" t="n">
-        <v>37.1478</v>
+        <v>39.9197</v>
       </c>
       <c r="D8" t="n">
-        <v>44.7154</v>
+        <v>47.4177</v>
       </c>
       <c r="E8" t="n">
-        <v>64.8158</v>
+        <v>68.06699999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.7225</v>
+        <v>46.5781</v>
       </c>
       <c r="C9" t="n">
-        <v>34.9296</v>
+        <v>38.0594</v>
       </c>
       <c r="D9" t="n">
-        <v>50.799</v>
+        <v>47.3085</v>
       </c>
       <c r="E9" t="n">
-        <v>61.8713</v>
+        <v>67.16679999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.5122</v>
+        <v>40.3032</v>
       </c>
       <c r="C10" t="n">
-        <v>42.9789</v>
+        <v>38.5533</v>
       </c>
       <c r="D10" t="n">
-        <v>48.2888</v>
+        <v>52.505</v>
       </c>
       <c r="E10" t="n">
-        <v>61.3173</v>
+        <v>64.8571</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>38.7434</v>
+        <v>42.7528</v>
       </c>
       <c r="C11" t="n">
-        <v>44.7884</v>
+        <v>43.6234</v>
       </c>
       <c r="D11" t="n">
-        <v>50.5759</v>
+        <v>54.5276</v>
       </c>
       <c r="E11" t="n">
-        <v>59.5907</v>
+        <v>70.517</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.5274</v>
+        <v>45.3198</v>
       </c>
       <c r="C12" t="n">
-        <v>36.4547</v>
+        <v>44.2705</v>
       </c>
       <c r="D12" t="n">
-        <v>51.8214</v>
+        <v>50.1625</v>
       </c>
       <c r="E12" t="n">
-        <v>64.1258</v>
+        <v>62.864</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.0001</v>
+        <v>44.2869</v>
       </c>
       <c r="C13" t="n">
-        <v>40.4228</v>
+        <v>41.2501</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5156</v>
+        <v>56.2295</v>
       </c>
       <c r="E13" t="n">
-        <v>62.6282</v>
+        <v>61.1565</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.2681</v>
+        <v>44.3176</v>
       </c>
       <c r="C14" t="n">
-        <v>39.9018</v>
+        <v>43.6184</v>
       </c>
       <c r="D14" t="n">
-        <v>56.4029</v>
+        <v>52.8194</v>
       </c>
       <c r="E14" t="n">
-        <v>60.6198</v>
+        <v>69.5531</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.3627</v>
+        <v>43.5868</v>
       </c>
       <c r="C15" t="n">
-        <v>36.6957</v>
+        <v>41.6085</v>
       </c>
       <c r="D15" t="n">
-        <v>52.5218</v>
+        <v>55.2424</v>
       </c>
       <c r="E15" t="n">
-        <v>65.4757</v>
+        <v>63.6884</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.5253</v>
+        <v>42.5518</v>
       </c>
       <c r="C16" t="n">
-        <v>43.0539</v>
+        <v>39.7146</v>
       </c>
       <c r="D16" t="n">
-        <v>56.4328</v>
+        <v>52.9074</v>
       </c>
       <c r="E16" t="n">
-        <v>61.5596</v>
+        <v>62.8651</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.5653</v>
+        <v>44.0117</v>
       </c>
       <c r="C17" t="n">
-        <v>37.408</v>
+        <v>39.0604</v>
       </c>
       <c r="D17" t="n">
-        <v>55.505</v>
+        <v>53.9857</v>
       </c>
       <c r="E17" t="n">
-        <v>60.2527</v>
+        <v>65.4905</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8745</v>
+        <v>15.012</v>
       </c>
       <c r="C2" t="n">
-        <v>17.0059</v>
+        <v>17.2293</v>
       </c>
       <c r="D2" t="n">
-        <v>24.6301</v>
+        <v>24.7476</v>
       </c>
       <c r="E2" t="n">
-        <v>28.6709</v>
+        <v>33.1172</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.7626</v>
+        <v>27.2902</v>
       </c>
       <c r="C3" t="n">
-        <v>29.2829</v>
+        <v>29.0839</v>
       </c>
       <c r="D3" t="n">
-        <v>36.1017</v>
+        <v>32.859</v>
       </c>
       <c r="E3" t="n">
-        <v>50.7411</v>
+        <v>49.4984</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.8062</v>
+        <v>33.3584</v>
       </c>
       <c r="C4" t="n">
-        <v>31.4918</v>
+        <v>31.3234</v>
       </c>
       <c r="D4" t="n">
-        <v>46.2677</v>
+        <v>43.7641</v>
       </c>
       <c r="E4" t="n">
-        <v>73.0303</v>
+        <v>72.6754</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.2588</v>
+        <v>46.3177</v>
       </c>
       <c r="C5" t="n">
-        <v>41.7313</v>
+        <v>44.6305</v>
       </c>
       <c r="D5" t="n">
-        <v>60.6764</v>
+        <v>58.6362</v>
       </c>
       <c r="E5" t="n">
-        <v>75.4277</v>
+        <v>71.0981</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.41</v>
+        <v>41.256</v>
       </c>
       <c r="C6" t="n">
-        <v>34.6526</v>
+        <v>38.7432</v>
       </c>
       <c r="D6" t="n">
-        <v>56.1517</v>
+        <v>54.8039</v>
       </c>
       <c r="E6" t="n">
-        <v>67.4144</v>
+        <v>67.852</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.4888</v>
+        <v>46.0148</v>
       </c>
       <c r="C7" t="n">
-        <v>38.5897</v>
+        <v>38.9217</v>
       </c>
       <c r="D7" t="n">
-        <v>53.594</v>
+        <v>54.6864</v>
       </c>
       <c r="E7" t="n">
-        <v>65.2435</v>
+        <v>64.91370000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>41.6654</v>
+        <v>45.2162</v>
       </c>
       <c r="C8" t="n">
-        <v>34.9696</v>
+        <v>41.1298</v>
       </c>
       <c r="D8" t="n">
-        <v>51.7264</v>
+        <v>51.6967</v>
       </c>
       <c r="E8" t="n">
-        <v>62.804</v>
+        <v>63.2452</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>46.2886</v>
+        <v>46.1397</v>
       </c>
       <c r="C9" t="n">
-        <v>41.2909</v>
+        <v>34.5217</v>
       </c>
       <c r="D9" t="n">
-        <v>46.9651</v>
+        <v>55.4385</v>
       </c>
       <c r="E9" t="n">
-        <v>60.5479</v>
+        <v>73.0048</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.8773</v>
+        <v>45.0107</v>
       </c>
       <c r="C10" t="n">
-        <v>36.8037</v>
+        <v>39.2015</v>
       </c>
       <c r="D10" t="n">
-        <v>49.8654</v>
+        <v>48.8388</v>
       </c>
       <c r="E10" t="n">
-        <v>69.3283</v>
+        <v>65.4679</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.7828</v>
+        <v>43.8747</v>
       </c>
       <c r="C11" t="n">
-        <v>38.9344</v>
+        <v>40.8738</v>
       </c>
       <c r="D11" t="n">
-        <v>52.9083</v>
+        <v>51.5309</v>
       </c>
       <c r="E11" t="n">
-        <v>69.44929999999999</v>
+        <v>63.7813</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.4116</v>
+        <v>44.6756</v>
       </c>
       <c r="C12" t="n">
-        <v>47.0093</v>
+        <v>43.5157</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2495</v>
+        <v>49.6211</v>
       </c>
       <c r="E12" t="n">
-        <v>63.917</v>
+        <v>69.1528</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7169</v>
+        <v>40.9838</v>
       </c>
       <c r="C13" t="n">
-        <v>39.761</v>
+        <v>40.1279</v>
       </c>
       <c r="D13" t="n">
-        <v>50.5095</v>
+        <v>50.6403</v>
       </c>
       <c r="E13" t="n">
-        <v>61.8815</v>
+        <v>70.21469999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>42.3847</v>
+        <v>46.6472</v>
       </c>
       <c r="C14" t="n">
-        <v>48.1237</v>
+        <v>43.5745</v>
       </c>
       <c r="D14" t="n">
-        <v>51.1033</v>
+        <v>54.0558</v>
       </c>
       <c r="E14" t="n">
-        <v>62.2151</v>
+        <v>66.5645</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.1361</v>
+        <v>43.8152</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7075</v>
+        <v>44.8383</v>
       </c>
       <c r="D15" t="n">
-        <v>53.8849</v>
+        <v>40.3262</v>
       </c>
       <c r="E15" t="n">
-        <v>67.8759</v>
+        <v>70.2285</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.0985</v>
+        <v>41.5322</v>
       </c>
       <c r="C16" t="n">
-        <v>40.1597</v>
+        <v>40.3227</v>
       </c>
       <c r="D16" t="n">
-        <v>55.2707</v>
+        <v>56.2553</v>
       </c>
       <c r="E16" t="n">
-        <v>59.3752</v>
+        <v>67.8501</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.8426</v>
+        <v>41.8005</v>
       </c>
       <c r="C17" t="n">
-        <v>45.7532</v>
+        <v>41.1914</v>
       </c>
       <c r="D17" t="n">
-        <v>46.6598</v>
+        <v>53.5067</v>
       </c>
       <c r="E17" t="n">
-        <v>75.5513</v>
+        <v>66.57640000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2919</v>
+        <v>18.3304</v>
       </c>
       <c r="C2" t="n">
-        <v>19.7429</v>
+        <v>19.7599</v>
       </c>
       <c r="D2" t="n">
-        <v>27.6302</v>
+        <v>27.733</v>
       </c>
       <c r="E2" t="n">
-        <v>33.9042</v>
+        <v>32.4806</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29.6836</v>
+        <v>29.9084</v>
       </c>
       <c r="C3" t="n">
-        <v>31.6283</v>
+        <v>30.7297</v>
       </c>
       <c r="D3" t="n">
-        <v>39.9401</v>
+        <v>35.2888</v>
       </c>
       <c r="E3" t="n">
-        <v>48.3485</v>
+        <v>47.7984</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.4448</v>
+        <v>31.4594</v>
       </c>
       <c r="C4" t="n">
-        <v>35.3282</v>
+        <v>40.4246</v>
       </c>
       <c r="D4" t="n">
-        <v>50.6273</v>
+        <v>49.4433</v>
       </c>
       <c r="E4" t="n">
-        <v>64.23009999999999</v>
+        <v>74.8984</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48.3388</v>
+        <v>44.6145</v>
       </c>
       <c r="C5" t="n">
-        <v>50.1913</v>
+        <v>48.9523</v>
       </c>
       <c r="D5" t="n">
-        <v>55.9364</v>
+        <v>69.03700000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>82.14319999999999</v>
+        <v>75.5052</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>45.0919</v>
+        <v>49.8368</v>
       </c>
       <c r="C6" t="n">
-        <v>37.7483</v>
+        <v>38.1813</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2756</v>
+        <v>52.0656</v>
       </c>
       <c r="E6" t="n">
-        <v>60.4474</v>
+        <v>66.73180000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47.1814</v>
+        <v>46.2158</v>
       </c>
       <c r="C7" t="n">
-        <v>39.317</v>
+        <v>41.703</v>
       </c>
       <c r="D7" t="n">
-        <v>53.0119</v>
+        <v>57.1912</v>
       </c>
       <c r="E7" t="n">
-        <v>74.84139999999999</v>
+        <v>58.6077</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>49.8732</v>
+        <v>52.4756</v>
       </c>
       <c r="C8" t="n">
-        <v>37.5052</v>
+        <v>41.5059</v>
       </c>
       <c r="D8" t="n">
-        <v>50.3642</v>
+        <v>53.9046</v>
       </c>
       <c r="E8" t="n">
-        <v>56.6273</v>
+        <v>55.8713</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>46.7787</v>
+        <v>50.9362</v>
       </c>
       <c r="C9" t="n">
-        <v>30.7412</v>
+        <v>37.3533</v>
       </c>
       <c r="D9" t="n">
-        <v>54.8576</v>
+        <v>52.3346</v>
       </c>
       <c r="E9" t="n">
-        <v>60.9624</v>
+        <v>58.0873</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>47.0814</v>
+        <v>51.9227</v>
       </c>
       <c r="C10" t="n">
-        <v>35.1005</v>
+        <v>34.0595</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8753</v>
+        <v>51.3003</v>
       </c>
       <c r="E10" t="n">
-        <v>55.3938</v>
+        <v>55.2353</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>49.3957</v>
+        <v>42.9106</v>
       </c>
       <c r="C11" t="n">
-        <v>41.4296</v>
+        <v>35.7354</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8366</v>
+        <v>53.7528</v>
       </c>
       <c r="E11" t="n">
-        <v>57.3718</v>
+        <v>56.4384</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>51.384</v>
+        <v>45.6713</v>
       </c>
       <c r="C12" t="n">
-        <v>36.8377</v>
+        <v>34.7994</v>
       </c>
       <c r="D12" t="n">
-        <v>53.4612</v>
+        <v>52.42</v>
       </c>
       <c r="E12" t="n">
-        <v>57.3284</v>
+        <v>55.4875</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>51.4087</v>
+        <v>49.1447</v>
       </c>
       <c r="C13" t="n">
-        <v>34.3804</v>
+        <v>40.6236</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4741</v>
+        <v>53.5756</v>
       </c>
       <c r="E13" t="n">
-        <v>63.2542</v>
+        <v>56.9295</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46.4209</v>
+        <v>52.0716</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2725</v>
+        <v>37.585</v>
       </c>
       <c r="D14" t="n">
-        <v>53.6135</v>
+        <v>54.3006</v>
       </c>
       <c r="E14" t="n">
-        <v>56.7939</v>
+        <v>56.6242</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>42.601</v>
+        <v>48.2157</v>
       </c>
       <c r="C15" t="n">
-        <v>35.4905</v>
+        <v>37.0546</v>
       </c>
       <c r="D15" t="n">
-        <v>54.0955</v>
+        <v>55.9281</v>
       </c>
       <c r="E15" t="n">
-        <v>55.2789</v>
+        <v>59.347</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>49.7852</v>
+        <v>42.293</v>
       </c>
       <c r="C16" t="n">
-        <v>39.7811</v>
+        <v>38.7769</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5303</v>
+        <v>51.3294</v>
       </c>
       <c r="E16" t="n">
-        <v>56.254</v>
+        <v>57.8769</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.5061</v>
+        <v>50.3052</v>
       </c>
       <c r="C17" t="n">
-        <v>38.0666</v>
+        <v>37.1312</v>
       </c>
       <c r="D17" t="n">
-        <v>46.601</v>
+        <v>51.4474</v>
       </c>
       <c r="E17" t="n">
-        <v>57.901</v>
+        <v>58.5665</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.87567</v>
+        <v>8.877649999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8319</v>
+        <v>15.8584</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0428</v>
+        <v>22.1044</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0039</v>
+        <v>34.0313</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7895</v>
+        <v>16.787</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9735</v>
+        <v>27.8829</v>
       </c>
       <c r="D3" t="n">
-        <v>41.4228</v>
+        <v>41.4928</v>
       </c>
       <c r="E3" t="n">
-        <v>62.9503</v>
+        <v>63.2241</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.841</v>
+        <v>23.8383</v>
       </c>
       <c r="C4" t="n">
-        <v>38.4371</v>
+        <v>38.3203</v>
       </c>
       <c r="D4" t="n">
-        <v>58.0065</v>
+        <v>57.9914</v>
       </c>
       <c r="E4" t="n">
-        <v>86.7556</v>
+        <v>86.5219</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0876</v>
+        <v>31.1618</v>
       </c>
       <c r="C5" t="n">
-        <v>49.0317</v>
+        <v>48.8869</v>
       </c>
       <c r="D5" t="n">
-        <v>75.17</v>
+        <v>75.4631</v>
       </c>
       <c r="E5" t="n">
-        <v>109.204</v>
+        <v>109.595</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.4125</v>
+        <v>33.4985</v>
       </c>
       <c r="C6" t="n">
-        <v>42.833</v>
+        <v>42.194</v>
       </c>
       <c r="D6" t="n">
-        <v>67.4483</v>
+        <v>67.3314</v>
       </c>
       <c r="E6" t="n">
-        <v>100.483</v>
+        <v>100.257</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0535</v>
+        <v>36.0803</v>
       </c>
       <c r="C7" t="n">
-        <v>43.0795</v>
+        <v>42.3189</v>
       </c>
       <c r="D7" t="n">
-        <v>66.0127</v>
+        <v>66.065</v>
       </c>
       <c r="E7" t="n">
-        <v>99.7329</v>
+        <v>99.3569</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.4201</v>
+        <v>38.5536</v>
       </c>
       <c r="C8" t="n">
-        <v>43.4607</v>
+        <v>42.8221</v>
       </c>
       <c r="D8" t="n">
-        <v>61.4834</v>
+        <v>60.51</v>
       </c>
       <c r="E8" t="n">
-        <v>98.017</v>
+        <v>97.5111</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.2244</v>
+        <v>40.5638</v>
       </c>
       <c r="C9" t="n">
-        <v>43.5641</v>
+        <v>42.5936</v>
       </c>
       <c r="D9" t="n">
-        <v>63.9935</v>
+        <v>63.1453</v>
       </c>
       <c r="E9" t="n">
-        <v>100.804</v>
+        <v>100.256</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.3382</v>
+        <v>40.6105</v>
       </c>
       <c r="C10" t="n">
-        <v>47.634</v>
+        <v>47.0041</v>
       </c>
       <c r="D10" t="n">
-        <v>63.1227</v>
+        <v>64.5215</v>
       </c>
       <c r="E10" t="n">
-        <v>99.4173</v>
+        <v>100.427</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.6705</v>
+        <v>40.7233</v>
       </c>
       <c r="C11" t="n">
-        <v>50.3014</v>
+        <v>50.6014</v>
       </c>
       <c r="D11" t="n">
-        <v>66.4222</v>
+        <v>66.5654</v>
       </c>
       <c r="E11" t="n">
-        <v>101.77</v>
+        <v>102.613</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.6299</v>
+        <v>40.6848</v>
       </c>
       <c r="C12" t="n">
-        <v>50.8192</v>
+        <v>50.9853</v>
       </c>
       <c r="D12" t="n">
-        <v>67.8092</v>
+        <v>67.9104</v>
       </c>
       <c r="E12" t="n">
-        <v>102.326</v>
+        <v>102.017</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.7146</v>
+        <v>40.7109</v>
       </c>
       <c r="C13" t="n">
-        <v>51.6073</v>
+        <v>51.6839</v>
       </c>
       <c r="D13" t="n">
-        <v>70.4528</v>
+        <v>70.02970000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>104.517</v>
+        <v>103.021</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.7074</v>
+        <v>40.7733</v>
       </c>
       <c r="C14" t="n">
-        <v>51.9657</v>
+        <v>51.5475</v>
       </c>
       <c r="D14" t="n">
-        <v>70.1833</v>
+        <v>70.2774</v>
       </c>
       <c r="E14" t="n">
-        <v>103.494</v>
+        <v>102.26</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.8991</v>
+        <v>40.8723</v>
       </c>
       <c r="C15" t="n">
-        <v>51.8354</v>
+        <v>51.372</v>
       </c>
       <c r="D15" t="n">
-        <v>71.92619999999999</v>
+        <v>71.92740000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>103.543</v>
+        <v>103.165</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.7846</v>
+        <v>40.7581</v>
       </c>
       <c r="C16" t="n">
-        <v>51.9953</v>
+        <v>51.705</v>
       </c>
       <c r="D16" t="n">
-        <v>72.5104</v>
+        <v>71.4712</v>
       </c>
       <c r="E16" t="n">
-        <v>103.503</v>
+        <v>102.72</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.6498</v>
+        <v>40.8429</v>
       </c>
       <c r="C17" t="n">
-        <v>52.1063</v>
+        <v>52.0265</v>
       </c>
       <c r="D17" t="n">
-        <v>72.8177</v>
+        <v>73.26600000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>103.175</v>
+        <v>103.416</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.88219</v>
+        <v>8.8919</v>
       </c>
       <c r="C2" t="n">
-        <v>15.9278</v>
+        <v>15.9493</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6744</v>
+        <v>21.7518</v>
       </c>
       <c r="E2" t="n">
-        <v>33.9547</v>
+        <v>34.0289</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8709</v>
+        <v>16.8724</v>
       </c>
       <c r="C3" t="n">
-        <v>28.1842</v>
+        <v>28.0824</v>
       </c>
       <c r="D3" t="n">
-        <v>40.8677</v>
+        <v>40.8784</v>
       </c>
       <c r="E3" t="n">
-        <v>63.0209</v>
+        <v>63.0907</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.0472</v>
+        <v>24.0388</v>
       </c>
       <c r="C4" t="n">
-        <v>38.9041</v>
+        <v>38.6566</v>
       </c>
       <c r="D4" t="n">
-        <v>57.125</v>
+        <v>57.2697</v>
       </c>
       <c r="E4" t="n">
-        <v>86.54000000000001</v>
+        <v>86.4821</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4437</v>
+        <v>31.5177</v>
       </c>
       <c r="C5" t="n">
-        <v>49.5425</v>
+        <v>49.389</v>
       </c>
       <c r="D5" t="n">
-        <v>73.9422</v>
+        <v>74.16849999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>110.706</v>
+        <v>110.915</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.8685</v>
+        <v>33.9598</v>
       </c>
       <c r="C6" t="n">
-        <v>43.2264</v>
+        <v>42.622</v>
       </c>
       <c r="D6" t="n">
-        <v>66.6028</v>
+        <v>66.407</v>
       </c>
       <c r="E6" t="n">
-        <v>101.187</v>
+        <v>101.108</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.6156</v>
+        <v>36.3879</v>
       </c>
       <c r="C7" t="n">
-        <v>43.3735</v>
+        <v>42.7569</v>
       </c>
       <c r="D7" t="n">
-        <v>65.7466</v>
+        <v>65.15989999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>100.186</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.1212</v>
+        <v>39.0395</v>
       </c>
       <c r="C8" t="n">
-        <v>44.1018</v>
+        <v>43.2062</v>
       </c>
       <c r="D8" t="n">
-        <v>60.1845</v>
+        <v>61.169</v>
       </c>
       <c r="E8" t="n">
-        <v>99.0316</v>
+        <v>98.9988</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.2136</v>
+        <v>41.0939</v>
       </c>
       <c r="C9" t="n">
-        <v>44.0363</v>
+        <v>43.039</v>
       </c>
       <c r="D9" t="n">
-        <v>63.3056</v>
+        <v>63.0498</v>
       </c>
       <c r="E9" t="n">
-        <v>100.178</v>
+        <v>100.198</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.2714</v>
+        <v>41.0859</v>
       </c>
       <c r="C10" t="n">
-        <v>47.4716</v>
+        <v>47.9982</v>
       </c>
       <c r="D10" t="n">
-        <v>63.0341</v>
+        <v>62.169</v>
       </c>
       <c r="E10" t="n">
-        <v>101.234</v>
+        <v>100.609</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.3512</v>
+        <v>41.2579</v>
       </c>
       <c r="C11" t="n">
-        <v>50.9082</v>
+        <v>50.9168</v>
       </c>
       <c r="D11" t="n">
-        <v>66.2658</v>
+        <v>66.4203</v>
       </c>
       <c r="E11" t="n">
-        <v>102.857</v>
+        <v>104.073</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.3924</v>
+        <v>41.4271</v>
       </c>
       <c r="C12" t="n">
-        <v>51.6794</v>
+        <v>50.4377</v>
       </c>
       <c r="D12" t="n">
-        <v>67.9867</v>
+        <v>67.80800000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>103.237</v>
+        <v>103.207</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.386</v>
+        <v>41.5533</v>
       </c>
       <c r="C13" t="n">
-        <v>52.4024</v>
+        <v>52.4625</v>
       </c>
       <c r="D13" t="n">
-        <v>70.2784</v>
+        <v>69.3172</v>
       </c>
       <c r="E13" t="n">
-        <v>103.905</v>
+        <v>104.023</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.5095</v>
+        <v>41.3839</v>
       </c>
       <c r="C14" t="n">
-        <v>52.4871</v>
+        <v>52.2687</v>
       </c>
       <c r="D14" t="n">
-        <v>70.3347</v>
+        <v>70.59910000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>104.744</v>
+        <v>104.167</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.5484</v>
+        <v>41.5161</v>
       </c>
       <c r="C15" t="n">
-        <v>52.7002</v>
+        <v>51.9898</v>
       </c>
       <c r="D15" t="n">
-        <v>71.4328</v>
+        <v>72.2311</v>
       </c>
       <c r="E15" t="n">
-        <v>105.333</v>
+        <v>104.314</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.5887</v>
+        <v>41.303</v>
       </c>
       <c r="C16" t="n">
-        <v>52.3608</v>
+        <v>51.9056</v>
       </c>
       <c r="D16" t="n">
-        <v>70.7478</v>
+        <v>71.7569</v>
       </c>
       <c r="E16" t="n">
-        <v>103.604</v>
+        <v>103.68</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.3946</v>
+        <v>41.4729</v>
       </c>
       <c r="C17" t="n">
-        <v>52.446</v>
+        <v>52.5176</v>
       </c>
       <c r="D17" t="n">
-        <v>72.598</v>
+        <v>72.6489</v>
       </c>
       <c r="E17" t="n">
-        <v>104.211</v>
+        <v>103.687</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.9327</v>
+        <v>13.8844</v>
       </c>
       <c r="C2" t="n">
-        <v>19.7439</v>
+        <v>19.7795</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9836</v>
+        <v>29.0705</v>
       </c>
       <c r="E2" t="n">
-        <v>41.6941</v>
+        <v>41.678</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.8848</v>
+        <v>26.8282</v>
       </c>
       <c r="C3" t="n">
-        <v>34.697</v>
+        <v>34.4869</v>
       </c>
       <c r="D3" t="n">
-        <v>53.2435</v>
+        <v>53.1692</v>
       </c>
       <c r="E3" t="n">
-        <v>72.8282</v>
+        <v>72.79049999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>38.8751</v>
+        <v>38.6686</v>
       </c>
       <c r="C4" t="n">
-        <v>48.1354</v>
+        <v>47.5996</v>
       </c>
       <c r="D4" t="n">
-        <v>73.83280000000001</v>
+        <v>74.16200000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>98.303</v>
+        <v>98.09399999999999</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>50.4804</v>
+        <v>50.5802</v>
       </c>
       <c r="C5" t="n">
-        <v>61.861</v>
+        <v>61.2767</v>
       </c>
       <c r="D5" t="n">
-        <v>94.9148</v>
+        <v>95.4666</v>
       </c>
       <c r="E5" t="n">
-        <v>123.152</v>
+        <v>124.002</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>50.3635</v>
+        <v>50.2788</v>
       </c>
       <c r="C6" t="n">
-        <v>51.5769</v>
+        <v>51.1363</v>
       </c>
       <c r="D6" t="n">
-        <v>80.6908</v>
+        <v>81.0848</v>
       </c>
       <c r="E6" t="n">
-        <v>106.764</v>
+        <v>106.163</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>52.0254</v>
+        <v>52.1483</v>
       </c>
       <c r="C7" t="n">
-        <v>49.2639</v>
+        <v>49.3435</v>
       </c>
       <c r="D7" t="n">
-        <v>76.33369999999999</v>
+        <v>75.7958</v>
       </c>
       <c r="E7" t="n">
-        <v>99.78570000000001</v>
+        <v>99.70869999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>53.9268</v>
+        <v>53.677</v>
       </c>
       <c r="C8" t="n">
-        <v>48.8281</v>
+        <v>48.6057</v>
       </c>
       <c r="D8" t="n">
-        <v>64.76309999999999</v>
+        <v>65.4451</v>
       </c>
       <c r="E8" t="n">
-        <v>94.9991</v>
+        <v>94.8599</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.4714</v>
+        <v>56.3696</v>
       </c>
       <c r="C9" t="n">
-        <v>47.7082</v>
+        <v>47.5329</v>
       </c>
       <c r="D9" t="n">
-        <v>66.1713</v>
+        <v>66.57899999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>95.3077</v>
+        <v>95.9606</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>55.3973</v>
+        <v>55.9707</v>
       </c>
       <c r="C10" t="n">
-        <v>50.5803</v>
+        <v>50.8605</v>
       </c>
       <c r="D10" t="n">
-        <v>61.9131</v>
+        <v>61.5042</v>
       </c>
       <c r="E10" t="n">
-        <v>93.87909999999999</v>
+        <v>93.5528</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>55.6584</v>
+        <v>55.5633</v>
       </c>
       <c r="C11" t="n">
-        <v>53.1509</v>
+        <v>53.313</v>
       </c>
       <c r="D11" t="n">
-        <v>66.2495</v>
+        <v>68.3424</v>
       </c>
       <c r="E11" t="n">
-        <v>95.2441</v>
+        <v>96.9485</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>55.8453</v>
+        <v>56.2032</v>
       </c>
       <c r="C12" t="n">
-        <v>53.9079</v>
+        <v>53.8791</v>
       </c>
       <c r="D12" t="n">
-        <v>65.614</v>
+        <v>64.80540000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>94.8244</v>
+        <v>95.0287</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>55.8758</v>
+        <v>55.8154</v>
       </c>
       <c r="C13" t="n">
-        <v>53.9916</v>
+        <v>53.675</v>
       </c>
       <c r="D13" t="n">
-        <v>67.94629999999999</v>
+        <v>68.91200000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>95.4221</v>
+        <v>95.93300000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>56.2869</v>
+        <v>55.8679</v>
       </c>
       <c r="C14" t="n">
-        <v>54.0705</v>
+        <v>53.8994</v>
       </c>
       <c r="D14" t="n">
-        <v>68.36790000000001</v>
+        <v>67.8878</v>
       </c>
       <c r="E14" t="n">
-        <v>95.97110000000001</v>
+        <v>94.90349999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>56.193</v>
+        <v>56.2277</v>
       </c>
       <c r="C15" t="n">
-        <v>54.1204</v>
+        <v>54.0275</v>
       </c>
       <c r="D15" t="n">
-        <v>69.7717</v>
+        <v>70.4268</v>
       </c>
       <c r="E15" t="n">
-        <v>96.1758</v>
+        <v>96.29989999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>56.438</v>
+        <v>56.0286</v>
       </c>
       <c r="C16" t="n">
-        <v>54.2699</v>
+        <v>54.1129</v>
       </c>
       <c r="D16" t="n">
-        <v>69.88630000000001</v>
+        <v>69.85080000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56180000000001</v>
+        <v>95.9268</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>55.7334</v>
+        <v>56.2497</v>
       </c>
       <c r="C17" t="n">
-        <v>54.2237</v>
+        <v>54.0448</v>
       </c>
       <c r="D17" t="n">
-        <v>71.59569999999999</v>
+        <v>70.6708</v>
       </c>
       <c r="E17" t="n">
-        <v>96.70399999999999</v>
+        <v>96.31059999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.0956</v>
+        <v>14.1386</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9045</v>
+        <v>18.778</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9127</v>
+        <v>25.0404</v>
       </c>
       <c r="E2" t="n">
-        <v>30.6026</v>
+        <v>31.4243</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.183</v>
+        <v>26.9732</v>
       </c>
       <c r="C3" t="n">
-        <v>32.3905</v>
+        <v>30.6801</v>
       </c>
       <c r="D3" t="n">
-        <v>38.4633</v>
+        <v>36.5636</v>
       </c>
       <c r="E3" t="n">
-        <v>52.1418</v>
+        <v>53.9623</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.1033</v>
+        <v>30.5449</v>
       </c>
       <c r="C4" t="n">
-        <v>35.0436</v>
+        <v>33.6293</v>
       </c>
       <c r="D4" t="n">
-        <v>53.747</v>
+        <v>50.16</v>
       </c>
       <c r="E4" t="n">
-        <v>70.5282</v>
+        <v>60.1786</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>38.4162</v>
+        <v>43.0479</v>
       </c>
       <c r="C5" t="n">
-        <v>52.657</v>
+        <v>58.0839</v>
       </c>
       <c r="D5" t="n">
-        <v>57.7935</v>
+        <v>61.1748</v>
       </c>
       <c r="E5" t="n">
-        <v>78.58069999999999</v>
+        <v>71.68170000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40.6238</v>
+        <v>39.6123</v>
       </c>
       <c r="C6" t="n">
-        <v>45.2884</v>
+        <v>45.5631</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2725</v>
+        <v>50.6241</v>
       </c>
       <c r="E6" t="n">
-        <v>75.0625</v>
+        <v>63.2961</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47.6316</v>
+        <v>42.2053</v>
       </c>
       <c r="C7" t="n">
-        <v>42.6867</v>
+        <v>39.6842</v>
       </c>
       <c r="D7" t="n">
-        <v>52.0394</v>
+        <v>60.6806</v>
       </c>
       <c r="E7" t="n">
-        <v>74.50709999999999</v>
+        <v>69.7954</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.9092</v>
+        <v>43.2133</v>
       </c>
       <c r="C8" t="n">
-        <v>47.3164</v>
+        <v>39.7589</v>
       </c>
       <c r="D8" t="n">
-        <v>49.9373</v>
+        <v>49.1955</v>
       </c>
       <c r="E8" t="n">
-        <v>63.4595</v>
+        <v>63.0817</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.6999</v>
+        <v>43.6062</v>
       </c>
       <c r="C9" t="n">
-        <v>41.2472</v>
+        <v>35.7637</v>
       </c>
       <c r="D9" t="n">
-        <v>48.6282</v>
+        <v>43.7663</v>
       </c>
       <c r="E9" t="n">
-        <v>66.1519</v>
+        <v>62.3259</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.642</v>
+        <v>41.7371</v>
       </c>
       <c r="C10" t="n">
-        <v>43.4995</v>
+        <v>40.6897</v>
       </c>
       <c r="D10" t="n">
-        <v>48.5229</v>
+        <v>48.1067</v>
       </c>
       <c r="E10" t="n">
-        <v>66.11320000000001</v>
+        <v>70.3171</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.8303</v>
+        <v>41.654</v>
       </c>
       <c r="C11" t="n">
-        <v>41.2884</v>
+        <v>39.283</v>
       </c>
       <c r="D11" t="n">
-        <v>53.842</v>
+        <v>54.5628</v>
       </c>
       <c r="E11" t="n">
-        <v>65.7024</v>
+        <v>68.9802</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.5995</v>
+        <v>40.7577</v>
       </c>
       <c r="C12" t="n">
-        <v>44.0488</v>
+        <v>43.2131</v>
       </c>
       <c r="D12" t="n">
-        <v>52.076</v>
+        <v>53.4759</v>
       </c>
       <c r="E12" t="n">
-        <v>66.46810000000001</v>
+        <v>62.2489</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.1154</v>
+        <v>43.2353</v>
       </c>
       <c r="C13" t="n">
-        <v>44.9019</v>
+        <v>46.035</v>
       </c>
       <c r="D13" t="n">
-        <v>54.7434</v>
+        <v>52.052</v>
       </c>
       <c r="E13" t="n">
-        <v>72.73399999999999</v>
+        <v>63.7047</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.0692</v>
+        <v>44.2512</v>
       </c>
       <c r="C14" t="n">
-        <v>46.1954</v>
+        <v>47.3606</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2924</v>
+        <v>57.2974</v>
       </c>
       <c r="E14" t="n">
-        <v>66.22190000000001</v>
+        <v>56.95</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46.0703</v>
+        <v>43.8148</v>
       </c>
       <c r="C15" t="n">
-        <v>43.7204</v>
+        <v>46.3569</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7472</v>
+        <v>42.8769</v>
       </c>
       <c r="E15" t="n">
-        <v>59.5545</v>
+        <v>60.3216</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>42.5222</v>
+        <v>37.4801</v>
       </c>
       <c r="C16" t="n">
-        <v>40.4543</v>
+        <v>40.0371</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0459</v>
+        <v>57.7776</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9708</v>
+        <v>69.0752</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.8715</v>
+        <v>43.8302</v>
       </c>
       <c r="C17" t="n">
-        <v>50.7038</v>
+        <v>41.337</v>
       </c>
       <c r="D17" t="n">
-        <v>55.5337</v>
+        <v>58.3732</v>
       </c>
       <c r="E17" t="n">
-        <v>68.13160000000001</v>
+        <v>66.3558</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9595</v>
+        <v>14.8501</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5133</v>
+        <v>18.4676</v>
       </c>
       <c r="D2" t="n">
-        <v>24.4913</v>
+        <v>24.6664</v>
       </c>
       <c r="E2" t="n">
-        <v>29.7809</v>
+        <v>30.8737</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8737</v>
+        <v>27.9608</v>
       </c>
       <c r="C3" t="n">
-        <v>29.784</v>
+        <v>30.838</v>
       </c>
       <c r="D3" t="n">
-        <v>36.0015</v>
+        <v>42.1854</v>
       </c>
       <c r="E3" t="n">
-        <v>50.2331</v>
+        <v>51.168</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.0083</v>
+        <v>33.6362</v>
       </c>
       <c r="C4" t="n">
-        <v>33.4813</v>
+        <v>34.9272</v>
       </c>
       <c r="D4" t="n">
-        <v>48.8029</v>
+        <v>45.4973</v>
       </c>
       <c r="E4" t="n">
-        <v>71.42359999999999</v>
+        <v>67.3879</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>45.5393</v>
+        <v>42.8939</v>
       </c>
       <c r="C5" t="n">
-        <v>50.5358</v>
+        <v>48.7444</v>
       </c>
       <c r="D5" t="n">
-        <v>58.8429</v>
+        <v>63.8747</v>
       </c>
       <c r="E5" t="n">
-        <v>86.6722</v>
+        <v>77.2825</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.1444</v>
+        <v>38.4653</v>
       </c>
       <c r="C6" t="n">
-        <v>46.6397</v>
+        <v>42.0682</v>
       </c>
       <c r="D6" t="n">
-        <v>56.6158</v>
+        <v>60.7489</v>
       </c>
       <c r="E6" t="n">
-        <v>68.1696</v>
+        <v>63.9508</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.9713</v>
+        <v>43.4491</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7485</v>
+        <v>41.3099</v>
       </c>
       <c r="D7" t="n">
-        <v>51.8921</v>
+        <v>50.6356</v>
       </c>
       <c r="E7" t="n">
-        <v>83.05759999999999</v>
+        <v>62.5095</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.2481</v>
+        <v>42.9676</v>
       </c>
       <c r="C8" t="n">
-        <v>39.555</v>
+        <v>42.5723</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4461</v>
+        <v>48.4485</v>
       </c>
       <c r="E8" t="n">
-        <v>65.6413</v>
+        <v>59.1519</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.8963</v>
+        <v>43.203</v>
       </c>
       <c r="C9" t="n">
-        <v>43.6949</v>
+        <v>43.3543</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1967</v>
+        <v>51.4746</v>
       </c>
       <c r="E9" t="n">
-        <v>72.1735</v>
+        <v>66.0234</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.2046</v>
+        <v>44.0349</v>
       </c>
       <c r="C10" t="n">
-        <v>43.5469</v>
+        <v>40.0963</v>
       </c>
       <c r="D10" t="n">
-        <v>52.1406</v>
+        <v>52.0383</v>
       </c>
       <c r="E10" t="n">
-        <v>65.4344</v>
+        <v>73.8635</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>42.259</v>
+        <v>40.6865</v>
       </c>
       <c r="C11" t="n">
-        <v>44.2183</v>
+        <v>39.7338</v>
       </c>
       <c r="D11" t="n">
-        <v>51.8579</v>
+        <v>47.3581</v>
       </c>
       <c r="E11" t="n">
-        <v>65.5676</v>
+        <v>72.35720000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>45.5481</v>
+        <v>39.811</v>
       </c>
       <c r="C12" t="n">
-        <v>45.5714</v>
+        <v>43.2135</v>
       </c>
       <c r="D12" t="n">
-        <v>50.339</v>
+        <v>56.1571</v>
       </c>
       <c r="E12" t="n">
-        <v>73.44459999999999</v>
+        <v>69.2587</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.8586</v>
+        <v>44.0735</v>
       </c>
       <c r="C13" t="n">
-        <v>46.4611</v>
+        <v>40.2145</v>
       </c>
       <c r="D13" t="n">
-        <v>49.1861</v>
+        <v>51.2167</v>
       </c>
       <c r="E13" t="n">
-        <v>87.34050000000001</v>
+        <v>83.4973</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>45.2432</v>
+        <v>46.7497</v>
       </c>
       <c r="C14" t="n">
-        <v>41.887</v>
+        <v>44.1389</v>
       </c>
       <c r="D14" t="n">
-        <v>47.6381</v>
+        <v>55.1553</v>
       </c>
       <c r="E14" t="n">
-        <v>58.8616</v>
+        <v>61.8797</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.441</v>
+        <v>43.2416</v>
       </c>
       <c r="C15" t="n">
-        <v>46.4968</v>
+        <v>45.9848</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2179</v>
+        <v>46.4887</v>
       </c>
       <c r="E15" t="n">
-        <v>66.8248</v>
+        <v>63.8565</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43.7009</v>
+        <v>44.1477</v>
       </c>
       <c r="C16" t="n">
-        <v>49.1624</v>
+        <v>42.534</v>
       </c>
       <c r="D16" t="n">
-        <v>54.6449</v>
+        <v>57.125</v>
       </c>
       <c r="E16" t="n">
-        <v>57.8584</v>
+        <v>67.6121</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>42.086</v>
+        <v>41.5289</v>
       </c>
       <c r="C17" t="n">
-        <v>46.8107</v>
+        <v>40.3062</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1841</v>
+        <v>51.2452</v>
       </c>
       <c r="E17" t="n">
-        <v>60.2203</v>
+        <v>64.7561</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2875</v>
+        <v>18.4407</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5978</v>
+        <v>21.8213</v>
       </c>
       <c r="D2" t="n">
-        <v>27.6628</v>
+        <v>28.2596</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2247</v>
+        <v>30.8165</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>31.5903</v>
+        <v>30.134</v>
       </c>
       <c r="C3" t="n">
-        <v>33.7166</v>
+        <v>29.0747</v>
       </c>
       <c r="D3" t="n">
-        <v>37.4313</v>
+        <v>40.0968</v>
       </c>
       <c r="E3" t="n">
-        <v>51.3231</v>
+        <v>53.7371</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5628</v>
+        <v>31.2482</v>
       </c>
       <c r="C4" t="n">
-        <v>47.8848</v>
+        <v>45.1513</v>
       </c>
       <c r="D4" t="n">
-        <v>51.5718</v>
+        <v>51.1809</v>
       </c>
       <c r="E4" t="n">
-        <v>73.3832</v>
+        <v>57.0762</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.1449</v>
+        <v>42.5533</v>
       </c>
       <c r="C5" t="n">
-        <v>56.4466</v>
+        <v>55.7392</v>
       </c>
       <c r="D5" t="n">
-        <v>57.7131</v>
+        <v>65.3929</v>
       </c>
       <c r="E5" t="n">
-        <v>80.4243</v>
+        <v>74.9855</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44.4176</v>
+        <v>43.9982</v>
       </c>
       <c r="C6" t="n">
-        <v>52.3435</v>
+        <v>48.8939</v>
       </c>
       <c r="D6" t="n">
-        <v>54.885</v>
+        <v>56.6766</v>
       </c>
       <c r="E6" t="n">
-        <v>62.1631</v>
+        <v>71.6861</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.688</v>
+        <v>36.8358</v>
       </c>
       <c r="C7" t="n">
-        <v>46.3299</v>
+        <v>44.8452</v>
       </c>
       <c r="D7" t="n">
-        <v>47.6051</v>
+        <v>54.0837</v>
       </c>
       <c r="E7" t="n">
-        <v>59.7026</v>
+        <v>60.8021</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.3578</v>
+        <v>38.6957</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5321</v>
+        <v>45.6837</v>
       </c>
       <c r="D8" t="n">
-        <v>51.17</v>
+        <v>53.1765</v>
       </c>
       <c r="E8" t="n">
-        <v>72.70610000000001</v>
+        <v>64.5423</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.3827</v>
+        <v>36.9137</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0866</v>
+        <v>40.1083</v>
       </c>
       <c r="D9" t="n">
-        <v>56.4945</v>
+        <v>46.7435</v>
       </c>
       <c r="E9" t="n">
-        <v>60.1044</v>
+        <v>55.2538</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.9278</v>
+        <v>39.5044</v>
       </c>
       <c r="C10" t="n">
-        <v>42.0951</v>
+        <v>38.867</v>
       </c>
       <c r="D10" t="n">
-        <v>49.1358</v>
+        <v>42.8629</v>
       </c>
       <c r="E10" t="n">
-        <v>62.0667</v>
+        <v>56.9691</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.1589</v>
+        <v>40.4473</v>
       </c>
       <c r="C11" t="n">
-        <v>38.1902</v>
+        <v>40.4759</v>
       </c>
       <c r="D11" t="n">
-        <v>53.6116</v>
+        <v>56.5948</v>
       </c>
       <c r="E11" t="n">
-        <v>63.1066</v>
+        <v>57.9313</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>39.2054</v>
+        <v>41.5901</v>
       </c>
       <c r="C12" t="n">
-        <v>39.4523</v>
+        <v>37.3385</v>
       </c>
       <c r="D12" t="n">
-        <v>53.3034</v>
+        <v>52.7907</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3633</v>
+        <v>68.21939999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.4554</v>
+        <v>42.374</v>
       </c>
       <c r="C13" t="n">
-        <v>40.2428</v>
+        <v>37.7183</v>
       </c>
       <c r="D13" t="n">
-        <v>48.2954</v>
+        <v>53.0878</v>
       </c>
       <c r="E13" t="n">
-        <v>57.5424</v>
+        <v>70.9584</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.1886</v>
+        <v>44.0094</v>
       </c>
       <c r="C14" t="n">
-        <v>37.7395</v>
+        <v>40.3185</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6503</v>
+        <v>51.8987</v>
       </c>
       <c r="E14" t="n">
-        <v>50.5288</v>
+        <v>57.1388</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0942</v>
+        <v>41.799</v>
       </c>
       <c r="C15" t="n">
-        <v>38.3687</v>
+        <v>38.2444</v>
       </c>
       <c r="D15" t="n">
-        <v>52.5494</v>
+        <v>54.2306</v>
       </c>
       <c r="E15" t="n">
-        <v>46.0449</v>
+        <v>67.45959999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>39.5085</v>
+        <v>40.6167</v>
       </c>
       <c r="C16" t="n">
-        <v>42.7941</v>
+        <v>38.4736</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0779</v>
+        <v>53.432</v>
       </c>
       <c r="E16" t="n">
-        <v>60.9987</v>
+        <v>62.438</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>39.5107</v>
+        <v>45.8512</v>
       </c>
       <c r="C17" t="n">
-        <v>41.1716</v>
+        <v>40.4057</v>
       </c>
       <c r="D17" t="n">
-        <v>54.549</v>
+        <v>54.584</v>
       </c>
       <c r="E17" t="n">
-        <v>59.3498</v>
+        <v>63.2749</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.83029</v>
+        <v>8.838900000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7456</v>
+        <v>16.738</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0833</v>
+        <v>22.0178</v>
       </c>
       <c r="E2" t="n">
-        <v>33.9908</v>
+        <v>34.0953</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7302</v>
+        <v>16.7511</v>
       </c>
       <c r="C3" t="n">
-        <v>30.2331</v>
+        <v>30.1673</v>
       </c>
       <c r="D3" t="n">
-        <v>41.8517</v>
+        <v>41.683</v>
       </c>
       <c r="E3" t="n">
-        <v>63.7522</v>
+        <v>63.5632</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.7675</v>
+        <v>23.7778</v>
       </c>
       <c r="C4" t="n">
-        <v>41.5631</v>
+        <v>41.6222</v>
       </c>
       <c r="D4" t="n">
-        <v>59.1191</v>
+        <v>58.9299</v>
       </c>
       <c r="E4" t="n">
-        <v>87.8586</v>
+        <v>88.63030000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.0378</v>
+        <v>31.0372</v>
       </c>
       <c r="C5" t="n">
-        <v>52.7986</v>
+        <v>52.7791</v>
       </c>
       <c r="D5" t="n">
-        <v>77.07599999999999</v>
+        <v>76.5329</v>
       </c>
       <c r="E5" t="n">
-        <v>113.584</v>
+        <v>113.215</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.2274</v>
+        <v>33.3683</v>
       </c>
       <c r="C6" t="n">
-        <v>45.3729</v>
+        <v>44.5776</v>
       </c>
       <c r="D6" t="n">
-        <v>69.02889999999999</v>
+        <v>68.7773</v>
       </c>
       <c r="E6" t="n">
-        <v>103.803</v>
+        <v>104.012</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.8329</v>
+        <v>35.8244</v>
       </c>
       <c r="C7" t="n">
-        <v>45.0291</v>
+        <v>44.3241</v>
       </c>
       <c r="D7" t="n">
-        <v>67.93810000000001</v>
+        <v>68.1974</v>
       </c>
       <c r="E7" t="n">
-        <v>102.012</v>
+        <v>102.837</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.1984</v>
+        <v>38.2591</v>
       </c>
       <c r="C8" t="n">
-        <v>45.2261</v>
+        <v>44.4361</v>
       </c>
       <c r="D8" t="n">
-        <v>62.4247</v>
+        <v>62.0481</v>
       </c>
       <c r="E8" t="n">
-        <v>100.285</v>
+        <v>100.666</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.8974</v>
+        <v>39.7736</v>
       </c>
       <c r="C9" t="n">
-        <v>45.5787</v>
+        <v>44.4108</v>
       </c>
       <c r="D9" t="n">
-        <v>64.5727</v>
+        <v>64.12090000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>103.278</v>
+        <v>104.025</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.9537</v>
+        <v>40.061</v>
       </c>
       <c r="C10" t="n">
-        <v>50.1546</v>
+        <v>48.4992</v>
       </c>
       <c r="D10" t="n">
-        <v>64.2046</v>
+        <v>64.7423</v>
       </c>
       <c r="E10" t="n">
-        <v>103.271</v>
+        <v>102.704</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.2165</v>
+        <v>40.4161</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0208</v>
+        <v>50.8691</v>
       </c>
       <c r="D11" t="n">
-        <v>67.803</v>
+        <v>67.7863</v>
       </c>
       <c r="E11" t="n">
-        <v>104.428</v>
+        <v>105.563</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.5621</v>
+        <v>40.5171</v>
       </c>
       <c r="C12" t="n">
-        <v>52.5488</v>
+        <v>52.1708</v>
       </c>
       <c r="D12" t="n">
-        <v>68.78870000000001</v>
+        <v>68.9819</v>
       </c>
       <c r="E12" t="n">
-        <v>105.301</v>
+        <v>103.781</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.5693</v>
+        <v>40.5981</v>
       </c>
       <c r="C13" t="n">
-        <v>52.8735</v>
+        <v>52.6092</v>
       </c>
       <c r="D13" t="n">
-        <v>71.27209999999999</v>
+        <v>70.95</v>
       </c>
       <c r="E13" t="n">
-        <v>105.533</v>
+        <v>105.531</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>40.6018</v>
+        <v>40.5267</v>
       </c>
       <c r="C14" t="n">
-        <v>53.0565</v>
+        <v>53.1278</v>
       </c>
       <c r="D14" t="n">
-        <v>71.3998</v>
+        <v>72.0147</v>
       </c>
       <c r="E14" t="n">
-        <v>106.069</v>
+        <v>106.081</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>40.7235</v>
+        <v>40.6141</v>
       </c>
       <c r="C15" t="n">
-        <v>52.9531</v>
+        <v>52.6026</v>
       </c>
       <c r="D15" t="n">
-        <v>73.4388</v>
+        <v>74.61</v>
       </c>
       <c r="E15" t="n">
-        <v>106.869</v>
+        <v>106.598</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40.6625</v>
+        <v>40.5456</v>
       </c>
       <c r="C16" t="n">
-        <v>53.0157</v>
+        <v>52.8984</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2589</v>
+        <v>72.8019</v>
       </c>
       <c r="E16" t="n">
-        <v>106.083</v>
+        <v>106.623</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40.4927</v>
+        <v>40.5034</v>
       </c>
       <c r="C17" t="n">
-        <v>53.3515</v>
+        <v>53.1163</v>
       </c>
       <c r="D17" t="n">
-        <v>74.8329</v>
+        <v>74.0224</v>
       </c>
       <c r="E17" t="n">
-        <v>107.217</v>
+        <v>107.32</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.854699999999999</v>
+        <v>8.843959999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8531</v>
+        <v>16.8384</v>
       </c>
       <c r="D2" t="n">
-        <v>21.7423</v>
+        <v>21.648</v>
       </c>
       <c r="E2" t="n">
-        <v>34.1121</v>
+        <v>34.1362</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8124</v>
+        <v>16.8228</v>
       </c>
       <c r="C3" t="n">
-        <v>30.4446</v>
+        <v>30.3916</v>
       </c>
       <c r="D3" t="n">
-        <v>41.2655</v>
+        <v>40.9836</v>
       </c>
       <c r="E3" t="n">
-        <v>63.8998</v>
+        <v>63.8737</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9373</v>
+        <v>23.9936</v>
       </c>
       <c r="C4" t="n">
-        <v>42.1339</v>
+        <v>41.9891</v>
       </c>
       <c r="D4" t="n">
-        <v>58.4297</v>
+        <v>58.0697</v>
       </c>
       <c r="E4" t="n">
-        <v>88.8356</v>
+        <v>88.8001</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.3665</v>
+        <v>31.3907</v>
       </c>
       <c r="C5" t="n">
-        <v>53.3609</v>
+        <v>53.4907</v>
       </c>
       <c r="D5" t="n">
-        <v>76.09480000000001</v>
+        <v>75.8021</v>
       </c>
       <c r="E5" t="n">
-        <v>113.345</v>
+        <v>114.436</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.7017</v>
+        <v>33.8105</v>
       </c>
       <c r="C6" t="n">
-        <v>46.0025</v>
+        <v>45.0976</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8583</v>
+        <v>67.7167</v>
       </c>
       <c r="E6" t="n">
-        <v>103.841</v>
+        <v>103.643</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>36.3106</v>
+        <v>36.3208</v>
       </c>
       <c r="C7" t="n">
-        <v>45.6538</v>
+        <v>44.7488</v>
       </c>
       <c r="D7" t="n">
-        <v>67.82089999999999</v>
+        <v>67.1215</v>
       </c>
       <c r="E7" t="n">
-        <v>102.949</v>
+        <v>102.97</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.7582</v>
+        <v>38.803</v>
       </c>
       <c r="C8" t="n">
-        <v>45.787</v>
+        <v>44.7837</v>
       </c>
       <c r="D8" t="n">
-        <v>61.3247</v>
+        <v>62.2434</v>
       </c>
       <c r="E8" t="n">
-        <v>101.481</v>
+        <v>101.117</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>40.4676</v>
+        <v>40.6604</v>
       </c>
       <c r="C9" t="n">
-        <v>45.9035</v>
+        <v>44.8966</v>
       </c>
       <c r="D9" t="n">
-        <v>63.5476</v>
+        <v>62.6989</v>
       </c>
       <c r="E9" t="n">
-        <v>103.507</v>
+        <v>103.78</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6297</v>
+        <v>40.7094</v>
       </c>
       <c r="C10" t="n">
-        <v>49.7044</v>
+        <v>49.4724</v>
       </c>
       <c r="D10" t="n">
-        <v>63.819</v>
+        <v>64.50700000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>104.051</v>
+        <v>104.207</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>40.7273</v>
+        <v>41.0077</v>
       </c>
       <c r="C11" t="n">
-        <v>52.6287</v>
+        <v>52.7231</v>
       </c>
       <c r="D11" t="n">
-        <v>67.6374</v>
+        <v>67.5288</v>
       </c>
       <c r="E11" t="n">
-        <v>105.864</v>
+        <v>105.085</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.1882</v>
+        <v>41.1019</v>
       </c>
       <c r="C12" t="n">
-        <v>53.0386</v>
+        <v>52.0501</v>
       </c>
       <c r="D12" t="n">
-        <v>68.7269</v>
+        <v>68.79730000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>106.497</v>
+        <v>105.903</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.3111</v>
+        <v>41.0872</v>
       </c>
       <c r="C13" t="n">
-        <v>53.6618</v>
+        <v>53.5394</v>
       </c>
       <c r="D13" t="n">
-        <v>70.5711</v>
+        <v>70.639</v>
       </c>
       <c r="E13" t="n">
-        <v>107.2</v>
+        <v>107.561</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41.0901</v>
+        <v>41.2744</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8258</v>
+        <v>53.5084</v>
       </c>
       <c r="D14" t="n">
-        <v>71.1498</v>
+        <v>71.8378</v>
       </c>
       <c r="E14" t="n">
-        <v>107.461</v>
+        <v>107.072</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>41.2584</v>
+        <v>41.1652</v>
       </c>
       <c r="C15" t="n">
-        <v>53.8516</v>
+        <v>53.4758</v>
       </c>
       <c r="D15" t="n">
-        <v>73.50920000000001</v>
+        <v>73.0478</v>
       </c>
       <c r="E15" t="n">
-        <v>108.095</v>
+        <v>107.141</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>41.2425</v>
+        <v>41.1977</v>
       </c>
       <c r="C16" t="n">
-        <v>53.6703</v>
+        <v>53.2134</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2928</v>
+        <v>72.7132</v>
       </c>
       <c r="E16" t="n">
-        <v>107.749</v>
+        <v>107.159</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>41.1673</v>
+        <v>41.1146</v>
       </c>
       <c r="C17" t="n">
-        <v>53.6649</v>
+        <v>53.3651</v>
       </c>
       <c r="D17" t="n">
-        <v>74.244</v>
+        <v>73.3347</v>
       </c>
       <c r="E17" t="n">
-        <v>107.615</v>
+        <v>107.738</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8671</v>
+        <v>13.8337</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5812</v>
+        <v>21.5655</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9882</v>
+        <v>29.0535</v>
       </c>
       <c r="E2" t="n">
-        <v>41.9661</v>
+        <v>42.0688</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5345</v>
+        <v>26.5668</v>
       </c>
       <c r="C3" t="n">
-        <v>38.8633</v>
+        <v>38.8478</v>
       </c>
       <c r="D3" t="n">
-        <v>53.4099</v>
+        <v>53.4248</v>
       </c>
       <c r="E3" t="n">
-        <v>73.8785</v>
+        <v>73.90600000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.9794</v>
+        <v>38.0807</v>
       </c>
       <c r="C4" t="n">
-        <v>53.9883</v>
+        <v>53.9763</v>
       </c>
       <c r="D4" t="n">
-        <v>74.6966</v>
+        <v>74.69589999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>99.6163</v>
+        <v>99.7963</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.2859</v>
+        <v>49.3649</v>
       </c>
       <c r="C5" t="n">
-        <v>69.0269</v>
+        <v>69.7338</v>
       </c>
       <c r="D5" t="n">
-        <v>96.64019999999999</v>
+        <v>96.456</v>
       </c>
       <c r="E5" t="n">
-        <v>126.605</v>
+        <v>126.873</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47.9793</v>
+        <v>47.8672</v>
       </c>
       <c r="C6" t="n">
-        <v>55.9807</v>
+        <v>55.2693</v>
       </c>
       <c r="D6" t="n">
-        <v>82.1387</v>
+        <v>81.2627</v>
       </c>
       <c r="E6" t="n">
-        <v>110.138</v>
+        <v>109.172</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>49.3971</v>
+        <v>49.1074</v>
       </c>
       <c r="C7" t="n">
-        <v>53.0666</v>
+        <v>52.7961</v>
       </c>
       <c r="D7" t="n">
-        <v>77.1464</v>
+        <v>77.0669</v>
       </c>
       <c r="E7" t="n">
-        <v>101.453</v>
+        <v>102.576</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50.9953</v>
+        <v>51.1416</v>
       </c>
       <c r="C8" t="n">
-        <v>51.9909</v>
+        <v>51.6932</v>
       </c>
       <c r="D8" t="n">
-        <v>65.5381</v>
+        <v>65.6407</v>
       </c>
       <c r="E8" t="n">
-        <v>96.5189</v>
+        <v>96.08759999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.5878</v>
+        <v>52.5333</v>
       </c>
       <c r="C9" t="n">
-        <v>50.8674</v>
+        <v>50.4337</v>
       </c>
       <c r="D9" t="n">
-        <v>67.14100000000001</v>
+        <v>67.44499999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>97.3428</v>
+        <v>97.2666</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.317</v>
+        <v>52.2191</v>
       </c>
       <c r="C10" t="n">
-        <v>54.1902</v>
+        <v>53.9658</v>
       </c>
       <c r="D10" t="n">
-        <v>63.1445</v>
+        <v>62.9819</v>
       </c>
       <c r="E10" t="n">
-        <v>95.62649999999999</v>
+        <v>95.31829999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.4214</v>
+        <v>52.3216</v>
       </c>
       <c r="C11" t="n">
-        <v>55.3159</v>
+        <v>55.263</v>
       </c>
       <c r="D11" t="n">
-        <v>66.3762</v>
+        <v>66.74809999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>97.45740000000001</v>
+        <v>96.66670000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52.3603</v>
+        <v>52.0939</v>
       </c>
       <c r="C12" t="n">
-        <v>56.0373</v>
+        <v>55.8785</v>
       </c>
       <c r="D12" t="n">
-        <v>66.6268</v>
+        <v>66.56</v>
       </c>
       <c r="E12" t="n">
-        <v>97.10720000000001</v>
+        <v>96.3763</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.4118</v>
+        <v>51.2003</v>
       </c>
       <c r="C13" t="n">
-        <v>56.0641</v>
+        <v>56.6234</v>
       </c>
       <c r="D13" t="n">
-        <v>69.76900000000001</v>
+        <v>69.09050000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>97.8293</v>
+        <v>97.3573</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>52.4935</v>
+        <v>52.4513</v>
       </c>
       <c r="C14" t="n">
-        <v>56.1905</v>
+        <v>55.9935</v>
       </c>
       <c r="D14" t="n">
-        <v>69.17959999999999</v>
+        <v>68.5454</v>
       </c>
       <c r="E14" t="n">
-        <v>98.07559999999999</v>
+        <v>97.63030000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>52.4722</v>
+        <v>52.2477</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2807</v>
+        <v>55.9564</v>
       </c>
       <c r="D15" t="n">
-        <v>71.3758</v>
+        <v>71.33240000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>98.2022</v>
+        <v>97.6661</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>52.2466</v>
+        <v>52.4867</v>
       </c>
       <c r="C16" t="n">
-        <v>56.3221</v>
+        <v>56.2118</v>
       </c>
       <c r="D16" t="n">
-        <v>71.2628</v>
+        <v>71.02589999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>97.70740000000001</v>
+        <v>98.0369</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>52.2279</v>
+        <v>52.6392</v>
       </c>
       <c r="C17" t="n">
-        <v>56.4465</v>
+        <v>56.1627</v>
       </c>
       <c r="D17" t="n">
-        <v>72.8544</v>
+        <v>72.55629999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>97.72839999999999</v>
+        <v>97.4161</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Parallel workload.xlsx
+++ b/clang-arm64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1386</v>
+        <v>13.9497</v>
       </c>
       <c r="C2" t="n">
-        <v>18.778</v>
+        <v>18.7012</v>
       </c>
       <c r="D2" t="n">
-        <v>25.0404</v>
+        <v>25.2058</v>
       </c>
       <c r="E2" t="n">
-        <v>31.4243</v>
+        <v>28.972</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26.9732</v>
+        <v>26.7363</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6801</v>
+        <v>28.1495</v>
       </c>
       <c r="D3" t="n">
-        <v>36.5636</v>
+        <v>37.5184</v>
       </c>
       <c r="E3" t="n">
-        <v>53.9623</v>
+        <v>51.9496</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.5449</v>
+        <v>29.2456</v>
       </c>
       <c r="C4" t="n">
-        <v>33.6293</v>
+        <v>36.2237</v>
       </c>
       <c r="D4" t="n">
-        <v>50.16</v>
+        <v>47.686</v>
       </c>
       <c r="E4" t="n">
-        <v>60.1786</v>
+        <v>72.9363</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.0479</v>
+        <v>38.4848</v>
       </c>
       <c r="C5" t="n">
-        <v>58.0839</v>
+        <v>51.9705</v>
       </c>
       <c r="D5" t="n">
-        <v>61.1748</v>
+        <v>69.9919</v>
       </c>
       <c r="E5" t="n">
-        <v>71.68170000000001</v>
+        <v>78.6223</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39.6123</v>
+        <v>39.1564</v>
       </c>
       <c r="C6" t="n">
-        <v>45.5631</v>
+        <v>47.707</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6241</v>
+        <v>55.4366</v>
       </c>
       <c r="E6" t="n">
-        <v>63.2961</v>
+        <v>71.625</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42.2053</v>
+        <v>41.2757</v>
       </c>
       <c r="C7" t="n">
-        <v>39.6842</v>
+        <v>41.7422</v>
       </c>
       <c r="D7" t="n">
-        <v>60.6806</v>
+        <v>55.9997</v>
       </c>
       <c r="E7" t="n">
-        <v>69.7954</v>
+        <v>63.3487</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.2133</v>
+        <v>45.4687</v>
       </c>
       <c r="C8" t="n">
-        <v>39.7589</v>
+        <v>42.7803</v>
       </c>
       <c r="D8" t="n">
-        <v>49.1955</v>
+        <v>44.2015</v>
       </c>
       <c r="E8" t="n">
-        <v>63.0817</v>
+        <v>61.2219</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.6062</v>
+        <v>41.9081</v>
       </c>
       <c r="C9" t="n">
-        <v>35.7637</v>
+        <v>46.4721</v>
       </c>
       <c r="D9" t="n">
-        <v>43.7663</v>
+        <v>52.6617</v>
       </c>
       <c r="E9" t="n">
-        <v>62.3259</v>
+        <v>64.45780000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>41.7371</v>
+        <v>40.3757</v>
       </c>
       <c r="C10" t="n">
-        <v>40.6897</v>
+        <v>41.8252</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1067</v>
+        <v>46.6815</v>
       </c>
       <c r="E10" t="n">
-        <v>70.3171</v>
+        <v>59.9563</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>41.654</v>
+        <v>46.2715</v>
       </c>
       <c r="C11" t="n">
-        <v>39.283</v>
+        <v>44.7719</v>
       </c>
       <c r="D11" t="n">
-        <v>54.5628</v>
+        <v>55.8505</v>
       </c>
       <c r="E11" t="n">
-        <v>68.9802</v>
+        <v>63.1075</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>40.7577</v>
+        <v>46.8985</v>
       </c>
       <c r="C12" t="n">
-        <v>43.2131</v>
+        <v>41.4188</v>
       </c>
       <c r="D12" t="n">
-        <v>53.4759</v>
+        <v>55.1171</v>
       </c>
       <c r="E12" t="n">
-        <v>62.2489</v>
+        <v>68.40349999999999</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>43.2353</v>
+        <v>43.4347</v>
       </c>
       <c r="C13" t="n">
-        <v>46.035</v>
+        <v>42.0723</v>
       </c>
       <c r="D13" t="n">
-        <v>52.052</v>
+        <v>58.8192</v>
       </c>
       <c r="E13" t="n">
-        <v>63.7047</v>
+        <v>70.8967</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.2512</v>
+        <v>39.9261</v>
       </c>
       <c r="C14" t="n">
-        <v>47.3606</v>
+        <v>44.5159</v>
       </c>
       <c r="D14" t="n">
-        <v>57.2974</v>
+        <v>55.7666</v>
       </c>
       <c r="E14" t="n">
-        <v>56.95</v>
+        <v>62.9892</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>43.8148</v>
+        <v>43.5316</v>
       </c>
       <c r="C15" t="n">
-        <v>46.3569</v>
+        <v>40.0413</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8769</v>
+        <v>52.4124</v>
       </c>
       <c r="E15" t="n">
-        <v>60.3216</v>
+        <v>65.2073</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.4801</v>
+        <v>41.0911</v>
       </c>
       <c r="C16" t="n">
-        <v>40.0371</v>
+        <v>45.9857</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7776</v>
+        <v>50.5336</v>
       </c>
       <c r="E16" t="n">
-        <v>69.0752</v>
+        <v>63.5636</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43.8302</v>
+        <v>43.735</v>
       </c>
       <c r="C17" t="n">
-        <v>41.337</v>
+        <v>42.817</v>
       </c>
       <c r="D17" t="n">
-        <v>58.3732</v>
+        <v>59.6212</v>
       </c>
       <c r="E17" t="n">
-        <v>66.3558</v>
+        <v>67.8861</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8501</v>
+        <v>14.7495</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4676</v>
+        <v>18.6136</v>
       </c>
       <c r="D2" t="n">
-        <v>24.6664</v>
+        <v>24.6671</v>
       </c>
       <c r="E2" t="n">
-        <v>30.8737</v>
+        <v>34.5369</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.9608</v>
+        <v>27.6241</v>
       </c>
       <c r="C3" t="n">
-        <v>30.838</v>
+        <v>31.3723</v>
       </c>
       <c r="D3" t="n">
-        <v>42.1854</v>
+        <v>35.687</v>
       </c>
       <c r="E3" t="n">
-        <v>51.168</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.6362</v>
+        <v>30.0637</v>
       </c>
       <c r="C4" t="n">
-        <v>34.9272</v>
+        <v>35.4842</v>
       </c>
       <c r="D4" t="n">
-        <v>45.4973</v>
+        <v>46.9919</v>
       </c>
       <c r="E4" t="n">
-        <v>67.3879</v>
+        <v>72.5307</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.8939</v>
+        <v>47.7176</v>
       </c>
       <c r="C5" t="n">
-        <v>48.7444</v>
+        <v>46.3982</v>
       </c>
       <c r="D5" t="n">
-        <v>63.8747</v>
+        <v>57.1712</v>
       </c>
       <c r="E5" t="n">
-        <v>77.2825</v>
+        <v>72.4218</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.4653</v>
+        <v>36.5841</v>
       </c>
       <c r="C6" t="n">
-        <v>42.0682</v>
+        <v>42.7494</v>
       </c>
       <c r="D6" t="n">
-        <v>60.7489</v>
+        <v>55.7686</v>
       </c>
       <c r="E6" t="n">
-        <v>63.9508</v>
+        <v>63.6479</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43.4491</v>
+        <v>44.3874</v>
       </c>
       <c r="C7" t="n">
-        <v>41.3099</v>
+        <v>41.7915</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6356</v>
+        <v>50.1183</v>
       </c>
       <c r="E7" t="n">
-        <v>62.5095</v>
+        <v>78.14619999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42.9676</v>
+        <v>40.3898</v>
       </c>
       <c r="C8" t="n">
-        <v>42.5723</v>
+        <v>38.3318</v>
       </c>
       <c r="D8" t="n">
-        <v>48.4485</v>
+        <v>43.86</v>
       </c>
       <c r="E8" t="n">
-        <v>59.1519</v>
+        <v>65.9106</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5